--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A1F22-D2B0-4CB6-B317-351E41140AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB40B49A-ED80-4D28-88D4-FD6C574F02DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3340" yWindow="10690" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -6290,9 +6290,6 @@
     <t>Terror</t>
   </si>
   <si>
-    <t>Throw Stones</t>
-  </si>
-  <si>
     <t>Timid</t>
   </si>
   <si>
@@ -6409,6 +6406,9 @@
 Should the Hero be removed as a casualty for any reason (such as fleeing or suffering Falling Damage) then their Heroic March and At the Double will immediately be cancelled.
 Models can only ever be affected by one Hero model's At the Double each turn-you can't stack multiple Heroic Marches together!
 If a Hero who shouted At the Double Moves off the board, then any friendly models who are affected by their At the Double may also Move off the board if able; however, if they cannot then they must choose to forego their Activation. If a model is affected by a Hero model's At the Double, then they can only Move off the board if that Hero also does so.</t>
+  </si>
+  <si>
+    <t>Throw Stones (X)</t>
   </si>
 </sst>
 </file>
@@ -43346,7 +43346,7 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="17" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B639" s="17" t="s">
         <v>675</v>
@@ -50872,7 +50872,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50883,8 +50883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14207632-64FF-4339-B88C-C773C3F7D901}">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50925,14 +50925,14 @@
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="19" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -51013,7 +51013,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>79</v>
       </c>
@@ -51051,7 +51051,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>81</v>
       </c>
@@ -51063,7 +51063,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>82</v>
       </c>
@@ -51075,7 +51075,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>106</v>
       </c>
@@ -51089,7 +51089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>113</v>
       </c>
@@ -51103,7 +51103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>83</v>
       </c>
@@ -51115,7 +51115,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>1855</v>
       </c>
@@ -51129,7 +51129,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>84</v>
       </c>
@@ -51141,7 +51141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>87</v>
       </c>
@@ -51153,7 +51153,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>85</v>
       </c>
@@ -51165,7 +51165,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>86</v>
       </c>
@@ -51177,19 +51177,19 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="19" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>1857</v>
       </c>
@@ -51203,7 +51203,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>88</v>
       </c>
@@ -51227,7 +51227,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>89</v>
       </c>
@@ -51239,7 +51239,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>1859</v>
       </c>
@@ -51253,7 +51253,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>114</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>161</v>
       </c>
@@ -51281,7 +51281,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>117</v>
       </c>
@@ -51295,7 +51295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>116</v>
       </c>
@@ -51309,7 +51309,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>90</v>
       </c>
@@ -51321,7 +51321,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>302</v>
       </c>
@@ -51333,7 +51333,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>1861</v>
       </c>
@@ -51347,7 +51347,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>165</v>
       </c>
@@ -51359,7 +51359,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>166</v>
       </c>
@@ -51383,7 +51383,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>290</v>
       </c>
@@ -51397,7 +51397,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>167</v>
       </c>
@@ -51409,7 +51409,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>168</v>
       </c>
@@ -51423,7 +51423,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>288</v>
       </c>
@@ -51437,7 +51437,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>1862</v>
       </c>
@@ -51451,7 +51451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>171</v>
       </c>
@@ -51465,7 +51465,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>122</v>
       </c>
@@ -51477,7 +51477,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>126</v>
       </c>
@@ -51489,31 +51489,31 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="19" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="18" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>124</v>
       </c>
@@ -51525,31 +51525,31 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="19" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="19" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>121</v>
       </c>
@@ -51561,19 +51561,19 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="18" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>125</v>
       </c>
@@ -51585,7 +51585,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>123</v>
       </c>
@@ -51597,7 +51597,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>1864</v>
       </c>
@@ -51611,7 +51611,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>1854</v>
       </c>
@@ -51623,7 +51623,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>1865</v>
       </c>
@@ -51651,7 +51651,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>181</v>
       </c>
@@ -51665,7 +51665,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>183</v>
       </c>
@@ -51679,7 +51679,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>107</v>
       </c>
@@ -51693,7 +51693,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>119</v>
       </c>
@@ -51735,7 +51735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>92</v>
       </c>
@@ -51747,7 +51747,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>93</v>
       </c>
@@ -51759,7 +51759,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>94</v>
       </c>
@@ -51771,7 +51771,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>189</v>
       </c>
@@ -51797,7 +51797,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>294</v>
       </c>
@@ -51811,7 +51811,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>96</v>
       </c>
@@ -51823,7 +51823,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>105</v>
       </c>
@@ -51851,7 +51851,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>128</v>
       </c>
@@ -51865,7 +51865,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>300</v>
       </c>
@@ -51877,7 +51877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>1868</v>
       </c>
@@ -51891,7 +51891,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>1869</v>
       </c>
@@ -51905,7 +51905,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>296</v>
       </c>
@@ -51919,7 +51919,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>97</v>
       </c>
@@ -51931,7 +51931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>1870</v>
       </c>
@@ -51945,7 +51945,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>111</v>
       </c>
@@ -51959,19 +51959,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="19" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>98</v>
       </c>
@@ -51983,7 +51983,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>109</v>
       </c>
@@ -51997,7 +51997,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>110</v>
       </c>
@@ -52011,7 +52011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>1874</v>
       </c>
@@ -52022,10 +52022,10 @@
         <v>132</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>99</v>
       </c>
@@ -52037,7 +52037,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>1875</v>
       </c>
@@ -52048,12 +52048,12 @@
         <v>132</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>1876</v>
+        <v>1906</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>104</v>
@@ -52062,12 +52062,12 @@
         <v>131</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>104</v>
@@ -52076,7 +52076,7 @@
         <v>132</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -52091,7 +52091,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>100</v>
       </c>
@@ -52103,7 +52103,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>298</v>
       </c>
@@ -52117,9 +52117,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>104</v>
@@ -52128,12 +52128,12 @@
         <v>131</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>104</v>
@@ -52142,12 +52142,12 @@
         <v>131</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>104</v>
@@ -52156,10 +52156,10 @@
         <v>132</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>101</v>
       </c>
@@ -52171,9 +52171,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>104</v>
@@ -52182,10 +52182,10 @@
         <v>131</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>103</v>
       </c>
@@ -52197,7 +52197,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>196</v>
       </c>
@@ -52209,7 +52209,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>197</v>
       </c>
@@ -52503,31 +52503,31 @@
       <c r="C149" s="17"/>
       <c r="D149" s="19"/>
     </row>
-    <row r="150" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="19"/>
     </row>
-    <row r="151" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="19"/>
     </row>
-    <row r="152" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="19"/>
     </row>
-    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="19"/>
     </row>
-    <row r="154" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
@@ -52565,10 +52565,10 @@
     <sortCondition ref="A1:A154"/>
   </sortState>
   <conditionalFormatting sqref="A87:A94">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A1048576 A1:A86">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F2D3F-2E21-4364-A8F5-C486E265CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220FF135-2C0C-46C7-ADDA-722C2F4898EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3340" yWindow="10690" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-3340" yWindow="10690" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -9363,11 +9363,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O956"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I503" sqref="I503"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9436,7 +9437,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>138</v>
       </c>
@@ -9479,7 +9480,7 @@
       </c>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>141</v>
       </c>
@@ -9522,7 +9523,7 @@
       </c>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>142</v>
       </c>
@@ -9565,7 +9566,7 @@
       </c>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>143</v>
       </c>
@@ -9608,7 +9609,7 @@
       </c>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>145</v>
       </c>
@@ -9651,7 +9652,7 @@
       </c>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>146</v>
       </c>
@@ -9694,7 +9695,7 @@
       </c>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>147</v>
       </c>
@@ -9737,7 +9738,7 @@
       </c>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>148</v>
       </c>
@@ -9782,7 +9783,7 @@
       </c>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>149</v>
       </c>
@@ -9827,7 +9828,7 @@
       </c>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
@@ -9872,7 +9873,7 @@
       </c>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>245</v>
       </c>
@@ -9915,7 +9916,7 @@
       </c>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>251</v>
       </c>
@@ -9958,7 +9959,7 @@
       </c>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>253</v>
       </c>
@@ -10001,7 +10002,7 @@
       </c>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>255</v>
       </c>
@@ -10044,7 +10045,7 @@
       </c>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>258</v>
       </c>
@@ -10089,7 +10090,7 @@
       </c>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>260</v>
       </c>
@@ -10134,7 +10135,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>262</v>
       </c>
@@ -10179,7 +10180,7 @@
       </c>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>304</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>309</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>316</v>
       </c>
@@ -10312,7 +10313,7 @@
       </c>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>320</v>
       </c>
@@ -10355,7 +10356,7 @@
       </c>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>323</v>
       </c>
@@ -10398,7 +10399,7 @@
       </c>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>326</v>
       </c>
@@ -10441,7 +10442,7 @@
       </c>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>328</v>
       </c>
@@ -10486,7 +10487,7 @@
       </c>
       <c r="O25" s="19"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>330</v>
       </c>
@@ -10531,7 +10532,7 @@
       </c>
       <c r="O26" s="19"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>332</v>
       </c>
@@ -10574,7 +10575,7 @@
       </c>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>352</v>
       </c>
@@ -10617,7 +10618,7 @@
       </c>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>353</v>
       </c>
@@ -10660,7 +10661,7 @@
       </c>
       <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>354</v>
       </c>
@@ -10703,7 +10704,7 @@
       </c>
       <c r="O30" s="19"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>355</v>
       </c>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>358</v>
       </c>
@@ -10789,7 +10790,7 @@
       </c>
       <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>361</v>
       </c>
@@ -10834,7 +10835,7 @@
       </c>
       <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>362</v>
       </c>
@@ -10879,7 +10880,7 @@
       </c>
       <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>363</v>
       </c>
@@ -10922,7 +10923,7 @@
       </c>
       <c r="O35" s="19"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>365</v>
       </c>
@@ -10965,7 +10966,7 @@
       </c>
       <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>368</v>
       </c>
@@ -11008,7 +11009,7 @@
       </c>
       <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>1716</v>
       </c>
@@ -11051,7 +11052,7 @@
       </c>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>370</v>
       </c>
@@ -11094,7 +11095,7 @@
       </c>
       <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>373</v>
       </c>
@@ -11139,7 +11140,7 @@
       </c>
       <c r="O40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>384</v>
       </c>
@@ -11182,7 +11183,7 @@
       </c>
       <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>389</v>
       </c>
@@ -11225,7 +11226,7 @@
       </c>
       <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>391</v>
       </c>
@@ -11268,7 +11269,7 @@
       </c>
       <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>394</v>
       </c>
@@ -11313,7 +11314,7 @@
       </c>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>404</v>
       </c>
@@ -11356,7 +11357,7 @@
       </c>
       <c r="O45" s="19"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>408</v>
       </c>
@@ -11399,7 +11400,7 @@
       </c>
       <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>411</v>
       </c>
@@ -11442,7 +11443,7 @@
       </c>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>413</v>
       </c>
@@ -11485,7 +11486,7 @@
       </c>
       <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>415</v>
       </c>
@@ -11530,7 +11531,7 @@
       </c>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>416</v>
       </c>
@@ -11573,7 +11574,7 @@
       </c>
       <c r="O50" s="19"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>418</v>
       </c>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>501</v>
       </c>
@@ -11659,7 +11660,7 @@
       </c>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>506</v>
       </c>
@@ -11702,7 +11703,7 @@
       </c>
       <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>509</v>
       </c>
@@ -11745,7 +11746,7 @@
       </c>
       <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>511</v>
       </c>
@@ -11788,7 +11789,7 @@
       </c>
       <c r="O55" s="19"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>514</v>
       </c>
@@ -11833,7 +11834,7 @@
       </c>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>516</v>
       </c>
@@ -11878,7 +11879,7 @@
       </c>
       <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>537</v>
       </c>
@@ -11921,7 +11922,7 @@
       </c>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>541</v>
       </c>
@@ -11964,7 +11965,7 @@
       </c>
       <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>544</v>
       </c>
@@ -12007,7 +12008,7 @@
       </c>
       <c r="O60" s="19"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>546</v>
       </c>
@@ -12155,7 +12156,7 @@
         <v>254</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G64" s="32">
         <v>55</v>
@@ -12269,7 +12270,7 @@
       </c>
       <c r="O66" s="19"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>573</v>
       </c>
@@ -12312,7 +12313,7 @@
       </c>
       <c r="O67" s="19"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>575</v>
       </c>
@@ -12355,7 +12356,7 @@
       </c>
       <c r="O68" s="19"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>576</v>
       </c>
@@ -12398,7 +12399,7 @@
       </c>
       <c r="O69" s="19"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>577</v>
       </c>
@@ -12441,7 +12442,7 @@
       </c>
       <c r="O70" s="19"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>580</v>
       </c>
@@ -12484,7 +12485,7 @@
       </c>
       <c r="O71" s="19"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>583</v>
       </c>
@@ -12527,7 +12528,7 @@
       </c>
       <c r="O72" s="19"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>585</v>
       </c>
@@ -12570,7 +12571,7 @@
       </c>
       <c r="O73" s="19"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>588</v>
       </c>
@@ -12613,7 +12614,7 @@
       </c>
       <c r="O74" s="19"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>590</v>
       </c>
@@ -12656,7 +12657,7 @@
       </c>
       <c r="O75" s="19"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>591</v>
       </c>
@@ -12701,7 +12702,7 @@
       </c>
       <c r="O76" s="19"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>608</v>
       </c>
@@ -12744,7 +12745,7 @@
       </c>
       <c r="O77" s="19"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>610</v>
       </c>
@@ -12787,7 +12788,7 @@
       </c>
       <c r="O78" s="19"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>611</v>
       </c>
@@ -12830,7 +12831,7 @@
       </c>
       <c r="O79" s="19"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>612</v>
       </c>
@@ -12873,7 +12874,7 @@
       </c>
       <c r="O80" s="19"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>613</v>
       </c>
@@ -12918,7 +12919,7 @@
       </c>
       <c r="O81" s="19"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>614</v>
       </c>
@@ -12963,7 +12964,7 @@
       </c>
       <c r="O82" s="19"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>615</v>
       </c>
@@ -13006,7 +13007,7 @@
       </c>
       <c r="O83" s="19"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>616</v>
       </c>
@@ -13049,7 +13050,7 @@
       </c>
       <c r="O84" s="19"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>617</v>
       </c>
@@ -13092,7 +13093,7 @@
       </c>
       <c r="O85" s="19"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>642</v>
       </c>
@@ -13135,7 +13136,7 @@
       </c>
       <c r="O86" s="19"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>645</v>
       </c>
@@ -13178,7 +13179,7 @@
       </c>
       <c r="O87" s="19"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>646</v>
       </c>
@@ -13221,7 +13222,7 @@
       </c>
       <c r="O88" s="19"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>649</v>
       </c>
@@ -13264,7 +13265,7 @@
       </c>
       <c r="O89" s="19"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>650</v>
       </c>
@@ -13309,7 +13310,7 @@
       </c>
       <c r="O90" s="19"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>651</v>
       </c>
@@ -13354,7 +13355,7 @@
       </c>
       <c r="O91" s="19"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>670</v>
       </c>
@@ -13397,7 +13398,7 @@
       </c>
       <c r="O92" s="19"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>673</v>
       </c>
@@ -13440,7 +13441,7 @@
       </c>
       <c r="O93" s="19"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>676</v>
       </c>
@@ -13483,7 +13484,7 @@
       </c>
       <c r="O94" s="19"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>679</v>
       </c>
@@ -13526,7 +13527,7 @@
       </c>
       <c r="O95" s="19"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>682</v>
       </c>
@@ -13569,7 +13570,7 @@
       </c>
       <c r="O96" s="19"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>684</v>
       </c>
@@ -13612,7 +13613,7 @@
       </c>
       <c r="O97" s="19"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>686</v>
       </c>
@@ -13655,7 +13656,7 @@
       </c>
       <c r="O98" s="19"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>687</v>
       </c>
@@ -13698,7 +13699,7 @@
       </c>
       <c r="O99" s="19"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>690</v>
       </c>
@@ -13743,7 +13744,7 @@
       </c>
       <c r="O100" s="19"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>691</v>
       </c>
@@ -13788,7 +13789,7 @@
       </c>
       <c r="O101" s="19"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>692</v>
       </c>
@@ -13833,7 +13834,7 @@
       </c>
       <c r="O102" s="19"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>693</v>
       </c>
@@ -13876,7 +13877,7 @@
       </c>
       <c r="O103" s="19"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>696</v>
       </c>
@@ -13919,7 +13920,7 @@
       </c>
       <c r="O104" s="19"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>698</v>
       </c>
@@ -13964,7 +13965,7 @@
       </c>
       <c r="O105" s="19"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>700</v>
       </c>
@@ -14009,7 +14010,7 @@
       </c>
       <c r="O106" s="19"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>702</v>
       </c>
@@ -14052,7 +14053,7 @@
       </c>
       <c r="O107" s="19"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>705</v>
       </c>
@@ -14095,7 +14096,7 @@
       </c>
       <c r="O108" s="19"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>707</v>
       </c>
@@ -14138,7 +14139,7 @@
       </c>
       <c r="O109" s="19"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>709</v>
       </c>
@@ -14181,7 +14182,7 @@
       </c>
       <c r="O110" s="19"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>710</v>
       </c>
@@ -14224,7 +14225,7 @@
       </c>
       <c r="O111" s="19"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>713</v>
       </c>
@@ -14267,7 +14268,7 @@
       </c>
       <c r="O112" s="19"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>715</v>
       </c>
@@ -14312,7 +14313,7 @@
       </c>
       <c r="O113" s="19"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>717</v>
       </c>
@@ -14357,7 +14358,7 @@
       </c>
       <c r="O114" s="19"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>718</v>
       </c>
@@ -14400,7 +14401,7 @@
       </c>
       <c r="O115" s="19"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>719</v>
       </c>
@@ -14443,7 +14444,7 @@
       </c>
       <c r="O116" s="19"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>721</v>
       </c>
@@ -14486,7 +14487,7 @@
       </c>
       <c r="O117" s="19"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>724</v>
       </c>
@@ -14529,7 +14530,7 @@
       </c>
       <c r="O118" s="19"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>726</v>
       </c>
@@ -14572,7 +14573,7 @@
       </c>
       <c r="O119" s="19"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>728</v>
       </c>
@@ -14617,7 +14618,7 @@
       </c>
       <c r="O120" s="19"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>730</v>
       </c>
@@ -14660,7 +14661,7 @@
       </c>
       <c r="O121" s="19"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>733</v>
       </c>
@@ -14703,7 +14704,7 @@
       </c>
       <c r="O122" s="19"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>737</v>
       </c>
@@ -14746,7 +14747,7 @@
       </c>
       <c r="O123" s="19"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>738</v>
       </c>
@@ -14789,7 +14790,7 @@
       </c>
       <c r="O124" s="19"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
         <v>739</v>
       </c>
@@ -14832,7 +14833,7 @@
       </c>
       <c r="O125" s="19"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>741</v>
       </c>
@@ -14875,7 +14876,7 @@
       </c>
       <c r="O126" s="19"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>742</v>
       </c>
@@ -14920,7 +14921,7 @@
       </c>
       <c r="O127" s="19"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>743</v>
       </c>
@@ -14965,7 +14966,7 @@
       </c>
       <c r="O128" s="19"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>745</v>
       </c>
@@ -15010,7 +15011,7 @@
       </c>
       <c r="O129" s="19"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>746</v>
       </c>
@@ -15053,7 +15054,7 @@
       </c>
       <c r="O130" s="19"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>750</v>
       </c>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="O131" s="19"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>751</v>
       </c>
@@ -15139,7 +15140,7 @@
       </c>
       <c r="O132" s="19"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>752</v>
       </c>
@@ -15182,7 +15183,7 @@
       </c>
       <c r="O133" s="19"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>753</v>
       </c>
@@ -15225,7 +15226,7 @@
       </c>
       <c r="O134" s="19"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>756</v>
       </c>
@@ -15268,7 +15269,7 @@
       </c>
       <c r="O135" s="19"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>757</v>
       </c>
@@ -15313,7 +15314,7 @@
       </c>
       <c r="O136" s="19"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>758</v>
       </c>
@@ -15358,7 +15359,7 @@
       </c>
       <c r="O137" s="19"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>760</v>
       </c>
@@ -15401,7 +15402,7 @@
       </c>
       <c r="O138" s="19"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>761</v>
       </c>
@@ -15444,7 +15445,7 @@
       </c>
       <c r="O139" s="19"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>762</v>
       </c>
@@ -15487,7 +15488,7 @@
       </c>
       <c r="O140" s="19"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>767</v>
       </c>
@@ -15530,7 +15531,7 @@
       </c>
       <c r="O141" s="19"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>769</v>
       </c>
@@ -15573,7 +15574,7 @@
       </c>
       <c r="O142" s="19"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>772</v>
       </c>
@@ -15618,7 +15619,7 @@
       </c>
       <c r="O143" s="19"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>774</v>
       </c>
@@ -15663,7 +15664,7 @@
       </c>
       <c r="O144" s="19"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>776</v>
       </c>
@@ -15706,7 +15707,7 @@
       </c>
       <c r="O145" s="19"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>780</v>
       </c>
@@ -15749,7 +15750,7 @@
       </c>
       <c r="O146" s="19"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>783</v>
       </c>
@@ -15792,7 +15793,7 @@
       </c>
       <c r="O147" s="19"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>784</v>
       </c>
@@ -15835,7 +15836,7 @@
       </c>
       <c r="O148" s="19"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>786</v>
       </c>
@@ -15878,7 +15879,7 @@
       </c>
       <c r="O149" s="19"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>787</v>
       </c>
@@ -15921,7 +15922,7 @@
       </c>
       <c r="O150" s="19"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>788</v>
       </c>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="O151" s="19"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>789</v>
       </c>
@@ -16009,7 +16010,7 @@
       </c>
       <c r="O152" s="19"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
         <v>790</v>
       </c>
@@ -16052,7 +16053,7 @@
       </c>
       <c r="O153" s="19"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>792</v>
       </c>
@@ -16095,7 +16096,7 @@
       </c>
       <c r="O154" s="19"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>793</v>
       </c>
@@ -16138,7 +16139,7 @@
       </c>
       <c r="O155" s="19"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>794</v>
       </c>
@@ -16181,7 +16182,7 @@
       </c>
       <c r="O156" s="19"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>795</v>
       </c>
@@ -16224,7 +16225,7 @@
       </c>
       <c r="O157" s="19"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>796</v>
       </c>
@@ -16267,7 +16268,7 @@
       </c>
       <c r="O158" s="19"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>797</v>
       </c>
@@ -16310,7 +16311,7 @@
       </c>
       <c r="O159" s="19"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>799</v>
       </c>
@@ -16355,7 +16356,7 @@
       </c>
       <c r="O160" s="19"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
         <v>800</v>
       </c>
@@ -16398,7 +16399,7 @@
       </c>
       <c r="O161" s="19"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>801</v>
       </c>
@@ -16441,7 +16442,7 @@
       </c>
       <c r="O162" s="19"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>803</v>
       </c>
@@ -16484,7 +16485,7 @@
       </c>
       <c r="O163" s="19"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>804</v>
       </c>
@@ -16527,7 +16528,7 @@
       </c>
       <c r="O164" s="19"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>805</v>
       </c>
@@ -16570,7 +16571,7 @@
       </c>
       <c r="O165" s="19"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>806</v>
       </c>
@@ -16613,7 +16614,7 @@
       </c>
       <c r="O166" s="19"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
         <v>807</v>
       </c>
@@ -16658,7 +16659,7 @@
       </c>
       <c r="O167" s="19"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
         <v>808</v>
       </c>
@@ -16701,7 +16702,7 @@
       </c>
       <c r="O168" s="19"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>811</v>
       </c>
@@ -16744,7 +16745,7 @@
       </c>
       <c r="O169" s="19"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>812</v>
       </c>
@@ -16787,7 +16788,7 @@
       </c>
       <c r="O170" s="19"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
         <v>813</v>
       </c>
@@ -16830,7 +16831,7 @@
       </c>
       <c r="O171" s="19"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>814</v>
       </c>
@@ -16873,7 +16874,7 @@
       </c>
       <c r="O172" s="19"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
         <v>815</v>
       </c>
@@ -16916,7 +16917,7 @@
       </c>
       <c r="O173" s="19"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>816</v>
       </c>
@@ -16959,7 +16960,7 @@
       </c>
       <c r="O174" s="19"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
         <v>817</v>
       </c>
@@ -17002,7 +17003,7 @@
       </c>
       <c r="O175" s="19"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
         <v>818</v>
       </c>
@@ -17045,7 +17046,7 @@
       </c>
       <c r="O176" s="19"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>819</v>
       </c>
@@ -17088,7 +17089,7 @@
       </c>
       <c r="O177" s="19"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>822</v>
       </c>
@@ -17131,7 +17132,7 @@
       </c>
       <c r="O178" s="19"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>824</v>
       </c>
@@ -17174,7 +17175,7 @@
       </c>
       <c r="O179" s="19"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>825</v>
       </c>
@@ -17217,7 +17218,7 @@
       </c>
       <c r="O180" s="19"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>826</v>
       </c>
@@ -17260,7 +17261,7 @@
       </c>
       <c r="O181" s="19"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>828</v>
       </c>
@@ -17303,7 +17304,7 @@
       </c>
       <c r="O182" s="19"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>829</v>
       </c>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="O183" s="19"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>830</v>
       </c>
@@ -17389,7 +17390,7 @@
       </c>
       <c r="O184" s="19"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>831</v>
       </c>
@@ -17432,7 +17433,7 @@
       </c>
       <c r="O185" s="19"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>833</v>
       </c>
@@ -17475,7 +17476,7 @@
       </c>
       <c r="O186" s="19"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>834</v>
       </c>
@@ -17518,7 +17519,7 @@
       </c>
       <c r="O187" s="19"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>836</v>
       </c>
@@ -17561,7 +17562,7 @@
       </c>
       <c r="O188" s="19"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
         <v>837</v>
       </c>
@@ -17604,7 +17605,7 @@
       </c>
       <c r="O189" s="19"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>838</v>
       </c>
@@ -17649,7 +17650,7 @@
       </c>
       <c r="O190" s="19"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>839</v>
       </c>
@@ -17694,7 +17695,7 @@
       </c>
       <c r="O191" s="19"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>840</v>
       </c>
@@ -17737,7 +17738,7 @@
       </c>
       <c r="O192" s="19"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
         <v>841</v>
       </c>
@@ -17780,7 +17781,7 @@
       </c>
       <c r="O193" s="19"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>842</v>
       </c>
@@ -17823,7 +17824,7 @@
       </c>
       <c r="O194" s="19"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
         <v>844</v>
       </c>
@@ -17866,7 +17867,7 @@
       </c>
       <c r="O195" s="19"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>846</v>
       </c>
@@ -17909,7 +17910,7 @@
       </c>
       <c r="O196" s="19"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>848</v>
       </c>
@@ -17952,7 +17953,7 @@
       </c>
       <c r="O197" s="19"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
         <v>849</v>
       </c>
@@ -17995,7 +17996,7 @@
       </c>
       <c r="O198" s="19"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
         <v>850</v>
       </c>
@@ -18038,7 +18039,7 @@
       </c>
       <c r="O199" s="19"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>851</v>
       </c>
@@ -18083,7 +18084,7 @@
       </c>
       <c r="O200" s="19"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
         <v>852</v>
       </c>
@@ -18128,7 +18129,7 @@
       </c>
       <c r="O201" s="19"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
         <v>854</v>
       </c>
@@ -18173,7 +18174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
         <v>856</v>
       </c>
@@ -18218,7 +18219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
         <v>857</v>
       </c>
@@ -18261,7 +18262,7 @@
       </c>
       <c r="O204" s="19"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
         <v>861</v>
       </c>
@@ -18304,7 +18305,7 @@
       </c>
       <c r="O205" s="19"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
         <v>862</v>
       </c>
@@ -18349,7 +18350,7 @@
       </c>
       <c r="O206" s="19"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
         <v>863</v>
       </c>
@@ -18394,7 +18395,7 @@
       </c>
       <c r="O207" s="19"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
         <v>864</v>
       </c>
@@ -18439,7 +18440,7 @@
       </c>
       <c r="O208" s="19"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
         <v>866</v>
       </c>
@@ -18482,7 +18483,7 @@
       </c>
       <c r="O209" s="19"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
         <v>868</v>
       </c>
@@ -18525,7 +18526,7 @@
       </c>
       <c r="O210" s="19"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>870</v>
       </c>
@@ -18568,7 +18569,7 @@
       </c>
       <c r="O211" s="19"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
         <v>872</v>
       </c>
@@ -18611,7 +18612,7 @@
       </c>
       <c r="O212" s="19"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>873</v>
       </c>
@@ -18654,7 +18655,7 @@
       </c>
       <c r="O213" s="19"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
         <v>875</v>
       </c>
@@ -18697,7 +18698,7 @@
       </c>
       <c r="O214" s="19"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>876</v>
       </c>
@@ -18740,7 +18741,7 @@
       </c>
       <c r="O215" s="19"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>877</v>
       </c>
@@ -18785,7 +18786,7 @@
       </c>
       <c r="O216" s="19"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
         <v>878</v>
       </c>
@@ -18830,7 +18831,7 @@
       </c>
       <c r="O217" s="19"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
         <v>880</v>
       </c>
@@ -18875,7 +18876,7 @@
       </c>
       <c r="O218" s="19"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
         <v>881</v>
       </c>
@@ -18920,7 +18921,7 @@
       </c>
       <c r="O219" s="19"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
         <v>882</v>
       </c>
@@ -18965,7 +18966,7 @@
       </c>
       <c r="O220" s="19"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>883</v>
       </c>
@@ -19008,7 +19009,7 @@
       </c>
       <c r="O221" s="19"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>886</v>
       </c>
@@ -19051,7 +19052,7 @@
       </c>
       <c r="O222" s="19"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
         <v>888</v>
       </c>
@@ -19094,7 +19095,7 @@
       </c>
       <c r="O223" s="19"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
         <v>889</v>
       </c>
@@ -19137,7 +19138,7 @@
       </c>
       <c r="O224" s="19"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
         <v>891</v>
       </c>
@@ -19180,7 +19181,7 @@
       </c>
       <c r="O225" s="19"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
         <v>892</v>
       </c>
@@ -19225,7 +19226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
         <v>895</v>
       </c>
@@ -19268,7 +19269,7 @@
       </c>
       <c r="O227" s="19"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>896</v>
       </c>
@@ -19313,7 +19314,7 @@
       </c>
       <c r="O228" s="19"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>897</v>
       </c>
@@ -19358,7 +19359,7 @@
       </c>
       <c r="O229" s="19"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
         <v>899</v>
       </c>
@@ -19401,7 +19402,7 @@
       </c>
       <c r="O230" s="19"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="19" t="s">
         <v>901</v>
       </c>
@@ -19444,7 +19445,7 @@
       </c>
       <c r="O231" s="19"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
         <v>902</v>
       </c>
@@ -19487,7 +19488,7 @@
       </c>
       <c r="O232" s="19"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
         <v>903</v>
       </c>
@@ -19530,7 +19531,7 @@
       </c>
       <c r="O233" s="19"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
         <v>904</v>
       </c>
@@ -19573,7 +19574,7 @@
       </c>
       <c r="O234" s="19"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
         <v>906</v>
       </c>
@@ -19616,7 +19617,7 @@
       </c>
       <c r="O235" s="19"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
         <v>909</v>
       </c>
@@ -19659,7 +19660,7 @@
       </c>
       <c r="O236" s="19"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
         <v>910</v>
       </c>
@@ -19702,7 +19703,7 @@
       </c>
       <c r="O237" s="19"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="19" t="s">
         <v>911</v>
       </c>
@@ -19745,7 +19746,7 @@
       </c>
       <c r="O238" s="19"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="19" t="s">
         <v>914</v>
       </c>
@@ -19788,7 +19789,7 @@
       </c>
       <c r="O239" s="19"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="19" t="s">
         <v>917</v>
       </c>
@@ -19831,7 +19832,7 @@
       </c>
       <c r="O240" s="19"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="19" t="s">
         <v>919</v>
       </c>
@@ -19874,7 +19875,7 @@
       </c>
       <c r="O241" s="19"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="19" t="s">
         <v>920</v>
       </c>
@@ -19917,7 +19918,7 @@
       </c>
       <c r="O242" s="19"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="19" t="s">
         <v>921</v>
       </c>
@@ -19962,7 +19963,7 @@
       </c>
       <c r="O243" s="19"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="19" t="s">
         <v>922</v>
       </c>
@@ -20005,7 +20006,7 @@
       </c>
       <c r="O244" s="19"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="19" t="s">
         <v>923</v>
       </c>
@@ -20048,7 +20049,7 @@
       </c>
       <c r="O245" s="19"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="19" t="s">
         <v>924</v>
       </c>
@@ -20091,7 +20092,7 @@
       </c>
       <c r="O246" s="19"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
         <v>925</v>
       </c>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="O247" s="19"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="19" t="s">
         <v>927</v>
       </c>
@@ -20179,7 +20180,7 @@
       </c>
       <c r="O248" s="19"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
         <v>929</v>
       </c>
@@ -20222,7 +20223,7 @@
       </c>
       <c r="O249" s="19"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
         <v>930</v>
       </c>
@@ -20267,7 +20268,7 @@
       </c>
       <c r="O250" s="19"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="19" t="s">
         <v>931</v>
       </c>
@@ -20310,7 +20311,7 @@
       </c>
       <c r="O251" s="19"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="19" t="s">
         <v>933</v>
       </c>
@@ -20353,7 +20354,7 @@
       </c>
       <c r="O252" s="19"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
         <v>935</v>
       </c>
@@ -20396,7 +20397,7 @@
       </c>
       <c r="O253" s="19"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="19" t="s">
         <v>936</v>
       </c>
@@ -20439,7 +20440,7 @@
       </c>
       <c r="O254" s="19"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="19" t="s">
         <v>938</v>
       </c>
@@ -20482,7 +20483,7 @@
       </c>
       <c r="O255" s="19"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="19" t="s">
         <v>939</v>
       </c>
@@ -20525,7 +20526,7 @@
       </c>
       <c r="O256" s="19"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="19" t="s">
         <v>940</v>
       </c>
@@ -20570,7 +20571,7 @@
       </c>
       <c r="O257" s="19"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="19" t="s">
         <v>941</v>
       </c>
@@ -20615,7 +20616,7 @@
       </c>
       <c r="O258" s="19"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="19" t="s">
         <v>942</v>
       </c>
@@ -20658,7 +20659,7 @@
       </c>
       <c r="O259" s="19"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="19" t="s">
         <v>945</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
         <v>947</v>
       </c>
@@ -20746,7 +20747,7 @@
       </c>
       <c r="O261" s="19"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="19" t="s">
         <v>948</v>
       </c>
@@ -20789,7 +20790,7 @@
       </c>
       <c r="O262" s="19"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="19" t="s">
         <v>949</v>
       </c>
@@ -20832,7 +20833,7 @@
       </c>
       <c r="O263" s="19"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="19" t="s">
         <v>950</v>
       </c>
@@ -20877,7 +20878,7 @@
       </c>
       <c r="O264" s="19"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="19" t="s">
         <v>951</v>
       </c>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="O265" s="19"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="19" t="s">
         <v>952</v>
       </c>
@@ -20965,7 +20966,7 @@
       </c>
       <c r="O266" s="19"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="19" t="s">
         <v>956</v>
       </c>
@@ -21008,7 +21009,7 @@
       </c>
       <c r="O267" s="19"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="19" t="s">
         <v>959</v>
       </c>
@@ -21051,7 +21052,7 @@
       </c>
       <c r="O268" s="19"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="19" t="s">
         <v>962</v>
       </c>
@@ -21094,7 +21095,7 @@
       </c>
       <c r="O269" s="19"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="19" t="s">
         <v>965</v>
       </c>
@@ -21137,7 +21138,7 @@
       </c>
       <c r="O270" s="19"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="19" t="s">
         <v>967</v>
       </c>
@@ -21182,7 +21183,7 @@
       </c>
       <c r="O271" s="19"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="19" t="s">
         <v>969</v>
       </c>
@@ -21227,7 +21228,7 @@
       </c>
       <c r="O272" s="19"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="19" t="s">
         <v>971</v>
       </c>
@@ -21272,7 +21273,7 @@
       </c>
       <c r="O273" s="19"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="19" t="s">
         <v>973</v>
       </c>
@@ -21317,7 +21318,7 @@
       </c>
       <c r="O274" s="19"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="19" t="s">
         <v>975</v>
       </c>
@@ -21360,7 +21361,7 @@
       </c>
       <c r="O275" s="19"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="19" t="s">
         <v>977</v>
       </c>
@@ -21403,7 +21404,7 @@
       </c>
       <c r="O276" s="19"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
         <v>979</v>
       </c>
@@ -21446,7 +21447,7 @@
       </c>
       <c r="O277" s="19"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
         <v>981</v>
       </c>
@@ -21489,7 +21490,7 @@
       </c>
       <c r="O278" s="19"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
         <v>982</v>
       </c>
@@ -21534,7 +21535,7 @@
       </c>
       <c r="O279" s="19"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
         <v>983</v>
       </c>
@@ -21579,7 +21580,7 @@
       </c>
       <c r="O280" s="19"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="19" t="s">
         <v>984</v>
       </c>
@@ -21624,7 +21625,7 @@
       </c>
       <c r="O281" s="19"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>986</v>
       </c>
@@ -21669,7 +21670,7 @@
       </c>
       <c r="O282" s="19"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>988</v>
       </c>
@@ -21712,7 +21713,7 @@
       </c>
       <c r="O283" s="19"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
         <v>989</v>
       </c>
@@ -21755,7 +21756,7 @@
       </c>
       <c r="O284" s="19"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
         <v>990</v>
       </c>
@@ -21798,7 +21799,7 @@
       </c>
       <c r="O285" s="19"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
         <v>993</v>
       </c>
@@ -21841,7 +21842,7 @@
       </c>
       <c r="O286" s="19"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="19" t="s">
         <v>995</v>
       </c>
@@ -21884,7 +21885,7 @@
       </c>
       <c r="O287" s="19"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="19" t="s">
         <v>996</v>
       </c>
@@ -21927,7 +21928,7 @@
       </c>
       <c r="O288" s="19"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
         <v>997</v>
       </c>
@@ -21970,7 +21971,7 @@
       </c>
       <c r="O289" s="19"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
         <v>998</v>
       </c>
@@ -22015,7 +22016,7 @@
       </c>
       <c r="O290" s="19"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
         <v>999</v>
       </c>
@@ -22060,7 +22061,7 @@
       </c>
       <c r="O291" s="19"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
         <v>1000</v>
       </c>
@@ -22105,7 +22106,7 @@
       </c>
       <c r="O292" s="19"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
         <v>1001</v>
       </c>
@@ -22150,7 +22151,7 @@
       </c>
       <c r="O293" s="19"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="19" t="s">
         <v>1002</v>
       </c>
@@ -22193,7 +22194,7 @@
       </c>
       <c r="O294" s="19"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="19" t="s">
         <v>1005</v>
       </c>
@@ -22236,7 +22237,7 @@
       </c>
       <c r="O295" s="19"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="19" t="s">
         <v>1006</v>
       </c>
@@ -22279,7 +22280,7 @@
       </c>
       <c r="O296" s="19"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="19" t="s">
         <v>1007</v>
       </c>
@@ -22322,7 +22323,7 @@
       </c>
       <c r="O297" s="19"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
         <v>1008</v>
       </c>
@@ -22367,7 +22368,7 @@
       </c>
       <c r="O298" s="19"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="19" t="s">
         <v>1009</v>
       </c>
@@ -22412,7 +22413,7 @@
       </c>
       <c r="O299" s="19"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="19" t="s">
         <v>1010</v>
       </c>
@@ -22457,7 +22458,7 @@
       </c>
       <c r="O300" s="19"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="19" t="s">
         <v>1011</v>
       </c>
@@ -22500,7 +22501,7 @@
       </c>
       <c r="O301" s="19"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="19" t="s">
         <v>1014</v>
       </c>
@@ -22543,7 +22544,7 @@
       </c>
       <c r="O302" s="19"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="19" t="s">
         <v>1018</v>
       </c>
@@ -22586,7 +22587,7 @@
       </c>
       <c r="O303" s="19"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="19" t="s">
         <v>1021</v>
       </c>
@@ -22631,7 +22632,7 @@
       </c>
       <c r="O304" s="19"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="19" t="s">
         <v>1023</v>
       </c>
@@ -22676,7 +22677,7 @@
       </c>
       <c r="O305" s="19"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="19" t="s">
         <v>1025</v>
       </c>
@@ -22719,7 +22720,7 @@
       </c>
       <c r="O306" s="19"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="19" t="s">
         <v>1026</v>
       </c>
@@ -22762,7 +22763,7 @@
       </c>
       <c r="O307" s="19"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="19" t="s">
         <v>1027</v>
       </c>
@@ -22805,7 +22806,7 @@
       </c>
       <c r="O308" s="19"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="19" t="s">
         <v>1028</v>
       </c>
@@ -22848,7 +22849,7 @@
       </c>
       <c r="O309" s="19"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="19" t="s">
         <v>1030</v>
       </c>
@@ -22891,7 +22892,7 @@
       </c>
       <c r="O310" s="19"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="19" t="s">
         <v>1031</v>
       </c>
@@ -22934,7 +22935,7 @@
       </c>
       <c r="O311" s="19"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="19" t="s">
         <v>1032</v>
       </c>
@@ -22977,7 +22978,7 @@
       </c>
       <c r="O312" s="19"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="19" t="s">
         <v>1033</v>
       </c>
@@ -23020,7 +23021,7 @@
       </c>
       <c r="O313" s="19"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="19" t="s">
         <v>1034</v>
       </c>
@@ -23063,7 +23064,7 @@
       </c>
       <c r="O314" s="19"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="19" t="s">
         <v>1035</v>
       </c>
@@ -23108,7 +23109,7 @@
       </c>
       <c r="O315" s="19"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="19" t="s">
         <v>1036</v>
       </c>
@@ -23153,7 +23154,7 @@
       </c>
       <c r="O316" s="19"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
         <v>1037</v>
       </c>
@@ -23198,7 +23199,7 @@
       </c>
       <c r="O317" s="19"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="19" t="s">
         <v>1038</v>
       </c>
@@ -23243,7 +23244,7 @@
       </c>
       <c r="O318" s="19"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="19" t="s">
         <v>1039</v>
       </c>
@@ -23288,7 +23289,7 @@
       </c>
       <c r="O319" s="19"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
         <v>1040</v>
       </c>
@@ -23331,7 +23332,7 @@
       </c>
       <c r="O320" s="19"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>1041</v>
       </c>
@@ -23374,7 +23375,7 @@
       </c>
       <c r="O321" s="19"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
         <v>1042</v>
       </c>
@@ -23417,7 +23418,7 @@
       </c>
       <c r="O322" s="19"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>1043</v>
       </c>
@@ -23460,7 +23461,7 @@
       </c>
       <c r="O323" s="19"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>1044</v>
       </c>
@@ -23503,7 +23504,7 @@
       </c>
       <c r="O324" s="19"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="19" t="s">
         <v>1045</v>
       </c>
@@ -23546,7 +23547,7 @@
       </c>
       <c r="O325" s="19"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
         <v>1046</v>
       </c>
@@ -23589,7 +23590,7 @@
       </c>
       <c r="O326" s="19"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
         <v>1047</v>
       </c>
@@ -23632,7 +23633,7 @@
       </c>
       <c r="O327" s="19"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>1048</v>
       </c>
@@ -23675,7 +23676,7 @@
       </c>
       <c r="O328" s="19"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="19" t="s">
         <v>1049</v>
       </c>
@@ -23720,7 +23721,7 @@
       </c>
       <c r="O329" s="19"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="19" t="s">
         <v>1050</v>
       </c>
@@ -23765,7 +23766,7 @@
       </c>
       <c r="O330" s="19"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="19" t="s">
         <v>1051</v>
       </c>
@@ -23808,7 +23809,7 @@
       </c>
       <c r="O331" s="19"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
         <v>1054</v>
       </c>
@@ -23851,7 +23852,7 @@
       </c>
       <c r="O332" s="19"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="19" t="s">
         <v>1055</v>
       </c>
@@ -23894,7 +23895,7 @@
       </c>
       <c r="O333" s="19"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="19" t="s">
         <v>1056</v>
       </c>
@@ -23937,7 +23938,7 @@
       </c>
       <c r="O334" s="19"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="19" t="s">
         <v>1057</v>
       </c>
@@ -23982,7 +23983,7 @@
       </c>
       <c r="O335" s="19"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="19" t="s">
         <v>1058</v>
       </c>
@@ -24025,7 +24026,7 @@
       </c>
       <c r="O336" s="19"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="19" t="s">
         <v>1059</v>
       </c>
@@ -24068,7 +24069,7 @@
       </c>
       <c r="O337" s="19"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="19" t="s">
         <v>1060</v>
       </c>
@@ -24111,7 +24112,7 @@
       </c>
       <c r="O338" s="19"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="19" t="s">
         <v>1061</v>
       </c>
@@ -24156,7 +24157,7 @@
       </c>
       <c r="O339" s="19"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
         <v>1062</v>
       </c>
@@ -24199,7 +24200,7 @@
       </c>
       <c r="O340" s="19"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="19" t="s">
         <v>1064</v>
       </c>
@@ -24242,7 +24243,7 @@
       </c>
       <c r="O341" s="19"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
         <v>1065</v>
       </c>
@@ -24285,7 +24286,7 @@
       </c>
       <c r="O342" s="19"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="19" t="s">
         <v>1066</v>
       </c>
@@ -24330,7 +24331,7 @@
       </c>
       <c r="O343" s="19"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="19" t="s">
         <v>1068</v>
       </c>
@@ -24373,7 +24374,7 @@
       </c>
       <c r="O344" s="19"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="19" t="s">
         <v>1071</v>
       </c>
@@ -24416,7 +24417,7 @@
       </c>
       <c r="O345" s="19"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="19" t="s">
         <v>1073</v>
       </c>
@@ -24459,7 +24460,7 @@
       </c>
       <c r="O346" s="19"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="19" t="s">
         <v>1074</v>
       </c>
@@ -24502,7 +24503,7 @@
       </c>
       <c r="O347" s="19"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="19" t="s">
         <v>1075</v>
       </c>
@@ -24545,7 +24546,7 @@
       </c>
       <c r="O348" s="19"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="19" t="s">
         <v>1077</v>
       </c>
@@ -24590,7 +24591,7 @@
       </c>
       <c r="O349" s="19"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="19" t="s">
         <v>1078</v>
       </c>
@@ -24635,7 +24636,7 @@
       </c>
       <c r="O350" s="19"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="19" t="s">
         <v>1079</v>
       </c>
@@ -24678,7 +24679,7 @@
       </c>
       <c r="O351" s="19"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="19" t="s">
         <v>1083</v>
       </c>
@@ -24721,7 +24722,7 @@
       </c>
       <c r="O352" s="19"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="19" t="s">
         <v>1086</v>
       </c>
@@ -24764,7 +24765,7 @@
       </c>
       <c r="O353" s="19"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="19" t="s">
         <v>1089</v>
       </c>
@@ -24809,7 +24810,7 @@
       </c>
       <c r="O354" s="19"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>1091</v>
       </c>
@@ -24852,7 +24853,7 @@
       </c>
       <c r="O355" s="19"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
         <v>1093</v>
       </c>
@@ -24897,7 +24898,7 @@
       </c>
       <c r="O356" s="19"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="19" t="s">
         <v>1094</v>
       </c>
@@ -24942,7 +24943,7 @@
       </c>
       <c r="O357" s="19"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="19" t="s">
         <v>1731</v>
       </c>
@@ -24985,7 +24986,7 @@
       </c>
       <c r="O358" s="19"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="19" t="s">
         <v>1734</v>
       </c>
@@ -25028,7 +25029,7 @@
       </c>
       <c r="O359" s="19"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
         <v>1737</v>
       </c>
@@ -25071,7 +25072,7 @@
       </c>
       <c r="O360" s="19"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="19" t="s">
         <v>1740</v>
       </c>
@@ -25114,7 +25115,7 @@
       </c>
       <c r="O361" s="19"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="19" t="s">
         <v>1742</v>
       </c>
@@ -25157,7 +25158,7 @@
       </c>
       <c r="O362" s="19"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="s">
         <v>1744</v>
       </c>
@@ -25200,7 +25201,7 @@
       </c>
       <c r="O363" s="19"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="19" t="s">
         <v>1745</v>
       </c>
@@ -25245,7 +25246,7 @@
       </c>
       <c r="O364" s="19"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>1746</v>
       </c>
@@ -25290,7 +25291,7 @@
       </c>
       <c r="O365" s="19"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="19" t="s">
         <v>1747</v>
       </c>
@@ -25335,7 +25336,7 @@
       </c>
       <c r="O366" s="19"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="s">
         <v>1748</v>
       </c>
@@ -25380,7 +25381,7 @@
       </c>
       <c r="O367" s="19"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="19" t="s">
         <v>1749</v>
       </c>
@@ -25423,7 +25424,7 @@
       </c>
       <c r="O368" s="19"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="19" t="s">
         <v>1750</v>
       </c>
@@ -25466,7 +25467,7 @@
       </c>
       <c r="O369" s="19"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="19" t="s">
         <v>1751</v>
       </c>
@@ -25511,7 +25512,7 @@
       </c>
       <c r="O370" s="19"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="19" t="s">
         <v>1752</v>
       </c>
@@ -25556,7 +25557,7 @@
       </c>
       <c r="O371" s="19"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="19" t="s">
         <v>1753</v>
       </c>
@@ -25601,7 +25602,7 @@
       </c>
       <c r="O372" s="19"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="19" t="s">
         <v>1754</v>
       </c>
@@ -25644,7 +25645,7 @@
       </c>
       <c r="O373" s="19"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="19" t="s">
         <v>1755</v>
       </c>
@@ -25689,7 +25690,7 @@
       </c>
       <c r="O374" s="19"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="19" t="s">
         <v>1756</v>
       </c>
@@ -25732,7 +25733,7 @@
       </c>
       <c r="O375" s="19"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
         <v>1759</v>
       </c>
@@ -25777,7 +25778,7 @@
       </c>
       <c r="O376" s="19"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="19" t="s">
         <v>1761</v>
       </c>
@@ -25820,7 +25821,7 @@
       </c>
       <c r="O377" s="19"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
         <v>1764</v>
       </c>
@@ -25863,7 +25864,7 @@
       </c>
       <c r="O378" s="19"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
         <v>1767</v>
       </c>
@@ -25908,7 +25909,7 @@
       </c>
       <c r="O379" s="19"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="19" t="s">
         <v>1769</v>
       </c>
@@ -25953,7 +25954,7 @@
       </c>
       <c r="O380" s="19"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="19" t="s">
         <v>1771</v>
       </c>
@@ -25998,7 +25999,7 @@
       </c>
       <c r="O381" s="19"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="19" t="s">
         <v>1907</v>
       </c>
@@ -26041,7 +26042,7 @@
       </c>
       <c r="O382" s="19"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="19" t="s">
         <v>1911</v>
       </c>
@@ -26084,7 +26085,7 @@
       </c>
       <c r="O383" s="19"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="19" t="s">
         <v>1913</v>
       </c>
@@ -26127,7 +26128,7 @@
       </c>
       <c r="O384" s="19"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="19" t="s">
         <v>1915</v>
       </c>
@@ -26170,7 +26171,7 @@
       </c>
       <c r="O385" s="19"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="19" t="s">
         <v>1917</v>
       </c>
@@ -26213,7 +26214,7 @@
       </c>
       <c r="O386" s="19"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="19" t="s">
         <v>1919</v>
       </c>
@@ -26256,7 +26257,7 @@
       </c>
       <c r="O387" s="19"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="19" t="s">
         <v>1922</v>
       </c>
@@ -26301,7 +26302,7 @@
       </c>
       <c r="O388" s="19"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="19" t="s">
         <v>1924</v>
       </c>
@@ -26346,7 +26347,7 @@
       </c>
       <c r="O389" s="19"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="19" t="s">
         <v>1926</v>
       </c>
@@ -26391,7 +26392,7 @@
       </c>
       <c r="O390" s="19"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="19" t="s">
         <v>1928</v>
       </c>
@@ -26436,7 +26437,7 @@
       </c>
       <c r="O391" s="19"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="19" t="s">
         <v>1930</v>
       </c>
@@ -26481,7 +26482,7 @@
       </c>
       <c r="O392" s="19"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="19" t="s">
         <v>1932</v>
       </c>
@@ -26526,7 +26527,7 @@
       </c>
       <c r="O393" s="19"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="19" t="s">
         <v>1934</v>
       </c>
@@ -26569,7 +26570,7 @@
       </c>
       <c r="O394" s="19"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="19" t="s">
         <v>1936</v>
       </c>
@@ -26612,7 +26613,7 @@
       </c>
       <c r="O395" s="19"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="19" t="s">
         <v>1939</v>
       </c>
@@ -26655,7 +26656,7 @@
       </c>
       <c r="O396" s="19"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="19" t="s">
         <v>1940</v>
       </c>
@@ -26698,7 +26699,7 @@
       </c>
       <c r="O397" s="19"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="19" t="s">
         <v>1942</v>
       </c>
@@ -26743,7 +26744,7 @@
       </c>
       <c r="O398" s="19"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="19" t="s">
         <v>1943</v>
       </c>
@@ -26788,7 +26789,7 @@
       </c>
       <c r="O399" s="19"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="19" t="s">
         <v>1945</v>
       </c>
@@ -26833,7 +26834,7 @@
       </c>
       <c r="O400" s="19"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="19" t="s">
         <v>2546</v>
       </c>
@@ -26878,7 +26879,7 @@
       </c>
       <c r="O401" s="19"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="19" t="s">
         <v>1947</v>
       </c>
@@ -26923,7 +26924,7 @@
       </c>
       <c r="O402" s="19"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="19" t="s">
         <v>1949</v>
       </c>
@@ -26968,7 +26969,7 @@
       </c>
       <c r="O403" s="19"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="19" t="s">
         <v>1951</v>
       </c>
@@ -27011,7 +27012,7 @@
       </c>
       <c r="O404" s="19"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="19" t="s">
         <v>1954</v>
       </c>
@@ -27054,7 +27055,7 @@
       </c>
       <c r="O405" s="19"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="19" t="s">
         <v>1956</v>
       </c>
@@ -27097,7 +27098,7 @@
       </c>
       <c r="O406" s="19"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="19" t="s">
         <v>1957</v>
       </c>
@@ -27140,7 +27141,7 @@
       </c>
       <c r="O407" s="19"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="19" t="s">
         <v>1959</v>
       </c>
@@ -27183,7 +27184,7 @@
       </c>
       <c r="O408" s="19"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="19" t="s">
         <v>1961</v>
       </c>
@@ -27226,7 +27227,7 @@
       </c>
       <c r="O409" s="19"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="19" t="s">
         <v>1963</v>
       </c>
@@ -27269,7 +27270,7 @@
       </c>
       <c r="O410" s="19"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="19" t="s">
         <v>1964</v>
       </c>
@@ -27314,7 +27315,7 @@
       </c>
       <c r="O411" s="19"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="19" t="s">
         <v>1965</v>
       </c>
@@ -27359,7 +27360,7 @@
       </c>
       <c r="O412" s="19"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="19" t="s">
         <v>1966</v>
       </c>
@@ -27404,7 +27405,7 @@
       </c>
       <c r="O413" s="19"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="19" t="s">
         <v>1968</v>
       </c>
@@ -27447,7 +27448,7 @@
       </c>
       <c r="O414" s="19"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="19" t="s">
         <v>1972</v>
       </c>
@@ -27490,7 +27491,7 @@
       </c>
       <c r="O415" s="19"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="19" t="s">
         <v>1974</v>
       </c>
@@ -27533,7 +27534,7 @@
       </c>
       <c r="O416" s="19"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="19" t="s">
         <v>1977</v>
       </c>
@@ -27576,7 +27577,7 @@
       </c>
       <c r="O417" s="19"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="19" t="s">
         <v>1979</v>
       </c>
@@ -27619,7 +27620,7 @@
       </c>
       <c r="O418" s="19"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="19" t="s">
         <v>1980</v>
       </c>
@@ -27662,7 +27663,7 @@
       </c>
       <c r="O419" s="19"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="19" t="s">
         <v>1982</v>
       </c>
@@ -27705,7 +27706,7 @@
       </c>
       <c r="O420" s="19"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="19" t="s">
         <v>1984</v>
       </c>
@@ -27748,7 +27749,7 @@
       </c>
       <c r="O421" s="19"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="19" t="s">
         <v>1986</v>
       </c>
@@ -27791,7 +27792,7 @@
       </c>
       <c r="O422" s="19"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="19" t="s">
         <v>1988</v>
       </c>
@@ -27834,7 +27835,7 @@
       </c>
       <c r="O423" s="19"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="19" t="s">
         <v>1989</v>
       </c>
@@ -27877,7 +27878,7 @@
       </c>
       <c r="O424" s="19"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="19" t="s">
         <v>1990</v>
       </c>
@@ -27920,7 +27921,7 @@
       </c>
       <c r="O425" s="19"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="19" t="s">
         <v>1991</v>
       </c>
@@ -27965,7 +27966,7 @@
       </c>
       <c r="O426" s="19"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="19" t="s">
         <v>1992</v>
       </c>
@@ -28010,7 +28011,7 @@
       </c>
       <c r="O427" s="19"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="19" t="s">
         <v>1993</v>
       </c>
@@ -28055,7 +28056,7 @@
       </c>
       <c r="O428" s="19"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="19" t="s">
         <v>1994</v>
       </c>
@@ -28100,7 +28101,7 @@
       </c>
       <c r="O429" s="19"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="19" t="s">
         <v>1995</v>
       </c>
@@ -28145,7 +28146,7 @@
       </c>
       <c r="O430" s="19"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="19" t="s">
         <v>1996</v>
       </c>
@@ -28188,7 +28189,7 @@
       </c>
       <c r="O431" s="19"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="19" t="s">
         <v>1999</v>
       </c>
@@ -28231,7 +28232,7 @@
       </c>
       <c r="O432" s="19"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="19" t="s">
         <v>2001</v>
       </c>
@@ -28274,7 +28275,7 @@
       </c>
       <c r="O433" s="19"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="19" t="s">
         <v>2004</v>
       </c>
@@ -28317,7 +28318,7 @@
       </c>
       <c r="O434" s="19"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="19" t="s">
         <v>2006</v>
       </c>
@@ -28360,7 +28361,7 @@
       </c>
       <c r="O435" s="19"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="19" t="s">
         <v>2008</v>
       </c>
@@ -28403,7 +28404,7 @@
       </c>
       <c r="O436" s="19"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="19" t="s">
         <v>2010</v>
       </c>
@@ -28446,7 +28447,7 @@
       </c>
       <c r="O437" s="19"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="19" t="s">
         <v>2014</v>
       </c>
@@ -28489,7 +28490,7 @@
       </c>
       <c r="O438" s="19"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="19" t="s">
         <v>2016</v>
       </c>
@@ -28532,7 +28533,7 @@
       </c>
       <c r="O439" s="19"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="19" t="s">
         <v>2019</v>
       </c>
@@ -28575,7 +28576,7 @@
       </c>
       <c r="O440" s="19"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="19" t="s">
         <v>2023</v>
       </c>
@@ -28618,7 +28619,7 @@
       </c>
       <c r="O441" s="19"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="19" t="s">
         <v>2027</v>
       </c>
@@ -28661,7 +28662,7 @@
       </c>
       <c r="O442" s="19"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="19" t="s">
         <v>2029</v>
       </c>
@@ -28704,7 +28705,7 @@
       </c>
       <c r="O443" s="19"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="19" t="s">
         <v>2031</v>
       </c>
@@ -28747,7 +28748,7 @@
       </c>
       <c r="O444" s="19"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="19" t="s">
         <v>2034</v>
       </c>
@@ -28790,7 +28791,7 @@
       </c>
       <c r="O445" s="19"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="19" t="s">
         <v>2036</v>
       </c>
@@ -28833,7 +28834,7 @@
       </c>
       <c r="O446" s="19"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="19" t="s">
         <v>2038</v>
       </c>
@@ -28876,7 +28877,7 @@
       </c>
       <c r="O447" s="19"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="19" t="s">
         <v>2040</v>
       </c>
@@ -28919,7 +28920,7 @@
       </c>
       <c r="O448" s="19"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="19" t="s">
         <v>2043</v>
       </c>
@@ -28962,7 +28963,7 @@
       </c>
       <c r="O449" s="19"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="19" t="s">
         <v>2045</v>
       </c>
@@ -29005,7 +29006,7 @@
       </c>
       <c r="O450" s="19"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="19" t="s">
         <v>2047</v>
       </c>
@@ -29048,7 +29049,7 @@
       </c>
       <c r="O451" s="19"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="19" t="s">
         <v>2049</v>
       </c>
@@ -29091,7 +29092,7 @@
       </c>
       <c r="O452" s="19"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="19" t="s">
         <v>2051</v>
       </c>
@@ -29134,7 +29135,7 @@
       </c>
       <c r="O453" s="19"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="19" t="s">
         <v>2053</v>
       </c>
@@ -29177,7 +29178,7 @@
       </c>
       <c r="O454" s="19"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="19" t="s">
         <v>2055</v>
       </c>
@@ -29220,7 +29221,7 @@
       </c>
       <c r="O455" s="19"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="19" t="s">
         <v>2056</v>
       </c>
@@ -29263,7 +29264,7 @@
       </c>
       <c r="O456" s="19"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="19" t="s">
         <v>2057</v>
       </c>
@@ -29306,7 +29307,7 @@
       </c>
       <c r="O457" s="19"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="19" t="s">
         <v>2059</v>
       </c>
@@ -29351,7 +29352,7 @@
       </c>
       <c r="O458" s="19"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="19" t="s">
         <v>2060</v>
       </c>
@@ -29394,7 +29395,7 @@
       </c>
       <c r="O459" s="19"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="19" t="s">
         <v>2063</v>
       </c>
@@ -29437,7 +29438,7 @@
       </c>
       <c r="O460" s="19"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="19" t="s">
         <v>2065</v>
       </c>
@@ -29480,7 +29481,7 @@
       </c>
       <c r="O461" s="19"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="19" t="s">
         <v>2067</v>
       </c>
@@ -29523,7 +29524,7 @@
       </c>
       <c r="O462" s="19"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="19" t="s">
         <v>2069</v>
       </c>
@@ -29566,7 +29567,7 @@
       </c>
       <c r="O463" s="19"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="19" t="s">
         <v>2071</v>
       </c>
@@ -29609,7 +29610,7 @@
       </c>
       <c r="O464" s="19"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="19" t="s">
         <v>2073</v>
       </c>
@@ -29652,7 +29653,7 @@
       </c>
       <c r="O465" s="19"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="19" t="s">
         <v>2075</v>
       </c>
@@ -29695,7 +29696,7 @@
       </c>
       <c r="O466" s="19"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="19" t="s">
         <v>2077</v>
       </c>
@@ -29740,7 +29741,7 @@
       </c>
       <c r="O467" s="19"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="19" t="s">
         <v>2079</v>
       </c>
@@ -29785,7 +29786,7 @@
       </c>
       <c r="O468" s="19"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="19" t="s">
         <v>2081</v>
       </c>
@@ -29828,7 +29829,7 @@
       </c>
       <c r="O469" s="19"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="19" t="s">
         <v>2084</v>
       </c>
@@ -29871,7 +29872,7 @@
       </c>
       <c r="O470" s="19"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="19" t="s">
         <v>2085</v>
       </c>
@@ -29914,7 +29915,7 @@
       </c>
       <c r="O471" s="19"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="19" t="s">
         <v>2087</v>
       </c>
@@ -29959,7 +29960,7 @@
       </c>
       <c r="O472" s="19"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="19" t="s">
         <v>2089</v>
       </c>
@@ -30004,7 +30005,7 @@
       </c>
       <c r="O473" s="19"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="19" t="s">
         <v>2091</v>
       </c>
@@ -30049,7 +30050,7 @@
       </c>
       <c r="O474" s="19"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="19" t="s">
         <v>2093</v>
       </c>
@@ -30092,7 +30093,7 @@
       </c>
       <c r="O475" s="19"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="19" t="s">
         <v>2095</v>
       </c>
@@ -30135,7 +30136,7 @@
       </c>
       <c r="O476" s="19"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="19" t="s">
         <v>2098</v>
       </c>
@@ -30178,7 +30179,7 @@
       </c>
       <c r="O477" s="19"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="19" t="s">
         <v>2099</v>
       </c>
@@ -30221,7 +30222,7 @@
       </c>
       <c r="O478" s="19"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="19" t="s">
         <v>2100</v>
       </c>
@@ -30264,7 +30265,7 @@
       </c>
       <c r="O479" s="19"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="19" t="s">
         <v>2101</v>
       </c>
@@ -30307,7 +30308,7 @@
       </c>
       <c r="O480" s="19"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="19" t="s">
         <v>2102</v>
       </c>
@@ -30350,7 +30351,7 @@
       </c>
       <c r="O481" s="19"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="19" t="s">
         <v>2103</v>
       </c>
@@ -30393,7 +30394,7 @@
       </c>
       <c r="O482" s="19"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="19" t="s">
         <v>2104</v>
       </c>
@@ -30436,7 +30437,7 @@
       </c>
       <c r="O483" s="19"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="19" t="s">
         <v>2105</v>
       </c>
@@ -30479,7 +30480,7 @@
       </c>
       <c r="O484" s="19"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="19" t="s">
         <v>2106</v>
       </c>
@@ -30522,7 +30523,7 @@
       </c>
       <c r="O485" s="19"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="19" t="s">
         <v>2107</v>
       </c>
@@ -30565,7 +30566,7 @@
       </c>
       <c r="O486" s="19"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="19" t="s">
         <v>2108</v>
       </c>
@@ -30608,7 +30609,7 @@
       </c>
       <c r="O487" s="19"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="19" t="s">
         <v>2109</v>
       </c>
@@ -30651,7 +30652,7 @@
       </c>
       <c r="O488" s="19"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="19" t="s">
         <v>2110</v>
       </c>
@@ -30694,7 +30695,7 @@
       </c>
       <c r="O489" s="19"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="19" t="s">
         <v>2111</v>
       </c>
@@ -30737,7 +30738,7 @@
       </c>
       <c r="O490" s="19"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="19" t="s">
         <v>2112</v>
       </c>
@@ -30782,7 +30783,7 @@
       </c>
       <c r="O491" s="19"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="19" t="s">
         <v>2113</v>
       </c>
@@ -30825,7 +30826,7 @@
       </c>
       <c r="O492" s="19"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="19" t="s">
         <v>2116</v>
       </c>
@@ -30868,7 +30869,7 @@
       </c>
       <c r="O493" s="19"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="19" t="s">
         <v>2119</v>
       </c>
@@ -30911,7 +30912,7 @@
       </c>
       <c r="O494" s="19"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="19" t="s">
         <v>2121</v>
       </c>
@@ -30954,7 +30955,7 @@
       </c>
       <c r="O495" s="19"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="19" t="s">
         <v>2123</v>
       </c>
@@ -30997,7 +30998,7 @@
       </c>
       <c r="O496" s="19"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="19" t="s">
         <v>2125</v>
       </c>
@@ -31040,7 +31041,7 @@
       </c>
       <c r="O497" s="19"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="19" t="s">
         <v>2127</v>
       </c>
@@ -31085,7 +31086,7 @@
       </c>
       <c r="O498" s="19"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="19" t="s">
         <v>2129</v>
       </c>
@@ -31128,7 +31129,7 @@
       </c>
       <c r="O499" s="19"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="19" t="s">
         <v>2130</v>
       </c>
@@ -31171,7 +31172,7 @@
       </c>
       <c r="O500" s="19"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="19" t="s">
         <v>2131</v>
       </c>
@@ -31214,7 +31215,7 @@
       </c>
       <c r="O501" s="19"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="19" t="s">
         <v>2132</v>
       </c>
@@ -31257,7 +31258,7 @@
       </c>
       <c r="O502" s="19"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="19" t="s">
         <v>2133</v>
       </c>
@@ -31300,7 +31301,7 @@
       </c>
       <c r="O503" s="19"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="19" t="s">
         <v>2135</v>
       </c>
@@ -31343,7 +31344,7 @@
       </c>
       <c r="O504" s="19"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="19" t="s">
         <v>2137</v>
       </c>
@@ -31386,7 +31387,7 @@
       </c>
       <c r="O505" s="19"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="19" t="s">
         <v>2139</v>
       </c>
@@ -31429,7 +31430,7 @@
       </c>
       <c r="O506" s="19"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="19" t="s">
         <v>2141</v>
       </c>
@@ -31472,7 +31473,7 @@
       </c>
       <c r="O507" s="19"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="19" t="s">
         <v>2143</v>
       </c>
@@ -31515,7 +31516,7 @@
       </c>
       <c r="O508" s="19"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="19" t="s">
         <v>2144</v>
       </c>
@@ -31558,7 +31559,7 @@
       </c>
       <c r="O509" s="19"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="19" t="s">
         <v>2145</v>
       </c>
@@ -31601,7 +31602,7 @@
       </c>
       <c r="O510" s="19"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="19" t="s">
         <v>2148</v>
       </c>
@@ -31646,7 +31647,7 @@
       </c>
       <c r="O511" s="19"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="19" t="s">
         <v>2150</v>
       </c>
@@ -31689,7 +31690,7 @@
       </c>
       <c r="O512" s="19"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="19" t="s">
         <v>2151</v>
       </c>
@@ -31732,7 +31733,7 @@
       </c>
       <c r="O513" s="19"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="19" t="s">
         <v>2154</v>
       </c>
@@ -31775,7 +31776,7 @@
       </c>
       <c r="O514" s="19"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="19" t="s">
         <v>2155</v>
       </c>
@@ -31820,7 +31821,7 @@
       </c>
       <c r="O515" s="19"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="19" t="s">
         <v>2156</v>
       </c>
@@ -31863,7 +31864,7 @@
       </c>
       <c r="O516" s="19"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="19" t="s">
         <v>2157</v>
       </c>
@@ -31906,7 +31907,7 @@
       </c>
       <c r="O517" s="19"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="19" t="s">
         <v>2159</v>
       </c>
@@ -31949,7 +31950,7 @@
       </c>
       <c r="O518" s="19"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="19" t="s">
         <v>2160</v>
       </c>
@@ -31992,7 +31993,7 @@
       </c>
       <c r="O519" s="19"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="19" t="s">
         <v>2161</v>
       </c>
@@ -32035,7 +32036,7 @@
       </c>
       <c r="O520" s="19"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="19" t="s">
         <v>2162</v>
       </c>
@@ -32078,7 +32079,7 @@
       </c>
       <c r="O521" s="19"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="19" t="s">
         <v>2163</v>
       </c>
@@ -32121,7 +32122,7 @@
       </c>
       <c r="O522" s="19"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="19" t="s">
         <v>2164</v>
       </c>
@@ -32164,7 +32165,7 @@
       </c>
       <c r="O523" s="19"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="19" t="s">
         <v>2165</v>
       </c>
@@ -32209,7 +32210,7 @@
       </c>
       <c r="O524" s="19"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="19" t="s">
         <v>2166</v>
       </c>
@@ -32254,7 +32255,7 @@
       </c>
       <c r="O525" s="19"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="19" t="s">
         <v>2167</v>
       </c>
@@ -32297,7 +32298,7 @@
       </c>
       <c r="O526" s="19"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="19" t="s">
         <v>2168</v>
       </c>
@@ -32340,7 +32341,7 @@
       </c>
       <c r="O527" s="19"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="19" t="s">
         <v>2169</v>
       </c>
@@ -32385,7 +32386,7 @@
       </c>
       <c r="O528" s="19"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="19" t="s">
         <v>2170</v>
       </c>
@@ -32428,7 +32429,7 @@
       </c>
       <c r="O529" s="19"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="19" t="s">
         <v>2173</v>
       </c>
@@ -32471,7 +32472,7 @@
       </c>
       <c r="O530" s="19"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="19" t="s">
         <v>2175</v>
       </c>
@@ -32514,7 +32515,7 @@
       </c>
       <c r="O531" s="19"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="19" t="s">
         <v>2176</v>
       </c>
@@ -32557,7 +32558,7 @@
       </c>
       <c r="O532" s="19"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="19" t="s">
         <v>2178</v>
       </c>
@@ -32600,7 +32601,7 @@
       </c>
       <c r="O533" s="19"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="19" t="s">
         <v>2180</v>
       </c>
@@ -32643,7 +32644,7 @@
       </c>
       <c r="O534" s="19"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="19" t="s">
         <v>2182</v>
       </c>
@@ -32688,7 +32689,7 @@
       </c>
       <c r="O535" s="19"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="19" t="s">
         <v>2184</v>
       </c>
@@ -32733,7 +32734,7 @@
       </c>
       <c r="O536" s="19"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="19" t="s">
         <v>2186</v>
       </c>
@@ -32778,7 +32779,7 @@
       </c>
       <c r="O537" s="19"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="19" t="s">
         <v>2188</v>
       </c>
@@ -32823,7 +32824,7 @@
       </c>
       <c r="O538" s="19"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="19" t="s">
         <v>2190</v>
       </c>
@@ -32866,7 +32867,7 @@
       </c>
       <c r="O539" s="19"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="19" t="s">
         <v>2192</v>
       </c>
@@ -32909,7 +32910,7 @@
       </c>
       <c r="O540" s="19"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="19" t="s">
         <v>2193</v>
       </c>
@@ -32952,7 +32953,7 @@
       </c>
       <c r="O541" s="19"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="19" t="s">
         <v>2194</v>
       </c>
@@ -32997,7 +32998,7 @@
       </c>
       <c r="O542" s="19"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="19" t="s">
         <v>2195</v>
       </c>
@@ -33040,7 +33041,7 @@
       </c>
       <c r="O543" s="19"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="19" t="s">
         <v>2196</v>
       </c>
@@ -33083,7 +33084,7 @@
       </c>
       <c r="O544" s="19"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="19" t="s">
         <v>2197</v>
       </c>
@@ -33126,7 +33127,7 @@
       </c>
       <c r="O545" s="19"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="19" t="s">
         <v>2198</v>
       </c>
@@ -33169,7 +33170,7 @@
       </c>
       <c r="O546" s="19"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="19" t="s">
         <v>2199</v>
       </c>
@@ -33212,7 +33213,7 @@
       </c>
       <c r="O547" s="19"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="19" t="s">
         <v>2200</v>
       </c>
@@ -33255,7 +33256,7 @@
       </c>
       <c r="O548" s="19"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="19" t="s">
         <v>2201</v>
       </c>
@@ -33298,7 +33299,7 @@
       </c>
       <c r="O549" s="19"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="19" t="s">
         <v>2202</v>
       </c>
@@ -33341,7 +33342,7 @@
       </c>
       <c r="O550" s="19"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="19" t="s">
         <v>2203</v>
       </c>
@@ -33384,7 +33385,7 @@
       </c>
       <c r="O551" s="19"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="19" t="s">
         <v>2204</v>
       </c>
@@ -33427,7 +33428,7 @@
       </c>
       <c r="O552" s="19"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="19" t="s">
         <v>2205</v>
       </c>
@@ -33470,7 +33471,7 @@
       </c>
       <c r="O553" s="19"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="19" t="s">
         <v>2206</v>
       </c>
@@ -33513,7 +33514,7 @@
       </c>
       <c r="O554" s="19"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="19" t="s">
         <v>2207</v>
       </c>
@@ -33556,7 +33557,7 @@
       </c>
       <c r="O555" s="19"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="19" t="s">
         <v>2208</v>
       </c>
@@ -33599,7 +33600,7 @@
       </c>
       <c r="O556" s="19"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="19" t="s">
         <v>2209</v>
       </c>
@@ -33642,7 +33643,7 @@
       </c>
       <c r="O557" s="19"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="19" t="s">
         <v>2211</v>
       </c>
@@ -33685,7 +33686,7 @@
       </c>
       <c r="O558" s="19"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="19" t="s">
         <v>2212</v>
       </c>
@@ -33728,7 +33729,7 @@
       </c>
       <c r="O559" s="19"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="19" t="s">
         <v>2213</v>
       </c>
@@ -33771,7 +33772,7 @@
       </c>
       <c r="O560" s="19"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="19" t="s">
         <v>2215</v>
       </c>
@@ -33814,7 +33815,7 @@
       </c>
       <c r="O561" s="19"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="19" t="s">
         <v>2217</v>
       </c>
@@ -33857,7 +33858,7 @@
       </c>
       <c r="O562" s="19"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="19" t="s">
         <v>2219</v>
       </c>
@@ -33900,7 +33901,7 @@
       </c>
       <c r="O563" s="19"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="19" t="s">
         <v>2221</v>
       </c>
@@ -33943,7 +33944,7 @@
       </c>
       <c r="O564" s="19"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="19" t="s">
         <v>2223</v>
       </c>
@@ -33986,7 +33987,7 @@
       </c>
       <c r="O565" s="19"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="19" t="s">
         <v>2225</v>
       </c>
@@ -34029,7 +34030,7 @@
       </c>
       <c r="O566" s="19"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="19" t="s">
         <v>2227</v>
       </c>
@@ -34072,7 +34073,7 @@
       </c>
       <c r="O567" s="19"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="19" t="s">
         <v>2229</v>
       </c>
@@ -34115,7 +34116,7 @@
       </c>
       <c r="O568" s="19"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="19" t="s">
         <v>2231</v>
       </c>
@@ -34158,7 +34159,7 @@
       </c>
       <c r="O569" s="19"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="19" t="s">
         <v>2233</v>
       </c>
@@ -34201,7 +34202,7 @@
       </c>
       <c r="O570" s="19"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="19" t="s">
         <v>2235</v>
       </c>
@@ -34244,7 +34245,7 @@
       </c>
       <c r="O571" s="19"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="19" t="s">
         <v>2237</v>
       </c>
@@ -34287,7 +34288,7 @@
       </c>
       <c r="O572" s="19"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="19" t="s">
         <v>2238</v>
       </c>
@@ -34332,7 +34333,7 @@
       </c>
       <c r="O573" s="19"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="19" t="s">
         <v>2239</v>
       </c>
@@ -34377,7 +34378,7 @@
       </c>
       <c r="O574" s="19"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="19" t="s">
         <v>2240</v>
       </c>
@@ -34420,7 +34421,7 @@
       </c>
       <c r="O575" s="19"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="19" t="s">
         <v>2241</v>
       </c>
@@ -34463,7 +34464,7 @@
       </c>
       <c r="O576" s="19"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="19" t="s">
         <v>2242</v>
       </c>
@@ -34506,7 +34507,7 @@
       </c>
       <c r="O577" s="19"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="19" t="s">
         <v>2243</v>
       </c>
@@ -34549,7 +34550,7 @@
       </c>
       <c r="O578" s="19"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="19" t="s">
         <v>2244</v>
       </c>
@@ -34594,7 +34595,7 @@
       </c>
       <c r="O579" s="19"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="19" t="s">
         <v>2245</v>
       </c>
@@ -34639,7 +34640,7 @@
       </c>
       <c r="O580" s="19"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="19" t="s">
         <v>2246</v>
       </c>
@@ -34682,7 +34683,7 @@
       </c>
       <c r="O581" s="19"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="19" t="s">
         <v>2247</v>
       </c>
@@ -34725,7 +34726,7 @@
       </c>
       <c r="O582" s="19"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="19" t="s">
         <v>2248</v>
       </c>
@@ -34768,7 +34769,7 @@
       </c>
       <c r="O583" s="19"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
         <v>2249</v>
       </c>
@@ -34811,7 +34812,7 @@
       </c>
       <c r="O584" s="19"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
         <v>2250</v>
       </c>
@@ -34854,7 +34855,7 @@
       </c>
       <c r="O585" s="19"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="19" t="s">
         <v>2251</v>
       </c>
@@ -34897,7 +34898,7 @@
       </c>
       <c r="O586" s="19"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="19" t="s">
         <v>2252</v>
       </c>
@@ -34940,7 +34941,7 @@
       </c>
       <c r="O587" s="19"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="19" t="s">
         <v>2253</v>
       </c>
@@ -34985,7 +34986,7 @@
       </c>
       <c r="O588" s="19"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="19" t="s">
         <v>2254</v>
       </c>
@@ -35028,7 +35029,7 @@
       </c>
       <c r="O589" s="19"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="19" t="s">
         <v>2255</v>
       </c>
@@ -35071,7 +35072,7 @@
       </c>
       <c r="O590" s="19"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="19" t="s">
         <v>2256</v>
       </c>
@@ -35114,7 +35115,7 @@
       </c>
       <c r="O591" s="19"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="19" t="s">
         <v>2258</v>
       </c>
@@ -35159,7 +35160,7 @@
       </c>
       <c r="O592" s="19"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="19" t="s">
         <v>2259</v>
       </c>
@@ -35204,7 +35205,7 @@
       </c>
       <c r="O593" s="19"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="19" t="s">
         <v>2260</v>
       </c>
@@ -35247,7 +35248,7 @@
       </c>
       <c r="O594" s="19"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="19" t="s">
         <v>2262</v>
       </c>
@@ -35290,7 +35291,7 @@
       </c>
       <c r="O595" s="19"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="19" t="s">
         <v>2263</v>
       </c>
@@ -35333,7 +35334,7 @@
       </c>
       <c r="O596" s="19"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="19" t="s">
         <v>2264</v>
       </c>
@@ -35376,7 +35377,7 @@
       </c>
       <c r="O597" s="19"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="19" t="s">
         <v>2265</v>
       </c>
@@ -35419,7 +35420,7 @@
       </c>
       <c r="O598" s="19"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="19" t="s">
         <v>2266</v>
       </c>
@@ -35462,7 +35463,7 @@
       </c>
       <c r="O599" s="19"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="19" t="s">
         <v>2267</v>
       </c>
@@ -35505,7 +35506,7 @@
       </c>
       <c r="O600" s="19"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="19" t="s">
         <v>2268</v>
       </c>
@@ -35548,7 +35549,7 @@
       </c>
       <c r="O601" s="19"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="19" t="s">
         <v>2270</v>
       </c>
@@ -35591,7 +35592,7 @@
       </c>
       <c r="O602" s="19"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="19" t="s">
         <v>2271</v>
       </c>
@@ -35634,7 +35635,7 @@
       </c>
       <c r="O603" s="19"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="19" t="s">
         <v>2272</v>
       </c>
@@ -35679,7 +35680,7 @@
       </c>
       <c r="O604" s="19"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="19" t="s">
         <v>2273</v>
       </c>
@@ -35724,7 +35725,7 @@
       </c>
       <c r="O605" s="19"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="19" t="s">
         <v>2274</v>
       </c>
@@ -35767,7 +35768,7 @@
       </c>
       <c r="O606" s="19"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="19" t="s">
         <v>2276</v>
       </c>
@@ -35810,7 +35811,7 @@
       </c>
       <c r="O607" s="19"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="19" t="s">
         <v>2277</v>
       </c>
@@ -35853,7 +35854,7 @@
       </c>
       <c r="O608" s="19"/>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="19" t="s">
         <v>2279</v>
       </c>
@@ -35896,7 +35897,7 @@
       </c>
       <c r="O609" s="19"/>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="19" t="s">
         <v>2280</v>
       </c>
@@ -35939,7 +35940,7 @@
       </c>
       <c r="O610" s="19"/>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="19" t="s">
         <v>2281</v>
       </c>
@@ -41081,7 +41082,13 @@
       <c r="M956" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O611" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:O611" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Lurtz's Scouts"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K606">
     <sortCondition ref="C2:C606"/>
     <sortCondition ref="F2:F606"/>
@@ -61674,7 +61681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14207632-64FF-4339-B88C-C773C3F7D901}">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A99" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E311F2-A7B9-4F5F-B8F4-AD7C3C3F21D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07784F8-686D-423B-AA07-41A6A5D4E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -9363,9 +9363,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J612" sqref="J612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>253</v>
       </c>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>262</v>
       </c>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="O63" s="19"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>560</v>
       </c>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="O65" s="19"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>564</v>
       </c>
@@ -17907,7 +17907,7 @@
       </c>
       <c r="O196" s="19"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>847</v>
       </c>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="O199" s="19"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>850</v>
       </c>
@@ -18652,7 +18652,7 @@
       </c>
       <c r="O213" s="19"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
         <v>874</v>
       </c>
@@ -18738,7 +18738,7 @@
       </c>
       <c r="O215" s="19"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>876</v>
       </c>
@@ -29898,7 +29898,7 @@
         <v>0</v>
       </c>
       <c r="J471" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K471" s="19">
         <v>0</v>
@@ -30047,7 +30047,7 @@
       </c>
       <c r="O474" s="19"/>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="19" t="s">
         <v>2091</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>0</v>
       </c>
       <c r="J475" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K475" s="19">
         <v>3</v>
@@ -41082,8 +41082,7 @@
   <autoFilter ref="A1:O611" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Uruk-Hai Scout"/>
-        <filter val="Uruk-Hai Scout Captain"/>
+        <filter val="Iron Hills Ballista"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -41100,12 +41099,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1790"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A630" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C777" sqref="C777"/>
+      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C643" sqref="C643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41149,7 +41147,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -41172,7 +41170,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
@@ -41195,7 +41193,7 @@
         <v>Snowmane</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -41212,7 +41210,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -41229,7 +41227,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
@@ -41252,7 +41250,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -41269,7 +41267,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -41292,7 +41290,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
@@ -41315,7 +41313,7 @@
         <v>Firefoot</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -41332,7 +41330,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -41351,7 +41349,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -41368,7 +41366,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -41391,7 +41389,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
@@ -41414,7 +41412,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
@@ -41431,7 +41429,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
@@ -41448,7 +41446,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
@@ -41471,7 +41469,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>42</v>
       </c>
@@ -41488,7 +41486,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>43</v>
       </c>
@@ -41505,7 +41503,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>44</v>
       </c>
@@ -41524,7 +41522,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>46</v>
       </c>
@@ -41543,7 +41541,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -41560,7 +41558,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -41579,7 +41577,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
@@ -41596,7 +41594,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>50</v>
       </c>
@@ -41615,7 +41613,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>51</v>
       </c>
@@ -41632,7 +41630,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
@@ -41651,7 +41649,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -41673,7 +41671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>54</v>
       </c>
@@ -41696,7 +41694,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>55</v>
       </c>
@@ -41715,7 +41713,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>267</v>
       </c>
@@ -41738,7 +41736,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>268</v>
       </c>
@@ -41755,7 +41753,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>269</v>
       </c>
@@ -41774,7 +41772,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>270</v>
       </c>
@@ -41791,7 +41789,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>271</v>
       </c>
@@ -41808,7 +41806,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>272</v>
       </c>
@@ -41825,7 +41823,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>273</v>
       </c>
@@ -41842,7 +41840,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>274</v>
       </c>
@@ -41861,7 +41859,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>431</v>
       </c>
@@ -41880,7 +41878,7 @@
       </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>432</v>
       </c>
@@ -41905,7 +41903,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>433</v>
       </c>
@@ -41927,7 +41925,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>434</v>
       </c>
@@ -41944,7 +41942,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>435</v>
       </c>
@@ -41961,7 +41959,7 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>436</v>
       </c>
@@ -41980,7 +41978,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>437</v>
       </c>
@@ -42005,7 +42003,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>438</v>
       </c>
@@ -42027,7 +42025,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>439</v>
       </c>
@@ -42044,7 +42042,7 @@
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>440</v>
       </c>
@@ -42067,7 +42065,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>441</v>
       </c>
@@ -42090,7 +42088,7 @@
         <v>Asfaloth</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>442</v>
       </c>
@@ -42109,7 +42107,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>443</v>
       </c>
@@ -42131,7 +42129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>444</v>
       </c>
@@ -42148,7 +42146,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>445</v>
       </c>
@@ -42165,7 +42163,7 @@
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>446</v>
       </c>
@@ -42184,7 +42182,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>447</v>
       </c>
@@ -42201,7 +42199,7 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>448</v>
       </c>
@@ -42218,7 +42216,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>449</v>
       </c>
@@ -42235,7 +42233,7 @@
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>450</v>
       </c>
@@ -42252,7 +42250,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>451</v>
       </c>
@@ -42269,7 +42267,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>452</v>
       </c>
@@ -42286,7 +42284,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>453</v>
       </c>
@@ -42303,7 +42301,7 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>454</v>
       </c>
@@ -42322,7 +42320,7 @@
       </c>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>455</v>
       </c>
@@ -42339,7 +42337,7 @@
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>456</v>
       </c>
@@ -42356,7 +42354,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>457</v>
       </c>
@@ -42373,7 +42371,7 @@
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>458</v>
       </c>
@@ -42390,7 +42388,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>459</v>
       </c>
@@ -42409,7 +42407,7 @@
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>460</v>
       </c>
@@ -42426,7 +42424,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>461</v>
       </c>
@@ -42445,7 +42443,7 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>462</v>
       </c>
@@ -42462,7 +42460,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>463</v>
       </c>
@@ -42481,7 +42479,7 @@
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>464</v>
       </c>
@@ -42500,7 +42498,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>465</v>
       </c>
@@ -42519,7 +42517,7 @@
       </c>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>466</v>
       </c>
@@ -42536,7 +42534,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>467</v>
       </c>
@@ -42553,7 +42551,7 @@
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>468</v>
       </c>
@@ -42570,7 +42568,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>469</v>
       </c>
@@ -42589,7 +42587,7 @@
       </c>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>470</v>
       </c>
@@ -42610,7 +42608,7 @@
       </c>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>471</v>
       </c>
@@ -42627,7 +42625,7 @@
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>472</v>
       </c>
@@ -42646,7 +42644,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>473</v>
       </c>
@@ -42663,7 +42661,7 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>474</v>
       </c>
@@ -42682,7 +42680,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>475</v>
       </c>
@@ -42699,7 +42697,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>476</v>
       </c>
@@ -42716,7 +42714,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>477</v>
       </c>
@@ -42733,7 +42731,7 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>478</v>
       </c>
@@ -42752,7 +42750,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>479</v>
       </c>
@@ -42769,7 +42767,7 @@
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>480</v>
       </c>
@@ -42786,7 +42784,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>481</v>
       </c>
@@ -42803,7 +42801,7 @@
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>482</v>
       </c>
@@ -42820,7 +42818,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>483</v>
       </c>
@@ -42837,7 +42835,7 @@
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>484</v>
       </c>
@@ -42854,7 +42852,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>485</v>
       </c>
@@ -42871,7 +42869,7 @@
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>486</v>
       </c>
@@ -42888,7 +42886,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>487</v>
       </c>
@@ -42905,7 +42903,7 @@
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>488</v>
       </c>
@@ -42924,7 +42922,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>489</v>
       </c>
@@ -42941,7 +42939,7 @@
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>490</v>
       </c>
@@ -42964,7 +42962,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>491</v>
       </c>
@@ -42981,7 +42979,7 @@
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>492</v>
       </c>
@@ -42998,7 +42996,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>493</v>
       </c>
@@ -43015,7 +43013,7 @@
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>494</v>
       </c>
@@ -43032,7 +43030,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>495</v>
       </c>
@@ -43049,7 +43047,7 @@
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>496</v>
       </c>
@@ -43066,7 +43064,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>497</v>
       </c>
@@ -43083,7 +43081,7 @@
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>498</v>
       </c>
@@ -43100,7 +43098,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>499</v>
       </c>
@@ -43117,7 +43115,7 @@
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>500</v>
       </c>
@@ -43134,7 +43132,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>521</v>
       </c>
@@ -43157,7 +43155,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>522</v>
       </c>
@@ -43180,7 +43178,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>523</v>
       </c>
@@ -43197,7 +43195,7 @@
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>524</v>
       </c>
@@ -43214,7 +43212,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>525</v>
       </c>
@@ -43231,7 +43229,7 @@
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>526</v>
       </c>
@@ -43250,7 +43248,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>527</v>
       </c>
@@ -43267,7 +43265,7 @@
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>528</v>
       </c>
@@ -43284,7 +43282,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>529</v>
       </c>
@@ -43301,7 +43299,7 @@
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>530</v>
       </c>
@@ -43318,7 +43316,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>550</v>
       </c>
@@ -43341,7 +43339,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>551</v>
       </c>
@@ -43360,7 +43358,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>552</v>
       </c>
@@ -43377,7 +43375,7 @@
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>553</v>
       </c>
@@ -43394,7 +43392,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>554</v>
       </c>
@@ -43413,7 +43411,7 @@
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>565</v>
       </c>
@@ -43430,7 +43428,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>566</v>
       </c>
@@ -43447,7 +43445,7 @@
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>567</v>
       </c>
@@ -43464,7 +43462,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>568</v>
       </c>
@@ -43483,7 +43481,7 @@
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>599</v>
       </c>
@@ -43502,7 +43500,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>600</v>
       </c>
@@ -43519,7 +43517,7 @@
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>601</v>
       </c>
@@ -43536,7 +43534,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>602</v>
       </c>
@@ -43553,7 +43551,7 @@
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>603</v>
       </c>
@@ -43572,7 +43570,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>604</v>
       </c>
@@ -43589,7 +43587,7 @@
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>605</v>
       </c>
@@ -43608,7 +43606,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>606</v>
       </c>
@@ -43627,7 +43625,7 @@
       <c r="F135" s="16"/>
       <c r="G135" s="16"/>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>607</v>
       </c>
@@ -43644,7 +43642,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>618</v>
       </c>
@@ -43669,7 +43667,7 @@
         <v>Snowmane</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>619</v>
       </c>
@@ -43694,7 +43692,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>620</v>
       </c>
@@ -43719,7 +43717,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>621</v>
       </c>
@@ -43736,7 +43734,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>622</v>
       </c>
@@ -43753,7 +43751,7 @@
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
         <v>623</v>
       </c>
@@ -43770,7 +43768,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
         <v>624</v>
       </c>
@@ -43789,7 +43787,7 @@
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>625</v>
       </c>
@@ -43814,7 +43812,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>626</v>
       </c>
@@ -43833,7 +43831,7 @@
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
         <v>627</v>
       </c>
@@ -43858,7 +43856,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>628</v>
       </c>
@@ -43879,7 +43877,7 @@
       </c>
       <c r="G147" s="16"/>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>629</v>
       </c>
@@ -43896,7 +43894,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>630</v>
       </c>
@@ -43921,7 +43919,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>631</v>
       </c>
@@ -43938,7 +43936,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>632</v>
       </c>
@@ -43955,7 +43953,7 @@
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
         <v>655</v>
       </c>
@@ -43978,7 +43976,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>656</v>
       </c>
@@ -44000,7 +43998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>657</v>
       </c>
@@ -44017,7 +44015,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>658</v>
       </c>
@@ -44034,7 +44032,7 @@
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
         <v>659</v>
       </c>
@@ -44053,7 +44051,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>660</v>
       </c>
@@ -44070,7 +44068,7 @@
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
         <v>661</v>
       </c>
@@ -44087,7 +44085,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>662</v>
       </c>
@@ -44108,7 +44106,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>663</v>
       </c>
@@ -44125,7 +44123,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>664</v>
       </c>
@@ -44142,7 +44140,7 @@
       <c r="F161" s="16"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>1126</v>
       </c>
@@ -44165,7 +44163,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>1127</v>
       </c>
@@ -44188,7 +44186,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>1128</v>
       </c>
@@ -44211,7 +44209,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>1129</v>
       </c>
@@ -44234,7 +44232,7 @@
         <v>Ashere</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
         <v>1130</v>
       </c>
@@ -44257,7 +44255,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>1131</v>
       </c>
@@ -44280,7 +44278,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
         <v>1132</v>
       </c>
@@ -44297,7 +44295,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
         <v>1133</v>
       </c>
@@ -44314,7 +44312,7 @@
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
         <v>1134</v>
       </c>
@@ -44337,7 +44335,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>1135</v>
       </c>
@@ -44356,7 +44354,7 @@
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
         <v>1136</v>
       </c>
@@ -44373,7 +44371,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
         <v>1137</v>
       </c>
@@ -44392,7 +44390,7 @@
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
         <v>1138</v>
       </c>
@@ -44409,7 +44407,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>1139</v>
       </c>
@@ -44428,7 +44426,7 @@
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>1140</v>
       </c>
@@ -44445,7 +44443,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>1141</v>
       </c>
@@ -44464,7 +44462,7 @@
       <c r="F177" s="16"/>
       <c r="G177" s="16"/>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>1142</v>
       </c>
@@ -44487,7 +44485,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>1143</v>
       </c>
@@ -44506,7 +44504,7 @@
       <c r="F179" s="16"/>
       <c r="G179" s="16"/>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
         <v>1144</v>
       </c>
@@ -44531,7 +44529,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>1145</v>
       </c>
@@ -44550,7 +44548,7 @@
       <c r="F181" s="16"/>
       <c r="G181" s="16"/>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>1146</v>
       </c>
@@ -44569,7 +44567,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>1147</v>
       </c>
@@ -44586,7 +44584,7 @@
       <c r="F183" s="16"/>
       <c r="G183" s="16"/>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
         <v>1148</v>
       </c>
@@ -44605,7 +44603,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>1149</v>
       </c>
@@ -44624,7 +44622,7 @@
       </c>
       <c r="G185" s="16"/>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>1150</v>
       </c>
@@ -44647,7 +44645,7 @@
         <v>Armoured Fell Beast</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>1151</v>
       </c>
@@ -44670,7 +44668,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>1152</v>
       </c>
@@ -44687,7 +44685,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>1153</v>
       </c>
@@ -44710,7 +44708,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>1154</v>
       </c>
@@ -44727,7 +44725,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>1155</v>
       </c>
@@ -44744,7 +44742,7 @@
       <c r="F191" s="16"/>
       <c r="G191" s="16"/>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
         <v>1156</v>
       </c>
@@ -44763,7 +44761,7 @@
       </c>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>1157</v>
       </c>
@@ -44786,7 +44784,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>1158</v>
       </c>
@@ -44809,7 +44807,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>1159</v>
       </c>
@@ -44826,7 +44824,7 @@
       <c r="F195" s="16"/>
       <c r="G195" s="16"/>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
         <v>1160</v>
       </c>
@@ -44843,7 +44841,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
         <v>1161</v>
       </c>
@@ -44860,7 +44858,7 @@
       <c r="F197" s="16"/>
       <c r="G197" s="16"/>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
         <v>1162</v>
       </c>
@@ -44877,7 +44875,7 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>1163</v>
       </c>
@@ -44896,7 +44894,7 @@
       <c r="F199" s="16"/>
       <c r="G199" s="16"/>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>1164</v>
       </c>
@@ -44913,7 +44911,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>1165</v>
       </c>
@@ -44930,7 +44928,7 @@
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
         <v>1166</v>
       </c>
@@ -44947,7 +44945,7 @@
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>1167</v>
       </c>
@@ -44964,7 +44962,7 @@
       <c r="F203" s="16"/>
       <c r="G203" s="16"/>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>1168</v>
       </c>
@@ -44981,7 +44979,7 @@
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>1169</v>
       </c>
@@ -44998,7 +44996,7 @@
       <c r="F205" s="16"/>
       <c r="G205" s="16"/>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>1170</v>
       </c>
@@ -45015,7 +45013,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>1171</v>
       </c>
@@ -45032,7 +45030,7 @@
       <c r="F207" s="16"/>
       <c r="G207" s="16"/>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
         <v>1172</v>
       </c>
@@ -45051,7 +45049,7 @@
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
         <v>1173</v>
       </c>
@@ -45070,7 +45068,7 @@
       <c r="F209" s="16"/>
       <c r="G209" s="16"/>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
         <v>1174</v>
       </c>
@@ -45089,7 +45087,7 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
         <v>1175</v>
       </c>
@@ -45108,7 +45106,7 @@
       <c r="F211" s="16"/>
       <c r="G211" s="16"/>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
         <v>1176</v>
       </c>
@@ -45127,7 +45125,7 @@
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
         <v>1177</v>
       </c>
@@ -45144,7 +45142,7 @@
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
         <v>1178</v>
       </c>
@@ -45167,7 +45165,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
         <v>1179</v>
       </c>
@@ -45190,7 +45188,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
         <v>1180</v>
       </c>
@@ -45207,7 +45205,7 @@
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
         <v>1181</v>
       </c>
@@ -45224,7 +45222,7 @@
       <c r="F217" s="16"/>
       <c r="G217" s="16"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
         <v>1182</v>
       </c>
@@ -45241,7 +45239,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>1183</v>
       </c>
@@ -45260,7 +45258,7 @@
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
         <v>1184</v>
       </c>
@@ -45277,7 +45275,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>1185</v>
       </c>
@@ -45294,7 +45292,7 @@
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
         <v>1186</v>
       </c>
@@ -45311,7 +45309,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>1187</v>
       </c>
@@ -45328,7 +45326,7 @@
       <c r="F223" s="16"/>
       <c r="G223" s="16"/>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>1188</v>
       </c>
@@ -45347,7 +45345,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
         <v>1189</v>
       </c>
@@ -45364,7 +45362,7 @@
       <c r="F225" s="16"/>
       <c r="G225" s="16"/>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>1190</v>
       </c>
@@ -45383,7 +45381,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>1191</v>
       </c>
@@ -45400,7 +45398,7 @@
       <c r="F227" s="16"/>
       <c r="G227" s="16"/>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
         <v>1192</v>
       </c>
@@ -45419,7 +45417,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>1193</v>
       </c>
@@ -45438,7 +45436,7 @@
       </c>
       <c r="G229" s="16"/>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>1194</v>
       </c>
@@ -45461,7 +45459,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>1195</v>
       </c>
@@ -45478,7 +45476,7 @@
       <c r="F231" s="16"/>
       <c r="G231" s="16"/>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>1196</v>
       </c>
@@ -45497,7 +45495,7 @@
       </c>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
         <v>1197</v>
       </c>
@@ -45520,7 +45518,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>1198</v>
       </c>
@@ -45537,7 +45535,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
         <v>1199</v>
       </c>
@@ -45554,7 +45552,7 @@
       <c r="F235" s="16"/>
       <c r="G235" s="16"/>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>1200</v>
       </c>
@@ -45573,7 +45571,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>1201</v>
       </c>
@@ -45590,7 +45588,7 @@
       <c r="F237" s="16"/>
       <c r="G237" s="16"/>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>1202</v>
       </c>
@@ -45607,7 +45605,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
         <v>1203</v>
       </c>
@@ -45624,7 +45622,7 @@
       <c r="F239" s="16"/>
       <c r="G239" s="16"/>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
         <v>1204</v>
       </c>
@@ -45643,7 +45641,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>1205</v>
       </c>
@@ -45662,7 +45660,7 @@
       <c r="F241" s="16"/>
       <c r="G241" s="16"/>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
         <v>1206</v>
       </c>
@@ -45679,7 +45677,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>1207</v>
       </c>
@@ -45698,7 +45696,7 @@
       <c r="F243" s="16"/>
       <c r="G243" s="16"/>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
         <v>1208</v>
       </c>
@@ -45715,7 +45713,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>1209</v>
       </c>
@@ -45732,7 +45730,7 @@
       <c r="F245" s="16"/>
       <c r="G245" s="16"/>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>1210</v>
       </c>
@@ -45749,7 +45747,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
         <v>1211</v>
       </c>
@@ -45768,7 +45766,7 @@
       <c r="F247" s="16"/>
       <c r="G247" s="16"/>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
         <v>1212</v>
       </c>
@@ -45787,7 +45785,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>1213</v>
       </c>
@@ -45804,7 +45802,7 @@
       <c r="F249" s="16"/>
       <c r="G249" s="16"/>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>1214</v>
       </c>
@@ -45821,7 +45819,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>1215</v>
       </c>
@@ -45838,7 +45836,7 @@
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>1216</v>
       </c>
@@ -45855,7 +45853,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>1217</v>
       </c>
@@ -45878,7 +45876,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>1218</v>
       </c>
@@ -45897,7 +45895,7 @@
       </c>
       <c r="G254" s="16"/>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>1219</v>
       </c>
@@ -45922,7 +45920,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>1220</v>
       </c>
@@ -45939,7 +45937,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>1221</v>
       </c>
@@ -45956,7 +45954,7 @@
       <c r="F257" s="16"/>
       <c r="G257" s="16"/>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>1222</v>
       </c>
@@ -45973,7 +45971,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>1223</v>
       </c>
@@ -45990,7 +45988,7 @@
       <c r="F259" s="16"/>
       <c r="G259" s="16"/>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
         <v>1224</v>
       </c>
@@ -46007,7 +46005,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>1225</v>
       </c>
@@ -46024,7 +46022,7 @@
       <c r="F261" s="16"/>
       <c r="G261" s="16"/>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
         <v>1226</v>
       </c>
@@ -46041,7 +46039,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
         <v>1227</v>
       </c>
@@ -46058,7 +46056,7 @@
       <c r="F263" s="16"/>
       <c r="G263" s="16"/>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
         <v>1228</v>
       </c>
@@ -46077,7 +46075,7 @@
       </c>
       <c r="G264" s="16"/>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
         <v>1229</v>
       </c>
@@ -46102,7 +46100,7 @@
         <v>Armoured Fell Beast</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
         <v>1230</v>
       </c>
@@ -46121,7 +46119,7 @@
       </c>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
         <v>1231</v>
       </c>
@@ -46138,7 +46136,7 @@
       <c r="F267" s="16"/>
       <c r="G267" s="16"/>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
         <v>1232</v>
       </c>
@@ -46155,7 +46153,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
         <v>1233</v>
       </c>
@@ -46174,7 +46172,7 @@
       </c>
       <c r="G269" s="16"/>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="16" t="s">
         <v>1234</v>
       </c>
@@ -46199,7 +46197,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
         <v>1235</v>
       </c>
@@ -46216,7 +46214,7 @@
       <c r="F271" s="16"/>
       <c r="G271" s="16"/>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="16" t="s">
         <v>1236</v>
       </c>
@@ -46239,7 +46237,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
         <v>1237</v>
       </c>
@@ -46256,7 +46254,7 @@
       <c r="F273" s="16"/>
       <c r="G273" s="16"/>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="16" t="s">
         <v>1238</v>
       </c>
@@ -46273,7 +46271,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
         <v>1239</v>
       </c>
@@ -46290,7 +46288,7 @@
       <c r="F275" s="16"/>
       <c r="G275" s="16"/>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="16" t="s">
         <v>1240</v>
       </c>
@@ -46307,7 +46305,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="s">
         <v>1241</v>
       </c>
@@ -46324,7 +46322,7 @@
       <c r="F277" s="16"/>
       <c r="G277" s="16"/>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="16" t="s">
         <v>1242</v>
       </c>
@@ -46341,7 +46339,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
         <v>1243</v>
       </c>
@@ -46358,7 +46356,7 @@
       <c r="F279" s="16"/>
       <c r="G279" s="16"/>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="16" t="s">
         <v>1244</v>
       </c>
@@ -46375,7 +46373,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
         <v>1245</v>
       </c>
@@ -46392,7 +46390,7 @@
       <c r="F281" s="16"/>
       <c r="G281" s="16"/>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="16" t="s">
         <v>1246</v>
       </c>
@@ -46409,7 +46407,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="s">
         <v>1247</v>
       </c>
@@ -46426,7 +46424,7 @@
       <c r="F283" s="16"/>
       <c r="G283" s="16"/>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="16" t="s">
         <v>1248</v>
       </c>
@@ -46445,7 +46443,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
         <v>1249</v>
       </c>
@@ -46462,7 +46460,7 @@
       <c r="F285" s="16"/>
       <c r="G285" s="16"/>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="16" t="s">
         <v>1250</v>
       </c>
@@ -46479,7 +46477,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="s">
         <v>1251</v>
       </c>
@@ -46498,7 +46496,7 @@
       <c r="F287" s="16"/>
       <c r="G287" s="16"/>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="16" t="s">
         <v>1252</v>
       </c>
@@ -46515,7 +46513,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="s">
         <v>1253</v>
       </c>
@@ -46532,7 +46530,7 @@
       <c r="F289" s="16"/>
       <c r="G289" s="16"/>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="16" t="s">
         <v>1254</v>
       </c>
@@ -46549,7 +46547,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="s">
         <v>1255</v>
       </c>
@@ -46566,7 +46564,7 @@
       <c r="F291" s="16"/>
       <c r="G291" s="16"/>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="16" t="s">
         <v>1256</v>
       </c>
@@ -46583,7 +46581,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="s">
         <v>1257</v>
       </c>
@@ -46600,7 +46598,7 @@
       <c r="F293" s="16"/>
       <c r="G293" s="16"/>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="16" t="s">
         <v>1258</v>
       </c>
@@ -46617,7 +46615,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
         <v>1259</v>
       </c>
@@ -46634,7 +46632,7 @@
       <c r="F295" s="16"/>
       <c r="G295" s="16"/>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="16" t="s">
         <v>1260</v>
       </c>
@@ -46651,7 +46649,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
         <v>1261</v>
       </c>
@@ -46670,7 +46668,7 @@
       <c r="F297" s="16"/>
       <c r="G297" s="16"/>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="16" t="s">
         <v>1262</v>
       </c>
@@ -46687,7 +46685,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
         <v>1263</v>
       </c>
@@ -46706,7 +46704,7 @@
       <c r="F299" s="16"/>
       <c r="G299" s="16"/>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="16" t="s">
         <v>1264</v>
       </c>
@@ -46729,7 +46727,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="s">
         <v>1265</v>
       </c>
@@ -46746,7 +46744,7 @@
       <c r="F301" s="16"/>
       <c r="G301" s="16"/>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="16" t="s">
         <v>1266</v>
       </c>
@@ -46763,7 +46761,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
         <v>1267</v>
       </c>
@@ -46780,7 +46778,7 @@
       <c r="F303" s="16"/>
       <c r="G303" s="16"/>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="16" t="s">
         <v>1268</v>
       </c>
@@ -46799,7 +46797,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="s">
         <v>1269</v>
       </c>
@@ -46816,7 +46814,7 @@
       <c r="F305" s="16"/>
       <c r="G305" s="16"/>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="16" t="s">
         <v>1270</v>
       </c>
@@ -46833,7 +46831,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="s">
         <v>1271</v>
       </c>
@@ -46858,7 +46856,7 @@
         <v>Asfaloth</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="16" t="s">
         <v>1272</v>
       </c>
@@ -46877,7 +46875,7 @@
       </c>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="s">
         <v>1273</v>
       </c>
@@ -46902,7 +46900,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
         <v>1274</v>
       </c>
@@ -46921,7 +46919,7 @@
       </c>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="s">
         <v>1275</v>
       </c>
@@ -46940,7 +46938,7 @@
       </c>
       <c r="G311" s="16"/>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="16" t="s">
         <v>1276</v>
       </c>
@@ -46957,7 +46955,7 @@
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="s">
         <v>1277</v>
       </c>
@@ -46982,7 +46980,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="16" t="s">
         <v>1278</v>
       </c>
@@ -47007,7 +47005,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="s">
         <v>1279</v>
       </c>
@@ -47024,7 +47022,7 @@
       <c r="F315" s="16"/>
       <c r="G315" s="16"/>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="16" t="s">
         <v>1280</v>
       </c>
@@ -47041,7 +47039,7 @@
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="s">
         <v>1281</v>
       </c>
@@ -47058,7 +47056,7 @@
       <c r="F317" s="16"/>
       <c r="G317" s="16"/>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="16" t="s">
         <v>1282</v>
       </c>
@@ -47077,7 +47075,7 @@
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
         <v>1283</v>
       </c>
@@ -47102,7 +47100,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="16" t="s">
         <v>1284</v>
       </c>
@@ -47121,7 +47119,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="16" t="s">
         <v>1285</v>
       </c>
@@ -47146,7 +47144,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="16" t="s">
         <v>1286</v>
       </c>
@@ -47165,7 +47163,7 @@
       </c>
       <c r="G322" s="16"/>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="s">
         <v>1287</v>
       </c>
@@ -47190,7 +47188,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="16" t="s">
         <v>1288</v>
       </c>
@@ -47209,7 +47207,7 @@
       </c>
       <c r="G324" s="16"/>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="s">
         <v>1289</v>
       </c>
@@ -47226,7 +47224,7 @@
       <c r="F325" s="16"/>
       <c r="G325" s="16"/>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="16" t="s">
         <v>1290</v>
       </c>
@@ -47243,7 +47241,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="s">
         <v>1291</v>
       </c>
@@ -47262,7 +47260,7 @@
       <c r="F327" s="16"/>
       <c r="G327" s="16"/>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="16" t="s">
         <v>1292</v>
       </c>
@@ -47279,7 +47277,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="s">
         <v>1293</v>
       </c>
@@ -47298,7 +47296,7 @@
       <c r="F329" s="16"/>
       <c r="G329" s="16"/>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="16" t="s">
         <v>1294</v>
       </c>
@@ -47315,7 +47313,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
         <v>1295</v>
       </c>
@@ -47332,7 +47330,7 @@
       <c r="F331" s="16"/>
       <c r="G331" s="16"/>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
         <v>1296</v>
       </c>
@@ -47349,7 +47347,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="s">
         <v>1297</v>
       </c>
@@ -47368,7 +47366,7 @@
       </c>
       <c r="G333" s="16"/>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="16" t="s">
         <v>1298</v>
       </c>
@@ -47393,7 +47391,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="s">
         <v>1299</v>
       </c>
@@ -47410,7 +47408,7 @@
       <c r="F335" s="16"/>
       <c r="G335" s="16"/>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="16" t="s">
         <v>1300</v>
       </c>
@@ -47429,7 +47427,7 @@
       </c>
       <c r="G336" s="16"/>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="s">
         <v>1301</v>
       </c>
@@ -47454,7 +47452,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="16" t="s">
         <v>1302</v>
       </c>
@@ -47471,7 +47469,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="s">
         <v>1303</v>
       </c>
@@ -47488,7 +47486,7 @@
       <c r="F339" s="16"/>
       <c r="G339" s="16"/>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="16" t="s">
         <v>1304</v>
       </c>
@@ -47507,7 +47505,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="s">
         <v>1305</v>
       </c>
@@ -47524,7 +47522,7 @@
       <c r="F341" s="16"/>
       <c r="G341" s="16"/>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="16" t="s">
         <v>1306</v>
       </c>
@@ -47541,7 +47539,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="s">
         <v>1307</v>
       </c>
@@ -47564,7 +47562,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="16" t="s">
         <v>1308</v>
       </c>
@@ -47581,7 +47579,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="s">
         <v>1309</v>
       </c>
@@ -47598,7 +47596,7 @@
       <c r="F345" s="16"/>
       <c r="G345" s="16"/>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="16" t="s">
         <v>1310</v>
       </c>
@@ -47615,7 +47613,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="s">
         <v>1311</v>
       </c>
@@ -47632,7 +47630,7 @@
       <c r="F347" s="16"/>
       <c r="G347" s="16"/>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="16" t="s">
         <v>1312</v>
       </c>
@@ -47651,7 +47649,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
         <v>1313</v>
       </c>
@@ -47668,7 +47666,7 @@
       <c r="F349" s="16"/>
       <c r="G349" s="16"/>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="16" t="s">
         <v>1314</v>
       </c>
@@ -47687,7 +47685,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="s">
         <v>1315</v>
       </c>
@@ -47704,7 +47702,7 @@
       <c r="F351" s="16"/>
       <c r="G351" s="16"/>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="16" t="s">
         <v>1316</v>
       </c>
@@ -47721,7 +47719,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="s">
         <v>1317</v>
       </c>
@@ -47738,7 +47736,7 @@
       <c r="F353" s="16"/>
       <c r="G353" s="16"/>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="16" t="s">
         <v>1318</v>
       </c>
@@ -47755,7 +47753,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="s">
         <v>1319</v>
       </c>
@@ -47772,7 +47770,7 @@
       <c r="F355" s="16"/>
       <c r="G355" s="16"/>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="16" t="s">
         <v>1320</v>
       </c>
@@ -47791,7 +47789,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="s">
         <v>1321</v>
       </c>
@@ -47808,7 +47806,7 @@
       <c r="F357" s="16"/>
       <c r="G357" s="16"/>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="16" t="s">
         <v>1322</v>
       </c>
@@ -47825,7 +47823,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="16" t="s">
         <v>1323</v>
       </c>
@@ -47842,7 +47840,7 @@
       <c r="F359" s="16"/>
       <c r="G359" s="16"/>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="16" t="s">
         <v>1324</v>
       </c>
@@ -47861,7 +47859,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="16" t="s">
         <v>1325</v>
       </c>
@@ -47880,7 +47878,7 @@
       <c r="F361" s="16"/>
       <c r="G361" s="16"/>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="16" t="s">
         <v>1326</v>
       </c>
@@ -47897,7 +47895,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="16" t="s">
         <v>1327</v>
       </c>
@@ -47916,7 +47914,7 @@
       <c r="F363" s="16"/>
       <c r="G363" s="16"/>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="16" t="s">
         <v>1328</v>
       </c>
@@ -47933,7 +47931,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="16" t="s">
         <v>1329</v>
       </c>
@@ -47950,7 +47948,7 @@
       <c r="F365" s="16"/>
       <c r="G365" s="16"/>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="16" t="s">
         <v>1330</v>
       </c>
@@ -47969,7 +47967,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="16" t="s">
         <v>1331</v>
       </c>
@@ -47986,7 +47984,7 @@
       <c r="F367" s="16"/>
       <c r="G367" s="16"/>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="16" t="s">
         <v>1332</v>
       </c>
@@ -48003,7 +48001,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="16" t="s">
         <v>1333</v>
       </c>
@@ -48020,7 +48018,7 @@
       <c r="F369" s="16"/>
       <c r="G369" s="16"/>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="16" t="s">
         <v>1334</v>
       </c>
@@ -48037,7 +48035,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="16" t="s">
         <v>1335</v>
       </c>
@@ -48060,7 +48058,7 @@
         <v>Gandalf's Cart</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="16" t="s">
         <v>1336</v>
       </c>
@@ -48077,7 +48075,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="16" t="s">
         <v>1337</v>
       </c>
@@ -48094,7 +48092,7 @@
       <c r="F373" s="16"/>
       <c r="G373" s="16"/>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="16" t="s">
         <v>1338</v>
       </c>
@@ -48113,7 +48111,7 @@
       </c>
       <c r="G374" s="16"/>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="16" t="s">
         <v>1339</v>
       </c>
@@ -48136,7 +48134,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A376" s="16" t="s">
         <v>1340</v>
       </c>
@@ -48155,7 +48153,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="16" t="s">
         <v>1341</v>
       </c>
@@ -48172,7 +48170,7 @@
       <c r="F377" s="16"/>
       <c r="G377" s="16"/>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="16" t="s">
         <v>1342</v>
       </c>
@@ -48189,7 +48187,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="16" t="s">
         <v>1343</v>
       </c>
@@ -48208,7 +48206,7 @@
       <c r="F379" s="16"/>
       <c r="G379" s="16"/>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="16" t="s">
         <v>1344</v>
       </c>
@@ -48231,7 +48229,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="16" t="s">
         <v>1345</v>
       </c>
@@ -48253,7 +48251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="16" t="s">
         <v>1346</v>
       </c>
@@ -48270,7 +48268,7 @@
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="16" t="s">
         <v>1347</v>
       </c>
@@ -48287,7 +48285,7 @@
       <c r="F383" s="16"/>
       <c r="G383" s="16"/>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="16" t="s">
         <v>1348</v>
       </c>
@@ -48306,7 +48304,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="16" t="s">
         <v>1349</v>
       </c>
@@ -48323,7 +48321,7 @@
       <c r="F385" s="16"/>
       <c r="G385" s="16"/>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="16" t="s">
         <v>1350</v>
       </c>
@@ -48340,7 +48338,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="16" t="s">
         <v>1351</v>
       </c>
@@ -48359,7 +48357,7 @@
       <c r="F387" s="16"/>
       <c r="G387" s="16"/>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="16" t="s">
         <v>1352</v>
       </c>
@@ -48384,7 +48382,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="16" t="s">
         <v>1353</v>
       </c>
@@ -48403,7 +48401,7 @@
       </c>
       <c r="G389" s="16"/>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="16" t="s">
         <v>1354</v>
       </c>
@@ -48422,7 +48420,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="16" t="s">
         <v>1355</v>
       </c>
@@ -48447,7 +48445,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="16" t="s">
         <v>1356</v>
       </c>
@@ -48464,7 +48462,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="16" t="s">
         <v>1357</v>
       </c>
@@ -48481,7 +48479,7 @@
       <c r="F393" s="16"/>
       <c r="G393" s="16"/>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="16" t="s">
         <v>1358</v>
       </c>
@@ -48498,7 +48496,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="16" t="s">
         <v>1359</v>
       </c>
@@ -48517,7 +48515,7 @@
       <c r="F395" s="16"/>
       <c r="G395" s="16"/>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="16" t="s">
         <v>1360</v>
       </c>
@@ -48542,7 +48540,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="16" t="s">
         <v>1361</v>
       </c>
@@ -48567,7 +48565,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="16" t="s">
         <v>1362</v>
       </c>
@@ -48586,7 +48584,7 @@
       </c>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="16" t="s">
         <v>1363</v>
       </c>
@@ -48605,7 +48603,7 @@
       </c>
       <c r="G399" s="16"/>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="16" t="s">
         <v>1364</v>
       </c>
@@ -48630,7 +48628,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="16" t="s">
         <v>1365</v>
       </c>
@@ -48649,7 +48647,7 @@
       </c>
       <c r="G401" s="16"/>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="16" t="s">
         <v>1366</v>
       </c>
@@ -48668,7 +48666,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="16" t="s">
         <v>1367</v>
       </c>
@@ -48692,7 +48690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="16" t="s">
         <v>1368</v>
       </c>
@@ -48717,7 +48715,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="16" t="s">
         <v>1369</v>
       </c>
@@ -48736,7 +48734,7 @@
       </c>
       <c r="G405" s="16"/>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="16" t="s">
         <v>1370</v>
       </c>
@@ -48753,7 +48751,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="s">
         <v>1371</v>
       </c>
@@ -48772,7 +48770,7 @@
       <c r="F407" s="16"/>
       <c r="G407" s="16"/>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="16" t="s">
         <v>1372</v>
       </c>
@@ -48789,7 +48787,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="s">
         <v>1373</v>
       </c>
@@ -48814,7 +48812,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="16" t="s">
         <v>1374</v>
       </c>
@@ -48839,7 +48837,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="s">
         <v>1375</v>
       </c>
@@ -48856,7 +48854,7 @@
       <c r="F411" s="16"/>
       <c r="G411" s="16"/>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="16" t="s">
         <v>1376</v>
       </c>
@@ -48873,7 +48871,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="s">
         <v>1377</v>
       </c>
@@ -48890,7 +48888,7 @@
       <c r="F413" s="16"/>
       <c r="G413" s="16"/>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="16" t="s">
         <v>1378</v>
       </c>
@@ -48909,7 +48907,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="16" t="s">
         <v>1379</v>
       </c>
@@ -48928,7 +48926,7 @@
       </c>
       <c r="G415" s="16"/>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="16" t="s">
         <v>1380</v>
       </c>
@@ -48947,7 +48945,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="16" t="s">
         <v>1381</v>
       </c>
@@ -48964,7 +48962,7 @@
       <c r="F417" s="16"/>
       <c r="G417" s="16"/>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="16" t="s">
         <v>1382</v>
       </c>
@@ -48987,7 +48985,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="16" t="s">
         <v>1383</v>
       </c>
@@ -49010,7 +49008,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="16" t="s">
         <v>1384</v>
       </c>
@@ -49027,7 +49025,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="16" t="s">
         <v>1385</v>
       </c>
@@ -49044,7 +49042,7 @@
       <c r="F421" s="16"/>
       <c r="G421" s="16"/>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="16" t="s">
         <v>1386</v>
       </c>
@@ -49067,7 +49065,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="16" t="s">
         <v>1387</v>
       </c>
@@ -49086,7 +49084,7 @@
       <c r="F423" s="16"/>
       <c r="G423" s="16"/>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="16" t="s">
         <v>1388</v>
       </c>
@@ -49103,7 +49101,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="16" t="s">
         <v>1389</v>
       </c>
@@ -49122,7 +49120,7 @@
       <c r="F425" s="16"/>
       <c r="G425" s="16"/>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="s">
         <v>1390</v>
       </c>
@@ -49139,7 +49137,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="16" t="s">
         <v>1391</v>
       </c>
@@ -49158,7 +49156,7 @@
       <c r="F427" s="16"/>
       <c r="G427" s="16"/>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="16" t="s">
         <v>1392</v>
       </c>
@@ -49175,7 +49173,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="16" t="s">
         <v>1393</v>
       </c>
@@ -49194,7 +49192,7 @@
       <c r="F429" s="16"/>
       <c r="G429" s="16"/>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="16" t="s">
         <v>1394</v>
       </c>
@@ -49217,7 +49215,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="16" t="s">
         <v>1395</v>
       </c>
@@ -49234,7 +49232,7 @@
       <c r="F431" s="16"/>
       <c r="G431" s="16"/>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="16" t="s">
         <v>1396</v>
       </c>
@@ -49257,7 +49255,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="16" t="s">
         <v>1397</v>
       </c>
@@ -49274,7 +49272,7 @@
       <c r="F433" s="16"/>
       <c r="G433" s="16"/>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="16" t="s">
         <v>1398</v>
       </c>
@@ -49293,7 +49291,7 @@
       </c>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="16" t="s">
         <v>1399</v>
       </c>
@@ -49310,7 +49308,7 @@
       <c r="F435" s="16"/>
       <c r="G435" s="16"/>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="16" t="s">
         <v>1400</v>
       </c>
@@ -49327,7 +49325,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="16" t="s">
         <v>1401</v>
       </c>
@@ -49344,7 +49342,7 @@
       <c r="F437" s="16"/>
       <c r="G437" s="16"/>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="16" t="s">
         <v>1402</v>
       </c>
@@ -49361,7 +49359,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="16" t="s">
         <v>1403</v>
       </c>
@@ -49380,7 +49378,7 @@
       <c r="F439" s="16"/>
       <c r="G439" s="16"/>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="16" t="s">
         <v>1404</v>
       </c>
@@ -49397,7 +49395,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="16" t="s">
         <v>1405</v>
       </c>
@@ -49416,7 +49414,7 @@
       <c r="F441" s="16"/>
       <c r="G441" s="16"/>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="16" t="s">
         <v>1406</v>
       </c>
@@ -49433,7 +49431,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="16" t="s">
         <v>1407</v>
       </c>
@@ -49450,7 +49448,7 @@
       <c r="F443" s="16"/>
       <c r="G443" s="16"/>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="16" t="s">
         <v>1408</v>
       </c>
@@ -49467,7 +49465,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="16" t="s">
         <v>1409</v>
       </c>
@@ -49484,7 +49482,7 @@
       <c r="F445" s="16"/>
       <c r="G445" s="16"/>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="16" t="s">
         <v>1410</v>
       </c>
@@ -49501,7 +49499,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="16" t="s">
         <v>1411</v>
       </c>
@@ -49520,7 +49518,7 @@
       <c r="F447" s="16"/>
       <c r="G447" s="16"/>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="16" t="s">
         <v>1412</v>
       </c>
@@ -49537,7 +49535,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="16" t="s">
         <v>1413</v>
       </c>
@@ -49554,7 +49552,7 @@
       <c r="F449" s="16"/>
       <c r="G449" s="16"/>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="16" t="s">
         <v>1414</v>
       </c>
@@ -49571,7 +49569,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="16" t="s">
         <v>1415</v>
       </c>
@@ -49588,7 +49586,7 @@
       <c r="F451" s="16"/>
       <c r="G451" s="16"/>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="16" t="s">
         <v>1416</v>
       </c>
@@ -49607,7 +49605,7 @@
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="16" t="s">
         <v>1417</v>
       </c>
@@ -49624,7 +49622,7 @@
       <c r="F453" s="16"/>
       <c r="G453" s="16"/>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="16" t="s">
         <v>1418</v>
       </c>
@@ -49641,7 +49639,7 @@
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="16" t="s">
         <v>1419</v>
       </c>
@@ -49660,7 +49658,7 @@
       </c>
       <c r="G455" s="16"/>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="16" t="s">
         <v>1420</v>
       </c>
@@ -49679,7 +49677,7 @@
       </c>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="16" t="s">
         <v>1421</v>
       </c>
@@ -49698,7 +49696,7 @@
       </c>
       <c r="G457" s="16"/>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="16" t="s">
         <v>1422</v>
       </c>
@@ -49717,7 +49715,7 @@
       </c>
       <c r="G458" s="16"/>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="s">
         <v>1423</v>
       </c>
@@ -49734,7 +49732,7 @@
       <c r="F459" s="16"/>
       <c r="G459" s="16"/>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="16" t="s">
         <v>1424</v>
       </c>
@@ -49757,7 +49755,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="16" t="s">
         <v>1425</v>
       </c>
@@ -49774,7 +49772,7 @@
       <c r="F461" s="16"/>
       <c r="G461" s="16"/>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="16" t="s">
         <v>1426</v>
       </c>
@@ -49791,7 +49789,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="16" t="s">
         <v>1427</v>
       </c>
@@ -49808,7 +49806,7 @@
       <c r="F463" s="16"/>
       <c r="G463" s="16"/>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="16" t="s">
         <v>1428</v>
       </c>
@@ -49825,7 +49823,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="s">
         <v>1429</v>
       </c>
@@ -49842,7 +49840,7 @@
       <c r="F465" s="16"/>
       <c r="G465" s="16"/>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="16" t="s">
         <v>1430</v>
       </c>
@@ -49861,7 +49859,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="16" t="s">
         <v>1431</v>
       </c>
@@ -49878,7 +49876,7 @@
       <c r="F467" s="16"/>
       <c r="G467" s="16"/>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="16" t="s">
         <v>1432</v>
       </c>
@@ -49895,7 +49893,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="16" t="s">
         <v>1433</v>
       </c>
@@ -49912,7 +49910,7 @@
       <c r="F469" s="16"/>
       <c r="G469" s="16"/>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="16" t="s">
         <v>1434</v>
       </c>
@@ -49929,7 +49927,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="16" t="s">
         <v>1435</v>
       </c>
@@ -49948,7 +49946,7 @@
       <c r="F471" s="16"/>
       <c r="G471" s="16"/>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="16" t="s">
         <v>1436</v>
       </c>
@@ -49965,7 +49963,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="16" t="s">
         <v>1437</v>
       </c>
@@ -49982,7 +49980,7 @@
       <c r="F473" s="16"/>
       <c r="G473" s="16"/>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="16" t="s">
         <v>1438</v>
       </c>
@@ -50004,7 +50002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="16" t="s">
         <v>1439</v>
       </c>
@@ -50027,7 +50025,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="16" t="s">
         <v>1440</v>
       </c>
@@ -50044,7 +50042,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="16" t="s">
         <v>1441</v>
       </c>
@@ -50061,7 +50059,7 @@
       <c r="F477" s="16"/>
       <c r="G477" s="16"/>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="16" t="s">
         <v>1442</v>
       </c>
@@ -50078,7 +50076,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="16" t="s">
         <v>1443</v>
       </c>
@@ -50095,7 +50093,7 @@
       <c r="F479" s="16"/>
       <c r="G479" s="16"/>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="16" t="s">
         <v>1444</v>
       </c>
@@ -50112,7 +50110,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="16" t="s">
         <v>1445</v>
       </c>
@@ -50131,7 +50129,7 @@
       <c r="F481" s="16"/>
       <c r="G481" s="16"/>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="16" t="s">
         <v>1446</v>
       </c>
@@ -50148,7 +50146,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="16" t="s">
         <v>1447</v>
       </c>
@@ -50167,7 +50165,7 @@
       <c r="F483" s="16"/>
       <c r="G483" s="16"/>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="16" t="s">
         <v>1448</v>
       </c>
@@ -50184,7 +50182,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="16" t="s">
         <v>1449</v>
       </c>
@@ -50201,7 +50199,7 @@
       <c r="F485" s="16"/>
       <c r="G485" s="16"/>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="16" t="s">
         <v>1450</v>
       </c>
@@ -50218,7 +50216,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="16" t="s">
         <v>1451</v>
       </c>
@@ -50235,7 +50233,7 @@
       <c r="F487" s="16"/>
       <c r="G487" s="16"/>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="16" t="s">
         <v>1452</v>
       </c>
@@ -50252,7 +50250,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="16" t="s">
         <v>1453</v>
       </c>
@@ -50269,7 +50267,7 @@
       <c r="F489" s="16"/>
       <c r="G489" s="16"/>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="16" t="s">
         <v>1454</v>
       </c>
@@ -50288,7 +50286,7 @@
       </c>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="16" t="s">
         <v>1455</v>
       </c>
@@ -50305,7 +50303,7 @@
       <c r="F491" s="16"/>
       <c r="G491" s="16"/>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="16" t="s">
         <v>1456</v>
       </c>
@@ -50322,7 +50320,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="16" t="s">
         <v>1457</v>
       </c>
@@ -50339,7 +50337,7 @@
       <c r="F493" s="16"/>
       <c r="G493" s="16"/>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="16" t="s">
         <v>1458</v>
       </c>
@@ -50356,7 +50354,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="16" t="s">
         <v>1459</v>
       </c>
@@ -50378,7 +50376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="16" t="s">
         <v>1460</v>
       </c>
@@ -50401,7 +50399,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="16" t="s">
         <v>1461</v>
       </c>
@@ -50418,7 +50416,7 @@
       <c r="F497" s="16"/>
       <c r="G497" s="16"/>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="16" t="s">
         <v>1462</v>
       </c>
@@ -50435,7 +50433,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="16" t="s">
         <v>1463</v>
       </c>
@@ -50452,7 +50450,7 @@
       <c r="F499" s="16"/>
       <c r="G499" s="16"/>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="16" t="s">
         <v>1464</v>
       </c>
@@ -50469,7 +50467,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="16" t="s">
         <v>1465</v>
       </c>
@@ -50486,7 +50484,7 @@
       <c r="F501" s="16"/>
       <c r="G501" s="16"/>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="16" t="s">
         <v>1466</v>
       </c>
@@ -50503,7 +50501,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="16" t="s">
         <v>1467</v>
       </c>
@@ -50520,7 +50518,7 @@
       <c r="F503" s="16"/>
       <c r="G503" s="16"/>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="16" t="s">
         <v>1468</v>
       </c>
@@ -50537,7 +50535,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="16" t="s">
         <v>1469</v>
       </c>
@@ -50554,7 +50552,7 @@
       <c r="F505" s="16"/>
       <c r="G505" s="16"/>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="16" t="s">
         <v>1470</v>
       </c>
@@ -50573,7 +50571,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="16" t="s">
         <v>1471</v>
       </c>
@@ -50590,7 +50588,7 @@
       <c r="F507" s="16"/>
       <c r="G507" s="16"/>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="16" t="s">
         <v>1472</v>
       </c>
@@ -50609,7 +50607,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="16" t="s">
         <v>1473</v>
       </c>
@@ -50626,7 +50624,7 @@
       <c r="F509" s="16"/>
       <c r="G509" s="16"/>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="16" t="s">
         <v>1474</v>
       </c>
@@ -50643,7 +50641,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="16" t="s">
         <v>1475</v>
       </c>
@@ -50660,7 +50658,7 @@
       <c r="F511" s="16"/>
       <c r="G511" s="16"/>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="16" t="s">
         <v>1476</v>
       </c>
@@ -50677,7 +50675,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="16" t="s">
         <v>1477</v>
       </c>
@@ -50694,7 +50692,7 @@
       <c r="F513" s="16"/>
       <c r="G513" s="16"/>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="16" t="s">
         <v>1478</v>
       </c>
@@ -50711,7 +50709,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="16" t="s">
         <v>1479</v>
       </c>
@@ -50728,7 +50726,7 @@
       <c r="F515" s="16"/>
       <c r="G515" s="16"/>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="16" t="s">
         <v>1480</v>
       </c>
@@ -50753,7 +50751,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="16" t="s">
         <v>1481</v>
       </c>
@@ -50772,7 +50770,7 @@
       </c>
       <c r="G517" s="16"/>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="16" t="s">
         <v>1482</v>
       </c>
@@ -50791,7 +50789,7 @@
       </c>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="16" t="s">
         <v>1483</v>
       </c>
@@ -50816,7 +50814,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="16" t="s">
         <v>1484</v>
       </c>
@@ -50835,7 +50833,7 @@
       </c>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="16" t="s">
         <v>1485</v>
       </c>
@@ -50854,7 +50852,7 @@
       <c r="F521" s="16"/>
       <c r="G521" s="16"/>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="16" t="s">
         <v>1486</v>
       </c>
@@ -50878,7 +50876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="16" t="s">
         <v>1487</v>
       </c>
@@ -50903,7 +50901,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="16" t="s">
         <v>1488</v>
       </c>
@@ -50922,7 +50920,7 @@
       </c>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="16" t="s">
         <v>1489</v>
       </c>
@@ -50939,7 +50937,7 @@
       <c r="F525" s="16"/>
       <c r="G525" s="16"/>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="16" t="s">
         <v>1490</v>
       </c>
@@ -50958,7 +50956,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="16" t="s">
         <v>1491</v>
       </c>
@@ -50975,7 +50973,7 @@
       <c r="F527" s="16"/>
       <c r="G527" s="16"/>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="16" t="s">
         <v>1492</v>
       </c>
@@ -51000,7 +50998,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="16" t="s">
         <v>1493</v>
       </c>
@@ -51025,7 +51023,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="16" t="s">
         <v>1494</v>
       </c>
@@ -51042,7 +51040,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="16" t="s">
         <v>1495</v>
       </c>
@@ -51059,7 +51057,7 @@
       <c r="F531" s="16"/>
       <c r="G531" s="16"/>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="16" t="s">
         <v>1496</v>
       </c>
@@ -51076,7 +51074,7 @@
       <c r="F532" s="16"/>
       <c r="G532" s="16"/>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="16" t="s">
         <v>1497</v>
       </c>
@@ -51095,7 +51093,7 @@
       <c r="F533" s="16"/>
       <c r="G533" s="16"/>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="16" t="s">
         <v>1498</v>
       </c>
@@ -51120,7 +51118,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="16" t="s">
         <v>1499</v>
       </c>
@@ -51139,7 +51137,7 @@
       <c r="F535" s="16"/>
       <c r="G535" s="16"/>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="16" t="s">
         <v>1500</v>
       </c>
@@ -51162,7 +51160,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="16" t="s">
         <v>1501</v>
       </c>
@@ -51184,7 +51182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="16" t="s">
         <v>1502</v>
       </c>
@@ -51207,7 +51205,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="16" t="s">
         <v>1503</v>
       </c>
@@ -51224,7 +51222,7 @@
       <c r="F539" s="16"/>
       <c r="G539" s="16"/>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="16" t="s">
         <v>1504</v>
       </c>
@@ -51241,7 +51239,7 @@
       <c r="F540" s="16"/>
       <c r="G540" s="16"/>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="16" t="s">
         <v>1505</v>
       </c>
@@ -51258,7 +51256,7 @@
       <c r="F541" s="16"/>
       <c r="G541" s="16"/>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="16" t="s">
         <v>1506</v>
       </c>
@@ -51275,7 +51273,7 @@
       <c r="F542" s="16"/>
       <c r="G542" s="16"/>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="16" t="s">
         <v>1507</v>
       </c>
@@ -51292,7 +51290,7 @@
       <c r="F543" s="16"/>
       <c r="G543" s="16"/>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="16" t="s">
         <v>1508</v>
       </c>
@@ -51311,7 +51309,7 @@
       <c r="F544" s="16"/>
       <c r="G544" s="16"/>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="16" t="s">
         <v>1509</v>
       </c>
@@ -51334,7 +51332,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="16" t="s">
         <v>1510</v>
       </c>
@@ -51357,7 +51355,7 @@
         <v>Firefoot</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="16" t="s">
         <v>1511</v>
       </c>
@@ -51374,7 +51372,7 @@
       <c r="F547" s="16"/>
       <c r="G547" s="16"/>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="16" t="s">
         <v>1512</v>
       </c>
@@ -51393,7 +51391,7 @@
       <c r="F548" s="16"/>
       <c r="G548" s="16"/>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="16" t="s">
         <v>1513</v>
       </c>
@@ -51410,7 +51408,7 @@
       <c r="F549" s="16"/>
       <c r="G549" s="16"/>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="16" t="s">
         <v>1514</v>
       </c>
@@ -51427,7 +51425,7 @@
       <c r="F550" s="16"/>
       <c r="G550" s="16"/>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="16" t="s">
         <v>1515</v>
       </c>
@@ -51444,7 +51442,7 @@
       <c r="F551" s="16"/>
       <c r="G551" s="16"/>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="16" t="s">
         <v>1516</v>
       </c>
@@ -51461,7 +51459,7 @@
       <c r="F552" s="16"/>
       <c r="G552" s="16"/>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="16" t="s">
         <v>1517</v>
       </c>
@@ -51480,7 +51478,7 @@
       <c r="F553" s="16"/>
       <c r="G553" s="16"/>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="16" t="s">
         <v>1518</v>
       </c>
@@ -51497,7 +51495,7 @@
       <c r="F554" s="16"/>
       <c r="G554" s="16"/>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="16" t="s">
         <v>1519</v>
       </c>
@@ -51516,7 +51514,7 @@
       <c r="F555" s="16"/>
       <c r="G555" s="16"/>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="16" t="s">
         <v>1520</v>
       </c>
@@ -51533,7 +51531,7 @@
       <c r="F556" s="16"/>
       <c r="G556" s="16"/>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="16" t="s">
         <v>1521</v>
       </c>
@@ -51552,7 +51550,7 @@
       <c r="F557" s="16"/>
       <c r="G557" s="16"/>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="16" t="s">
         <v>1522</v>
       </c>
@@ -51575,7 +51573,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="16" t="s">
         <v>1523</v>
       </c>
@@ -51592,7 +51590,7 @@
       <c r="F559" s="16"/>
       <c r="G559" s="16"/>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="16" t="s">
         <v>1524</v>
       </c>
@@ -51609,7 +51607,7 @@
       <c r="F560" s="16"/>
       <c r="G560" s="16"/>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="16" t="s">
         <v>1525</v>
       </c>
@@ -51626,7 +51624,7 @@
       <c r="F561" s="16"/>
       <c r="G561" s="16"/>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="16" t="s">
         <v>1526</v>
       </c>
@@ -51643,7 +51641,7 @@
       <c r="F562" s="16"/>
       <c r="G562" s="16"/>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="16" t="s">
         <v>1527</v>
       </c>
@@ -51660,7 +51658,7 @@
       <c r="F563" s="16"/>
       <c r="G563" s="16"/>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="16" t="s">
         <v>1528</v>
       </c>
@@ -51679,7 +51677,7 @@
       <c r="F564" s="16"/>
       <c r="G564" s="16"/>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="16" t="s">
         <v>1529</v>
       </c>
@@ -51696,7 +51694,7 @@
       <c r="F565" s="16"/>
       <c r="G565" s="16"/>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="16" t="s">
         <v>1530</v>
       </c>
@@ -51715,7 +51713,7 @@
       <c r="F566" s="16"/>
       <c r="G566" s="16"/>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="16" t="s">
         <v>1531</v>
       </c>
@@ -51734,7 +51732,7 @@
       <c r="F567" s="16"/>
       <c r="G567" s="16"/>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="16" t="s">
         <v>1532</v>
       </c>
@@ -51751,7 +51749,7 @@
       <c r="F568" s="16"/>
       <c r="G568" s="16"/>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="16" t="s">
         <v>1533</v>
       </c>
@@ -51770,7 +51768,7 @@
       <c r="F569" s="16"/>
       <c r="G569" s="16"/>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="16" t="s">
         <v>1534</v>
       </c>
@@ -51787,7 +51785,7 @@
       <c r="F570" s="16"/>
       <c r="G570" s="16"/>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="16" t="s">
         <v>1535</v>
       </c>
@@ -51804,7 +51802,7 @@
       <c r="F571" s="16"/>
       <c r="G571" s="16"/>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="16" t="s">
         <v>1536</v>
       </c>
@@ -51821,7 +51819,7 @@
       <c r="F572" s="16"/>
       <c r="G572" s="16"/>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="16" t="s">
         <v>1537</v>
       </c>
@@ -51842,7 +51840,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="16" t="s">
         <v>1538</v>
       </c>
@@ -51859,7 +51857,7 @@
       <c r="F574" s="16"/>
       <c r="G574" s="16"/>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="16" t="s">
         <v>1539</v>
       </c>
@@ -51878,7 +51876,7 @@
       <c r="F575" s="16"/>
       <c r="G575" s="16"/>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="16" t="s">
         <v>1540</v>
       </c>
@@ -51897,7 +51895,7 @@
       <c r="F576" s="16"/>
       <c r="G576" s="16"/>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="16" t="s">
         <v>1541</v>
       </c>
@@ -51914,7 +51912,7 @@
       <c r="F577" s="16"/>
       <c r="G577" s="16"/>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="16" t="s">
         <v>1542</v>
       </c>
@@ -51936,7 +51934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="16" t="s">
         <v>1543</v>
       </c>
@@ -51953,7 +51951,7 @@
       <c r="F579" s="16"/>
       <c r="G579" s="16"/>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="16" t="s">
         <v>1544</v>
       </c>
@@ -51970,7 +51968,7 @@
       <c r="F580" s="16"/>
       <c r="G580" s="16"/>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="16" t="s">
         <v>1545</v>
       </c>
@@ -51987,7 +51985,7 @@
       <c r="F581" s="16"/>
       <c r="G581" s="16"/>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="16" t="s">
         <v>1546</v>
       </c>
@@ -52004,7 +52002,7 @@
       <c r="F582" s="16"/>
       <c r="G582" s="16"/>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="16" t="s">
         <v>1715</v>
       </c>
@@ -52021,7 +52019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="16" t="s">
         <v>1775</v>
       </c>
@@ -52038,7 +52036,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="16" t="s">
         <v>1776</v>
       </c>
@@ -52059,7 +52057,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="16" t="s">
         <v>1777</v>
       </c>
@@ -52074,7 +52072,7 @@
       </c>
       <c r="E586" s="34"/>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="16" t="s">
         <v>1778</v>
       </c>
@@ -52089,7 +52087,7 @@
       </c>
       <c r="E587" s="34"/>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="16" t="s">
         <v>1779</v>
       </c>
@@ -52104,7 +52102,7 @@
       </c>
       <c r="E588" s="34"/>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="16" t="s">
         <v>1780</v>
       </c>
@@ -52125,7 +52123,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="16" t="s">
         <v>1781</v>
       </c>
@@ -52140,7 +52138,7 @@
       </c>
       <c r="E590" s="34"/>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="16" t="s">
         <v>1782</v>
       </c>
@@ -52155,7 +52153,7 @@
       </c>
       <c r="E591" s="34"/>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="16" t="s">
         <v>1783</v>
       </c>
@@ -52170,7 +52168,7 @@
       </c>
       <c r="E592" s="34"/>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="16" t="s">
         <v>1784</v>
       </c>
@@ -52191,7 +52189,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="16" t="s">
         <v>1785</v>
       </c>
@@ -52206,7 +52204,7 @@
       </c>
       <c r="E594" s="34"/>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="16" t="s">
         <v>1786</v>
       </c>
@@ -52221,7 +52219,7 @@
       </c>
       <c r="E595" s="34"/>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="16" t="s">
         <v>1787</v>
       </c>
@@ -52236,7 +52234,7 @@
       </c>
       <c r="E596" s="34"/>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="16" t="s">
         <v>1788</v>
       </c>
@@ -52257,7 +52255,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="16" t="s">
         <v>1789</v>
       </c>
@@ -52272,7 +52270,7 @@
       </c>
       <c r="E598" s="34"/>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="16" t="s">
         <v>1790</v>
       </c>
@@ -52287,7 +52285,7 @@
       </c>
       <c r="E599" s="34"/>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="16" t="s">
         <v>1791</v>
       </c>
@@ -52302,7 +52300,7 @@
       </c>
       <c r="E600" s="34"/>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="16" t="s">
         <v>1792</v>
       </c>
@@ -52323,7 +52321,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="16" t="s">
         <v>1793</v>
       </c>
@@ -52338,7 +52336,7 @@
       </c>
       <c r="E602" s="34"/>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="16" t="s">
         <v>1794</v>
       </c>
@@ -52353,7 +52351,7 @@
       </c>
       <c r="E603" s="34"/>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="16" t="s">
         <v>1795</v>
       </c>
@@ -52368,7 +52366,7 @@
       </c>
       <c r="E604" s="34"/>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="16" t="s">
         <v>1796</v>
       </c>
@@ -52382,7 +52380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="16" t="s">
         <v>1797</v>
       </c>
@@ -52396,7 +52394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="16" t="s">
         <v>1798</v>
       </c>
@@ -52410,7 +52408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="16" t="s">
         <v>1799</v>
       </c>
@@ -52424,7 +52422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="16" t="s">
         <v>1800</v>
       </c>
@@ -52441,7 +52439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="16" t="s">
         <v>1801</v>
       </c>
@@ -52455,7 +52453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="16" t="s">
         <v>1802</v>
       </c>
@@ -52472,7 +52470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="16" t="s">
         <v>1803</v>
       </c>
@@ -52486,7 +52484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="16" t="s">
         <v>1804</v>
       </c>
@@ -52500,7 +52498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="16" t="s">
         <v>1805</v>
       </c>
@@ -52521,7 +52519,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="16" t="s">
         <v>1806</v>
       </c>
@@ -52536,7 +52534,7 @@
       </c>
       <c r="E615" s="16"/>
     </row>
-    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="16" t="s">
         <v>1807</v>
       </c>
@@ -52551,7 +52549,7 @@
       </c>
       <c r="E616" s="16"/>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="16" t="s">
         <v>1808</v>
       </c>
@@ -52568,7 +52566,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="16" t="s">
         <v>1809</v>
       </c>
@@ -52583,7 +52581,7 @@
       </c>
       <c r="E618" s="16"/>
     </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="16" t="s">
         <v>1810</v>
       </c>
@@ -52600,7 +52598,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="16" t="s">
         <v>1811</v>
       </c>
@@ -52615,7 +52613,7 @@
       </c>
       <c r="E620" s="16"/>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="16" t="s">
         <v>1812</v>
       </c>
@@ -52632,7 +52630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="16" t="s">
         <v>1813</v>
       </c>
@@ -52647,7 +52645,7 @@
       </c>
       <c r="E622" s="16"/>
     </row>
-    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="16" t="s">
         <v>1814</v>
       </c>
@@ -52664,7 +52662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="16" t="s">
         <v>1815</v>
       </c>
@@ -52684,7 +52682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="16" t="s">
         <v>1816</v>
       </c>
@@ -52705,7 +52703,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="16" t="s">
         <v>1817</v>
       </c>
@@ -52722,7 +52720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="16" t="s">
         <v>1818</v>
       </c>
@@ -52737,7 +52735,7 @@
       </c>
       <c r="E627" s="16"/>
     </row>
-    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="16" t="s">
         <v>1819</v>
       </c>
@@ -52752,7 +52750,7 @@
       </c>
       <c r="E628" s="16"/>
     </row>
-    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="16" t="s">
         <v>1820</v>
       </c>
@@ -52842,7 +52840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="16" t="s">
         <v>1826</v>
       </c>
@@ -52856,7 +52854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="16" t="s">
         <v>1827</v>
       </c>
@@ -52870,7 +52868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="16" t="s">
         <v>1828</v>
       </c>
@@ -52884,7 +52882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="16" t="s">
         <v>1829</v>
       </c>
@@ -52898,7 +52896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="16" t="s">
         <v>1896</v>
       </c>
@@ -52919,7 +52917,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="16" t="s">
         <v>2299</v>
       </c>
@@ -52933,7 +52931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="16" t="s">
         <v>2300</v>
       </c>
@@ -52950,7 +52948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="16" t="s">
         <v>2301</v>
       </c>
@@ -52971,7 +52969,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="16" t="s">
         <v>2302</v>
       </c>
@@ -52988,7 +52986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="16" t="s">
         <v>2303</v>
       </c>
@@ -53002,7 +53000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="16" t="s">
         <v>2304</v>
       </c>
@@ -53016,7 +53014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" s="16" t="s">
         <v>2305</v>
       </c>
@@ -53030,7 +53028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" s="16" t="s">
         <v>2306</v>
       </c>
@@ -53044,7 +53042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" s="16" t="s">
         <v>2307</v>
       </c>
@@ -53058,7 +53056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" s="16" t="s">
         <v>2308</v>
       </c>
@@ -53072,7 +53070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650" s="16" t="s">
         <v>2309</v>
       </c>
@@ -53093,7 +53091,7 @@
         <v>The White Warg</v>
       </c>
     </row>
-    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" s="16" t="s">
         <v>2310</v>
       </c>
@@ -53114,7 +53112,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" s="16" t="s">
         <v>2311</v>
       </c>
@@ -53131,7 +53129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" s="16" t="s">
         <v>2312</v>
       </c>
@@ -53145,7 +53143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" s="16" t="s">
         <v>2313</v>
       </c>
@@ -53159,7 +53157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="16" t="s">
         <v>2314</v>
       </c>
@@ -53173,7 +53171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" s="16" t="s">
         <v>2315</v>
       </c>
@@ -53187,7 +53185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" s="16" t="s">
         <v>2316</v>
       </c>
@@ -53201,7 +53199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" s="16" t="s">
         <v>2317</v>
       </c>
@@ -53218,7 +53216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" s="16" t="s">
         <v>2318</v>
       </c>
@@ -53232,7 +53230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" s="16" t="s">
         <v>2319</v>
       </c>
@@ -53249,7 +53247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" s="16" t="s">
         <v>2320</v>
       </c>
@@ -53263,7 +53261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" s="16" t="s">
         <v>2321</v>
       </c>
@@ -53284,7 +53282,7 @@
         <v>The White Warg</v>
       </c>
     </row>
-    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" s="16" t="s">
         <v>2322</v>
       </c>
@@ -53305,7 +53303,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" s="16" t="s">
         <v>2323</v>
       </c>
@@ -53322,7 +53320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" s="16" t="s">
         <v>2324</v>
       </c>
@@ -53342,7 +53340,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" s="16" t="s">
         <v>2325</v>
       </c>
@@ -53363,7 +53361,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" s="16" t="s">
         <v>2326</v>
       </c>
@@ -53384,7 +53382,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" s="16" t="s">
         <v>2327</v>
       </c>
@@ -53401,7 +53399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" s="16" t="s">
         <v>2328</v>
       </c>
@@ -53415,7 +53413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" s="16" t="s">
         <v>2329</v>
       </c>
@@ -53432,7 +53430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" s="16" t="s">
         <v>2330</v>
       </c>
@@ -53446,7 +53444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" s="16" t="s">
         <v>2331</v>
       </c>
@@ -53463,7 +53461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" s="16" t="s">
         <v>2332</v>
       </c>
@@ -53477,7 +53475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" s="16" t="s">
         <v>2333</v>
       </c>
@@ -53498,7 +53496,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" s="16" t="s">
         <v>2334</v>
       </c>
@@ -53515,7 +53513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" s="16" t="s">
         <v>2335</v>
       </c>
@@ -53529,7 +53527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" s="16" t="s">
         <v>2336</v>
       </c>
@@ -53546,7 +53544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" s="16" t="s">
         <v>2337</v>
       </c>
@@ -53560,7 +53558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" s="16" t="s">
         <v>2338</v>
       </c>
@@ -53577,7 +53575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" s="16" t="s">
         <v>2339</v>
       </c>
@@ -53591,7 +53589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" s="16" t="s">
         <v>2340</v>
       </c>
@@ -53605,7 +53603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="16" t="s">
         <v>2341</v>
       </c>
@@ -53619,7 +53617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" s="16" t="s">
         <v>2342</v>
       </c>
@@ -53633,7 +53631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" s="16" t="s">
         <v>2343</v>
       </c>
@@ -53647,7 +53645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" s="16" t="s">
         <v>2344</v>
       </c>
@@ -53661,7 +53659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" s="16" t="s">
         <v>2345</v>
       </c>
@@ -53682,7 +53680,7 @@
         <v>Radagast's Sleigh</v>
       </c>
     </row>
-    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" s="16" t="s">
         <v>2346</v>
       </c>
@@ -53696,7 +53694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" s="16" t="s">
         <v>2347</v>
       </c>
@@ -53710,7 +53708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" s="16" t="s">
         <v>2348</v>
       </c>
@@ -53724,7 +53722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" s="16" t="s">
         <v>2349</v>
       </c>
@@ -53744,7 +53742,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" s="16" t="s">
         <v>2350</v>
       </c>
@@ -53765,7 +53763,7 @@
         <v>Iron Hills Chariot</v>
       </c>
     </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" s="16" t="s">
         <v>2351</v>
       </c>
@@ -53779,7 +53777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" s="16" t="s">
         <v>2352</v>
       </c>
@@ -53793,7 +53791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" s="16" t="s">
         <v>2353</v>
       </c>
@@ -53807,7 +53805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" s="16" t="s">
         <v>2354</v>
       </c>
@@ -53821,7 +53819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" s="16" t="s">
         <v>2355</v>
       </c>
@@ -53838,7 +53836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" s="16" t="s">
         <v>2356</v>
       </c>
@@ -53852,7 +53850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" s="16" t="s">
         <v>2357</v>
       </c>
@@ -53866,7 +53864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" s="16" t="s">
         <v>2358</v>
       </c>
@@ -53880,7 +53878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="16" t="s">
         <v>2359</v>
       </c>
@@ -53894,7 +53892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" s="16" t="s">
         <v>2360</v>
       </c>
@@ -53908,7 +53906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" s="16" t="s">
         <v>2361</v>
       </c>
@@ -53922,7 +53920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="16" t="s">
         <v>2362</v>
       </c>
@@ -53936,7 +53934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="16" t="s">
         <v>2363</v>
       </c>
@@ -53953,7 +53951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705" s="16" t="s">
         <v>2364</v>
       </c>
@@ -53967,7 +53965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706" s="16" t="s">
         <v>2365</v>
       </c>
@@ -53988,7 +53986,7 @@
         <v>Troll Brute</v>
       </c>
     </row>
-    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707" s="16" t="s">
         <v>2366</v>
       </c>
@@ -54005,7 +54003,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708" s="16" t="s">
         <v>2367</v>
       </c>
@@ -54022,7 +54020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709" s="16" t="s">
         <v>2368</v>
       </c>
@@ -54036,7 +54034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710" s="16" t="s">
         <v>2369</v>
       </c>
@@ -54053,7 +54051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711" s="16" t="s">
         <v>2370</v>
       </c>
@@ -54076,7 +54074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712" s="16" t="s">
         <v>2371</v>
       </c>
@@ -54093,7 +54091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713" s="16" t="s">
         <v>2372</v>
       </c>
@@ -54107,7 +54105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" s="16" t="s">
         <v>2373</v>
       </c>
@@ -54121,7 +54119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" s="16" t="s">
         <v>2374</v>
       </c>
@@ -54135,7 +54133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" s="16" t="s">
         <v>2375</v>
       </c>
@@ -54225,7 +54223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722" s="16" t="s">
         <v>2381</v>
       </c>
@@ -54239,7 +54237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723" s="16" t="s">
         <v>2382</v>
       </c>
@@ -54253,7 +54251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724" s="16" t="s">
         <v>2383</v>
       </c>
@@ -54340,7 +54338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" s="16" t="s">
         <v>2389</v>
       </c>
@@ -54361,7 +54359,7 @@
         <v>Great Elk</v>
       </c>
     </row>
-    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" s="16" t="s">
         <v>2390</v>
       </c>
@@ -54375,7 +54373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" s="16" t="s">
         <v>2391</v>
       </c>
@@ -54396,7 +54394,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" s="16" t="s">
         <v>2392</v>
       </c>
@@ -54410,7 +54408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734" s="16" t="s">
         <v>2393</v>
       </c>
@@ -54424,7 +54422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735" s="16" t="s">
         <v>2394</v>
       </c>
@@ -54441,7 +54439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" s="16" t="s">
         <v>2395</v>
       </c>
@@ -54455,7 +54453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737" s="16" t="s">
         <v>2396</v>
       </c>
@@ -54472,7 +54470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738" s="16" t="s">
         <v>2397</v>
       </c>
@@ -54486,7 +54484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" s="16" t="s">
         <v>2398</v>
       </c>
@@ -54500,7 +54498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740" s="16" t="s">
         <v>2399</v>
       </c>
@@ -54514,7 +54512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741" s="16" t="s">
         <v>2400</v>
       </c>
@@ -54528,7 +54526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742" s="16" t="s">
         <v>2401</v>
       </c>
@@ -54542,7 +54540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743" s="16" t="s">
         <v>2402</v>
       </c>
@@ -54556,7 +54554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744" s="16" t="s">
         <v>2403</v>
       </c>
@@ -54573,7 +54571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745" s="16" t="s">
         <v>2404</v>
       </c>
@@ -54590,7 +54588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746" s="16" t="s">
         <v>2405</v>
       </c>
@@ -54607,7 +54605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747" s="16" t="s">
         <v>2406</v>
       </c>
@@ -54624,7 +54622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" s="16" t="s">
         <v>2407</v>
       </c>
@@ -54638,7 +54636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749" s="16" t="s">
         <v>2408</v>
       </c>
@@ -54659,7 +54657,7 @@
         <v>War Boar</v>
       </c>
     </row>
-    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" s="16" t="s">
         <v>2409</v>
       </c>
@@ -54680,7 +54678,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751" s="16" t="s">
         <v>2410</v>
       </c>
@@ -54694,7 +54692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752" s="16" t="s">
         <v>2411</v>
       </c>
@@ -54708,7 +54706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753" s="16" t="s">
         <v>2412</v>
       </c>
@@ -54722,7 +54720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" s="16" t="s">
         <v>2413</v>
       </c>
@@ -54736,7 +54734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755" s="16" t="s">
         <v>2414</v>
       </c>
@@ -54753,7 +54751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" s="16" t="s">
         <v>2415</v>
       </c>
@@ -54767,7 +54765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" s="16" t="s">
         <v>2416</v>
       </c>
@@ -54781,7 +54779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" s="16" t="s">
         <v>2417</v>
       </c>
@@ -54802,7 +54800,7 @@
         <v>Great Elk</v>
       </c>
     </row>
-    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759" s="16" t="s">
         <v>2418</v>
       </c>
@@ -54816,7 +54814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" s="16" t="s">
         <v>2419</v>
       </c>
@@ -54837,7 +54835,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761" s="16" t="s">
         <v>2420</v>
       </c>
@@ -54851,7 +54849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762" s="16" t="s">
         <v>2421</v>
       </c>
@@ -54865,7 +54863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763" s="16" t="s">
         <v>2422</v>
       </c>
@@ -54882,7 +54880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" s="16" t="s">
         <v>2423</v>
       </c>
@@ -54899,7 +54897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" s="16" t="s">
         <v>2424</v>
       </c>
@@ -54913,7 +54911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" s="16" t="s">
         <v>2425</v>
       </c>
@@ -54927,7 +54925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" s="16" t="s">
         <v>2426</v>
       </c>
@@ -54950,7 +54948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" s="16" t="s">
         <v>2427</v>
       </c>
@@ -54967,7 +54965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="16" t="s">
         <v>2428</v>
       </c>
@@ -54981,7 +54979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="16" t="s">
         <v>2429</v>
       </c>
@@ -54995,7 +54993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="16" t="s">
         <v>2430</v>
       </c>
@@ -55018,7 +55016,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="16" t="s">
         <v>2431</v>
       </c>
@@ -55035,7 +55033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="16" t="s">
         <v>2432</v>
       </c>
@@ -55058,7 +55056,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="16" t="s">
         <v>2433</v>
       </c>
@@ -55079,7 +55077,7 @@
         <v>Radagast's Sleigh</v>
       </c>
     </row>
-    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="16" t="s">
         <v>2537</v>
       </c>
@@ -55094,7 +55092,7 @@
       </c>
       <c r="E775" s="3"/>
     </row>
-    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="16" t="s">
         <v>2541</v>
       </c>
@@ -61654,15 +61652,7 @@
       <c r="E1790" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I776" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="[erebor-&amp;-dale] warrior-of-dale"/>
-        <filter val="[garrison-of-dale] warrior-of-dale"/>
-        <filter val="[realms-of-men] warrior-of-dale"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I776" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1644">
     <sortCondition ref="A1:A1644"/>
   </sortState>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07784F8-686D-423B-AA07-41A6A5D4E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C58D74-D639-472B-BF89-62E7D34B9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -9364,7 +9364,7 @@
   <dimension ref="A1:O956"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J612" sqref="J612"/>
     </sheetView>
   </sheetViews>
@@ -29564,7 +29564,7 @@
       </c>
       <c r="O463" s="19"/>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="19" t="s">
         <v>2069</v>
       </c>
@@ -29826,7 +29826,7 @@
       </c>
       <c r="O469" s="19"/>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="19" t="s">
         <v>2082</v>
       </c>
@@ -29855,7 +29855,7 @@
         <v>0</v>
       </c>
       <c r="J470" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K470" s="19">
         <v>0</v>
@@ -30047,7 +30047,7 @@
       </c>
       <c r="O474" s="19"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="19" t="s">
         <v>2091</v>
       </c>
@@ -41082,7 +41082,7 @@
   <autoFilter ref="A1:O611" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Iron Hills Ballista"/>
+        <filter val="Dwarf King"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C58D74-D639-472B-BF89-62E7D34B9C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28E043-7D14-41B3-80D6-170ED0A63C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-3340" yWindow="10690" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -9363,9 +9363,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J612" sqref="J612"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>326</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="19">
         <v>0</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="O88" s="19"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>649</v>
       </c>
@@ -20046,7 +20046,7 @@
       </c>
       <c r="O245" s="19"/>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="19" t="s">
         <v>923</v>
       </c>
@@ -29564,7 +29564,7 @@
       </c>
       <c r="O463" s="19"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="19" t="s">
         <v>2069</v>
       </c>
@@ -29826,7 +29826,7 @@
       </c>
       <c r="O469" s="19"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="19" t="s">
         <v>2082</v>
       </c>
@@ -41082,7 +41082,7 @@
   <autoFilter ref="A1:O611" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Dwarf King"/>
+        <filter val="Rivendell Captain"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1861C034-3EAB-4D7A-B2A6-ED09A8F12221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51836BF-9A17-4F82-BD62-7FFA40D91C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$547</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$O$611</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$776</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$843</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9998" uniqueCount="2776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9998" uniqueCount="2777">
   <si>
     <t>name</t>
   </si>
@@ -9375,6 +9375,9 @@
   </si>
   <si>
     <t>["[defenders-of-helm's-deep] warrior-of-rohan", "[defenders-of-helm's-deep] rohan-royal-guard", "[defenders-of-helm's-deep] galadhrim-warrior", "[defenders-of-helm's-deep] aldor", "[defenders-of-helm's-deep] haleth-son-of-hama"]</t>
+  </si>
+  <si>
+    <t>Exchange armour and bow for heavy armour</t>
   </si>
 </sst>
 </file>
@@ -40599,9 +40602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:I1582"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B774" sqref="B774"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C852" sqref="C852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48778,7 +48781,7 @@
         <v>957</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>198</v>
+        <v>2776</v>
       </c>
       <c r="D434" s="16">
         <v>0</v>
@@ -60238,7 +60241,7 @@
       <c r="E1582" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I776" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:I843" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1436">
     <sortCondition ref="A1:A1436"/>
   </sortState>
@@ -63348,7 +63351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51836BF-9A17-4F82-BD62-7FFA40D91C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1E4B4-76E9-4A02-BFEC-EF0B71364B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="warning_rules" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$G$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$547</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$O$611</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9998" uniqueCount="2777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10075" uniqueCount="2799">
   <si>
     <t>name</t>
   </si>
@@ -9379,12 +9379,86 @@
   <si>
     <t>Exchange armour and bow for heavy armour</t>
   </si>
+  <si>
+    <t>[
+  {
+    "type": "requires-all",
+    "condition": "in-warband",
+    "dependencies": [
+      "[the-last-alliance] gil-galad"
+    ]
+  }
+]</t>
+  </si>
+  <si>
+    <t>['General Hunter', 'Resistant to Magic']</t>
+  </si>
+  <si>
+    <t>['General Hunter', 'Woodland Creature']</t>
+  </si>
+  <si>
+    <t>['Fearless', 'Woodland Creature']</t>
+  </si>
+  <si>
+    <t>['Resistant to Magic']</t>
+  </si>
+  <si>
+    <t>['Blades of the Dead']</t>
+  </si>
+  <si>
+    <t>['Backstabbers', 'Fearless', 'Sharpshooter']</t>
+  </si>
+  <si>
+    <t>['Set Ablaze']</t>
+  </si>
+  <si>
+    <t>['Fearless']</t>
+  </si>
+  <si>
+    <t>['Fearless', 'Mountain Dweller', 'Woodland Creature']</t>
+  </si>
+  <si>
+    <t>['Fearless', 'Resistant to Magic', 'Woodland Creature']</t>
+  </si>
+  <si>
+    <t>['Fearless', 'Terror']</t>
+  </si>
+  <si>
+    <t>['Woodland Creature']</t>
+  </si>
+  <si>
+    <t>['Fearful']</t>
+  </si>
+  <si>
+    <t>['Mountain Dweller', 'Woodland Creature']</t>
+  </si>
+  <si>
+    <t>['Mountain Dweller']</t>
+  </si>
+  <si>
+    <t>['Mighty Blow']</t>
+  </si>
+  <si>
+    <t>['Terror']</t>
+  </si>
+  <si>
+    <t>['Cave Dweller', 'Resistant to Magic']</t>
+  </si>
+  <si>
+    <t>['Fearless', 'Mighty Hero']</t>
+  </si>
+  <si>
+    <t>['Stalk Unseen', 'Terror']</t>
+  </si>
+  <si>
+    <t>rule_highlights</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9435,12 +9509,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -9585,7 +9653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9658,9 +9726,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9682,13 +9747,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9718,7 +9783,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10151,7 +10216,7 @@
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="30" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" customWidth="1"/>
     <col min="10" max="10" width="9.7265625" customWidth="1"/>
@@ -10163,49 +10228,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>1706</v>
       </c>
     </row>
@@ -10228,7 +10293,7 @@
       <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>75</v>
       </c>
       <c r="H2" s="19" t="b">
@@ -10271,7 +10336,7 @@
       <c r="F3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <v>85</v>
       </c>
       <c r="H3" s="19" t="b">
@@ -10314,7 +10379,7 @@
       <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <v>110</v>
       </c>
       <c r="H4" s="19" t="b">
@@ -10357,7 +10422,7 @@
       <c r="F5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <v>60</v>
       </c>
       <c r="H5" s="19" t="b">
@@ -10400,7 +10465,7 @@
       <c r="F6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <v>55</v>
       </c>
       <c r="H6" s="19" t="b">
@@ -10443,7 +10508,7 @@
       <c r="F7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <v>45</v>
       </c>
       <c r="H7" s="19" t="b">
@@ -10486,7 +10551,7 @@
       <c r="F8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>60</v>
       </c>
       <c r="H8" s="19" t="b">
@@ -10529,7 +10594,7 @@
       <c r="F9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>6</v>
       </c>
       <c r="H9" s="19" t="b">
@@ -10574,7 +10639,7 @@
       <c r="F10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="31">
         <v>14</v>
       </c>
       <c r="H10" s="19" t="b">
@@ -10619,7 +10684,7 @@
       <c r="F11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>11</v>
       </c>
       <c r="H11" s="19" t="b">
@@ -10664,7 +10729,7 @@
       <c r="F12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>170</v>
       </c>
       <c r="H12" s="19" t="b">
@@ -10707,7 +10772,7 @@
       <c r="F13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>65</v>
       </c>
       <c r="H13" s="19" t="b">
@@ -10750,7 +10815,7 @@
       <c r="F14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="31">
         <v>55</v>
       </c>
       <c r="H14" s="19" t="b">
@@ -10793,7 +10858,7 @@
       <c r="F15" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="31">
         <v>25</v>
       </c>
       <c r="H15" s="19" t="b">
@@ -10836,7 +10901,7 @@
       <c r="F16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="31">
         <v>9</v>
       </c>
       <c r="H16" s="19" t="b">
@@ -10881,7 +10946,7 @@
       <c r="F17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>15</v>
       </c>
       <c r="H17" s="19" t="b">
@@ -10926,7 +10991,7 @@
       <c r="F18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <v>8</v>
       </c>
       <c r="H18" s="19" t="b">
@@ -10971,7 +11036,7 @@
       <c r="F19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <v>0</v>
       </c>
       <c r="H19" s="19" t="b">
@@ -11016,7 +11081,7 @@
       <c r="F20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <v>0</v>
       </c>
       <c r="H20" s="19" t="b">
@@ -11061,7 +11126,7 @@
       <c r="F21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>170</v>
       </c>
       <c r="H21" s="19" t="b">
@@ -11104,7 +11169,7 @@
       <c r="F22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <v>70</v>
       </c>
       <c r="H22" s="19" t="b">
@@ -11147,7 +11212,7 @@
       <c r="F23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="31">
         <v>70</v>
       </c>
       <c r="H23" s="19" t="b">
@@ -11190,7 +11255,7 @@
       <c r="F24" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="31">
         <v>70</v>
       </c>
       <c r="H24" s="19" t="b">
@@ -11233,7 +11298,7 @@
       <c r="F25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>9</v>
       </c>
       <c r="H25" s="19" t="b">
@@ -11278,7 +11343,7 @@
       <c r="F26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="31">
         <v>20</v>
       </c>
       <c r="H26" s="19" t="b">
@@ -11323,7 +11388,7 @@
       <c r="F27" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="31">
         <v>45</v>
       </c>
       <c r="H27" s="19" t="b">
@@ -11366,7 +11431,7 @@
       <c r="F28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="31">
         <v>75</v>
       </c>
       <c r="H28" s="19" t="b">
@@ -11409,7 +11474,7 @@
       <c r="F29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="31">
         <v>55</v>
       </c>
       <c r="H29" s="19" t="b">
@@ -11452,7 +11517,7 @@
       <c r="F30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="31">
         <v>45</v>
       </c>
       <c r="H30" s="19" t="b">
@@ -11495,7 +11560,7 @@
       <c r="F31" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="31">
         <v>20</v>
       </c>
       <c r="H31" s="19" t="b">
@@ -11538,7 +11603,7 @@
       <c r="F32" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="31">
         <v>30</v>
       </c>
       <c r="H32" s="19" t="b">
@@ -11581,7 +11646,7 @@
       <c r="F33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="31">
         <v>6</v>
       </c>
       <c r="H33" s="19" t="b">
@@ -11626,7 +11691,7 @@
       <c r="F34" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="31">
         <v>11</v>
       </c>
       <c r="H34" s="19" t="b">
@@ -11671,7 +11736,7 @@
       <c r="F35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="31">
         <v>160</v>
       </c>
       <c r="H35" s="19" t="b">
@@ -11714,7 +11779,7 @@
       <c r="F36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="31">
         <v>100</v>
       </c>
       <c r="H36" s="19" t="b">
@@ -11757,7 +11822,7 @@
       <c r="F37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="31">
         <v>100</v>
       </c>
       <c r="H37" s="19" t="b">
@@ -11800,7 +11865,7 @@
       <c r="F38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="31">
         <v>70</v>
       </c>
       <c r="H38" s="19" t="b">
@@ -11843,7 +11908,7 @@
       <c r="F39" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="31">
         <v>70</v>
       </c>
       <c r="H39" s="19" t="b">
@@ -11886,7 +11951,7 @@
       <c r="F40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="31">
         <v>9</v>
       </c>
       <c r="H40" s="19" t="b">
@@ -11931,7 +11996,7 @@
       <c r="F41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="31">
         <v>400</v>
       </c>
       <c r="H41" s="19" t="b">
@@ -11974,7 +12039,7 @@
       <c r="F42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="31">
         <v>50</v>
       </c>
       <c r="H42" s="19" t="b">
@@ -12017,7 +12082,7 @@
       <c r="F43" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="31">
         <v>250</v>
       </c>
       <c r="H43" s="19" t="b">
@@ -12060,7 +12125,7 @@
       <c r="F44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="31">
         <v>6</v>
       </c>
       <c r="H44" s="19" t="b">
@@ -12105,7 +12170,7 @@
       <c r="F45" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="31">
         <v>120</v>
       </c>
       <c r="H45" s="19" t="b">
@@ -12148,7 +12213,7 @@
       <c r="F46" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="31">
         <v>65</v>
       </c>
       <c r="H46" s="19" t="b">
@@ -12191,7 +12256,7 @@
       <c r="F47" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="31">
         <v>55</v>
       </c>
       <c r="H47" s="19" t="b">
@@ -12234,7 +12299,7 @@
       <c r="F48" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="31">
         <v>55</v>
       </c>
       <c r="H48" s="19" t="b">
@@ -12277,7 +12342,7 @@
       <c r="F49" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="31">
         <v>8</v>
       </c>
       <c r="H49" s="19" t="b">
@@ -12322,7 +12387,7 @@
       <c r="F50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="31">
         <v>90</v>
       </c>
       <c r="H50" s="19" t="b">
@@ -12365,7 +12430,7 @@
       <c r="F51" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G51" s="32">
+      <c r="G51" s="31">
         <v>150</v>
       </c>
       <c r="H51" s="19" t="b">
@@ -12408,7 +12473,7 @@
       <c r="F52" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="31">
         <v>110</v>
       </c>
       <c r="H52" s="19" t="b">
@@ -12451,7 +12516,7 @@
       <c r="F53" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="31">
         <v>80</v>
       </c>
       <c r="H53" s="19" t="b">
@@ -12494,7 +12559,7 @@
       <c r="F54" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="32">
+      <c r="G54" s="31">
         <v>40</v>
       </c>
       <c r="H54" s="19" t="b">
@@ -12537,7 +12602,7 @@
       <c r="F55" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="31">
         <v>150</v>
       </c>
       <c r="H55" s="19" t="b">
@@ -12580,7 +12645,7 @@
       <c r="F56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="31">
         <v>5</v>
       </c>
       <c r="H56" s="19" t="b">
@@ -12625,7 +12690,7 @@
       <c r="F57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="31">
         <v>20</v>
       </c>
       <c r="H57" s="19" t="b">
@@ -12670,7 +12735,7 @@
       <c r="F58" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="31">
         <v>175</v>
       </c>
       <c r="H58" s="19" t="b">
@@ -12713,7 +12778,7 @@
       <c r="F59" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="31">
         <v>130</v>
       </c>
       <c r="H59" s="19" t="b">
@@ -12756,7 +12821,7 @@
       <c r="F60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="31">
         <v>70</v>
       </c>
       <c r="H60" s="19" t="b">
@@ -12799,7 +12864,7 @@
       <c r="F61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="31">
         <v>9</v>
       </c>
       <c r="H61" s="19" t="b">
@@ -12844,7 +12909,7 @@
       <c r="F62" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="31">
         <v>100</v>
       </c>
       <c r="H62" s="19" t="b">
@@ -12887,7 +12952,7 @@
       <c r="F63" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="31">
         <v>75</v>
       </c>
       <c r="H63" s="19" t="b">
@@ -12930,7 +12995,7 @@
       <c r="F64" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="31">
         <v>55</v>
       </c>
       <c r="H64" s="19" t="b">
@@ -12973,7 +13038,7 @@
       <c r="F65" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="31">
         <v>35</v>
       </c>
       <c r="H65" s="19" t="b">
@@ -13016,7 +13081,7 @@
       <c r="F66" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="31">
         <v>8</v>
       </c>
       <c r="H66" s="19" t="b">
@@ -13061,7 +13126,7 @@
       <c r="F67" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="32">
+      <c r="G67" s="31">
         <v>160</v>
       </c>
       <c r="H67" s="19" t="b">
@@ -13104,7 +13169,7 @@
       <c r="F68" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="31">
         <v>100</v>
       </c>
       <c r="H68" s="19" t="b">
@@ -13147,7 +13212,7 @@
       <c r="F69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="32">
+      <c r="G69" s="31">
         <v>100</v>
       </c>
       <c r="H69" s="19" t="b">
@@ -13190,7 +13255,7 @@
       <c r="F70" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="31">
         <v>95</v>
       </c>
       <c r="H70" s="19" t="b">
@@ -13233,7 +13298,7 @@
       <c r="F71" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="31">
         <v>55</v>
       </c>
       <c r="H71" s="19" t="b">
@@ -13276,7 +13341,7 @@
       <c r="F72" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="31">
         <v>40</v>
       </c>
       <c r="H72" s="19" t="b">
@@ -13319,7 +13384,7 @@
       <c r="F73" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="31">
         <v>10</v>
       </c>
       <c r="H73" s="19" t="b">
@@ -13362,7 +13427,7 @@
       <c r="F74" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="31">
         <v>10</v>
       </c>
       <c r="H74" s="19" t="b">
@@ -13405,7 +13470,7 @@
       <c r="F75" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G75" s="31">
         <v>70</v>
       </c>
       <c r="H75" s="19" t="b">
@@ -13448,7 +13513,7 @@
       <c r="F76" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="32">
+      <c r="G76" s="31">
         <v>8</v>
       </c>
       <c r="H76" s="19" t="b">
@@ -13493,7 +13558,7 @@
       <c r="F77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="31">
         <v>75</v>
       </c>
       <c r="H77" s="19" t="b">
@@ -13536,7 +13601,7 @@
       <c r="F78" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="32">
+      <c r="G78" s="31">
         <v>60</v>
       </c>
       <c r="H78" s="19" t="b">
@@ -13579,7 +13644,7 @@
       <c r="F79" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="32">
+      <c r="G79" s="31">
         <v>55</v>
       </c>
       <c r="H79" s="19" t="b">
@@ -13622,7 +13687,7 @@
       <c r="F80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="31">
         <v>45</v>
       </c>
       <c r="H80" s="19" t="b">
@@ -13665,7 +13730,7 @@
       <c r="F81" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="32">
+      <c r="G81" s="31">
         <v>14</v>
       </c>
       <c r="H81" s="19" t="b">
@@ -13710,7 +13775,7 @@
       <c r="F82" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G82" s="32">
+      <c r="G82" s="31">
         <v>11</v>
       </c>
       <c r="H82" s="19" t="b">
@@ -13755,7 +13820,7 @@
       <c r="F83" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G83" s="32">
+      <c r="G83" s="31">
         <v>160</v>
       </c>
       <c r="H83" s="19" t="b">
@@ -13798,7 +13863,7 @@
       <c r="F84" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G84" s="32">
+      <c r="G84" s="31">
         <v>100</v>
       </c>
       <c r="H84" s="19" t="b">
@@ -13841,7 +13906,7 @@
       <c r="F85" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="32">
+      <c r="G85" s="31">
         <v>100</v>
       </c>
       <c r="H85" s="19" t="b">
@@ -13884,7 +13949,7 @@
       <c r="F86" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="32">
+      <c r="G86" s="31">
         <v>175</v>
       </c>
       <c r="H86" s="19" t="b">
@@ -13927,7 +13992,7 @@
       <c r="F87" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G87" s="32">
+      <c r="G87" s="31">
         <v>170</v>
       </c>
       <c r="H87" s="19" t="b">
@@ -13970,7 +14035,7 @@
       <c r="F88" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="32">
+      <c r="G88" s="31">
         <v>75</v>
       </c>
       <c r="H88" s="19" t="b">
@@ -14013,7 +14078,7 @@
       <c r="F89" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="32">
+      <c r="G89" s="31">
         <v>70</v>
       </c>
       <c r="H89" s="19" t="b">
@@ -14056,7 +14121,7 @@
       <c r="F90" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="32">
+      <c r="G90" s="31">
         <v>9</v>
       </c>
       <c r="H90" s="19" t="b">
@@ -14101,7 +14166,7 @@
       <c r="F91" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="32">
+      <c r="G91" s="31">
         <v>20</v>
       </c>
       <c r="H91" s="19" t="b">
@@ -14146,7 +14211,7 @@
       <c r="F92" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="32">
+      <c r="G92" s="31">
         <v>160</v>
       </c>
       <c r="H92" s="19" t="b">
@@ -14189,7 +14254,7 @@
       <c r="F93" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G93" s="32">
+      <c r="G93" s="31">
         <v>100</v>
       </c>
       <c r="H93" s="19" t="b">
@@ -14232,7 +14297,7 @@
       <c r="F94" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G94" s="32">
+      <c r="G94" s="31">
         <v>70</v>
       </c>
       <c r="H94" s="19" t="b">
@@ -14275,7 +14340,7 @@
       <c r="F95" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G95" s="32">
+      <c r="G95" s="31">
         <v>100</v>
       </c>
       <c r="H95" s="19" t="b">
@@ -14318,7 +14383,7 @@
       <c r="F96" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="32">
+      <c r="G96" s="31">
         <v>70</v>
       </c>
       <c r="H96" s="19" t="b">
@@ -14361,7 +14426,7 @@
       <c r="F97" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="32">
+      <c r="G97" s="31">
         <v>80</v>
       </c>
       <c r="H97" s="19" t="b">
@@ -14404,7 +14469,7 @@
       <c r="F98" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="32">
+      <c r="G98" s="31">
         <v>45</v>
       </c>
       <c r="H98" s="19" t="b">
@@ -14447,7 +14512,7 @@
       <c r="F99" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="32">
+      <c r="G99" s="31">
         <v>50</v>
       </c>
       <c r="H99" s="19" t="b">
@@ -14490,7 +14555,7 @@
       <c r="F100" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="32">
+      <c r="G100" s="31">
         <v>6</v>
       </c>
       <c r="H100" s="19" t="b">
@@ -14535,7 +14600,7 @@
       <c r="F101" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="32">
+      <c r="G101" s="31">
         <v>14</v>
       </c>
       <c r="H101" s="19" t="b">
@@ -14580,7 +14645,7 @@
       <c r="F102" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="32">
+      <c r="G102" s="31">
         <v>11</v>
       </c>
       <c r="H102" s="19" t="b">
@@ -14625,7 +14690,7 @@
       <c r="F103" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G103" s="32">
+      <c r="G103" s="31">
         <v>70</v>
       </c>
       <c r="H103" s="19" t="b">
@@ -14668,7 +14733,7 @@
       <c r="F104" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="32">
+      <c r="G104" s="31">
         <v>45</v>
       </c>
       <c r="H104" s="19" t="b">
@@ -14711,7 +14776,7 @@
       <c r="F105" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="32">
+      <c r="G105" s="31">
         <v>11</v>
       </c>
       <c r="H105" s="19" t="b">
@@ -14756,7 +14821,7 @@
       <c r="F106" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G106" s="32">
+      <c r="G106" s="31">
         <v>7</v>
       </c>
       <c r="H106" s="19" t="b">
@@ -14801,7 +14866,7 @@
       <c r="F107" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="32">
+      <c r="G107" s="31">
         <v>0</v>
       </c>
       <c r="H107" s="19" t="b">
@@ -14844,7 +14909,7 @@
       <c r="F108" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G108" s="32">
+      <c r="G108" s="31">
         <v>0</v>
       </c>
       <c r="H108" s="19" t="b">
@@ -14887,7 +14952,7 @@
       <c r="F109" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="32">
+      <c r="G109" s="31">
         <v>45</v>
       </c>
       <c r="H109" s="19" t="b">
@@ -14930,7 +14995,7 @@
       <c r="F110" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G110" s="32">
+      <c r="G110" s="31">
         <v>55</v>
       </c>
       <c r="H110" s="19" t="b">
@@ -14973,7 +15038,7 @@
       <c r="F111" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G111" s="32">
+      <c r="G111" s="31">
         <v>45</v>
       </c>
       <c r="H111" s="19" t="b">
@@ -15016,7 +15081,7 @@
       <c r="F112" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G112" s="32">
+      <c r="G112" s="31">
         <v>30</v>
       </c>
       <c r="H112" s="19" t="b">
@@ -15059,7 +15124,7 @@
       <c r="F113" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="32">
+      <c r="G113" s="31">
         <v>5</v>
       </c>
       <c r="H113" s="19" t="b">
@@ -15104,7 +15169,7 @@
       <c r="F114" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="32">
+      <c r="G114" s="31">
         <v>8</v>
       </c>
       <c r="H114" s="19" t="b">
@@ -15149,7 +15214,7 @@
       <c r="F115" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="32">
+      <c r="G115" s="31">
         <v>90</v>
       </c>
       <c r="H115" s="19" t="b">
@@ -15192,7 +15257,7 @@
       <c r="F116" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="32">
+      <c r="G116" s="31">
         <v>15</v>
       </c>
       <c r="H116" s="19" t="b">
@@ -15235,7 +15300,7 @@
       <c r="F117" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="32">
+      <c r="G117" s="31">
         <v>55</v>
       </c>
       <c r="H117" s="19" t="b">
@@ -15278,7 +15343,7 @@
       <c r="F118" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="32">
+      <c r="G118" s="31">
         <v>55</v>
       </c>
       <c r="H118" s="19" t="b">
@@ -15321,7 +15386,7 @@
       <c r="F119" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="32">
+      <c r="G119" s="31">
         <v>50</v>
       </c>
       <c r="H119" s="19" t="b">
@@ -15364,7 +15429,7 @@
       <c r="F120" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="32">
+      <c r="G120" s="31">
         <v>8</v>
       </c>
       <c r="H120" s="19" t="b">
@@ -15409,7 +15474,7 @@
       <c r="F121" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G121" s="32">
+      <c r="G121" s="31">
         <v>70</v>
       </c>
       <c r="H121" s="19" t="b">
@@ -15452,7 +15517,7 @@
       <c r="F122" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G122" s="32">
+      <c r="G122" s="31">
         <v>80</v>
       </c>
       <c r="H122" s="19" t="b">
@@ -15495,7 +15560,7 @@
       <c r="F123" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G123" s="32">
+      <c r="G123" s="31">
         <v>110</v>
       </c>
       <c r="H123" s="19" t="b">
@@ -15538,7 +15603,7 @@
       <c r="F124" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G124" s="32">
+      <c r="G124" s="31">
         <v>80</v>
       </c>
       <c r="H124" s="19" t="b">
@@ -15581,7 +15646,7 @@
       <c r="F125" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="32">
+      <c r="G125" s="31">
         <v>70</v>
       </c>
       <c r="H125" s="19" t="b">
@@ -15624,7 +15689,7 @@
       <c r="F126" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="32">
+      <c r="G126" s="31">
         <v>40</v>
       </c>
       <c r="H126" s="19" t="b">
@@ -15667,7 +15732,7 @@
       <c r="F127" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G127" s="32">
+      <c r="G127" s="31">
         <v>5</v>
       </c>
       <c r="H127" s="19" t="b">
@@ -15712,7 +15777,7 @@
       <c r="F128" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G128" s="32">
+      <c r="G128" s="31">
         <v>6</v>
       </c>
       <c r="H128" s="19" t="b">
@@ -15757,7 +15822,7 @@
       <c r="F129" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G129" s="32">
+      <c r="G129" s="31">
         <v>20</v>
       </c>
       <c r="H129" s="19" t="b">
@@ -15802,7 +15867,7 @@
       <c r="F130" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="32">
+      <c r="G130" s="31">
         <v>400</v>
       </c>
       <c r="H130" s="19" t="b">
@@ -15845,7 +15910,7 @@
       <c r="F131" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G131" s="32">
+      <c r="G131" s="31">
         <v>0</v>
       </c>
       <c r="H131" s="19" t="b">
@@ -15888,7 +15953,7 @@
       <c r="F132" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="32">
+      <c r="G132" s="31">
         <v>0</v>
       </c>
       <c r="H132" s="19" t="b">
@@ -15931,7 +15996,7 @@
       <c r="F133" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G133" s="32">
+      <c r="G133" s="31">
         <v>45</v>
       </c>
       <c r="H133" s="19" t="b">
@@ -15974,7 +16039,7 @@
       <c r="F134" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="32">
+      <c r="G134" s="31">
         <v>150</v>
       </c>
       <c r="H134" s="19" t="b">
@@ -16017,7 +16082,7 @@
       <c r="F135" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G135" s="32">
+      <c r="G135" s="31">
         <v>30</v>
       </c>
       <c r="H135" s="19" t="b">
@@ -16060,7 +16125,7 @@
       <c r="F136" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="32">
+      <c r="G136" s="31">
         <v>5</v>
       </c>
       <c r="H136" s="19" t="b">
@@ -16105,7 +16170,7 @@
       <c r="F137" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G137" s="32">
+      <c r="G137" s="31">
         <v>11</v>
       </c>
       <c r="H137" s="19" t="b">
@@ -16150,7 +16215,7 @@
       <c r="F138" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="32">
+      <c r="G138" s="31">
         <v>90</v>
       </c>
       <c r="H138" s="19" t="b">
@@ -16193,7 +16258,7 @@
       <c r="F139" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G139" s="32">
+      <c r="G139" s="31">
         <v>150</v>
       </c>
       <c r="H139" s="19" t="b">
@@ -16236,7 +16301,7 @@
       <c r="F140" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G140" s="32">
+      <c r="G140" s="31">
         <v>350</v>
       </c>
       <c r="H140" s="19" t="b">
@@ -16279,7 +16344,7 @@
       <c r="F141" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G141" s="32">
+      <c r="G141" s="31">
         <v>40</v>
       </c>
       <c r="H141" s="19" t="b">
@@ -16322,7 +16387,7 @@
       <c r="F142" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G142" s="32">
+      <c r="G142" s="31">
         <v>200</v>
       </c>
       <c r="H142" s="19" t="b">
@@ -16365,7 +16430,7 @@
       <c r="F143" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G143" s="32">
+      <c r="G143" s="31">
         <v>4</v>
       </c>
       <c r="H143" s="19" t="b">
@@ -16410,7 +16475,7 @@
       <c r="F144" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="32">
+      <c r="G144" s="31">
         <v>75</v>
       </c>
       <c r="H144" s="19" t="b">
@@ -16455,7 +16520,7 @@
       <c r="F145" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G145" s="32">
+      <c r="G145" s="31">
         <v>75</v>
       </c>
       <c r="H145" s="19" t="b">
@@ -16498,7 +16563,7 @@
       <c r="F146" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G146" s="32">
+      <c r="G146" s="31">
         <v>150</v>
       </c>
       <c r="H146" s="19" t="b">
@@ -16541,7 +16606,7 @@
       <c r="F147" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G147" s="32">
+      <c r="G147" s="31">
         <v>150</v>
       </c>
       <c r="H147" s="19" t="b">
@@ -16584,7 +16649,7 @@
       <c r="F148" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G148" s="32">
+      <c r="G148" s="31">
         <v>0</v>
       </c>
       <c r="H148" s="19" t="b">
@@ -16627,7 +16692,7 @@
       <c r="F149" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G149" s="32">
+      <c r="G149" s="31">
         <v>55</v>
       </c>
       <c r="H149" s="19" t="b">
@@ -16670,7 +16735,7 @@
       <c r="F150" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G150" s="32">
+      <c r="G150" s="31">
         <v>45</v>
       </c>
       <c r="H150" s="19" t="b">
@@ -16713,7 +16778,7 @@
       <c r="F151" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="32">
+      <c r="G151" s="31">
         <v>8</v>
       </c>
       <c r="H151" s="19" t="b">
@@ -16758,7 +16823,7 @@
       <c r="F152" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G152" s="32">
+      <c r="G152" s="31">
         <v>90</v>
       </c>
       <c r="H152" s="19" t="b">
@@ -16801,7 +16866,7 @@
       <c r="F153" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="32">
+      <c r="G153" s="31">
         <v>0</v>
       </c>
       <c r="H153" s="19" t="b">
@@ -16844,7 +16909,7 @@
       <c r="F154" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G154" s="32">
+      <c r="G154" s="31">
         <v>0</v>
       </c>
       <c r="H154" s="19" t="b">
@@ -16887,7 +16952,7 @@
       <c r="F155" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G155" s="32">
+      <c r="G155" s="31">
         <v>120</v>
       </c>
       <c r="H155" s="19" t="b">
@@ -16930,7 +16995,7 @@
       <c r="F156" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G156" s="32">
+      <c r="G156" s="31">
         <v>65</v>
       </c>
       <c r="H156" s="19" t="b">
@@ -16973,7 +17038,7 @@
       <c r="F157" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G157" s="32">
+      <c r="G157" s="31">
         <v>55</v>
       </c>
       <c r="H157" s="19" t="b">
@@ -17016,7 +17081,7 @@
       <c r="F158" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G158" s="32">
+      <c r="G158" s="31">
         <v>55</v>
       </c>
       <c r="H158" s="19" t="b">
@@ -17059,7 +17124,7 @@
       <c r="F159" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G159" s="32">
+      <c r="G159" s="31">
         <v>60</v>
       </c>
       <c r="H159" s="19" t="b">
@@ -17102,7 +17167,7 @@
       <c r="F160" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G160" s="32">
+      <c r="G160" s="31">
         <v>8</v>
       </c>
       <c r="H160" s="19" t="b">
@@ -17147,7 +17212,7 @@
       <c r="F161" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="32">
+      <c r="G161" s="31">
         <v>90</v>
       </c>
       <c r="H161" s="19" t="b">
@@ -17190,7 +17255,7 @@
       <c r="F162" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="32">
+      <c r="G162" s="31">
         <v>8</v>
       </c>
       <c r="H162" s="19" t="b">
@@ -17233,7 +17298,7 @@
       <c r="F163" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G163" s="32">
+      <c r="G163" s="31">
         <v>150</v>
       </c>
       <c r="H163" s="19" t="b">
@@ -17276,7 +17341,7 @@
       <c r="F164" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G164" s="32">
+      <c r="G164" s="31">
         <v>400</v>
       </c>
       <c r="H164" s="19" t="b">
@@ -17319,7 +17384,7 @@
       <c r="F165" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G165" s="32">
+      <c r="G165" s="31">
         <v>50</v>
       </c>
       <c r="H165" s="19" t="b">
@@ -17362,7 +17427,7 @@
       <c r="F166" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G166" s="32">
+      <c r="G166" s="31">
         <v>250</v>
       </c>
       <c r="H166" s="19" t="b">
@@ -17405,7 +17470,7 @@
       <c r="F167" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G167" s="32">
+      <c r="G167" s="31">
         <v>6</v>
       </c>
       <c r="H167" s="19" t="b">
@@ -17450,7 +17515,7 @@
       <c r="F168" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="32">
+      <c r="G168" s="31">
         <v>170</v>
       </c>
       <c r="H168" s="19" t="b">
@@ -17493,7 +17558,7 @@
       <c r="F169" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G169" s="32">
+      <c r="G169" s="31">
         <v>160</v>
       </c>
       <c r="H169" s="19" t="b">
@@ -17536,7 +17601,7 @@
       <c r="F170" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G170" s="32">
+      <c r="G170" s="31">
         <v>100</v>
       </c>
       <c r="H170" s="19" t="b">
@@ -17579,7 +17644,7 @@
       <c r="F171" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G171" s="32">
+      <c r="G171" s="31">
         <v>100</v>
       </c>
       <c r="H171" s="19" t="b">
@@ -17622,7 +17687,7 @@
       <c r="F172" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G172" s="32">
+      <c r="G172" s="31">
         <v>95</v>
       </c>
       <c r="H172" s="19" t="b">
@@ -17665,7 +17730,7 @@
       <c r="F173" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G173" s="32">
+      <c r="G173" s="31">
         <v>55</v>
       </c>
       <c r="H173" s="19" t="b">
@@ -17708,7 +17773,7 @@
       <c r="F174" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G174" s="32">
+      <c r="G174" s="31">
         <v>40</v>
       </c>
       <c r="H174" s="19" t="b">
@@ -17751,7 +17816,7 @@
       <c r="F175" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G175" s="32">
+      <c r="G175" s="31">
         <v>10</v>
       </c>
       <c r="H175" s="19" t="b">
@@ -17794,7 +17859,7 @@
       <c r="F176" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G176" s="32">
+      <c r="G176" s="31">
         <v>10</v>
       </c>
       <c r="H176" s="19" t="b">
@@ -17837,7 +17902,7 @@
       <c r="F177" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G177" s="32">
+      <c r="G177" s="31">
         <v>25</v>
       </c>
       <c r="H177" s="19" t="b">
@@ -17880,7 +17945,7 @@
       <c r="F178" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G178" s="32">
+      <c r="G178" s="31">
         <v>160</v>
       </c>
       <c r="H178" s="19" t="b">
@@ -17923,7 +17988,7 @@
       <c r="F179" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G179" s="32">
+      <c r="G179" s="31">
         <v>55</v>
       </c>
       <c r="H179" s="19" t="b">
@@ -17966,7 +18031,7 @@
       <c r="F180" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G180" s="32">
+      <c r="G180" s="31">
         <v>40</v>
       </c>
       <c r="H180" s="19" t="b">
@@ -18009,7 +18074,7 @@
       <c r="F181" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G181" s="32">
+      <c r="G181" s="31">
         <v>45</v>
       </c>
       <c r="H181" s="19" t="b">
@@ -18052,7 +18117,7 @@
       <c r="F182" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G182" s="32">
+      <c r="G182" s="31">
         <v>10</v>
       </c>
       <c r="H182" s="19" t="b">
@@ -18095,7 +18160,7 @@
       <c r="F183" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G183" s="32">
+      <c r="G183" s="31">
         <v>10</v>
       </c>
       <c r="H183" s="19" t="b">
@@ -18138,7 +18203,7 @@
       <c r="F184" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G184" s="32">
+      <c r="G184" s="31">
         <v>25</v>
       </c>
       <c r="H184" s="19" t="b">
@@ -18181,7 +18246,7 @@
       <c r="F185" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G185" s="32">
+      <c r="G185" s="31">
         <v>40</v>
       </c>
       <c r="H185" s="19" t="b">
@@ -18224,7 +18289,7 @@
       <c r="F186" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G186" s="32">
+      <c r="G186" s="31">
         <v>70</v>
       </c>
       <c r="H186" s="19" t="b">
@@ -18267,7 +18332,7 @@
       <c r="F187" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="32">
+      <c r="G187" s="31">
         <v>75</v>
       </c>
       <c r="H187" s="19" t="b">
@@ -18310,7 +18375,7 @@
       <c r="F188" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G188" s="32">
+      <c r="G188" s="31">
         <v>55</v>
       </c>
       <c r="H188" s="19" t="b">
@@ -18353,7 +18418,7 @@
       <c r="F189" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G189" s="32">
+      <c r="G189" s="31">
         <v>45</v>
       </c>
       <c r="H189" s="19" t="b">
@@ -18396,7 +18461,7 @@
       <c r="F190" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="32">
+      <c r="G190" s="31">
         <v>14</v>
       </c>
       <c r="H190" s="19" t="b">
@@ -18441,7 +18506,7 @@
       <c r="F191" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="32">
+      <c r="G191" s="31">
         <v>11</v>
       </c>
       <c r="H191" s="19" t="b">
@@ -18486,7 +18551,7 @@
       <c r="F192" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G192" s="32">
+      <c r="G192" s="31">
         <v>160</v>
       </c>
       <c r="H192" s="19" t="b">
@@ -18529,7 +18594,7 @@
       <c r="F193" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G193" s="32">
+      <c r="G193" s="31">
         <v>100</v>
       </c>
       <c r="H193" s="19" t="b">
@@ -18572,7 +18637,7 @@
       <c r="F194" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G194" s="32">
+      <c r="G194" s="31">
         <v>75</v>
       </c>
       <c r="H194" s="19" t="b">
@@ -18615,7 +18680,7 @@
       <c r="F195" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G195" s="32">
+      <c r="G195" s="31">
         <v>55</v>
       </c>
       <c r="H195" s="19" t="b">
@@ -18658,7 +18723,7 @@
       <c r="F196" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G196" s="32">
+      <c r="G196" s="31">
         <v>50</v>
       </c>
       <c r="H196" s="19" t="b">
@@ -18701,7 +18766,7 @@
       <c r="F197" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G197" s="32">
+      <c r="G197" s="31">
         <v>55</v>
       </c>
       <c r="H197" s="19" t="b">
@@ -18744,7 +18809,7 @@
       <c r="F198" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G198" s="32">
+      <c r="G198" s="31">
         <v>45</v>
       </c>
       <c r="H198" s="19" t="b">
@@ -18787,7 +18852,7 @@
       <c r="F199" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G199" s="32">
+      <c r="G199" s="31">
         <v>35</v>
       </c>
       <c r="H199" s="19" t="b">
@@ -18830,7 +18895,7 @@
       <c r="F200" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G200" s="32">
+      <c r="G200" s="31">
         <v>8</v>
       </c>
       <c r="H200" s="19" t="b">
@@ -18875,7 +18940,7 @@
       <c r="F201" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G201" s="32">
+      <c r="G201" s="31">
         <v>5</v>
       </c>
       <c r="H201" s="19" t="b">
@@ -18920,7 +18985,7 @@
       <c r="F202" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G202" s="32">
+      <c r="G202" s="31">
         <v>0</v>
       </c>
       <c r="H202" s="19" t="b">
@@ -18965,7 +19030,7 @@
       <c r="F203" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G203" s="32">
+      <c r="G203" s="31">
         <v>0</v>
       </c>
       <c r="H203" s="19" t="b">
@@ -19010,7 +19075,7 @@
       <c r="F204" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G204" s="32">
+      <c r="G204" s="31">
         <v>65</v>
       </c>
       <c r="H204" s="19" t="b">
@@ -19053,7 +19118,7 @@
       <c r="F205" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G205" s="32">
+      <c r="G205" s="31">
         <v>65</v>
       </c>
       <c r="H205" s="19" t="b">
@@ -19096,7 +19161,7 @@
       <c r="F206" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="32">
+      <c r="G206" s="31">
         <v>9</v>
       </c>
       <c r="H206" s="19" t="b">
@@ -19141,7 +19206,7 @@
       <c r="F207" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G207" s="32">
+      <c r="G207" s="31">
         <v>15</v>
       </c>
       <c r="H207" s="19" t="b">
@@ -19186,7 +19251,7 @@
       <c r="F208" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="32">
+      <c r="G208" s="31">
         <v>80</v>
       </c>
       <c r="H208" s="19" t="b">
@@ -19231,7 +19296,7 @@
       <c r="F209" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G209" s="32">
+      <c r="G209" s="31">
         <v>75</v>
       </c>
       <c r="H209" s="19" t="b">
@@ -19274,7 +19339,7 @@
       <c r="F210" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G210" s="32">
+      <c r="G210" s="31">
         <v>170</v>
       </c>
       <c r="H210" s="19" t="b">
@@ -19317,7 +19382,7 @@
       <c r="F211" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G211" s="32">
+      <c r="G211" s="31">
         <v>55</v>
       </c>
       <c r="H211" s="19" t="b">
@@ -19360,7 +19425,7 @@
       <c r="F212" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G212" s="32">
+      <c r="G212" s="31">
         <v>45</v>
       </c>
       <c r="H212" s="19" t="b">
@@ -19403,7 +19468,7 @@
       <c r="F213" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G213" s="32">
+      <c r="G213" s="31">
         <v>40</v>
       </c>
       <c r="H213" s="19" t="b">
@@ -19446,7 +19511,7 @@
       <c r="F214" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G214" s="32">
+      <c r="G214" s="31">
         <v>55</v>
       </c>
       <c r="H214" s="19" t="b">
@@ -19489,7 +19554,7 @@
       <c r="F215" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G215" s="32">
+      <c r="G215" s="31">
         <v>25</v>
       </c>
       <c r="H215" s="19" t="b">
@@ -19532,7 +19597,7 @@
       <c r="F216" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G216" s="32">
+      <c r="G216" s="31">
         <v>8</v>
       </c>
       <c r="H216" s="19" t="b">
@@ -19577,7 +19642,7 @@
       <c r="F217" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G217" s="32">
+      <c r="G217" s="31">
         <v>5</v>
       </c>
       <c r="H217" s="19" t="b">
@@ -19622,7 +19687,7 @@
       <c r="F218" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="32">
+      <c r="G218" s="31">
         <v>5</v>
       </c>
       <c r="H218" s="19" t="b">
@@ -19667,7 +19732,7 @@
       <c r="F219" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G219" s="32">
+      <c r="G219" s="31">
         <v>11</v>
       </c>
       <c r="H219" s="19" t="b">
@@ -19712,7 +19777,7 @@
       <c r="F220" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G220" s="32">
+      <c r="G220" s="31">
         <v>20</v>
       </c>
       <c r="H220" s="19" t="b">
@@ -19757,7 +19822,7 @@
       <c r="F221" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G221" s="32">
+      <c r="G221" s="31">
         <v>110</v>
       </c>
       <c r="H221" s="19" t="b">
@@ -19800,7 +19865,7 @@
       <c r="F222" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G222" s="32">
+      <c r="G222" s="31">
         <v>60</v>
       </c>
       <c r="H222" s="19" t="b">
@@ -19843,7 +19908,7 @@
       <c r="F223" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G223" s="32">
+      <c r="G223" s="31">
         <v>45</v>
       </c>
       <c r="H223" s="19" t="b">
@@ -19886,7 +19951,7 @@
       <c r="F224" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G224" s="32">
+      <c r="G224" s="31">
         <v>55</v>
       </c>
       <c r="H224" s="19" t="b">
@@ -19929,7 +19994,7 @@
       <c r="F225" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G225" s="32">
+      <c r="G225" s="31">
         <v>45</v>
       </c>
       <c r="H225" s="19" t="b">
@@ -19972,7 +20037,7 @@
       <c r="F226" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G226" s="32">
+      <c r="G226" s="31">
         <v>100</v>
       </c>
       <c r="H226" s="19" t="b">
@@ -20017,7 +20082,7 @@
       <c r="F227" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G227" s="32">
+      <c r="G227" s="31">
         <v>30</v>
       </c>
       <c r="H227" s="19" t="b">
@@ -20060,7 +20125,7 @@
       <c r="F228" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="32">
+      <c r="G228" s="31">
         <v>5</v>
       </c>
       <c r="H228" s="19" t="b">
@@ -20105,7 +20170,7 @@
       <c r="F229" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G229" s="32">
+      <c r="G229" s="31">
         <v>8</v>
       </c>
       <c r="H229" s="19" t="b">
@@ -20150,7 +20215,7 @@
       <c r="F230" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G230" s="32">
+      <c r="G230" s="31">
         <v>170</v>
       </c>
       <c r="H230" s="19" t="b">
@@ -20193,7 +20258,7 @@
       <c r="F231" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G231" s="32">
+      <c r="G231" s="31">
         <v>45</v>
       </c>
       <c r="H231" s="19" t="b">
@@ -20236,7 +20301,7 @@
       <c r="F232" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G232" s="32">
+      <c r="G232" s="31">
         <v>55</v>
       </c>
       <c r="H232" s="19" t="b">
@@ -20279,7 +20344,7 @@
       <c r="F233" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G233" s="32">
+      <c r="G233" s="31">
         <v>40</v>
       </c>
       <c r="H233" s="19" t="b">
@@ -20322,7 +20387,7 @@
       <c r="F234" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G234" s="32">
+      <c r="G234" s="31">
         <v>35</v>
       </c>
       <c r="H234" s="19" t="b">
@@ -20365,7 +20430,7 @@
       <c r="F235" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G235" s="32">
+      <c r="G235" s="31">
         <v>50</v>
       </c>
       <c r="H235" s="19" t="b">
@@ -20408,7 +20473,7 @@
       <c r="F236" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G236" s="32">
+      <c r="G236" s="31">
         <v>10</v>
       </c>
       <c r="H236" s="19" t="b">
@@ -20451,7 +20516,7 @@
       <c r="F237" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G237" s="32">
+      <c r="G237" s="31">
         <v>10</v>
       </c>
       <c r="H237" s="19" t="b">
@@ -20494,7 +20559,7 @@
       <c r="F238" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G238" s="32">
+      <c r="G238" s="31">
         <v>20</v>
       </c>
       <c r="H238" s="19" t="b">
@@ -20537,7 +20602,7 @@
       <c r="F239" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G239" s="32">
+      <c r="G239" s="31">
         <v>20</v>
       </c>
       <c r="H239" s="19" t="b">
@@ -20580,7 +20645,7 @@
       <c r="F240" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G240" s="32">
+      <c r="G240" s="31">
         <v>175</v>
       </c>
       <c r="H240" s="19" t="b">
@@ -20623,7 +20688,7 @@
       <c r="F241" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G241" s="32">
+      <c r="G241" s="31">
         <v>130</v>
       </c>
       <c r="H241" s="19" t="b">
@@ -20666,7 +20731,7 @@
       <c r="F242" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G242" s="32">
+      <c r="G242" s="31">
         <v>70</v>
       </c>
       <c r="H242" s="19" t="b">
@@ -20709,7 +20774,7 @@
       <c r="F243" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G243" s="32">
+      <c r="G243" s="31">
         <v>9</v>
       </c>
       <c r="H243" s="19" t="b">
@@ -20754,7 +20819,7 @@
       <c r="F244" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G244" s="32">
+      <c r="G244" s="31">
         <v>175</v>
       </c>
       <c r="H244" s="19" t="b">
@@ -20797,7 +20862,7 @@
       <c r="F245" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G245" s="32">
+      <c r="G245" s="31">
         <v>170</v>
       </c>
       <c r="H245" s="19" t="b">
@@ -20840,7 +20905,7 @@
       <c r="F246" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G246" s="32">
+      <c r="G246" s="31">
         <v>70</v>
       </c>
       <c r="H246" s="19" t="b">
@@ -20883,7 +20948,7 @@
       <c r="F247" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G247" s="32">
+      <c r="G247" s="31">
         <v>9</v>
       </c>
       <c r="H247" s="19" t="b">
@@ -20928,7 +20993,7 @@
       <c r="F248" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G248" s="32">
+      <c r="G248" s="31">
         <v>110</v>
       </c>
       <c r="H248" s="19" t="b">
@@ -20971,7 +21036,7 @@
       <c r="F249" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G249" s="32">
+      <c r="G249" s="31">
         <v>45</v>
       </c>
       <c r="H249" s="19" t="b">
@@ -21014,7 +21079,7 @@
       <c r="F250" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G250" s="32">
+      <c r="G250" s="31">
         <v>14</v>
       </c>
       <c r="H250" s="19" t="b">
@@ -21059,7 +21124,7 @@
       <c r="F251" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G251" s="32">
+      <c r="G251" s="31">
         <v>200</v>
       </c>
       <c r="H251" s="19" t="b">
@@ -21102,7 +21167,7 @@
       <c r="F252" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G252" s="32">
+      <c r="G252" s="31">
         <v>75</v>
       </c>
       <c r="H252" s="19" t="b">
@@ -21145,7 +21210,7 @@
       <c r="F253" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G253" s="32">
+      <c r="G253" s="31">
         <v>110</v>
       </c>
       <c r="H253" s="19" t="b">
@@ -21188,7 +21253,7 @@
       <c r="F254" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G254" s="32">
+      <c r="G254" s="31">
         <v>60</v>
       </c>
       <c r="H254" s="19" t="b">
@@ -21231,7 +21296,7 @@
       <c r="F255" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G255" s="32">
+      <c r="G255" s="31">
         <v>55</v>
       </c>
       <c r="H255" s="19" t="b">
@@ -21274,7 +21339,7 @@
       <c r="F256" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G256" s="32">
+      <c r="G256" s="31">
         <v>45</v>
       </c>
       <c r="H256" s="19" t="b">
@@ -21317,7 +21382,7 @@
       <c r="F257" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G257" s="32">
+      <c r="G257" s="31">
         <v>14</v>
       </c>
       <c r="H257" s="19" t="b">
@@ -21362,7 +21427,7 @@
       <c r="F258" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G258" s="32">
+      <c r="G258" s="31">
         <v>11</v>
       </c>
       <c r="H258" s="19" t="b">
@@ -21407,7 +21472,7 @@
       <c r="F259" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G259" s="32">
+      <c r="G259" s="31">
         <v>125</v>
       </c>
       <c r="H259" s="19" t="b">
@@ -21450,7 +21515,7 @@
       <c r="F260" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G260" s="32">
+      <c r="G260" s="31">
         <v>180</v>
       </c>
       <c r="H260" s="19" t="b">
@@ -21495,7 +21560,7 @@
       <c r="F261" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G261" s="32">
+      <c r="G261" s="31">
         <v>80</v>
       </c>
       <c r="H261" s="19" t="b">
@@ -21538,7 +21603,7 @@
       <c r="F262" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G262" s="32">
+      <c r="G262" s="31">
         <v>45</v>
       </c>
       <c r="H262" s="19" t="b">
@@ -21581,7 +21646,7 @@
       <c r="F263" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G263" s="32">
+      <c r="G263" s="31">
         <v>50</v>
       </c>
       <c r="H263" s="19" t="b">
@@ -21624,7 +21689,7 @@
       <c r="F264" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G264" s="32">
+      <c r="G264" s="31">
         <v>6</v>
       </c>
       <c r="H264" s="19" t="b">
@@ -21669,7 +21734,7 @@
       <c r="F265" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G265" s="32">
+      <c r="G265" s="31">
         <v>14</v>
       </c>
       <c r="H265" s="19" t="b">
@@ -21714,7 +21779,7 @@
       <c r="F266" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G266" s="32">
+      <c r="G266" s="31">
         <v>50</v>
       </c>
       <c r="H266" s="19" t="b">
@@ -21757,7 +21822,7 @@
       <c r="F267" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G267" s="32">
+      <c r="G267" s="31">
         <v>160</v>
       </c>
       <c r="H267" s="19" t="b">
@@ -21800,7 +21865,7 @@
       <c r="F268" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G268" s="32">
+      <c r="G268" s="31">
         <v>100</v>
       </c>
       <c r="H268" s="19" t="b">
@@ -21843,7 +21908,7 @@
       <c r="F269" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G269" s="32">
+      <c r="G269" s="31">
         <v>65</v>
       </c>
       <c r="H269" s="19" t="b">
@@ -21886,7 +21951,7 @@
       <c r="F270" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G270" s="32">
+      <c r="G270" s="31">
         <v>60</v>
       </c>
       <c r="H270" s="19" t="b">
@@ -21929,7 +21994,7 @@
       <c r="F271" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G271" s="32">
+      <c r="G271" s="31">
         <v>8</v>
       </c>
       <c r="H271" s="19" t="b">
@@ -21974,7 +22039,7 @@
       <c r="F272" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G272" s="32">
+      <c r="G272" s="31">
         <v>15</v>
       </c>
       <c r="H272" s="19" t="b">
@@ -22019,7 +22084,7 @@
       <c r="F273" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G273" s="32">
+      <c r="G273" s="31">
         <v>8</v>
       </c>
       <c r="H273" s="19" t="b">
@@ -22064,7 +22129,7 @@
       <c r="F274" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G274" s="32">
+      <c r="G274" s="31">
         <v>10</v>
       </c>
       <c r="H274" s="19" t="b">
@@ -22109,7 +22174,7 @@
       <c r="F275" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G275" s="32">
+      <c r="G275" s="31">
         <v>100</v>
       </c>
       <c r="H275" s="19" t="b">
@@ -22152,7 +22217,7 @@
       <c r="F276" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G276" s="32">
+      <c r="G276" s="31">
         <v>60</v>
       </c>
       <c r="H276" s="19" t="b">
@@ -22195,7 +22260,7 @@
       <c r="F277" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G277" s="32">
+      <c r="G277" s="31">
         <v>40</v>
       </c>
       <c r="H277" s="19" t="b">
@@ -22238,7 +22303,7 @@
       <c r="F278" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G278" s="32">
+      <c r="G278" s="31">
         <v>60</v>
       </c>
       <c r="H278" s="19" t="b">
@@ -22281,7 +22346,7 @@
       <c r="F279" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G279" s="32">
+      <c r="G279" s="31">
         <v>8</v>
       </c>
       <c r="H279" s="19" t="b">
@@ -22326,7 +22391,7 @@
       <c r="F280" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G280" s="32">
+      <c r="G280" s="31">
         <v>15</v>
       </c>
       <c r="H280" s="19" t="b">
@@ -22371,7 +22436,7 @@
       <c r="F281" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G281" s="32">
+      <c r="G281" s="31">
         <v>8</v>
       </c>
       <c r="H281" s="19" t="b">
@@ -22416,7 +22481,7 @@
       <c r="F282" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G282" s="32">
+      <c r="G282" s="31">
         <v>9</v>
       </c>
       <c r="H282" s="19" t="b">
@@ -22461,7 +22526,7 @@
       <c r="F283" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G283" s="32">
+      <c r="G283" s="31">
         <v>55</v>
       </c>
       <c r="H283" s="19" t="b">
@@ -22504,7 +22569,7 @@
       <c r="F284" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G284" s="32">
+      <c r="G284" s="31">
         <v>40</v>
       </c>
       <c r="H284" s="19" t="b">
@@ -22547,7 +22612,7 @@
       <c r="F285" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G285" s="32">
+      <c r="G285" s="31">
         <v>30</v>
       </c>
       <c r="H285" s="19" t="b">
@@ -22590,7 +22655,7 @@
       <c r="F286" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G286" s="32">
+      <c r="G286" s="31">
         <v>160</v>
       </c>
       <c r="H286" s="19" t="b">
@@ -22633,7 +22698,7 @@
       <c r="F287" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G287" s="32">
+      <c r="G287" s="31">
         <v>100</v>
       </c>
       <c r="H287" s="19" t="b">
@@ -22676,7 +22741,7 @@
       <c r="F288" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G288" s="32">
+      <c r="G288" s="31">
         <v>60</v>
       </c>
       <c r="H288" s="19" t="b">
@@ -22719,7 +22784,7 @@
       <c r="F289" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G289" s="32">
+      <c r="G289" s="31">
         <v>60</v>
       </c>
       <c r="H289" s="19" t="b">
@@ -22762,7 +22827,7 @@
       <c r="F290" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G290" s="32">
+      <c r="G290" s="31">
         <v>8</v>
       </c>
       <c r="H290" s="19" t="b">
@@ -22807,7 +22872,7 @@
       <c r="F291" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G291" s="32">
+      <c r="G291" s="31">
         <v>15</v>
       </c>
       <c r="H291" s="19" t="b">
@@ -22852,7 +22917,7 @@
       <c r="F292" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G292" s="32">
+      <c r="G292" s="31">
         <v>8</v>
       </c>
       <c r="H292" s="19" t="b">
@@ -22897,7 +22962,7 @@
       <c r="F293" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G293" s="32">
+      <c r="G293" s="31">
         <v>9</v>
       </c>
       <c r="H293" s="19" t="b">
@@ -22942,7 +23007,7 @@
       <c r="F294" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G294" s="32">
+      <c r="G294" s="31">
         <v>200</v>
       </c>
       <c r="H294" s="19" t="b">
@@ -22985,7 +23050,7 @@
       <c r="F295" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G295" s="32">
+      <c r="G295" s="31">
         <v>65</v>
       </c>
       <c r="H295" s="19" t="b">
@@ -23028,7 +23093,7 @@
       <c r="F296" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G296" s="32">
+      <c r="G296" s="31">
         <v>60</v>
       </c>
       <c r="H296" s="19" t="b">
@@ -23071,7 +23136,7 @@
       <c r="F297" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G297" s="32">
+      <c r="G297" s="31">
         <v>25</v>
       </c>
       <c r="H297" s="19" t="b">
@@ -23114,7 +23179,7 @@
       <c r="F298" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G298" s="32">
+      <c r="G298" s="31">
         <v>8</v>
       </c>
       <c r="H298" s="19" t="b">
@@ -23159,7 +23224,7 @@
       <c r="F299" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G299" s="32">
+      <c r="G299" s="31">
         <v>15</v>
       </c>
       <c r="H299" s="19" t="b">
@@ -23204,7 +23269,7 @@
       <c r="F300" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G300" s="32">
+      <c r="G300" s="31">
         <v>8</v>
       </c>
       <c r="H300" s="19" t="b">
@@ -23249,7 +23314,7 @@
       <c r="F301" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G301" s="32">
+      <c r="G301" s="31">
         <v>100</v>
       </c>
       <c r="H301" s="19" t="b">
@@ -23292,7 +23357,7 @@
       <c r="F302" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G302" s="32">
+      <c r="G302" s="31">
         <v>100</v>
       </c>
       <c r="H302" s="19" t="b">
@@ -23335,7 +23400,7 @@
       <c r="F303" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G303" s="32">
+      <c r="G303" s="31">
         <v>70</v>
       </c>
       <c r="H303" s="19" t="b">
@@ -23378,7 +23443,7 @@
       <c r="F304" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G304" s="32">
+      <c r="G304" s="31">
         <v>14</v>
       </c>
       <c r="H304" s="19" t="b">
@@ -23423,7 +23488,7 @@
       <c r="F305" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G305" s="32">
+      <c r="G305" s="31">
         <v>25</v>
       </c>
       <c r="H305" s="19" t="b">
@@ -23468,7 +23533,7 @@
       <c r="F306" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G306" s="32">
+      <c r="G306" s="31">
         <v>160</v>
       </c>
       <c r="H306" s="19" t="b">
@@ -23511,7 +23576,7 @@
       <c r="F307" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G307" s="32">
+      <c r="G307" s="31">
         <v>100</v>
       </c>
       <c r="H307" s="19" t="b">
@@ -23554,7 +23619,7 @@
       <c r="F308" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G308" s="32">
+      <c r="G308" s="31">
         <v>100</v>
       </c>
       <c r="H308" s="19" t="b">
@@ -23597,7 +23662,7 @@
       <c r="F309" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G309" s="32">
+      <c r="G309" s="31">
         <v>200</v>
       </c>
       <c r="H309" s="19" t="b">
@@ -23640,7 +23705,7 @@
       <c r="F310" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G310" s="32">
+      <c r="G310" s="31">
         <v>100</v>
       </c>
       <c r="H310" s="19" t="b">
@@ -23683,7 +23748,7 @@
       <c r="F311" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G311" s="32">
+      <c r="G311" s="31">
         <v>70</v>
       </c>
       <c r="H311" s="19" t="b">
@@ -23726,7 +23791,7 @@
       <c r="F312" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G312" s="32">
+      <c r="G312" s="31">
         <v>65</v>
       </c>
       <c r="H312" s="19" t="b">
@@ -23769,7 +23834,7 @@
       <c r="F313" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G313" s="32">
+      <c r="G313" s="31">
         <v>60</v>
       </c>
       <c r="H313" s="19" t="b">
@@ -23812,7 +23877,7 @@
       <c r="F314" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G314" s="32">
+      <c r="G314" s="31">
         <v>25</v>
       </c>
       <c r="H314" s="19" t="b">
@@ -23855,7 +23920,7 @@
       <c r="F315" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G315" s="32">
+      <c r="G315" s="31">
         <v>14</v>
       </c>
       <c r="H315" s="19" t="b">
@@ -23900,7 +23965,7 @@
       <c r="F316" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G316" s="32">
+      <c r="G316" s="31">
         <v>25</v>
       </c>
       <c r="H316" s="19" t="b">
@@ -23945,7 +24010,7 @@
       <c r="F317" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G317" s="32">
+      <c r="G317" s="31">
         <v>8</v>
       </c>
       <c r="H317" s="19" t="b">
@@ -23990,7 +24055,7 @@
       <c r="F318" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G318" s="32">
+      <c r="G318" s="31">
         <v>15</v>
       </c>
       <c r="H318" s="19" t="b">
@@ -24035,7 +24100,7 @@
       <c r="F319" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G319" s="32">
+      <c r="G319" s="31">
         <v>8</v>
       </c>
       <c r="H319" s="19" t="b">
@@ -24080,7 +24145,7 @@
       <c r="F320" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G320" s="32">
+      <c r="G320" s="31">
         <v>100</v>
       </c>
       <c r="H320" s="19" t="b">
@@ -24123,7 +24188,7 @@
       <c r="F321" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G321" s="32">
+      <c r="G321" s="31">
         <v>160</v>
       </c>
       <c r="H321" s="19" t="b">
@@ -24166,7 +24231,7 @@
       <c r="F322" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G322" s="32">
+      <c r="G322" s="31">
         <v>100</v>
       </c>
       <c r="H322" s="19" t="b">
@@ -24209,7 +24274,7 @@
       <c r="F323" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G323" s="32">
+      <c r="G323" s="31">
         <v>100</v>
       </c>
       <c r="H323" s="19" t="b">
@@ -24252,7 +24317,7 @@
       <c r="F324" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G324" s="32">
+      <c r="G324" s="31">
         <v>75</v>
       </c>
       <c r="H324" s="19" t="b">
@@ -24295,7 +24360,7 @@
       <c r="F325" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="32">
+      <c r="G325" s="31">
         <v>110</v>
       </c>
       <c r="H325" s="19" t="b">
@@ -24338,7 +24403,7 @@
       <c r="F326" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G326" s="32">
+      <c r="G326" s="31">
         <v>60</v>
       </c>
       <c r="H326" s="19" t="b">
@@ -24381,7 +24446,7 @@
       <c r="F327" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G327" s="32">
+      <c r="G327" s="31">
         <v>55</v>
       </c>
       <c r="H327" s="19" t="b">
@@ -24424,7 +24489,7 @@
       <c r="F328" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G328" s="32">
+      <c r="G328" s="31">
         <v>45</v>
       </c>
       <c r="H328" s="19" t="b">
@@ -24467,7 +24532,7 @@
       <c r="F329" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G329" s="32">
+      <c r="G329" s="31">
         <v>14</v>
       </c>
       <c r="H329" s="19" t="b">
@@ -24512,7 +24577,7 @@
       <c r="F330" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G330" s="32">
+      <c r="G330" s="31">
         <v>11</v>
       </c>
       <c r="H330" s="19" t="b">
@@ -24557,7 +24622,7 @@
       <c r="F331" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G331" s="32">
+      <c r="G331" s="31">
         <v>225</v>
       </c>
       <c r="H331" s="19" t="b">
@@ -24600,7 +24665,7 @@
       <c r="F332" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G332" s="32">
+      <c r="G332" s="31">
         <v>200</v>
       </c>
       <c r="H332" s="19" t="b">
@@ -24643,7 +24708,7 @@
       <c r="F333" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G333" s="32">
+      <c r="G333" s="31">
         <v>60</v>
       </c>
       <c r="H333" s="19" t="b">
@@ -24686,7 +24751,7 @@
       <c r="F334" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G334" s="32">
+      <c r="G334" s="31">
         <v>25</v>
       </c>
       <c r="H334" s="19" t="b">
@@ -24729,7 +24794,7 @@
       <c r="F335" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G335" s="32">
+      <c r="G335" s="31">
         <v>8</v>
       </c>
       <c r="H335" s="19" t="b">
@@ -24774,7 +24839,7 @@
       <c r="F336" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G336" s="32">
+      <c r="G336" s="31">
         <v>110</v>
       </c>
       <c r="H336" s="19" t="b">
@@ -24817,7 +24882,7 @@
       <c r="F337" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G337" s="32">
+      <c r="G337" s="31">
         <v>45</v>
       </c>
       <c r="H337" s="19" t="b">
@@ -24860,7 +24925,7 @@
       <c r="F338" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G338" s="32">
+      <c r="G338" s="31">
         <v>25</v>
       </c>
       <c r="H338" s="19" t="b">
@@ -24903,7 +24968,7 @@
       <c r="F339" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G339" s="32">
+      <c r="G339" s="31">
         <v>6</v>
       </c>
       <c r="H339" s="19" t="b">
@@ -24948,7 +25013,7 @@
       <c r="F340" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G340" s="32">
+      <c r="G340" s="31">
         <v>150</v>
       </c>
       <c r="H340" s="19" t="b">
@@ -24991,7 +25056,7 @@
       <c r="F341" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G341" s="32">
+      <c r="G341" s="31">
         <v>100</v>
       </c>
       <c r="H341" s="19" t="b">
@@ -25034,7 +25099,7 @@
       <c r="F342" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G342" s="32">
+      <c r="G342" s="31">
         <v>100</v>
       </c>
       <c r="H342" s="19" t="b">
@@ -25077,7 +25142,7 @@
       <c r="F343" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G343" s="32">
+      <c r="G343" s="31">
         <v>100</v>
       </c>
       <c r="H343" s="19" t="b">
@@ -25122,7 +25187,7 @@
       <c r="F344" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G344" s="32">
+      <c r="G344" s="31">
         <v>125</v>
       </c>
       <c r="H344" s="19" t="b">
@@ -25165,7 +25230,7 @@
       <c r="F345" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G345" s="32">
+      <c r="G345" s="31">
         <v>125</v>
       </c>
       <c r="H345" s="19" t="b">
@@ -25208,7 +25273,7 @@
       <c r="F346" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G346" s="32">
+      <c r="G346" s="31">
         <v>70</v>
       </c>
       <c r="H346" s="19" t="b">
@@ -25251,7 +25316,7 @@
       <c r="F347" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G347" s="32">
+      <c r="G347" s="31">
         <v>70</v>
       </c>
       <c r="H347" s="19" t="b">
@@ -25294,7 +25359,7 @@
       <c r="F348" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G348" s="32">
+      <c r="G348" s="31">
         <v>65</v>
       </c>
       <c r="H348" s="19" t="b">
@@ -25337,7 +25402,7 @@
       <c r="F349" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G349" s="32">
+      <c r="G349" s="31">
         <v>9</v>
       </c>
       <c r="H349" s="19" t="b">
@@ -25382,7 +25447,7 @@
       <c r="F350" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G350" s="32">
+      <c r="G350" s="31">
         <v>8</v>
       </c>
       <c r="H350" s="19" t="b">
@@ -25427,7 +25492,7 @@
       <c r="F351" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G351" s="32">
+      <c r="G351" s="31">
         <v>190</v>
       </c>
       <c r="H351" s="19" t="b">
@@ -25470,7 +25535,7 @@
       <c r="F352" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G352" s="32">
+      <c r="G352" s="31">
         <v>150</v>
       </c>
       <c r="H352" s="19" t="b">
@@ -25513,7 +25578,7 @@
       <c r="F353" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G353" s="32">
+      <c r="G353" s="31">
         <v>150</v>
       </c>
       <c r="H353" s="19" t="b">
@@ -25556,7 +25621,7 @@
       <c r="F354" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G354" s="32">
+      <c r="G354" s="31">
         <v>100</v>
       </c>
       <c r="H354" s="19" t="b">
@@ -25601,7 +25666,7 @@
       <c r="F355" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G355" s="32">
+      <c r="G355" s="31">
         <v>150</v>
       </c>
       <c r="H355" s="19" t="b">
@@ -25644,7 +25709,7 @@
       <c r="F356" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G356" s="32">
+      <c r="G356" s="31">
         <v>100</v>
       </c>
       <c r="H356" s="19" t="b">
@@ -25689,7 +25754,7 @@
       <c r="F357" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G357" s="32">
+      <c r="G357" s="31">
         <v>75</v>
       </c>
       <c r="H357" s="19" t="b">
@@ -25734,7 +25799,7 @@
       <c r="F358" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G358" s="32">
+      <c r="G358" s="31">
         <v>75</v>
       </c>
       <c r="H358" s="19" t="b">
@@ -25777,7 +25842,7 @@
       <c r="F359" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G359" s="32">
+      <c r="G359" s="31">
         <v>75</v>
       </c>
       <c r="H359" s="19" t="b">
@@ -25820,7 +25885,7 @@
       <c r="F360" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G360" s="32">
+      <c r="G360" s="31">
         <v>75</v>
       </c>
       <c r="H360" s="19" t="b">
@@ -25863,7 +25928,7 @@
       <c r="F361" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G361" s="32">
+      <c r="G361" s="31">
         <v>75</v>
       </c>
       <c r="H361" s="19" t="b">
@@ -25906,7 +25971,7 @@
       <c r="F362" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G362" s="32">
+      <c r="G362" s="31">
         <v>75</v>
       </c>
       <c r="H362" s="19" t="b">
@@ -25949,7 +26014,7 @@
       <c r="F363" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G363" s="32">
+      <c r="G363" s="31">
         <v>60</v>
       </c>
       <c r="H363" s="19" t="b">
@@ -25992,7 +26057,7 @@
       <c r="F364" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G364" s="32">
+      <c r="G364" s="31">
         <v>8</v>
       </c>
       <c r="H364" s="19" t="b">
@@ -26037,7 +26102,7 @@
       <c r="F365" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G365" s="32">
+      <c r="G365" s="31">
         <v>15</v>
       </c>
       <c r="H365" s="19" t="b">
@@ -26082,7 +26147,7 @@
       <c r="F366" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G366" s="32">
+      <c r="G366" s="31">
         <v>8</v>
       </c>
       <c r="H366" s="19" t="b">
@@ -26127,7 +26192,7 @@
       <c r="F367" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G367" s="32">
+      <c r="G367" s="31">
         <v>10</v>
       </c>
       <c r="H367" s="19" t="b">
@@ -26172,7 +26237,7 @@
       <c r="F368" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G368" s="32">
+      <c r="G368" s="31">
         <v>100</v>
       </c>
       <c r="H368" s="19" t="b">
@@ -26215,7 +26280,7 @@
       <c r="F369" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G369" s="32">
+      <c r="G369" s="31">
         <v>45</v>
       </c>
       <c r="H369" s="19" t="b">
@@ -26258,7 +26323,7 @@
       <c r="F370" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G370" s="32">
+      <c r="G370" s="31">
         <v>6</v>
       </c>
       <c r="H370" s="19" t="b">
@@ -26303,7 +26368,7 @@
       <c r="F371" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G371" s="32">
+      <c r="G371" s="31">
         <v>14</v>
       </c>
       <c r="H371" s="19" t="b">
@@ -26348,7 +26413,7 @@
       <c r="F372" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G372" s="32">
+      <c r="G372" s="31">
         <v>11</v>
       </c>
       <c r="H372" s="19" t="b">
@@ -26393,7 +26458,7 @@
       <c r="F373" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G373" s="32">
+      <c r="G373" s="31">
         <v>70</v>
       </c>
       <c r="H373" s="19" t="b">
@@ -26436,7 +26501,7 @@
       <c r="F374" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G374" s="32">
+      <c r="G374" s="31">
         <v>9</v>
       </c>
       <c r="H374" s="19" t="b">
@@ -26481,7 +26546,7 @@
       <c r="F375" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G375" s="32">
+      <c r="G375" s="31">
         <v>55</v>
       </c>
       <c r="H375" s="19" t="b">
@@ -26524,7 +26589,7 @@
       <c r="F376" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G376" s="32">
+      <c r="G376" s="31">
         <v>7</v>
       </c>
       <c r="H376" s="19" t="b">
@@ -26569,7 +26634,7 @@
       <c r="F377" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G377" s="32">
+      <c r="G377" s="31">
         <v>70</v>
       </c>
       <c r="H377" s="19" t="b">
@@ -26612,7 +26677,7 @@
       <c r="F378" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G378" s="32">
+      <c r="G378" s="31">
         <v>60</v>
       </c>
       <c r="H378" s="19" t="b">
@@ -26655,7 +26720,7 @@
       <c r="F379" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G379" s="32">
+      <c r="G379" s="31">
         <v>15</v>
       </c>
       <c r="H379" s="19" t="b">
@@ -26700,7 +26765,7 @@
       <c r="F380" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G380" s="32">
+      <c r="G380" s="31">
         <v>8</v>
       </c>
       <c r="H380" s="19" t="b">
@@ -26745,7 +26810,7 @@
       <c r="F381" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G381" s="32">
+      <c r="G381" s="31">
         <v>8</v>
       </c>
       <c r="H381" s="19" t="b">
@@ -26790,7 +26855,7 @@
       <c r="F382" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G382" s="32">
+      <c r="G382" s="31">
         <v>175</v>
       </c>
       <c r="H382" s="19" t="b">
@@ -26833,7 +26898,7 @@
       <c r="F383" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G383" s="32">
+      <c r="G383" s="31">
         <v>175</v>
       </c>
       <c r="H383" s="19" t="b">
@@ -26876,7 +26941,7 @@
       <c r="F384" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G384" s="32">
+      <c r="G384" s="31">
         <v>60</v>
       </c>
       <c r="H384" s="19" t="b">
@@ -26919,7 +26984,7 @@
       <c r="F385" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G385" s="32">
+      <c r="G385" s="31">
         <v>50</v>
       </c>
       <c r="H385" s="19" t="b">
@@ -26962,7 +27027,7 @@
       <c r="F386" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G386" s="32">
+      <c r="G386" s="31">
         <v>120</v>
       </c>
       <c r="H386" s="19" t="b">
@@ -27005,7 +27070,7 @@
       <c r="F387" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G387" s="32">
+      <c r="G387" s="31">
         <v>180</v>
       </c>
       <c r="H387" s="19" t="b">
@@ -27048,7 +27113,7 @@
       <c r="F388" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G388" s="32">
+      <c r="G388" s="31">
         <v>9</v>
       </c>
       <c r="H388" s="19" t="b">
@@ -27093,7 +27158,7 @@
       <c r="F389" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G389" s="32">
+      <c r="G389" s="31">
         <v>15</v>
       </c>
       <c r="H389" s="19" t="b">
@@ -27138,7 +27203,7 @@
       <c r="F390" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G390" s="32">
+      <c r="G390" s="31">
         <v>6</v>
       </c>
       <c r="H390" s="19" t="b">
@@ -27183,7 +27248,7 @@
       <c r="F391" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G391" s="32">
+      <c r="G391" s="31">
         <v>120</v>
       </c>
       <c r="H391" s="19" t="b">
@@ -27228,7 +27293,7 @@
       <c r="F392" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G392" s="32">
+      <c r="G392" s="31">
         <v>60</v>
       </c>
       <c r="H392" s="19" t="b">
@@ -27273,7 +27338,7 @@
       <c r="F393" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G393" s="32">
+      <c r="G393" s="31">
         <v>25</v>
       </c>
       <c r="H393" s="19" t="b">
@@ -27318,7 +27383,7 @@
       <c r="F394" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G394" s="32">
+      <c r="G394" s="31">
         <v>175</v>
       </c>
       <c r="H394" s="19" t="b">
@@ -27361,7 +27426,7 @@
       <c r="F395" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G395" s="32">
+      <c r="G395" s="31">
         <v>80</v>
       </c>
       <c r="H395" s="19" t="b">
@@ -27404,7 +27469,7 @@
       <c r="F396" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G396" s="32">
+      <c r="G396" s="31">
         <v>60</v>
       </c>
       <c r="H396" s="19" t="b">
@@ -27447,7 +27512,7 @@
       <c r="F397" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G397" s="32">
+      <c r="G397" s="31">
         <v>45</v>
       </c>
       <c r="H397" s="19" t="b">
@@ -27490,7 +27555,7 @@
       <c r="F398" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G398" s="32">
+      <c r="G398" s="31">
         <v>9</v>
       </c>
       <c r="H398" s="19" t="b">
@@ -27535,7 +27600,7 @@
       <c r="F399" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G399" s="32">
+      <c r="G399" s="31">
         <v>8</v>
       </c>
       <c r="H399" s="19" t="b">
@@ -27580,7 +27645,7 @@
       <c r="F400" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G400" s="32">
+      <c r="G400" s="31">
         <v>15</v>
       </c>
       <c r="H400" s="19" t="b">
@@ -27625,7 +27690,7 @@
       <c r="F401" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G401" s="32">
+      <c r="G401" s="31">
         <v>8</v>
       </c>
       <c r="H401" s="19" t="b">
@@ -27670,7 +27735,7 @@
       <c r="F402" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G402" s="32">
+      <c r="G402" s="31">
         <v>20</v>
       </c>
       <c r="H402" s="19" t="b">
@@ -27715,7 +27780,7 @@
       <c r="F403" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G403" s="32">
+      <c r="G403" s="31">
         <v>20</v>
       </c>
       <c r="H403" s="19" t="b">
@@ -27760,7 +27825,7 @@
       <c r="F404" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G404" s="32">
+      <c r="G404" s="31">
         <v>10</v>
       </c>
       <c r="H404" s="19" t="b">
@@ -27803,7 +27868,7 @@
       <c r="F405" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G405" s="32">
+      <c r="G405" s="31">
         <v>175</v>
       </c>
       <c r="H405" s="19" t="b">
@@ -27846,7 +27911,7 @@
       <c r="F406" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G406" s="32">
+      <c r="G406" s="31">
         <v>175</v>
       </c>
       <c r="H406" s="19" t="b">
@@ -27889,7 +27954,7 @@
       <c r="F407" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G407" s="32">
+      <c r="G407" s="31">
         <v>55</v>
       </c>
       <c r="H407" s="19" t="b">
@@ -27932,7 +27997,7 @@
       <c r="F408" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G408" s="32">
+      <c r="G408" s="31">
         <v>50</v>
       </c>
       <c r="H408" s="19" t="b">
@@ -27975,7 +28040,7 @@
       <c r="F409" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G409" s="32">
+      <c r="G409" s="31">
         <v>55</v>
       </c>
       <c r="H409" s="19" t="b">
@@ -28018,7 +28083,7 @@
       <c r="F410" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G410" s="32">
+      <c r="G410" s="31">
         <v>45</v>
       </c>
       <c r="H410" s="19" t="b">
@@ -28061,7 +28126,7 @@
       <c r="F411" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G411" s="32">
+      <c r="G411" s="31">
         <v>8</v>
       </c>
       <c r="H411" s="19" t="b">
@@ -28106,7 +28171,7 @@
       <c r="F412" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G412" s="32">
+      <c r="G412" s="31">
         <v>15</v>
       </c>
       <c r="H412" s="19" t="b">
@@ -28151,7 +28216,7 @@
       <c r="F413" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G413" s="32">
+      <c r="G413" s="31">
         <v>8</v>
       </c>
       <c r="H413" s="19" t="b">
@@ -28196,7 +28261,7 @@
       <c r="F414" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G414" s="32">
+      <c r="G414" s="31">
         <v>200</v>
       </c>
       <c r="H414" s="19" t="b">
@@ -28239,7 +28304,7 @@
       <c r="F415" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G415" s="32">
+      <c r="G415" s="31">
         <v>80</v>
       </c>
       <c r="H415" s="19" t="b">
@@ -28282,7 +28347,7 @@
       <c r="F416" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G416" s="32">
+      <c r="G416" s="31">
         <v>80</v>
       </c>
       <c r="H416" s="19" t="b">
@@ -28325,7 +28390,7 @@
       <c r="F417" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G417" s="32">
+      <c r="G417" s="31">
         <v>80</v>
       </c>
       <c r="H417" s="19" t="b">
@@ -28368,7 +28433,7 @@
       <c r="F418" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G418" s="32">
+      <c r="G418" s="31">
         <v>80</v>
       </c>
       <c r="H418" s="19" t="b">
@@ -28411,7 +28476,7 @@
       <c r="F419" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G419" s="32">
+      <c r="G419" s="31">
         <v>80</v>
       </c>
       <c r="H419" s="19" t="b">
@@ -28454,7 +28519,7 @@
       <c r="F420" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G420" s="32">
+      <c r="G420" s="31">
         <v>80</v>
       </c>
       <c r="H420" s="19" t="b">
@@ -28497,7 +28562,7 @@
       <c r="F421" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G421" s="32">
+      <c r="G421" s="31">
         <v>80</v>
       </c>
       <c r="H421" s="19" t="b">
@@ -28540,7 +28605,7 @@
       <c r="F422" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G422" s="32">
+      <c r="G422" s="31">
         <v>80</v>
       </c>
       <c r="H422" s="19" t="b">
@@ -28583,7 +28648,7 @@
       <c r="F423" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G423" s="32">
+      <c r="G423" s="31">
         <v>80</v>
       </c>
       <c r="H423" s="19" t="b">
@@ -28626,7 +28691,7 @@
       <c r="F424" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G424" s="32">
+      <c r="G424" s="31">
         <v>80</v>
       </c>
       <c r="H424" s="19" t="b">
@@ -28669,7 +28734,7 @@
       <c r="F425" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G425" s="32">
+      <c r="G425" s="31">
         <v>45</v>
       </c>
       <c r="H425" s="19" t="b">
@@ -28712,7 +28777,7 @@
       <c r="F426" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G426" s="32">
+      <c r="G426" s="31">
         <v>8</v>
       </c>
       <c r="H426" s="19" t="b">
@@ -28757,7 +28822,7 @@
       <c r="F427" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G427" s="32">
+      <c r="G427" s="31">
         <v>15</v>
       </c>
       <c r="H427" s="19" t="b">
@@ -28802,7 +28867,7 @@
       <c r="F428" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G428" s="32">
+      <c r="G428" s="31">
         <v>8</v>
       </c>
       <c r="H428" s="19" t="b">
@@ -28847,7 +28912,7 @@
       <c r="F429" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G429" s="32">
+      <c r="G429" s="31">
         <v>20</v>
       </c>
       <c r="H429" s="19" t="b">
@@ -28892,7 +28957,7 @@
       <c r="F430" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G430" s="32">
+      <c r="G430" s="31">
         <v>20</v>
       </c>
       <c r="H430" s="19" t="b">
@@ -28937,7 +29002,7 @@
       <c r="F431" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G431" s="32">
+      <c r="G431" s="31">
         <v>150</v>
       </c>
       <c r="H431" s="19" t="b">
@@ -28980,7 +29045,7 @@
       <c r="F432" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G432" s="32">
+      <c r="G432" s="31">
         <v>50</v>
       </c>
       <c r="H432" s="19" t="b">
@@ -29023,7 +29088,7 @@
       <c r="F433" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G433" s="32">
+      <c r="G433" s="31">
         <v>50</v>
       </c>
       <c r="H433" s="19" t="b">
@@ -29066,7 +29131,7 @@
       <c r="F434" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G434" s="32">
+      <c r="G434" s="31">
         <v>40</v>
       </c>
       <c r="H434" s="19" t="b">
@@ -29109,7 +29174,7 @@
       <c r="F435" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G435" s="32">
+      <c r="G435" s="31">
         <v>40</v>
       </c>
       <c r="H435" s="19" t="b">
@@ -29152,7 +29217,7 @@
       <c r="F436" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G436" s="32">
+      <c r="G436" s="31">
         <v>5</v>
       </c>
       <c r="H436" s="19" t="b">
@@ -29195,7 +29260,7 @@
       <c r="F437" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G437" s="32">
+      <c r="G437" s="31">
         <v>150</v>
       </c>
       <c r="H437" s="19" t="b">
@@ -29238,7 +29303,7 @@
       <c r="F438" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G438" s="32">
+      <c r="G438" s="31">
         <v>130</v>
       </c>
       <c r="H438" s="19" t="b">
@@ -29281,7 +29346,7 @@
       <c r="F439" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G439" s="32">
+      <c r="G439" s="31">
         <v>120</v>
       </c>
       <c r="H439" s="19" t="b">
@@ -29324,7 +29389,7 @@
       <c r="F440" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G440" s="32">
+      <c r="G440" s="31">
         <v>700</v>
       </c>
       <c r="H440" s="19" t="b">
@@ -29367,7 +29432,7 @@
       <c r="F441" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G441" s="32">
+      <c r="G441" s="31">
         <v>100</v>
       </c>
       <c r="H441" s="19" t="b">
@@ -29410,7 +29475,7 @@
       <c r="F442" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G442" s="32">
+      <c r="G442" s="31">
         <v>50</v>
       </c>
       <c r="H442" s="19" t="b">
@@ -29453,7 +29518,7 @@
       <c r="F443" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G443" s="32">
+      <c r="G443" s="31">
         <v>50</v>
       </c>
       <c r="H443" s="19" t="b">
@@ -29496,7 +29561,7 @@
       <c r="F444" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G444" s="32">
+      <c r="G444" s="31">
         <v>40</v>
       </c>
       <c r="H444" s="19" t="b">
@@ -29539,7 +29604,7 @@
       <c r="F445" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G445" s="32">
+      <c r="G445" s="31">
         <v>95</v>
       </c>
       <c r="H445" s="19" t="b">
@@ -29582,7 +29647,7 @@
       <c r="F446" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G446" s="32">
+      <c r="G446" s="31">
         <v>45</v>
       </c>
       <c r="H446" s="19" t="b">
@@ -29625,7 +29690,7 @@
       <c r="F447" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G447" s="32">
+      <c r="G447" s="31">
         <v>45</v>
       </c>
       <c r="H447" s="19" t="b">
@@ -29668,7 +29733,7 @@
       <c r="F448" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G448" s="32">
+      <c r="G448" s="31">
         <v>45</v>
       </c>
       <c r="H448" s="19" t="b">
@@ -29711,7 +29776,7 @@
       <c r="F449" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G449" s="32">
+      <c r="G449" s="31">
         <v>40</v>
       </c>
       <c r="H449" s="19" t="b">
@@ -29754,7 +29819,7 @@
       <c r="F450" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G450" s="32">
+      <c r="G450" s="31">
         <v>55</v>
       </c>
       <c r="H450" s="19" t="b">
@@ -29797,7 +29862,7 @@
       <c r="F451" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G451" s="32">
+      <c r="G451" s="31">
         <v>55</v>
       </c>
       <c r="H451" s="19" t="b">
@@ -29840,7 +29905,7 @@
       <c r="F452" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G452" s="32">
+      <c r="G452" s="31">
         <v>50</v>
       </c>
       <c r="H452" s="19" t="b">
@@ -29883,7 +29948,7 @@
       <c r="F453" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G453" s="32">
+      <c r="G453" s="31">
         <v>85</v>
       </c>
       <c r="H453" s="19" t="b">
@@ -29926,7 +29991,7 @@
       <c r="F454" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G454" s="32">
+      <c r="G454" s="31">
         <v>55</v>
       </c>
       <c r="H454" s="19" t="b">
@@ -29969,7 +30034,7 @@
       <c r="F455" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G455" s="32">
+      <c r="G455" s="31">
         <v>170</v>
       </c>
       <c r="H455" s="19" t="b">
@@ -30012,7 +30077,7 @@
       <c r="F456" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G456" s="32">
+      <c r="G456" s="31">
         <v>150</v>
       </c>
       <c r="H456" s="19" t="b">
@@ -30055,7 +30120,7 @@
       <c r="F457" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G457" s="32">
+      <c r="G457" s="31">
         <v>145</v>
       </c>
       <c r="H457" s="19" t="b">
@@ -30098,7 +30163,7 @@
       <c r="F458" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G458" s="32">
+      <c r="G458" s="31">
         <v>100</v>
       </c>
       <c r="H458" s="19" t="b">
@@ -30143,7 +30208,7 @@
       <c r="F459" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G459" s="32">
+      <c r="G459" s="31">
         <v>130</v>
       </c>
       <c r="H459" s="19" t="b">
@@ -30186,7 +30251,7 @@
       <c r="F460" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G460" s="32">
+      <c r="G460" s="31">
         <v>130</v>
       </c>
       <c r="H460" s="19" t="b">
@@ -30229,7 +30294,7 @@
       <c r="F461" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G461" s="32">
+      <c r="G461" s="31">
         <v>110</v>
       </c>
       <c r="H461" s="19" t="b">
@@ -30272,7 +30337,7 @@
       <c r="F462" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G462" s="32">
+      <c r="G462" s="31">
         <v>60</v>
       </c>
       <c r="H462" s="19" t="b">
@@ -30315,7 +30380,7 @@
       <c r="F463" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G463" s="32">
+      <c r="G463" s="31">
         <v>90</v>
       </c>
       <c r="H463" s="19" t="b">
@@ -30358,7 +30423,7 @@
       <c r="F464" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G464" s="32">
+      <c r="G464" s="31">
         <v>85</v>
       </c>
       <c r="H464" s="19" t="b">
@@ -30401,7 +30466,7 @@
       <c r="F465" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G465" s="32">
+      <c r="G465" s="31">
         <v>75</v>
       </c>
       <c r="H465" s="19" t="b">
@@ -30444,7 +30509,7 @@
       <c r="F466" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G466" s="32">
+      <c r="G466" s="31">
         <v>80</v>
       </c>
       <c r="H466" s="19" t="b">
@@ -30487,7 +30552,7 @@
       <c r="F467" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G467" s="32">
+      <c r="G467" s="31">
         <v>9</v>
       </c>
       <c r="H467" s="19" t="b">
@@ -30532,7 +30597,7 @@
       <c r="F468" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G468" s="32">
+      <c r="G468" s="31">
         <v>11</v>
       </c>
       <c r="H468" s="19" t="b">
@@ -30577,7 +30642,7 @@
       <c r="F469" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G469" s="32">
+      <c r="G469" s="31">
         <v>160</v>
       </c>
       <c r="H469" s="19" t="b">
@@ -30620,7 +30685,7 @@
       <c r="F470" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G470" s="32">
+      <c r="G470" s="31">
         <v>85</v>
       </c>
       <c r="H470" s="19" t="b">
@@ -30663,7 +30728,7 @@
       <c r="F471" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G471" s="32">
+      <c r="G471" s="31">
         <v>80</v>
       </c>
       <c r="H471" s="19" t="b">
@@ -30706,7 +30771,7 @@
       <c r="F472" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G472" s="32">
+      <c r="G472" s="31">
         <v>10</v>
       </c>
       <c r="H472" s="19" t="b">
@@ -30751,7 +30816,7 @@
       <c r="F473" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G473" s="32">
+      <c r="G473" s="31">
         <v>20</v>
       </c>
       <c r="H473" s="19" t="b">
@@ -30796,7 +30861,7 @@
       <c r="F474" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G474" s="32">
+      <c r="G474" s="31">
         <v>80</v>
       </c>
       <c r="H474" s="19" t="b">
@@ -30841,7 +30906,7 @@
       <c r="F475" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G475" s="32">
+      <c r="G475" s="31">
         <v>130</v>
       </c>
       <c r="H475" s="19" t="b">
@@ -30884,7 +30949,7 @@
       <c r="F476" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G476" s="32">
+      <c r="G476" s="31">
         <v>130</v>
       </c>
       <c r="H476" s="19" t="b">
@@ -30927,7 +30992,7 @@
       <c r="F477" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G477" s="32">
+      <c r="G477" s="31">
         <v>70</v>
       </c>
       <c r="H477" s="19" t="b">
@@ -30970,7 +31035,7 @@
       <c r="F478" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G478" s="32">
+      <c r="G478" s="31">
         <v>70</v>
       </c>
       <c r="H478" s="19" t="b">
@@ -31013,7 +31078,7 @@
       <c r="F479" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G479" s="32">
+      <c r="G479" s="31">
         <v>60</v>
       </c>
       <c r="H479" s="19" t="b">
@@ -31056,7 +31121,7 @@
       <c r="F480" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G480" s="32">
+      <c r="G480" s="31">
         <v>110</v>
       </c>
       <c r="H480" s="19" t="b">
@@ -31099,7 +31164,7 @@
       <c r="F481" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G481" s="32">
+      <c r="G481" s="31">
         <v>160</v>
       </c>
       <c r="H481" s="19" t="b">
@@ -31142,7 +31207,7 @@
       <c r="F482" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G482" s="32">
+      <c r="G482" s="31">
         <v>65</v>
       </c>
       <c r="H482" s="19" t="b">
@@ -31185,7 +31250,7 @@
       <c r="F483" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G483" s="32">
+      <c r="G483" s="31">
         <v>65</v>
       </c>
       <c r="H483" s="19" t="b">
@@ -31228,7 +31293,7 @@
       <c r="F484" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G484" s="32">
+      <c r="G484" s="31">
         <v>60</v>
       </c>
       <c r="H484" s="19" t="b">
@@ -31271,7 +31336,7 @@
       <c r="F485" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G485" s="32">
+      <c r="G485" s="31">
         <v>50</v>
       </c>
       <c r="H485" s="19" t="b">
@@ -31314,7 +31379,7 @@
       <c r="F486" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G486" s="32">
+      <c r="G486" s="31">
         <v>75</v>
       </c>
       <c r="H486" s="19" t="b">
@@ -31357,7 +31422,7 @@
       <c r="F487" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G487" s="32">
+      <c r="G487" s="31">
         <v>75</v>
       </c>
       <c r="H487" s="19" t="b">
@@ -31400,7 +31465,7 @@
       <c r="F488" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G488" s="32">
+      <c r="G488" s="31">
         <v>60</v>
       </c>
       <c r="H488" s="19" t="b">
@@ -31443,7 +31508,7 @@
       <c r="F489" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G489" s="32">
+      <c r="G489" s="31">
         <v>100</v>
       </c>
       <c r="H489" s="19" t="b">
@@ -31486,7 +31551,7 @@
       <c r="F490" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G490" s="32">
+      <c r="G490" s="31">
         <v>80</v>
       </c>
       <c r="H490" s="19" t="b">
@@ -31529,7 +31594,7 @@
       <c r="F491" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G491" s="32">
+      <c r="G491" s="31">
         <v>10</v>
       </c>
       <c r="H491" s="19" t="b">
@@ -31574,7 +31639,7 @@
       <c r="F492" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G492" s="32">
+      <c r="G492" s="31">
         <v>70</v>
       </c>
       <c r="H492" s="19" t="b">
@@ -31617,7 +31682,7 @@
       <c r="F493" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G493" s="32">
+      <c r="G493" s="31">
         <v>30</v>
       </c>
       <c r="H493" s="19" t="b">
@@ -31660,7 +31725,7 @@
       <c r="F494" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G494" s="32">
+      <c r="G494" s="31">
         <v>55</v>
       </c>
       <c r="H494" s="19" t="b">
@@ -31703,7 +31768,7 @@
       <c r="F495" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G495" s="32">
+      <c r="G495" s="31">
         <v>130</v>
       </c>
       <c r="H495" s="19" t="b">
@@ -31746,7 +31811,7 @@
       <c r="F496" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G496" s="32">
+      <c r="G496" s="31">
         <v>45</v>
       </c>
       <c r="H496" s="19" t="b">
@@ -31789,7 +31854,7 @@
       <c r="F497" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G497" s="32">
+      <c r="G497" s="31">
         <v>60</v>
       </c>
       <c r="H497" s="19" t="b">
@@ -31832,7 +31897,7 @@
       <c r="F498" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G498" s="32">
+      <c r="G498" s="31">
         <v>7</v>
       </c>
       <c r="H498" s="19" t="b">
@@ -31877,7 +31942,7 @@
       <c r="F499" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G499" s="32">
+      <c r="G499" s="31">
         <v>50</v>
       </c>
       <c r="H499" s="19" t="b">
@@ -31920,7 +31985,7 @@
       <c r="F500" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G500" s="32">
+      <c r="G500" s="31">
         <v>50</v>
       </c>
       <c r="H500" s="19" t="b">
@@ -31963,7 +32028,7 @@
       <c r="F501" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G501" s="32">
+      <c r="G501" s="31">
         <v>45</v>
       </c>
       <c r="H501" s="19" t="b">
@@ -32006,7 +32071,7 @@
       <c r="F502" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G502" s="32">
+      <c r="G502" s="31">
         <v>50</v>
       </c>
       <c r="H502" s="19" t="b">
@@ -32049,7 +32114,7 @@
       <c r="F503" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G503" s="32">
+      <c r="G503" s="31">
         <v>90</v>
       </c>
       <c r="H503" s="19" t="b">
@@ -32092,7 +32157,7 @@
       <c r="F504" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G504" s="32">
+      <c r="G504" s="31">
         <v>130</v>
       </c>
       <c r="H504" s="19" t="b">
@@ -32135,7 +32200,7 @@
       <c r="F505" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G505" s="32">
+      <c r="G505" s="31">
         <v>50</v>
       </c>
       <c r="H505" s="19" t="b">
@@ -32178,7 +32243,7 @@
       <c r="F506" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G506" s="32">
+      <c r="G506" s="31">
         <v>35</v>
       </c>
       <c r="H506" s="19" t="b">
@@ -32221,7 +32286,7 @@
       <c r="F507" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G507" s="32">
+      <c r="G507" s="31">
         <v>50</v>
       </c>
       <c r="H507" s="19" t="b">
@@ -32264,7 +32329,7 @@
       <c r="F508" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G508" s="32">
+      <c r="G508" s="31">
         <v>60</v>
       </c>
       <c r="H508" s="19" t="b">
@@ -32307,7 +32372,7 @@
       <c r="F509" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G509" s="32">
+      <c r="G509" s="31">
         <v>30</v>
       </c>
       <c r="H509" s="19" t="b">
@@ -32350,7 +32415,7 @@
       <c r="F510" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G510" s="32">
+      <c r="G510" s="31">
         <v>75</v>
       </c>
       <c r="H510" s="19" t="b">
@@ -32393,7 +32458,7 @@
       <c r="F511" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G511" s="32">
+      <c r="G511" s="31">
         <v>5</v>
       </c>
       <c r="H511" s="19" t="b">
@@ -32438,7 +32503,7 @@
       <c r="F512" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G512" s="32">
+      <c r="G512" s="31">
         <v>170</v>
       </c>
       <c r="H512" s="19" t="b">
@@ -32481,7 +32546,7 @@
       <c r="F513" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G513" s="32">
+      <c r="G513" s="31">
         <v>80</v>
       </c>
       <c r="H513" s="19" t="b">
@@ -32524,7 +32589,7 @@
       <c r="F514" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G514" s="32">
+      <c r="G514" s="31">
         <v>55</v>
       </c>
       <c r="H514" s="19" t="b">
@@ -32567,7 +32632,7 @@
       <c r="F515" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G515" s="32">
+      <c r="G515" s="31">
         <v>7</v>
       </c>
       <c r="H515" s="19" t="b">
@@ -32612,7 +32677,7 @@
       <c r="F516" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G516" s="32">
+      <c r="G516" s="31">
         <v>70</v>
       </c>
       <c r="H516" s="19" t="b">
@@ -32655,7 +32720,7 @@
       <c r="F517" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="32">
+      <c r="G517" s="31">
         <v>130</v>
       </c>
       <c r="H517" s="19" t="b">
@@ -32698,7 +32763,7 @@
       <c r="F518" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G518" s="32">
+      <c r="G518" s="31">
         <v>130</v>
       </c>
       <c r="H518" s="19" t="b">
@@ -32741,7 +32806,7 @@
       <c r="F519" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G519" s="32">
+      <c r="G519" s="31">
         <v>110</v>
       </c>
       <c r="H519" s="19" t="b">
@@ -32784,7 +32849,7 @@
       <c r="F520" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G520" s="32">
+      <c r="G520" s="31">
         <v>60</v>
       </c>
       <c r="H520" s="19" t="b">
@@ -32827,7 +32892,7 @@
       <c r="F521" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G521" s="32">
+      <c r="G521" s="31">
         <v>90</v>
       </c>
       <c r="H521" s="19" t="b">
@@ -32870,7 +32935,7 @@
       <c r="F522" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G522" s="32">
+      <c r="G522" s="31">
         <v>75</v>
       </c>
       <c r="H522" s="19" t="b">
@@ -32913,7 +32978,7 @@
       <c r="F523" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G523" s="32">
+      <c r="G523" s="31">
         <v>80</v>
       </c>
       <c r="H523" s="19" t="b">
@@ -32956,7 +33021,7 @@
       <c r="F524" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G524" s="32">
+      <c r="G524" s="31">
         <v>9</v>
       </c>
       <c r="H524" s="19" t="b">
@@ -33001,7 +33066,7 @@
       <c r="F525" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G525" s="32">
+      <c r="G525" s="31">
         <v>11</v>
       </c>
       <c r="H525" s="19" t="b">
@@ -33046,7 +33111,7 @@
       <c r="F526" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G526" s="32">
+      <c r="G526" s="31">
         <v>80</v>
       </c>
       <c r="H526" s="19" t="b">
@@ -33089,7 +33154,7 @@
       <c r="F527" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G527" s="32">
+      <c r="G527" s="31">
         <v>55</v>
       </c>
       <c r="H527" s="19" t="b">
@@ -33132,7 +33197,7 @@
       <c r="F528" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G528" s="32">
+      <c r="G528" s="31">
         <v>7</v>
       </c>
       <c r="H528" s="19" t="b">
@@ -33177,7 +33242,7 @@
       <c r="F529" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G529" s="32">
+      <c r="G529" s="31">
         <v>130</v>
       </c>
       <c r="H529" s="19" t="b">
@@ -33220,7 +33285,7 @@
       <c r="F530" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G530" s="32">
+      <c r="G530" s="31">
         <v>105</v>
       </c>
       <c r="H530" s="19" t="b">
@@ -33263,7 +33328,7 @@
       <c r="F531" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G531" s="32">
+      <c r="G531" s="31">
         <v>90</v>
       </c>
       <c r="H531" s="19" t="b">
@@ -33306,7 +33371,7 @@
       <c r="F532" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G532" s="32">
+      <c r="G532" s="31">
         <v>75</v>
       </c>
       <c r="H532" s="19" t="b">
@@ -33349,7 +33414,7 @@
       <c r="F533" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G533" s="32">
+      <c r="G533" s="31">
         <v>80</v>
       </c>
       <c r="H533" s="19" t="b">
@@ -33392,7 +33457,7 @@
       <c r="F534" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G534" s="32">
+      <c r="G534" s="31">
         <v>75</v>
       </c>
       <c r="H534" s="19" t="b">
@@ -33435,7 +33500,7 @@
       <c r="F535" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G535" s="32">
+      <c r="G535" s="31">
         <v>9</v>
       </c>
       <c r="H535" s="19" t="b">
@@ -33480,7 +33545,7 @@
       <c r="F536" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G536" s="32">
+      <c r="G536" s="31">
         <v>16</v>
       </c>
       <c r="H536" s="19" t="b">
@@ -33525,7 +33590,7 @@
       <c r="F537" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G537" s="32">
+      <c r="G537" s="31">
         <v>12</v>
       </c>
       <c r="H537" s="19" t="b">
@@ -33570,7 +33635,7 @@
       <c r="F538" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G538" s="32">
+      <c r="G538" s="31">
         <v>14</v>
       </c>
       <c r="H538" s="19" t="b">
@@ -33615,7 +33680,7 @@
       <c r="F539" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G539" s="32">
+      <c r="G539" s="31">
         <v>105</v>
       </c>
       <c r="H539" s="19" t="b">
@@ -33658,7 +33723,7 @@
       <c r="F540" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G540" s="32">
+      <c r="G540" s="31">
         <v>90</v>
       </c>
       <c r="H540" s="19" t="b">
@@ -33701,7 +33766,7 @@
       <c r="F541" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G541" s="32">
+      <c r="G541" s="31">
         <v>75</v>
       </c>
       <c r="H541" s="19" t="b">
@@ -33744,7 +33809,7 @@
       <c r="F542" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G542" s="32">
+      <c r="G542" s="31">
         <v>14</v>
       </c>
       <c r="H542" s="19" t="b">
@@ -33789,7 +33854,7 @@
       <c r="F543" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G543" s="32">
+      <c r="G543" s="31">
         <v>100</v>
       </c>
       <c r="H543" s="19" t="b">
@@ -33832,7 +33897,7 @@
       <c r="F544" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G544" s="32">
+      <c r="G544" s="31">
         <v>50</v>
       </c>
       <c r="H544" s="19" t="b">
@@ -33875,7 +33940,7 @@
       <c r="F545" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G545" s="32">
+      <c r="G545" s="31">
         <v>50</v>
       </c>
       <c r="H545" s="19" t="b">
@@ -33918,7 +33983,7 @@
       <c r="F546" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G546" s="32">
+      <c r="G546" s="31">
         <v>40</v>
       </c>
       <c r="H546" s="19" t="b">
@@ -33961,7 +34026,7 @@
       <c r="F547" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G547" s="32">
+      <c r="G547" s="31">
         <v>95</v>
       </c>
       <c r="H547" s="19" t="b">
@@ -34004,7 +34069,7 @@
       <c r="F548" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G548" s="32">
+      <c r="G548" s="31">
         <v>45</v>
       </c>
       <c r="H548" s="19" t="b">
@@ -34047,7 +34112,7 @@
       <c r="F549" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G549" s="32">
+      <c r="G549" s="31">
         <v>45</v>
       </c>
       <c r="H549" s="19" t="b">
@@ -34090,7 +34155,7 @@
       <c r="F550" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G550" s="32">
+      <c r="G550" s="31">
         <v>45</v>
       </c>
       <c r="H550" s="19" t="b">
@@ -34133,7 +34198,7 @@
       <c r="F551" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G551" s="32">
+      <c r="G551" s="31">
         <v>40</v>
       </c>
       <c r="H551" s="19" t="b">
@@ -34176,7 +34241,7 @@
       <c r="F552" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G552" s="32">
+      <c r="G552" s="31">
         <v>55</v>
       </c>
       <c r="H552" s="19" t="b">
@@ -34219,7 +34284,7 @@
       <c r="F553" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G553" s="32">
+      <c r="G553" s="31">
         <v>55</v>
       </c>
       <c r="H553" s="19" t="b">
@@ -34262,7 +34327,7 @@
       <c r="F554" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G554" s="32">
+      <c r="G554" s="31">
         <v>50</v>
       </c>
       <c r="H554" s="19" t="b">
@@ -34305,7 +34370,7 @@
       <c r="F555" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G555" s="32">
+      <c r="G555" s="31">
         <v>85</v>
       </c>
       <c r="H555" s="19" t="b">
@@ -34348,7 +34413,7 @@
       <c r="F556" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G556" s="32">
+      <c r="G556" s="31">
         <v>55</v>
       </c>
       <c r="H556" s="19" t="b">
@@ -34391,7 +34456,7 @@
       <c r="F557" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G557" s="32">
+      <c r="G557" s="31">
         <v>130</v>
       </c>
       <c r="H557" s="19" t="b">
@@ -34434,7 +34499,7 @@
       <c r="F558" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G558" s="32">
+      <c r="G558" s="31">
         <v>160</v>
       </c>
       <c r="H558" s="19" t="b">
@@ -34477,7 +34542,7 @@
       <c r="F559" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G559" s="32">
+      <c r="G559" s="31">
         <v>170</v>
       </c>
       <c r="H559" s="19" t="b">
@@ -34520,7 +34585,7 @@
       <c r="F560" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G560" s="32">
+      <c r="G560" s="31">
         <v>70</v>
       </c>
       <c r="H560" s="19" t="b">
@@ -34563,7 +34628,7 @@
       <c r="F561" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G561" s="32">
+      <c r="G561" s="31">
         <v>70</v>
       </c>
       <c r="H561" s="19" t="b">
@@ -34606,7 +34671,7 @@
       <c r="F562" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G562" s="32">
+      <c r="G562" s="31">
         <v>60</v>
       </c>
       <c r="H562" s="19" t="b">
@@ -34649,7 +34714,7 @@
       <c r="F563" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G563" s="32">
+      <c r="G563" s="31">
         <v>110</v>
       </c>
       <c r="H563" s="19" t="b">
@@ -34692,7 +34757,7 @@
       <c r="F564" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G564" s="32">
+      <c r="G564" s="31">
         <v>65</v>
       </c>
       <c r="H564" s="19" t="b">
@@ -34735,7 +34800,7 @@
       <c r="F565" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G565" s="32">
+      <c r="G565" s="31">
         <v>65</v>
       </c>
       <c r="H565" s="19" t="b">
@@ -34778,7 +34843,7 @@
       <c r="F566" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G566" s="32">
+      <c r="G566" s="31">
         <v>60</v>
       </c>
       <c r="H566" s="19" t="b">
@@ -34821,7 +34886,7 @@
       <c r="F567" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G567" s="32">
+      <c r="G567" s="31">
         <v>50</v>
       </c>
       <c r="H567" s="19" t="b">
@@ -34864,7 +34929,7 @@
       <c r="F568" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G568" s="32">
+      <c r="G568" s="31">
         <v>75</v>
       </c>
       <c r="H568" s="19" t="b">
@@ -34907,7 +34972,7 @@
       <c r="F569" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G569" s="32">
+      <c r="G569" s="31">
         <v>75</v>
       </c>
       <c r="H569" s="19" t="b">
@@ -34950,7 +35015,7 @@
       <c r="F570" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G570" s="32">
+      <c r="G570" s="31">
         <v>60</v>
       </c>
       <c r="H570" s="19" t="b">
@@ -34993,7 +35058,7 @@
       <c r="F571" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G571" s="32">
+      <c r="G571" s="31">
         <v>100</v>
       </c>
       <c r="H571" s="19" t="b">
@@ -35036,7 +35101,7 @@
       <c r="F572" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G572" s="32">
+      <c r="G572" s="31">
         <v>80</v>
       </c>
       <c r="H572" s="19" t="b">
@@ -35079,7 +35144,7 @@
       <c r="F573" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G573" s="32">
+      <c r="G573" s="31">
         <v>10</v>
       </c>
       <c r="H573" s="19" t="b">
@@ -35124,7 +35189,7 @@
       <c r="F574" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G574" s="32">
+      <c r="G574" s="31">
         <v>20</v>
       </c>
       <c r="H574" s="19" t="b">
@@ -35169,7 +35234,7 @@
       <c r="F575" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G575" s="32">
+      <c r="G575" s="31">
         <v>130</v>
       </c>
       <c r="H575" s="19" t="b">
@@ -35212,7 +35277,7 @@
       <c r="F576" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G576" s="32">
+      <c r="G576" s="31">
         <v>105</v>
       </c>
       <c r="H576" s="19" t="b">
@@ -35255,7 +35320,7 @@
       <c r="F577" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G577" s="32">
+      <c r="G577" s="31">
         <v>90</v>
       </c>
       <c r="H577" s="19" t="b">
@@ -35298,7 +35363,7 @@
       <c r="F578" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G578" s="32">
+      <c r="G578" s="31">
         <v>75</v>
       </c>
       <c r="H578" s="19" t="b">
@@ -35341,7 +35406,7 @@
       <c r="F579" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G579" s="32">
+      <c r="G579" s="31">
         <v>9</v>
       </c>
       <c r="H579" s="19" t="b">
@@ -35386,7 +35451,7 @@
       <c r="F580" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G580" s="32">
+      <c r="G580" s="31">
         <v>16</v>
       </c>
       <c r="H580" s="19" t="b">
@@ -35431,7 +35496,7 @@
       <c r="F581" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G581" s="32">
+      <c r="G581" s="31">
         <v>130</v>
       </c>
       <c r="H581" s="19" t="b">
@@ -35474,7 +35539,7 @@
       <c r="F582" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G582" s="32">
+      <c r="G582" s="31">
         <v>50</v>
       </c>
       <c r="H582" s="19" t="b">
@@ -35517,7 +35582,7 @@
       <c r="F583" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G583" s="32">
+      <c r="G583" s="31">
         <v>35</v>
       </c>
       <c r="H583" s="19" t="b">
@@ -35560,7 +35625,7 @@
       <c r="F584" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G584" s="32">
+      <c r="G584" s="31">
         <v>75</v>
       </c>
       <c r="H584" s="19" t="b">
@@ -35603,7 +35668,7 @@
       <c r="F585" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G585" s="32">
+      <c r="G585" s="31">
         <v>50</v>
       </c>
       <c r="H585" s="19" t="b">
@@ -35646,7 +35711,7 @@
       <c r="F586" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G586" s="32">
+      <c r="G586" s="31">
         <v>60</v>
       </c>
       <c r="H586" s="19" t="b">
@@ -35689,7 +35754,7 @@
       <c r="F587" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G587" s="32">
+      <c r="G587" s="31">
         <v>30</v>
       </c>
       <c r="H587" s="19" t="b">
@@ -35732,7 +35797,7 @@
       <c r="F588" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G588" s="32">
+      <c r="G588" s="31">
         <v>5</v>
       </c>
       <c r="H588" s="19" t="b">
@@ -35777,7 +35842,7 @@
       <c r="F589" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G589" s="32">
+      <c r="G589" s="31">
         <v>145</v>
       </c>
       <c r="H589" s="19" t="b">
@@ -35820,7 +35885,7 @@
       <c r="F590" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G590" s="32">
+      <c r="G590" s="31">
         <v>150</v>
       </c>
       <c r="H590" s="19" t="b">
@@ -35863,7 +35928,7 @@
       <c r="F591" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G591" s="32">
+      <c r="G591" s="31">
         <v>200</v>
       </c>
       <c r="H591" s="19" t="b">
@@ -35906,7 +35971,7 @@
       <c r="F592" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G592" s="32">
+      <c r="G592" s="31">
         <v>100</v>
       </c>
       <c r="H592" s="19" t="b">
@@ -35951,7 +36016,7 @@
       <c r="F593" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G593" s="32">
+      <c r="G593" s="31">
         <v>75</v>
       </c>
       <c r="H593" s="19" t="b">
@@ -35996,7 +36061,7 @@
       <c r="F594" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G594" s="32">
+      <c r="G594" s="31">
         <v>130</v>
       </c>
       <c r="H594" s="19" t="b">
@@ -36039,7 +36104,7 @@
       <c r="F595" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G595" s="32">
+      <c r="G595" s="31">
         <v>70</v>
       </c>
       <c r="H595" s="19" t="b">
@@ -36082,7 +36147,7 @@
       <c r="F596" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G596" s="32">
+      <c r="G596" s="31">
         <v>70</v>
       </c>
       <c r="H596" s="19" t="b">
@@ -36125,7 +36190,7 @@
       <c r="F597" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G597" s="32">
+      <c r="G597" s="31">
         <v>110</v>
       </c>
       <c r="H597" s="19" t="b">
@@ -36168,7 +36233,7 @@
       <c r="F598" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G598" s="32">
+      <c r="G598" s="31">
         <v>105</v>
       </c>
       <c r="H598" s="19" t="b">
@@ -36211,7 +36276,7 @@
       <c r="F599" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G599" s="32">
+      <c r="G599" s="31">
         <v>90</v>
       </c>
       <c r="H599" s="19" t="b">
@@ -36254,7 +36319,7 @@
       <c r="F600" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G600" s="32">
+      <c r="G600" s="31">
         <v>75</v>
       </c>
       <c r="H600" s="19" t="b">
@@ -36297,7 +36362,7 @@
       <c r="F601" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G601" s="32">
+      <c r="G601" s="31">
         <v>145</v>
       </c>
       <c r="H601" s="19" t="b">
@@ -36340,7 +36405,7 @@
       <c r="F602" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G602" s="32">
+      <c r="G602" s="31">
         <v>150</v>
       </c>
       <c r="H602" s="19" t="b">
@@ -36383,7 +36448,7 @@
       <c r="F603" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G603" s="32">
+      <c r="G603" s="31">
         <v>200</v>
       </c>
       <c r="H603" s="19" t="b">
@@ -36426,7 +36491,7 @@
       <c r="F604" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G604" s="32">
+      <c r="G604" s="31">
         <v>100</v>
       </c>
       <c r="H604" s="19" t="b">
@@ -36471,7 +36536,7 @@
       <c r="F605" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G605" s="32">
+      <c r="G605" s="31">
         <v>75</v>
       </c>
       <c r="H605" s="19" t="b">
@@ -36516,7 +36581,7 @@
       <c r="F606" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G606" s="32">
+      <c r="G606" s="31">
         <v>170</v>
       </c>
       <c r="H606" s="19" t="b">
@@ -36559,7 +36624,7 @@
       <c r="F607" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G607" s="32">
+      <c r="G607" s="31">
         <v>170</v>
       </c>
       <c r="H607" s="19" t="b">
@@ -36602,7 +36667,7 @@
       <c r="F608" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G608" s="32">
+      <c r="G608" s="31">
         <v>125</v>
       </c>
       <c r="H608" s="19" t="b">
@@ -36645,7 +36710,7 @@
       <c r="F609" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G609" s="32">
+      <c r="G609" s="31">
         <v>145</v>
       </c>
       <c r="H609" s="19" t="b">
@@ -36688,7 +36753,7 @@
       <c r="F610" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G610" s="32">
+      <c r="G610" s="31">
         <v>10</v>
       </c>
       <c r="H610" s="19" t="b">
@@ -36731,7 +36796,7 @@
       <c r="F611" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G611" s="32">
+      <c r="G611" s="31">
         <v>170</v>
       </c>
       <c r="H611" s="19" t="b">
@@ -39835,7 +39900,7 @@
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
-      <c r="G685" s="38"/>
+      <c r="G685" s="37"/>
       <c r="H685" s="3"/>
       <c r="I685" s="3"/>
       <c r="J685" s="3"/>
@@ -39849,7 +39914,7 @@
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
-      <c r="G686" s="38"/>
+      <c r="G686" s="37"/>
       <c r="H686" s="3"/>
       <c r="I686" s="3"/>
       <c r="J686" s="3"/>
@@ -39863,7 +39928,7 @@
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
-      <c r="G687" s="38"/>
+      <c r="G687" s="37"/>
       <c r="H687" s="3"/>
       <c r="I687" s="3"/>
       <c r="J687" s="3"/>
@@ -39877,7 +39942,7 @@
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
-      <c r="G688" s="38"/>
+      <c r="G688" s="37"/>
       <c r="H688" s="3"/>
       <c r="I688" s="3"/>
       <c r="J688" s="3"/>
@@ -39891,7 +39956,7 @@
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
-      <c r="G689" s="38"/>
+      <c r="G689" s="37"/>
       <c r="H689" s="3"/>
       <c r="I689" s="3"/>
       <c r="J689" s="3"/>
@@ -39905,7 +39970,7 @@
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
-      <c r="G690" s="38"/>
+      <c r="G690" s="37"/>
       <c r="H690" s="3"/>
       <c r="I690" s="3"/>
       <c r="J690" s="3"/>
@@ -39919,7 +39984,7 @@
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
-      <c r="G691" s="38"/>
+      <c r="G691" s="37"/>
       <c r="H691" s="3"/>
       <c r="I691" s="3"/>
       <c r="J691" s="3"/>
@@ -39933,7 +39998,7 @@
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
-      <c r="G692" s="38"/>
+      <c r="G692" s="37"/>
       <c r="H692" s="3"/>
       <c r="I692" s="3"/>
       <c r="J692" s="3"/>
@@ -39947,7 +40012,7 @@
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
-      <c r="G693" s="38"/>
+      <c r="G693" s="37"/>
       <c r="H693" s="3"/>
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
@@ -39961,7 +40026,7 @@
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
-      <c r="G694" s="38"/>
+      <c r="G694" s="37"/>
       <c r="H694" s="3"/>
       <c r="I694" s="3"/>
       <c r="J694" s="3"/>
@@ -39975,7 +40040,7 @@
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
-      <c r="G695" s="38"/>
+      <c r="G695" s="37"/>
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
       <c r="J695" s="3"/>
@@ -39989,7 +40054,7 @@
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
-      <c r="G696" s="38"/>
+      <c r="G696" s="37"/>
       <c r="H696" s="3"/>
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
@@ -40003,7 +40068,7 @@
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
-      <c r="G697" s="38"/>
+      <c r="G697" s="37"/>
       <c r="H697" s="3"/>
       <c r="I697" s="3"/>
       <c r="J697" s="3"/>
@@ -40017,7 +40082,7 @@
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
-      <c r="G698" s="38"/>
+      <c r="G698" s="37"/>
       <c r="H698" s="3"/>
       <c r="I698" s="3"/>
       <c r="J698" s="3"/>
@@ -40031,7 +40096,7 @@
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
-      <c r="G699" s="38"/>
+      <c r="G699" s="37"/>
       <c r="H699" s="3"/>
       <c r="I699" s="3"/>
       <c r="J699" s="3"/>
@@ -40045,7 +40110,7 @@
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
-      <c r="G700" s="38"/>
+      <c r="G700" s="37"/>
       <c r="H700" s="3"/>
       <c r="I700" s="3"/>
       <c r="J700" s="3"/>
@@ -40059,7 +40124,7 @@
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
-      <c r="G701" s="38"/>
+      <c r="G701" s="37"/>
       <c r="H701" s="3"/>
       <c r="I701" s="3"/>
       <c r="J701" s="3"/>
@@ -40073,7 +40138,7 @@
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
-      <c r="G702" s="38"/>
+      <c r="G702" s="37"/>
       <c r="H702" s="3"/>
       <c r="I702" s="3"/>
       <c r="J702" s="3"/>
@@ -40087,7 +40152,7 @@
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
-      <c r="G703" s="38"/>
+      <c r="G703" s="37"/>
       <c r="H703" s="3"/>
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
@@ -40101,7 +40166,7 @@
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
-      <c r="G704" s="38"/>
+      <c r="G704" s="37"/>
       <c r="H704" s="3"/>
       <c r="I704" s="3"/>
       <c r="J704" s="3"/>
@@ -40115,7 +40180,7 @@
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
-      <c r="G705" s="38"/>
+      <c r="G705" s="37"/>
       <c r="H705" s="3"/>
       <c r="I705" s="3"/>
       <c r="J705" s="3"/>
@@ -40129,7 +40194,7 @@
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
-      <c r="G706" s="38"/>
+      <c r="G706" s="37"/>
       <c r="H706" s="3"/>
       <c r="I706" s="3"/>
       <c r="J706" s="3"/>
@@ -40143,7 +40208,7 @@
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
-      <c r="G707" s="38"/>
+      <c r="G707" s="37"/>
       <c r="H707" s="3"/>
       <c r="I707" s="3"/>
       <c r="J707" s="3"/>
@@ -40157,7 +40222,7 @@
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
-      <c r="G708" s="38"/>
+      <c r="G708" s="37"/>
       <c r="H708" s="3"/>
       <c r="I708" s="3"/>
       <c r="J708" s="3"/>
@@ -40171,7 +40236,7 @@
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
-      <c r="G709" s="38"/>
+      <c r="G709" s="37"/>
       <c r="H709" s="3"/>
       <c r="I709" s="3"/>
       <c r="J709" s="3"/>
@@ -40185,7 +40250,7 @@
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
-      <c r="G710" s="38"/>
+      <c r="G710" s="37"/>
       <c r="H710" s="3"/>
       <c r="I710" s="3"/>
       <c r="J710" s="3"/>
@@ -40199,7 +40264,7 @@
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
-      <c r="G711" s="38"/>
+      <c r="G711" s="37"/>
       <c r="H711" s="3"/>
       <c r="I711" s="3"/>
       <c r="J711" s="3"/>
@@ -40213,7 +40278,7 @@
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
-      <c r="G712" s="38"/>
+      <c r="G712" s="37"/>
       <c r="H712" s="3"/>
       <c r="I712" s="3"/>
       <c r="J712" s="3"/>
@@ -40227,7 +40292,7 @@
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
-      <c r="G713" s="38"/>
+      <c r="G713" s="37"/>
       <c r="H713" s="3"/>
       <c r="I713" s="3"/>
       <c r="J713" s="3"/>
@@ -40241,7 +40306,7 @@
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
-      <c r="G714" s="38"/>
+      <c r="G714" s="37"/>
       <c r="H714" s="3"/>
       <c r="I714" s="3"/>
       <c r="J714" s="3"/>
@@ -40255,7 +40320,7 @@
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
-      <c r="G715" s="38"/>
+      <c r="G715" s="37"/>
       <c r="H715" s="3"/>
       <c r="I715" s="3"/>
       <c r="J715" s="3"/>
@@ -40269,7 +40334,7 @@
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
-      <c r="G716" s="38"/>
+      <c r="G716" s="37"/>
       <c r="H716" s="3"/>
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
@@ -40283,7 +40348,7 @@
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
-      <c r="G717" s="38"/>
+      <c r="G717" s="37"/>
       <c r="H717" s="3"/>
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
@@ -40297,7 +40362,7 @@
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
-      <c r="G718" s="38"/>
+      <c r="G718" s="37"/>
       <c r="H718" s="3"/>
       <c r="I718" s="3"/>
       <c r="J718" s="3"/>
@@ -40311,7 +40376,7 @@
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
-      <c r="G719" s="38"/>
+      <c r="G719" s="37"/>
       <c r="H719" s="3"/>
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
@@ -40325,7 +40390,7 @@
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
-      <c r="G720" s="38"/>
+      <c r="G720" s="37"/>
       <c r="H720" s="3"/>
       <c r="I720" s="3"/>
       <c r="J720" s="3"/>
@@ -40339,7 +40404,7 @@
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
-      <c r="G721" s="38"/>
+      <c r="G721" s="37"/>
       <c r="H721" s="3"/>
       <c r="I721" s="3"/>
       <c r="J721" s="3"/>
@@ -40353,7 +40418,7 @@
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
-      <c r="G722" s="38"/>
+      <c r="G722" s="37"/>
       <c r="H722" s="3"/>
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
@@ -40367,7 +40432,7 @@
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
-      <c r="G723" s="38"/>
+      <c r="G723" s="37"/>
       <c r="H723" s="3"/>
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
@@ -40381,7 +40446,7 @@
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
-      <c r="G724" s="38"/>
+      <c r="G724" s="37"/>
       <c r="H724" s="3"/>
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
@@ -40395,7 +40460,7 @@
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
-      <c r="G725" s="38"/>
+      <c r="G725" s="37"/>
       <c r="H725" s="3"/>
       <c r="I725" s="3"/>
       <c r="J725" s="3"/>
@@ -40409,7 +40474,7 @@
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
-      <c r="G726" s="38"/>
+      <c r="G726" s="37"/>
       <c r="H726" s="3"/>
       <c r="I726" s="3"/>
       <c r="J726" s="3"/>
@@ -40423,7 +40488,7 @@
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
-      <c r="G727" s="38"/>
+      <c r="G727" s="37"/>
       <c r="H727" s="3"/>
       <c r="I727" s="3"/>
       <c r="J727" s="3"/>
@@ -40437,7 +40502,7 @@
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
-      <c r="G728" s="38"/>
+      <c r="G728" s="37"/>
       <c r="H728" s="3"/>
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
@@ -40451,7 +40516,7 @@
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
-      <c r="G729" s="38"/>
+      <c r="G729" s="37"/>
       <c r="H729" s="3"/>
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
@@ -40465,7 +40530,7 @@
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
-      <c r="G730" s="38"/>
+      <c r="G730" s="37"/>
       <c r="H730" s="3"/>
       <c r="I730" s="3"/>
       <c r="J730" s="3"/>
@@ -40479,7 +40544,7 @@
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
-      <c r="G731" s="38"/>
+      <c r="G731" s="37"/>
       <c r="H731" s="3"/>
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
@@ -40493,7 +40558,7 @@
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
-      <c r="G732" s="38"/>
+      <c r="G732" s="37"/>
       <c r="H732" s="3"/>
       <c r="I732" s="3"/>
       <c r="J732" s="3"/>
@@ -40507,7 +40572,7 @@
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
-      <c r="G733" s="38"/>
+      <c r="G733" s="37"/>
       <c r="H733" s="3"/>
       <c r="I733" s="3"/>
       <c r="J733" s="3"/>
@@ -40521,7 +40586,7 @@
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
-      <c r="G734" s="38"/>
+      <c r="G734" s="37"/>
       <c r="H734" s="3"/>
       <c r="I734" s="3"/>
       <c r="J734" s="3"/>
@@ -40535,7 +40600,7 @@
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
-      <c r="G735" s="38"/>
+      <c r="G735" s="37"/>
       <c r="H735" s="3"/>
       <c r="I735" s="3"/>
       <c r="J735" s="3"/>
@@ -40549,7 +40614,7 @@
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
-      <c r="G736" s="38"/>
+      <c r="G736" s="37"/>
       <c r="H736" s="3"/>
       <c r="I736" s="3"/>
       <c r="J736" s="3"/>
@@ -40563,7 +40628,7 @@
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
-      <c r="G737" s="38"/>
+      <c r="G737" s="37"/>
       <c r="H737" s="3"/>
       <c r="I737" s="3"/>
       <c r="J737" s="3"/>
@@ -40577,7 +40642,7 @@
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
-      <c r="G738" s="38"/>
+      <c r="G738" s="37"/>
       <c r="H738" s="3"/>
       <c r="I738" s="3"/>
       <c r="J738" s="3"/>
@@ -40602,9 +40667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:I1582"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C852" sqref="C852"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40620,31 +40685,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>1710</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>1903</v>
       </c>
     </row>
@@ -47839,7 +47904,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A387" s="16" t="s">
         <v>1350</v>
       </c>
@@ -47856,7 +47921,9 @@
         <v>652</v>
       </c>
       <c r="F387" s="16"/>
-      <c r="G387" s="16"/>
+      <c r="G387" s="18" t="s">
+        <v>2777</v>
+      </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="16" t="s">
@@ -51541,16 +51608,16 @@
       <c r="A585" s="16" t="s">
         <v>1775</v>
       </c>
-      <c r="B585" s="33" t="s">
+      <c r="B585" s="32" t="s">
         <v>1728</v>
       </c>
-      <c r="C585" s="34" t="s">
+      <c r="C585" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D585" s="35">
+      <c r="D585" s="34">
         <v>20</v>
       </c>
-      <c r="E585" s="34" t="s">
+      <c r="E585" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I585" t="str">
@@ -51562,61 +51629,61 @@
       <c r="A586" s="16" t="s">
         <v>1776</v>
       </c>
-      <c r="B586" s="33" t="s">
+      <c r="B586" s="32" t="s">
         <v>1728</v>
       </c>
-      <c r="C586" s="34" t="s">
+      <c r="C586" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D586" s="35">
+      <c r="D586" s="34">
         <v>5</v>
       </c>
-      <c r="E586" s="34"/>
+      <c r="E586" s="33"/>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587" s="16" t="s">
         <v>1777</v>
       </c>
-      <c r="B587" s="33" t="s">
+      <c r="B587" s="32" t="s">
         <v>1728</v>
       </c>
-      <c r="C587" s="34" t="s">
+      <c r="C587" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="D587" s="35">
+      <c r="D587" s="34">
         <v>5</v>
       </c>
-      <c r="E587" s="34"/>
+      <c r="E587" s="33"/>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588" s="16" t="s">
         <v>1778</v>
       </c>
-      <c r="B588" s="33" t="s">
+      <c r="B588" s="32" t="s">
         <v>1728</v>
       </c>
-      <c r="C588" s="34" t="s">
+      <c r="C588" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D588" s="35">
+      <c r="D588" s="34">
         <v>5</v>
       </c>
-      <c r="E588" s="34"/>
+      <c r="E588" s="33"/>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589" s="16" t="s">
         <v>1779</v>
       </c>
-      <c r="B589" s="33" t="s">
+      <c r="B589" s="32" t="s">
         <v>1731</v>
       </c>
-      <c r="C589" s="34" t="s">
+      <c r="C589" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D589" s="35">
+      <c r="D589" s="34">
         <v>20</v>
       </c>
-      <c r="E589" s="34" t="s">
+      <c r="E589" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I589" t="str">
@@ -51628,61 +51695,61 @@
       <c r="A590" s="16" t="s">
         <v>1780</v>
       </c>
-      <c r="B590" s="33" t="s">
+      <c r="B590" s="32" t="s">
         <v>1731</v>
       </c>
-      <c r="C590" s="34" t="s">
+      <c r="C590" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D590" s="35">
+      <c r="D590" s="34">
         <v>5</v>
       </c>
-      <c r="E590" s="34"/>
+      <c r="E590" s="33"/>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591" s="16" t="s">
         <v>1781</v>
       </c>
-      <c r="B591" s="33" t="s">
+      <c r="B591" s="32" t="s">
         <v>1731</v>
       </c>
-      <c r="C591" s="34" t="s">
+      <c r="C591" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="D591" s="35">
+      <c r="D591" s="34">
         <v>5</v>
       </c>
-      <c r="E591" s="34"/>
+      <c r="E591" s="33"/>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592" s="16" t="s">
         <v>1782</v>
       </c>
-      <c r="B592" s="33" t="s">
+      <c r="B592" s="32" t="s">
         <v>1731</v>
       </c>
-      <c r="C592" s="34" t="s">
+      <c r="C592" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D592" s="35">
+      <c r="D592" s="34">
         <v>5</v>
       </c>
-      <c r="E592" s="34"/>
+      <c r="E592" s="33"/>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593" s="16" t="s">
         <v>1783</v>
       </c>
-      <c r="B593" s="33" t="s">
+      <c r="B593" s="32" t="s">
         <v>1734</v>
       </c>
-      <c r="C593" s="34" t="s">
+      <c r="C593" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D593" s="35">
+      <c r="D593" s="34">
         <v>20</v>
       </c>
-      <c r="E593" s="34" t="s">
+      <c r="E593" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I593" t="str">
@@ -51694,61 +51761,61 @@
       <c r="A594" s="16" t="s">
         <v>1784</v>
       </c>
-      <c r="B594" s="33" t="s">
+      <c r="B594" s="32" t="s">
         <v>1734</v>
       </c>
-      <c r="C594" s="34" t="s">
+      <c r="C594" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D594" s="35">
+      <c r="D594" s="34">
         <v>5</v>
       </c>
-      <c r="E594" s="34"/>
+      <c r="E594" s="33"/>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595" s="16" t="s">
         <v>1785</v>
       </c>
-      <c r="B595" s="33" t="s">
+      <c r="B595" s="32" t="s">
         <v>1734</v>
       </c>
-      <c r="C595" s="34" t="s">
+      <c r="C595" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="D595" s="35">
+      <c r="D595" s="34">
         <v>5</v>
       </c>
-      <c r="E595" s="34"/>
+      <c r="E595" s="33"/>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596" s="16" t="s">
         <v>1786</v>
       </c>
-      <c r="B596" s="33" t="s">
+      <c r="B596" s="32" t="s">
         <v>1734</v>
       </c>
-      <c r="C596" s="34" t="s">
+      <c r="C596" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D596" s="35">
+      <c r="D596" s="34">
         <v>5</v>
       </c>
-      <c r="E596" s="34"/>
+      <c r="E596" s="33"/>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597" s="16" t="s">
         <v>1787</v>
       </c>
-      <c r="B597" s="33" t="s">
+      <c r="B597" s="32" t="s">
         <v>1737</v>
       </c>
-      <c r="C597" s="34" t="s">
+      <c r="C597" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D597" s="35">
+      <c r="D597" s="34">
         <v>20</v>
       </c>
-      <c r="E597" s="34" t="s">
+      <c r="E597" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I597" t="str">
@@ -51760,61 +51827,61 @@
       <c r="A598" s="16" t="s">
         <v>1788</v>
       </c>
-      <c r="B598" s="33" t="s">
+      <c r="B598" s="32" t="s">
         <v>1737</v>
       </c>
-      <c r="C598" s="34" t="s">
+      <c r="C598" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D598" s="35">
+      <c r="D598" s="34">
         <v>5</v>
       </c>
-      <c r="E598" s="34"/>
+      <c r="E598" s="33"/>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599" s="16" t="s">
         <v>1789</v>
       </c>
-      <c r="B599" s="33" t="s">
+      <c r="B599" s="32" t="s">
         <v>1737</v>
       </c>
-      <c r="C599" s="34" t="s">
+      <c r="C599" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="D599" s="35">
+      <c r="D599" s="34">
         <v>5</v>
       </c>
-      <c r="E599" s="34"/>
+      <c r="E599" s="33"/>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600" s="16" t="s">
         <v>1790</v>
       </c>
-      <c r="B600" s="33" t="s">
+      <c r="B600" s="32" t="s">
         <v>1737</v>
       </c>
-      <c r="C600" s="34" t="s">
+      <c r="C600" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D600" s="35">
+      <c r="D600" s="34">
         <v>5</v>
       </c>
-      <c r="E600" s="34"/>
+      <c r="E600" s="33"/>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601" s="16" t="s">
         <v>1791</v>
       </c>
-      <c r="B601" s="33" t="s">
+      <c r="B601" s="32" t="s">
         <v>1739</v>
       </c>
-      <c r="C601" s="34" t="s">
+      <c r="C601" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D601" s="35">
+      <c r="D601" s="34">
         <v>20</v>
       </c>
-      <c r="E601" s="34" t="s">
+      <c r="E601" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I601" t="str">
@@ -51826,46 +51893,46 @@
       <c r="A602" s="16" t="s">
         <v>1792</v>
       </c>
-      <c r="B602" s="33" t="s">
+      <c r="B602" s="32" t="s">
         <v>1739</v>
       </c>
-      <c r="C602" s="34" t="s">
+      <c r="C602" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D602" s="35">
+      <c r="D602" s="34">
         <v>5</v>
       </c>
-      <c r="E602" s="34"/>
+      <c r="E602" s="33"/>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603" s="16" t="s">
         <v>1793</v>
       </c>
-      <c r="B603" s="33" t="s">
+      <c r="B603" s="32" t="s">
         <v>1739</v>
       </c>
-      <c r="C603" s="34" t="s">
+      <c r="C603" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="D603" s="35">
+      <c r="D603" s="34">
         <v>5</v>
       </c>
-      <c r="E603" s="34"/>
+      <c r="E603" s="33"/>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604" s="16" t="s">
         <v>1794</v>
       </c>
-      <c r="B604" s="33" t="s">
+      <c r="B604" s="32" t="s">
         <v>1739</v>
       </c>
-      <c r="C604" s="34" t="s">
+      <c r="C604" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D604" s="35">
+      <c r="D604" s="34">
         <v>5</v>
       </c>
-      <c r="E604" s="34"/>
+      <c r="E604" s="33"/>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605" s="16" t="s">
@@ -51877,7 +51944,7 @@
       <c r="C605" t="s">
         <v>1112</v>
       </c>
-      <c r="D605" s="31">
+      <c r="D605" s="30">
         <v>26</v>
       </c>
     </row>
@@ -51891,7 +51958,7 @@
       <c r="C606" t="s">
         <v>45</v>
       </c>
-      <c r="D606" s="31">
+      <c r="D606" s="30">
         <v>25</v>
       </c>
     </row>
@@ -51905,7 +51972,7 @@
       <c r="C607" t="s">
         <v>423</v>
       </c>
-      <c r="D607" s="31">
+      <c r="D607" s="30">
         <v>2</v>
       </c>
     </row>
@@ -51919,7 +51986,7 @@
       <c r="C608" t="s">
         <v>56</v>
       </c>
-      <c r="D608" s="31">
+      <c r="D608" s="30">
         <v>1</v>
       </c>
     </row>
@@ -51933,7 +52000,7 @@
       <c r="C609" t="s">
         <v>58</v>
       </c>
-      <c r="D609" s="31">
+      <c r="D609" s="30">
         <v>1</v>
       </c>
       <c r="E609" t="s">
@@ -51950,7 +52017,7 @@
       <c r="C610" t="s">
         <v>1113</v>
       </c>
-      <c r="D610" s="31">
+      <c r="D610" s="30">
         <v>25</v>
       </c>
     </row>
@@ -51964,7 +52031,7 @@
       <c r="C611" t="s">
         <v>547</v>
       </c>
-      <c r="D611" s="31">
+      <c r="D611" s="30">
         <v>1</v>
       </c>
       <c r="E611" t="s">
@@ -51981,7 +52048,7 @@
       <c r="C612" t="s">
         <v>397</v>
       </c>
-      <c r="D612" s="31">
+      <c r="D612" s="30">
         <v>1</v>
       </c>
     </row>
@@ -51995,7 +52062,7 @@
       <c r="C613" t="s">
         <v>300</v>
       </c>
-      <c r="D613" s="31">
+      <c r="D613" s="30">
         <v>10</v>
       </c>
     </row>
@@ -52009,7 +52076,7 @@
       <c r="C614" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D614" s="32">
+      <c r="D614" s="31">
         <v>20</v>
       </c>
       <c r="E614" s="16" t="s">
@@ -52030,7 +52097,7 @@
       <c r="C615" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D615" s="32">
+      <c r="D615" s="31">
         <v>5</v>
       </c>
       <c r="E615" s="16"/>
@@ -52045,7 +52112,7 @@
       <c r="C616" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D616" s="32">
+      <c r="D616" s="31">
         <v>5</v>
       </c>
       <c r="E616" s="16"/>
@@ -52060,7 +52127,7 @@
       <c r="C617" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D617" s="32">
+      <c r="D617" s="31">
         <v>28</v>
       </c>
       <c r="E617" s="16" t="s">
@@ -52077,7 +52144,7 @@
       <c r="C618" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D618" s="32">
+      <c r="D618" s="31">
         <v>25</v>
       </c>
       <c r="E618" s="16"/>
@@ -52092,7 +52159,7 @@
       <c r="C619" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D619" s="32">
+      <c r="D619" s="31">
         <v>3</v>
       </c>
       <c r="E619" s="16" t="s">
@@ -52109,7 +52176,7 @@
       <c r="C620" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D620" s="32">
+      <c r="D620" s="31">
         <v>1</v>
       </c>
       <c r="E620" s="16"/>
@@ -52124,7 +52191,7 @@
       <c r="C621" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D621" s="32">
+      <c r="D621" s="31">
         <v>1</v>
       </c>
       <c r="E621" s="16" t="s">
@@ -52141,7 +52208,7 @@
       <c r="C622" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D622" s="32">
+      <c r="D622" s="31">
         <v>25</v>
       </c>
       <c r="E622" s="16"/>
@@ -52156,7 +52223,7 @@
       <c r="C623" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D623" s="32">
+      <c r="D623" s="31">
         <v>2</v>
       </c>
       <c r="E623" s="16" t="s">
@@ -52173,7 +52240,7 @@
       <c r="C624" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D624" s="32">
+      <c r="D624" s="31">
         <v>7</v>
       </c>
       <c r="E624" s="16" t="s">
@@ -52193,7 +52260,7 @@
       <c r="C625" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D625" s="32">
+      <c r="D625" s="31">
         <v>5</v>
       </c>
       <c r="E625" s="16" t="s">
@@ -52214,7 +52281,7 @@
       <c r="C626" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D626" s="32">
+      <c r="D626" s="31">
         <v>2</v>
       </c>
       <c r="E626" s="16" t="s">
@@ -52231,7 +52298,7 @@
       <c r="C627" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="D627" s="32">
+      <c r="D627" s="31">
         <v>2</v>
       </c>
       <c r="E627" s="16"/>
@@ -52246,7 +52313,7 @@
       <c r="C628" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D628" s="32">
+      <c r="D628" s="31">
         <v>1</v>
       </c>
       <c r="E628" s="16"/>
@@ -52261,7 +52328,7 @@
       <c r="C629" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="D629" s="32">
+      <c r="D629" s="31">
         <v>1</v>
       </c>
       <c r="E629" s="16" t="s">
@@ -52278,7 +52345,7 @@
       <c r="C630" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D630" s="32">
+      <c r="D630" s="31">
         <v>25</v>
       </c>
     </row>
@@ -52292,7 +52359,7 @@
       <c r="C631" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D631" s="32">
+      <c r="D631" s="31">
         <v>25</v>
       </c>
     </row>
@@ -52306,7 +52373,7 @@
       <c r="C632" s="16" t="s">
         <v>1772</v>
       </c>
-      <c r="D632" s="32">
+      <c r="D632" s="31">
         <v>2</v>
       </c>
       <c r="E632" t="s">
@@ -52323,7 +52390,7 @@
       <c r="C633" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="D633" s="31">
+      <c r="D633" s="30">
         <v>2</v>
       </c>
     </row>
@@ -52337,7 +52404,7 @@
       <c r="C634" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D634" s="31">
+      <c r="D634" s="30">
         <v>1</v>
       </c>
     </row>
@@ -52351,7 +52418,7 @@
       <c r="C635" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D635" s="31">
+      <c r="D635" s="30">
         <v>25</v>
       </c>
     </row>
@@ -52365,7 +52432,7 @@
       <c r="C636" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D636" s="31">
+      <c r="D636" s="30">
         <v>25</v>
       </c>
     </row>
@@ -52379,7 +52446,7 @@
       <c r="C637" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D637" s="31">
+      <c r="D637" s="30">
         <v>1</v>
       </c>
     </row>
@@ -52393,7 +52460,7 @@
       <c r="C638" s="16" t="s">
         <v>1773</v>
       </c>
-      <c r="D638" s="31">
+      <c r="D638" s="30">
         <v>25</v>
       </c>
     </row>
@@ -61953,10 +62020,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61966,17 +62033,18 @@
     <col min="4" max="4" width="10.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="16"/>
+    <col min="7" max="7" width="21.08984375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>279</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -61985,1224 +62053,1428 @@
       <c r="E1" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="G1" s="21" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="19">
         <v>0.33</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="19">
         <v>0.33</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>0.33</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <v>0.33</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="19">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="348" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="G3" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>0.33</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <v>0.33</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="19">
         <v>0.33</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="19">
         <v>0.33</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>0.33</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <v>0.33</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="19">
         <v>0.5</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>0.33</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="19">
         <v>0.33</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>0.33</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="290" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="290" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="19">
         <v>0.33</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="19">
         <v>0.33</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <v>0.33</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <v>0.33</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>0.33</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="19">
         <v>0.33</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="G11" s="19" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>0.33</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="19">
         <v>0.33</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" ht="290" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="290" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>0.33</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19">
         <v>0.33</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>0.33</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="19">
         <v>0.33</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>1546</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>1547</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="19">
         <v>0.33</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="19">
         <v>0.33</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>693</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>1700</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>1548</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>0.33</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <v>0.5</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>1701</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>1549</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>0.33</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <v>0.33</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>1550</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>1551</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>0.33</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <v>0.33</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>733</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>1552</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>1553</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>0.33</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="19">
         <v>0.33</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>1702</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>1704</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>0.33</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="19">
         <v>0.33</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>1554</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>0.33</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="19">
         <v>0.33</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>1555</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>1556</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="19">
         <v>0.33</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="19">
         <v>0.33</v>
       </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>1557</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>1558</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="19">
         <v>0.33</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="19">
         <v>0.33</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>1559</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>1560</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="19">
         <v>0.33</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="19">
         <v>0.33</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>1561</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>1562</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="19">
         <v>0.33</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="19">
         <v>0.33</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="F25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>1563</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>1564</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="19">
         <v>0.33</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="19">
         <v>0.33</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>1565</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>1566</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="19">
         <v>0.33</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="19">
         <v>0.33</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="348" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>1567</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>1568</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="19">
         <v>0.33</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="19">
         <v>0.33</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>1703</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>1569</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="19">
         <v>0.33</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="19">
         <v>0.33</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="G29" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>1570</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="19">
         <v>0.33</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="19">
         <v>0.33</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>1725</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>1571</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="19">
         <v>0.33</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="19">
         <v>0.33</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
         <v>898</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>1572</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>1573</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="19">
         <v>0.33</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="19">
         <v>0.33</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>1574</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>1575</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="19">
         <v>0.33</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="19">
         <v>0.33</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>1576</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>1577</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="19">
         <v>0.33</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="19">
         <v>0.33</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>1578</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>1579</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="19">
         <v>0.33</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="19">
         <v>0.33</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>1580</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>1581</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>0.33</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="19">
         <v>0.33</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>1582</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>1583</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="19">
         <v>0.33</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="19">
         <v>0.33</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
         <v>974</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>1584</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>1705</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="19">
         <v>0.5</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="19">
         <v>0.33</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+      <c r="F38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>1585</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>1586</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="19">
         <v>0.33</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="19">
         <v>0.33</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="F39" s="19"/>
+      <c r="G39" s="19" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
         <v>1001</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>1587</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>1707</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="19">
         <v>0.33</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="19">
         <v>0.33</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>1013</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>1588</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>1589</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="19">
         <v>0.33</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="19">
         <v>0.33</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>1590</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>1591</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="19">
         <v>0.33</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="19">
         <v>0.33</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="F42" s="19"/>
+      <c r="G42" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>1592</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>1593</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="19">
         <v>0.33</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="19">
         <v>0.33</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
         <v>1067</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>1594</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="19">
         <v>0.33</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="19">
         <v>0.33</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
         <v>1078</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>1595</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>1715</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="19">
         <v>0.33</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="19">
         <v>0.33</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
         <v>1090</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>1596</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>1597</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="19">
         <v>0.33</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="19">
         <v>0.33</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>1729</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>1836</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="C47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="19">
         <v>0.33</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="19">
         <v>0.33</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" ht="348" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
         <v>1905</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>2466</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="19">
         <v>0.33</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="19">
         <v>0.33</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
         <v>1932</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>2467</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>2542</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="19">
         <v>0.33</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="19">
         <v>0.33</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
         <v>1952</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>2468</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="19">
         <v>0.5</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="19">
         <v>0.33</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
         <v>1966</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>2469</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>2470</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="19">
         <v>0.33</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="19">
         <v>0.33</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="F51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>1994</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>2471</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>2472</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="19">
         <v>0.33</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="19">
         <v>0.33</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="F52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
         <v>2008</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>2473</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>2474</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="19">
         <v>0.33</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="19">
         <v>0.33</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="F53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
         <v>2017</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>2475</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>2476</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="19">
         <v>0.33</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="19">
         <v>0.33</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="F54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
         <v>2021</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>2477</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>2478</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="19">
         <v>0.33</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="19">
         <v>0.33</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="F55" s="19"/>
+      <c r="G55" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>2058</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="18" t="s">
+      <c r="B56" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>2479</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="19">
         <v>0.33</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="19">
         <v>0.33</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="18" t="s">
+      <c r="F56" s="19"/>
+      <c r="G56" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
         <v>2079</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>2480</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>2534</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="19">
         <v>0.33</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="19">
         <v>0.33</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="F57" s="19"/>
+      <c r="G57" s="19" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
         <v>2093</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>2481</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="19">
         <v>0.33</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="19">
         <v>0.33</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="F58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
         <v>2111</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>2482</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>2483</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="19">
         <v>0.33</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="19">
         <v>0.33</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="18" t="s">
+      <c r="F59" s="19"/>
+      <c r="G59" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
         <v>2133</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>2484</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>2485</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="19">
         <v>0.33</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="19">
         <v>0.33</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A61" s="18" t="s">
+      <c r="F60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
         <v>2149</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>2486</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>2487</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="19">
         <v>0.33</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="19">
         <v>0.33</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="F61" s="19"/>
+      <c r="G61" s="19" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
         <v>2155</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>2488</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>2489</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="19">
         <v>0.5</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="19">
         <v>0.5</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A63" s="18" t="s">
+      <c r="F62" s="19"/>
+      <c r="G62" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
         <v>2168</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>2490</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="19">
         <v>0.33</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="19">
         <v>0.33</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
+      <c r="F63" s="19"/>
+      <c r="G63" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
         <v>2188</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>2491</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>2492</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="19">
         <v>0.33</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="19">
         <v>0.33</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
+      <c r="F64" s="19"/>
+      <c r="G64" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>2207</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>2493</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>2494</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="19">
         <v>0.33</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="19">
         <v>0.33</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="18" t="s">
+      <c r="F65" s="19"/>
+      <c r="G65" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="19" t="s">
         <v>2258</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>2495</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>2496</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="19">
         <v>0.33</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="19">
         <v>0.33</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+      <c r="F66" s="19"/>
+      <c r="G66" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="19" t="s">
         <v>2266</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>2497</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>2498</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="19">
         <v>0.33</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="19">
         <v>0.33</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" ht="290" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+      <c r="F67" s="19"/>
+      <c r="G67" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="290" x14ac:dyDescent="0.35">
+      <c r="A68" s="19" t="s">
         <v>2272</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>2499</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>2500</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="19">
         <v>0.33</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="19">
         <v>0.33</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
+      <c r="F68" s="19"/>
+      <c r="G68" s="19" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="19" t="s">
         <v>2550</v>
       </c>
       <c r="B69" s="17" t="s">
@@ -63211,15 +63483,19 @@
       <c r="C69" s="17" t="s">
         <v>2734</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="19">
         <v>0.33</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+      <c r="F69" s="19"/>
+      <c r="G69" s="19" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A70" s="19" t="s">
         <v>2568</v>
       </c>
       <c r="B70" s="17" t="s">
@@ -63228,15 +63504,19 @@
       <c r="C70" s="17" t="s">
         <v>2736</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="19">
         <v>0.33</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+      <c r="F70" s="19"/>
+      <c r="G70" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A71" s="19" t="s">
         <v>2574</v>
       </c>
       <c r="B71" s="17" t="s">
@@ -63245,15 +63525,19 @@
       <c r="C71" s="17" t="s">
         <v>2738</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="19">
         <v>0.33</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+      <c r="F71" s="19"/>
+      <c r="G71" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
         <v>2588</v>
       </c>
       <c r="B72" s="17" t="s">
@@ -63262,15 +63546,19 @@
       <c r="C72" s="17" t="s">
         <v>2740</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="19">
         <v>0.33</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="261" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
+      <c r="F72" s="19"/>
+      <c r="G72" s="19" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
         <v>2620</v>
       </c>
       <c r="B73" s="17" t="s">
@@ -63279,15 +63567,19 @@
       <c r="C73" s="17" t="s">
         <v>2741</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="19">
         <v>0.33</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="F73" s="19"/>
+      <c r="G73" s="19" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="19" t="s">
         <v>2639</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -63296,15 +63588,19 @@
       <c r="C74" s="17" t="s">
         <v>2743</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="19">
         <v>0.33</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+      <c r="F74" s="19"/>
+      <c r="G74" s="19" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A75" s="19" t="s">
         <v>2650</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -63313,15 +63609,19 @@
       <c r="C75" s="17" t="s">
         <v>2745</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="19">
         <v>0.33</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="19">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
+      <c r="F75" s="19"/>
+      <c r="G75" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
         <v>2657</v>
       </c>
       <c r="B76" s="17" t="s">
@@ -63330,15 +63630,19 @@
       <c r="C76" s="17" t="s">
         <v>2747</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="19">
         <v>0.33</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="19">
         <v>0.33</v>
       </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F68" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}"/>
+  <autoFilter ref="A1:G76" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -66194,7 +66498,7 @@
       <c r="A258" s="16" t="s">
         <v>1728</v>
       </c>
-      <c r="B258" s="36" t="s">
+      <c r="B258" s="35" t="s">
         <v>1829</v>
       </c>
       <c r="C258" s="16" t="s">
@@ -66205,7 +66509,7 @@
       <c r="A259" s="16" t="s">
         <v>1731</v>
       </c>
-      <c r="B259" s="36" t="s">
+      <c r="B259" s="35" t="s">
         <v>1830</v>
       </c>
       <c r="C259" s="16" t="s">
@@ -66227,7 +66531,7 @@
       <c r="A261" s="16" t="s">
         <v>1737</v>
       </c>
-      <c r="B261" s="36" t="s">
+      <c r="B261" s="35" t="s">
         <v>1832</v>
       </c>
       <c r="C261" s="16" t="s">
@@ -66238,7 +66542,7 @@
       <c r="A262" s="16" t="s">
         <v>1739</v>
       </c>
-      <c r="B262" s="36" t="s">
+      <c r="B262" s="35" t="s">
         <v>1833</v>
       </c>
       <c r="C262" s="16" t="s">

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742557C-BB3E-4518-8AEA-CD977975D920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313DC0E6-1534-43CA-B0B6-2FE45D1B299E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -10231,11 +10231,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D474" sqref="D474"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F667" sqref="F667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10304,7 +10305,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>138</v>
       </c>
@@ -10347,7 +10348,7 @@
       </c>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>141</v>
       </c>
@@ -10390,7 +10391,7 @@
       </c>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>142</v>
       </c>
@@ -10433,7 +10434,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>143</v>
       </c>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>145</v>
       </c>
@@ -10519,7 +10520,7 @@
       </c>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>146</v>
       </c>
@@ -10605,7 +10606,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>148</v>
       </c>
@@ -10650,7 +10651,7 @@
       </c>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>149</v>
       </c>
@@ -10695,7 +10696,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>150</v>
       </c>
@@ -10740,7 +10741,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>245</v>
       </c>
@@ -10783,7 +10784,7 @@
       </c>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>251</v>
       </c>
@@ -10826,7 +10827,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>253</v>
       </c>
@@ -10869,7 +10870,7 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>255</v>
       </c>
@@ -10912,7 +10913,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>258</v>
       </c>
@@ -10957,7 +10958,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>260</v>
       </c>
@@ -11002,7 +11003,7 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>262</v>
       </c>
@@ -11047,7 +11048,7 @@
       </c>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>304</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>309</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>316</v>
       </c>
@@ -11180,7 +11181,7 @@
       </c>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>320</v>
       </c>
@@ -11223,7 +11224,7 @@
       </c>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>323</v>
       </c>
@@ -11266,7 +11267,7 @@
       </c>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>326</v>
       </c>
@@ -11309,7 +11310,7 @@
       </c>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>328</v>
       </c>
@@ -11354,7 +11355,7 @@
       </c>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>330</v>
       </c>
@@ -11399,7 +11400,7 @@
       </c>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>332</v>
       </c>
@@ -11442,7 +11443,7 @@
       </c>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>352</v>
       </c>
@@ -11485,7 +11486,7 @@
       </c>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>353</v>
       </c>
@@ -11528,7 +11529,7 @@
       </c>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>354</v>
       </c>
@@ -11571,7 +11572,7 @@
       </c>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>355</v>
       </c>
@@ -11614,7 +11615,7 @@
       </c>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>358</v>
       </c>
@@ -11657,7 +11658,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>361</v>
       </c>
@@ -11702,7 +11703,7 @@
       </c>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>362</v>
       </c>
@@ -11747,7 +11748,7 @@
       </c>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>363</v>
       </c>
@@ -11790,7 +11791,7 @@
       </c>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>365</v>
       </c>
@@ -11833,7 +11834,7 @@
       </c>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>368</v>
       </c>
@@ -11876,7 +11877,7 @@
       </c>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>1713</v>
       </c>
@@ -11919,7 +11920,7 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>370</v>
       </c>
@@ -11962,7 +11963,7 @@
       </c>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>373</v>
       </c>
@@ -12007,7 +12008,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>383</v>
       </c>
@@ -12050,7 +12051,7 @@
       </c>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>388</v>
       </c>
@@ -12093,7 +12094,7 @@
       </c>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>390</v>
       </c>
@@ -12136,7 +12137,7 @@
       </c>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>393</v>
       </c>
@@ -12181,7 +12182,7 @@
       </c>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>403</v>
       </c>
@@ -12224,7 +12225,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>407</v>
       </c>
@@ -12267,7 +12268,7 @@
       </c>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>410</v>
       </c>
@@ -12310,7 +12311,7 @@
       </c>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>412</v>
       </c>
@@ -12353,7 +12354,7 @@
       </c>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>414</v>
       </c>
@@ -12398,7 +12399,7 @@
       </c>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>415</v>
       </c>
@@ -12441,7 +12442,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>417</v>
       </c>
@@ -12484,7 +12485,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>500</v>
       </c>
@@ -12527,7 +12528,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>505</v>
       </c>
@@ -12570,7 +12571,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>508</v>
       </c>
@@ -12656,7 +12657,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>513</v>
       </c>
@@ -12701,7 +12702,7 @@
       </c>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>515</v>
       </c>
@@ -12746,7 +12747,7 @@
       </c>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>536</v>
       </c>
@@ -12789,7 +12790,7 @@
       </c>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>540</v>
       </c>
@@ -12832,7 +12833,7 @@
       </c>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>543</v>
       </c>
@@ -12875,7 +12876,7 @@
       </c>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>545</v>
       </c>
@@ -12920,7 +12921,7 @@
       </c>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>554</v>
       </c>
@@ -12963,7 +12964,7 @@
       </c>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>557</v>
       </c>
@@ -13006,7 +13007,7 @@
       </c>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>559</v>
       </c>
@@ -13049,7 +13050,7 @@
       </c>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>560</v>
       </c>
@@ -13092,7 +13093,7 @@
       </c>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>563</v>
       </c>
@@ -13137,7 +13138,7 @@
       </c>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>572</v>
       </c>
@@ -13180,7 +13181,7 @@
       </c>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>574</v>
       </c>
@@ -13223,7 +13224,7 @@
       </c>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>575</v>
       </c>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>576</v>
       </c>
@@ -13309,7 +13310,7 @@
       </c>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>579</v>
       </c>
@@ -13352,7 +13353,7 @@
       </c>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>582</v>
       </c>
@@ -13395,7 +13396,7 @@
       </c>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>584</v>
       </c>
@@ -13438,7 +13439,7 @@
       </c>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>587</v>
       </c>
@@ -13481,7 +13482,7 @@
       </c>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>589</v>
       </c>
@@ -13524,7 +13525,7 @@
       </c>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>590</v>
       </c>
@@ -13569,7 +13570,7 @@
       </c>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>607</v>
       </c>
@@ -13612,7 +13613,7 @@
       </c>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>609</v>
       </c>
@@ -13655,7 +13656,7 @@
       </c>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>610</v>
       </c>
@@ -13698,7 +13699,7 @@
       </c>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>611</v>
       </c>
@@ -13741,7 +13742,7 @@
       </c>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>612</v>
       </c>
@@ -13786,7 +13787,7 @@
       </c>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>613</v>
       </c>
@@ -13831,7 +13832,7 @@
       </c>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>614</v>
       </c>
@@ -13874,7 +13875,7 @@
       </c>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>615</v>
       </c>
@@ -13917,7 +13918,7 @@
       </c>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>616</v>
       </c>
@@ -13960,7 +13961,7 @@
       </c>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>641</v>
       </c>
@@ -14003,7 +14004,7 @@
       </c>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>644</v>
       </c>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>645</v>
       </c>
@@ -14089,7 +14090,7 @@
       </c>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>648</v>
       </c>
@@ -14132,7 +14133,7 @@
       </c>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>649</v>
       </c>
@@ -14177,7 +14178,7 @@
       </c>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>650</v>
       </c>
@@ -14222,7 +14223,7 @@
       </c>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>669</v>
       </c>
@@ -14265,7 +14266,7 @@
       </c>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>672</v>
       </c>
@@ -14308,7 +14309,7 @@
       </c>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>675</v>
       </c>
@@ -14351,7 +14352,7 @@
       </c>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>678</v>
       </c>
@@ -14394,7 +14395,7 @@
       </c>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>681</v>
       </c>
@@ -14437,7 +14438,7 @@
       </c>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>683</v>
       </c>
@@ -14480,7 +14481,7 @@
       </c>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>685</v>
       </c>
@@ -14566,7 +14567,7 @@
       </c>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>689</v>
       </c>
@@ -14611,7 +14612,7 @@
       </c>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>690</v>
       </c>
@@ -14656,7 +14657,7 @@
       </c>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>691</v>
       </c>
@@ -14701,7 +14702,7 @@
       </c>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>692</v>
       </c>
@@ -14744,7 +14745,7 @@
       </c>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>695</v>
       </c>
@@ -14787,7 +14788,7 @@
       </c>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>697</v>
       </c>
@@ -14832,7 +14833,7 @@
       </c>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>699</v>
       </c>
@@ -14877,7 +14878,7 @@
       </c>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>701</v>
       </c>
@@ -14920,7 +14921,7 @@
       </c>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>704</v>
       </c>
@@ -14963,7 +14964,7 @@
       </c>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>706</v>
       </c>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>708</v>
       </c>
@@ -15049,7 +15050,7 @@
       </c>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>709</v>
       </c>
@@ -15092,7 +15093,7 @@
       </c>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>712</v>
       </c>
@@ -15135,7 +15136,7 @@
       </c>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>714</v>
       </c>
@@ -15180,7 +15181,7 @@
       </c>
       <c r="O113" s="18"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>716</v>
       </c>
@@ -15225,7 +15226,7 @@
       </c>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>717</v>
       </c>
@@ -15268,7 +15269,7 @@
       </c>
       <c r="O115" s="18"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>718</v>
       </c>
@@ -15311,7 +15312,7 @@
       </c>
       <c r="O116" s="18"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>720</v>
       </c>
@@ -15354,7 +15355,7 @@
       </c>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>723</v>
       </c>
@@ -15397,7 +15398,7 @@
       </c>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>725</v>
       </c>
@@ -15440,7 +15441,7 @@
       </c>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>727</v>
       </c>
@@ -15485,7 +15486,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>729</v>
       </c>
@@ -15528,7 +15529,7 @@
       </c>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>732</v>
       </c>
@@ -15571,7 +15572,7 @@
       </c>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>736</v>
       </c>
@@ -15614,7 +15615,7 @@
       </c>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>737</v>
       </c>
@@ -15657,7 +15658,7 @@
       </c>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>738</v>
       </c>
@@ -15700,7 +15701,7 @@
       </c>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>740</v>
       </c>
@@ -15743,7 +15744,7 @@
       </c>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>741</v>
       </c>
@@ -15788,7 +15789,7 @@
       </c>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>742</v>
       </c>
@@ -15833,7 +15834,7 @@
       </c>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>744</v>
       </c>
@@ -15878,7 +15879,7 @@
       </c>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>745</v>
       </c>
@@ -15921,7 +15922,7 @@
       </c>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>749</v>
       </c>
@@ -15964,7 +15965,7 @@
       </c>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>750</v>
       </c>
@@ -16024,7 +16025,7 @@
         <v>707</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G133" s="30">
         <v>45</v>
@@ -16067,7 +16068,7 @@
         <v>753</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G134" s="30">
         <v>150</v>
@@ -16093,7 +16094,7 @@
       </c>
       <c r="O134" s="18"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>755</v>
       </c>
@@ -16136,7 +16137,7 @@
       </c>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>756</v>
       </c>
@@ -16181,7 +16182,7 @@
       </c>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>757</v>
       </c>
@@ -16226,7 +16227,7 @@
       </c>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>759</v>
       </c>
@@ -16269,7 +16270,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>760</v>
       </c>
@@ -16312,7 +16313,7 @@
       </c>
       <c r="O139" s="18"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>761</v>
       </c>
@@ -16355,7 +16356,7 @@
       </c>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>766</v>
       </c>
@@ -16398,7 +16399,7 @@
       </c>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>768</v>
       </c>
@@ -16441,7 +16442,7 @@
       </c>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>771</v>
       </c>
@@ -16486,7 +16487,7 @@
       </c>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>773</v>
       </c>
@@ -16531,7 +16532,7 @@
       </c>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>775</v>
       </c>
@@ -16574,7 +16575,7 @@
       </c>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>779</v>
       </c>
@@ -16617,7 +16618,7 @@
       </c>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>782</v>
       </c>
@@ -16660,7 +16661,7 @@
       </c>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>783</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>413</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G149" s="30">
         <v>55</v>
@@ -16763,7 +16764,7 @@
         <v>710</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G150" s="30">
         <v>45</v>
@@ -16789,7 +16790,7 @@
       </c>
       <c r="O150" s="18"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>786</v>
       </c>
@@ -16834,7 +16835,7 @@
       </c>
       <c r="O151" s="18"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>787</v>
       </c>
@@ -16877,7 +16878,7 @@
       </c>
       <c r="O152" s="18"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>788</v>
       </c>
@@ -16920,7 +16921,7 @@
       </c>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>790</v>
       </c>
@@ -16963,7 +16964,7 @@
       </c>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>791</v>
       </c>
@@ -17006,7 +17007,7 @@
       </c>
       <c r="O155" s="18"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>792</v>
       </c>
@@ -17049,7 +17050,7 @@
       </c>
       <c r="O156" s="18"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>793</v>
       </c>
@@ -17092,7 +17093,7 @@
       </c>
       <c r="O157" s="18"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>794</v>
       </c>
@@ -17135,7 +17136,7 @@
       </c>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>795</v>
       </c>
@@ -17178,7 +17179,7 @@
       </c>
       <c r="O159" s="18"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>797</v>
       </c>
@@ -17223,7 +17224,7 @@
       </c>
       <c r="O160" s="18"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>798</v>
       </c>
@@ -17266,7 +17267,7 @@
       </c>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>799</v>
       </c>
@@ -17309,7 +17310,7 @@
       </c>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>801</v>
       </c>
@@ -17352,7 +17353,7 @@
       </c>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>802</v>
       </c>
@@ -17395,7 +17396,7 @@
       </c>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>803</v>
       </c>
@@ -17438,7 +17439,7 @@
       </c>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>804</v>
       </c>
@@ -17481,7 +17482,7 @@
       </c>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>805</v>
       </c>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>806</v>
       </c>
@@ -17569,7 +17570,7 @@
       </c>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>809</v>
       </c>
@@ -17612,7 +17613,7 @@
       </c>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="18" t="s">
         <v>810</v>
       </c>
@@ -17655,7 +17656,7 @@
       </c>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>811</v>
       </c>
@@ -17698,7 +17699,7 @@
       </c>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>812</v>
       </c>
@@ -17741,7 +17742,7 @@
       </c>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>813</v>
       </c>
@@ -17784,7 +17785,7 @@
       </c>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>814</v>
       </c>
@@ -17827,7 +17828,7 @@
       </c>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>815</v>
       </c>
@@ -17870,7 +17871,7 @@
       </c>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>816</v>
       </c>
@@ -17913,7 +17914,7 @@
       </c>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>817</v>
       </c>
@@ -17956,7 +17957,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>820</v>
       </c>
@@ -17999,7 +18000,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>822</v>
       </c>
@@ -18042,7 +18043,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>823</v>
       </c>
@@ -18128,7 +18129,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>826</v>
       </c>
@@ -18171,7 +18172,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>827</v>
       </c>
@@ -18214,7 +18215,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>828</v>
       </c>
@@ -18257,7 +18258,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>829</v>
       </c>
@@ -18300,7 +18301,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>831</v>
       </c>
@@ -18343,7 +18344,7 @@
       </c>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>832</v>
       </c>
@@ -18386,7 +18387,7 @@
       </c>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>834</v>
       </c>
@@ -18429,7 +18430,7 @@
       </c>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>835</v>
       </c>
@@ -18472,7 +18473,7 @@
       </c>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>836</v>
       </c>
@@ -18517,7 +18518,7 @@
       </c>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>837</v>
       </c>
@@ -18562,7 +18563,7 @@
       </c>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>838</v>
       </c>
@@ -18605,7 +18606,7 @@
       </c>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>839</v>
       </c>
@@ -18648,7 +18649,7 @@
       </c>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>840</v>
       </c>
@@ -18691,7 +18692,7 @@
       </c>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>842</v>
       </c>
@@ -18734,7 +18735,7 @@
       </c>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>844</v>
       </c>
@@ -18777,7 +18778,7 @@
       </c>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>846</v>
       </c>
@@ -18820,7 +18821,7 @@
       </c>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>847</v>
       </c>
@@ -18863,7 +18864,7 @@
       </c>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>848</v>
       </c>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>849</v>
       </c>
@@ -18951,7 +18952,7 @@
       </c>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>850</v>
       </c>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>852</v>
       </c>
@@ -19041,7 +19042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>854</v>
       </c>
@@ -19086,7 +19087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>855</v>
       </c>
@@ -19129,7 +19130,7 @@
       </c>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>859</v>
       </c>
@@ -19172,7 +19173,7 @@
       </c>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>860</v>
       </c>
@@ -19217,7 +19218,7 @@
       </c>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>861</v>
       </c>
@@ -19262,7 +19263,7 @@
       </c>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>862</v>
       </c>
@@ -19307,7 +19308,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>864</v>
       </c>
@@ -19350,7 +19351,7 @@
       </c>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>866</v>
       </c>
@@ -19393,7 +19394,7 @@
       </c>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>868</v>
       </c>
@@ -19436,7 +19437,7 @@
       </c>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
         <v>870</v>
       </c>
@@ -19479,7 +19480,7 @@
       </c>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
         <v>871</v>
       </c>
@@ -19522,7 +19523,7 @@
       </c>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
         <v>873</v>
       </c>
@@ -19565,7 +19566,7 @@
       </c>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="18" t="s">
         <v>874</v>
       </c>
@@ -19608,7 +19609,7 @@
       </c>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="18" t="s">
         <v>875</v>
       </c>
@@ -19653,7 +19654,7 @@
       </c>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>876</v>
       </c>
@@ -19698,7 +19699,7 @@
       </c>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="18" t="s">
         <v>878</v>
       </c>
@@ -19743,7 +19744,7 @@
       </c>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="18" t="s">
         <v>879</v>
       </c>
@@ -19788,7 +19789,7 @@
       </c>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="18" t="s">
         <v>880</v>
       </c>
@@ -19833,7 +19834,7 @@
       </c>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>881</v>
       </c>
@@ -19876,7 +19877,7 @@
       </c>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="18" t="s">
         <v>884</v>
       </c>
@@ -19919,7 +19920,7 @@
       </c>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
         <v>886</v>
       </c>
@@ -19962,7 +19963,7 @@
       </c>
       <c r="O223" s="18"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="18" t="s">
         <v>887</v>
       </c>
@@ -20005,7 +20006,7 @@
       </c>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
         <v>889</v>
       </c>
@@ -20048,7 +20049,7 @@
       </c>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="18" t="s">
         <v>890</v>
       </c>
@@ -20093,7 +20094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
         <v>893</v>
       </c>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
         <v>894</v>
       </c>
@@ -20181,7 +20182,7 @@
       </c>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>895</v>
       </c>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
         <v>897</v>
       </c>
@@ -20269,7 +20270,7 @@
       </c>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>899</v>
       </c>
@@ -20312,7 +20313,7 @@
       </c>
       <c r="O231" s="18"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
         <v>900</v>
       </c>
@@ -20355,7 +20356,7 @@
       </c>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="18" t="s">
         <v>901</v>
       </c>
@@ -20398,7 +20399,7 @@
       </c>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="18" t="s">
         <v>902</v>
       </c>
@@ -20441,7 +20442,7 @@
       </c>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="18" t="s">
         <v>904</v>
       </c>
@@ -20484,7 +20485,7 @@
       </c>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>907</v>
       </c>
@@ -20527,7 +20528,7 @@
       </c>
       <c r="O236" s="18"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>908</v>
       </c>
@@ -20570,7 +20571,7 @@
       </c>
       <c r="O237" s="18"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>909</v>
       </c>
@@ -20613,7 +20614,7 @@
       </c>
       <c r="O238" s="18"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="18" t="s">
         <v>912</v>
       </c>
@@ -20656,7 +20657,7 @@
       </c>
       <c r="O239" s="18"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="18" t="s">
         <v>915</v>
       </c>
@@ -20699,7 +20700,7 @@
       </c>
       <c r="O240" s="18"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="18" t="s">
         <v>917</v>
       </c>
@@ -20742,7 +20743,7 @@
       </c>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
         <v>918</v>
       </c>
@@ -20785,7 +20786,7 @@
       </c>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="18" t="s">
         <v>919</v>
       </c>
@@ -20830,7 +20831,7 @@
       </c>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="18" t="s">
         <v>920</v>
       </c>
@@ -20873,7 +20874,7 @@
       </c>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="18" t="s">
         <v>921</v>
       </c>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="O245" s="18"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="18" t="s">
         <v>922</v>
       </c>
@@ -20959,7 +20960,7 @@
       </c>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="18" t="s">
         <v>923</v>
       </c>
@@ -21004,7 +21005,7 @@
       </c>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="18" t="s">
         <v>925</v>
       </c>
@@ -21047,7 +21048,7 @@
       </c>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>927</v>
       </c>
@@ -21090,7 +21091,7 @@
       </c>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>928</v>
       </c>
@@ -21135,7 +21136,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>929</v>
       </c>
@@ -21178,7 +21179,7 @@
       </c>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="18" t="s">
         <v>931</v>
       </c>
@@ -21221,7 +21222,7 @@
       </c>
       <c r="O252" s="18"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="18" t="s">
         <v>933</v>
       </c>
@@ -21264,7 +21265,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>934</v>
       </c>
@@ -21307,7 +21308,7 @@
       </c>
       <c r="O254" s="18"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>936</v>
       </c>
@@ -21350,7 +21351,7 @@
       </c>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="18" t="s">
         <v>937</v>
       </c>
@@ -21393,7 +21394,7 @@
       </c>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="18" t="s">
         <v>938</v>
       </c>
@@ -21438,7 +21439,7 @@
       </c>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
         <v>939</v>
       </c>
@@ -21483,7 +21484,7 @@
       </c>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="18" t="s">
         <v>940</v>
       </c>
@@ -21526,7 +21527,7 @@
       </c>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="18" t="s">
         <v>943</v>
       </c>
@@ -21571,7 +21572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="18" t="s">
         <v>945</v>
       </c>
@@ -21614,7 +21615,7 @@
       </c>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="18" t="s">
         <v>946</v>
       </c>
@@ -21700,7 +21701,7 @@
       </c>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="18" t="s">
         <v>948</v>
       </c>
@@ -21745,7 +21746,7 @@
       </c>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="18" t="s">
         <v>949</v>
       </c>
@@ -21790,7 +21791,7 @@
       </c>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="18" t="s">
         <v>950</v>
       </c>
@@ -21833,7 +21834,7 @@
       </c>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="18" t="s">
         <v>954</v>
       </c>
@@ -21876,7 +21877,7 @@
       </c>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="18" t="s">
         <v>957</v>
       </c>
@@ -21919,7 +21920,7 @@
       </c>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="18" t="s">
         <v>960</v>
       </c>
@@ -21962,7 +21963,7 @@
       </c>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="18" t="s">
         <v>963</v>
       </c>
@@ -22005,7 +22006,7 @@
       </c>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>965</v>
       </c>
@@ -22050,7 +22051,7 @@
       </c>
       <c r="O271" s="18"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="18" t="s">
         <v>967</v>
       </c>
@@ -22095,7 +22096,7 @@
       </c>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="18" t="s">
         <v>969</v>
       </c>
@@ -22140,7 +22141,7 @@
       </c>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="18" t="s">
         <v>971</v>
       </c>
@@ -22185,7 +22186,7 @@
       </c>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="18" t="s">
         <v>973</v>
       </c>
@@ -22228,7 +22229,7 @@
       </c>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
         <v>975</v>
       </c>
@@ -22271,7 +22272,7 @@
       </c>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
         <v>977</v>
       </c>
@@ -22314,7 +22315,7 @@
       </c>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
         <v>979</v>
       </c>
@@ -22357,7 +22358,7 @@
       </c>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
         <v>980</v>
       </c>
@@ -22402,7 +22403,7 @@
       </c>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
         <v>981</v>
       </c>
@@ -22447,7 +22448,7 @@
       </c>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>982</v>
       </c>
@@ -22492,7 +22493,7 @@
       </c>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="18" t="s">
         <v>984</v>
       </c>
@@ -22537,7 +22538,7 @@
       </c>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>986</v>
       </c>
@@ -22580,7 +22581,7 @@
       </c>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>987</v>
       </c>
@@ -22623,7 +22624,7 @@
       </c>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="18" t="s">
         <v>988</v>
       </c>
@@ -22666,7 +22667,7 @@
       </c>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="18" t="s">
         <v>991</v>
       </c>
@@ -22709,7 +22710,7 @@
       </c>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="18" t="s">
         <v>993</v>
       </c>
@@ -22752,7 +22753,7 @@
       </c>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="18" t="s">
         <v>994</v>
       </c>
@@ -22795,7 +22796,7 @@
       </c>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="18" t="s">
         <v>995</v>
       </c>
@@ -22838,7 +22839,7 @@
       </c>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="18" t="s">
         <v>996</v>
       </c>
@@ -22883,7 +22884,7 @@
       </c>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="18" t="s">
         <v>997</v>
       </c>
@@ -22928,7 +22929,7 @@
       </c>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="18" t="s">
         <v>998</v>
       </c>
@@ -22973,7 +22974,7 @@
       </c>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>999</v>
       </c>
@@ -23018,7 +23019,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>1000</v>
       </c>
@@ -23061,7 +23062,7 @@
       </c>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="18" t="s">
         <v>1003</v>
       </c>
@@ -23104,7 +23105,7 @@
       </c>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="18" t="s">
         <v>1004</v>
       </c>
@@ -23147,7 +23148,7 @@
       </c>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="18" t="s">
         <v>1005</v>
       </c>
@@ -23190,7 +23191,7 @@
       </c>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="18" t="s">
         <v>1006</v>
       </c>
@@ -23235,7 +23236,7 @@
       </c>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
         <v>1007</v>
       </c>
@@ -23280,7 +23281,7 @@
       </c>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>1008</v>
       </c>
@@ -23325,7 +23326,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1009</v>
       </c>
@@ -23368,7 +23369,7 @@
       </c>
       <c r="O301" s="18"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
         <v>1012</v>
       </c>
@@ -23411,7 +23412,7 @@
       </c>
       <c r="O302" s="18"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
         <v>1016</v>
       </c>
@@ -23454,7 +23455,7 @@
       </c>
       <c r="O303" s="18"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="18" t="s">
         <v>1019</v>
       </c>
@@ -23499,7 +23500,7 @@
       </c>
       <c r="O304" s="18"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="18" t="s">
         <v>1021</v>
       </c>
@@ -23544,7 +23545,7 @@
       </c>
       <c r="O305" s="18"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="18" t="s">
         <v>1023</v>
       </c>
@@ -23587,7 +23588,7 @@
       </c>
       <c r="O306" s="18"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>1024</v>
       </c>
@@ -23630,7 +23631,7 @@
       </c>
       <c r="O307" s="18"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
         <v>1025</v>
       </c>
@@ -23673,7 +23674,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1026</v>
       </c>
@@ -23716,7 +23717,7 @@
       </c>
       <c r="O309" s="18"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="18" t="s">
         <v>1028</v>
       </c>
@@ -23759,7 +23760,7 @@
       </c>
       <c r="O310" s="18"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="18" t="s">
         <v>1029</v>
       </c>
@@ -23802,7 +23803,7 @@
       </c>
       <c r="O311" s="18"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="18" t="s">
         <v>1030</v>
       </c>
@@ -23845,7 +23846,7 @@
       </c>
       <c r="O312" s="18"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="18" t="s">
         <v>1031</v>
       </c>
@@ -23888,7 +23889,7 @@
       </c>
       <c r="O313" s="18"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="18" t="s">
         <v>1032</v>
       </c>
@@ -23931,7 +23932,7 @@
       </c>
       <c r="O314" s="18"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="18" t="s">
         <v>1033</v>
       </c>
@@ -23976,7 +23977,7 @@
       </c>
       <c r="O315" s="18"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="18" t="s">
         <v>1034</v>
       </c>
@@ -24021,7 +24022,7 @@
       </c>
       <c r="O316" s="18"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="18" t="s">
         <v>1035</v>
       </c>
@@ -24066,7 +24067,7 @@
       </c>
       <c r="O317" s="18"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="18" t="s">
         <v>1036</v>
       </c>
@@ -24111,7 +24112,7 @@
       </c>
       <c r="O318" s="18"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="18" t="s">
         <v>1037</v>
       </c>
@@ -24156,7 +24157,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>1038</v>
       </c>
@@ -24199,7 +24200,7 @@
       </c>
       <c r="O320" s="18"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>1039</v>
       </c>
@@ -24242,7 +24243,7 @@
       </c>
       <c r="O321" s="18"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="18" t="s">
         <v>1040</v>
       </c>
@@ -24285,7 +24286,7 @@
       </c>
       <c r="O322" s="18"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="18" t="s">
         <v>1041</v>
       </c>
@@ -24328,7 +24329,7 @@
       </c>
       <c r="O323" s="18"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>1042</v>
       </c>
@@ -24371,7 +24372,7 @@
       </c>
       <c r="O324" s="18"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="18" t="s">
         <v>1043</v>
       </c>
@@ -24414,7 +24415,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>1044</v>
       </c>
@@ -24457,7 +24458,7 @@
       </c>
       <c r="O326" s="18"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="18" t="s">
         <v>1045</v>
       </c>
@@ -24500,7 +24501,7 @@
       </c>
       <c r="O327" s="18"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="18" t="s">
         <v>1046</v>
       </c>
@@ -24543,7 +24544,7 @@
       </c>
       <c r="O328" s="18"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="18" t="s">
         <v>1047</v>
       </c>
@@ -24588,7 +24589,7 @@
       </c>
       <c r="O329" s="18"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="18" t="s">
         <v>1048</v>
       </c>
@@ -24633,7 +24634,7 @@
       </c>
       <c r="O330" s="18"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="18" t="s">
         <v>1049</v>
       </c>
@@ -24676,7 +24677,7 @@
       </c>
       <c r="O331" s="18"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1052</v>
       </c>
@@ -24719,7 +24720,7 @@
       </c>
       <c r="O332" s="18"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>1053</v>
       </c>
@@ -24762,7 +24763,7 @@
       </c>
       <c r="O333" s="18"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="18" t="s">
         <v>1054</v>
       </c>
@@ -24805,7 +24806,7 @@
       </c>
       <c r="O334" s="18"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="18" t="s">
         <v>1055</v>
       </c>
@@ -24850,7 +24851,7 @@
       </c>
       <c r="O335" s="18"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="18" t="s">
         <v>1056</v>
       </c>
@@ -24893,7 +24894,7 @@
       </c>
       <c r="O336" s="18"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>1057</v>
       </c>
@@ -24936,7 +24937,7 @@
       </c>
       <c r="O337" s="18"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="18" t="s">
         <v>1058</v>
       </c>
@@ -24979,7 +24980,7 @@
       </c>
       <c r="O338" s="18"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="18" t="s">
         <v>1059</v>
       </c>
@@ -25024,7 +25025,7 @@
       </c>
       <c r="O339" s="18"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="18" t="s">
         <v>1060</v>
       </c>
@@ -25067,7 +25068,7 @@
       </c>
       <c r="O340" s="18"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="18" t="s">
         <v>1062</v>
       </c>
@@ -25110,7 +25111,7 @@
       </c>
       <c r="O341" s="18"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="18" t="s">
         <v>1063</v>
       </c>
@@ -25153,7 +25154,7 @@
       </c>
       <c r="O342" s="18"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="18" t="s">
         <v>1064</v>
       </c>
@@ -25198,7 +25199,7 @@
       </c>
       <c r="O343" s="18"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="18" t="s">
         <v>1066</v>
       </c>
@@ -25241,7 +25242,7 @@
       </c>
       <c r="O344" s="18"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="18" t="s">
         <v>1069</v>
       </c>
@@ -25284,7 +25285,7 @@
       </c>
       <c r="O345" s="18"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="18" t="s">
         <v>1071</v>
       </c>
@@ -25327,7 +25328,7 @@
       </c>
       <c r="O346" s="18"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="18" t="s">
         <v>1072</v>
       </c>
@@ -25370,7 +25371,7 @@
       </c>
       <c r="O347" s="18"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="18" t="s">
         <v>1073</v>
       </c>
@@ -25413,7 +25414,7 @@
       </c>
       <c r="O348" s="18"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="18" t="s">
         <v>1075</v>
       </c>
@@ -25458,7 +25459,7 @@
       </c>
       <c r="O349" s="18"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="18" t="s">
         <v>1076</v>
       </c>
@@ -25503,7 +25504,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1077</v>
       </c>
@@ -25546,7 +25547,7 @@
       </c>
       <c r="O351" s="18"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="18" t="s">
         <v>1081</v>
       </c>
@@ -25589,7 +25590,7 @@
       </c>
       <c r="O352" s="18"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="18" t="s">
         <v>1084</v>
       </c>
@@ -25632,7 +25633,7 @@
       </c>
       <c r="O353" s="18"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="18" t="s">
         <v>1087</v>
       </c>
@@ -25677,7 +25678,7 @@
       </c>
       <c r="O354" s="18"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="18" t="s">
         <v>1089</v>
       </c>
@@ -25720,7 +25721,7 @@
       </c>
       <c r="O355" s="18"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="18" t="s">
         <v>1091</v>
       </c>
@@ -25765,7 +25766,7 @@
       </c>
       <c r="O356" s="18"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="18" t="s">
         <v>1092</v>
       </c>
@@ -25810,7 +25811,7 @@
       </c>
       <c r="O357" s="18"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="18" t="s">
         <v>1728</v>
       </c>
@@ -25853,7 +25854,7 @@
       </c>
       <c r="O358" s="18"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>1731</v>
       </c>
@@ -25896,7 +25897,7 @@
       </c>
       <c r="O359" s="18"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>1734</v>
       </c>
@@ -25939,7 +25940,7 @@
       </c>
       <c r="O360" s="18"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="18" t="s">
         <v>1737</v>
       </c>
@@ -25982,7 +25983,7 @@
       </c>
       <c r="O361" s="18"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="18" t="s">
         <v>1739</v>
       </c>
@@ -26025,7 +26026,7 @@
       </c>
       <c r="O362" s="18"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="18" t="s">
         <v>1741</v>
       </c>
@@ -26068,7 +26069,7 @@
       </c>
       <c r="O363" s="18"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="18" t="s">
         <v>1742</v>
       </c>
@@ -26113,7 +26114,7 @@
       </c>
       <c r="O364" s="18"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="18" t="s">
         <v>1743</v>
       </c>
@@ -26158,7 +26159,7 @@
       </c>
       <c r="O365" s="18"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="18" t="s">
         <v>1744</v>
       </c>
@@ -26203,7 +26204,7 @@
       </c>
       <c r="O366" s="18"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="18" t="s">
         <v>1745</v>
       </c>
@@ -26248,7 +26249,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>1746</v>
       </c>
@@ -26291,7 +26292,7 @@
       </c>
       <c r="O368" s="18"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="18" t="s">
         <v>1747</v>
       </c>
@@ -26334,7 +26335,7 @@
       </c>
       <c r="O369" s="18"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="18" t="s">
         <v>1748</v>
       </c>
@@ -26379,7 +26380,7 @@
       </c>
       <c r="O370" s="18"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="18" t="s">
         <v>1749</v>
       </c>
@@ -26424,7 +26425,7 @@
       </c>
       <c r="O371" s="18"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="18" t="s">
         <v>1750</v>
       </c>
@@ -26469,7 +26470,7 @@
       </c>
       <c r="O372" s="18"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="18" t="s">
         <v>1751</v>
       </c>
@@ -26512,7 +26513,7 @@
       </c>
       <c r="O373" s="18"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="18" t="s">
         <v>1752</v>
       </c>
@@ -26557,7 +26558,7 @@
       </c>
       <c r="O374" s="18"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="18" t="s">
         <v>1753</v>
       </c>
@@ -26600,7 +26601,7 @@
       </c>
       <c r="O375" s="18"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="18" t="s">
         <v>1756</v>
       </c>
@@ -26645,7 +26646,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>1758</v>
       </c>
@@ -26688,7 +26689,7 @@
       </c>
       <c r="O377" s="18"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="18" t="s">
         <v>1761</v>
       </c>
@@ -26731,7 +26732,7 @@
       </c>
       <c r="O378" s="18"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="18" t="s">
         <v>1764</v>
       </c>
@@ -26776,7 +26777,7 @@
       </c>
       <c r="O379" s="18"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="18" t="s">
         <v>1766</v>
       </c>
@@ -26821,7 +26822,7 @@
       </c>
       <c r="O380" s="18"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="18" t="s">
         <v>1768</v>
       </c>
@@ -26866,7 +26867,7 @@
       </c>
       <c r="O381" s="18"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="18" t="s">
         <v>1904</v>
       </c>
@@ -26909,7 +26910,7 @@
       </c>
       <c r="O382" s="18"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>1908</v>
       </c>
@@ -26952,7 +26953,7 @@
       </c>
       <c r="O383" s="18"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="18" t="s">
         <v>1910</v>
       </c>
@@ -26995,7 +26996,7 @@
       </c>
       <c r="O384" s="18"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="18" t="s">
         <v>1912</v>
       </c>
@@ -27038,7 +27039,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>1914</v>
       </c>
@@ -27081,7 +27082,7 @@
       </c>
       <c r="O386" s="18"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="18" t="s">
         <v>1916</v>
       </c>
@@ -27124,7 +27125,7 @@
       </c>
       <c r="O387" s="18"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="18" t="s">
         <v>1919</v>
       </c>
@@ -27169,7 +27170,7 @@
       </c>
       <c r="O388" s="18"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="18" t="s">
         <v>1921</v>
       </c>
@@ -27214,7 +27215,7 @@
       </c>
       <c r="O389" s="18"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="18" t="s">
         <v>1923</v>
       </c>
@@ -27259,7 +27260,7 @@
       </c>
       <c r="O390" s="18"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="18" t="s">
         <v>1925</v>
       </c>
@@ -27304,7 +27305,7 @@
       </c>
       <c r="O391" s="18"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="18" t="s">
         <v>1927</v>
       </c>
@@ -27349,7 +27350,7 @@
       </c>
       <c r="O392" s="18"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="18" t="s">
         <v>1929</v>
       </c>
@@ -27394,7 +27395,7 @@
       </c>
       <c r="O393" s="18"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="18" t="s">
         <v>1931</v>
       </c>
@@ -27437,7 +27438,7 @@
       </c>
       <c r="O394" s="18"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="18" t="s">
         <v>1933</v>
       </c>
@@ -27480,7 +27481,7 @@
       </c>
       <c r="O395" s="18"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="18" t="s">
         <v>1936</v>
       </c>
@@ -27523,7 +27524,7 @@
       </c>
       <c r="O396" s="18"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="18" t="s">
         <v>1937</v>
       </c>
@@ -27566,7 +27567,7 @@
       </c>
       <c r="O397" s="18"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="18" t="s">
         <v>1939</v>
       </c>
@@ -27611,7 +27612,7 @@
       </c>
       <c r="O398" s="18"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>1940</v>
       </c>
@@ -27656,7 +27657,7 @@
       </c>
       <c r="O399" s="18"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="18" t="s">
         <v>1942</v>
       </c>
@@ -27701,7 +27702,7 @@
       </c>
       <c r="O400" s="18"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
         <v>2543</v>
       </c>
@@ -27746,7 +27747,7 @@
       </c>
       <c r="O401" s="18"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>1944</v>
       </c>
@@ -27791,7 +27792,7 @@
       </c>
       <c r="O402" s="18"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>1946</v>
       </c>
@@ -27836,7 +27837,7 @@
       </c>
       <c r="O403" s="18"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>1948</v>
       </c>
@@ -27879,7 +27880,7 @@
       </c>
       <c r="O404" s="18"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>1951</v>
       </c>
@@ -27922,7 +27923,7 @@
       </c>
       <c r="O405" s="18"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>1953</v>
       </c>
@@ -27965,7 +27966,7 @@
       </c>
       <c r="O406" s="18"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>1954</v>
       </c>
@@ -28008,7 +28009,7 @@
       </c>
       <c r="O407" s="18"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>1956</v>
       </c>
@@ -28051,7 +28052,7 @@
       </c>
       <c r="O408" s="18"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>1958</v>
       </c>
@@ -28094,7 +28095,7 @@
       </c>
       <c r="O409" s="18"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>1960</v>
       </c>
@@ -28137,7 +28138,7 @@
       </c>
       <c r="O410" s="18"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>1961</v>
       </c>
@@ -28182,7 +28183,7 @@
       </c>
       <c r="O411" s="18"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>1962</v>
       </c>
@@ -28227,7 +28228,7 @@
       </c>
       <c r="O412" s="18"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>1963</v>
       </c>
@@ -28272,7 +28273,7 @@
       </c>
       <c r="O413" s="18"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>1965</v>
       </c>
@@ -28315,7 +28316,7 @@
       </c>
       <c r="O414" s="18"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>1969</v>
       </c>
@@ -28358,7 +28359,7 @@
       </c>
       <c r="O415" s="18"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>1971</v>
       </c>
@@ -28401,7 +28402,7 @@
       </c>
       <c r="O416" s="18"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>1974</v>
       </c>
@@ -28444,7 +28445,7 @@
       </c>
       <c r="O417" s="18"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>1976</v>
       </c>
@@ -28487,7 +28488,7 @@
       </c>
       <c r="O418" s="18"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>1977</v>
       </c>
@@ -28530,7 +28531,7 @@
       </c>
       <c r="O419" s="18"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>1979</v>
       </c>
@@ -28573,7 +28574,7 @@
       </c>
       <c r="O420" s="18"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>1981</v>
       </c>
@@ -28616,7 +28617,7 @@
       </c>
       <c r="O421" s="18"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>1983</v>
       </c>
@@ -28659,7 +28660,7 @@
       </c>
       <c r="O422" s="18"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>1985</v>
       </c>
@@ -28702,7 +28703,7 @@
       </c>
       <c r="O423" s="18"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>1986</v>
       </c>
@@ -28745,7 +28746,7 @@
       </c>
       <c r="O424" s="18"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>1987</v>
       </c>
@@ -28788,7 +28789,7 @@
       </c>
       <c r="O425" s="18"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>1988</v>
       </c>
@@ -28833,7 +28834,7 @@
       </c>
       <c r="O426" s="18"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>1989</v>
       </c>
@@ -28878,7 +28879,7 @@
       </c>
       <c r="O427" s="18"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>1990</v>
       </c>
@@ -28923,7 +28924,7 @@
       </c>
       <c r="O428" s="18"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>1991</v>
       </c>
@@ -28968,7 +28969,7 @@
       </c>
       <c r="O429" s="18"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>1992</v>
       </c>
@@ -29013,7 +29014,7 @@
       </c>
       <c r="O430" s="18"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>1993</v>
       </c>
@@ -29056,7 +29057,7 @@
       </c>
       <c r="O431" s="18"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>1996</v>
       </c>
@@ -29099,7 +29100,7 @@
       </c>
       <c r="O432" s="18"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>1998</v>
       </c>
@@ -29142,7 +29143,7 @@
       </c>
       <c r="O433" s="18"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>2001</v>
       </c>
@@ -29185,7 +29186,7 @@
       </c>
       <c r="O434" s="18"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>2003</v>
       </c>
@@ -29228,7 +29229,7 @@
       </c>
       <c r="O435" s="18"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>2005</v>
       </c>
@@ -29271,7 +29272,7 @@
       </c>
       <c r="O436" s="18"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>2007</v>
       </c>
@@ -29314,7 +29315,7 @@
       </c>
       <c r="O437" s="18"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>2011</v>
       </c>
@@ -29357,7 +29358,7 @@
       </c>
       <c r="O438" s="18"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>2013</v>
       </c>
@@ -29400,7 +29401,7 @@
       </c>
       <c r="O439" s="18"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>2016</v>
       </c>
@@ -29443,7 +29444,7 @@
       </c>
       <c r="O440" s="18"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>2020</v>
       </c>
@@ -29486,7 +29487,7 @@
       </c>
       <c r="O441" s="18"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>2024</v>
       </c>
@@ -29529,7 +29530,7 @@
       </c>
       <c r="O442" s="18"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>2026</v>
       </c>
@@ -29572,7 +29573,7 @@
       </c>
       <c r="O443" s="18"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>2028</v>
       </c>
@@ -29615,7 +29616,7 @@
       </c>
       <c r="O444" s="18"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>2031</v>
       </c>
@@ -29658,7 +29659,7 @@
       </c>
       <c r="O445" s="18"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>2033</v>
       </c>
@@ -29701,7 +29702,7 @@
       </c>
       <c r="O446" s="18"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>2035</v>
       </c>
@@ -29744,7 +29745,7 @@
       </c>
       <c r="O447" s="18"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="18" t="s">
         <v>2037</v>
       </c>
@@ -29787,7 +29788,7 @@
       </c>
       <c r="O448" s="18"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="18" t="s">
         <v>2040</v>
       </c>
@@ -29830,7 +29831,7 @@
       </c>
       <c r="O449" s="18"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="18" t="s">
         <v>2042</v>
       </c>
@@ -29873,7 +29874,7 @@
       </c>
       <c r="O450" s="18"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="18" t="s">
         <v>2044</v>
       </c>
@@ -29916,7 +29917,7 @@
       </c>
       <c r="O451" s="18"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="18" t="s">
         <v>2046</v>
       </c>
@@ -29959,7 +29960,7 @@
       </c>
       <c r="O452" s="18"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="18" t="s">
         <v>2048</v>
       </c>
@@ -30002,7 +30003,7 @@
       </c>
       <c r="O453" s="18"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="18" t="s">
         <v>2050</v>
       </c>
@@ -30045,7 +30046,7 @@
       </c>
       <c r="O454" s="18"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="18" t="s">
         <v>2052</v>
       </c>
@@ -30088,7 +30089,7 @@
       </c>
       <c r="O455" s="18"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="18" t="s">
         <v>2053</v>
       </c>
@@ -30131,7 +30132,7 @@
       </c>
       <c r="O456" s="18"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="18" t="s">
         <v>2054</v>
       </c>
@@ -30174,7 +30175,7 @@
       </c>
       <c r="O457" s="18"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="18" t="s">
         <v>2056</v>
       </c>
@@ -30219,7 +30220,7 @@
       </c>
       <c r="O458" s="18"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>2057</v>
       </c>
@@ -30262,7 +30263,7 @@
       </c>
       <c r="O459" s="18"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="18" t="s">
         <v>2060</v>
       </c>
@@ -30305,7 +30306,7 @@
       </c>
       <c r="O460" s="18"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="18" t="s">
         <v>2062</v>
       </c>
@@ -30348,7 +30349,7 @@
       </c>
       <c r="O461" s="18"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="18" t="s">
         <v>2064</v>
       </c>
@@ -30391,7 +30392,7 @@
       </c>
       <c r="O462" s="18"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="18" t="s">
         <v>2066</v>
       </c>
@@ -30434,7 +30435,7 @@
       </c>
       <c r="O463" s="18"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="18" t="s">
         <v>2068</v>
       </c>
@@ -30477,7 +30478,7 @@
       </c>
       <c r="O464" s="18"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>2070</v>
       </c>
@@ -30520,7 +30521,7 @@
       </c>
       <c r="O465" s="18"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="18" t="s">
         <v>2072</v>
       </c>
@@ -30563,7 +30564,7 @@
       </c>
       <c r="O466" s="18"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="18" t="s">
         <v>2074</v>
       </c>
@@ -30608,7 +30609,7 @@
       </c>
       <c r="O467" s="18"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="18" t="s">
         <v>2076</v>
       </c>
@@ -30653,7 +30654,7 @@
       </c>
       <c r="O468" s="18"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="18" t="s">
         <v>2078</v>
       </c>
@@ -30696,7 +30697,7 @@
       </c>
       <c r="O469" s="18"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="18" t="s">
         <v>2081</v>
       </c>
@@ -30739,7 +30740,7 @@
       </c>
       <c r="O470" s="18"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="18" t="s">
         <v>2082</v>
       </c>
@@ -30782,7 +30783,7 @@
       </c>
       <c r="O471" s="18"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="18" t="s">
         <v>2084</v>
       </c>
@@ -30827,7 +30828,7 @@
       </c>
       <c r="O472" s="18"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="18" t="s">
         <v>2086</v>
       </c>
@@ -30872,7 +30873,7 @@
       </c>
       <c r="O473" s="18"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>2088</v>
       </c>
@@ -30917,7 +30918,7 @@
       </c>
       <c r="O474" s="18"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>2090</v>
       </c>
@@ -30960,7 +30961,7 @@
       </c>
       <c r="O475" s="18"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="18" t="s">
         <v>2092</v>
       </c>
@@ -31003,7 +31004,7 @@
       </c>
       <c r="O476" s="18"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="18" t="s">
         <v>2095</v>
       </c>
@@ -31046,7 +31047,7 @@
       </c>
       <c r="O477" s="18"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="18" t="s">
         <v>2096</v>
       </c>
@@ -31089,7 +31090,7 @@
       </c>
       <c r="O478" s="18"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="18" t="s">
         <v>2097</v>
       </c>
@@ -31132,7 +31133,7 @@
       </c>
       <c r="O479" s="18"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="18" t="s">
         <v>2098</v>
       </c>
@@ -31175,7 +31176,7 @@
       </c>
       <c r="O480" s="18"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="18" t="s">
         <v>2099</v>
       </c>
@@ -31218,7 +31219,7 @@
       </c>
       <c r="O481" s="18"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="18" t="s">
         <v>2100</v>
       </c>
@@ -31261,7 +31262,7 @@
       </c>
       <c r="O482" s="18"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="18" t="s">
         <v>2101</v>
       </c>
@@ -31304,7 +31305,7 @@
       </c>
       <c r="O483" s="18"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="18" t="s">
         <v>2102</v>
       </c>
@@ -31347,7 +31348,7 @@
       </c>
       <c r="O484" s="18"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="18" t="s">
         <v>2103</v>
       </c>
@@ -31390,7 +31391,7 @@
       </c>
       <c r="O485" s="18"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="18" t="s">
         <v>2104</v>
       </c>
@@ -31433,7 +31434,7 @@
       </c>
       <c r="O486" s="18"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="18" t="s">
         <v>2105</v>
       </c>
@@ -31476,7 +31477,7 @@
       </c>
       <c r="O487" s="18"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="18" t="s">
         <v>2106</v>
       </c>
@@ -31519,7 +31520,7 @@
       </c>
       <c r="O488" s="18"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="18" t="s">
         <v>2107</v>
       </c>
@@ -31562,7 +31563,7 @@
       </c>
       <c r="O489" s="18"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="18" t="s">
         <v>2108</v>
       </c>
@@ -31605,7 +31606,7 @@
       </c>
       <c r="O490" s="18"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="18" t="s">
         <v>2109</v>
       </c>
@@ -31650,7 +31651,7 @@
       </c>
       <c r="O491" s="18"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="18" t="s">
         <v>2110</v>
       </c>
@@ -31693,7 +31694,7 @@
       </c>
       <c r="O492" s="18"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="18" t="s">
         <v>2113</v>
       </c>
@@ -31736,7 +31737,7 @@
       </c>
       <c r="O493" s="18"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="18" t="s">
         <v>2116</v>
       </c>
@@ -31779,7 +31780,7 @@
       </c>
       <c r="O494" s="18"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="18" t="s">
         <v>2118</v>
       </c>
@@ -31822,7 +31823,7 @@
       </c>
       <c r="O495" s="18"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="18" t="s">
         <v>2120</v>
       </c>
@@ -31865,7 +31866,7 @@
       </c>
       <c r="O496" s="18"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="18" t="s">
         <v>2122</v>
       </c>
@@ -31908,7 +31909,7 @@
       </c>
       <c r="O497" s="18"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="18" t="s">
         <v>2124</v>
       </c>
@@ -31953,7 +31954,7 @@
       </c>
       <c r="O498" s="18"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="18" t="s">
         <v>2126</v>
       </c>
@@ -31996,7 +31997,7 @@
       </c>
       <c r="O499" s="18"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="18" t="s">
         <v>2127</v>
       </c>
@@ -32039,7 +32040,7 @@
       </c>
       <c r="O500" s="18"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="18" t="s">
         <v>2128</v>
       </c>
@@ -32082,7 +32083,7 @@
       </c>
       <c r="O501" s="18"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="18" t="s">
         <v>2129</v>
       </c>
@@ -32125,7 +32126,7 @@
       </c>
       <c r="O502" s="18"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="18" t="s">
         <v>2130</v>
       </c>
@@ -32168,7 +32169,7 @@
       </c>
       <c r="O503" s="18"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="18" t="s">
         <v>2132</v>
       </c>
@@ -32211,7 +32212,7 @@
       </c>
       <c r="O504" s="18"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="18" t="s">
         <v>2134</v>
       </c>
@@ -32254,7 +32255,7 @@
       </c>
       <c r="O505" s="18"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="18" t="s">
         <v>2136</v>
       </c>
@@ -32297,7 +32298,7 @@
       </c>
       <c r="O506" s="18"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="18" t="s">
         <v>2138</v>
       </c>
@@ -32340,7 +32341,7 @@
       </c>
       <c r="O507" s="18"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="18" t="s">
         <v>2140</v>
       </c>
@@ -32383,7 +32384,7 @@
       </c>
       <c r="O508" s="18"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="18" t="s">
         <v>2141</v>
       </c>
@@ -32426,7 +32427,7 @@
       </c>
       <c r="O509" s="18"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="18" t="s">
         <v>2142</v>
       </c>
@@ -32469,7 +32470,7 @@
       </c>
       <c r="O510" s="18"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="18" t="s">
         <v>2145</v>
       </c>
@@ -32514,7 +32515,7 @@
       </c>
       <c r="O511" s="18"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="18" t="s">
         <v>2147</v>
       </c>
@@ -32557,7 +32558,7 @@
       </c>
       <c r="O512" s="18"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="18" t="s">
         <v>2148</v>
       </c>
@@ -32600,7 +32601,7 @@
       </c>
       <c r="O513" s="18"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="18" t="s">
         <v>2151</v>
       </c>
@@ -32643,7 +32644,7 @@
       </c>
       <c r="O514" s="18"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="18" t="s">
         <v>2152</v>
       </c>
@@ -32688,7 +32689,7 @@
       </c>
       <c r="O515" s="18"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="18" t="s">
         <v>2153</v>
       </c>
@@ -32731,7 +32732,7 @@
       </c>
       <c r="O516" s="18"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="18" t="s">
         <v>2154</v>
       </c>
@@ -32774,7 +32775,7 @@
       </c>
       <c r="O517" s="18"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="18" t="s">
         <v>2156</v>
       </c>
@@ -32817,7 +32818,7 @@
       </c>
       <c r="O518" s="18"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="18" t="s">
         <v>2157</v>
       </c>
@@ -32860,7 +32861,7 @@
       </c>
       <c r="O519" s="18"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="18" t="s">
         <v>2158</v>
       </c>
@@ -32903,7 +32904,7 @@
       </c>
       <c r="O520" s="18"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="18" t="s">
         <v>2159</v>
       </c>
@@ -32946,7 +32947,7 @@
       </c>
       <c r="O521" s="18"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="18" t="s">
         <v>2160</v>
       </c>
@@ -32989,7 +32990,7 @@
       </c>
       <c r="O522" s="18"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="18" t="s">
         <v>2161</v>
       </c>
@@ -33032,7 +33033,7 @@
       </c>
       <c r="O523" s="18"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="18" t="s">
         <v>2162</v>
       </c>
@@ -33077,7 +33078,7 @@
       </c>
       <c r="O524" s="18"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="18" t="s">
         <v>2163</v>
       </c>
@@ -33122,7 +33123,7 @@
       </c>
       <c r="O525" s="18"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="18" t="s">
         <v>2164</v>
       </c>
@@ -33165,7 +33166,7 @@
       </c>
       <c r="O526" s="18"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="18" t="s">
         <v>2165</v>
       </c>
@@ -33208,7 +33209,7 @@
       </c>
       <c r="O527" s="18"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="18" t="s">
         <v>2166</v>
       </c>
@@ -33253,7 +33254,7 @@
       </c>
       <c r="O528" s="18"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="18" t="s">
         <v>2167</v>
       </c>
@@ -33296,7 +33297,7 @@
       </c>
       <c r="O529" s="18"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="18" t="s">
         <v>2170</v>
       </c>
@@ -33339,7 +33340,7 @@
       </c>
       <c r="O530" s="18"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="18" t="s">
         <v>2172</v>
       </c>
@@ -33382,7 +33383,7 @@
       </c>
       <c r="O531" s="18"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="18" t="s">
         <v>2173</v>
       </c>
@@ -33425,7 +33426,7 @@
       </c>
       <c r="O532" s="18"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="18" t="s">
         <v>2175</v>
       </c>
@@ -33468,7 +33469,7 @@
       </c>
       <c r="O533" s="18"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33511,7 +33512,7 @@
       </c>
       <c r="O534" s="18"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="18" t="s">
         <v>2179</v>
       </c>
@@ -33556,7 +33557,7 @@
       </c>
       <c r="O535" s="18"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="18" t="s">
         <v>2181</v>
       </c>
@@ -33601,7 +33602,7 @@
       </c>
       <c r="O536" s="18"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="18" t="s">
         <v>2183</v>
       </c>
@@ -33646,7 +33647,7 @@
       </c>
       <c r="O537" s="18"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="18" t="s">
         <v>2185</v>
       </c>
@@ -33691,7 +33692,7 @@
       </c>
       <c r="O538" s="18"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="18" t="s">
         <v>2187</v>
       </c>
@@ -33734,7 +33735,7 @@
       </c>
       <c r="O539" s="18"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="18" t="s">
         <v>2189</v>
       </c>
@@ -33777,7 +33778,7 @@
       </c>
       <c r="O540" s="18"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="18" t="s">
         <v>2190</v>
       </c>
@@ -33820,7 +33821,7 @@
       </c>
       <c r="O541" s="18"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="18" t="s">
         <v>2191</v>
       </c>
@@ -33865,7 +33866,7 @@
       </c>
       <c r="O542" s="18"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="18" t="s">
         <v>2192</v>
       </c>
@@ -33908,7 +33909,7 @@
       </c>
       <c r="O543" s="18"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="18" t="s">
         <v>2193</v>
       </c>
@@ -33951,7 +33952,7 @@
       </c>
       <c r="O544" s="18"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="18" t="s">
         <v>2194</v>
       </c>
@@ -33994,7 +33995,7 @@
       </c>
       <c r="O545" s="18"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="18" t="s">
         <v>2195</v>
       </c>
@@ -34037,7 +34038,7 @@
       </c>
       <c r="O546" s="18"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="18" t="s">
         <v>2196</v>
       </c>
@@ -34080,7 +34081,7 @@
       </c>
       <c r="O547" s="18"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="18" t="s">
         <v>2197</v>
       </c>
@@ -34123,7 +34124,7 @@
       </c>
       <c r="O548" s="18"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="18" t="s">
         <v>2198</v>
       </c>
@@ -34166,7 +34167,7 @@
       </c>
       <c r="O549" s="18"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="18" t="s">
         <v>2199</v>
       </c>
@@ -34209,7 +34210,7 @@
       </c>
       <c r="O550" s="18"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="18" t="s">
         <v>2200</v>
       </c>
@@ -34252,7 +34253,7 @@
       </c>
       <c r="O551" s="18"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="18" t="s">
         <v>2201</v>
       </c>
@@ -34295,7 +34296,7 @@
       </c>
       <c r="O552" s="18"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="18" t="s">
         <v>2202</v>
       </c>
@@ -34338,7 +34339,7 @@
       </c>
       <c r="O553" s="18"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="18" t="s">
         <v>2203</v>
       </c>
@@ -34381,7 +34382,7 @@
       </c>
       <c r="O554" s="18"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="18" t="s">
         <v>2204</v>
       </c>
@@ -34424,7 +34425,7 @@
       </c>
       <c r="O555" s="18"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="18" t="s">
         <v>2205</v>
       </c>
@@ -34467,7 +34468,7 @@
       </c>
       <c r="O556" s="18"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="18" t="s">
         <v>2206</v>
       </c>
@@ -34510,7 +34511,7 @@
       </c>
       <c r="O557" s="18"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="18" t="s">
         <v>2208</v>
       </c>
@@ -34553,7 +34554,7 @@
       </c>
       <c r="O558" s="18"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="18" t="s">
         <v>2209</v>
       </c>
@@ -34596,7 +34597,7 @@
       </c>
       <c r="O559" s="18"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="18" t="s">
         <v>2210</v>
       </c>
@@ -34639,7 +34640,7 @@
       </c>
       <c r="O560" s="18"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="18" t="s">
         <v>2212</v>
       </c>
@@ -34682,7 +34683,7 @@
       </c>
       <c r="O561" s="18"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="18" t="s">
         <v>2214</v>
       </c>
@@ -34725,7 +34726,7 @@
       </c>
       <c r="O562" s="18"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="18" t="s">
         <v>2216</v>
       </c>
@@ -34768,7 +34769,7 @@
       </c>
       <c r="O563" s="18"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="18" t="s">
         <v>2218</v>
       </c>
@@ -34811,7 +34812,7 @@
       </c>
       <c r="O564" s="18"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="18" t="s">
         <v>2220</v>
       </c>
@@ -34854,7 +34855,7 @@
       </c>
       <c r="O565" s="18"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="18" t="s">
         <v>2222</v>
       </c>
@@ -34897,7 +34898,7 @@
       </c>
       <c r="O566" s="18"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="18" t="s">
         <v>2224</v>
       </c>
@@ -34940,7 +34941,7 @@
       </c>
       <c r="O567" s="18"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="18" t="s">
         <v>2226</v>
       </c>
@@ -34983,7 +34984,7 @@
       </c>
       <c r="O568" s="18"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="18" t="s">
         <v>2228</v>
       </c>
@@ -35026,7 +35027,7 @@
       </c>
       <c r="O569" s="18"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="18" t="s">
         <v>2230</v>
       </c>
@@ -35069,7 +35070,7 @@
       </c>
       <c r="O570" s="18"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="18" t="s">
         <v>2232</v>
       </c>
@@ -35112,7 +35113,7 @@
       </c>
       <c r="O571" s="18"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="18" t="s">
         <v>2234</v>
       </c>
@@ -35155,7 +35156,7 @@
       </c>
       <c r="O572" s="18"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="18" t="s">
         <v>2235</v>
       </c>
@@ -35200,7 +35201,7 @@
       </c>
       <c r="O573" s="18"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="18" t="s">
         <v>2236</v>
       </c>
@@ -35245,7 +35246,7 @@
       </c>
       <c r="O574" s="18"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="18" t="s">
         <v>2237</v>
       </c>
@@ -35288,7 +35289,7 @@
       </c>
       <c r="O575" s="18"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="18" t="s">
         <v>2238</v>
       </c>
@@ -35331,7 +35332,7 @@
       </c>
       <c r="O576" s="18"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="18" t="s">
         <v>2239</v>
       </c>
@@ -35374,7 +35375,7 @@
       </c>
       <c r="O577" s="18"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="18" t="s">
         <v>2240</v>
       </c>
@@ -35417,7 +35418,7 @@
       </c>
       <c r="O578" s="18"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="18" t="s">
         <v>2241</v>
       </c>
@@ -35462,7 +35463,7 @@
       </c>
       <c r="O579" s="18"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="18" t="s">
         <v>2242</v>
       </c>
@@ -35507,7 +35508,7 @@
       </c>
       <c r="O580" s="18"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="18" t="s">
         <v>2243</v>
       </c>
@@ -35550,7 +35551,7 @@
       </c>
       <c r="O581" s="18"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="18" t="s">
         <v>2244</v>
       </c>
@@ -35593,7 +35594,7 @@
       </c>
       <c r="O582" s="18"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="18" t="s">
         <v>2245</v>
       </c>
@@ -35636,7 +35637,7 @@
       </c>
       <c r="O583" s="18"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="18" t="s">
         <v>2246</v>
       </c>
@@ -35679,7 +35680,7 @@
       </c>
       <c r="O584" s="18"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="18" t="s">
         <v>2247</v>
       </c>
@@ -35722,7 +35723,7 @@
       </c>
       <c r="O585" s="18"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="18" t="s">
         <v>2248</v>
       </c>
@@ -35765,7 +35766,7 @@
       </c>
       <c r="O586" s="18"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="18" t="s">
         <v>2249</v>
       </c>
@@ -35808,7 +35809,7 @@
       </c>
       <c r="O587" s="18"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="18" t="s">
         <v>2250</v>
       </c>
@@ -35853,7 +35854,7 @@
       </c>
       <c r="O588" s="18"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="18" t="s">
         <v>2251</v>
       </c>
@@ -35896,7 +35897,7 @@
       </c>
       <c r="O589" s="18"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="18" t="s">
         <v>2252</v>
       </c>
@@ -35939,7 +35940,7 @@
       </c>
       <c r="O590" s="18"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="18" t="s">
         <v>2253</v>
       </c>
@@ -35982,7 +35983,7 @@
       </c>
       <c r="O591" s="18"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="18" t="s">
         <v>2255</v>
       </c>
@@ -36027,7 +36028,7 @@
       </c>
       <c r="O592" s="18"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="18" t="s">
         <v>2256</v>
       </c>
@@ -36072,7 +36073,7 @@
       </c>
       <c r="O593" s="18"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="18" t="s">
         <v>2257</v>
       </c>
@@ -36115,7 +36116,7 @@
       </c>
       <c r="O594" s="18"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="18" t="s">
         <v>2259</v>
       </c>
@@ -36158,7 +36159,7 @@
       </c>
       <c r="O595" s="18"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="18" t="s">
         <v>2260</v>
       </c>
@@ -36201,7 +36202,7 @@
       </c>
       <c r="O596" s="18"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="18" t="s">
         <v>2261</v>
       </c>
@@ -36244,7 +36245,7 @@
       </c>
       <c r="O597" s="18"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="18" t="s">
         <v>2262</v>
       </c>
@@ -36287,7 +36288,7 @@
       </c>
       <c r="O598" s="18"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="18" t="s">
         <v>2263</v>
       </c>
@@ -36330,7 +36331,7 @@
       </c>
       <c r="O599" s="18"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="18" t="s">
         <v>2264</v>
       </c>
@@ -36373,7 +36374,7 @@
       </c>
       <c r="O600" s="18"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="18" t="s">
         <v>2265</v>
       </c>
@@ -36416,7 +36417,7 @@
       </c>
       <c r="O601" s="18"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="18" t="s">
         <v>2267</v>
       </c>
@@ -36459,7 +36460,7 @@
       </c>
       <c r="O602" s="18"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="18" t="s">
         <v>2268</v>
       </c>
@@ -36502,7 +36503,7 @@
       </c>
       <c r="O603" s="18"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="18" t="s">
         <v>2269</v>
       </c>
@@ -36547,7 +36548,7 @@
       </c>
       <c r="O604" s="18"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="18" t="s">
         <v>2270</v>
       </c>
@@ -36592,7 +36593,7 @@
       </c>
       <c r="O605" s="18"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="18" t="s">
         <v>2271</v>
       </c>
@@ -36635,7 +36636,7 @@
       </c>
       <c r="O606" s="18"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="18" t="s">
         <v>2273</v>
       </c>
@@ -36678,7 +36679,7 @@
       </c>
       <c r="O607" s="18"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="18" t="s">
         <v>2274</v>
       </c>
@@ -36721,7 +36722,7 @@
       </c>
       <c r="O608" s="18"/>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="18" t="s">
         <v>2276</v>
       </c>
@@ -36764,7 +36765,7 @@
       </c>
       <c r="O609" s="18"/>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="18" t="s">
         <v>2277</v>
       </c>
@@ -36807,7 +36808,7 @@
       </c>
       <c r="O610" s="18"/>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="18" t="s">
         <v>2278</v>
       </c>
@@ -36850,7 +36851,7 @@
       </c>
       <c r="O611" s="18"/>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>2549</v>
       </c>
@@ -36891,7 +36892,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>2552</v>
       </c>
@@ -36932,7 +36933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>2554</v>
       </c>
@@ -36973,7 +36974,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>2556</v>
       </c>
@@ -37055,7 +37056,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>2559</v>
       </c>
@@ -37099,7 +37100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>2561</v>
       </c>
@@ -37140,7 +37141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>2562</v>
       </c>
@@ -37184,7 +37185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>2563</v>
       </c>
@@ -37228,7 +37229,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>2564</v>
       </c>
@@ -37269,7 +37270,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>2565</v>
       </c>
@@ -37310,7 +37311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>2566</v>
       </c>
@@ -37351,7 +37352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>2567</v>
       </c>
@@ -37392,7 +37393,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>2570</v>
       </c>
@@ -37433,7 +37434,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>2572</v>
       </c>
@@ -37474,7 +37475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>2573</v>
       </c>
@@ -37515,7 +37516,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>2576</v>
       </c>
@@ -37556,7 +37557,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>2577</v>
       </c>
@@ -37597,7 +37598,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>2580</v>
       </c>
@@ -37638,7 +37639,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>2582</v>
       </c>
@@ -37679,7 +37680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>2583</v>
       </c>
@@ -37720,7 +37721,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>2584</v>
       </c>
@@ -37764,7 +37765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>2585</v>
       </c>
@@ -37808,7 +37809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>2586</v>
       </c>
@@ -37852,7 +37853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>2587</v>
       </c>
@@ -37893,7 +37894,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>2591</v>
       </c>
@@ -37934,7 +37935,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>2593</v>
       </c>
@@ -37975,7 +37976,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>2595</v>
       </c>
@@ -38016,7 +38017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>2597</v>
       </c>
@@ -38057,7 +38058,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>2599</v>
       </c>
@@ -38098,7 +38099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>2601</v>
       </c>
@@ -38221,7 +38222,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>2609</v>
       </c>
@@ -38265,7 +38266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>2611</v>
       </c>
@@ -38309,7 +38310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>2613</v>
       </c>
@@ -38353,7 +38354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>2615</v>
       </c>
@@ -38397,7 +38398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>2617</v>
       </c>
@@ -38438,7 +38439,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>2618</v>
       </c>
@@ -38482,7 +38483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>2619</v>
       </c>
@@ -38523,7 +38524,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>2623</v>
       </c>
@@ -38564,7 +38565,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>2624</v>
       </c>
@@ -38605,7 +38606,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>2625</v>
       </c>
@@ -38646,7 +38647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>2626</v>
       </c>
@@ -38687,7 +38688,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>2627</v>
       </c>
@@ -38810,7 +38811,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>2632</v>
       </c>
@@ -38854,7 +38855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>2633</v>
       </c>
@@ -38898,7 +38899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>2634</v>
       </c>
@@ -38942,7 +38943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>2636</v>
       </c>
@@ -38986,7 +38987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>2637</v>
       </c>
@@ -39030,7 +39031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>2638</v>
       </c>
@@ -39071,7 +39072,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>2641</v>
       </c>
@@ -39112,7 +39113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>2642</v>
       </c>
@@ -39194,7 +39195,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>2644</v>
       </c>
@@ -39238,7 +39239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>2645</v>
       </c>
@@ -39282,7 +39283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>2646</v>
       </c>
@@ -39326,7 +39327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>2647</v>
       </c>
@@ -39370,7 +39371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>2649</v>
       </c>
@@ -39411,7 +39412,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>2651</v>
       </c>
@@ -39452,7 +39453,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>2653</v>
       </c>
@@ -39496,7 +39497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>2654</v>
       </c>
@@ -39540,7 +39541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>2655</v>
       </c>
@@ -39584,7 +39585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>2656</v>
       </c>
@@ -39625,7 +39626,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>2658</v>
       </c>
@@ -39666,7 +39667,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2659</v>
       </c>
@@ -39707,7 +39708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>2660</v>
       </c>
@@ -39748,7 +39749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>2661</v>
       </c>
@@ -39792,7 +39793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>2662</v>
       </c>
@@ -39836,7 +39837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>2663</v>
       </c>
@@ -39880,7 +39881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>2664</v>
       </c>
@@ -40681,7 +40682,13 @@
       <c r="M738" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Minor Hero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K606">
     <sortCondition ref="C2:C606"/>
     <sortCondition ref="F2:F606"/>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313DC0E6-1534-43CA-B0B6-2FE45D1B299E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61531AB0-0ADA-4BE8-9D4F-8C33D6507C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$547</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$O$684</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$843</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$845</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -10231,10 +10231,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F667" sqref="F667"/>
     </sheetView>
@@ -10305,7 +10304,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>138</v>
       </c>
@@ -10348,7 +10347,7 @@
       </c>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>141</v>
       </c>
@@ -10391,7 +10390,7 @@
       </c>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>142</v>
       </c>
@@ -10434,7 +10433,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>143</v>
       </c>
@@ -10477,7 +10476,7 @@
       </c>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>145</v>
       </c>
@@ -10520,7 +10519,7 @@
       </c>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>146</v>
       </c>
@@ -10606,7 +10605,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>148</v>
       </c>
@@ -10651,7 +10650,7 @@
       </c>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>149</v>
       </c>
@@ -10696,7 +10695,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>150</v>
       </c>
@@ -10741,7 +10740,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>245</v>
       </c>
@@ -10784,7 +10783,7 @@
       </c>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>251</v>
       </c>
@@ -10827,7 +10826,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>253</v>
       </c>
@@ -10870,7 +10869,7 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>255</v>
       </c>
@@ -10913,7 +10912,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>258</v>
       </c>
@@ -10958,7 +10957,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>260</v>
       </c>
@@ -11003,7 +11002,7 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>262</v>
       </c>
@@ -11048,7 +11047,7 @@
       </c>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>304</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>309</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>316</v>
       </c>
@@ -11181,7 +11180,7 @@
       </c>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>320</v>
       </c>
@@ -11224,7 +11223,7 @@
       </c>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>323</v>
       </c>
@@ -11267,7 +11266,7 @@
       </c>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>326</v>
       </c>
@@ -11310,7 +11309,7 @@
       </c>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>328</v>
       </c>
@@ -11355,7 +11354,7 @@
       </c>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>330</v>
       </c>
@@ -11400,7 +11399,7 @@
       </c>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>332</v>
       </c>
@@ -11443,7 +11442,7 @@
       </c>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>352</v>
       </c>
@@ -11486,7 +11485,7 @@
       </c>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>353</v>
       </c>
@@ -11529,7 +11528,7 @@
       </c>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>354</v>
       </c>
@@ -11572,7 +11571,7 @@
       </c>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>355</v>
       </c>
@@ -11615,7 +11614,7 @@
       </c>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>358</v>
       </c>
@@ -11658,7 +11657,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>361</v>
       </c>
@@ -11703,7 +11702,7 @@
       </c>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>362</v>
       </c>
@@ -11748,7 +11747,7 @@
       </c>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>363</v>
       </c>
@@ -11791,7 +11790,7 @@
       </c>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>365</v>
       </c>
@@ -11834,7 +11833,7 @@
       </c>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>368</v>
       </c>
@@ -11877,7 +11876,7 @@
       </c>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>1713</v>
       </c>
@@ -11920,7 +11919,7 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>370</v>
       </c>
@@ -11963,7 +11962,7 @@
       </c>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>373</v>
       </c>
@@ -12008,7 +12007,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>383</v>
       </c>
@@ -12051,7 +12050,7 @@
       </c>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>388</v>
       </c>
@@ -12094,7 +12093,7 @@
       </c>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>390</v>
       </c>
@@ -12137,7 +12136,7 @@
       </c>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>393</v>
       </c>
@@ -12182,7 +12181,7 @@
       </c>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>403</v>
       </c>
@@ -12225,7 +12224,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>407</v>
       </c>
@@ -12268,7 +12267,7 @@
       </c>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>410</v>
       </c>
@@ -12311,7 +12310,7 @@
       </c>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>412</v>
       </c>
@@ -12354,7 +12353,7 @@
       </c>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>414</v>
       </c>
@@ -12399,7 +12398,7 @@
       </c>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>415</v>
       </c>
@@ -12442,7 +12441,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>417</v>
       </c>
@@ -12485,7 +12484,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>500</v>
       </c>
@@ -12528,7 +12527,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>505</v>
       </c>
@@ -12571,7 +12570,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>508</v>
       </c>
@@ -12657,7 +12656,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>513</v>
       </c>
@@ -12702,7 +12701,7 @@
       </c>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>515</v>
       </c>
@@ -12747,7 +12746,7 @@
       </c>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>536</v>
       </c>
@@ -12790,7 +12789,7 @@
       </c>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>540</v>
       </c>
@@ -12833,7 +12832,7 @@
       </c>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>543</v>
       </c>
@@ -12876,7 +12875,7 @@
       </c>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>545</v>
       </c>
@@ -12921,7 +12920,7 @@
       </c>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>554</v>
       </c>
@@ -12964,7 +12963,7 @@
       </c>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>557</v>
       </c>
@@ -13007,7 +13006,7 @@
       </c>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>559</v>
       </c>
@@ -13050,7 +13049,7 @@
       </c>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>560</v>
       </c>
@@ -13093,7 +13092,7 @@
       </c>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>563</v>
       </c>
@@ -13138,7 +13137,7 @@
       </c>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>572</v>
       </c>
@@ -13181,7 +13180,7 @@
       </c>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>574</v>
       </c>
@@ -13224,7 +13223,7 @@
       </c>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>575</v>
       </c>
@@ -13267,7 +13266,7 @@
       </c>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>576</v>
       </c>
@@ -13310,7 +13309,7 @@
       </c>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>579</v>
       </c>
@@ -13353,7 +13352,7 @@
       </c>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>582</v>
       </c>
@@ -13396,7 +13395,7 @@
       </c>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>584</v>
       </c>
@@ -13439,7 +13438,7 @@
       </c>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>587</v>
       </c>
@@ -13482,7 +13481,7 @@
       </c>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>589</v>
       </c>
@@ -13525,7 +13524,7 @@
       </c>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>590</v>
       </c>
@@ -13570,7 +13569,7 @@
       </c>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>607</v>
       </c>
@@ -13613,7 +13612,7 @@
       </c>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>609</v>
       </c>
@@ -13656,7 +13655,7 @@
       </c>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>610</v>
       </c>
@@ -13699,7 +13698,7 @@
       </c>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>611</v>
       </c>
@@ -13742,7 +13741,7 @@
       </c>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>612</v>
       </c>
@@ -13787,7 +13786,7 @@
       </c>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>613</v>
       </c>
@@ -13832,7 +13831,7 @@
       </c>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>614</v>
       </c>
@@ -13875,7 +13874,7 @@
       </c>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>615</v>
       </c>
@@ -13918,7 +13917,7 @@
       </c>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>616</v>
       </c>
@@ -13961,7 +13960,7 @@
       </c>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>641</v>
       </c>
@@ -14004,7 +14003,7 @@
       </c>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>644</v>
       </c>
@@ -14047,7 +14046,7 @@
       </c>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>645</v>
       </c>
@@ -14090,7 +14089,7 @@
       </c>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>648</v>
       </c>
@@ -14133,7 +14132,7 @@
       </c>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>649</v>
       </c>
@@ -14178,7 +14177,7 @@
       </c>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>650</v>
       </c>
@@ -14223,7 +14222,7 @@
       </c>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>669</v>
       </c>
@@ -14266,7 +14265,7 @@
       </c>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>672</v>
       </c>
@@ -14309,7 +14308,7 @@
       </c>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>675</v>
       </c>
@@ -14352,7 +14351,7 @@
       </c>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>678</v>
       </c>
@@ -14395,7 +14394,7 @@
       </c>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>681</v>
       </c>
@@ -14438,7 +14437,7 @@
       </c>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>683</v>
       </c>
@@ -14481,7 +14480,7 @@
       </c>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>685</v>
       </c>
@@ -14567,7 +14566,7 @@
       </c>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>689</v>
       </c>
@@ -14612,7 +14611,7 @@
       </c>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>690</v>
       </c>
@@ -14657,7 +14656,7 @@
       </c>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>691</v>
       </c>
@@ -14702,7 +14701,7 @@
       </c>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>692</v>
       </c>
@@ -14745,7 +14744,7 @@
       </c>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>695</v>
       </c>
@@ -14788,7 +14787,7 @@
       </c>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>697</v>
       </c>
@@ -14833,7 +14832,7 @@
       </c>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>699</v>
       </c>
@@ -14878,7 +14877,7 @@
       </c>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>701</v>
       </c>
@@ -14921,7 +14920,7 @@
       </c>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>704</v>
       </c>
@@ -14964,7 +14963,7 @@
       </c>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>706</v>
       </c>
@@ -15007,7 +15006,7 @@
       </c>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>708</v>
       </c>
@@ -15050,7 +15049,7 @@
       </c>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>709</v>
       </c>
@@ -15093,7 +15092,7 @@
       </c>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>712</v>
       </c>
@@ -15136,7 +15135,7 @@
       </c>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>714</v>
       </c>
@@ -15181,7 +15180,7 @@
       </c>
       <c r="O113" s="18"/>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>716</v>
       </c>
@@ -15226,7 +15225,7 @@
       </c>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>717</v>
       </c>
@@ -15269,7 +15268,7 @@
       </c>
       <c r="O115" s="18"/>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>718</v>
       </c>
@@ -15312,7 +15311,7 @@
       </c>
       <c r="O116" s="18"/>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>720</v>
       </c>
@@ -15355,7 +15354,7 @@
       </c>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>723</v>
       </c>
@@ -15398,7 +15397,7 @@
       </c>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>725</v>
       </c>
@@ -15441,7 +15440,7 @@
       </c>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>727</v>
       </c>
@@ -15486,7 +15485,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>729</v>
       </c>
@@ -15529,7 +15528,7 @@
       </c>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>732</v>
       </c>
@@ -15572,7 +15571,7 @@
       </c>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>736</v>
       </c>
@@ -15615,7 +15614,7 @@
       </c>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>737</v>
       </c>
@@ -15658,7 +15657,7 @@
       </c>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>738</v>
       </c>
@@ -15701,7 +15700,7 @@
       </c>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>740</v>
       </c>
@@ -15744,7 +15743,7 @@
       </c>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>741</v>
       </c>
@@ -15789,7 +15788,7 @@
       </c>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>742</v>
       </c>
@@ -15834,7 +15833,7 @@
       </c>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>744</v>
       </c>
@@ -15879,7 +15878,7 @@
       </c>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>745</v>
       </c>
@@ -15922,7 +15921,7 @@
       </c>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>749</v>
       </c>
@@ -15965,7 +15964,7 @@
       </c>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>750</v>
       </c>
@@ -16094,7 +16093,7 @@
       </c>
       <c r="O134" s="18"/>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>755</v>
       </c>
@@ -16137,7 +16136,7 @@
       </c>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>756</v>
       </c>
@@ -16182,7 +16181,7 @@
       </c>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>757</v>
       </c>
@@ -16227,7 +16226,7 @@
       </c>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>759</v>
       </c>
@@ -16270,7 +16269,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>760</v>
       </c>
@@ -16313,7 +16312,7 @@
       </c>
       <c r="O139" s="18"/>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>761</v>
       </c>
@@ -16356,7 +16355,7 @@
       </c>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>766</v>
       </c>
@@ -16399,7 +16398,7 @@
       </c>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>768</v>
       </c>
@@ -16442,7 +16441,7 @@
       </c>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>771</v>
       </c>
@@ -16487,7 +16486,7 @@
       </c>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>773</v>
       </c>
@@ -16532,7 +16531,7 @@
       </c>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>775</v>
       </c>
@@ -16575,7 +16574,7 @@
       </c>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>779</v>
       </c>
@@ -16618,7 +16617,7 @@
       </c>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>782</v>
       </c>
@@ -16661,7 +16660,7 @@
       </c>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>783</v>
       </c>
@@ -16790,7 +16789,7 @@
       </c>
       <c r="O150" s="18"/>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>786</v>
       </c>
@@ -16835,7 +16834,7 @@
       </c>
       <c r="O151" s="18"/>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>787</v>
       </c>
@@ -16878,7 +16877,7 @@
       </c>
       <c r="O152" s="18"/>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>788</v>
       </c>
@@ -16921,7 +16920,7 @@
       </c>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>790</v>
       </c>
@@ -16964,7 +16963,7 @@
       </c>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>791</v>
       </c>
@@ -17007,7 +17006,7 @@
       </c>
       <c r="O155" s="18"/>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>792</v>
       </c>
@@ -17050,7 +17049,7 @@
       </c>
       <c r="O156" s="18"/>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>793</v>
       </c>
@@ -17093,7 +17092,7 @@
       </c>
       <c r="O157" s="18"/>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>794</v>
       </c>
@@ -17136,7 +17135,7 @@
       </c>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>795</v>
       </c>
@@ -17179,7 +17178,7 @@
       </c>
       <c r="O159" s="18"/>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>797</v>
       </c>
@@ -17224,7 +17223,7 @@
       </c>
       <c r="O160" s="18"/>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>798</v>
       </c>
@@ -17267,7 +17266,7 @@
       </c>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>799</v>
       </c>
@@ -17310,7 +17309,7 @@
       </c>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>801</v>
       </c>
@@ -17353,7 +17352,7 @@
       </c>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>802</v>
       </c>
@@ -17396,7 +17395,7 @@
       </c>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>803</v>
       </c>
@@ -17439,7 +17438,7 @@
       </c>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>804</v>
       </c>
@@ -17482,7 +17481,7 @@
       </c>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>805</v>
       </c>
@@ -17527,7 +17526,7 @@
       </c>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>806</v>
       </c>
@@ -17570,7 +17569,7 @@
       </c>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>809</v>
       </c>
@@ -17613,7 +17612,7 @@
       </c>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="18" t="s">
         <v>810</v>
       </c>
@@ -17656,7 +17655,7 @@
       </c>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>811</v>
       </c>
@@ -17699,7 +17698,7 @@
       </c>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>812</v>
       </c>
@@ -17742,7 +17741,7 @@
       </c>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>813</v>
       </c>
@@ -17785,7 +17784,7 @@
       </c>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>814</v>
       </c>
@@ -17828,7 +17827,7 @@
       </c>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>815</v>
       </c>
@@ -17871,7 +17870,7 @@
       </c>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>816</v>
       </c>
@@ -17914,7 +17913,7 @@
       </c>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>817</v>
       </c>
@@ -17957,7 +17956,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>820</v>
       </c>
@@ -18000,7 +17999,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>822</v>
       </c>
@@ -18043,7 +18042,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>823</v>
       </c>
@@ -18129,7 +18128,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>826</v>
       </c>
@@ -18172,7 +18171,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>827</v>
       </c>
@@ -18215,7 +18214,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>828</v>
       </c>
@@ -18258,7 +18257,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>829</v>
       </c>
@@ -18301,7 +18300,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>831</v>
       </c>
@@ -18344,7 +18343,7 @@
       </c>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>832</v>
       </c>
@@ -18387,7 +18386,7 @@
       </c>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>834</v>
       </c>
@@ -18430,7 +18429,7 @@
       </c>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>835</v>
       </c>
@@ -18473,7 +18472,7 @@
       </c>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>836</v>
       </c>
@@ -18518,7 +18517,7 @@
       </c>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>837</v>
       </c>
@@ -18563,7 +18562,7 @@
       </c>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>838</v>
       </c>
@@ -18606,7 +18605,7 @@
       </c>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>839</v>
       </c>
@@ -18649,7 +18648,7 @@
       </c>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>840</v>
       </c>
@@ -18692,7 +18691,7 @@
       </c>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>842</v>
       </c>
@@ -18735,7 +18734,7 @@
       </c>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>844</v>
       </c>
@@ -18778,7 +18777,7 @@
       </c>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>846</v>
       </c>
@@ -18821,7 +18820,7 @@
       </c>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>847</v>
       </c>
@@ -18864,7 +18863,7 @@
       </c>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>848</v>
       </c>
@@ -18907,7 +18906,7 @@
       </c>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>849</v>
       </c>
@@ -18952,7 +18951,7 @@
       </c>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>850</v>
       </c>
@@ -18997,7 +18996,7 @@
       </c>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>852</v>
       </c>
@@ -19042,7 +19041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>854</v>
       </c>
@@ -19087,7 +19086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>855</v>
       </c>
@@ -19130,7 +19129,7 @@
       </c>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>859</v>
       </c>
@@ -19173,7 +19172,7 @@
       </c>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>860</v>
       </c>
@@ -19218,7 +19217,7 @@
       </c>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>861</v>
       </c>
@@ -19263,7 +19262,7 @@
       </c>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>862</v>
       </c>
@@ -19308,7 +19307,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>864</v>
       </c>
@@ -19351,7 +19350,7 @@
       </c>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>866</v>
       </c>
@@ -19394,7 +19393,7 @@
       </c>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>868</v>
       </c>
@@ -19437,7 +19436,7 @@
       </c>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
         <v>870</v>
       </c>
@@ -19480,7 +19479,7 @@
       </c>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
         <v>871</v>
       </c>
@@ -19523,7 +19522,7 @@
       </c>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
         <v>873</v>
       </c>
@@ -19566,7 +19565,7 @@
       </c>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="18" t="s">
         <v>874</v>
       </c>
@@ -19609,7 +19608,7 @@
       </c>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="18" t="s">
         <v>875</v>
       </c>
@@ -19654,7 +19653,7 @@
       </c>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>876</v>
       </c>
@@ -19699,7 +19698,7 @@
       </c>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="18" t="s">
         <v>878</v>
       </c>
@@ -19744,7 +19743,7 @@
       </c>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="18" t="s">
         <v>879</v>
       </c>
@@ -19789,7 +19788,7 @@
       </c>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="18" t="s">
         <v>880</v>
       </c>
@@ -19834,7 +19833,7 @@
       </c>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>881</v>
       </c>
@@ -19877,7 +19876,7 @@
       </c>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="18" t="s">
         <v>884</v>
       </c>
@@ -19920,7 +19919,7 @@
       </c>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
         <v>886</v>
       </c>
@@ -19963,7 +19962,7 @@
       </c>
       <c r="O223" s="18"/>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="18" t="s">
         <v>887</v>
       </c>
@@ -20006,7 +20005,7 @@
       </c>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
         <v>889</v>
       </c>
@@ -20049,7 +20048,7 @@
       </c>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="18" t="s">
         <v>890</v>
       </c>
@@ -20094,7 +20093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
         <v>893</v>
       </c>
@@ -20137,7 +20136,7 @@
       </c>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
         <v>894</v>
       </c>
@@ -20182,7 +20181,7 @@
       </c>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>895</v>
       </c>
@@ -20227,7 +20226,7 @@
       </c>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
         <v>897</v>
       </c>
@@ -20270,7 +20269,7 @@
       </c>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>899</v>
       </c>
@@ -20313,7 +20312,7 @@
       </c>
       <c r="O231" s="18"/>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
         <v>900</v>
       </c>
@@ -20356,7 +20355,7 @@
       </c>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="18" t="s">
         <v>901</v>
       </c>
@@ -20399,7 +20398,7 @@
       </c>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="18" t="s">
         <v>902</v>
       </c>
@@ -20442,7 +20441,7 @@
       </c>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="18" t="s">
         <v>904</v>
       </c>
@@ -20485,7 +20484,7 @@
       </c>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>907</v>
       </c>
@@ -20528,7 +20527,7 @@
       </c>
       <c r="O236" s="18"/>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>908</v>
       </c>
@@ -20571,7 +20570,7 @@
       </c>
       <c r="O237" s="18"/>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>909</v>
       </c>
@@ -20614,7 +20613,7 @@
       </c>
       <c r="O238" s="18"/>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="18" t="s">
         <v>912</v>
       </c>
@@ -20657,7 +20656,7 @@
       </c>
       <c r="O239" s="18"/>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="18" t="s">
         <v>915</v>
       </c>
@@ -20700,7 +20699,7 @@
       </c>
       <c r="O240" s="18"/>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="18" t="s">
         <v>917</v>
       </c>
@@ -20743,7 +20742,7 @@
       </c>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
         <v>918</v>
       </c>
@@ -20786,7 +20785,7 @@
       </c>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="18" t="s">
         <v>919</v>
       </c>
@@ -20831,7 +20830,7 @@
       </c>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="18" t="s">
         <v>920</v>
       </c>
@@ -20874,7 +20873,7 @@
       </c>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="18" t="s">
         <v>921</v>
       </c>
@@ -20917,7 +20916,7 @@
       </c>
       <c r="O245" s="18"/>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="18" t="s">
         <v>922</v>
       </c>
@@ -20960,7 +20959,7 @@
       </c>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="18" t="s">
         <v>923</v>
       </c>
@@ -21005,7 +21004,7 @@
       </c>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="18" t="s">
         <v>925</v>
       </c>
@@ -21048,7 +21047,7 @@
       </c>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>927</v>
       </c>
@@ -21091,7 +21090,7 @@
       </c>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>928</v>
       </c>
@@ -21136,7 +21135,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>929</v>
       </c>
@@ -21179,7 +21178,7 @@
       </c>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="18" t="s">
         <v>931</v>
       </c>
@@ -21222,7 +21221,7 @@
       </c>
       <c r="O252" s="18"/>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="18" t="s">
         <v>933</v>
       </c>
@@ -21265,7 +21264,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>934</v>
       </c>
@@ -21308,7 +21307,7 @@
       </c>
       <c r="O254" s="18"/>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>936</v>
       </c>
@@ -21351,7 +21350,7 @@
       </c>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="18" t="s">
         <v>937</v>
       </c>
@@ -21394,7 +21393,7 @@
       </c>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="18" t="s">
         <v>938</v>
       </c>
@@ -21439,7 +21438,7 @@
       </c>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
         <v>939</v>
       </c>
@@ -21484,7 +21483,7 @@
       </c>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="18" t="s">
         <v>940</v>
       </c>
@@ -21527,7 +21526,7 @@
       </c>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="18" t="s">
         <v>943</v>
       </c>
@@ -21572,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="18" t="s">
         <v>945</v>
       </c>
@@ -21615,7 +21614,7 @@
       </c>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="18" t="s">
         <v>946</v>
       </c>
@@ -21701,7 +21700,7 @@
       </c>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="18" t="s">
         <v>948</v>
       </c>
@@ -21746,7 +21745,7 @@
       </c>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="18" t="s">
         <v>949</v>
       </c>
@@ -21791,7 +21790,7 @@
       </c>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="18" t="s">
         <v>950</v>
       </c>
@@ -21834,7 +21833,7 @@
       </c>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="18" t="s">
         <v>954</v>
       </c>
@@ -21877,7 +21876,7 @@
       </c>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="18" t="s">
         <v>957</v>
       </c>
@@ -21920,7 +21919,7 @@
       </c>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="18" t="s">
         <v>960</v>
       </c>
@@ -21963,7 +21962,7 @@
       </c>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="18" t="s">
         <v>963</v>
       </c>
@@ -22006,7 +22005,7 @@
       </c>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>965</v>
       </c>
@@ -22051,7 +22050,7 @@
       </c>
       <c r="O271" s="18"/>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="18" t="s">
         <v>967</v>
       </c>
@@ -22096,7 +22095,7 @@
       </c>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="18" t="s">
         <v>969</v>
       </c>
@@ -22141,7 +22140,7 @@
       </c>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="18" t="s">
         <v>971</v>
       </c>
@@ -22186,7 +22185,7 @@
       </c>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="18" t="s">
         <v>973</v>
       </c>
@@ -22229,7 +22228,7 @@
       </c>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
         <v>975</v>
       </c>
@@ -22272,7 +22271,7 @@
       </c>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
         <v>977</v>
       </c>
@@ -22315,7 +22314,7 @@
       </c>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
         <v>979</v>
       </c>
@@ -22358,7 +22357,7 @@
       </c>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
         <v>980</v>
       </c>
@@ -22403,7 +22402,7 @@
       </c>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
         <v>981</v>
       </c>
@@ -22448,7 +22447,7 @@
       </c>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>982</v>
       </c>
@@ -22493,7 +22492,7 @@
       </c>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="18" t="s">
         <v>984</v>
       </c>
@@ -22538,7 +22537,7 @@
       </c>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>986</v>
       </c>
@@ -22581,7 +22580,7 @@
       </c>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>987</v>
       </c>
@@ -22624,7 +22623,7 @@
       </c>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="18" t="s">
         <v>988</v>
       </c>
@@ -22667,7 +22666,7 @@
       </c>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="18" t="s">
         <v>991</v>
       </c>
@@ -22710,7 +22709,7 @@
       </c>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="18" t="s">
         <v>993</v>
       </c>
@@ -22753,7 +22752,7 @@
       </c>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="18" t="s">
         <v>994</v>
       </c>
@@ -22796,7 +22795,7 @@
       </c>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="18" t="s">
         <v>995</v>
       </c>
@@ -22839,7 +22838,7 @@
       </c>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="18" t="s">
         <v>996</v>
       </c>
@@ -22884,7 +22883,7 @@
       </c>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="18" t="s">
         <v>997</v>
       </c>
@@ -22929,7 +22928,7 @@
       </c>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="18" t="s">
         <v>998</v>
       </c>
@@ -22974,7 +22973,7 @@
       </c>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>999</v>
       </c>
@@ -23019,7 +23018,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>1000</v>
       </c>
@@ -23062,7 +23061,7 @@
       </c>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="18" t="s">
         <v>1003</v>
       </c>
@@ -23105,7 +23104,7 @@
       </c>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="18" t="s">
         <v>1004</v>
       </c>
@@ -23148,7 +23147,7 @@
       </c>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="18" t="s">
         <v>1005</v>
       </c>
@@ -23191,7 +23190,7 @@
       </c>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="18" t="s">
         <v>1006</v>
       </c>
@@ -23236,7 +23235,7 @@
       </c>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
         <v>1007</v>
       </c>
@@ -23281,7 +23280,7 @@
       </c>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>1008</v>
       </c>
@@ -23326,7 +23325,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1009</v>
       </c>
@@ -23369,7 +23368,7 @@
       </c>
       <c r="O301" s="18"/>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
         <v>1012</v>
       </c>
@@ -23412,7 +23411,7 @@
       </c>
       <c r="O302" s="18"/>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
         <v>1016</v>
       </c>
@@ -23455,7 +23454,7 @@
       </c>
       <c r="O303" s="18"/>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="18" t="s">
         <v>1019</v>
       </c>
@@ -23500,7 +23499,7 @@
       </c>
       <c r="O304" s="18"/>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="18" t="s">
         <v>1021</v>
       </c>
@@ -23545,7 +23544,7 @@
       </c>
       <c r="O305" s="18"/>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="18" t="s">
         <v>1023</v>
       </c>
@@ -23588,7 +23587,7 @@
       </c>
       <c r="O306" s="18"/>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>1024</v>
       </c>
@@ -23631,7 +23630,7 @@
       </c>
       <c r="O307" s="18"/>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
         <v>1025</v>
       </c>
@@ -23674,7 +23673,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1026</v>
       </c>
@@ -23717,7 +23716,7 @@
       </c>
       <c r="O309" s="18"/>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" s="18" t="s">
         <v>1028</v>
       </c>
@@ -23760,7 +23759,7 @@
       </c>
       <c r="O310" s="18"/>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" s="18" t="s">
         <v>1029</v>
       </c>
@@ -23803,7 +23802,7 @@
       </c>
       <c r="O311" s="18"/>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="18" t="s">
         <v>1030</v>
       </c>
@@ -23846,7 +23845,7 @@
       </c>
       <c r="O312" s="18"/>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" s="18" t="s">
         <v>1031</v>
       </c>
@@ -23889,7 +23888,7 @@
       </c>
       <c r="O313" s="18"/>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" s="18" t="s">
         <v>1032</v>
       </c>
@@ -23932,7 +23931,7 @@
       </c>
       <c r="O314" s="18"/>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" s="18" t="s">
         <v>1033</v>
       </c>
@@ -23977,7 +23976,7 @@
       </c>
       <c r="O315" s="18"/>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" s="18" t="s">
         <v>1034</v>
       </c>
@@ -24022,7 +24021,7 @@
       </c>
       <c r="O316" s="18"/>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" s="18" t="s">
         <v>1035</v>
       </c>
@@ -24067,7 +24066,7 @@
       </c>
       <c r="O317" s="18"/>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" s="18" t="s">
         <v>1036</v>
       </c>
@@ -24112,7 +24111,7 @@
       </c>
       <c r="O318" s="18"/>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" s="18" t="s">
         <v>1037</v>
       </c>
@@ -24157,7 +24156,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>1038</v>
       </c>
@@ -24200,7 +24199,7 @@
       </c>
       <c r="O320" s="18"/>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>1039</v>
       </c>
@@ -24243,7 +24242,7 @@
       </c>
       <c r="O321" s="18"/>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" s="18" t="s">
         <v>1040</v>
       </c>
@@ -24286,7 +24285,7 @@
       </c>
       <c r="O322" s="18"/>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" s="18" t="s">
         <v>1041</v>
       </c>
@@ -24329,7 +24328,7 @@
       </c>
       <c r="O323" s="18"/>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>1042</v>
       </c>
@@ -24372,7 +24371,7 @@
       </c>
       <c r="O324" s="18"/>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" s="18" t="s">
         <v>1043</v>
       </c>
@@ -24415,7 +24414,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>1044</v>
       </c>
@@ -24458,7 +24457,7 @@
       </c>
       <c r="O326" s="18"/>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" s="18" t="s">
         <v>1045</v>
       </c>
@@ -24501,7 +24500,7 @@
       </c>
       <c r="O327" s="18"/>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" s="18" t="s">
         <v>1046</v>
       </c>
@@ -24544,7 +24543,7 @@
       </c>
       <c r="O328" s="18"/>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" s="18" t="s">
         <v>1047</v>
       </c>
@@ -24589,7 +24588,7 @@
       </c>
       <c r="O329" s="18"/>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" s="18" t="s">
         <v>1048</v>
       </c>
@@ -24634,7 +24633,7 @@
       </c>
       <c r="O330" s="18"/>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" s="18" t="s">
         <v>1049</v>
       </c>
@@ -24677,7 +24676,7 @@
       </c>
       <c r="O331" s="18"/>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1052</v>
       </c>
@@ -24720,7 +24719,7 @@
       </c>
       <c r="O332" s="18"/>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>1053</v>
       </c>
@@ -24763,7 +24762,7 @@
       </c>
       <c r="O333" s="18"/>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" s="18" t="s">
         <v>1054</v>
       </c>
@@ -24806,7 +24805,7 @@
       </c>
       <c r="O334" s="18"/>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" s="18" t="s">
         <v>1055</v>
       </c>
@@ -24851,7 +24850,7 @@
       </c>
       <c r="O335" s="18"/>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" s="18" t="s">
         <v>1056</v>
       </c>
@@ -24894,7 +24893,7 @@
       </c>
       <c r="O336" s="18"/>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>1057</v>
       </c>
@@ -24937,7 +24936,7 @@
       </c>
       <c r="O337" s="18"/>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" s="18" t="s">
         <v>1058</v>
       </c>
@@ -24980,7 +24979,7 @@
       </c>
       <c r="O338" s="18"/>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="18" t="s">
         <v>1059</v>
       </c>
@@ -25025,7 +25024,7 @@
       </c>
       <c r="O339" s="18"/>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" s="18" t="s">
         <v>1060</v>
       </c>
@@ -25068,7 +25067,7 @@
       </c>
       <c r="O340" s="18"/>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" s="18" t="s">
         <v>1062</v>
       </c>
@@ -25111,7 +25110,7 @@
       </c>
       <c r="O341" s="18"/>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="18" t="s">
         <v>1063</v>
       </c>
@@ -25154,7 +25153,7 @@
       </c>
       <c r="O342" s="18"/>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="18" t="s">
         <v>1064</v>
       </c>
@@ -25199,7 +25198,7 @@
       </c>
       <c r="O343" s="18"/>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" s="18" t="s">
         <v>1066</v>
       </c>
@@ -25242,7 +25241,7 @@
       </c>
       <c r="O344" s="18"/>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="18" t="s">
         <v>1069</v>
       </c>
@@ -25285,7 +25284,7 @@
       </c>
       <c r="O345" s="18"/>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="18" t="s">
         <v>1071</v>
       </c>
@@ -25328,7 +25327,7 @@
       </c>
       <c r="O346" s="18"/>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="18" t="s">
         <v>1072</v>
       </c>
@@ -25371,7 +25370,7 @@
       </c>
       <c r="O347" s="18"/>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="18" t="s">
         <v>1073</v>
       </c>
@@ -25414,7 +25413,7 @@
       </c>
       <c r="O348" s="18"/>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="18" t="s">
         <v>1075</v>
       </c>
@@ -25459,7 +25458,7 @@
       </c>
       <c r="O349" s="18"/>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="18" t="s">
         <v>1076</v>
       </c>
@@ -25504,7 +25503,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1077</v>
       </c>
@@ -25547,7 +25546,7 @@
       </c>
       <c r="O351" s="18"/>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" s="18" t="s">
         <v>1081</v>
       </c>
@@ -25590,7 +25589,7 @@
       </c>
       <c r="O352" s="18"/>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" s="18" t="s">
         <v>1084</v>
       </c>
@@ -25633,7 +25632,7 @@
       </c>
       <c r="O353" s="18"/>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" s="18" t="s">
         <v>1087</v>
       </c>
@@ -25678,7 +25677,7 @@
       </c>
       <c r="O354" s="18"/>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" s="18" t="s">
         <v>1089</v>
       </c>
@@ -25721,7 +25720,7 @@
       </c>
       <c r="O355" s="18"/>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" s="18" t="s">
         <v>1091</v>
       </c>
@@ -25766,7 +25765,7 @@
       </c>
       <c r="O356" s="18"/>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" s="18" t="s">
         <v>1092</v>
       </c>
@@ -25811,7 +25810,7 @@
       </c>
       <c r="O357" s="18"/>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" s="18" t="s">
         <v>1728</v>
       </c>
@@ -25854,7 +25853,7 @@
       </c>
       <c r="O358" s="18"/>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>1731</v>
       </c>
@@ -25897,7 +25896,7 @@
       </c>
       <c r="O359" s="18"/>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>1734</v>
       </c>
@@ -25940,7 +25939,7 @@
       </c>
       <c r="O360" s="18"/>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" s="18" t="s">
         <v>1737</v>
       </c>
@@ -25983,7 +25982,7 @@
       </c>
       <c r="O361" s="18"/>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" s="18" t="s">
         <v>1739</v>
       </c>
@@ -26026,7 +26025,7 @@
       </c>
       <c r="O362" s="18"/>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" s="18" t="s">
         <v>1741</v>
       </c>
@@ -26069,7 +26068,7 @@
       </c>
       <c r="O363" s="18"/>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" s="18" t="s">
         <v>1742</v>
       </c>
@@ -26114,7 +26113,7 @@
       </c>
       <c r="O364" s="18"/>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" s="18" t="s">
         <v>1743</v>
       </c>
@@ -26159,7 +26158,7 @@
       </c>
       <c r="O365" s="18"/>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" s="18" t="s">
         <v>1744</v>
       </c>
@@ -26204,7 +26203,7 @@
       </c>
       <c r="O366" s="18"/>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" s="18" t="s">
         <v>1745</v>
       </c>
@@ -26249,7 +26248,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>1746</v>
       </c>
@@ -26292,7 +26291,7 @@
       </c>
       <c r="O368" s="18"/>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" s="18" t="s">
         <v>1747</v>
       </c>
@@ -26335,7 +26334,7 @@
       </c>
       <c r="O369" s="18"/>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" s="18" t="s">
         <v>1748</v>
       </c>
@@ -26380,7 +26379,7 @@
       </c>
       <c r="O370" s="18"/>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" s="18" t="s">
         <v>1749</v>
       </c>
@@ -26425,7 +26424,7 @@
       </c>
       <c r="O371" s="18"/>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" s="18" t="s">
         <v>1750</v>
       </c>
@@ -26470,7 +26469,7 @@
       </c>
       <c r="O372" s="18"/>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" s="18" t="s">
         <v>1751</v>
       </c>
@@ -26513,7 +26512,7 @@
       </c>
       <c r="O373" s="18"/>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" s="18" t="s">
         <v>1752</v>
       </c>
@@ -26558,7 +26557,7 @@
       </c>
       <c r="O374" s="18"/>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" s="18" t="s">
         <v>1753</v>
       </c>
@@ -26601,7 +26600,7 @@
       </c>
       <c r="O375" s="18"/>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" s="18" t="s">
         <v>1756</v>
       </c>
@@ -26646,7 +26645,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>1758</v>
       </c>
@@ -26689,7 +26688,7 @@
       </c>
       <c r="O377" s="18"/>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" s="18" t="s">
         <v>1761</v>
       </c>
@@ -26732,7 +26731,7 @@
       </c>
       <c r="O378" s="18"/>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" s="18" t="s">
         <v>1764</v>
       </c>
@@ -26777,7 +26776,7 @@
       </c>
       <c r="O379" s="18"/>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" s="18" t="s">
         <v>1766</v>
       </c>
@@ -26822,7 +26821,7 @@
       </c>
       <c r="O380" s="18"/>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" s="18" t="s">
         <v>1768</v>
       </c>
@@ -26867,7 +26866,7 @@
       </c>
       <c r="O381" s="18"/>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" s="18" t="s">
         <v>1904</v>
       </c>
@@ -26910,7 +26909,7 @@
       </c>
       <c r="O382" s="18"/>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>1908</v>
       </c>
@@ -26953,7 +26952,7 @@
       </c>
       <c r="O383" s="18"/>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" s="18" t="s">
         <v>1910</v>
       </c>
@@ -26996,7 +26995,7 @@
       </c>
       <c r="O384" s="18"/>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" s="18" t="s">
         <v>1912</v>
       </c>
@@ -27039,7 +27038,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>1914</v>
       </c>
@@ -27082,7 +27081,7 @@
       </c>
       <c r="O386" s="18"/>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" s="18" t="s">
         <v>1916</v>
       </c>
@@ -27125,7 +27124,7 @@
       </c>
       <c r="O387" s="18"/>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" s="18" t="s">
         <v>1919</v>
       </c>
@@ -27170,7 +27169,7 @@
       </c>
       <c r="O388" s="18"/>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" s="18" t="s">
         <v>1921</v>
       </c>
@@ -27215,7 +27214,7 @@
       </c>
       <c r="O389" s="18"/>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" s="18" t="s">
         <v>1923</v>
       </c>
@@ -27260,7 +27259,7 @@
       </c>
       <c r="O390" s="18"/>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" s="18" t="s">
         <v>1925</v>
       </c>
@@ -27305,7 +27304,7 @@
       </c>
       <c r="O391" s="18"/>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" s="18" t="s">
         <v>1927</v>
       </c>
@@ -27350,7 +27349,7 @@
       </c>
       <c r="O392" s="18"/>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" s="18" t="s">
         <v>1929</v>
       </c>
@@ -27395,7 +27394,7 @@
       </c>
       <c r="O393" s="18"/>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" s="18" t="s">
         <v>1931</v>
       </c>
@@ -27438,7 +27437,7 @@
       </c>
       <c r="O394" s="18"/>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" s="18" t="s">
         <v>1933</v>
       </c>
@@ -27481,7 +27480,7 @@
       </c>
       <c r="O395" s="18"/>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" s="18" t="s">
         <v>1936</v>
       </c>
@@ -27524,7 +27523,7 @@
       </c>
       <c r="O396" s="18"/>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" s="18" t="s">
         <v>1937</v>
       </c>
@@ -27567,7 +27566,7 @@
       </c>
       <c r="O397" s="18"/>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" s="18" t="s">
         <v>1939</v>
       </c>
@@ -27612,7 +27611,7 @@
       </c>
       <c r="O398" s="18"/>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>1940</v>
       </c>
@@ -27657,7 +27656,7 @@
       </c>
       <c r="O399" s="18"/>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" s="18" t="s">
         <v>1942</v>
       </c>
@@ -27702,7 +27701,7 @@
       </c>
       <c r="O400" s="18"/>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
         <v>2543</v>
       </c>
@@ -27747,7 +27746,7 @@
       </c>
       <c r="O401" s="18"/>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>1944</v>
       </c>
@@ -27792,7 +27791,7 @@
       </c>
       <c r="O402" s="18"/>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>1946</v>
       </c>
@@ -27837,7 +27836,7 @@
       </c>
       <c r="O403" s="18"/>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>1948</v>
       </c>
@@ -27880,7 +27879,7 @@
       </c>
       <c r="O404" s="18"/>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>1951</v>
       </c>
@@ -27923,7 +27922,7 @@
       </c>
       <c r="O405" s="18"/>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>1953</v>
       </c>
@@ -27966,7 +27965,7 @@
       </c>
       <c r="O406" s="18"/>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>1954</v>
       </c>
@@ -28009,7 +28008,7 @@
       </c>
       <c r="O407" s="18"/>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>1956</v>
       </c>
@@ -28052,7 +28051,7 @@
       </c>
       <c r="O408" s="18"/>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>1958</v>
       </c>
@@ -28095,7 +28094,7 @@
       </c>
       <c r="O409" s="18"/>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>1960</v>
       </c>
@@ -28138,7 +28137,7 @@
       </c>
       <c r="O410" s="18"/>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>1961</v>
       </c>
@@ -28183,7 +28182,7 @@
       </c>
       <c r="O411" s="18"/>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>1962</v>
       </c>
@@ -28228,7 +28227,7 @@
       </c>
       <c r="O412" s="18"/>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>1963</v>
       </c>
@@ -28273,7 +28272,7 @@
       </c>
       <c r="O413" s="18"/>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>1965</v>
       </c>
@@ -28316,7 +28315,7 @@
       </c>
       <c r="O414" s="18"/>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>1969</v>
       </c>
@@ -28359,7 +28358,7 @@
       </c>
       <c r="O415" s="18"/>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>1971</v>
       </c>
@@ -28402,7 +28401,7 @@
       </c>
       <c r="O416" s="18"/>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>1974</v>
       </c>
@@ -28445,7 +28444,7 @@
       </c>
       <c r="O417" s="18"/>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>1976</v>
       </c>
@@ -28488,7 +28487,7 @@
       </c>
       <c r="O418" s="18"/>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>1977</v>
       </c>
@@ -28531,7 +28530,7 @@
       </c>
       <c r="O419" s="18"/>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>1979</v>
       </c>
@@ -28574,7 +28573,7 @@
       </c>
       <c r="O420" s="18"/>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>1981</v>
       </c>
@@ -28617,7 +28616,7 @@
       </c>
       <c r="O421" s="18"/>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>1983</v>
       </c>
@@ -28660,7 +28659,7 @@
       </c>
       <c r="O422" s="18"/>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>1985</v>
       </c>
@@ -28703,7 +28702,7 @@
       </c>
       <c r="O423" s="18"/>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>1986</v>
       </c>
@@ -28746,7 +28745,7 @@
       </c>
       <c r="O424" s="18"/>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>1987</v>
       </c>
@@ -28789,7 +28788,7 @@
       </c>
       <c r="O425" s="18"/>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>1988</v>
       </c>
@@ -28834,7 +28833,7 @@
       </c>
       <c r="O426" s="18"/>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>1989</v>
       </c>
@@ -28879,7 +28878,7 @@
       </c>
       <c r="O427" s="18"/>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>1990</v>
       </c>
@@ -28924,7 +28923,7 @@
       </c>
       <c r="O428" s="18"/>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>1991</v>
       </c>
@@ -28969,7 +28968,7 @@
       </c>
       <c r="O429" s="18"/>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>1992</v>
       </c>
@@ -29014,7 +29013,7 @@
       </c>
       <c r="O430" s="18"/>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>1993</v>
       </c>
@@ -29057,7 +29056,7 @@
       </c>
       <c r="O431" s="18"/>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>1996</v>
       </c>
@@ -29100,7 +29099,7 @@
       </c>
       <c r="O432" s="18"/>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>1998</v>
       </c>
@@ -29143,7 +29142,7 @@
       </c>
       <c r="O433" s="18"/>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>2001</v>
       </c>
@@ -29186,7 +29185,7 @@
       </c>
       <c r="O434" s="18"/>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>2003</v>
       </c>
@@ -29229,7 +29228,7 @@
       </c>
       <c r="O435" s="18"/>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>2005</v>
       </c>
@@ -29272,7 +29271,7 @@
       </c>
       <c r="O436" s="18"/>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>2007</v>
       </c>
@@ -29315,7 +29314,7 @@
       </c>
       <c r="O437" s="18"/>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>2011</v>
       </c>
@@ -29358,7 +29357,7 @@
       </c>
       <c r="O438" s="18"/>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>2013</v>
       </c>
@@ -29401,7 +29400,7 @@
       </c>
       <c r="O439" s="18"/>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>2016</v>
       </c>
@@ -29444,7 +29443,7 @@
       </c>
       <c r="O440" s="18"/>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>2020</v>
       </c>
@@ -29487,7 +29486,7 @@
       </c>
       <c r="O441" s="18"/>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>2024</v>
       </c>
@@ -29530,7 +29529,7 @@
       </c>
       <c r="O442" s="18"/>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>2026</v>
       </c>
@@ -29573,7 +29572,7 @@
       </c>
       <c r="O443" s="18"/>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>2028</v>
       </c>
@@ -29616,7 +29615,7 @@
       </c>
       <c r="O444" s="18"/>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>2031</v>
       </c>
@@ -29659,7 +29658,7 @@
       </c>
       <c r="O445" s="18"/>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>2033</v>
       </c>
@@ -29702,7 +29701,7 @@
       </c>
       <c r="O446" s="18"/>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>2035</v>
       </c>
@@ -29745,7 +29744,7 @@
       </c>
       <c r="O447" s="18"/>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" s="18" t="s">
         <v>2037</v>
       </c>
@@ -29788,7 +29787,7 @@
       </c>
       <c r="O448" s="18"/>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" s="18" t="s">
         <v>2040</v>
       </c>
@@ -29831,7 +29830,7 @@
       </c>
       <c r="O449" s="18"/>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" s="18" t="s">
         <v>2042</v>
       </c>
@@ -29874,7 +29873,7 @@
       </c>
       <c r="O450" s="18"/>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" s="18" t="s">
         <v>2044</v>
       </c>
@@ -29917,7 +29916,7 @@
       </c>
       <c r="O451" s="18"/>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" s="18" t="s">
         <v>2046</v>
       </c>
@@ -29960,7 +29959,7 @@
       </c>
       <c r="O452" s="18"/>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" s="18" t="s">
         <v>2048</v>
       </c>
@@ -30003,7 +30002,7 @@
       </c>
       <c r="O453" s="18"/>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" s="18" t="s">
         <v>2050</v>
       </c>
@@ -30046,7 +30045,7 @@
       </c>
       <c r="O454" s="18"/>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" s="18" t="s">
         <v>2052</v>
       </c>
@@ -30089,7 +30088,7 @@
       </c>
       <c r="O455" s="18"/>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" s="18" t="s">
         <v>2053</v>
       </c>
@@ -30132,7 +30131,7 @@
       </c>
       <c r="O456" s="18"/>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" s="18" t="s">
         <v>2054</v>
       </c>
@@ -30175,7 +30174,7 @@
       </c>
       <c r="O457" s="18"/>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" s="18" t="s">
         <v>2056</v>
       </c>
@@ -30220,7 +30219,7 @@
       </c>
       <c r="O458" s="18"/>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>2057</v>
       </c>
@@ -30263,7 +30262,7 @@
       </c>
       <c r="O459" s="18"/>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" s="18" t="s">
         <v>2060</v>
       </c>
@@ -30306,7 +30305,7 @@
       </c>
       <c r="O460" s="18"/>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" s="18" t="s">
         <v>2062</v>
       </c>
@@ -30349,7 +30348,7 @@
       </c>
       <c r="O461" s="18"/>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" s="18" t="s">
         <v>2064</v>
       </c>
@@ -30392,7 +30391,7 @@
       </c>
       <c r="O462" s="18"/>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" s="18" t="s">
         <v>2066</v>
       </c>
@@ -30435,7 +30434,7 @@
       </c>
       <c r="O463" s="18"/>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" s="18" t="s">
         <v>2068</v>
       </c>
@@ -30478,7 +30477,7 @@
       </c>
       <c r="O464" s="18"/>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>2070</v>
       </c>
@@ -30521,7 +30520,7 @@
       </c>
       <c r="O465" s="18"/>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" s="18" t="s">
         <v>2072</v>
       </c>
@@ -30564,7 +30563,7 @@
       </c>
       <c r="O466" s="18"/>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" s="18" t="s">
         <v>2074</v>
       </c>
@@ -30609,7 +30608,7 @@
       </c>
       <c r="O467" s="18"/>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" s="18" t="s">
         <v>2076</v>
       </c>
@@ -30654,7 +30653,7 @@
       </c>
       <c r="O468" s="18"/>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" s="18" t="s">
         <v>2078</v>
       </c>
@@ -30697,7 +30696,7 @@
       </c>
       <c r="O469" s="18"/>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" s="18" t="s">
         <v>2081</v>
       </c>
@@ -30740,7 +30739,7 @@
       </c>
       <c r="O470" s="18"/>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" s="18" t="s">
         <v>2082</v>
       </c>
@@ -30783,7 +30782,7 @@
       </c>
       <c r="O471" s="18"/>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" s="18" t="s">
         <v>2084</v>
       </c>
@@ -30828,7 +30827,7 @@
       </c>
       <c r="O472" s="18"/>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" s="18" t="s">
         <v>2086</v>
       </c>
@@ -30873,7 +30872,7 @@
       </c>
       <c r="O473" s="18"/>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>2088</v>
       </c>
@@ -30918,7 +30917,7 @@
       </c>
       <c r="O474" s="18"/>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>2090</v>
       </c>
@@ -30961,7 +30960,7 @@
       </c>
       <c r="O475" s="18"/>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" s="18" t="s">
         <v>2092</v>
       </c>
@@ -31004,7 +31003,7 @@
       </c>
       <c r="O476" s="18"/>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" s="18" t="s">
         <v>2095</v>
       </c>
@@ -31047,7 +31046,7 @@
       </c>
       <c r="O477" s="18"/>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" s="18" t="s">
         <v>2096</v>
       </c>
@@ -31090,7 +31089,7 @@
       </c>
       <c r="O478" s="18"/>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" s="18" t="s">
         <v>2097</v>
       </c>
@@ -31133,7 +31132,7 @@
       </c>
       <c r="O479" s="18"/>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" s="18" t="s">
         <v>2098</v>
       </c>
@@ -31176,7 +31175,7 @@
       </c>
       <c r="O480" s="18"/>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" s="18" t="s">
         <v>2099</v>
       </c>
@@ -31219,7 +31218,7 @@
       </c>
       <c r="O481" s="18"/>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" s="18" t="s">
         <v>2100</v>
       </c>
@@ -31262,7 +31261,7 @@
       </c>
       <c r="O482" s="18"/>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" s="18" t="s">
         <v>2101</v>
       </c>
@@ -31305,7 +31304,7 @@
       </c>
       <c r="O483" s="18"/>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" s="18" t="s">
         <v>2102</v>
       </c>
@@ -31348,7 +31347,7 @@
       </c>
       <c r="O484" s="18"/>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" s="18" t="s">
         <v>2103</v>
       </c>
@@ -31391,7 +31390,7 @@
       </c>
       <c r="O485" s="18"/>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" s="18" t="s">
         <v>2104</v>
       </c>
@@ -31434,7 +31433,7 @@
       </c>
       <c r="O486" s="18"/>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" s="18" t="s">
         <v>2105</v>
       </c>
@@ -31477,7 +31476,7 @@
       </c>
       <c r="O487" s="18"/>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" s="18" t="s">
         <v>2106</v>
       </c>
@@ -31520,7 +31519,7 @@
       </c>
       <c r="O488" s="18"/>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" s="18" t="s">
         <v>2107</v>
       </c>
@@ -31563,7 +31562,7 @@
       </c>
       <c r="O489" s="18"/>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" s="18" t="s">
         <v>2108</v>
       </c>
@@ -31606,7 +31605,7 @@
       </c>
       <c r="O490" s="18"/>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" s="18" t="s">
         <v>2109</v>
       </c>
@@ -31651,7 +31650,7 @@
       </c>
       <c r="O491" s="18"/>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" s="18" t="s">
         <v>2110</v>
       </c>
@@ -31694,7 +31693,7 @@
       </c>
       <c r="O492" s="18"/>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" s="18" t="s">
         <v>2113</v>
       </c>
@@ -31737,7 +31736,7 @@
       </c>
       <c r="O493" s="18"/>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" s="18" t="s">
         <v>2116</v>
       </c>
@@ -31780,7 +31779,7 @@
       </c>
       <c r="O494" s="18"/>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A495" s="18" t="s">
         <v>2118</v>
       </c>
@@ -31823,7 +31822,7 @@
       </c>
       <c r="O495" s="18"/>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" s="18" t="s">
         <v>2120</v>
       </c>
@@ -31866,7 +31865,7 @@
       </c>
       <c r="O496" s="18"/>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" s="18" t="s">
         <v>2122</v>
       </c>
@@ -31909,7 +31908,7 @@
       </c>
       <c r="O497" s="18"/>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" s="18" t="s">
         <v>2124</v>
       </c>
@@ -31954,7 +31953,7 @@
       </c>
       <c r="O498" s="18"/>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A499" s="18" t="s">
         <v>2126</v>
       </c>
@@ -31997,7 +31996,7 @@
       </c>
       <c r="O499" s="18"/>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" s="18" t="s">
         <v>2127</v>
       </c>
@@ -32040,7 +32039,7 @@
       </c>
       <c r="O500" s="18"/>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" s="18" t="s">
         <v>2128</v>
       </c>
@@ -32083,7 +32082,7 @@
       </c>
       <c r="O501" s="18"/>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" s="18" t="s">
         <v>2129</v>
       </c>
@@ -32126,7 +32125,7 @@
       </c>
       <c r="O502" s="18"/>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A503" s="18" t="s">
         <v>2130</v>
       </c>
@@ -32169,7 +32168,7 @@
       </c>
       <c r="O503" s="18"/>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" s="18" t="s">
         <v>2132</v>
       </c>
@@ -32212,7 +32211,7 @@
       </c>
       <c r="O504" s="18"/>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" s="18" t="s">
         <v>2134</v>
       </c>
@@ -32255,7 +32254,7 @@
       </c>
       <c r="O505" s="18"/>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" s="18" t="s">
         <v>2136</v>
       </c>
@@ -32298,7 +32297,7 @@
       </c>
       <c r="O506" s="18"/>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" s="18" t="s">
         <v>2138</v>
       </c>
@@ -32341,7 +32340,7 @@
       </c>
       <c r="O507" s="18"/>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A508" s="18" t="s">
         <v>2140</v>
       </c>
@@ -32384,7 +32383,7 @@
       </c>
       <c r="O508" s="18"/>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A509" s="18" t="s">
         <v>2141</v>
       </c>
@@ -32427,7 +32426,7 @@
       </c>
       <c r="O509" s="18"/>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A510" s="18" t="s">
         <v>2142</v>
       </c>
@@ -32470,7 +32469,7 @@
       </c>
       <c r="O510" s="18"/>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A511" s="18" t="s">
         <v>2145</v>
       </c>
@@ -32515,7 +32514,7 @@
       </c>
       <c r="O511" s="18"/>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A512" s="18" t="s">
         <v>2147</v>
       </c>
@@ -32558,7 +32557,7 @@
       </c>
       <c r="O512" s="18"/>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A513" s="18" t="s">
         <v>2148</v>
       </c>
@@ -32601,7 +32600,7 @@
       </c>
       <c r="O513" s="18"/>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A514" s="18" t="s">
         <v>2151</v>
       </c>
@@ -32644,7 +32643,7 @@
       </c>
       <c r="O514" s="18"/>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A515" s="18" t="s">
         <v>2152</v>
       </c>
@@ -32689,7 +32688,7 @@
       </c>
       <c r="O515" s="18"/>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A516" s="18" t="s">
         <v>2153</v>
       </c>
@@ -32732,7 +32731,7 @@
       </c>
       <c r="O516" s="18"/>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A517" s="18" t="s">
         <v>2154</v>
       </c>
@@ -32775,7 +32774,7 @@
       </c>
       <c r="O517" s="18"/>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A518" s="18" t="s">
         <v>2156</v>
       </c>
@@ -32818,7 +32817,7 @@
       </c>
       <c r="O518" s="18"/>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A519" s="18" t="s">
         <v>2157</v>
       </c>
@@ -32861,7 +32860,7 @@
       </c>
       <c r="O519" s="18"/>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A520" s="18" t="s">
         <v>2158</v>
       </c>
@@ -32904,7 +32903,7 @@
       </c>
       <c r="O520" s="18"/>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A521" s="18" t="s">
         <v>2159</v>
       </c>
@@ -32947,7 +32946,7 @@
       </c>
       <c r="O521" s="18"/>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A522" s="18" t="s">
         <v>2160</v>
       </c>
@@ -32990,7 +32989,7 @@
       </c>
       <c r="O522" s="18"/>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A523" s="18" t="s">
         <v>2161</v>
       </c>
@@ -33033,7 +33032,7 @@
       </c>
       <c r="O523" s="18"/>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A524" s="18" t="s">
         <v>2162</v>
       </c>
@@ -33078,7 +33077,7 @@
       </c>
       <c r="O524" s="18"/>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A525" s="18" t="s">
         <v>2163</v>
       </c>
@@ -33123,7 +33122,7 @@
       </c>
       <c r="O525" s="18"/>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A526" s="18" t="s">
         <v>2164</v>
       </c>
@@ -33166,7 +33165,7 @@
       </c>
       <c r="O526" s="18"/>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A527" s="18" t="s">
         <v>2165</v>
       </c>
@@ -33209,7 +33208,7 @@
       </c>
       <c r="O527" s="18"/>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A528" s="18" t="s">
         <v>2166</v>
       </c>
@@ -33254,7 +33253,7 @@
       </c>
       <c r="O528" s="18"/>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A529" s="18" t="s">
         <v>2167</v>
       </c>
@@ -33297,7 +33296,7 @@
       </c>
       <c r="O529" s="18"/>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A530" s="18" t="s">
         <v>2170</v>
       </c>
@@ -33340,7 +33339,7 @@
       </c>
       <c r="O530" s="18"/>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A531" s="18" t="s">
         <v>2172</v>
       </c>
@@ -33383,7 +33382,7 @@
       </c>
       <c r="O531" s="18"/>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A532" s="18" t="s">
         <v>2173</v>
       </c>
@@ -33426,7 +33425,7 @@
       </c>
       <c r="O532" s="18"/>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A533" s="18" t="s">
         <v>2175</v>
       </c>
@@ -33469,7 +33468,7 @@
       </c>
       <c r="O533" s="18"/>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A534" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33512,7 +33511,7 @@
       </c>
       <c r="O534" s="18"/>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A535" s="18" t="s">
         <v>2179</v>
       </c>
@@ -33557,7 +33556,7 @@
       </c>
       <c r="O535" s="18"/>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A536" s="18" t="s">
         <v>2181</v>
       </c>
@@ -33602,7 +33601,7 @@
       </c>
       <c r="O536" s="18"/>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A537" s="18" t="s">
         <v>2183</v>
       </c>
@@ -33647,7 +33646,7 @@
       </c>
       <c r="O537" s="18"/>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A538" s="18" t="s">
         <v>2185</v>
       </c>
@@ -33692,7 +33691,7 @@
       </c>
       <c r="O538" s="18"/>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A539" s="18" t="s">
         <v>2187</v>
       </c>
@@ -33735,7 +33734,7 @@
       </c>
       <c r="O539" s="18"/>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A540" s="18" t="s">
         <v>2189</v>
       </c>
@@ -33778,7 +33777,7 @@
       </c>
       <c r="O540" s="18"/>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A541" s="18" t="s">
         <v>2190</v>
       </c>
@@ -33821,7 +33820,7 @@
       </c>
       <c r="O541" s="18"/>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A542" s="18" t="s">
         <v>2191</v>
       </c>
@@ -33866,7 +33865,7 @@
       </c>
       <c r="O542" s="18"/>
     </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A543" s="18" t="s">
         <v>2192</v>
       </c>
@@ -33909,7 +33908,7 @@
       </c>
       <c r="O543" s="18"/>
     </row>
-    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A544" s="18" t="s">
         <v>2193</v>
       </c>
@@ -33952,7 +33951,7 @@
       </c>
       <c r="O544" s="18"/>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A545" s="18" t="s">
         <v>2194</v>
       </c>
@@ -33995,7 +33994,7 @@
       </c>
       <c r="O545" s="18"/>
     </row>
-    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A546" s="18" t="s">
         <v>2195</v>
       </c>
@@ -34038,7 +34037,7 @@
       </c>
       <c r="O546" s="18"/>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A547" s="18" t="s">
         <v>2196</v>
       </c>
@@ -34081,7 +34080,7 @@
       </c>
       <c r="O547" s="18"/>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A548" s="18" t="s">
         <v>2197</v>
       </c>
@@ -34124,7 +34123,7 @@
       </c>
       <c r="O548" s="18"/>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A549" s="18" t="s">
         <v>2198</v>
       </c>
@@ -34167,7 +34166,7 @@
       </c>
       <c r="O549" s="18"/>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A550" s="18" t="s">
         <v>2199</v>
       </c>
@@ -34210,7 +34209,7 @@
       </c>
       <c r="O550" s="18"/>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A551" s="18" t="s">
         <v>2200</v>
       </c>
@@ -34253,7 +34252,7 @@
       </c>
       <c r="O551" s="18"/>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A552" s="18" t="s">
         <v>2201</v>
       </c>
@@ -34296,7 +34295,7 @@
       </c>
       <c r="O552" s="18"/>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A553" s="18" t="s">
         <v>2202</v>
       </c>
@@ -34339,7 +34338,7 @@
       </c>
       <c r="O553" s="18"/>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A554" s="18" t="s">
         <v>2203</v>
       </c>
@@ -34382,7 +34381,7 @@
       </c>
       <c r="O554" s="18"/>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A555" s="18" t="s">
         <v>2204</v>
       </c>
@@ -34425,7 +34424,7 @@
       </c>
       <c r="O555" s="18"/>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A556" s="18" t="s">
         <v>2205</v>
       </c>
@@ -34468,7 +34467,7 @@
       </c>
       <c r="O556" s="18"/>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A557" s="18" t="s">
         <v>2206</v>
       </c>
@@ -34511,7 +34510,7 @@
       </c>
       <c r="O557" s="18"/>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A558" s="18" t="s">
         <v>2208</v>
       </c>
@@ -34554,7 +34553,7 @@
       </c>
       <c r="O558" s="18"/>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A559" s="18" t="s">
         <v>2209</v>
       </c>
@@ -34597,7 +34596,7 @@
       </c>
       <c r="O559" s="18"/>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A560" s="18" t="s">
         <v>2210</v>
       </c>
@@ -34640,7 +34639,7 @@
       </c>
       <c r="O560" s="18"/>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A561" s="18" t="s">
         <v>2212</v>
       </c>
@@ -34683,7 +34682,7 @@
       </c>
       <c r="O561" s="18"/>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A562" s="18" t="s">
         <v>2214</v>
       </c>
@@ -34726,7 +34725,7 @@
       </c>
       <c r="O562" s="18"/>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A563" s="18" t="s">
         <v>2216</v>
       </c>
@@ -34769,7 +34768,7 @@
       </c>
       <c r="O563" s="18"/>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A564" s="18" t="s">
         <v>2218</v>
       </c>
@@ -34812,7 +34811,7 @@
       </c>
       <c r="O564" s="18"/>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A565" s="18" t="s">
         <v>2220</v>
       </c>
@@ -34855,7 +34854,7 @@
       </c>
       <c r="O565" s="18"/>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A566" s="18" t="s">
         <v>2222</v>
       </c>
@@ -34898,7 +34897,7 @@
       </c>
       <c r="O566" s="18"/>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A567" s="18" t="s">
         <v>2224</v>
       </c>
@@ -34941,7 +34940,7 @@
       </c>
       <c r="O567" s="18"/>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A568" s="18" t="s">
         <v>2226</v>
       </c>
@@ -34984,7 +34983,7 @@
       </c>
       <c r="O568" s="18"/>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A569" s="18" t="s">
         <v>2228</v>
       </c>
@@ -35027,7 +35026,7 @@
       </c>
       <c r="O569" s="18"/>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A570" s="18" t="s">
         <v>2230</v>
       </c>
@@ -35070,7 +35069,7 @@
       </c>
       <c r="O570" s="18"/>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A571" s="18" t="s">
         <v>2232</v>
       </c>
@@ -35113,7 +35112,7 @@
       </c>
       <c r="O571" s="18"/>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A572" s="18" t="s">
         <v>2234</v>
       </c>
@@ -35156,7 +35155,7 @@
       </c>
       <c r="O572" s="18"/>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A573" s="18" t="s">
         <v>2235</v>
       </c>
@@ -35201,7 +35200,7 @@
       </c>
       <c r="O573" s="18"/>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A574" s="18" t="s">
         <v>2236</v>
       </c>
@@ -35246,7 +35245,7 @@
       </c>
       <c r="O574" s="18"/>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A575" s="18" t="s">
         <v>2237</v>
       </c>
@@ -35289,7 +35288,7 @@
       </c>
       <c r="O575" s="18"/>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A576" s="18" t="s">
         <v>2238</v>
       </c>
@@ -35332,7 +35331,7 @@
       </c>
       <c r="O576" s="18"/>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A577" s="18" t="s">
         <v>2239</v>
       </c>
@@ -35375,7 +35374,7 @@
       </c>
       <c r="O577" s="18"/>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A578" s="18" t="s">
         <v>2240</v>
       </c>
@@ -35418,7 +35417,7 @@
       </c>
       <c r="O578" s="18"/>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A579" s="18" t="s">
         <v>2241</v>
       </c>
@@ -35463,7 +35462,7 @@
       </c>
       <c r="O579" s="18"/>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A580" s="18" t="s">
         <v>2242</v>
       </c>
@@ -35508,7 +35507,7 @@
       </c>
       <c r="O580" s="18"/>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A581" s="18" t="s">
         <v>2243</v>
       </c>
@@ -35551,7 +35550,7 @@
       </c>
       <c r="O581" s="18"/>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A582" s="18" t="s">
         <v>2244</v>
       </c>
@@ -35594,7 +35593,7 @@
       </c>
       <c r="O582" s="18"/>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A583" s="18" t="s">
         <v>2245</v>
       </c>
@@ -35637,7 +35636,7 @@
       </c>
       <c r="O583" s="18"/>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A584" s="18" t="s">
         <v>2246</v>
       </c>
@@ -35680,7 +35679,7 @@
       </c>
       <c r="O584" s="18"/>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A585" s="18" t="s">
         <v>2247</v>
       </c>
@@ -35723,7 +35722,7 @@
       </c>
       <c r="O585" s="18"/>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A586" s="18" t="s">
         <v>2248</v>
       </c>
@@ -35766,7 +35765,7 @@
       </c>
       <c r="O586" s="18"/>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A587" s="18" t="s">
         <v>2249</v>
       </c>
@@ -35809,7 +35808,7 @@
       </c>
       <c r="O587" s="18"/>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A588" s="18" t="s">
         <v>2250</v>
       </c>
@@ -35854,7 +35853,7 @@
       </c>
       <c r="O588" s="18"/>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A589" s="18" t="s">
         <v>2251</v>
       </c>
@@ -35897,7 +35896,7 @@
       </c>
       <c r="O589" s="18"/>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A590" s="18" t="s">
         <v>2252</v>
       </c>
@@ -35940,7 +35939,7 @@
       </c>
       <c r="O590" s="18"/>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A591" s="18" t="s">
         <v>2253</v>
       </c>
@@ -35983,7 +35982,7 @@
       </c>
       <c r="O591" s="18"/>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A592" s="18" t="s">
         <v>2255</v>
       </c>
@@ -36028,7 +36027,7 @@
       </c>
       <c r="O592" s="18"/>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A593" s="18" t="s">
         <v>2256</v>
       </c>
@@ -36073,7 +36072,7 @@
       </c>
       <c r="O593" s="18"/>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A594" s="18" t="s">
         <v>2257</v>
       </c>
@@ -36116,7 +36115,7 @@
       </c>
       <c r="O594" s="18"/>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A595" s="18" t="s">
         <v>2259</v>
       </c>
@@ -36159,7 +36158,7 @@
       </c>
       <c r="O595" s="18"/>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A596" s="18" t="s">
         <v>2260</v>
       </c>
@@ -36202,7 +36201,7 @@
       </c>
       <c r="O596" s="18"/>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A597" s="18" t="s">
         <v>2261</v>
       </c>
@@ -36245,7 +36244,7 @@
       </c>
       <c r="O597" s="18"/>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A598" s="18" t="s">
         <v>2262</v>
       </c>
@@ -36288,7 +36287,7 @@
       </c>
       <c r="O598" s="18"/>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A599" s="18" t="s">
         <v>2263</v>
       </c>
@@ -36331,7 +36330,7 @@
       </c>
       <c r="O599" s="18"/>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A600" s="18" t="s">
         <v>2264</v>
       </c>
@@ -36374,7 +36373,7 @@
       </c>
       <c r="O600" s="18"/>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A601" s="18" t="s">
         <v>2265</v>
       </c>
@@ -36417,7 +36416,7 @@
       </c>
       <c r="O601" s="18"/>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A602" s="18" t="s">
         <v>2267</v>
       </c>
@@ -36460,7 +36459,7 @@
       </c>
       <c r="O602" s="18"/>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A603" s="18" t="s">
         <v>2268</v>
       </c>
@@ -36503,7 +36502,7 @@
       </c>
       <c r="O603" s="18"/>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A604" s="18" t="s">
         <v>2269</v>
       </c>
@@ -36548,7 +36547,7 @@
       </c>
       <c r="O604" s="18"/>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A605" s="18" t="s">
         <v>2270</v>
       </c>
@@ -36593,7 +36592,7 @@
       </c>
       <c r="O605" s="18"/>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A606" s="18" t="s">
         <v>2271</v>
       </c>
@@ -36636,7 +36635,7 @@
       </c>
       <c r="O606" s="18"/>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A607" s="18" t="s">
         <v>2273</v>
       </c>
@@ -36679,7 +36678,7 @@
       </c>
       <c r="O607" s="18"/>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A608" s="18" t="s">
         <v>2274</v>
       </c>
@@ -36722,7 +36721,7 @@
       </c>
       <c r="O608" s="18"/>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A609" s="18" t="s">
         <v>2276</v>
       </c>
@@ -36765,7 +36764,7 @@
       </c>
       <c r="O609" s="18"/>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A610" s="18" t="s">
         <v>2277</v>
       </c>
@@ -36808,7 +36807,7 @@
       </c>
       <c r="O610" s="18"/>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A611" s="18" t="s">
         <v>2278</v>
       </c>
@@ -36851,7 +36850,7 @@
       </c>
       <c r="O611" s="18"/>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>2549</v>
       </c>
@@ -36892,7 +36891,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>2552</v>
       </c>
@@ -36933,7 +36932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>2554</v>
       </c>
@@ -36974,7 +36973,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>2556</v>
       </c>
@@ -37056,7 +37055,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>2559</v>
       </c>
@@ -37100,7 +37099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>2561</v>
       </c>
@@ -37141,7 +37140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>2562</v>
       </c>
@@ -37185,7 +37184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>2563</v>
       </c>
@@ -37229,7 +37228,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>2564</v>
       </c>
@@ -37270,7 +37269,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>2565</v>
       </c>
@@ -37311,7 +37310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>2566</v>
       </c>
@@ -37352,7 +37351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>2567</v>
       </c>
@@ -37393,7 +37392,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>2570</v>
       </c>
@@ -37434,7 +37433,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>2572</v>
       </c>
@@ -37475,7 +37474,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>2573</v>
       </c>
@@ -37516,7 +37515,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>2576</v>
       </c>
@@ -37557,7 +37556,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>2577</v>
       </c>
@@ -37598,7 +37597,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>2580</v>
       </c>
@@ -37639,7 +37638,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>2582</v>
       </c>
@@ -37680,7 +37679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>2583</v>
       </c>
@@ -37721,7 +37720,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>2584</v>
       </c>
@@ -37765,7 +37764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>2585</v>
       </c>
@@ -37809,7 +37808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>2586</v>
       </c>
@@ -37853,7 +37852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>2587</v>
       </c>
@@ -37894,7 +37893,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>2591</v>
       </c>
@@ -37935,7 +37934,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>2593</v>
       </c>
@@ -37976,7 +37975,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>2595</v>
       </c>
@@ -38017,7 +38016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>2597</v>
       </c>
@@ -38058,7 +38057,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>2599</v>
       </c>
@@ -38099,7 +38098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>2601</v>
       </c>
@@ -38222,7 +38221,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>2609</v>
       </c>
@@ -38266,7 +38265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>2611</v>
       </c>
@@ -38310,7 +38309,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>2613</v>
       </c>
@@ -38354,7 +38353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>2615</v>
       </c>
@@ -38398,7 +38397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>2617</v>
       </c>
@@ -38439,7 +38438,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>2618</v>
       </c>
@@ -38483,7 +38482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>2619</v>
       </c>
@@ -38524,7 +38523,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>2623</v>
       </c>
@@ -38565,7 +38564,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>2624</v>
       </c>
@@ -38606,7 +38605,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>2625</v>
       </c>
@@ -38647,7 +38646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>2626</v>
       </c>
@@ -38688,7 +38687,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>2627</v>
       </c>
@@ -38811,7 +38810,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>2632</v>
       </c>
@@ -38855,7 +38854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>2633</v>
       </c>
@@ -38899,7 +38898,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>2634</v>
       </c>
@@ -38943,7 +38942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>2636</v>
       </c>
@@ -38987,7 +38986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>2637</v>
       </c>
@@ -39031,7 +39030,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>2638</v>
       </c>
@@ -39072,7 +39071,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>2641</v>
       </c>
@@ -39113,7 +39112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>2642</v>
       </c>
@@ -39195,7 +39194,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>2644</v>
       </c>
@@ -39239,7 +39238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>2645</v>
       </c>
@@ -39283,7 +39282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>2646</v>
       </c>
@@ -39327,7 +39326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>2647</v>
       </c>
@@ -39371,7 +39370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>2649</v>
       </c>
@@ -39412,7 +39411,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>2651</v>
       </c>
@@ -39453,7 +39452,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>2653</v>
       </c>
@@ -39497,7 +39496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>2654</v>
       </c>
@@ -39541,7 +39540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>2655</v>
       </c>
@@ -39585,7 +39584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>2656</v>
       </c>
@@ -39626,7 +39625,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>2658</v>
       </c>
@@ -39667,7 +39666,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2659</v>
       </c>
@@ -39708,7 +39707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>2660</v>
       </c>
@@ -39749,7 +39748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>2661</v>
       </c>
@@ -39793,7 +39792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>2662</v>
       </c>
@@ -39837,7 +39836,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>2663</v>
       </c>
@@ -39881,7 +39880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>2664</v>
       </c>
@@ -40682,13 +40681,7 @@
       <c r="M738" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Minor Hero"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K606">
     <sortCondition ref="C2:C606"/>
     <sortCondition ref="F2:F606"/>
@@ -40704,9 +40697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:I1582"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B845" sqref="B845"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46491,7 +46484,7 @@
         <v>196</v>
       </c>
       <c r="D309" s="15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E309" s="15" t="s">
         <v>25</v>
@@ -60373,7 +60366,7 @@
       <c r="E1582" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I843" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:I845" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1436">
     <sortCondition ref="A1:A1436"/>
   </sortState>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB627F1-2142-462B-A344-B4C35E85277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF7628-2CD1-4DC1-9967-A2C3FBC509C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -10234,9 +10234,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G685" sqref="G685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17957,7 +17957,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>820</v>
       </c>
@@ -18000,7 +18000,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>822</v>
       </c>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>823</v>
       </c>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>824</v>
       </c>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>826</v>
       </c>
@@ -18172,7 +18172,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>827</v>
       </c>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>828</v>
       </c>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>829</v>
       </c>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>831</v>
       </c>
@@ -30873,7 +30873,7 @@
       </c>
       <c r="O473" s="18"/>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>2088</v>
       </c>
@@ -30893,7 +30893,7 @@
         <v>4</v>
       </c>
       <c r="G474" s="30">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="H474" s="18" t="b">
         <v>0</v>
@@ -40683,9 +40683,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="2">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Road to Rivendell"/>
+        <filter val="Iron Hills Chariot"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -40704,7 +40704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
   <dimension ref="A1:I1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B845" sqref="B845"/>
     </sheetView>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF7628-2CD1-4DC1-9967-A2C3FBC509C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA3754-F492-4386-84DC-5CE6F7F9EBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="warning_rules" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$G$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$547</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$O$684</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$845</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="2804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10093" uniqueCount="2805">
   <si>
     <t>name</t>
   </si>
@@ -9483,6 +9483,9 @@
   </si>
   <si>
     <t>OPT0873</t>
+  </si>
+  <si>
+    <t>Besiegers of the Hornburg</t>
   </si>
 </sst>
 </file>
@@ -10234,9 +10237,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G685" sqref="G685"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12485,7 +12488,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>500</v>
       </c>
@@ -12493,7 +12496,7 @@
         <v>246</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>502</v>
@@ -12528,7 +12531,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>505</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>246</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>502</v>
@@ -12571,7 +12574,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>508</v>
       </c>
@@ -12579,7 +12582,7 @@
         <v>246</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>502</v>
@@ -12614,7 +12617,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>510</v>
       </c>
@@ -12622,7 +12625,7 @@
         <v>246</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>502</v>
@@ -12657,7 +12660,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>513</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>246</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>502</v>
@@ -12702,7 +12705,7 @@
       </c>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>515</v>
       </c>
@@ -12710,7 +12713,7 @@
         <v>246</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>248</v>
@@ -30873,7 +30876,7 @@
       </c>
       <c r="O473" s="18"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>2088</v>
       </c>
@@ -40683,9 +40686,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="4">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Iron Hills Chariot"/>
+        <filter val="Beseigers of the Hornburg"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -62078,10 +62081,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -62269,7 +62272,7 @@
     </row>
     <row r="9" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>501</v>
+        <v>2804</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>533</v>
@@ -62288,15 +62291,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>61</v>
+        <v>533</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>639</v>
+        <v>534</v>
       </c>
       <c r="D10" s="18">
         <v>0.33</v>
@@ -62306,18 +62309,18 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>569</v>
+        <v>61</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D11" s="18">
         <v>0.33</v>
@@ -62325,22 +62328,20 @@
       <c r="E11" s="18">
         <v>0.33</v>
       </c>
-      <c r="F11" s="18">
-        <v>0.66</v>
-      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>638</v>
+        <v>569</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="D12" s="18">
         <v>0.33</v>
@@ -62348,20 +62349,22 @@
       <c r="E12" s="18">
         <v>0.33</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <v>0.66</v>
+      </c>
       <c r="G12" s="18" t="s">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="290" x14ac:dyDescent="0.35">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="D13" s="18">
         <v>0.33</v>
@@ -62371,18 +62374,18 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="D14" s="18">
         <v>0.33</v>
@@ -62392,18 +62395,18 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1546</v>
+        <v>665</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1547</v>
+        <v>666</v>
       </c>
       <c r="D15" s="18">
         <v>0.33</v>
@@ -62413,60 +62416,60 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1700</v>
+        <v>1546</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D16" s="18">
         <v>0.33</v>
       </c>
       <c r="E16" s="18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D17" s="18">
         <v>0.33</v>
       </c>
       <c r="E17" s="18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1550</v>
+        <v>1701</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D18" s="18">
         <v>0.33</v>
@@ -62476,18 +62479,18 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D19" s="18">
         <v>0.33</v>
@@ -62497,18 +62500,18 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1702</v>
+        <v>1552</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>1704</v>
+        <v>1553</v>
       </c>
       <c r="D20" s="18">
         <v>0.33</v>
@@ -62523,13 +62526,13 @@
     </row>
     <row r="21" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>1702</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>1554</v>
+        <v>1704</v>
       </c>
       <c r="D21" s="18">
         <v>0.33</v>
@@ -62539,18 +62542,18 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18" t="s">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1555</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D22" s="18">
         <v>0.33</v>
@@ -62560,18 +62563,18 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D23" s="18">
         <v>0.33</v>
@@ -62581,18 +62584,18 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D24" s="18">
         <v>0.33</v>
@@ -62602,18 +62605,18 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D25" s="18">
         <v>0.33</v>
@@ -62623,18 +62626,18 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D26" s="18">
         <v>0.33</v>
@@ -62644,18 +62647,18 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>2788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D27" s="18">
         <v>0.33</v>
@@ -62665,18 +62668,18 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D28" s="18">
         <v>0.33</v>
@@ -62686,18 +62689,18 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="348" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1703</v>
+        <v>1567</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D29" s="18">
         <v>0.33</v>
@@ -62705,22 +62708,20 @@
       <c r="E29" s="18">
         <v>0.33</v>
       </c>
-      <c r="F29" s="18">
-        <v>0.66</v>
-      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>61</v>
+        <v>1703</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D30" s="18">
         <v>0.33</v>
@@ -62728,20 +62729,22 @@
       <c r="E30" s="18">
         <v>0.33</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="18">
+        <v>0.66</v>
+      </c>
       <c r="G30" s="18" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1725</v>
+        <v>61</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D31" s="18">
         <v>0.33</v>
@@ -62751,18 +62754,18 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1572</v>
+        <v>1725</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D32" s="18">
         <v>0.33</v>
@@ -62775,15 +62778,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D33" s="18">
         <v>0.33</v>
@@ -62798,13 +62801,13 @@
     </row>
     <row r="34" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D34" s="18">
         <v>0.33</v>
@@ -62817,15 +62820,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D35" s="18">
         <v>0.33</v>
@@ -62838,15 +62841,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D36" s="18">
         <v>0.33</v>
@@ -62859,15 +62862,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D37" s="18">
         <v>0.33</v>
@@ -62877,60 +62880,60 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>1705</v>
+        <v>1583</v>
       </c>
       <c r="D38" s="18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E38" s="18">
         <v>0.33</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>992</v>
+        <v>974</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>1586</v>
+        <v>1705</v>
       </c>
       <c r="D39" s="18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="18">
         <v>0.33</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>1707</v>
+        <v>1586</v>
       </c>
       <c r="D40" s="18">
         <v>0.33</v>
@@ -62940,18 +62943,18 @@
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>1589</v>
+        <v>1707</v>
       </c>
       <c r="D41" s="18">
         <v>0.33</v>
@@ -62964,15 +62967,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D42" s="18">
         <v>0.33</v>
@@ -62985,15 +62988,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D43" s="18">
         <v>0.33</v>
@@ -63006,15 +63009,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>61</v>
+        <v>1592</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D44" s="18">
         <v>0.33</v>
@@ -63024,18 +63027,18 @@
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1595</v>
+        <v>61</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>1715</v>
+        <v>1594</v>
       </c>
       <c r="D45" s="18">
         <v>0.33</v>
@@ -63045,18 +63048,18 @@
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>1597</v>
+        <v>1715</v>
       </c>
       <c r="D46" s="18">
         <v>0.33</v>
@@ -63066,18 +63069,18 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>1729</v>
+        <v>1090</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1836</v>
+        <v>1596</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>61</v>
+        <v>1597</v>
       </c>
       <c r="D47" s="18">
         <v>0.33</v>
@@ -63090,15 +63093,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
-        <v>1905</v>
+        <v>1729</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>61</v>
+        <v>1836</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>2466</v>
+        <v>61</v>
       </c>
       <c r="D48" s="18">
         <v>0.33</v>
@@ -63111,15 +63114,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>1932</v>
+        <v>1905</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>2467</v>
+        <v>61</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>2542</v>
+        <v>2466</v>
       </c>
       <c r="D49" s="18">
         <v>0.33</v>
@@ -63129,60 +63132,60 @@
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>1952</v>
+        <v>1932</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>61</v>
+        <v>2467</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>2468</v>
+        <v>2542</v>
       </c>
       <c r="D50" s="18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E50" s="18">
         <v>0.33</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18" t="s">
-        <v>2791</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
-        <v>1966</v>
+        <v>1952</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>2469</v>
+        <v>61</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="D51" s="18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="18">
         <v>0.33</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>1994</v>
+        <v>1966</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="D52" s="18">
         <v>0.33</v>
@@ -63192,18 +63195,18 @@
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18" t="s">
-        <v>2794</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="D53" s="18">
         <v>0.33</v>
@@ -63213,18 +63216,18 @@
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="D54" s="18">
         <v>0.33</v>
@@ -63234,18 +63237,18 @@
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="D55" s="18">
         <v>0.33</v>
@@ -63260,13 +63263,13 @@
     </row>
     <row r="56" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>2058</v>
+        <v>2021</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>61</v>
+        <v>2477</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D56" s="18">
         <v>0.33</v>
@@ -63279,15 +63282,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>2079</v>
+        <v>2058</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>2480</v>
+        <v>61</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>2534</v>
+        <v>2479</v>
       </c>
       <c r="D57" s="18">
         <v>0.33</v>
@@ -63297,18 +63300,18 @@
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>2093</v>
+        <v>2079</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>61</v>
+        <v>2480</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>2481</v>
+        <v>2534</v>
       </c>
       <c r="D58" s="18">
         <v>0.33</v>
@@ -63318,18 +63321,18 @@
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
-        <v>2111</v>
+        <v>2093</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>2482</v>
+        <v>61</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D59" s="18">
         <v>0.33</v>
@@ -63342,15 +63345,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
-        <v>2133</v>
+        <v>2111</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="D60" s="18">
         <v>0.33</v>
@@ -63360,18 +63363,18 @@
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
-        <v>2149</v>
+        <v>2133</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="D61" s="18">
         <v>0.33</v>
@@ -63381,60 +63384,60 @@
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="D62" s="18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E62" s="18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18" t="s">
-        <v>61</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
-        <v>2168</v>
+        <v>2155</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>61</v>
+        <v>2488</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D63" s="18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E63" s="18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
-        <v>2188</v>
+        <v>2168</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>2491</v>
+        <v>61</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D64" s="18">
         <v>0.33</v>
@@ -63447,15 +63450,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
-        <v>2207</v>
+        <v>2188</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="D65" s="18">
         <v>0.33</v>
@@ -63468,15 +63471,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
-        <v>2258</v>
+        <v>2207</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="D66" s="18">
         <v>0.33</v>
@@ -63489,15 +63492,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="D67" s="18">
         <v>0.33</v>
@@ -63510,15 +63513,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="290" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D68" s="18">
         <v>0.33</v>
@@ -63528,18 +63531,18 @@
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
-        <v>2550</v>
+        <v>2272</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>2733</v>
+        <v>2499</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>2734</v>
+        <v>2500</v>
       </c>
       <c r="D69" s="18">
         <v>0.33</v>
@@ -63552,15 +63555,15 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>2568</v>
+        <v>2550</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="D70" s="18">
         <v>0.33</v>
@@ -63570,18 +63573,18 @@
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="D71" s="18">
         <v>0.33</v>
@@ -63594,15 +63597,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
-        <v>2588</v>
+        <v>2574</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="D72" s="18">
         <v>0.33</v>
@@ -63612,18 +63615,18 @@
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18" t="s">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
-        <v>2620</v>
+        <v>2588</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>61</v>
+        <v>2739</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D73" s="18">
         <v>0.33</v>
@@ -63633,18 +63636,18 @@
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18" t="s">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>2639</v>
+        <v>2620</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>2742</v>
+        <v>61</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="D74" s="18">
         <v>0.33</v>
@@ -63654,18 +63657,18 @@
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>2650</v>
+        <v>2639</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="D75" s="18">
         <v>0.33</v>
@@ -63675,18 +63678,18 @@
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>2657</v>
+        <v>2650</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="D76" s="18">
         <v>0.33</v>
@@ -63699,8 +63702,29 @@
         <v>61</v>
       </c>
     </row>
+    <row r="77" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="18" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D77" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="E77" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G76" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}"/>
+  <autoFilter ref="A1:G77" xr:uid="{46B3BDA4-C76D-4F2B-A5C7-6A022A2D593F}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -69203,10 +69227,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -69289,129 +69313,129 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>555</v>
+      <c r="A6" s="15" t="s">
+        <v>2804</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>608</v>
+      <c r="A8" s="18" t="s">
+        <v>573</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
         <v>634</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>642</v>
-      </c>
-      <c r="B9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>693</v>
+        <v>642</v>
       </c>
       <c r="B10" t="s">
         <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>1647</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>1648</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B11" t="s">
         <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D11" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="B12" t="s">
         <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D12" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="B13" t="s">
         <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D13" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="B14" t="s">
         <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D14" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69422,94 +69446,94 @@
         <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D15" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>821</v>
+        <v>776</v>
       </c>
       <c r="B16" t="s">
         <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D16" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B17" t="s">
         <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D17" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B18" t="s">
         <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D18" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B19" t="s">
         <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D19" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B20" t="s">
         <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D20" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="B21" t="s">
         <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D21" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69520,24 +69544,24 @@
         <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D22" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>916</v>
+        <v>882</v>
       </c>
       <c r="B23" t="s">
-        <v>1724</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D23" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69548,122 +69572,122 @@
         <v>1724</v>
       </c>
       <c r="C24" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D24" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>1724</v>
       </c>
       <c r="C25" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D25" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B26" t="s">
         <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D26" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="B27" t="s">
         <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D27" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="B28" t="s">
-        <v>1683</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D28" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B29" t="s">
         <v>1683</v>
       </c>
       <c r="C29" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D29" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>1683</v>
       </c>
       <c r="C30" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D30" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B31" t="s">
         <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D31" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="B32" t="s">
         <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D32" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69674,57 +69698,57 @@
         <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D33" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1050</v>
+        <v>1013</v>
       </c>
       <c r="B34" t="s">
         <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D34" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
       <c r="B35" t="s">
         <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D35" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1741</v>
+        <v>1078</v>
       </c>
       <c r="B36" t="s">
-        <v>1683</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>1837</v>
+        <v>1698</v>
       </c>
       <c r="D36" t="s">
-        <v>1838</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="B37" t="s">
         <v>1683</v>
@@ -69733,54 +69757,54 @@
         <v>1837</v>
       </c>
       <c r="D37" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B38" t="s">
         <v>1683</v>
       </c>
       <c r="C38" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D38" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="B39" t="s">
         <v>1683</v>
       </c>
       <c r="C39" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="D39" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B40" t="s">
         <v>1683</v>
       </c>
       <c r="C40" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D40" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="B41" t="s">
         <v>1683</v>
@@ -69789,63 +69813,63 @@
         <v>1844</v>
       </c>
       <c r="D41" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B42" t="s">
         <v>1683</v>
       </c>
       <c r="C42" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="D42" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1932</v>
+        <v>1761</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>1683</v>
       </c>
       <c r="C43" t="s">
-        <v>2501</v>
+        <v>1847</v>
       </c>
       <c r="D43" t="s">
-        <v>2502</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1994</v>
+        <v>1932</v>
       </c>
       <c r="B44" t="s">
         <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D44" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="B45" t="s">
         <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="D45" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69856,10 +69880,10 @@
         <v>276</v>
       </c>
       <c r="C46" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="D46" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69870,57 +69894,57 @@
         <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="D47" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="B48" t="s">
         <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="D48" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B49" t="s">
         <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="D49" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>2053</v>
+        <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>1683</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="D50" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B51" t="s">
         <v>1683</v>
@@ -69934,58 +69958,58 @@
     </row>
     <row r="52" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>2079</v>
+        <v>2056</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>1683</v>
       </c>
       <c r="C52" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="D52" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>2133</v>
+        <v>2079</v>
       </c>
       <c r="B53" t="s">
         <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="D53" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>2149</v>
+        <v>2133</v>
       </c>
       <c r="B54" t="s">
         <v>276</v>
       </c>
       <c r="C54" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="D54" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="B55" t="s">
-        <v>1724</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="D55" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69993,69 +70017,69 @@
         <v>2155</v>
       </c>
       <c r="B56" t="s">
-        <v>1683</v>
+        <v>1724</v>
       </c>
       <c r="C56" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="D56" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>2188</v>
+        <v>2155</v>
       </c>
       <c r="B57" t="s">
-        <v>1724</v>
+        <v>1683</v>
       </c>
       <c r="C57" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="D57" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>2258</v>
+        <v>2188</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>1724</v>
       </c>
       <c r="C58" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="D58" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="B59" t="s">
         <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="D59" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>2550</v>
+        <v>2266</v>
       </c>
       <c r="B60" t="s">
         <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>2759</v>
+        <v>2531</v>
       </c>
       <c r="D60" t="s">
-        <v>2760</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -70066,104 +70090,115 @@
         <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="D61" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2568</v>
+        <v>2550</v>
       </c>
       <c r="B62" t="s">
         <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="D62" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="B63" t="s">
         <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="D63" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>2588</v>
+        <v>2574</v>
       </c>
       <c r="B64" t="s">
         <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="D64" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2639</v>
+        <v>2588</v>
       </c>
       <c r="B65" t="s">
         <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="D65" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2650</v>
+        <v>2639</v>
       </c>
       <c r="B66" t="s">
         <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="D66" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2657</v>
+        <v>2650</v>
       </c>
       <c r="B67" t="s">
         <v>276</v>
       </c>
       <c r="C67" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" t="s">
         <v>2773</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>2774</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
     </row>
     <row r="69" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="21"/>
+    <row r="70" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="18"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
@@ -70184,13 +70219,16 @@
       <c r="A76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="18"/>
+      <c r="A77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="19"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D65" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}"/>
+  <autoFilter ref="A1:D66" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA3754-F492-4386-84DC-5CE6F7F9EBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038876D-8D93-4661-A5D2-88FB65992779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -10237,9 +10237,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>414</v>
       </c>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>500</v>
       </c>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>505</v>
       </c>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>508</v>
       </c>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>510</v>
       </c>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>513</v>
       </c>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>515</v>
       </c>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="O113" s="18"/>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>716</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="M114" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" s="18" t="s">
         <v>61</v>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="O150" s="18"/>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>786</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>1</v>
       </c>
       <c r="M151" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151" s="18" t="s">
         <v>61</v>
@@ -17182,7 +17182,7 @@
       </c>
       <c r="O159" s="18"/>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>797</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="M160" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" s="18" t="s">
         <v>61</v>
@@ -40686,9 +40686,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="2">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Beseigers of the Hornburg"/>
+        <filter val="Morannon Orc Warrior"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -69229,7 +69229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041E0963-E2E9-41B5-B435-BC1A1C291BC2}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038876D-8D93-4661-A5D2-88FB65992779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD215484-FC64-4D9F-B5F5-20FF66B11918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -10234,12 +10234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E387" sqref="E387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10308,7 +10307,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>138</v>
       </c>
@@ -10351,7 +10350,7 @@
       </c>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>141</v>
       </c>
@@ -10394,7 +10393,7 @@
       </c>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>142</v>
       </c>
@@ -10437,7 +10436,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>143</v>
       </c>
@@ -10480,7 +10479,7 @@
       </c>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>145</v>
       </c>
@@ -10523,7 +10522,7 @@
       </c>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>146</v>
       </c>
@@ -10566,7 +10565,7 @@
       </c>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>147</v>
       </c>
@@ -10609,7 +10608,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>148</v>
       </c>
@@ -10654,7 +10653,7 @@
       </c>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>149</v>
       </c>
@@ -10699,7 +10698,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>150</v>
       </c>
@@ -10744,7 +10743,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>245</v>
       </c>
@@ -10787,7 +10786,7 @@
       </c>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>251</v>
       </c>
@@ -10830,7 +10829,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>253</v>
       </c>
@@ -10873,7 +10872,7 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>255</v>
       </c>
@@ -10916,7 +10915,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>258</v>
       </c>
@@ -10961,7 +10960,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>260</v>
       </c>
@@ -11006,7 +11005,7 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>262</v>
       </c>
@@ -11051,7 +11050,7 @@
       </c>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>304</v>
       </c>
@@ -11096,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>309</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>316</v>
       </c>
@@ -11184,7 +11183,7 @@
       </c>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>320</v>
       </c>
@@ -11227,7 +11226,7 @@
       </c>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>323</v>
       </c>
@@ -11270,7 +11269,7 @@
       </c>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>326</v>
       </c>
@@ -11313,7 +11312,7 @@
       </c>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>328</v>
       </c>
@@ -11358,7 +11357,7 @@
       </c>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>330</v>
       </c>
@@ -11403,7 +11402,7 @@
       </c>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>332</v>
       </c>
@@ -11446,7 +11445,7 @@
       </c>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>352</v>
       </c>
@@ -11489,7 +11488,7 @@
       </c>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>353</v>
       </c>
@@ -11532,7 +11531,7 @@
       </c>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>354</v>
       </c>
@@ -11575,7 +11574,7 @@
       </c>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>355</v>
       </c>
@@ -11618,7 +11617,7 @@
       </c>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>358</v>
       </c>
@@ -11661,7 +11660,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>361</v>
       </c>
@@ -11706,7 +11705,7 @@
       </c>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>362</v>
       </c>
@@ -11751,7 +11750,7 @@
       </c>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>363</v>
       </c>
@@ -11794,7 +11793,7 @@
       </c>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>365</v>
       </c>
@@ -11837,7 +11836,7 @@
       </c>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>368</v>
       </c>
@@ -11880,7 +11879,7 @@
       </c>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>1713</v>
       </c>
@@ -11923,7 +11922,7 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>370</v>
       </c>
@@ -11966,7 +11965,7 @@
       </c>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>373</v>
       </c>
@@ -12011,7 +12010,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>383</v>
       </c>
@@ -12043,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="18" t="b">
         <v>0</v>
@@ -12054,7 +12053,7 @@
       </c>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>388</v>
       </c>
@@ -12097,7 +12096,7 @@
       </c>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>390</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="18" t="b">
         <v>0</v>
@@ -12140,7 +12139,7 @@
       </c>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>393</v>
       </c>
@@ -12185,7 +12184,7 @@
       </c>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>403</v>
       </c>
@@ -12228,7 +12227,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>407</v>
       </c>
@@ -12271,7 +12270,7 @@
       </c>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>410</v>
       </c>
@@ -12314,7 +12313,7 @@
       </c>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>412</v>
       </c>
@@ -12402,7 +12401,7 @@
       </c>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>415</v>
       </c>
@@ -12445,7 +12444,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>417</v>
       </c>
@@ -12488,7 +12487,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>500</v>
       </c>
@@ -12531,7 +12530,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>505</v>
       </c>
@@ -12574,7 +12573,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>508</v>
       </c>
@@ -12617,7 +12616,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>510</v>
       </c>
@@ -12660,7 +12659,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>513</v>
       </c>
@@ -12705,7 +12704,7 @@
       </c>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>515</v>
       </c>
@@ -12750,7 +12749,7 @@
       </c>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>536</v>
       </c>
@@ -12793,7 +12792,7 @@
       </c>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>540</v>
       </c>
@@ -12836,7 +12835,7 @@
       </c>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>543</v>
       </c>
@@ -12879,7 +12878,7 @@
       </c>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>545</v>
       </c>
@@ -12924,7 +12923,7 @@
       </c>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>554</v>
       </c>
@@ -12967,7 +12966,7 @@
       </c>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>557</v>
       </c>
@@ -13010,7 +13009,7 @@
       </c>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>559</v>
       </c>
@@ -13053,7 +13052,7 @@
       </c>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>560</v>
       </c>
@@ -13096,7 +13095,7 @@
       </c>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>563</v>
       </c>
@@ -13141,7 +13140,7 @@
       </c>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>572</v>
       </c>
@@ -13184,7 +13183,7 @@
       </c>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>574</v>
       </c>
@@ -13227,7 +13226,7 @@
       </c>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>575</v>
       </c>
@@ -13270,7 +13269,7 @@
       </c>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>576</v>
       </c>
@@ -13313,7 +13312,7 @@
       </c>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>579</v>
       </c>
@@ -13356,7 +13355,7 @@
       </c>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>582</v>
       </c>
@@ -13399,7 +13398,7 @@
       </c>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>584</v>
       </c>
@@ -13442,7 +13441,7 @@
       </c>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>587</v>
       </c>
@@ -13485,7 +13484,7 @@
       </c>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>589</v>
       </c>
@@ -13528,7 +13527,7 @@
       </c>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>590</v>
       </c>
@@ -13573,7 +13572,7 @@
       </c>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>607</v>
       </c>
@@ -13616,7 +13615,7 @@
       </c>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>609</v>
       </c>
@@ -13659,7 +13658,7 @@
       </c>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>610</v>
       </c>
@@ -13702,7 +13701,7 @@
       </c>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>611</v>
       </c>
@@ -13745,7 +13744,7 @@
       </c>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>612</v>
       </c>
@@ -13790,7 +13789,7 @@
       </c>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>613</v>
       </c>
@@ -13835,7 +13834,7 @@
       </c>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>614</v>
       </c>
@@ -13878,7 +13877,7 @@
       </c>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>615</v>
       </c>
@@ -13921,7 +13920,7 @@
       </c>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>616</v>
       </c>
@@ -13964,7 +13963,7 @@
       </c>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>641</v>
       </c>
@@ -14007,7 +14006,7 @@
       </c>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>644</v>
       </c>
@@ -14050,7 +14049,7 @@
       </c>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>645</v>
       </c>
@@ -14093,7 +14092,7 @@
       </c>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>648</v>
       </c>
@@ -14136,7 +14135,7 @@
       </c>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>649</v>
       </c>
@@ -14181,7 +14180,7 @@
       </c>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>650</v>
       </c>
@@ -14226,7 +14225,7 @@
       </c>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>669</v>
       </c>
@@ -14269,7 +14268,7 @@
       </c>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>672</v>
       </c>
@@ -14312,7 +14311,7 @@
       </c>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>675</v>
       </c>
@@ -14355,7 +14354,7 @@
       </c>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>678</v>
       </c>
@@ -14398,7 +14397,7 @@
       </c>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>681</v>
       </c>
@@ -14441,7 +14440,7 @@
       </c>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>683</v>
       </c>
@@ -14484,7 +14483,7 @@
       </c>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>685</v>
       </c>
@@ -14527,7 +14526,7 @@
       </c>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>686</v>
       </c>
@@ -14570,7 +14569,7 @@
       </c>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>689</v>
       </c>
@@ -14615,7 +14614,7 @@
       </c>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>690</v>
       </c>
@@ -14660,7 +14659,7 @@
       </c>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>691</v>
       </c>
@@ -14705,7 +14704,7 @@
       </c>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>692</v>
       </c>
@@ -14748,7 +14747,7 @@
       </c>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>695</v>
       </c>
@@ -14791,7 +14790,7 @@
       </c>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>697</v>
       </c>
@@ -14836,7 +14835,7 @@
       </c>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>699</v>
       </c>
@@ -14881,7 +14880,7 @@
       </c>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>701</v>
       </c>
@@ -14924,7 +14923,7 @@
       </c>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>704</v>
       </c>
@@ -14967,7 +14966,7 @@
       </c>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>706</v>
       </c>
@@ -15010,7 +15009,7 @@
       </c>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>708</v>
       </c>
@@ -15053,7 +15052,7 @@
       </c>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>709</v>
       </c>
@@ -15096,7 +15095,7 @@
       </c>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>712</v>
       </c>
@@ -15139,7 +15138,7 @@
       </c>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>714</v>
       </c>
@@ -15229,7 +15228,7 @@
       </c>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>717</v>
       </c>
@@ -15272,7 +15271,7 @@
       </c>
       <c r="O115" s="18"/>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>718</v>
       </c>
@@ -15315,7 +15314,7 @@
       </c>
       <c r="O116" s="18"/>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>720</v>
       </c>
@@ -15358,7 +15357,7 @@
       </c>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>723</v>
       </c>
@@ -15401,7 +15400,7 @@
       </c>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>725</v>
       </c>
@@ -15444,7 +15443,7 @@
       </c>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>727</v>
       </c>
@@ -15489,7 +15488,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>729</v>
       </c>
@@ -15532,7 +15531,7 @@
       </c>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>732</v>
       </c>
@@ -15575,7 +15574,7 @@
       </c>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>736</v>
       </c>
@@ -15618,7 +15617,7 @@
       </c>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>737</v>
       </c>
@@ -15661,7 +15660,7 @@
       </c>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>738</v>
       </c>
@@ -15704,7 +15703,7 @@
       </c>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>740</v>
       </c>
@@ -15747,7 +15746,7 @@
       </c>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>741</v>
       </c>
@@ -15792,7 +15791,7 @@
       </c>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>742</v>
       </c>
@@ -15837,7 +15836,7 @@
       </c>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>744</v>
       </c>
@@ -15882,7 +15881,7 @@
       </c>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>745</v>
       </c>
@@ -15925,7 +15924,7 @@
       </c>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>749</v>
       </c>
@@ -15968,7 +15967,7 @@
       </c>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>750</v>
       </c>
@@ -16011,7 +16010,7 @@
       </c>
       <c r="O132" s="18"/>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
         <v>751</v>
       </c>
@@ -16054,7 +16053,7 @@
       </c>
       <c r="O133" s="18"/>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>752</v>
       </c>
@@ -16097,7 +16096,7 @@
       </c>
       <c r="O134" s="18"/>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>755</v>
       </c>
@@ -16140,7 +16139,7 @@
       </c>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>756</v>
       </c>
@@ -16185,7 +16184,7 @@
       </c>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>757</v>
       </c>
@@ -16230,7 +16229,7 @@
       </c>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>759</v>
       </c>
@@ -16273,7 +16272,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>760</v>
       </c>
@@ -16316,7 +16315,7 @@
       </c>
       <c r="O139" s="18"/>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>761</v>
       </c>
@@ -16359,7 +16358,7 @@
       </c>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>766</v>
       </c>
@@ -16402,7 +16401,7 @@
       </c>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>768</v>
       </c>
@@ -16445,7 +16444,7 @@
       </c>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>771</v>
       </c>
@@ -16490,7 +16489,7 @@
       </c>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>773</v>
       </c>
@@ -16535,7 +16534,7 @@
       </c>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>775</v>
       </c>
@@ -16578,7 +16577,7 @@
       </c>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>779</v>
       </c>
@@ -16621,7 +16620,7 @@
       </c>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>782</v>
       </c>
@@ -16664,7 +16663,7 @@
       </c>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>783</v>
       </c>
@@ -16707,7 +16706,7 @@
       </c>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
         <v>784</v>
       </c>
@@ -16750,7 +16749,7 @@
       </c>
       <c r="O149" s="18"/>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="18" t="s">
         <v>785</v>
       </c>
@@ -16838,7 +16837,7 @@
       </c>
       <c r="O151" s="18"/>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>787</v>
       </c>
@@ -16881,7 +16880,7 @@
       </c>
       <c r="O152" s="18"/>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>788</v>
       </c>
@@ -16924,7 +16923,7 @@
       </c>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>790</v>
       </c>
@@ -16967,7 +16966,7 @@
       </c>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>791</v>
       </c>
@@ -17010,7 +17009,7 @@
       </c>
       <c r="O155" s="18"/>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>792</v>
       </c>
@@ -17053,7 +17052,7 @@
       </c>
       <c r="O156" s="18"/>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>793</v>
       </c>
@@ -17096,7 +17095,7 @@
       </c>
       <c r="O157" s="18"/>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>794</v>
       </c>
@@ -17139,7 +17138,7 @@
       </c>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>795</v>
       </c>
@@ -17227,7 +17226,7 @@
       </c>
       <c r="O160" s="18"/>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>798</v>
       </c>
@@ -17270,7 +17269,7 @@
       </c>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>799</v>
       </c>
@@ -17313,7 +17312,7 @@
       </c>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>801</v>
       </c>
@@ -17356,7 +17355,7 @@
       </c>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>802</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="K164" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" s="18" t="b">
         <v>0</v>
@@ -17399,7 +17398,7 @@
       </c>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>803</v>
       </c>
@@ -17442,7 +17441,7 @@
       </c>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>804</v>
       </c>
@@ -17474,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L166" s="18" t="b">
         <v>0</v>
@@ -17485,7 +17484,7 @@
       </c>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>805</v>
       </c>
@@ -17530,7 +17529,7 @@
       </c>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>806</v>
       </c>
@@ -17573,7 +17572,7 @@
       </c>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>809</v>
       </c>
@@ -17616,7 +17615,7 @@
       </c>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="18" t="s">
         <v>810</v>
       </c>
@@ -17659,7 +17658,7 @@
       </c>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>811</v>
       </c>
@@ -17702,7 +17701,7 @@
       </c>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>812</v>
       </c>
@@ -17745,7 +17744,7 @@
       </c>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>813</v>
       </c>
@@ -17788,7 +17787,7 @@
       </c>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>814</v>
       </c>
@@ -17831,7 +17830,7 @@
       </c>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>815</v>
       </c>
@@ -17874,7 +17873,7 @@
       </c>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>816</v>
       </c>
@@ -17917,7 +17916,7 @@
       </c>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>817</v>
       </c>
@@ -17960,7 +17959,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>820</v>
       </c>
@@ -18003,7 +18002,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>822</v>
       </c>
@@ -18046,7 +18045,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>823</v>
       </c>
@@ -18089,7 +18088,7 @@
       </c>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>824</v>
       </c>
@@ -18132,7 +18131,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>826</v>
       </c>
@@ -18175,7 +18174,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>827</v>
       </c>
@@ -18218,7 +18217,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>828</v>
       </c>
@@ -18261,7 +18260,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>829</v>
       </c>
@@ -18304,7 +18303,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>831</v>
       </c>
@@ -18347,7 +18346,7 @@
       </c>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>832</v>
       </c>
@@ -18390,7 +18389,7 @@
       </c>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>834</v>
       </c>
@@ -18433,7 +18432,7 @@
       </c>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>835</v>
       </c>
@@ -18476,7 +18475,7 @@
       </c>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>836</v>
       </c>
@@ -18521,7 +18520,7 @@
       </c>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>837</v>
       </c>
@@ -18566,7 +18565,7 @@
       </c>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>838</v>
       </c>
@@ -18609,7 +18608,7 @@
       </c>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>839</v>
       </c>
@@ -18652,7 +18651,7 @@
       </c>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>840</v>
       </c>
@@ -18695,7 +18694,7 @@
       </c>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>842</v>
       </c>
@@ -18738,7 +18737,7 @@
       </c>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>844</v>
       </c>
@@ -18781,7 +18780,7 @@
       </c>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>846</v>
       </c>
@@ -18824,7 +18823,7 @@
       </c>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>847</v>
       </c>
@@ -18867,7 +18866,7 @@
       </c>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>848</v>
       </c>
@@ -18910,7 +18909,7 @@
       </c>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>849</v>
       </c>
@@ -18955,7 +18954,7 @@
       </c>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>850</v>
       </c>
@@ -19000,7 +18999,7 @@
       </c>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>852</v>
       </c>
@@ -19045,7 +19044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>854</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>855</v>
       </c>
@@ -19133,7 +19132,7 @@
       </c>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>859</v>
       </c>
@@ -19176,7 +19175,7 @@
       </c>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>860</v>
       </c>
@@ -19221,7 +19220,7 @@
       </c>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>861</v>
       </c>
@@ -19266,7 +19265,7 @@
       </c>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>862</v>
       </c>
@@ -19311,7 +19310,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>864</v>
       </c>
@@ -19354,7 +19353,7 @@
       </c>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>866</v>
       </c>
@@ -19397,7 +19396,7 @@
       </c>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>868</v>
       </c>
@@ -19440,7 +19439,7 @@
       </c>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
         <v>870</v>
       </c>
@@ -19483,7 +19482,7 @@
       </c>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
         <v>871</v>
       </c>
@@ -19526,7 +19525,7 @@
       </c>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
         <v>873</v>
       </c>
@@ -19569,7 +19568,7 @@
       </c>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" s="18" t="s">
         <v>874</v>
       </c>
@@ -19612,7 +19611,7 @@
       </c>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" s="18" t="s">
         <v>875</v>
       </c>
@@ -19657,7 +19656,7 @@
       </c>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>876</v>
       </c>
@@ -19702,7 +19701,7 @@
       </c>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" s="18" t="s">
         <v>878</v>
       </c>
@@ -19747,7 +19746,7 @@
       </c>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" s="18" t="s">
         <v>879</v>
       </c>
@@ -19792,7 +19791,7 @@
       </c>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" s="18" t="s">
         <v>880</v>
       </c>
@@ -19837,7 +19836,7 @@
       </c>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>881</v>
       </c>
@@ -19880,7 +19879,7 @@
       </c>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" s="18" t="s">
         <v>884</v>
       </c>
@@ -19919,11 +19918,11 @@
       </c>
       <c r="M222" s="18"/>
       <c r="N222" s="18" t="s">
-        <v>372</v>
+        <v>735</v>
       </c>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
         <v>886</v>
       </c>
@@ -19966,7 +19965,7 @@
       </c>
       <c r="O223" s="18"/>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" s="18" t="s">
         <v>887</v>
       </c>
@@ -20009,7 +20008,7 @@
       </c>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
         <v>889</v>
       </c>
@@ -20052,7 +20051,7 @@
       </c>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="18" t="s">
         <v>890</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
         <v>893</v>
       </c>
@@ -20140,7 +20139,7 @@
       </c>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
         <v>894</v>
       </c>
@@ -20185,7 +20184,7 @@
       </c>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>895</v>
       </c>
@@ -20230,7 +20229,7 @@
       </c>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
         <v>897</v>
       </c>
@@ -20273,7 +20272,7 @@
       </c>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>899</v>
       </c>
@@ -20316,7 +20315,7 @@
       </c>
       <c r="O231" s="18"/>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
         <v>900</v>
       </c>
@@ -20359,7 +20358,7 @@
       </c>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" s="18" t="s">
         <v>901</v>
       </c>
@@ -20402,7 +20401,7 @@
       </c>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" s="18" t="s">
         <v>902</v>
       </c>
@@ -20445,7 +20444,7 @@
       </c>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" s="18" t="s">
         <v>904</v>
       </c>
@@ -20488,7 +20487,7 @@
       </c>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>907</v>
       </c>
@@ -20531,7 +20530,7 @@
       </c>
       <c r="O236" s="18"/>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>908</v>
       </c>
@@ -20574,7 +20573,7 @@
       </c>
       <c r="O237" s="18"/>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>909</v>
       </c>
@@ -20617,7 +20616,7 @@
       </c>
       <c r="O238" s="18"/>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" s="18" t="s">
         <v>912</v>
       </c>
@@ -20660,7 +20659,7 @@
       </c>
       <c r="O239" s="18"/>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" s="18" t="s">
         <v>915</v>
       </c>
@@ -20703,7 +20702,7 @@
       </c>
       <c r="O240" s="18"/>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" s="18" t="s">
         <v>917</v>
       </c>
@@ -20746,7 +20745,7 @@
       </c>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
         <v>918</v>
       </c>
@@ -20789,7 +20788,7 @@
       </c>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" s="18" t="s">
         <v>919</v>
       </c>
@@ -20834,7 +20833,7 @@
       </c>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" s="18" t="s">
         <v>920</v>
       </c>
@@ -20877,7 +20876,7 @@
       </c>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" s="18" t="s">
         <v>921</v>
       </c>
@@ -20920,7 +20919,7 @@
       </c>
       <c r="O245" s="18"/>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" s="18" t="s">
         <v>922</v>
       </c>
@@ -20963,7 +20962,7 @@
       </c>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" s="18" t="s">
         <v>923</v>
       </c>
@@ -21008,7 +21007,7 @@
       </c>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" s="18" t="s">
         <v>925</v>
       </c>
@@ -21051,7 +21050,7 @@
       </c>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>927</v>
       </c>
@@ -21094,7 +21093,7 @@
       </c>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>928</v>
       </c>
@@ -21139,7 +21138,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>929</v>
       </c>
@@ -21182,7 +21181,7 @@
       </c>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="18" t="s">
         <v>931</v>
       </c>
@@ -21225,7 +21224,7 @@
       </c>
       <c r="O252" s="18"/>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" s="18" t="s">
         <v>933</v>
       </c>
@@ -21268,7 +21267,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>934</v>
       </c>
@@ -21311,7 +21310,7 @@
       </c>
       <c r="O254" s="18"/>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>936</v>
       </c>
@@ -21354,7 +21353,7 @@
       </c>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" s="18" t="s">
         <v>937</v>
       </c>
@@ -21397,7 +21396,7 @@
       </c>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" s="18" t="s">
         <v>938</v>
       </c>
@@ -21442,7 +21441,7 @@
       </c>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
         <v>939</v>
       </c>
@@ -21487,7 +21486,7 @@
       </c>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" s="18" t="s">
         <v>940</v>
       </c>
@@ -21530,7 +21529,7 @@
       </c>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" s="18" t="s">
         <v>943</v>
       </c>
@@ -21575,7 +21574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" s="18" t="s">
         <v>945</v>
       </c>
@@ -21618,7 +21617,7 @@
       </c>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" s="18" t="s">
         <v>946</v>
       </c>
@@ -21661,7 +21660,7 @@
       </c>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" s="18" t="s">
         <v>947</v>
       </c>
@@ -21704,7 +21703,7 @@
       </c>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" s="18" t="s">
         <v>948</v>
       </c>
@@ -21749,7 +21748,7 @@
       </c>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" s="18" t="s">
         <v>949</v>
       </c>
@@ -21794,7 +21793,7 @@
       </c>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" s="18" t="s">
         <v>950</v>
       </c>
@@ -21837,7 +21836,7 @@
       </c>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" s="18" t="s">
         <v>954</v>
       </c>
@@ -21880,7 +21879,7 @@
       </c>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" s="18" t="s">
         <v>957</v>
       </c>
@@ -21923,7 +21922,7 @@
       </c>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" s="18" t="s">
         <v>960</v>
       </c>
@@ -21966,7 +21965,7 @@
       </c>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" s="18" t="s">
         <v>963</v>
       </c>
@@ -22009,7 +22008,7 @@
       </c>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>965</v>
       </c>
@@ -22054,7 +22053,7 @@
       </c>
       <c r="O271" s="18"/>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" s="18" t="s">
         <v>967</v>
       </c>
@@ -22099,7 +22098,7 @@
       </c>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" s="18" t="s">
         <v>969</v>
       </c>
@@ -22144,7 +22143,7 @@
       </c>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" s="18" t="s">
         <v>971</v>
       </c>
@@ -22189,7 +22188,7 @@
       </c>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" s="18" t="s">
         <v>973</v>
       </c>
@@ -22232,7 +22231,7 @@
       </c>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
         <v>975</v>
       </c>
@@ -22275,7 +22274,7 @@
       </c>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
         <v>977</v>
       </c>
@@ -22318,7 +22317,7 @@
       </c>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
         <v>979</v>
       </c>
@@ -22361,7 +22360,7 @@
       </c>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
         <v>980</v>
       </c>
@@ -22406,7 +22405,7 @@
       </c>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
         <v>981</v>
       </c>
@@ -22451,7 +22450,7 @@
       </c>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>982</v>
       </c>
@@ -22496,7 +22495,7 @@
       </c>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" s="18" t="s">
         <v>984</v>
       </c>
@@ -22541,7 +22540,7 @@
       </c>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>986</v>
       </c>
@@ -22584,7 +22583,7 @@
       </c>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>987</v>
       </c>
@@ -22627,7 +22626,7 @@
       </c>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" s="18" t="s">
         <v>988</v>
       </c>
@@ -22670,7 +22669,7 @@
       </c>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" s="18" t="s">
         <v>991</v>
       </c>
@@ -22713,7 +22712,7 @@
       </c>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" s="18" t="s">
         <v>993</v>
       </c>
@@ -22756,7 +22755,7 @@
       </c>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" s="18" t="s">
         <v>994</v>
       </c>
@@ -22799,7 +22798,7 @@
       </c>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" s="18" t="s">
         <v>995</v>
       </c>
@@ -22842,7 +22841,7 @@
       </c>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" s="18" t="s">
         <v>996</v>
       </c>
@@ -22887,7 +22886,7 @@
       </c>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" s="18" t="s">
         <v>997</v>
       </c>
@@ -22932,7 +22931,7 @@
       </c>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" s="18" t="s">
         <v>998</v>
       </c>
@@ -22977,7 +22976,7 @@
       </c>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>999</v>
       </c>
@@ -23022,7 +23021,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>1000</v>
       </c>
@@ -23065,7 +23064,7 @@
       </c>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" s="18" t="s">
         <v>1003</v>
       </c>
@@ -23108,7 +23107,7 @@
       </c>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" s="18" t="s">
         <v>1004</v>
       </c>
@@ -23151,7 +23150,7 @@
       </c>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" s="18" t="s">
         <v>1005</v>
       </c>
@@ -23194,7 +23193,7 @@
       </c>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" s="18" t="s">
         <v>1006</v>
       </c>
@@ -23239,7 +23238,7 @@
       </c>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
         <v>1007</v>
       </c>
@@ -23284,7 +23283,7 @@
       </c>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>1008</v>
       </c>
@@ -23329,7 +23328,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1009</v>
       </c>
@@ -23372,7 +23371,7 @@
       </c>
       <c r="O301" s="18"/>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
         <v>1012</v>
       </c>
@@ -23415,7 +23414,7 @@
       </c>
       <c r="O302" s="18"/>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
         <v>1016</v>
       </c>
@@ -23458,7 +23457,7 @@
       </c>
       <c r="O303" s="18"/>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" s="18" t="s">
         <v>1019</v>
       </c>
@@ -23503,7 +23502,7 @@
       </c>
       <c r="O304" s="18"/>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" s="18" t="s">
         <v>1021</v>
       </c>
@@ -23548,7 +23547,7 @@
       </c>
       <c r="O305" s="18"/>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" s="18" t="s">
         <v>1023</v>
       </c>
@@ -23591,7 +23590,7 @@
       </c>
       <c r="O306" s="18"/>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>1024</v>
       </c>
@@ -23634,7 +23633,7 @@
       </c>
       <c r="O307" s="18"/>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
         <v>1025</v>
       </c>
@@ -23677,7 +23676,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1026</v>
       </c>
@@ -23720,7 +23719,7 @@
       </c>
       <c r="O309" s="18"/>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" s="18" t="s">
         <v>1028</v>
       </c>
@@ -23763,7 +23762,7 @@
       </c>
       <c r="O310" s="18"/>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" s="18" t="s">
         <v>1029</v>
       </c>
@@ -23806,7 +23805,7 @@
       </c>
       <c r="O311" s="18"/>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" s="18" t="s">
         <v>1030</v>
       </c>
@@ -23849,7 +23848,7 @@
       </c>
       <c r="O312" s="18"/>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" s="18" t="s">
         <v>1031</v>
       </c>
@@ -23892,7 +23891,7 @@
       </c>
       <c r="O313" s="18"/>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" s="18" t="s">
         <v>1032</v>
       </c>
@@ -23935,7 +23934,7 @@
       </c>
       <c r="O314" s="18"/>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" s="18" t="s">
         <v>1033</v>
       </c>
@@ -23980,7 +23979,7 @@
       </c>
       <c r="O315" s="18"/>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" s="18" t="s">
         <v>1034</v>
       </c>
@@ -24025,7 +24024,7 @@
       </c>
       <c r="O316" s="18"/>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" s="18" t="s">
         <v>1035</v>
       </c>
@@ -24070,7 +24069,7 @@
       </c>
       <c r="O317" s="18"/>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" s="18" t="s">
         <v>1036</v>
       </c>
@@ -24115,7 +24114,7 @@
       </c>
       <c r="O318" s="18"/>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" s="18" t="s">
         <v>1037</v>
       </c>
@@ -24160,7 +24159,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>1038</v>
       </c>
@@ -24203,7 +24202,7 @@
       </c>
       <c r="O320" s="18"/>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>1039</v>
       </c>
@@ -24246,7 +24245,7 @@
       </c>
       <c r="O321" s="18"/>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" s="18" t="s">
         <v>1040</v>
       </c>
@@ -24289,7 +24288,7 @@
       </c>
       <c r="O322" s="18"/>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" s="18" t="s">
         <v>1041</v>
       </c>
@@ -24332,7 +24331,7 @@
       </c>
       <c r="O323" s="18"/>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>1042</v>
       </c>
@@ -24375,7 +24374,7 @@
       </c>
       <c r="O324" s="18"/>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" s="18" t="s">
         <v>1043</v>
       </c>
@@ -24418,7 +24417,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>1044</v>
       </c>
@@ -24461,7 +24460,7 @@
       </c>
       <c r="O326" s="18"/>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" s="18" t="s">
         <v>1045</v>
       </c>
@@ -24504,7 +24503,7 @@
       </c>
       <c r="O327" s="18"/>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" s="18" t="s">
         <v>1046</v>
       </c>
@@ -24547,7 +24546,7 @@
       </c>
       <c r="O328" s="18"/>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" s="18" t="s">
         <v>1047</v>
       </c>
@@ -24592,7 +24591,7 @@
       </c>
       <c r="O329" s="18"/>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" s="18" t="s">
         <v>1048</v>
       </c>
@@ -24637,7 +24636,7 @@
       </c>
       <c r="O330" s="18"/>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" s="18" t="s">
         <v>1049</v>
       </c>
@@ -24680,7 +24679,7 @@
       </c>
       <c r="O331" s="18"/>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1052</v>
       </c>
@@ -24723,7 +24722,7 @@
       </c>
       <c r="O332" s="18"/>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>1053</v>
       </c>
@@ -24766,7 +24765,7 @@
       </c>
       <c r="O333" s="18"/>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" s="18" t="s">
         <v>1054</v>
       </c>
@@ -24809,7 +24808,7 @@
       </c>
       <c r="O334" s="18"/>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" s="18" t="s">
         <v>1055</v>
       </c>
@@ -24854,7 +24853,7 @@
       </c>
       <c r="O335" s="18"/>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" s="18" t="s">
         <v>1056</v>
       </c>
@@ -24897,7 +24896,7 @@
       </c>
       <c r="O336" s="18"/>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>1057</v>
       </c>
@@ -24940,7 +24939,7 @@
       </c>
       <c r="O337" s="18"/>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" s="18" t="s">
         <v>1058</v>
       </c>
@@ -24983,7 +24982,7 @@
       </c>
       <c r="O338" s="18"/>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" s="18" t="s">
         <v>1059</v>
       </c>
@@ -25028,7 +25027,7 @@
       </c>
       <c r="O339" s="18"/>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" s="18" t="s">
         <v>1060</v>
       </c>
@@ -25071,7 +25070,7 @@
       </c>
       <c r="O340" s="18"/>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" s="18" t="s">
         <v>1062</v>
       </c>
@@ -25114,7 +25113,7 @@
       </c>
       <c r="O341" s="18"/>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" s="18" t="s">
         <v>1063</v>
       </c>
@@ -25157,7 +25156,7 @@
       </c>
       <c r="O342" s="18"/>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" s="18" t="s">
         <v>1064</v>
       </c>
@@ -25202,7 +25201,7 @@
       </c>
       <c r="O343" s="18"/>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" s="18" t="s">
         <v>1066</v>
       </c>
@@ -25245,7 +25244,7 @@
       </c>
       <c r="O344" s="18"/>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" s="18" t="s">
         <v>1069</v>
       </c>
@@ -25288,7 +25287,7 @@
       </c>
       <c r="O345" s="18"/>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" s="18" t="s">
         <v>1071</v>
       </c>
@@ -25331,7 +25330,7 @@
       </c>
       <c r="O346" s="18"/>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" s="18" t="s">
         <v>1072</v>
       </c>
@@ -25374,7 +25373,7 @@
       </c>
       <c r="O347" s="18"/>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" s="18" t="s">
         <v>1073</v>
       </c>
@@ -25417,7 +25416,7 @@
       </c>
       <c r="O348" s="18"/>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" s="18" t="s">
         <v>1075</v>
       </c>
@@ -25462,7 +25461,7 @@
       </c>
       <c r="O349" s="18"/>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" s="18" t="s">
         <v>1076</v>
       </c>
@@ -25507,7 +25506,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1077</v>
       </c>
@@ -25550,7 +25549,7 @@
       </c>
       <c r="O351" s="18"/>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" s="18" t="s">
         <v>1081</v>
       </c>
@@ -25593,7 +25592,7 @@
       </c>
       <c r="O352" s="18"/>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" s="18" t="s">
         <v>1084</v>
       </c>
@@ -25636,7 +25635,7 @@
       </c>
       <c r="O353" s="18"/>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" s="18" t="s">
         <v>1087</v>
       </c>
@@ -25681,7 +25680,7 @@
       </c>
       <c r="O354" s="18"/>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" s="18" t="s">
         <v>1089</v>
       </c>
@@ -25724,7 +25723,7 @@
       </c>
       <c r="O355" s="18"/>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" s="18" t="s">
         <v>1091</v>
       </c>
@@ -25769,7 +25768,7 @@
       </c>
       <c r="O356" s="18"/>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" s="18" t="s">
         <v>1092</v>
       </c>
@@ -25814,7 +25813,7 @@
       </c>
       <c r="O357" s="18"/>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" s="18" t="s">
         <v>1728</v>
       </c>
@@ -25857,7 +25856,7 @@
       </c>
       <c r="O358" s="18"/>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>1731</v>
       </c>
@@ -25900,7 +25899,7 @@
       </c>
       <c r="O359" s="18"/>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>1734</v>
       </c>
@@ -25943,7 +25942,7 @@
       </c>
       <c r="O360" s="18"/>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" s="18" t="s">
         <v>1737</v>
       </c>
@@ -25986,7 +25985,7 @@
       </c>
       <c r="O361" s="18"/>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" s="18" t="s">
         <v>1739</v>
       </c>
@@ -26029,7 +26028,7 @@
       </c>
       <c r="O362" s="18"/>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" s="18" t="s">
         <v>1741</v>
       </c>
@@ -26072,7 +26071,7 @@
       </c>
       <c r="O363" s="18"/>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" s="18" t="s">
         <v>1742</v>
       </c>
@@ -26117,7 +26116,7 @@
       </c>
       <c r="O364" s="18"/>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" s="18" t="s">
         <v>1743</v>
       </c>
@@ -26162,7 +26161,7 @@
       </c>
       <c r="O365" s="18"/>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" s="18" t="s">
         <v>1744</v>
       </c>
@@ -26207,7 +26206,7 @@
       </c>
       <c r="O366" s="18"/>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" s="18" t="s">
         <v>1745</v>
       </c>
@@ -26252,7 +26251,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>1746</v>
       </c>
@@ -26295,7 +26294,7 @@
       </c>
       <c r="O368" s="18"/>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" s="18" t="s">
         <v>1747</v>
       </c>
@@ -26338,7 +26337,7 @@
       </c>
       <c r="O369" s="18"/>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" s="18" t="s">
         <v>1748</v>
       </c>
@@ -26383,7 +26382,7 @@
       </c>
       <c r="O370" s="18"/>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" s="18" t="s">
         <v>1749</v>
       </c>
@@ -26428,7 +26427,7 @@
       </c>
       <c r="O371" s="18"/>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" s="18" t="s">
         <v>1750</v>
       </c>
@@ -26473,7 +26472,7 @@
       </c>
       <c r="O372" s="18"/>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" s="18" t="s">
         <v>1751</v>
       </c>
@@ -26516,7 +26515,7 @@
       </c>
       <c r="O373" s="18"/>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" s="18" t="s">
         <v>1752</v>
       </c>
@@ -26561,7 +26560,7 @@
       </c>
       <c r="O374" s="18"/>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" s="18" t="s">
         <v>1753</v>
       </c>
@@ -26604,7 +26603,7 @@
       </c>
       <c r="O375" s="18"/>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" s="18" t="s">
         <v>1756</v>
       </c>
@@ -26649,7 +26648,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>1758</v>
       </c>
@@ -26692,7 +26691,7 @@
       </c>
       <c r="O377" s="18"/>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" s="18" t="s">
         <v>1761</v>
       </c>
@@ -26735,7 +26734,7 @@
       </c>
       <c r="O378" s="18"/>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" s="18" t="s">
         <v>1764</v>
       </c>
@@ -26780,7 +26779,7 @@
       </c>
       <c r="O379" s="18"/>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" s="18" t="s">
         <v>1766</v>
       </c>
@@ -26825,7 +26824,7 @@
       </c>
       <c r="O380" s="18"/>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" s="18" t="s">
         <v>1768</v>
       </c>
@@ -26870,7 +26869,7 @@
       </c>
       <c r="O381" s="18"/>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" s="18" t="s">
         <v>1904</v>
       </c>
@@ -26913,7 +26912,7 @@
       </c>
       <c r="O382" s="18"/>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>1908</v>
       </c>
@@ -26956,7 +26955,7 @@
       </c>
       <c r="O383" s="18"/>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" s="18" t="s">
         <v>1910</v>
       </c>
@@ -26999,7 +26998,7 @@
       </c>
       <c r="O384" s="18"/>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" s="18" t="s">
         <v>1912</v>
       </c>
@@ -27042,7 +27041,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>1914</v>
       </c>
@@ -27085,7 +27084,7 @@
       </c>
       <c r="O386" s="18"/>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" s="18" t="s">
         <v>1916</v>
       </c>
@@ -27128,7 +27127,7 @@
       </c>
       <c r="O387" s="18"/>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" s="18" t="s">
         <v>1919</v>
       </c>
@@ -27173,7 +27172,7 @@
       </c>
       <c r="O388" s="18"/>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" s="18" t="s">
         <v>1921</v>
       </c>
@@ -27218,7 +27217,7 @@
       </c>
       <c r="O389" s="18"/>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" s="18" t="s">
         <v>1923</v>
       </c>
@@ -27263,7 +27262,7 @@
       </c>
       <c r="O390" s="18"/>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" s="18" t="s">
         <v>1925</v>
       </c>
@@ -27308,7 +27307,7 @@
       </c>
       <c r="O391" s="18"/>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" s="18" t="s">
         <v>1927</v>
       </c>
@@ -27353,7 +27352,7 @@
       </c>
       <c r="O392" s="18"/>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" s="18" t="s">
         <v>1929</v>
       </c>
@@ -27398,7 +27397,7 @@
       </c>
       <c r="O393" s="18"/>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" s="18" t="s">
         <v>1931</v>
       </c>
@@ -27441,7 +27440,7 @@
       </c>
       <c r="O394" s="18"/>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" s="18" t="s">
         <v>1933</v>
       </c>
@@ -27484,7 +27483,7 @@
       </c>
       <c r="O395" s="18"/>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" s="18" t="s">
         <v>1936</v>
       </c>
@@ -27527,7 +27526,7 @@
       </c>
       <c r="O396" s="18"/>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" s="18" t="s">
         <v>1937</v>
       </c>
@@ -27570,7 +27569,7 @@
       </c>
       <c r="O397" s="18"/>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" s="18" t="s">
         <v>1939</v>
       </c>
@@ -27615,7 +27614,7 @@
       </c>
       <c r="O398" s="18"/>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>1940</v>
       </c>
@@ -27660,7 +27659,7 @@
       </c>
       <c r="O399" s="18"/>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" s="18" t="s">
         <v>1942</v>
       </c>
@@ -27705,7 +27704,7 @@
       </c>
       <c r="O400" s="18"/>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
         <v>2543</v>
       </c>
@@ -27750,7 +27749,7 @@
       </c>
       <c r="O401" s="18"/>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>1944</v>
       </c>
@@ -27795,7 +27794,7 @@
       </c>
       <c r="O402" s="18"/>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>1946</v>
       </c>
@@ -27840,7 +27839,7 @@
       </c>
       <c r="O403" s="18"/>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>1948</v>
       </c>
@@ -27883,7 +27882,7 @@
       </c>
       <c r="O404" s="18"/>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>1951</v>
       </c>
@@ -27926,7 +27925,7 @@
       </c>
       <c r="O405" s="18"/>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>1953</v>
       </c>
@@ -27969,7 +27968,7 @@
       </c>
       <c r="O406" s="18"/>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>1954</v>
       </c>
@@ -28012,7 +28011,7 @@
       </c>
       <c r="O407" s="18"/>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>1956</v>
       </c>
@@ -28055,7 +28054,7 @@
       </c>
       <c r="O408" s="18"/>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>1958</v>
       </c>
@@ -28098,7 +28097,7 @@
       </c>
       <c r="O409" s="18"/>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>1960</v>
       </c>
@@ -28141,7 +28140,7 @@
       </c>
       <c r="O410" s="18"/>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>1961</v>
       </c>
@@ -28186,7 +28185,7 @@
       </c>
       <c r="O411" s="18"/>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>1962</v>
       </c>
@@ -28231,7 +28230,7 @@
       </c>
       <c r="O412" s="18"/>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>1963</v>
       </c>
@@ -28276,7 +28275,7 @@
       </c>
       <c r="O413" s="18"/>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>1965</v>
       </c>
@@ -28319,7 +28318,7 @@
       </c>
       <c r="O414" s="18"/>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>1969</v>
       </c>
@@ -28362,7 +28361,7 @@
       </c>
       <c r="O415" s="18"/>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>1971</v>
       </c>
@@ -28405,7 +28404,7 @@
       </c>
       <c r="O416" s="18"/>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>1974</v>
       </c>
@@ -28448,7 +28447,7 @@
       </c>
       <c r="O417" s="18"/>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>1976</v>
       </c>
@@ -28491,7 +28490,7 @@
       </c>
       <c r="O418" s="18"/>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>1977</v>
       </c>
@@ -28534,7 +28533,7 @@
       </c>
       <c r="O419" s="18"/>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>1979</v>
       </c>
@@ -28577,7 +28576,7 @@
       </c>
       <c r="O420" s="18"/>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>1981</v>
       </c>
@@ -28620,7 +28619,7 @@
       </c>
       <c r="O421" s="18"/>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>1983</v>
       </c>
@@ -28663,7 +28662,7 @@
       </c>
       <c r="O422" s="18"/>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>1985</v>
       </c>
@@ -28706,7 +28705,7 @@
       </c>
       <c r="O423" s="18"/>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>1986</v>
       </c>
@@ -28749,7 +28748,7 @@
       </c>
       <c r="O424" s="18"/>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>1987</v>
       </c>
@@ -28792,7 +28791,7 @@
       </c>
       <c r="O425" s="18"/>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>1988</v>
       </c>
@@ -28837,7 +28836,7 @@
       </c>
       <c r="O426" s="18"/>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>1989</v>
       </c>
@@ -28882,7 +28881,7 @@
       </c>
       <c r="O427" s="18"/>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>1990</v>
       </c>
@@ -28927,7 +28926,7 @@
       </c>
       <c r="O428" s="18"/>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>1991</v>
       </c>
@@ -28972,7 +28971,7 @@
       </c>
       <c r="O429" s="18"/>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>1992</v>
       </c>
@@ -29017,7 +29016,7 @@
       </c>
       <c r="O430" s="18"/>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>1993</v>
       </c>
@@ -29060,7 +29059,7 @@
       </c>
       <c r="O431" s="18"/>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>1996</v>
       </c>
@@ -29103,7 +29102,7 @@
       </c>
       <c r="O432" s="18"/>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>1998</v>
       </c>
@@ -29146,7 +29145,7 @@
       </c>
       <c r="O433" s="18"/>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>2001</v>
       </c>
@@ -29189,7 +29188,7 @@
       </c>
       <c r="O434" s="18"/>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>2003</v>
       </c>
@@ -29232,7 +29231,7 @@
       </c>
       <c r="O435" s="18"/>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>2005</v>
       </c>
@@ -29275,7 +29274,7 @@
       </c>
       <c r="O436" s="18"/>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>2007</v>
       </c>
@@ -29318,7 +29317,7 @@
       </c>
       <c r="O437" s="18"/>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>2011</v>
       </c>
@@ -29361,7 +29360,7 @@
       </c>
       <c r="O438" s="18"/>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>2013</v>
       </c>
@@ -29404,7 +29403,7 @@
       </c>
       <c r="O439" s="18"/>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>2016</v>
       </c>
@@ -29447,7 +29446,7 @@
       </c>
       <c r="O440" s="18"/>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>2020</v>
       </c>
@@ -29490,7 +29489,7 @@
       </c>
       <c r="O441" s="18"/>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>2024</v>
       </c>
@@ -29533,7 +29532,7 @@
       </c>
       <c r="O442" s="18"/>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>2026</v>
       </c>
@@ -29576,7 +29575,7 @@
       </c>
       <c r="O443" s="18"/>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>2028</v>
       </c>
@@ -29619,7 +29618,7 @@
       </c>
       <c r="O444" s="18"/>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>2031</v>
       </c>
@@ -29662,7 +29661,7 @@
       </c>
       <c r="O445" s="18"/>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>2033</v>
       </c>
@@ -29705,7 +29704,7 @@
       </c>
       <c r="O446" s="18"/>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>2035</v>
       </c>
@@ -29748,7 +29747,7 @@
       </c>
       <c r="O447" s="18"/>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" s="18" t="s">
         <v>2037</v>
       </c>
@@ -29791,7 +29790,7 @@
       </c>
       <c r="O448" s="18"/>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" s="18" t="s">
         <v>2040</v>
       </c>
@@ -29834,7 +29833,7 @@
       </c>
       <c r="O449" s="18"/>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" s="18" t="s">
         <v>2042</v>
       </c>
@@ -29877,7 +29876,7 @@
       </c>
       <c r="O450" s="18"/>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" s="18" t="s">
         <v>2044</v>
       </c>
@@ -29920,7 +29919,7 @@
       </c>
       <c r="O451" s="18"/>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" s="18" t="s">
         <v>2046</v>
       </c>
@@ -29963,7 +29962,7 @@
       </c>
       <c r="O452" s="18"/>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" s="18" t="s">
         <v>2048</v>
       </c>
@@ -30006,7 +30005,7 @@
       </c>
       <c r="O453" s="18"/>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" s="18" t="s">
         <v>2050</v>
       </c>
@@ -30049,7 +30048,7 @@
       </c>
       <c r="O454" s="18"/>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" s="18" t="s">
         <v>2052</v>
       </c>
@@ -30092,7 +30091,7 @@
       </c>
       <c r="O455" s="18"/>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" s="18" t="s">
         <v>2053</v>
       </c>
@@ -30135,7 +30134,7 @@
       </c>
       <c r="O456" s="18"/>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" s="18" t="s">
         <v>2054</v>
       </c>
@@ -30178,7 +30177,7 @@
       </c>
       <c r="O457" s="18"/>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" s="18" t="s">
         <v>2056</v>
       </c>
@@ -30223,7 +30222,7 @@
       </c>
       <c r="O458" s="18"/>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>2057</v>
       </c>
@@ -30266,7 +30265,7 @@
       </c>
       <c r="O459" s="18"/>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" s="18" t="s">
         <v>2060</v>
       </c>
@@ -30309,7 +30308,7 @@
       </c>
       <c r="O460" s="18"/>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" s="18" t="s">
         <v>2062</v>
       </c>
@@ -30352,7 +30351,7 @@
       </c>
       <c r="O461" s="18"/>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" s="18" t="s">
         <v>2064</v>
       </c>
@@ -30395,7 +30394,7 @@
       </c>
       <c r="O462" s="18"/>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" s="18" t="s">
         <v>2066</v>
       </c>
@@ -30438,7 +30437,7 @@
       </c>
       <c r="O463" s="18"/>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" s="18" t="s">
         <v>2068</v>
       </c>
@@ -30481,7 +30480,7 @@
       </c>
       <c r="O464" s="18"/>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>2070</v>
       </c>
@@ -30524,7 +30523,7 @@
       </c>
       <c r="O465" s="18"/>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" s="18" t="s">
         <v>2072</v>
       </c>
@@ -30567,7 +30566,7 @@
       </c>
       <c r="O466" s="18"/>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" s="18" t="s">
         <v>2074</v>
       </c>
@@ -30612,7 +30611,7 @@
       </c>
       <c r="O467" s="18"/>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" s="18" t="s">
         <v>2076</v>
       </c>
@@ -30657,7 +30656,7 @@
       </c>
       <c r="O468" s="18"/>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" s="18" t="s">
         <v>2078</v>
       </c>
@@ -30700,7 +30699,7 @@
       </c>
       <c r="O469" s="18"/>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" s="18" t="s">
         <v>2081</v>
       </c>
@@ -30743,7 +30742,7 @@
       </c>
       <c r="O470" s="18"/>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" s="18" t="s">
         <v>2082</v>
       </c>
@@ -30786,7 +30785,7 @@
       </c>
       <c r="O471" s="18"/>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" s="18" t="s">
         <v>2084</v>
       </c>
@@ -30831,7 +30830,7 @@
       </c>
       <c r="O472" s="18"/>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" s="18" t="s">
         <v>2086</v>
       </c>
@@ -30876,7 +30875,7 @@
       </c>
       <c r="O473" s="18"/>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>2088</v>
       </c>
@@ -30921,7 +30920,7 @@
       </c>
       <c r="O474" s="18"/>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>2090</v>
       </c>
@@ -30964,7 +30963,7 @@
       </c>
       <c r="O475" s="18"/>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" s="18" t="s">
         <v>2092</v>
       </c>
@@ -31007,7 +31006,7 @@
       </c>
       <c r="O476" s="18"/>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" s="18" t="s">
         <v>2095</v>
       </c>
@@ -31050,7 +31049,7 @@
       </c>
       <c r="O477" s="18"/>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" s="18" t="s">
         <v>2096</v>
       </c>
@@ -31093,7 +31092,7 @@
       </c>
       <c r="O478" s="18"/>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" s="18" t="s">
         <v>2097</v>
       </c>
@@ -31136,7 +31135,7 @@
       </c>
       <c r="O479" s="18"/>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" s="18" t="s">
         <v>2098</v>
       </c>
@@ -31179,7 +31178,7 @@
       </c>
       <c r="O480" s="18"/>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" s="18" t="s">
         <v>2099</v>
       </c>
@@ -31222,7 +31221,7 @@
       </c>
       <c r="O481" s="18"/>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" s="18" t="s">
         <v>2100</v>
       </c>
@@ -31265,7 +31264,7 @@
       </c>
       <c r="O482" s="18"/>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" s="18" t="s">
         <v>2101</v>
       </c>
@@ -31308,7 +31307,7 @@
       </c>
       <c r="O483" s="18"/>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" s="18" t="s">
         <v>2102</v>
       </c>
@@ -31351,7 +31350,7 @@
       </c>
       <c r="O484" s="18"/>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" s="18" t="s">
         <v>2103</v>
       </c>
@@ -31394,7 +31393,7 @@
       </c>
       <c r="O485" s="18"/>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" s="18" t="s">
         <v>2104</v>
       </c>
@@ -31437,7 +31436,7 @@
       </c>
       <c r="O486" s="18"/>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" s="18" t="s">
         <v>2105</v>
       </c>
@@ -31480,7 +31479,7 @@
       </c>
       <c r="O487" s="18"/>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" s="18" t="s">
         <v>2106</v>
       </c>
@@ -31523,7 +31522,7 @@
       </c>
       <c r="O488" s="18"/>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" s="18" t="s">
         <v>2107</v>
       </c>
@@ -31566,7 +31565,7 @@
       </c>
       <c r="O489" s="18"/>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" s="18" t="s">
         <v>2108</v>
       </c>
@@ -31609,7 +31608,7 @@
       </c>
       <c r="O490" s="18"/>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" s="18" t="s">
         <v>2109</v>
       </c>
@@ -31654,7 +31653,7 @@
       </c>
       <c r="O491" s="18"/>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" s="18" t="s">
         <v>2110</v>
       </c>
@@ -31697,7 +31696,7 @@
       </c>
       <c r="O492" s="18"/>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" s="18" t="s">
         <v>2113</v>
       </c>
@@ -31740,7 +31739,7 @@
       </c>
       <c r="O493" s="18"/>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" s="18" t="s">
         <v>2116</v>
       </c>
@@ -31783,7 +31782,7 @@
       </c>
       <c r="O494" s="18"/>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A495" s="18" t="s">
         <v>2118</v>
       </c>
@@ -31826,7 +31825,7 @@
       </c>
       <c r="O495" s="18"/>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" s="18" t="s">
         <v>2120</v>
       </c>
@@ -31869,7 +31868,7 @@
       </c>
       <c r="O496" s="18"/>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" s="18" t="s">
         <v>2122</v>
       </c>
@@ -31912,7 +31911,7 @@
       </c>
       <c r="O497" s="18"/>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" s="18" t="s">
         <v>2124</v>
       </c>
@@ -31957,7 +31956,7 @@
       </c>
       <c r="O498" s="18"/>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A499" s="18" t="s">
         <v>2126</v>
       </c>
@@ -32000,7 +31999,7 @@
       </c>
       <c r="O499" s="18"/>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" s="18" t="s">
         <v>2127</v>
       </c>
@@ -32043,7 +32042,7 @@
       </c>
       <c r="O500" s="18"/>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" s="18" t="s">
         <v>2128</v>
       </c>
@@ -32086,7 +32085,7 @@
       </c>
       <c r="O501" s="18"/>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" s="18" t="s">
         <v>2129</v>
       </c>
@@ -32129,7 +32128,7 @@
       </c>
       <c r="O502" s="18"/>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A503" s="18" t="s">
         <v>2130</v>
       </c>
@@ -32172,7 +32171,7 @@
       </c>
       <c r="O503" s="18"/>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" s="18" t="s">
         <v>2132</v>
       </c>
@@ -32215,7 +32214,7 @@
       </c>
       <c r="O504" s="18"/>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" s="18" t="s">
         <v>2134</v>
       </c>
@@ -32258,7 +32257,7 @@
       </c>
       <c r="O505" s="18"/>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" s="18" t="s">
         <v>2136</v>
       </c>
@@ -32301,7 +32300,7 @@
       </c>
       <c r="O506" s="18"/>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" s="18" t="s">
         <v>2138</v>
       </c>
@@ -32344,7 +32343,7 @@
       </c>
       <c r="O507" s="18"/>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A508" s="18" t="s">
         <v>2140</v>
       </c>
@@ -32387,7 +32386,7 @@
       </c>
       <c r="O508" s="18"/>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A509" s="18" t="s">
         <v>2141</v>
       </c>
@@ -32430,7 +32429,7 @@
       </c>
       <c r="O509" s="18"/>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A510" s="18" t="s">
         <v>2142</v>
       </c>
@@ -32473,7 +32472,7 @@
       </c>
       <c r="O510" s="18"/>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A511" s="18" t="s">
         <v>2145</v>
       </c>
@@ -32518,7 +32517,7 @@
       </c>
       <c r="O511" s="18"/>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A512" s="18" t="s">
         <v>2147</v>
       </c>
@@ -32561,7 +32560,7 @@
       </c>
       <c r="O512" s="18"/>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A513" s="18" t="s">
         <v>2148</v>
       </c>
@@ -32604,7 +32603,7 @@
       </c>
       <c r="O513" s="18"/>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A514" s="18" t="s">
         <v>2151</v>
       </c>
@@ -32647,7 +32646,7 @@
       </c>
       <c r="O514" s="18"/>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A515" s="18" t="s">
         <v>2152</v>
       </c>
@@ -32692,7 +32691,7 @@
       </c>
       <c r="O515" s="18"/>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A516" s="18" t="s">
         <v>2153</v>
       </c>
@@ -32735,7 +32734,7 @@
       </c>
       <c r="O516" s="18"/>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A517" s="18" t="s">
         <v>2154</v>
       </c>
@@ -32778,7 +32777,7 @@
       </c>
       <c r="O517" s="18"/>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A518" s="18" t="s">
         <v>2156</v>
       </c>
@@ -32821,7 +32820,7 @@
       </c>
       <c r="O518" s="18"/>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A519" s="18" t="s">
         <v>2157</v>
       </c>
@@ -32864,7 +32863,7 @@
       </c>
       <c r="O519" s="18"/>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A520" s="18" t="s">
         <v>2158</v>
       </c>
@@ -32907,7 +32906,7 @@
       </c>
       <c r="O520" s="18"/>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A521" s="18" t="s">
         <v>2159</v>
       </c>
@@ -32950,7 +32949,7 @@
       </c>
       <c r="O521" s="18"/>
     </row>
-    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A522" s="18" t="s">
         <v>2160</v>
       </c>
@@ -32993,7 +32992,7 @@
       </c>
       <c r="O522" s="18"/>
     </row>
-    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A523" s="18" t="s">
         <v>2161</v>
       </c>
@@ -33036,7 +33035,7 @@
       </c>
       <c r="O523" s="18"/>
     </row>
-    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A524" s="18" t="s">
         <v>2162</v>
       </c>
@@ -33081,7 +33080,7 @@
       </c>
       <c r="O524" s="18"/>
     </row>
-    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A525" s="18" t="s">
         <v>2163</v>
       </c>
@@ -33126,7 +33125,7 @@
       </c>
       <c r="O525" s="18"/>
     </row>
-    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A526" s="18" t="s">
         <v>2164</v>
       </c>
@@ -33169,7 +33168,7 @@
       </c>
       <c r="O526" s="18"/>
     </row>
-    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A527" s="18" t="s">
         <v>2165</v>
       </c>
@@ -33212,7 +33211,7 @@
       </c>
       <c r="O527" s="18"/>
     </row>
-    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A528" s="18" t="s">
         <v>2166</v>
       </c>
@@ -33257,7 +33256,7 @@
       </c>
       <c r="O528" s="18"/>
     </row>
-    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A529" s="18" t="s">
         <v>2167</v>
       </c>
@@ -33300,7 +33299,7 @@
       </c>
       <c r="O529" s="18"/>
     </row>
-    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A530" s="18" t="s">
         <v>2170</v>
       </c>
@@ -33343,7 +33342,7 @@
       </c>
       <c r="O530" s="18"/>
     </row>
-    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A531" s="18" t="s">
         <v>2172</v>
       </c>
@@ -33386,7 +33385,7 @@
       </c>
       <c r="O531" s="18"/>
     </row>
-    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A532" s="18" t="s">
         <v>2173</v>
       </c>
@@ -33429,7 +33428,7 @@
       </c>
       <c r="O532" s="18"/>
     </row>
-    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A533" s="18" t="s">
         <v>2175</v>
       </c>
@@ -33472,7 +33471,7 @@
       </c>
       <c r="O533" s="18"/>
     </row>
-    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A534" s="18" t="s">
         <v>2177</v>
       </c>
@@ -33515,7 +33514,7 @@
       </c>
       <c r="O534" s="18"/>
     </row>
-    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A535" s="18" t="s">
         <v>2179</v>
       </c>
@@ -33560,7 +33559,7 @@
       </c>
       <c r="O535" s="18"/>
     </row>
-    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A536" s="18" t="s">
         <v>2181</v>
       </c>
@@ -33605,7 +33604,7 @@
       </c>
       <c r="O536" s="18"/>
     </row>
-    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A537" s="18" t="s">
         <v>2183</v>
       </c>
@@ -33650,7 +33649,7 @@
       </c>
       <c r="O537" s="18"/>
     </row>
-    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A538" s="18" t="s">
         <v>2185</v>
       </c>
@@ -33695,7 +33694,7 @@
       </c>
       <c r="O538" s="18"/>
     </row>
-    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A539" s="18" t="s">
         <v>2187</v>
       </c>
@@ -33738,7 +33737,7 @@
       </c>
       <c r="O539" s="18"/>
     </row>
-    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A540" s="18" t="s">
         <v>2189</v>
       </c>
@@ -33781,7 +33780,7 @@
       </c>
       <c r="O540" s="18"/>
     </row>
-    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A541" s="18" t="s">
         <v>2190</v>
       </c>
@@ -33824,7 +33823,7 @@
       </c>
       <c r="O541" s="18"/>
     </row>
-    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A542" s="18" t="s">
         <v>2191</v>
       </c>
@@ -33869,7 +33868,7 @@
       </c>
       <c r="O542" s="18"/>
     </row>
-    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A543" s="18" t="s">
         <v>2192</v>
       </c>
@@ -33912,7 +33911,7 @@
       </c>
       <c r="O543" s="18"/>
     </row>
-    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A544" s="18" t="s">
         <v>2193</v>
       </c>
@@ -33955,7 +33954,7 @@
       </c>
       <c r="O544" s="18"/>
     </row>
-    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A545" s="18" t="s">
         <v>2194</v>
       </c>
@@ -33998,7 +33997,7 @@
       </c>
       <c r="O545" s="18"/>
     </row>
-    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A546" s="18" t="s">
         <v>2195</v>
       </c>
@@ -34041,7 +34040,7 @@
       </c>
       <c r="O546" s="18"/>
     </row>
-    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A547" s="18" t="s">
         <v>2196</v>
       </c>
@@ -34084,7 +34083,7 @@
       </c>
       <c r="O547" s="18"/>
     </row>
-    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A548" s="18" t="s">
         <v>2197</v>
       </c>
@@ -34127,7 +34126,7 @@
       </c>
       <c r="O548" s="18"/>
     </row>
-    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A549" s="18" t="s">
         <v>2198</v>
       </c>
@@ -34170,7 +34169,7 @@
       </c>
       <c r="O549" s="18"/>
     </row>
-    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A550" s="18" t="s">
         <v>2199</v>
       </c>
@@ -34213,7 +34212,7 @@
       </c>
       <c r="O550" s="18"/>
     </row>
-    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A551" s="18" t="s">
         <v>2200</v>
       </c>
@@ -34256,7 +34255,7 @@
       </c>
       <c r="O551" s="18"/>
     </row>
-    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A552" s="18" t="s">
         <v>2201</v>
       </c>
@@ -34299,7 +34298,7 @@
       </c>
       <c r="O552" s="18"/>
     </row>
-    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A553" s="18" t="s">
         <v>2202</v>
       </c>
@@ -34342,7 +34341,7 @@
       </c>
       <c r="O553" s="18"/>
     </row>
-    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A554" s="18" t="s">
         <v>2203</v>
       </c>
@@ -34385,7 +34384,7 @@
       </c>
       <c r="O554" s="18"/>
     </row>
-    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A555" s="18" t="s">
         <v>2204</v>
       </c>
@@ -34428,7 +34427,7 @@
       </c>
       <c r="O555" s="18"/>
     </row>
-    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A556" s="18" t="s">
         <v>2205</v>
       </c>
@@ -34471,7 +34470,7 @@
       </c>
       <c r="O556" s="18"/>
     </row>
-    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A557" s="18" t="s">
         <v>2206</v>
       </c>
@@ -34514,7 +34513,7 @@
       </c>
       <c r="O557" s="18"/>
     </row>
-    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A558" s="18" t="s">
         <v>2208</v>
       </c>
@@ -34557,7 +34556,7 @@
       </c>
       <c r="O558" s="18"/>
     </row>
-    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A559" s="18" t="s">
         <v>2209</v>
       </c>
@@ -34600,7 +34599,7 @@
       </c>
       <c r="O559" s="18"/>
     </row>
-    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A560" s="18" t="s">
         <v>2210</v>
       </c>
@@ -34643,7 +34642,7 @@
       </c>
       <c r="O560" s="18"/>
     </row>
-    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A561" s="18" t="s">
         <v>2212</v>
       </c>
@@ -34686,7 +34685,7 @@
       </c>
       <c r="O561" s="18"/>
     </row>
-    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A562" s="18" t="s">
         <v>2214</v>
       </c>
@@ -34729,7 +34728,7 @@
       </c>
       <c r="O562" s="18"/>
     </row>
-    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A563" s="18" t="s">
         <v>2216</v>
       </c>
@@ -34772,7 +34771,7 @@
       </c>
       <c r="O563" s="18"/>
     </row>
-    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A564" s="18" t="s">
         <v>2218</v>
       </c>
@@ -34815,7 +34814,7 @@
       </c>
       <c r="O564" s="18"/>
     </row>
-    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A565" s="18" t="s">
         <v>2220</v>
       </c>
@@ -34858,7 +34857,7 @@
       </c>
       <c r="O565" s="18"/>
     </row>
-    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A566" s="18" t="s">
         <v>2222</v>
       </c>
@@ -34901,7 +34900,7 @@
       </c>
       <c r="O566" s="18"/>
     </row>
-    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A567" s="18" t="s">
         <v>2224</v>
       </c>
@@ -34944,7 +34943,7 @@
       </c>
       <c r="O567" s="18"/>
     </row>
-    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A568" s="18" t="s">
         <v>2226</v>
       </c>
@@ -34987,7 +34986,7 @@
       </c>
       <c r="O568" s="18"/>
     </row>
-    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A569" s="18" t="s">
         <v>2228</v>
       </c>
@@ -35030,7 +35029,7 @@
       </c>
       <c r="O569" s="18"/>
     </row>
-    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A570" s="18" t="s">
         <v>2230</v>
       </c>
@@ -35073,7 +35072,7 @@
       </c>
       <c r="O570" s="18"/>
     </row>
-    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A571" s="18" t="s">
         <v>2232</v>
       </c>
@@ -35116,7 +35115,7 @@
       </c>
       <c r="O571" s="18"/>
     </row>
-    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A572" s="18" t="s">
         <v>2234</v>
       </c>
@@ -35159,7 +35158,7 @@
       </c>
       <c r="O572" s="18"/>
     </row>
-    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A573" s="18" t="s">
         <v>2235</v>
       </c>
@@ -35204,7 +35203,7 @@
       </c>
       <c r="O573" s="18"/>
     </row>
-    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A574" s="18" t="s">
         <v>2236</v>
       </c>
@@ -35249,7 +35248,7 @@
       </c>
       <c r="O574" s="18"/>
     </row>
-    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A575" s="18" t="s">
         <v>2237</v>
       </c>
@@ -35292,7 +35291,7 @@
       </c>
       <c r="O575" s="18"/>
     </row>
-    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A576" s="18" t="s">
         <v>2238</v>
       </c>
@@ -35335,7 +35334,7 @@
       </c>
       <c r="O576" s="18"/>
     </row>
-    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A577" s="18" t="s">
         <v>2239</v>
       </c>
@@ -35378,7 +35377,7 @@
       </c>
       <c r="O577" s="18"/>
     </row>
-    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A578" s="18" t="s">
         <v>2240</v>
       </c>
@@ -35421,7 +35420,7 @@
       </c>
       <c r="O578" s="18"/>
     </row>
-    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A579" s="18" t="s">
         <v>2241</v>
       </c>
@@ -35466,7 +35465,7 @@
       </c>
       <c r="O579" s="18"/>
     </row>
-    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A580" s="18" t="s">
         <v>2242</v>
       </c>
@@ -35511,7 +35510,7 @@
       </c>
       <c r="O580" s="18"/>
     </row>
-    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A581" s="18" t="s">
         <v>2243</v>
       </c>
@@ -35554,7 +35553,7 @@
       </c>
       <c r="O581" s="18"/>
     </row>
-    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A582" s="18" t="s">
         <v>2244</v>
       </c>
@@ -35597,7 +35596,7 @@
       </c>
       <c r="O582" s="18"/>
     </row>
-    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A583" s="18" t="s">
         <v>2245</v>
       </c>
@@ -35640,7 +35639,7 @@
       </c>
       <c r="O583" s="18"/>
     </row>
-    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A584" s="18" t="s">
         <v>2246</v>
       </c>
@@ -35683,7 +35682,7 @@
       </c>
       <c r="O584" s="18"/>
     </row>
-    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A585" s="18" t="s">
         <v>2247</v>
       </c>
@@ -35726,7 +35725,7 @@
       </c>
       <c r="O585" s="18"/>
     </row>
-    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A586" s="18" t="s">
         <v>2248</v>
       </c>
@@ -35769,7 +35768,7 @@
       </c>
       <c r="O586" s="18"/>
     </row>
-    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A587" s="18" t="s">
         <v>2249</v>
       </c>
@@ -35812,7 +35811,7 @@
       </c>
       <c r="O587" s="18"/>
     </row>
-    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A588" s="18" t="s">
         <v>2250</v>
       </c>
@@ -35857,7 +35856,7 @@
       </c>
       <c r="O588" s="18"/>
     </row>
-    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A589" s="18" t="s">
         <v>2251</v>
       </c>
@@ -35900,7 +35899,7 @@
       </c>
       <c r="O589" s="18"/>
     </row>
-    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A590" s="18" t="s">
         <v>2252</v>
       </c>
@@ -35943,7 +35942,7 @@
       </c>
       <c r="O590" s="18"/>
     </row>
-    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A591" s="18" t="s">
         <v>2253</v>
       </c>
@@ -35986,7 +35985,7 @@
       </c>
       <c r="O591" s="18"/>
     </row>
-    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A592" s="18" t="s">
         <v>2255</v>
       </c>
@@ -36031,7 +36030,7 @@
       </c>
       <c r="O592" s="18"/>
     </row>
-    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A593" s="18" t="s">
         <v>2256</v>
       </c>
@@ -36076,7 +36075,7 @@
       </c>
       <c r="O593" s="18"/>
     </row>
-    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A594" s="18" t="s">
         <v>2257</v>
       </c>
@@ -36119,7 +36118,7 @@
       </c>
       <c r="O594" s="18"/>
     </row>
-    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A595" s="18" t="s">
         <v>2259</v>
       </c>
@@ -36162,7 +36161,7 @@
       </c>
       <c r="O595" s="18"/>
     </row>
-    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A596" s="18" t="s">
         <v>2260</v>
       </c>
@@ -36205,7 +36204,7 @@
       </c>
       <c r="O596" s="18"/>
     </row>
-    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A597" s="18" t="s">
         <v>2261</v>
       </c>
@@ -36248,7 +36247,7 @@
       </c>
       <c r="O597" s="18"/>
     </row>
-    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A598" s="18" t="s">
         <v>2262</v>
       </c>
@@ -36291,7 +36290,7 @@
       </c>
       <c r="O598" s="18"/>
     </row>
-    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A599" s="18" t="s">
         <v>2263</v>
       </c>
@@ -36334,7 +36333,7 @@
       </c>
       <c r="O599" s="18"/>
     </row>
-    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A600" s="18" t="s">
         <v>2264</v>
       </c>
@@ -36377,7 +36376,7 @@
       </c>
       <c r="O600" s="18"/>
     </row>
-    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A601" s="18" t="s">
         <v>2265</v>
       </c>
@@ -36420,7 +36419,7 @@
       </c>
       <c r="O601" s="18"/>
     </row>
-    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A602" s="18" t="s">
         <v>2267</v>
       </c>
@@ -36463,7 +36462,7 @@
       </c>
       <c r="O602" s="18"/>
     </row>
-    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A603" s="18" t="s">
         <v>2268</v>
       </c>
@@ -36506,7 +36505,7 @@
       </c>
       <c r="O603" s="18"/>
     </row>
-    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A604" s="18" t="s">
         <v>2269</v>
       </c>
@@ -36551,7 +36550,7 @@
       </c>
       <c r="O604" s="18"/>
     </row>
-    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A605" s="18" t="s">
         <v>2270</v>
       </c>
@@ -36596,7 +36595,7 @@
       </c>
       <c r="O605" s="18"/>
     </row>
-    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A606" s="18" t="s">
         <v>2271</v>
       </c>
@@ -36639,7 +36638,7 @@
       </c>
       <c r="O606" s="18"/>
     </row>
-    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A607" s="18" t="s">
         <v>2273</v>
       </c>
@@ -36682,7 +36681,7 @@
       </c>
       <c r="O607" s="18"/>
     </row>
-    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A608" s="18" t="s">
         <v>2274</v>
       </c>
@@ -36725,7 +36724,7 @@
       </c>
       <c r="O608" s="18"/>
     </row>
-    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A609" s="18" t="s">
         <v>2276</v>
       </c>
@@ -36768,7 +36767,7 @@
       </c>
       <c r="O609" s="18"/>
     </row>
-    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A610" s="18" t="s">
         <v>2277</v>
       </c>
@@ -36811,7 +36810,7 @@
       </c>
       <c r="O610" s="18"/>
     </row>
-    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A611" s="18" t="s">
         <v>2278</v>
       </c>
@@ -36854,7 +36853,7 @@
       </c>
       <c r="O611" s="18"/>
     </row>
-    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>2549</v>
       </c>
@@ -36895,7 +36894,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>2552</v>
       </c>
@@ -36936,7 +36935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>2554</v>
       </c>
@@ -36977,7 +36976,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>2556</v>
       </c>
@@ -37018,7 +37017,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>2558</v>
       </c>
@@ -37059,7 +37058,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>2559</v>
       </c>
@@ -37103,7 +37102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>2561</v>
       </c>
@@ -37144,7 +37143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>2562</v>
       </c>
@@ -37188,7 +37187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>2563</v>
       </c>
@@ -37232,7 +37231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>2564</v>
       </c>
@@ -37273,7 +37272,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>2565</v>
       </c>
@@ -37314,7 +37313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>2566</v>
       </c>
@@ -37355,7 +37354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>2567</v>
       </c>
@@ -37396,7 +37395,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>2570</v>
       </c>
@@ -37437,7 +37436,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>2572</v>
       </c>
@@ -37478,7 +37477,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>2573</v>
       </c>
@@ -37519,7 +37518,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>2576</v>
       </c>
@@ -37560,7 +37559,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>2577</v>
       </c>
@@ -37601,7 +37600,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>2580</v>
       </c>
@@ -37642,7 +37641,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>2582</v>
       </c>
@@ -37683,7 +37682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>2583</v>
       </c>
@@ -37724,7 +37723,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>2584</v>
       </c>
@@ -37768,7 +37767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>2585</v>
       </c>
@@ -37812,7 +37811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>2586</v>
       </c>
@@ -37856,7 +37855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>2587</v>
       </c>
@@ -37897,7 +37896,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>2591</v>
       </c>
@@ -37938,7 +37937,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>2593</v>
       </c>
@@ -37979,7 +37978,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>2595</v>
       </c>
@@ -38020,7 +38019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>2597</v>
       </c>
@@ -38061,7 +38060,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>2599</v>
       </c>
@@ -38102,7 +38101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>2601</v>
       </c>
@@ -38143,7 +38142,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>2604</v>
       </c>
@@ -38184,7 +38183,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>2606</v>
       </c>
@@ -38225,7 +38224,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>2609</v>
       </c>
@@ -38269,7 +38268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>2611</v>
       </c>
@@ -38313,7 +38312,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>2613</v>
       </c>
@@ -38357,7 +38356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>2615</v>
       </c>
@@ -38401,7 +38400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>2617</v>
       </c>
@@ -38442,7 +38441,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>2618</v>
       </c>
@@ -38486,7 +38485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>2619</v>
       </c>
@@ -38527,7 +38526,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>2623</v>
       </c>
@@ -38568,7 +38567,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>2624</v>
       </c>
@@ -38609,7 +38608,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>2625</v>
       </c>
@@ -38650,7 +38649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>2626</v>
       </c>
@@ -38691,7 +38690,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>2627</v>
       </c>
@@ -38732,7 +38731,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>2630</v>
       </c>
@@ -38773,7 +38772,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>2631</v>
       </c>
@@ -38814,7 +38813,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>2632</v>
       </c>
@@ -38858,7 +38857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>2633</v>
       </c>
@@ -38902,7 +38901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>2634</v>
       </c>
@@ -38946,7 +38945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>2636</v>
       </c>
@@ -38990,7 +38989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>2637</v>
       </c>
@@ -39034,7 +39033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>2638</v>
       </c>
@@ -39075,7 +39074,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>2641</v>
       </c>
@@ -39116,7 +39115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>2642</v>
       </c>
@@ -39157,7 +39156,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>2643</v>
       </c>
@@ -39198,7 +39197,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>2644</v>
       </c>
@@ -39242,7 +39241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>2645</v>
       </c>
@@ -39286,7 +39285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>2646</v>
       </c>
@@ -39330,7 +39329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>2647</v>
       </c>
@@ -39374,7 +39373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>2649</v>
       </c>
@@ -39415,7 +39414,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>2651</v>
       </c>
@@ -39456,7 +39455,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>2653</v>
       </c>
@@ -39500,7 +39499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>2654</v>
       </c>
@@ -39544,7 +39543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>2655</v>
       </c>
@@ -39588,7 +39587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>2656</v>
       </c>
@@ -39629,7 +39628,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>2658</v>
       </c>
@@ -39670,7 +39669,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2659</v>
       </c>
@@ -39711,7 +39710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>2660</v>
       </c>
@@ -39752,7 +39751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>2661</v>
       </c>
@@ -39796,7 +39795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>2662</v>
       </c>
@@ -39840,7 +39839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>2663</v>
       </c>
@@ -39884,7 +39883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>2664</v>
       </c>
@@ -40685,13 +40684,7 @@
       <c r="M738" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Morannon Orc Warrior"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O684" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K606">
     <sortCondition ref="C2:C606"/>
     <sortCondition ref="F2:F606"/>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD215484-FC64-4D9F-B5F5-20FF66B11918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F235C8-960F-4361-8025-B6AE9BAE26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -7987,9 +7987,6 @@
   </si>
   <si>
     <t>OPT0802</t>
-  </si>
-  <si>
-    <t>['[army-of-gundabad] troll-brute', '[army-of-gundabad] gundabad-catapult-troll', '[army-of-gundabad] gundabad-orc-warrior', '[army-of-gundabad] gundabad-berserker', '[army-of-gundabad] goblin-mercenary', '[army-of-gundabad] gundabad-troll', '[army-of-gundabad] gundabad-ogre', '[army-of-gundabad] war-bat']</t>
   </si>
   <si>
     <t>['The White Warg']</t>
@@ -9486,6 +9483,9 @@
   </si>
   <si>
     <t>Besiegers of the Hornburg</t>
+  </si>
+  <si>
+    <t>['[army-of-gundabad] gundabad-catapult-troll', '[army-of-gundabad] gundabad-orc-warrior', '[army-of-gundabad] gundabad-berserker', '[army-of-gundabad] goblin-mercenary', '[army-of-gundabad] gundabad-troll', '[army-of-gundabad] gundabad-ogre', '[army-of-gundabad] war-bat']</t>
   </si>
 </sst>
 </file>
@@ -10236,9 +10236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E387" sqref="E387"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12495,7 +12495,7 @@
         <v>246</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>502</v>
@@ -12538,7 +12538,7 @@
         <v>246</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>502</v>
@@ -12581,7 +12581,7 @@
         <v>246</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>502</v>
@@ -12624,7 +12624,7 @@
         <v>246</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>502</v>
@@ -12667,7 +12667,7 @@
         <v>246</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>502</v>
@@ -12712,7 +12712,7 @@
         <v>246</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>248</v>
@@ -16512,7 +16512,7 @@
         <v>75</v>
       </c>
       <c r="H144" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="18" t="b">
         <v>0</v>
@@ -27080,7 +27080,7 @@
       </c>
       <c r="M386" s="18"/>
       <c r="N386" s="18" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="O386" s="18"/>
     </row>
@@ -27706,7 +27706,7 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B401" s="18" t="s">
         <v>246</v>
@@ -30959,7 +30959,7 @@
       </c>
       <c r="M475" s="18"/>
       <c r="N475" s="18" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="O475" s="18"/>
     </row>
@@ -31907,7 +31907,7 @@
       </c>
       <c r="M497" s="18"/>
       <c r="N497" s="18" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="O497" s="18"/>
     </row>
@@ -32382,7 +32382,7 @@
       </c>
       <c r="M508" s="18"/>
       <c r="N508" s="18" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="O508" s="18"/>
     </row>
@@ -35764,7 +35764,7 @@
       </c>
       <c r="M586" s="18"/>
       <c r="N586" s="18" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="O586" s="18"/>
     </row>
@@ -36855,19 +36855,19 @@
     </row>
     <row r="612" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B612" t="s">
         <v>139</v>
       </c>
       <c r="C612" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D612" t="s">
         <v>1762</v>
       </c>
       <c r="E612" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="F612" t="s">
         <v>5</v>
@@ -36896,19 +36896,19 @@
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B613" t="s">
         <v>139</v>
       </c>
       <c r="C613" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D613" t="s">
         <v>1762</v>
       </c>
       <c r="E613" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F613" t="s">
         <v>5</v>
@@ -36937,19 +36937,19 @@
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B614" t="s">
         <v>139</v>
       </c>
       <c r="C614" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D614" t="s">
         <v>1762</v>
       </c>
       <c r="E614" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="F614" t="s">
         <v>2</v>
@@ -36978,19 +36978,19 @@
     </row>
     <row r="615" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B615" t="s">
         <v>139</v>
       </c>
       <c r="C615" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D615" t="s">
         <v>1762</v>
       </c>
       <c r="E615" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="F615" t="s">
         <v>335</v>
@@ -37019,19 +37019,19 @@
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B616" t="s">
         <v>139</v>
       </c>
       <c r="C616" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D616" t="s">
         <v>1762</v>
       </c>
       <c r="E616" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="F616" t="s">
         <v>6</v>
@@ -37060,19 +37060,19 @@
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B617" t="s">
         <v>139</v>
       </c>
       <c r="C617" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D617" t="s">
         <v>1762</v>
       </c>
       <c r="E617" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="F617" t="s">
         <v>4</v>
@@ -37104,13 +37104,13 @@
     </row>
     <row r="618" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B618" t="s">
         <v>139</v>
       </c>
       <c r="C618" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D618" t="s">
         <v>538</v>
@@ -37145,13 +37145,13 @@
     </row>
     <row r="619" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B619" t="s">
         <v>139</v>
       </c>
       <c r="C619" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D619" t="s">
         <v>538</v>
@@ -37189,13 +37189,13 @@
     </row>
     <row r="620" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B620" t="s">
         <v>139</v>
       </c>
       <c r="C620" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D620" t="s">
         <v>538</v>
@@ -37233,13 +37233,13 @@
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B621" t="s">
         <v>139</v>
       </c>
       <c r="C621" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D621" t="s">
         <v>318</v>
@@ -37274,13 +37274,13 @@
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B622" t="s">
         <v>139</v>
       </c>
       <c r="C622" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D622" t="s">
         <v>318</v>
@@ -37315,13 +37315,13 @@
     </row>
     <row r="623" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B623" t="s">
         <v>139</v>
       </c>
       <c r="C623" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D623" t="s">
         <v>318</v>
@@ -37356,19 +37356,19 @@
     </row>
     <row r="624" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B624" t="s">
         <v>139</v>
       </c>
       <c r="C624" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D624" t="s">
         <v>1762</v>
       </c>
       <c r="E624" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="F624" t="s">
         <v>2</v>
@@ -37397,19 +37397,19 @@
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B625" t="s">
         <v>139</v>
       </c>
       <c r="C625" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D625" t="s">
         <v>1762</v>
       </c>
       <c r="E625" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="F625" t="s">
         <v>3</v>
@@ -37438,19 +37438,19 @@
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B626" t="s">
         <v>139</v>
       </c>
       <c r="C626" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D626" t="s">
         <v>1762</v>
       </c>
       <c r="E626" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="F626" t="s">
         <v>335</v>
@@ -37479,19 +37479,19 @@
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B627" t="s">
         <v>139</v>
       </c>
       <c r="C627" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D627" t="s">
         <v>1762</v>
       </c>
       <c r="E627" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="F627" t="s">
         <v>5</v>
@@ -37520,19 +37520,19 @@
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B628" t="s">
         <v>139</v>
       </c>
       <c r="C628" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D628" t="s">
         <v>1762</v>
       </c>
       <c r="E628" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="F628" t="s">
         <v>2</v>
@@ -37561,19 +37561,19 @@
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B629" t="s">
         <v>139</v>
       </c>
       <c r="C629" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D629" t="s">
         <v>1762</v>
       </c>
       <c r="E629" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="F629" t="s">
         <v>3</v>
@@ -37597,24 +37597,24 @@
         <v>0</v>
       </c>
       <c r="N629" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B630" t="s">
         <v>139</v>
       </c>
       <c r="C630" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D630" t="s">
         <v>1762</v>
       </c>
       <c r="E630" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="F630" t="s">
         <v>3</v>
@@ -37643,13 +37643,13 @@
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B631" t="s">
         <v>139</v>
       </c>
       <c r="C631" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D631" t="s">
         <v>1762</v>
@@ -37684,19 +37684,19 @@
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B632" t="s">
         <v>139</v>
       </c>
       <c r="C632" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D632" t="s">
         <v>1762</v>
       </c>
       <c r="E632" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="F632" t="s">
         <v>335</v>
@@ -37725,13 +37725,13 @@
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B633" t="s">
         <v>139</v>
       </c>
       <c r="C633" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D633" t="s">
         <v>1762</v>
@@ -37769,13 +37769,13 @@
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B634" t="s">
         <v>139</v>
       </c>
       <c r="C634" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D634" t="s">
         <v>1762</v>
@@ -37813,13 +37813,13 @@
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B635" t="s">
         <v>139</v>
       </c>
       <c r="C635" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D635" t="s">
         <v>1762</v>
@@ -37857,19 +37857,19 @@
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B636" t="s">
         <v>246</v>
       </c>
       <c r="C636" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D636" t="s">
         <v>1762</v>
       </c>
       <c r="E636" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="F636" t="s">
         <v>2</v>
@@ -37893,24 +37893,24 @@
         <v>0</v>
       </c>
       <c r="N636" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B637" t="s">
         <v>246</v>
       </c>
       <c r="C637" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D637" t="s">
         <v>1762</v>
       </c>
       <c r="E637" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F637" t="s">
         <v>2</v>
@@ -37939,19 +37939,19 @@
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B638" t="s">
         <v>246</v>
       </c>
       <c r="C638" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D638" t="s">
         <v>1762</v>
       </c>
       <c r="E638" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F638" t="s">
         <v>3</v>
@@ -37980,19 +37980,19 @@
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B639" t="s">
         <v>246</v>
       </c>
       <c r="C639" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D639" t="s">
         <v>1762</v>
       </c>
       <c r="E639" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F639" t="s">
         <v>3</v>
@@ -38021,19 +38021,19 @@
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B640" t="s">
         <v>246</v>
       </c>
       <c r="C640" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D640" t="s">
         <v>1762</v>
       </c>
       <c r="E640" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="F640" t="s">
         <v>3</v>
@@ -38062,19 +38062,19 @@
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B641" t="s">
         <v>246</v>
       </c>
       <c r="C641" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D641" t="s">
         <v>1762</v>
       </c>
       <c r="E641" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="F641" t="s">
         <v>3</v>
@@ -38103,19 +38103,19 @@
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B642" t="s">
         <v>246</v>
       </c>
       <c r="C642" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D642" t="s">
         <v>1762</v>
       </c>
       <c r="E642" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="F642" t="s">
         <v>3</v>
@@ -38139,24 +38139,24 @@
         <v>0</v>
       </c>
       <c r="N642" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B643" t="s">
         <v>246</v>
       </c>
       <c r="C643" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D643" t="s">
         <v>1762</v>
       </c>
       <c r="E643" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="F643" t="s">
         <v>6</v>
@@ -38185,19 +38185,19 @@
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B644" t="s">
         <v>246</v>
       </c>
       <c r="C644" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D644" t="s">
         <v>1762</v>
       </c>
       <c r="E644" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="F644" t="s">
         <v>6</v>
@@ -38221,24 +38221,24 @@
         <v>0</v>
       </c>
       <c r="N644" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B645" t="s">
         <v>246</v>
       </c>
       <c r="C645" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D645" t="s">
         <v>1762</v>
       </c>
       <c r="E645" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F645" t="s">
         <v>4</v>
@@ -38270,19 +38270,19 @@
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B646" t="s">
         <v>246</v>
       </c>
       <c r="C646" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D646" t="s">
         <v>1762</v>
       </c>
       <c r="E646" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F646" t="s">
         <v>4</v>
@@ -38314,19 +38314,19 @@
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B647" t="s">
         <v>246</v>
       </c>
       <c r="C647" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D647" t="s">
         <v>1762</v>
       </c>
       <c r="E647" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="F647" t="s">
         <v>4</v>
@@ -38358,19 +38358,19 @@
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B648" t="s">
         <v>246</v>
       </c>
       <c r="C648" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D648" t="s">
         <v>1762</v>
       </c>
       <c r="E648" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="F648" t="s">
         <v>4</v>
@@ -38402,13 +38402,13 @@
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B649" t="s">
         <v>246</v>
       </c>
       <c r="C649" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D649" t="s">
         <v>306</v>
@@ -38443,13 +38443,13 @@
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B650" t="s">
         <v>246</v>
       </c>
       <c r="C650" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D650" t="s">
         <v>306</v>
@@ -38487,19 +38487,19 @@
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B651" t="s">
         <v>246</v>
       </c>
       <c r="C651" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D651" t="s">
         <v>1762</v>
       </c>
       <c r="E651" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="F651" t="s">
         <v>5</v>
@@ -38523,24 +38523,24 @@
         <v>0</v>
       </c>
       <c r="N651" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B652" t="s">
         <v>246</v>
       </c>
       <c r="C652" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D652" t="s">
         <v>1762</v>
       </c>
       <c r="E652" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="F652" t="s">
         <v>2</v>
@@ -38564,24 +38564,24 @@
         <v>0</v>
       </c>
       <c r="N652" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B653" t="s">
         <v>246</v>
       </c>
       <c r="C653" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D653" t="s">
         <v>1762</v>
       </c>
       <c r="E653" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F653" t="s">
         <v>3</v>
@@ -38610,19 +38610,19 @@
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B654" t="s">
         <v>246</v>
       </c>
       <c r="C654" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D654" t="s">
         <v>1762</v>
       </c>
       <c r="E654" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F654" t="s">
         <v>3</v>
@@ -38651,19 +38651,19 @@
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B655" t="s">
         <v>246</v>
       </c>
       <c r="C655" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D655" t="s">
         <v>1762</v>
       </c>
       <c r="E655" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="F655" t="s">
         <v>3</v>
@@ -38687,24 +38687,24 @@
         <v>0</v>
       </c>
       <c r="N655" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B656" t="s">
         <v>246</v>
       </c>
       <c r="C656" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D656" t="s">
         <v>1762</v>
       </c>
       <c r="E656" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F656" t="s">
         <v>3</v>
@@ -38728,24 +38728,24 @@
         <v>0</v>
       </c>
       <c r="N656" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B657" t="s">
         <v>246</v>
       </c>
       <c r="C657" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D657" t="s">
         <v>1762</v>
       </c>
       <c r="E657" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="F657" t="s">
         <v>6</v>
@@ -38774,19 +38774,19 @@
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B658" t="s">
         <v>246</v>
       </c>
       <c r="C658" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D658" t="s">
         <v>1762</v>
       </c>
       <c r="E658" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="F658" t="s">
         <v>6</v>
@@ -38810,24 +38810,24 @@
         <v>0</v>
       </c>
       <c r="N658" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B659" t="s">
         <v>246</v>
       </c>
       <c r="C659" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D659" t="s">
         <v>1762</v>
       </c>
       <c r="E659" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F659" t="s">
         <v>4</v>
@@ -38859,19 +38859,19 @@
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B660" t="s">
         <v>246</v>
       </c>
       <c r="C660" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D660" t="s">
         <v>1762</v>
       </c>
       <c r="E660" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F660" t="s">
         <v>4</v>
@@ -38903,19 +38903,19 @@
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B661" t="s">
         <v>246</v>
       </c>
       <c r="C661" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D661" t="s">
         <v>1762</v>
       </c>
       <c r="E661" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="F661" t="s">
         <v>4</v>
@@ -38947,19 +38947,19 @@
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B662" t="s">
         <v>246</v>
       </c>
       <c r="C662" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D662" t="s">
         <v>1762</v>
       </c>
       <c r="E662" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="F662" t="s">
         <v>4</v>
@@ -38991,13 +38991,13 @@
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B663" t="s">
         <v>246</v>
       </c>
       <c r="C663" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D663" t="s">
         <v>306</v>
@@ -39035,19 +39035,19 @@
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B664" t="s">
         <v>246</v>
       </c>
       <c r="C664" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D664" t="s">
         <v>1762</v>
       </c>
       <c r="E664" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="F664" t="s">
         <v>2</v>
@@ -39076,19 +39076,19 @@
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B665" t="s">
         <v>246</v>
       </c>
       <c r="C665" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D665" t="s">
         <v>1762</v>
       </c>
       <c r="E665" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F665" t="s">
         <v>3</v>
@@ -39117,19 +39117,19 @@
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B666" t="s">
         <v>246</v>
       </c>
       <c r="C666" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D666" t="s">
         <v>1762</v>
       </c>
       <c r="E666" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F666" t="s">
         <v>3</v>
@@ -39153,24 +39153,24 @@
         <v>0</v>
       </c>
       <c r="N666" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B667" t="s">
         <v>246</v>
       </c>
       <c r="C667" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D667" t="s">
         <v>1762</v>
       </c>
       <c r="E667" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="F667" t="s">
         <v>6</v>
@@ -39199,19 +39199,19 @@
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B668" t="s">
         <v>246</v>
       </c>
       <c r="C668" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D668" t="s">
         <v>1762</v>
       </c>
       <c r="E668" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F668" t="s">
         <v>4</v>
@@ -39243,19 +39243,19 @@
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B669" t="s">
         <v>246</v>
       </c>
       <c r="C669" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D669" t="s">
         <v>1762</v>
       </c>
       <c r="E669" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F669" t="s">
         <v>4</v>
@@ -39287,19 +39287,19 @@
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B670" t="s">
         <v>246</v>
       </c>
       <c r="C670" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D670" t="s">
         <v>1762</v>
       </c>
       <c r="E670" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="F670" t="s">
         <v>4</v>
@@ -39331,19 +39331,19 @@
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B671" t="s">
         <v>246</v>
       </c>
       <c r="C671" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D671" t="s">
         <v>1762</v>
       </c>
       <c r="E671" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="F671" t="s">
         <v>4</v>
@@ -39375,19 +39375,19 @@
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B672" t="s">
         <v>246</v>
       </c>
       <c r="C672" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D672" t="s">
         <v>1762</v>
       </c>
       <c r="E672" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="F672" t="s">
         <v>2</v>
@@ -39411,24 +39411,24 @@
         <v>0</v>
       </c>
       <c r="N672" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B673" t="s">
         <v>246</v>
       </c>
       <c r="C673" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D673" t="s">
         <v>1762</v>
       </c>
       <c r="E673" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="F673" t="s">
         <v>2</v>
@@ -39457,19 +39457,19 @@
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B674" t="s">
         <v>246</v>
       </c>
       <c r="C674" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D674" t="s">
         <v>1762</v>
       </c>
       <c r="E674" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="F674" t="s">
         <v>4</v>
@@ -39501,19 +39501,19 @@
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B675" t="s">
         <v>246</v>
       </c>
       <c r="C675" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D675" t="s">
         <v>1762</v>
       </c>
       <c r="E675" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="F675" t="s">
         <v>4</v>
@@ -39545,13 +39545,13 @@
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B676" t="s">
         <v>246</v>
       </c>
       <c r="C676" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D676" t="s">
         <v>1906</v>
@@ -39589,19 +39589,19 @@
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B677" t="s">
         <v>246</v>
       </c>
       <c r="C677" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D677" t="s">
         <v>1762</v>
       </c>
       <c r="E677" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F677" t="s">
         <v>2</v>
@@ -39630,19 +39630,19 @@
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B678" t="s">
         <v>246</v>
       </c>
       <c r="C678" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D678" t="s">
         <v>1762</v>
       </c>
       <c r="E678" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="F678" t="s">
         <v>3</v>
@@ -39671,19 +39671,19 @@
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B679" t="s">
         <v>246</v>
       </c>
       <c r="C679" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D679" t="s">
         <v>1762</v>
       </c>
       <c r="E679" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="F679" t="s">
         <v>3</v>
@@ -39712,19 +39712,19 @@
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B680" t="s">
         <v>246</v>
       </c>
       <c r="C680" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D680" t="s">
         <v>1762</v>
       </c>
       <c r="E680" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F680" t="s">
         <v>3</v>
@@ -39753,19 +39753,19 @@
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B681" t="s">
         <v>246</v>
       </c>
       <c r="C681" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D681" t="s">
         <v>1762</v>
       </c>
       <c r="E681" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="F681" t="s">
         <v>4</v>
@@ -39797,19 +39797,19 @@
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B682" t="s">
         <v>246</v>
       </c>
       <c r="C682" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D682" t="s">
         <v>1762</v>
       </c>
       <c r="E682" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F682" t="s">
         <v>4</v>
@@ -39841,19 +39841,19 @@
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B683" t="s">
         <v>246</v>
       </c>
       <c r="C683" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D683" t="s">
         <v>1762</v>
       </c>
       <c r="E683" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F683" t="s">
         <v>4</v>
@@ -39885,19 +39885,19 @@
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B684" t="s">
         <v>246</v>
       </c>
       <c r="C684" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D684" t="s">
         <v>1762</v>
       </c>
       <c r="E684" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="F684" t="s">
         <v>4</v>
@@ -47957,7 +47957,7 @@
       </c>
       <c r="F387" s="15"/>
       <c r="G387" s="17" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
@@ -48883,7 +48883,7 @@
         <v>957</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D434" s="15">
         <v>0</v>
@@ -54682,7 +54682,7 @@
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A775" s="15" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B775" s="18" t="s">
         <v>2192</v>
@@ -54697,7 +54697,7 @@
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A776" s="15" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B776" s="18" t="s">
         <v>2220</v>
@@ -54718,13 +54718,13 @@
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A777" s="15" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B777" s="18" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C777" s="18" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D777" s="18">
         <v>30</v>
@@ -54738,10 +54738,10 @@
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A778" s="15" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B778" s="18" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C778" s="18" t="s">
         <v>337</v>
@@ -54758,10 +54758,10 @@
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A779" s="15" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B779" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C779" s="18" t="s">
         <v>59</v>
@@ -54772,10 +54772,10 @@
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A780" s="15" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B780" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C780" s="18" t="s">
         <v>397</v>
@@ -54786,10 +54786,10 @@
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A781" s="15" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B781" s="18" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C781" s="18" t="s">
         <v>396</v>
@@ -54800,10 +54800,10 @@
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A782" s="15" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B782" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C782" s="18" t="s">
         <v>1112</v>
@@ -54814,10 +54814,10 @@
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A783" s="15" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B783" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C783" s="18" t="s">
         <v>45</v>
@@ -54828,10 +54828,10 @@
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A784" s="15" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B784" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C784" s="18" t="s">
         <v>423</v>
@@ -54842,10 +54842,10 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" s="15" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B785" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C785" s="18" t="s">
         <v>56</v>
@@ -54856,10 +54856,10 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" s="15" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B786" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C786" s="18" t="s">
         <v>58</v>
@@ -54873,10 +54873,10 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" s="15" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B787" s="18" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C787" s="18" t="s">
         <v>1113</v>
@@ -54887,10 +54887,10 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" s="15" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B788" s="18" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C788" s="18" t="s">
         <v>56</v>
@@ -54901,10 +54901,10 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" s="15" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B789" s="18" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C789" s="18" t="s">
         <v>45</v>
@@ -54915,10 +54915,10 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" s="15" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B790" s="18" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C790" s="18" t="s">
         <v>340</v>
@@ -54932,10 +54932,10 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" s="15" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B791" s="18" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C791" s="18" t="s">
         <v>341</v>
@@ -54946,10 +54946,10 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" s="15" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B792" s="18" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C792" s="18" t="s">
         <v>56</v>
@@ -54960,10 +54960,10 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" s="15" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B793" s="18" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C793" s="18" t="s">
         <v>59</v>
@@ -54974,10 +54974,10 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" s="15" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B794" s="18" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C794" s="18" t="s">
         <v>397</v>
@@ -54988,10 +54988,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" s="15" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B795" s="18" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C795" s="18" t="s">
         <v>59</v>
@@ -55002,10 +55002,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" s="15" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B796" s="18" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C796" s="18" t="s">
         <v>397</v>
@@ -55016,10 +55016,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" s="15" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B797" s="18" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C797" s="18" t="s">
         <v>1773</v>
@@ -55030,10 +55030,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" s="15" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B798" s="18" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C798" s="18" t="s">
         <v>45</v>
@@ -55044,10 +55044,10 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" s="15" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B799" s="18" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C799" s="18" t="s">
         <v>396</v>
@@ -55058,10 +55058,10 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" s="15" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B800" s="18" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C800" s="18" t="s">
         <v>397</v>
@@ -55072,10 +55072,10 @@
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A801" s="15" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B801" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C801" s="18" t="s">
         <v>45</v>
@@ -55086,10 +55086,10 @@
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A802" s="15" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B802" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C802" s="18" t="s">
         <v>1096</v>
@@ -55103,10 +55103,10 @@
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A803" s="15" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B803" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C803" s="18" t="s">
         <v>56</v>
@@ -55117,10 +55117,10 @@
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A804" s="15" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B804" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C804" s="18" t="s">
         <v>397</v>
@@ -55131,10 +55131,10 @@
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A805" s="15" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B805" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C805" s="18" t="s">
         <v>422</v>
@@ -55145,10 +55145,10 @@
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A806" s="15" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B806" s="18" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C806" s="18" t="s">
         <v>205</v>
@@ -55162,10 +55162,10 @@
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A807" s="15" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B807" s="18" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C807" s="18" t="s">
         <v>1096</v>
@@ -55179,10 +55179,10 @@
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A808" s="15" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B808" s="18" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C808" s="18" t="s">
         <v>56</v>
@@ -55193,10 +55193,10 @@
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A809" s="15" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B809" s="18" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C809" s="18" t="s">
         <v>202</v>
@@ -55210,10 +55210,10 @@
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A810" s="15" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B810" s="18" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C810" s="18" t="s">
         <v>45</v>
@@ -55224,10 +55224,10 @@
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A811" s="15" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B811" s="18" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C811" s="18" t="s">
         <v>397</v>
@@ -55238,10 +55238,10 @@
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A812" s="15" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B812" s="18" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C812" s="18" t="s">
         <v>1097</v>
@@ -55255,10 +55255,10 @@
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A813" s="15" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B813" s="18" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C813" s="18" t="s">
         <v>29</v>
@@ -55275,10 +55275,10 @@
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A814" s="15" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B814" s="18" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C814" s="18" t="s">
         <v>315</v>
@@ -55289,10 +55289,10 @@
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A815" s="15" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B815" s="18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C815" s="18" t="s">
         <v>45</v>
@@ -55303,10 +55303,10 @@
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A816" s="15" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B816" s="18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C816" s="18" t="s">
         <v>1096</v>
@@ -55320,10 +55320,10 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817" s="15" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B817" s="18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C817" s="18" t="s">
         <v>56</v>
@@ -55334,10 +55334,10 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="15" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B818" s="18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C818" s="18" t="s">
         <v>397</v>
@@ -55348,10 +55348,10 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="15" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B819" s="18" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C819" s="18" t="s">
         <v>422</v>
@@ -55362,10 +55362,10 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="15" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B820" s="18" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C820" s="18" t="s">
         <v>205</v>
@@ -55379,10 +55379,10 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" s="15" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B821" s="18" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C821" s="18" t="s">
         <v>1096</v>
@@ -55396,10 +55396,10 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A822" s="15" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B822" s="18" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C822" s="18" t="s">
         <v>56</v>
@@ -55410,10 +55410,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A823" s="15" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B823" s="18" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C823" s="18" t="s">
         <v>202</v>
@@ -55427,10 +55427,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A824" s="15" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B824" s="18" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C824" s="18" t="s">
         <v>45</v>
@@ -55441,10 +55441,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825" s="15" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B825" s="18" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C825" s="18" t="s">
         <v>1096</v>
@@ -55458,10 +55458,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A826" s="15" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B826" s="18" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C826" s="18" t="s">
         <v>56</v>
@@ -55472,10 +55472,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A827" s="15" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B827" s="18" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C827" s="18" t="s">
         <v>397</v>
@@ -55486,10 +55486,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="15" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B828" s="18" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C828" s="18" t="s">
         <v>422</v>
@@ -55500,10 +55500,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829" s="15" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B829" s="18" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C829" s="18" t="s">
         <v>205</v>
@@ -55517,10 +55517,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A830" s="15" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B830" s="18" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C830" s="18" t="s">
         <v>1096</v>
@@ -55534,10 +55534,10 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A831" s="15" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B831" s="18" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C831" s="18" t="s">
         <v>56</v>
@@ -55548,10 +55548,10 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A832" s="15" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B832" s="18" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C832" s="18" t="s">
         <v>202</v>
@@ -55565,10 +55565,10 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A833" s="15" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B833" s="18" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C833" s="18" t="s">
         <v>45</v>
@@ -55579,10 +55579,10 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A834" s="15" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B834" s="18" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C834" s="18" t="s">
         <v>397</v>
@@ -55593,10 +55593,10 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A835" s="15" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B835" s="18" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C835" s="18" t="s">
         <v>45</v>
@@ -55607,10 +55607,10 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A836" s="15" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B836" s="18" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C836" s="18" t="s">
         <v>1096</v>
@@ -55624,10 +55624,10 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A837" s="15" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B837" s="18" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C837" s="18" t="s">
         <v>56</v>
@@ -55638,10 +55638,10 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A838" s="15" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B838" s="18" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C838" s="18" t="s">
         <v>397</v>
@@ -55652,10 +55652,10 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A839" s="15" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B839" s="18" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C839" s="18" t="s">
         <v>422</v>
@@ -55666,10 +55666,10 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A840" s="15" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B840" s="18" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C840" s="18" t="s">
         <v>205</v>
@@ -55683,10 +55683,10 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A841" s="15" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B841" s="18" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C841" s="18" t="s">
         <v>1096</v>
@@ -55700,10 +55700,10 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A842" s="15" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B842" s="18" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C842" s="18" t="s">
         <v>56</v>
@@ -55714,10 +55714,10 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A843" s="15" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B843" s="18" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C843" s="18" t="s">
         <v>202</v>
@@ -55731,13 +55731,13 @@
     </row>
     <row r="844" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A844" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B844" s="18" t="s">
         <v>2076</v>
       </c>
       <c r="C844" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D844" s="21">
         <v>1</v>
@@ -55746,18 +55746,18 @@
         <v>652</v>
       </c>
       <c r="G844" s="16" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="845" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A845" s="15" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B845" s="18" t="s">
         <v>2163</v>
       </c>
       <c r="C845" s="21" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D845" s="21">
         <v>1</v>
@@ -55766,7 +55766,7 @@
         <v>652</v>
       </c>
       <c r="G845" s="16" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.35">
@@ -61269,7 +61269,7 @@
     </row>
     <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>104</v>
@@ -61707,7 +61707,7 @@
     </row>
     <row r="102" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>76</v>
@@ -62111,7 +62111,7 @@
         <v>1598</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -62265,7 +62265,7 @@
     </row>
     <row r="9" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>533</v>
@@ -62323,7 +62323,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -62346,7 +62346,7 @@
         <v>0.66</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -62367,7 +62367,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="290" x14ac:dyDescent="0.35">
@@ -62409,7 +62409,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="145" x14ac:dyDescent="0.35">
@@ -62472,7 +62472,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
@@ -62493,7 +62493,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -62556,7 +62556,7 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
@@ -62577,7 +62577,7 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -62619,7 +62619,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
@@ -62640,7 +62640,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -62661,7 +62661,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -62682,7 +62682,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="348" x14ac:dyDescent="0.35">
@@ -62747,7 +62747,7 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="319" x14ac:dyDescent="0.35">
@@ -62894,7 +62894,7 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -62915,7 +62915,7 @@
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
@@ -62936,7 +62936,7 @@
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
@@ -63041,7 +63041,7 @@
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="261" x14ac:dyDescent="0.35">
@@ -63062,7 +63062,7 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -63115,7 +63115,7 @@
         <v>61</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D49" s="18">
         <v>0.33</v>
@@ -63133,10 +63133,10 @@
         <v>1932</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D50" s="18">
         <v>0.33</v>
@@ -63146,7 +63146,7 @@
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -63157,7 +63157,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D51" s="18">
         <v>0.5</v>
@@ -63167,7 +63167,7 @@
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -63175,10 +63175,10 @@
         <v>1966</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>2469</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>2470</v>
       </c>
       <c r="D52" s="18">
         <v>0.33</v>
@@ -63188,7 +63188,7 @@
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -63196,10 +63196,10 @@
         <v>1994</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>2471</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>2472</v>
       </c>
       <c r="D53" s="18">
         <v>0.33</v>
@@ -63209,7 +63209,7 @@
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -63217,10 +63217,10 @@
         <v>2008</v>
       </c>
       <c r="B54" s="16" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>2473</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>2474</v>
       </c>
       <c r="D54" s="18">
         <v>0.33</v>
@@ -63230,7 +63230,7 @@
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -63238,10 +63238,10 @@
         <v>2017</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>2475</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>2476</v>
       </c>
       <c r="D55" s="18">
         <v>0.33</v>
@@ -63259,10 +63259,10 @@
         <v>2021</v>
       </c>
       <c r="B56" s="16" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>2477</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>2478</v>
       </c>
       <c r="D56" s="18">
         <v>0.33</v>
@@ -63283,7 +63283,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D57" s="18">
         <v>0.33</v>
@@ -63301,10 +63301,10 @@
         <v>2079</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D58" s="18">
         <v>0.33</v>
@@ -63314,7 +63314,7 @@
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="319" x14ac:dyDescent="0.35">
@@ -63325,7 +63325,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D59" s="18">
         <v>0.33</v>
@@ -63343,10 +63343,10 @@
         <v>2111</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>2482</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>2483</v>
       </c>
       <c r="D60" s="18">
         <v>0.33</v>
@@ -63364,10 +63364,10 @@
         <v>2133</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>2484</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>2485</v>
       </c>
       <c r="D61" s="18">
         <v>0.33</v>
@@ -63377,7 +63377,7 @@
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -63385,10 +63385,10 @@
         <v>2149</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>2486</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>2487</v>
       </c>
       <c r="D62" s="18">
         <v>0.33</v>
@@ -63398,7 +63398,7 @@
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -63406,10 +63406,10 @@
         <v>2155</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>2488</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>2489</v>
       </c>
       <c r="D63" s="18">
         <v>0.5</v>
@@ -63430,7 +63430,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D64" s="18">
         <v>0.33</v>
@@ -63448,10 +63448,10 @@
         <v>2188</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>2491</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>2492</v>
       </c>
       <c r="D65" s="18">
         <v>0.33</v>
@@ -63469,10 +63469,10 @@
         <v>2207</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>2493</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>2494</v>
       </c>
       <c r="D66" s="18">
         <v>0.33</v>
@@ -63490,10 +63490,10 @@
         <v>2258</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>2495</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>2496</v>
       </c>
       <c r="D67" s="18">
         <v>0.33</v>
@@ -63511,10 +63511,10 @@
         <v>2266</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>2497</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>2498</v>
       </c>
       <c r="D68" s="18">
         <v>0.33</v>
@@ -63532,10 +63532,10 @@
         <v>2272</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>2499</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>2500</v>
       </c>
       <c r="D69" s="18">
         <v>0.33</v>
@@ -63545,18 +63545,18 @@
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>2733</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>2734</v>
       </c>
       <c r="D70" s="18">
         <v>0.33</v>
@@ -63566,18 +63566,18 @@
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>2735</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>2736</v>
       </c>
       <c r="D71" s="18">
         <v>0.33</v>
@@ -63592,13 +63592,13 @@
     </row>
     <row r="72" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>2737</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>2738</v>
       </c>
       <c r="D72" s="18">
         <v>0.33</v>
@@ -63613,13 +63613,13 @@
     </row>
     <row r="73" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>2739</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>2740</v>
       </c>
       <c r="D73" s="18">
         <v>0.33</v>
@@ -63629,18 +63629,18 @@
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D74" s="18">
         <v>0.33</v>
@@ -63650,18 +63650,18 @@
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>2742</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>2743</v>
       </c>
       <c r="D75" s="18">
         <v>0.33</v>
@@ -63671,18 +63671,18 @@
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>2744</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>2745</v>
       </c>
       <c r="D76" s="18">
         <v>0.33</v>
@@ -63697,13 +63697,13 @@
     </row>
     <row r="77" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>2746</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>2747</v>
       </c>
       <c r="D77" s="18">
         <v>0.33</v>
@@ -63730,9 +63730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63956,7 +63956,7 @@
         <v>352</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>61</v>
@@ -63967,7 +63967,7 @@
         <v>353</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>61</v>
@@ -63978,7 +63978,7 @@
         <v>354</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>61</v>
@@ -64011,7 +64011,7 @@
         <v>363</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>61</v>
@@ -64022,7 +64022,7 @@
         <v>365</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>61</v>
@@ -64033,7 +64033,7 @@
         <v>368</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>61</v>
@@ -64044,7 +64044,7 @@
         <v>1713</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>61</v>
@@ -64055,7 +64055,7 @@
         <v>370</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>61</v>
@@ -64748,7 +64748,7 @@
         <v>738</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>61</v>
@@ -66706,7 +66706,7 @@
         <v>1904</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>2433</v>
+        <v>2804</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>61</v>
@@ -66717,7 +66717,7 @@
         <v>1908</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>2433</v>
+        <v>2804</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>61</v>
@@ -66728,7 +66728,7 @@
         <v>1910</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>2433</v>
+        <v>2804</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>61</v>
@@ -66739,7 +66739,7 @@
         <v>1912</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>2433</v>
+        <v>2804</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>61</v>
@@ -66772,10 +66772,10 @@
         <v>1931</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -66783,7 +66783,7 @@
         <v>1933</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>61</v>
@@ -66794,7 +66794,7 @@
         <v>1936</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C278" s="15" t="s">
         <v>61</v>
@@ -66805,7 +66805,7 @@
         <v>1937</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C279" s="15" t="s">
         <v>61</v>
@@ -66827,10 +66827,10 @@
         <v>1951</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -66838,7 +66838,7 @@
         <v>1953</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>61</v>
@@ -66849,7 +66849,7 @@
         <v>1954</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>61</v>
@@ -66860,7 +66860,7 @@
         <v>1956</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C284" s="15" t="s">
         <v>61</v>
@@ -66871,7 +66871,7 @@
         <v>1958</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>61</v>
@@ -66882,7 +66882,7 @@
         <v>1960</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C286" s="15" t="s">
         <v>61</v>
@@ -66893,7 +66893,7 @@
         <v>1965</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C287" s="15" t="s">
         <v>61</v>
@@ -66904,7 +66904,7 @@
         <v>1969</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C288" s="15" t="s">
         <v>61</v>
@@ -66915,7 +66915,7 @@
         <v>1971</v>
       </c>
       <c r="B289" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>61</v>
@@ -66926,7 +66926,7 @@
         <v>1974</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>61</v>
@@ -66937,7 +66937,7 @@
         <v>1976</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C291" s="15" t="s">
         <v>61</v>
@@ -66948,7 +66948,7 @@
         <v>1977</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C292" s="15" t="s">
         <v>61</v>
@@ -66959,7 +66959,7 @@
         <v>1979</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>61</v>
@@ -66970,7 +66970,7 @@
         <v>1981</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C294" s="15" t="s">
         <v>61</v>
@@ -66981,7 +66981,7 @@
         <v>1983</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>61</v>
@@ -66992,7 +66992,7 @@
         <v>1985</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C296" s="15" t="s">
         <v>61</v>
@@ -67003,7 +67003,7 @@
         <v>1986</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C297" s="15" t="s">
         <v>61</v>
@@ -67014,7 +67014,7 @@
         <v>1987</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C298" s="15" t="s">
         <v>61</v>
@@ -67025,7 +67025,7 @@
         <v>1993</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C299" s="15" t="s">
         <v>61</v>
@@ -67036,7 +67036,7 @@
         <v>1996</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C300" s="15" t="s">
         <v>61</v>
@@ -67047,7 +67047,7 @@
         <v>1998</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>61</v>
@@ -67058,7 +67058,7 @@
         <v>2001</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C302" s="15" t="s">
         <v>61</v>
@@ -67080,7 +67080,7 @@
         <v>2007</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C304" s="15" t="s">
         <v>61</v>
@@ -67091,7 +67091,7 @@
         <v>2011</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C305" s="15" t="s">
         <v>61</v>
@@ -67102,7 +67102,7 @@
         <v>2013</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C306" s="15" t="s">
         <v>61</v>
@@ -67124,7 +67124,7 @@
         <v>2020</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C308" s="15" t="s">
         <v>61</v>
@@ -67289,7 +67289,7 @@
         <v>2053</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C323" s="15" t="s">
         <v>61</v>
@@ -67303,7 +67303,7 @@
         <v>61</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -67311,7 +67311,7 @@
         <v>2057</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C325" s="15" t="s">
         <v>61</v>
@@ -67322,7 +67322,7 @@
         <v>2060</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C326" s="15" t="s">
         <v>61</v>
@@ -67333,7 +67333,7 @@
         <v>2062</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C327" s="15" t="s">
         <v>61</v>
@@ -67344,7 +67344,7 @@
         <v>2064</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C328" s="15" t="s">
         <v>61</v>
@@ -67355,7 +67355,7 @@
         <v>2066</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C329" s="15" t="s">
         <v>61</v>
@@ -67366,7 +67366,7 @@
         <v>2068</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C330" s="15" t="s">
         <v>61</v>
@@ -67377,7 +67377,7 @@
         <v>2070</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C331" s="15" t="s">
         <v>61</v>
@@ -67388,7 +67388,7 @@
         <v>2072</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C332" s="15" t="s">
         <v>61</v>
@@ -67399,7 +67399,7 @@
         <v>2078</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C333" s="15" t="s">
         <v>61</v>
@@ -67410,7 +67410,7 @@
         <v>2081</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C334" s="15" t="s">
         <v>61</v>
@@ -67421,10 +67421,10 @@
         <v>2082</v>
       </c>
       <c r="B335" s="17" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C335" s="15" t="s">
         <v>2443</v>
-      </c>
-      <c r="C335" s="15" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -67443,7 +67443,7 @@
         <v>2092</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C337" s="15" t="s">
         <v>61</v>
@@ -67454,7 +67454,7 @@
         <v>2095</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C338" s="15" t="s">
         <v>61</v>
@@ -67465,7 +67465,7 @@
         <v>2096</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C339" s="15" t="s">
         <v>61</v>
@@ -67476,7 +67476,7 @@
         <v>2097</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C340" s="15" t="s">
         <v>61</v>
@@ -67487,7 +67487,7 @@
         <v>2098</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C341" s="15" t="s">
         <v>61</v>
@@ -67498,7 +67498,7 @@
         <v>2099</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C342" s="15" t="s">
         <v>61</v>
@@ -67509,7 +67509,7 @@
         <v>2100</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C343" s="15" t="s">
         <v>61</v>
@@ -67520,7 +67520,7 @@
         <v>2101</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C344" s="15" t="s">
         <v>61</v>
@@ -67531,7 +67531,7 @@
         <v>2102</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C345" s="15" t="s">
         <v>61</v>
@@ -67542,7 +67542,7 @@
         <v>2103</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C346" s="15" t="s">
         <v>61</v>
@@ -67553,7 +67553,7 @@
         <v>2104</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C347" s="15" t="s">
         <v>61</v>
@@ -67564,7 +67564,7 @@
         <v>2105</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C348" s="15" t="s">
         <v>61</v>
@@ -67575,7 +67575,7 @@
         <v>2106</v>
       </c>
       <c r="B349" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C349" s="15" t="s">
         <v>61</v>
@@ -67586,7 +67586,7 @@
         <v>2107</v>
       </c>
       <c r="B350" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C350" s="15" t="s">
         <v>61</v>
@@ -67597,7 +67597,7 @@
         <v>2108</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C351" s="15" t="s">
         <v>61</v>
@@ -67608,7 +67608,7 @@
         <v>2110</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C352" s="15" t="s">
         <v>61</v>
@@ -67619,7 +67619,7 @@
         <v>2113</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C353" s="15" t="s">
         <v>61</v>
@@ -67630,7 +67630,7 @@
         <v>2116</v>
       </c>
       <c r="B354" s="17" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C354" s="15" t="s">
         <v>61</v>
@@ -67641,10 +67641,10 @@
         <v>2118</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -67652,7 +67652,7 @@
         <v>2120</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C356" s="15" t="s">
         <v>61</v>
@@ -67666,7 +67666,7 @@
         <v>61</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -67718,7 +67718,7 @@
         <v>2130</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C362" s="15" t="s">
         <v>61</v>
@@ -67729,7 +67729,7 @@
         <v>2132</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>61</v>
@@ -67740,7 +67740,7 @@
         <v>2134</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C364" s="15" t="s">
         <v>61</v>
@@ -67751,7 +67751,7 @@
         <v>2136</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>61</v>
@@ -67762,7 +67762,7 @@
         <v>2138</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C366" s="15" t="s">
         <v>61</v>
@@ -67776,7 +67776,7 @@
         <v>61</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -67806,7 +67806,7 @@
         <v>2147</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>61</v>
@@ -67817,10 +67817,10 @@
         <v>2148</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -67828,7 +67828,7 @@
         <v>2151</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C372" s="15" t="s">
         <v>61</v>
@@ -67850,7 +67850,7 @@
         <v>2154</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C374" s="15" t="s">
         <v>61</v>
@@ -67861,7 +67861,7 @@
         <v>2156</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C375" s="15" t="s">
         <v>61</v>
@@ -67872,7 +67872,7 @@
         <v>2157</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C376" s="15" t="s">
         <v>61</v>
@@ -67883,7 +67883,7 @@
         <v>2158</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C377" s="15" t="s">
         <v>61</v>
@@ -67894,7 +67894,7 @@
         <v>2159</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C378" s="15" t="s">
         <v>61</v>
@@ -67905,7 +67905,7 @@
         <v>2160</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C379" s="15" t="s">
         <v>61</v>
@@ -67916,7 +67916,7 @@
         <v>2161</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C380" s="15" t="s">
         <v>61</v>
@@ -67927,7 +67927,7 @@
         <v>2164</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C381" s="15" t="s">
         <v>61</v>
@@ -67938,7 +67938,7 @@
         <v>2165</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>61</v>
@@ -67949,10 +67949,10 @@
         <v>2167</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -67960,7 +67960,7 @@
         <v>2170</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>61</v>
@@ -67971,7 +67971,7 @@
         <v>2172</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>61</v>
@@ -67982,7 +67982,7 @@
         <v>2173</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C386" s="15" t="s">
         <v>61</v>
@@ -67993,7 +67993,7 @@
         <v>2175</v>
       </c>
       <c r="B387" s="17" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C387" s="15" t="s">
         <v>61</v>
@@ -68004,7 +68004,7 @@
         <v>2177</v>
       </c>
       <c r="B388" s="17" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C388" s="15" t="s">
         <v>61</v>
@@ -68015,7 +68015,7 @@
         <v>2187</v>
       </c>
       <c r="B389" s="17" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C389" s="15" t="s">
         <v>61</v>
@@ -68026,7 +68026,7 @@
         <v>2189</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C390" s="15" t="s">
         <v>61</v>
@@ -68037,7 +68037,7 @@
         <v>2190</v>
       </c>
       <c r="B391" s="17" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>61</v>
@@ -68202,7 +68202,7 @@
         <v>2206</v>
       </c>
       <c r="B406" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C406" s="15" t="s">
         <v>61</v>
@@ -68213,7 +68213,7 @@
         <v>2208</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C407" s="15" t="s">
         <v>61</v>
@@ -68224,7 +68224,7 @@
         <v>2209</v>
       </c>
       <c r="B408" s="17" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C408" s="15" t="s">
         <v>61</v>
@@ -68235,7 +68235,7 @@
         <v>2210</v>
       </c>
       <c r="B409" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C409" s="15" t="s">
         <v>61</v>
@@ -68246,7 +68246,7 @@
         <v>2212</v>
       </c>
       <c r="B410" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C410" s="15" t="s">
         <v>61</v>
@@ -68257,7 +68257,7 @@
         <v>2214</v>
       </c>
       <c r="B411" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C411" s="15" t="s">
         <v>61</v>
@@ -68268,7 +68268,7 @@
         <v>2216</v>
       </c>
       <c r="B412" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C412" s="15" t="s">
         <v>61</v>
@@ -68279,7 +68279,7 @@
         <v>2218</v>
       </c>
       <c r="B413" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C413" s="15" t="s">
         <v>61</v>
@@ -68290,7 +68290,7 @@
         <v>2220</v>
       </c>
       <c r="B414" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>61</v>
@@ -68301,7 +68301,7 @@
         <v>2222</v>
       </c>
       <c r="B415" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C415" s="15" t="s">
         <v>61</v>
@@ -68312,7 +68312,7 @@
         <v>2224</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C416" s="15" t="s">
         <v>61</v>
@@ -68323,7 +68323,7 @@
         <v>2226</v>
       </c>
       <c r="B417" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C417" s="15" t="s">
         <v>61</v>
@@ -68334,7 +68334,7 @@
         <v>2228</v>
       </c>
       <c r="B418" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C418" s="15" t="s">
         <v>61</v>
@@ -68345,7 +68345,7 @@
         <v>2230</v>
       </c>
       <c r="B419" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C419" s="15" t="s">
         <v>61</v>
@@ -68356,7 +68356,7 @@
         <v>2232</v>
       </c>
       <c r="B420" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C420" s="15" t="s">
         <v>61</v>
@@ -68367,7 +68367,7 @@
         <v>2234</v>
       </c>
       <c r="B421" s="17" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C421" s="15" t="s">
         <v>61</v>
@@ -68378,7 +68378,7 @@
         <v>2237</v>
       </c>
       <c r="B422" s="17" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C422" s="15" t="s">
         <v>61</v>
@@ -68389,7 +68389,7 @@
         <v>2238</v>
       </c>
       <c r="B423" s="17" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>61</v>
@@ -68400,7 +68400,7 @@
         <v>2239</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C424" s="15" t="s">
         <v>61</v>
@@ -68411,7 +68411,7 @@
         <v>2240</v>
       </c>
       <c r="B425" s="17" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C425" s="15" t="s">
         <v>61</v>
@@ -68422,7 +68422,7 @@
         <v>2243</v>
       </c>
       <c r="B426" s="17" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C426" s="15" t="s">
         <v>61</v>
@@ -68433,7 +68433,7 @@
         <v>2244</v>
       </c>
       <c r="B427" s="17" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C427" s="15" t="s">
         <v>61</v>
@@ -68444,7 +68444,7 @@
         <v>2245</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C428" s="15" t="s">
         <v>61</v>
@@ -68455,7 +68455,7 @@
         <v>2246</v>
       </c>
       <c r="B429" s="17" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C429" s="15" t="s">
         <v>61</v>
@@ -68466,7 +68466,7 @@
         <v>2247</v>
       </c>
       <c r="B430" s="17" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C430" s="15" t="s">
         <v>61</v>
@@ -68480,7 +68480,7 @@
         <v>61</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -68499,10 +68499,10 @@
         <v>2251</v>
       </c>
       <c r="B433" s="17" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C433" s="15" t="s">
         <v>2460</v>
-      </c>
-      <c r="C433" s="15" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -68510,7 +68510,7 @@
         <v>2252</v>
       </c>
       <c r="B434" s="17" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C434" s="15" t="s">
         <v>61</v>
@@ -68521,10 +68521,10 @@
         <v>2253</v>
       </c>
       <c r="B435" s="17" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C435" s="15" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -68532,7 +68532,7 @@
         <v>2257</v>
       </c>
       <c r="B436" s="17" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C436" s="15" t="s">
         <v>61</v>
@@ -68609,10 +68609,10 @@
         <v>2265</v>
       </c>
       <c r="B443" s="17" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C443" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -68620,7 +68620,7 @@
         <v>2267</v>
       </c>
       <c r="B444" s="17" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>61</v>
@@ -68631,10 +68631,10 @@
         <v>2268</v>
       </c>
       <c r="B445" s="17" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C445" s="15" t="s">
         <v>2464</v>
-      </c>
-      <c r="C445" s="15" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -68642,7 +68642,7 @@
         <v>2271</v>
       </c>
       <c r="B446" s="17" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C446" s="15" t="s">
         <v>61</v>
@@ -68653,7 +68653,7 @@
         <v>2273</v>
       </c>
       <c r="B447" s="17" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C447" s="15" t="s">
         <v>61</v>
@@ -68664,7 +68664,7 @@
         <v>2274</v>
       </c>
       <c r="B448" s="17" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C448" s="15" t="s">
         <v>61</v>
@@ -68675,10 +68675,10 @@
         <v>2276</v>
       </c>
       <c r="B449" s="17" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
@@ -68697,7 +68697,7 @@
         <v>2278</v>
       </c>
       <c r="B451" s="17" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C451" s="15" t="s">
         <v>61</v>
@@ -68705,10 +68705,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B452" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C452" t="s">
         <v>61</v>
@@ -68716,10 +68716,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B453" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C453" t="s">
         <v>61</v>
@@ -68727,10 +68727,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B454" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C454" t="s">
         <v>61</v>
@@ -68738,10 +68738,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B455" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C455" t="s">
         <v>61</v>
@@ -68749,10 +68749,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B456" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C456" t="s">
         <v>61</v>
@@ -68760,10 +68760,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B457" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C457" t="s">
         <v>61</v>
@@ -68771,10 +68771,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B458" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C458" t="s">
         <v>61</v>
@@ -68782,10 +68782,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B459" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C459" t="s">
         <v>61</v>
@@ -68793,10 +68793,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B460" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C460" t="s">
         <v>61</v>
@@ -68804,7 +68804,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B461" t="s">
         <v>61</v>
@@ -68815,10 +68815,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B462" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C462" t="s">
         <v>61</v>
@@ -68826,10 +68826,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B463" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C463" t="s">
         <v>61</v>
@@ -68837,10 +68837,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B464" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C464" t="s">
         <v>61</v>
@@ -68848,10 +68848,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B465" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C465" t="s">
         <v>61</v>
@@ -68859,10 +68859,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B466" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C466" t="s">
         <v>61</v>
@@ -68870,7 +68870,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B467" t="s">
         <v>61</v>
@@ -68881,10 +68881,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B468" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C468" t="s">
         <v>61</v>
@@ -68892,10 +68892,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B469" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C469" t="s">
         <v>61</v>
@@ -68903,10 +68903,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B470" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C470" t="s">
         <v>61</v>
@@ -68914,10 +68914,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B471" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C471" t="s">
         <v>61</v>
@@ -68925,10 +68925,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B472" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C472" t="s">
         <v>61</v>
@@ -68936,10 +68936,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B473" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C473" t="s">
         <v>61</v>
@@ -68947,10 +68947,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B474" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C474" t="s">
         <v>61</v>
@@ -68958,10 +68958,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B475" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C475" t="s">
         <v>61</v>
@@ -68969,10 +68969,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B476" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C476" t="s">
         <v>61</v>
@@ -68980,10 +68980,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B477" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C477" t="s">
         <v>61</v>
@@ -68991,10 +68991,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B478" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C478" t="s">
         <v>61</v>
@@ -69002,10 +69002,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B479" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C479" t="s">
         <v>61</v>
@@ -69013,10 +69013,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B480" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C480" t="s">
         <v>61</v>
@@ -69024,10 +69024,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B481" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C481" t="s">
         <v>61</v>
@@ -69035,10 +69035,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B482" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C482" t="s">
         <v>61</v>
@@ -69046,10 +69046,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B483" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C483" t="s">
         <v>61</v>
@@ -69057,10 +69057,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B484" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C484" t="s">
         <v>61</v>
@@ -69068,10 +69068,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B485" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C485" t="s">
         <v>61</v>
@@ -69079,10 +69079,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B486" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C486" t="s">
         <v>61</v>
@@ -69090,10 +69090,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B487" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C487" t="s">
         <v>61</v>
@@ -69101,10 +69101,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B488" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C488" t="s">
         <v>61</v>
@@ -69112,10 +69112,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B489" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C489" t="s">
         <v>61</v>
@@ -69123,10 +69123,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B490" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C490" t="s">
         <v>61</v>
@@ -69134,10 +69134,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B491" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C491" t="s">
         <v>61</v>
@@ -69145,10 +69145,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B492" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C492" t="s">
         <v>61</v>
@@ -69156,10 +69156,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B493" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C493" t="s">
         <v>61</v>
@@ -69167,10 +69167,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B494" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C494" t="s">
         <v>61</v>
@@ -69178,10 +69178,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B495" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C495" t="s">
         <v>61</v>
@@ -69307,7 +69307,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>276</v>
@@ -69845,10 +69845,10 @@
         <v>276</v>
       </c>
       <c r="C44" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D44" t="s">
         <v>2501</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69859,10 +69859,10 @@
         <v>276</v>
       </c>
       <c r="C45" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D45" t="s">
         <v>2503</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69873,10 +69873,10 @@
         <v>276</v>
       </c>
       <c r="C46" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D46" t="s">
         <v>2505</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69887,10 +69887,10 @@
         <v>276</v>
       </c>
       <c r="C47" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D47" t="s">
         <v>2507</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69901,10 +69901,10 @@
         <v>276</v>
       </c>
       <c r="C48" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D48" t="s">
         <v>2509</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2510</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69915,10 +69915,10 @@
         <v>276</v>
       </c>
       <c r="C49" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D49" t="s">
         <v>2511</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69929,10 +69929,10 @@
         <v>276</v>
       </c>
       <c r="C50" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D50" t="s">
         <v>2513</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69943,10 +69943,10 @@
         <v>1683</v>
       </c>
       <c r="C51" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D51" t="s">
         <v>2515</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2516</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69957,10 +69957,10 @@
         <v>1683</v>
       </c>
       <c r="C52" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D52" t="s">
         <v>2515</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2516</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69971,10 +69971,10 @@
         <v>276</v>
       </c>
       <c r="C53" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D53" t="s">
         <v>2517</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69985,10 +69985,10 @@
         <v>276</v>
       </c>
       <c r="C54" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D54" t="s">
         <v>2519</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -69999,10 +69999,10 @@
         <v>276</v>
       </c>
       <c r="C55" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D55" t="s">
         <v>2521</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -70013,10 +70013,10 @@
         <v>1724</v>
       </c>
       <c r="C56" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D56" t="s">
         <v>2523</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -70027,10 +70027,10 @@
         <v>1683</v>
       </c>
       <c r="C57" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D57" t="s">
         <v>2525</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -70041,10 +70041,10 @@
         <v>1724</v>
       </c>
       <c r="C58" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D58" t="s">
         <v>2527</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -70055,10 +70055,10 @@
         <v>276</v>
       </c>
       <c r="C59" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D59" t="s">
         <v>2529</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -70069,122 +70069,122 @@
         <v>276</v>
       </c>
       <c r="C60" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D60" t="s">
         <v>2531</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B61" t="s">
         <v>276</v>
       </c>
       <c r="C61" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D61" t="s">
         <v>2759</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B62" t="s">
         <v>276</v>
       </c>
       <c r="C62" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D62" t="s">
         <v>2761</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B63" t="s">
         <v>276</v>
       </c>
       <c r="C63" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D63" t="s">
         <v>2763</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B64" t="s">
         <v>276</v>
       </c>
       <c r="C64" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D64" t="s">
         <v>2765</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B65" t="s">
         <v>276</v>
       </c>
       <c r="C65" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D65" t="s">
         <v>2767</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2768</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B66" t="s">
         <v>276</v>
       </c>
       <c r="C66" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D66" t="s">
         <v>2769</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B67" t="s">
         <v>276</v>
       </c>
       <c r="C67" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D67" t="s">
         <v>2771</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B68" t="s">
         <v>276</v>
       </c>
       <c r="C68" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D68" t="s">
         <v>2773</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F235C8-960F-4361-8025-B6AE9BAE26DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D00150-7E99-443C-B49F-018DF417998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10093" uniqueCount="2805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10095" uniqueCount="2805">
   <si>
     <t>name</t>
   </si>
@@ -40698,11 +40698,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1581"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B845" sqref="B845"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E716" sqref="E716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40794,7 +40795,7 @@
         <v>Snowmane</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -40811,7 +40812,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -40851,7 +40852,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
@@ -40914,7 +40915,7 @@
         <v>Firefoot</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>34</v>
       </c>
@@ -40931,7 +40932,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
@@ -40950,7 +40951,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>36</v>
       </c>
@@ -41013,7 +41014,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
@@ -41030,7 +41031,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
@@ -41070,7 +41071,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>42</v>
       </c>
@@ -41087,7 +41088,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -41104,7 +41105,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
@@ -41123,7 +41124,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
@@ -41142,7 +41143,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>47</v>
       </c>
@@ -41159,7 +41160,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
@@ -41178,7 +41179,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
@@ -41195,7 +41196,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>50</v>
       </c>
@@ -41214,7 +41215,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>51</v>
       </c>
@@ -41231,7 +41232,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>52</v>
       </c>
@@ -41295,7 +41296,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>55</v>
       </c>
@@ -41337,7 +41338,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>268</v>
       </c>
@@ -41354,7 +41355,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>269</v>
       </c>
@@ -41373,7 +41374,7 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>270</v>
       </c>
@@ -41390,7 +41391,7 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>271</v>
       </c>
@@ -41407,7 +41408,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>272</v>
       </c>
@@ -41424,7 +41425,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>273</v>
       </c>
@@ -41441,7 +41442,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>274</v>
       </c>
@@ -41460,7 +41461,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>430</v>
       </c>
@@ -41526,7 +41527,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>433</v>
       </c>
@@ -41543,7 +41544,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>434</v>
       </c>
@@ -41560,7 +41561,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>435</v>
       </c>
@@ -41626,7 +41627,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>438</v>
       </c>
@@ -41689,7 +41690,7 @@
         <v>Asfaloth</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>441</v>
       </c>
@@ -41730,7 +41731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>443</v>
       </c>
@@ -41747,7 +41748,7 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>444</v>
       </c>
@@ -41764,7 +41765,7 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>445</v>
       </c>
@@ -41783,7 +41784,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>446</v>
       </c>
@@ -41800,7 +41801,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>447</v>
       </c>
@@ -41817,7 +41818,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>448</v>
       </c>
@@ -41834,7 +41835,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>449</v>
       </c>
@@ -41851,7 +41852,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>450</v>
       </c>
@@ -41868,7 +41869,7 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>451</v>
       </c>
@@ -41885,7 +41886,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>452</v>
       </c>
@@ -41902,7 +41903,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>453</v>
       </c>
@@ -41921,7 +41922,7 @@
       </c>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>454</v>
       </c>
@@ -41938,7 +41939,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>455</v>
       </c>
@@ -41955,7 +41956,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>456</v>
       </c>
@@ -41972,7 +41973,7 @@
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>457</v>
       </c>
@@ -41989,7 +41990,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>458</v>
       </c>
@@ -42008,7 +42009,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>459</v>
       </c>
@@ -42025,7 +42026,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>460</v>
       </c>
@@ -42044,7 +42045,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>461</v>
       </c>
@@ -42061,7 +42062,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>462</v>
       </c>
@@ -42080,7 +42081,7 @@
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>463</v>
       </c>
@@ -42099,7 +42100,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>464</v>
       </c>
@@ -42118,7 +42119,7 @@
       </c>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>465</v>
       </c>
@@ -42135,7 +42136,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>466</v>
       </c>
@@ -42152,7 +42153,7 @@
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>467</v>
       </c>
@@ -42169,7 +42170,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>468</v>
       </c>
@@ -42188,7 +42189,7 @@
       </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>469</v>
       </c>
@@ -42209,7 +42210,7 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>470</v>
       </c>
@@ -42226,7 +42227,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>471</v>
       </c>
@@ -42245,7 +42246,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>472</v>
       </c>
@@ -42262,7 +42263,7 @@
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>473</v>
       </c>
@@ -42281,7 +42282,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>474</v>
       </c>
@@ -42298,7 +42299,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>475</v>
       </c>
@@ -42315,7 +42316,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>476</v>
       </c>
@@ -42332,7 +42333,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>477</v>
       </c>
@@ -42351,7 +42352,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>478</v>
       </c>
@@ -42368,7 +42369,7 @@
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>479</v>
       </c>
@@ -42385,7 +42386,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>480</v>
       </c>
@@ -42402,7 +42403,7 @@
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>481</v>
       </c>
@@ -42419,7 +42420,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>482</v>
       </c>
@@ -42436,7 +42437,7 @@
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>483</v>
       </c>
@@ -42453,7 +42454,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>484</v>
       </c>
@@ -42470,7 +42471,7 @@
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
         <v>485</v>
       </c>
@@ -42487,7 +42488,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>486</v>
       </c>
@@ -42504,7 +42505,7 @@
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>487</v>
       </c>
@@ -42523,7 +42524,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
         <v>488</v>
       </c>
@@ -42563,7 +42564,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
         <v>490</v>
       </c>
@@ -42580,7 +42581,7 @@
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
         <v>491</v>
       </c>
@@ -42597,7 +42598,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
         <v>492</v>
       </c>
@@ -42614,7 +42615,7 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
         <v>493</v>
       </c>
@@ -42631,7 +42632,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
         <v>494</v>
       </c>
@@ -42648,7 +42649,7 @@
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
         <v>495</v>
       </c>
@@ -42665,7 +42666,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
         <v>496</v>
       </c>
@@ -42682,7 +42683,7 @@
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
         <v>497</v>
       </c>
@@ -42699,7 +42700,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
         <v>498</v>
       </c>
@@ -42716,7 +42717,7 @@
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>499</v>
       </c>
@@ -42779,7 +42780,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
         <v>522</v>
       </c>
@@ -42796,7 +42797,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>523</v>
       </c>
@@ -42813,7 +42814,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>524</v>
       </c>
@@ -42830,7 +42831,7 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="s">
         <v>525</v>
       </c>
@@ -42849,7 +42850,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
         <v>526</v>
       </c>
@@ -42866,7 +42867,7 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
         <v>527</v>
       </c>
@@ -42883,7 +42884,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
         <v>528</v>
       </c>
@@ -42900,7 +42901,7 @@
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
         <v>529</v>
       </c>
@@ -42940,7 +42941,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
         <v>550</v>
       </c>
@@ -42959,7 +42960,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
         <v>551</v>
       </c>
@@ -42976,7 +42977,7 @@
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>552</v>
       </c>
@@ -42993,7 +42994,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>553</v>
       </c>
@@ -43012,7 +43013,7 @@
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
         <v>564</v>
       </c>
@@ -43029,7 +43030,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="15" t="s">
         <v>565</v>
       </c>
@@ -43046,7 +43047,7 @@
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>566</v>
       </c>
@@ -43063,7 +43064,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="s">
         <v>567</v>
       </c>
@@ -43082,7 +43083,7 @@
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="s">
         <v>598</v>
       </c>
@@ -43101,7 +43102,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="s">
         <v>599</v>
       </c>
@@ -43118,7 +43119,7 @@
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="s">
         <v>600</v>
       </c>
@@ -43135,7 +43136,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
         <v>601</v>
       </c>
@@ -43152,7 +43153,7 @@
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
         <v>602</v>
       </c>
@@ -43171,7 +43172,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="15" t="s">
         <v>603</v>
       </c>
@@ -43188,7 +43189,7 @@
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="s">
         <v>604</v>
       </c>
@@ -43207,7 +43208,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="s">
         <v>605</v>
       </c>
@@ -43226,7 +43227,7 @@
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="s">
         <v>606</v>
       </c>
@@ -43318,7 +43319,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="s">
         <v>620</v>
       </c>
@@ -43335,7 +43336,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="15" t="s">
         <v>621</v>
       </c>
@@ -43352,7 +43353,7 @@
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="15" t="s">
         <v>622</v>
       </c>
@@ -43369,7 +43370,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="s">
         <v>623</v>
       </c>
@@ -43413,7 +43414,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="15" t="s">
         <v>625</v>
       </c>
@@ -43457,7 +43458,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="15" t="s">
         <v>627</v>
       </c>
@@ -43478,7 +43479,7 @@
       </c>
       <c r="G147" s="15"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="s">
         <v>628</v>
       </c>
@@ -43520,7 +43521,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="s">
         <v>630</v>
       </c>
@@ -43537,7 +43538,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="15" t="s">
         <v>631</v>
       </c>
@@ -43599,7 +43600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="15" t="s">
         <v>656</v>
       </c>
@@ -43616,7 +43617,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="15"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="s">
         <v>657</v>
       </c>
@@ -43633,7 +43634,7 @@
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="s">
         <v>658</v>
       </c>
@@ -43652,7 +43653,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="15"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="15" t="s">
         <v>659</v>
       </c>
@@ -43669,7 +43670,7 @@
       <c r="F157" s="15"/>
       <c r="G157" s="15"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="s">
         <v>660</v>
       </c>
@@ -43686,7 +43687,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="15"/>
     </row>
-    <row r="159" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="15" t="s">
         <v>661</v>
       </c>
@@ -43707,7 +43708,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="15" t="s">
         <v>662</v>
       </c>
@@ -43724,7 +43725,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="15" t="s">
         <v>663</v>
       </c>
@@ -43879,7 +43880,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="s">
         <v>1131</v>
       </c>
@@ -43896,7 +43897,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="s">
         <v>1132</v>
       </c>
@@ -43936,7 +43937,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="s">
         <v>1134</v>
       </c>
@@ -43955,7 +43956,7 @@
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="15" t="s">
         <v>1135</v>
       </c>
@@ -43972,7 +43973,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="15" t="s">
         <v>1136</v>
       </c>
@@ -43991,7 +43992,7 @@
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="s">
         <v>1137</v>
       </c>
@@ -44008,7 +44009,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="s">
         <v>1138</v>
       </c>
@@ -44027,7 +44028,7 @@
       <c r="F175" s="15"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="s">
         <v>1139</v>
       </c>
@@ -44044,7 +44045,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="s">
         <v>1140</v>
       </c>
@@ -44086,7 +44087,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="s">
         <v>1142</v>
       </c>
@@ -44130,7 +44131,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="s">
         <v>1144</v>
       </c>
@@ -44149,7 +44150,7 @@
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="15" t="s">
         <v>1145</v>
       </c>
@@ -44168,7 +44169,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="s">
         <v>1146</v>
       </c>
@@ -44185,7 +44186,7 @@
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="s">
         <v>1147</v>
       </c>
@@ -44204,7 +44205,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="15" t="s">
         <v>1148</v>
       </c>
@@ -44269,7 +44270,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="s">
         <v>1151</v>
       </c>
@@ -44309,7 +44310,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
         <v>1153</v>
       </c>
@@ -44326,7 +44327,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="s">
         <v>1154</v>
       </c>
@@ -44343,7 +44344,7 @@
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="s">
         <v>1155</v>
       </c>
@@ -44408,7 +44409,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="15" t="s">
         <v>1158</v>
       </c>
@@ -44425,7 +44426,7 @@
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
         <v>1159</v>
       </c>
@@ -44442,7 +44443,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
         <v>1160</v>
       </c>
@@ -44459,7 +44460,7 @@
       <c r="F197" s="15"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="s">
         <v>1161</v>
       </c>
@@ -44476,7 +44477,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
         <v>1162</v>
       </c>
@@ -44495,7 +44496,7 @@
       <c r="F199" s="15"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="s">
         <v>1163</v>
       </c>
@@ -44512,7 +44513,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="15" t="s">
         <v>1164</v>
       </c>
@@ -44529,7 +44530,7 @@
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="s">
         <v>1165</v>
       </c>
@@ -44546,7 +44547,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="15" t="s">
         <v>1166</v>
       </c>
@@ -44563,7 +44564,7 @@
       <c r="F203" s="15"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="s">
         <v>1167</v>
       </c>
@@ -44580,7 +44581,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="15" t="s">
         <v>1168</v>
       </c>
@@ -44597,7 +44598,7 @@
       <c r="F205" s="15"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15" t="s">
         <v>1169</v>
       </c>
@@ -44614,7 +44615,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="15" t="s">
         <v>1170</v>
       </c>
@@ -44631,7 +44632,7 @@
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="s">
         <v>1171</v>
       </c>
@@ -44650,7 +44651,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="15" t="s">
         <v>1172</v>
       </c>
@@ -44669,7 +44670,7 @@
       <c r="F209" s="15"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="15" t="s">
         <v>1173</v>
       </c>
@@ -44688,7 +44689,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="15" t="s">
         <v>1174</v>
       </c>
@@ -44707,7 +44708,7 @@
       <c r="F211" s="15"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="s">
         <v>1175</v>
       </c>
@@ -44726,7 +44727,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="15" t="s">
         <v>1176</v>
       </c>
@@ -44789,7 +44790,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="15" t="s">
         <v>1179</v>
       </c>
@@ -44806,7 +44807,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="15" t="s">
         <v>1180</v>
       </c>
@@ -44823,7 +44824,7 @@
       <c r="F217" s="15"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="15" t="s">
         <v>1181</v>
       </c>
@@ -44840,7 +44841,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="15" t="s">
         <v>1182</v>
       </c>
@@ -44859,7 +44860,7 @@
       <c r="F219" s="15"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="s">
         <v>1183</v>
       </c>
@@ -44876,7 +44877,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
         <v>1184</v>
       </c>
@@ -44893,7 +44894,7 @@
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="s">
         <v>1185</v>
       </c>
@@ -44910,7 +44911,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="15" t="s">
         <v>1186</v>
       </c>
@@ -44927,7 +44928,7 @@
       <c r="F223" s="15"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="15" t="s">
         <v>1187</v>
       </c>
@@ -44946,7 +44947,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="15" t="s">
         <v>1188</v>
       </c>
@@ -44963,7 +44964,7 @@
       <c r="F225" s="15"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="15" t="s">
         <v>1189</v>
       </c>
@@ -44982,7 +44983,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="15" t="s">
         <v>1190</v>
       </c>
@@ -44999,7 +45000,7 @@
       <c r="F227" s="15"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="15" t="s">
         <v>1191</v>
       </c>
@@ -45018,7 +45019,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="15" t="s">
         <v>1192</v>
       </c>
@@ -45060,7 +45061,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="15" t="s">
         <v>1194</v>
       </c>
@@ -45077,7 +45078,7 @@
       <c r="F231" s="15"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="s">
         <v>1195</v>
       </c>
@@ -45119,7 +45120,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="15" t="s">
         <v>1197</v>
       </c>
@@ -45136,7 +45137,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="15" t="s">
         <v>1198</v>
       </c>
@@ -45153,7 +45154,7 @@
       <c r="F235" s="15"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="15" t="s">
         <v>1199</v>
       </c>
@@ -45172,7 +45173,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
         <v>1200</v>
       </c>
@@ -45189,7 +45190,7 @@
       <c r="F237" s="15"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="15" t="s">
         <v>1201</v>
       </c>
@@ -45206,7 +45207,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="15" t="s">
         <v>1202</v>
       </c>
@@ -45223,7 +45224,7 @@
       <c r="F239" s="15"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
         <v>1203</v>
       </c>
@@ -45242,7 +45243,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
         <v>1204</v>
       </c>
@@ -45261,7 +45262,7 @@
       <c r="F241" s="15"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
         <v>1205</v>
       </c>
@@ -45278,7 +45279,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
         <v>1206</v>
       </c>
@@ -45297,7 +45298,7 @@
       <c r="F243" s="15"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
         <v>1207</v>
       </c>
@@ -45314,7 +45315,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
         <v>1208</v>
       </c>
@@ -45331,7 +45332,7 @@
       <c r="F245" s="15"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
         <v>1209</v>
       </c>
@@ -45348,7 +45349,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
         <v>1210</v>
       </c>
@@ -45367,7 +45368,7 @@
       <c r="F247" s="15"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="15" t="s">
         <v>1211</v>
       </c>
@@ -45386,7 +45387,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="15" t="s">
         <v>1212</v>
       </c>
@@ -45403,7 +45404,7 @@
       <c r="F249" s="15"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="s">
         <v>1213</v>
       </c>
@@ -45420,7 +45421,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="15" t="s">
         <v>1214</v>
       </c>
@@ -45437,7 +45438,7 @@
       <c r="F251" s="15"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="15" t="s">
         <v>1215</v>
       </c>
@@ -45477,7 +45478,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="15" t="s">
         <v>1217</v>
       </c>
@@ -45521,7 +45522,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="15" t="s">
         <v>1219</v>
       </c>
@@ -45538,7 +45539,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
         <v>1220</v>
       </c>
@@ -45555,7 +45556,7 @@
       <c r="F257" s="15"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="15" t="s">
         <v>1221</v>
       </c>
@@ -45572,7 +45573,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="15" t="s">
         <v>1222</v>
       </c>
@@ -45589,7 +45590,7 @@
       <c r="F259" s="15"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="15" t="s">
         <v>1223</v>
       </c>
@@ -45606,7 +45607,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="15" t="s">
         <v>1224</v>
       </c>
@@ -45623,7 +45624,7 @@
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="15" t="s">
         <v>1225</v>
       </c>
@@ -45640,7 +45641,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="15" t="s">
         <v>1226</v>
       </c>
@@ -45657,7 +45658,7 @@
       <c r="F263" s="15"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="15" t="s">
         <v>1227</v>
       </c>
@@ -45701,7 +45702,7 @@
         <v>Armoured Fell Beast</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="15" t="s">
         <v>1229</v>
       </c>
@@ -45720,7 +45721,7 @@
       </c>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="15" t="s">
         <v>1230</v>
       </c>
@@ -45737,7 +45738,7 @@
       <c r="F267" s="15"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="15" t="s">
         <v>1231</v>
       </c>
@@ -45754,7 +45755,7 @@
       <c r="F268" s="15"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="15" t="s">
         <v>1232</v>
       </c>
@@ -45798,7 +45799,7 @@
         <v>Fell Beast</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="15" t="s">
         <v>1234</v>
       </c>
@@ -45838,7 +45839,7 @@
         <v>Warg</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="15" t="s">
         <v>1236</v>
       </c>
@@ -45855,7 +45856,7 @@
       <c r="F273" s="15"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="15" t="s">
         <v>1237</v>
       </c>
@@ -45872,7 +45873,7 @@
       <c r="F274" s="15"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="15" t="s">
         <v>1238</v>
       </c>
@@ -45889,7 +45890,7 @@
       <c r="F275" s="15"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="15" t="s">
         <v>1239</v>
       </c>
@@ -45906,7 +45907,7 @@
       <c r="F276" s="15"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="15" t="s">
         <v>1240</v>
       </c>
@@ -45923,7 +45924,7 @@
       <c r="F277" s="15"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="15" t="s">
         <v>1241</v>
       </c>
@@ -45940,7 +45941,7 @@
       <c r="F278" s="15"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="15" t="s">
         <v>1242</v>
       </c>
@@ -45957,7 +45958,7 @@
       <c r="F279" s="15"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="15" t="s">
         <v>1243</v>
       </c>
@@ -45974,7 +45975,7 @@
       <c r="F280" s="15"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="15" t="s">
         <v>1244</v>
       </c>
@@ -45991,7 +45992,7 @@
       <c r="F281" s="15"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="15" t="s">
         <v>1245</v>
       </c>
@@ -46008,7 +46009,7 @@
       <c r="F282" s="15"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="15" t="s">
         <v>1246</v>
       </c>
@@ -46025,7 +46026,7 @@
       <c r="F283" s="15"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="15" t="s">
         <v>1247</v>
       </c>
@@ -46044,7 +46045,7 @@
       <c r="F284" s="15"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="15" t="s">
         <v>1248</v>
       </c>
@@ -46061,7 +46062,7 @@
       <c r="F285" s="15"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="15" t="s">
         <v>1249</v>
       </c>
@@ -46078,7 +46079,7 @@
       <c r="F286" s="15"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="15" t="s">
         <v>1250</v>
       </c>
@@ -46097,7 +46098,7 @@
       <c r="F287" s="15"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="15" t="s">
         <v>1251</v>
       </c>
@@ -46114,7 +46115,7 @@
       <c r="F288" s="15"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="15" t="s">
         <v>1252</v>
       </c>
@@ -46131,7 +46132,7 @@
       <c r="F289" s="15"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="15" t="s">
         <v>1253</v>
       </c>
@@ -46148,7 +46149,7 @@
       <c r="F290" s="15"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="s">
         <v>1254</v>
       </c>
@@ -46165,7 +46166,7 @@
       <c r="F291" s="15"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="s">
         <v>1255</v>
       </c>
@@ -46182,7 +46183,7 @@
       <c r="F292" s="15"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="s">
         <v>1256</v>
       </c>
@@ -46199,7 +46200,7 @@
       <c r="F293" s="15"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="s">
         <v>1257</v>
       </c>
@@ -46216,7 +46217,7 @@
       <c r="F294" s="15"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="15" t="s">
         <v>1258</v>
       </c>
@@ -46233,7 +46234,7 @@
       <c r="F295" s="15"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="15" t="s">
         <v>1259</v>
       </c>
@@ -46250,7 +46251,7 @@
       <c r="F296" s="15"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="15" t="s">
         <v>1260</v>
       </c>
@@ -46269,7 +46270,7 @@
       <c r="F297" s="15"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="15" t="s">
         <v>1261</v>
       </c>
@@ -46286,7 +46287,7 @@
       <c r="F298" s="15"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="15" t="s">
         <v>1262</v>
       </c>
@@ -46328,7 +46329,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="15" t="s">
         <v>1264</v>
       </c>
@@ -46345,7 +46346,7 @@
       <c r="F301" s="15"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="15" t="s">
         <v>1265</v>
       </c>
@@ -46362,7 +46363,7 @@
       <c r="F302" s="15"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="15" t="s">
         <v>1266</v>
       </c>
@@ -46379,7 +46380,7 @@
       <c r="F303" s="15"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="15" t="s">
         <v>1267</v>
       </c>
@@ -46398,7 +46399,7 @@
       <c r="F304" s="15"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="15" t="s">
         <v>1268</v>
       </c>
@@ -46415,7 +46416,7 @@
       <c r="F305" s="15"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="s">
         <v>1269</v>
       </c>
@@ -46457,7 +46458,7 @@
         <v>Asfaloth</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="15" t="s">
         <v>1271</v>
       </c>
@@ -46501,7 +46502,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="15" t="s">
         <v>1273</v>
       </c>
@@ -46520,7 +46521,7 @@
       </c>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="15" t="s">
         <v>1274</v>
       </c>
@@ -46539,7 +46540,7 @@
       </c>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="15" t="s">
         <v>1275</v>
       </c>
@@ -46606,7 +46607,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="15" t="s">
         <v>1278</v>
       </c>
@@ -46623,7 +46624,7 @@
       <c r="F315" s="15"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="15" t="s">
         <v>1279</v>
       </c>
@@ -46640,7 +46641,7 @@
       <c r="F316" s="15"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="15" t="s">
         <v>1280</v>
       </c>
@@ -46657,7 +46658,7 @@
       <c r="F317" s="15"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="15" t="s">
         <v>1281</v>
       </c>
@@ -46701,7 +46702,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="15" t="s">
         <v>1283</v>
       </c>
@@ -46745,7 +46746,7 @@
         <v>Brego</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="15" t="s">
         <v>1285</v>
       </c>
@@ -46789,7 +46790,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="15" t="s">
         <v>1287</v>
       </c>
@@ -46808,7 +46809,7 @@
       </c>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="15" t="s">
         <v>1288</v>
       </c>
@@ -46825,7 +46826,7 @@
       <c r="F325" s="15"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="15" t="s">
         <v>1289</v>
       </c>
@@ -46842,7 +46843,7 @@
       <c r="F326" s="15"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="15" t="s">
         <v>1290</v>
       </c>
@@ -46861,7 +46862,7 @@
       <c r="F327" s="15"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="15" t="s">
         <v>1291</v>
       </c>
@@ -46878,7 +46879,7 @@
       <c r="F328" s="15"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="15" t="s">
         <v>1292</v>
       </c>
@@ -46897,7 +46898,7 @@
       <c r="F329" s="15"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="15" t="s">
         <v>1293</v>
       </c>
@@ -46914,7 +46915,7 @@
       <c r="F330" s="15"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="15" t="s">
         <v>1294</v>
       </c>
@@ -46931,7 +46932,7 @@
       <c r="F331" s="15"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="15" t="s">
         <v>1295</v>
       </c>
@@ -46948,7 +46949,7 @@
       <c r="F332" s="15"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="15" t="s">
         <v>1296</v>
       </c>
@@ -46992,7 +46993,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="15" t="s">
         <v>1298</v>
       </c>
@@ -47009,7 +47010,7 @@
       <c r="F335" s="15"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="15" t="s">
         <v>1299</v>
       </c>
@@ -47053,7 +47054,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="15" t="s">
         <v>1301</v>
       </c>
@@ -47070,7 +47071,7 @@
       <c r="F338" s="15"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="15" t="s">
         <v>1302</v>
       </c>
@@ -47087,7 +47088,7 @@
       <c r="F339" s="15"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="15" t="s">
         <v>1303</v>
       </c>
@@ -47106,7 +47107,7 @@
       <c r="F340" s="15"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="15" t="s">
         <v>1304</v>
       </c>
@@ -47123,7 +47124,7 @@
       <c r="F341" s="15"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="15" t="s">
         <v>1305</v>
       </c>
@@ -47163,7 +47164,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="15" t="s">
         <v>1307</v>
       </c>
@@ -47180,7 +47181,7 @@
       <c r="F344" s="15"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="15" t="s">
         <v>1308</v>
       </c>
@@ -47197,7 +47198,7 @@
       <c r="F345" s="15"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="15" t="s">
         <v>1309</v>
       </c>
@@ -47214,7 +47215,7 @@
       <c r="F346" s="15"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="15" t="s">
         <v>1310</v>
       </c>
@@ -47231,7 +47232,7 @@
       <c r="F347" s="15"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="15" t="s">
         <v>1311</v>
       </c>
@@ -47250,7 +47251,7 @@
       <c r="F348" s="15"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="15" t="s">
         <v>1312</v>
       </c>
@@ -47267,7 +47268,7 @@
       <c r="F349" s="15"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="15" t="s">
         <v>1313</v>
       </c>
@@ -47286,7 +47287,7 @@
       <c r="F350" s="15"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="15" t="s">
         <v>1314</v>
       </c>
@@ -47303,7 +47304,7 @@
       <c r="F351" s="15"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="15" t="s">
         <v>1315</v>
       </c>
@@ -47320,7 +47321,7 @@
       <c r="F352" s="15"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="15" t="s">
         <v>1316</v>
       </c>
@@ -47337,7 +47338,7 @@
       <c r="F353" s="15"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="15" t="s">
         <v>1317</v>
       </c>
@@ -47354,7 +47355,7 @@
       <c r="F354" s="15"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="15" t="s">
         <v>1318</v>
       </c>
@@ -47371,7 +47372,7 @@
       <c r="F355" s="15"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="15" t="s">
         <v>1319</v>
       </c>
@@ -47390,7 +47391,7 @@
       <c r="F356" s="15"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="15" t="s">
         <v>1320</v>
       </c>
@@ -47407,7 +47408,7 @@
       <c r="F357" s="15"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="15" t="s">
         <v>1321</v>
       </c>
@@ -47424,7 +47425,7 @@
       <c r="F358" s="15"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="15" t="s">
         <v>1322</v>
       </c>
@@ -47441,7 +47442,7 @@
       <c r="F359" s="15"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="15" t="s">
         <v>1323</v>
       </c>
@@ -47460,7 +47461,7 @@
       <c r="F360" s="15"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="15" t="s">
         <v>1324</v>
       </c>
@@ -47479,7 +47480,7 @@
       <c r="F361" s="15"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="15" t="s">
         <v>1325</v>
       </c>
@@ -47496,7 +47497,7 @@
       <c r="F362" s="15"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="15" t="s">
         <v>1326</v>
       </c>
@@ -47515,7 +47516,7 @@
       <c r="F363" s="15"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="15" t="s">
         <v>1327</v>
       </c>
@@ -47532,7 +47533,7 @@
       <c r="F364" s="15"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="15" t="s">
         <v>1328</v>
       </c>
@@ -47549,7 +47550,7 @@
       <c r="F365" s="15"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="15" t="s">
         <v>1329</v>
       </c>
@@ -47568,7 +47569,7 @@
       <c r="F366" s="15"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="15" t="s">
         <v>1330</v>
       </c>
@@ -47585,7 +47586,7 @@
       <c r="F367" s="15"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="15" t="s">
         <v>1331</v>
       </c>
@@ -47602,7 +47603,7 @@
       <c r="F368" s="15"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="15" t="s">
         <v>1332</v>
       </c>
@@ -47619,7 +47620,7 @@
       <c r="F369" s="15"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="15" t="s">
         <v>1333</v>
       </c>
@@ -47659,7 +47660,7 @@
         <v>Gandalf's Cart</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="15" t="s">
         <v>1335</v>
       </c>
@@ -47676,7 +47677,7 @@
       <c r="F372" s="15"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="15" t="s">
         <v>1336</v>
       </c>
@@ -47693,7 +47694,7 @@
       <c r="F373" s="15"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="15" t="s">
         <v>1337</v>
       </c>
@@ -47735,7 +47736,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="15" t="s">
         <v>1339</v>
       </c>
@@ -47754,7 +47755,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="15" t="s">
         <v>1340</v>
       </c>
@@ -47771,7 +47772,7 @@
       <c r="F377" s="15"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="15" t="s">
         <v>1341</v>
       </c>
@@ -47788,7 +47789,7 @@
       <c r="F378" s="15"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="15" t="s">
         <v>1342</v>
       </c>
@@ -47852,7 +47853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="15" t="s">
         <v>1345</v>
       </c>
@@ -47869,7 +47870,7 @@
       <c r="F382" s="15"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="15" t="s">
         <v>1346</v>
       </c>
@@ -47886,7 +47887,7 @@
       <c r="F383" s="15"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="15" t="s">
         <v>1347</v>
       </c>
@@ -47905,7 +47906,7 @@
       <c r="F384" s="15"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="15" t="s">
         <v>1348</v>
       </c>
@@ -47922,7 +47923,7 @@
       <c r="F385" s="15"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="15" t="s">
         <v>1349</v>
       </c>
@@ -47939,7 +47940,7 @@
       <c r="F386" s="15"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="15" t="s">
         <v>1350</v>
       </c>
@@ -47985,7 +47986,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="15" t="s">
         <v>1352</v>
       </c>
@@ -48004,7 +48005,7 @@
       </c>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="15" t="s">
         <v>1353</v>
       </c>
@@ -48048,7 +48049,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="15" t="s">
         <v>1355</v>
       </c>
@@ -48065,7 +48066,7 @@
       <c r="F392" s="15"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="15" t="s">
         <v>1356</v>
       </c>
@@ -48082,7 +48083,7 @@
       <c r="F393" s="15"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="15" t="s">
         <v>1357</v>
       </c>
@@ -48099,7 +48100,7 @@
       <c r="F394" s="15"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="15" t="s">
         <v>1358</v>
       </c>
@@ -48168,7 +48169,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="15" t="s">
         <v>1361</v>
       </c>
@@ -48187,7 +48188,7 @@
       </c>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="15" t="s">
         <v>1362</v>
       </c>
@@ -48231,7 +48232,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="15" t="s">
         <v>1364</v>
       </c>
@@ -48250,7 +48251,7 @@
       </c>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="15" t="s">
         <v>1365</v>
       </c>
@@ -48269,7 +48270,7 @@
       <c r="F402" s="15"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="15" t="s">
         <v>1366</v>
       </c>
@@ -48318,7 +48319,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="15" t="s">
         <v>1368</v>
       </c>
@@ -48337,7 +48338,7 @@
       </c>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="15" t="s">
         <v>1369</v>
       </c>
@@ -48354,7 +48355,7 @@
       <c r="F406" s="15"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="15" t="s">
         <v>1370</v>
       </c>
@@ -48373,7 +48374,7 @@
       <c r="F407" s="15"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="15" t="s">
         <v>1371</v>
       </c>
@@ -48440,7 +48441,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="15" t="s">
         <v>1374</v>
       </c>
@@ -48457,7 +48458,7 @@
       <c r="F411" s="15"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="15" t="s">
         <v>1375</v>
       </c>
@@ -48474,7 +48475,7 @@
       <c r="F412" s="15"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="15" t="s">
         <v>1376</v>
       </c>
@@ -48491,7 +48492,7 @@
       <c r="F413" s="15"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="15" t="s">
         <v>1377</v>
       </c>
@@ -48523,13 +48524,15 @@
       <c r="D415" s="15">
         <v>5</v>
       </c>
-      <c r="E415" s="15"/>
+      <c r="E415" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F415" s="15" t="b">
         <v>1</v>
       </c>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="15" t="s">
         <v>1379</v>
       </c>
@@ -48548,7 +48551,7 @@
       <c r="F416" s="15"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="15" t="s">
         <v>1380</v>
       </c>
@@ -48611,7 +48614,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="15" t="s">
         <v>1383</v>
       </c>
@@ -48628,7 +48631,7 @@
       <c r="F420" s="15"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="15" t="s">
         <v>1384</v>
       </c>
@@ -48668,7 +48671,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="15" t="s">
         <v>1386</v>
       </c>
@@ -48687,7 +48690,7 @@
       <c r="F423" s="15"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="15" t="s">
         <v>1387</v>
       </c>
@@ -48704,7 +48707,7 @@
       <c r="F424" s="15"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="15" t="s">
         <v>1388</v>
       </c>
@@ -48723,7 +48726,7 @@
       <c r="F425" s="15"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="15" t="s">
         <v>1389</v>
       </c>
@@ -48740,7 +48743,7 @@
       <c r="F426" s="15"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="15" t="s">
         <v>1390</v>
       </c>
@@ -48759,7 +48762,7 @@
       <c r="F427" s="15"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="15" t="s">
         <v>1391</v>
       </c>
@@ -48776,7 +48779,7 @@
       <c r="F428" s="15"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="15" t="s">
         <v>1392</v>
       </c>
@@ -48818,7 +48821,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="15" t="s">
         <v>1394</v>
       </c>
@@ -48858,7 +48861,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="15" t="s">
         <v>1396</v>
       </c>
@@ -48875,7 +48878,7 @@
       <c r="F433" s="15"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="15" t="s">
         <v>1397</v>
       </c>
@@ -48894,7 +48897,7 @@
       </c>
       <c r="G434" s="15"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="15" t="s">
         <v>1398</v>
       </c>
@@ -48911,7 +48914,7 @@
       <c r="F435" s="15"/>
       <c r="G435" s="15"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="15" t="s">
         <v>1399</v>
       </c>
@@ -48928,7 +48931,7 @@
       <c r="F436" s="15"/>
       <c r="G436" s="15"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="15" t="s">
         <v>1400</v>
       </c>
@@ -48945,7 +48948,7 @@
       <c r="F437" s="15"/>
       <c r="G437" s="15"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="15" t="s">
         <v>1401</v>
       </c>
@@ -48962,7 +48965,7 @@
       <c r="F438" s="15"/>
       <c r="G438" s="15"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="15" t="s">
         <v>1402</v>
       </c>
@@ -48981,7 +48984,7 @@
       <c r="F439" s="15"/>
       <c r="G439" s="15"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="15" t="s">
         <v>1403</v>
       </c>
@@ -48998,7 +49001,7 @@
       <c r="F440" s="15"/>
       <c r="G440" s="15"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="15" t="s">
         <v>1404</v>
       </c>
@@ -49017,7 +49020,7 @@
       <c r="F441" s="15"/>
       <c r="G441" s="15"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="15" t="s">
         <v>1405</v>
       </c>
@@ -49034,7 +49037,7 @@
       <c r="F442" s="15"/>
       <c r="G442" s="15"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="15" t="s">
         <v>1406</v>
       </c>
@@ -49051,7 +49054,7 @@
       <c r="F443" s="15"/>
       <c r="G443" s="15"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="15" t="s">
         <v>1407</v>
       </c>
@@ -49068,7 +49071,7 @@
       <c r="F444" s="15"/>
       <c r="G444" s="15"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="15" t="s">
         <v>1408</v>
       </c>
@@ -49085,7 +49088,7 @@
       <c r="F445" s="15"/>
       <c r="G445" s="15"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="15" t="s">
         <v>1409</v>
       </c>
@@ -49102,7 +49105,7 @@
       <c r="F446" s="15"/>
       <c r="G446" s="15"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="15" t="s">
         <v>1410</v>
       </c>
@@ -49121,7 +49124,7 @@
       <c r="F447" s="15"/>
       <c r="G447" s="15"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="15" t="s">
         <v>1411</v>
       </c>
@@ -49138,7 +49141,7 @@
       <c r="F448" s="15"/>
       <c r="G448" s="15"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="15" t="s">
         <v>1412</v>
       </c>
@@ -49155,7 +49158,7 @@
       <c r="F449" s="15"/>
       <c r="G449" s="15"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="15" t="s">
         <v>1413</v>
       </c>
@@ -49172,7 +49175,7 @@
       <c r="F450" s="15"/>
       <c r="G450" s="15"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="15" t="s">
         <v>1414</v>
       </c>
@@ -49189,7 +49192,7 @@
       <c r="F451" s="15"/>
       <c r="G451" s="15"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="15" t="s">
         <v>1415</v>
       </c>
@@ -49208,7 +49211,7 @@
       <c r="F452" s="15"/>
       <c r="G452" s="15"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="15" t="s">
         <v>1416</v>
       </c>
@@ -49225,7 +49228,7 @@
       <c r="F453" s="15"/>
       <c r="G453" s="15"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="15" t="s">
         <v>1417</v>
       </c>
@@ -49242,7 +49245,7 @@
       <c r="F454" s="15"/>
       <c r="G454" s="15"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="15" t="s">
         <v>1418</v>
       </c>
@@ -49261,7 +49264,7 @@
       </c>
       <c r="G455" s="15"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="15" t="s">
         <v>1419</v>
       </c>
@@ -49280,7 +49283,7 @@
       </c>
       <c r="G456" s="15"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="15" t="s">
         <v>1420</v>
       </c>
@@ -49299,7 +49302,7 @@
       </c>
       <c r="G457" s="15"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="15" t="s">
         <v>1421</v>
       </c>
@@ -49318,7 +49321,7 @@
       </c>
       <c r="G458" s="15"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="15" t="s">
         <v>1422</v>
       </c>
@@ -49358,7 +49361,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="15" t="s">
         <v>1424</v>
       </c>
@@ -49375,7 +49378,7 @@
       <c r="F461" s="15"/>
       <c r="G461" s="15"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="15" t="s">
         <v>1425</v>
       </c>
@@ -49392,7 +49395,7 @@
       <c r="F462" s="15"/>
       <c r="G462" s="15"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="15" t="s">
         <v>1426</v>
       </c>
@@ -49409,7 +49412,7 @@
       <c r="F463" s="15"/>
       <c r="G463" s="15"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="15" t="s">
         <v>1427</v>
       </c>
@@ -49426,7 +49429,7 @@
       <c r="F464" s="15"/>
       <c r="G464" s="15"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="15" t="s">
         <v>1428</v>
       </c>
@@ -49443,7 +49446,7 @@
       <c r="F465" s="15"/>
       <c r="G465" s="15"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="15" t="s">
         <v>1429</v>
       </c>
@@ -49462,7 +49465,7 @@
       <c r="F466" s="15"/>
       <c r="G466" s="15"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="15" t="s">
         <v>1430</v>
       </c>
@@ -49479,7 +49482,7 @@
       <c r="F467" s="15"/>
       <c r="G467" s="15"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="15" t="s">
         <v>1431</v>
       </c>
@@ -49496,7 +49499,7 @@
       <c r="F468" s="15"/>
       <c r="G468" s="15"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="15" t="s">
         <v>1432</v>
       </c>
@@ -49513,7 +49516,7 @@
       <c r="F469" s="15"/>
       <c r="G469" s="15"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="15" t="s">
         <v>1433</v>
       </c>
@@ -49530,7 +49533,7 @@
       <c r="F470" s="15"/>
       <c r="G470" s="15"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="15" t="s">
         <v>1434</v>
       </c>
@@ -49549,7 +49552,7 @@
       <c r="F471" s="15"/>
       <c r="G471" s="15"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="15" t="s">
         <v>1435</v>
       </c>
@@ -49566,7 +49569,7 @@
       <c r="F472" s="15"/>
       <c r="G472" s="15"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="15" t="s">
         <v>1436</v>
       </c>
@@ -49583,7 +49586,7 @@
       <c r="F473" s="15"/>
       <c r="G473" s="15"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="15" t="s">
         <v>1437</v>
       </c>
@@ -49628,7 +49631,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="15" t="s">
         <v>1439</v>
       </c>
@@ -49645,7 +49648,7 @@
       <c r="F476" s="15"/>
       <c r="G476" s="15"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="15" t="s">
         <v>1440</v>
       </c>
@@ -49662,7 +49665,7 @@
       <c r="F477" s="15"/>
       <c r="G477" s="15"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="15" t="s">
         <v>1441</v>
       </c>
@@ -49679,7 +49682,7 @@
       <c r="F478" s="15"/>
       <c r="G478" s="15"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="15" t="s">
         <v>1442</v>
       </c>
@@ -49696,7 +49699,7 @@
       <c r="F479" s="15"/>
       <c r="G479" s="15"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="15" t="s">
         <v>1443</v>
       </c>
@@ -49713,7 +49716,7 @@
       <c r="F480" s="15"/>
       <c r="G480" s="15"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="15" t="s">
         <v>1444</v>
       </c>
@@ -49732,7 +49735,7 @@
       <c r="F481" s="15"/>
       <c r="G481" s="15"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="15" t="s">
         <v>1445</v>
       </c>
@@ -49749,7 +49752,7 @@
       <c r="F482" s="15"/>
       <c r="G482" s="15"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="15" t="s">
         <v>1446</v>
       </c>
@@ -49768,7 +49771,7 @@
       <c r="F483" s="15"/>
       <c r="G483" s="15"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="15" t="s">
         <v>1447</v>
       </c>
@@ -49785,7 +49788,7 @@
       <c r="F484" s="15"/>
       <c r="G484" s="15"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="15" t="s">
         <v>1448</v>
       </c>
@@ -49802,7 +49805,7 @@
       <c r="F485" s="15"/>
       <c r="G485" s="15"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="15" t="s">
         <v>1449</v>
       </c>
@@ -49819,7 +49822,7 @@
       <c r="F486" s="15"/>
       <c r="G486" s="15"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="15" t="s">
         <v>1450</v>
       </c>
@@ -49836,7 +49839,7 @@
       <c r="F487" s="15"/>
       <c r="G487" s="15"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="15" t="s">
         <v>1451</v>
       </c>
@@ -49853,7 +49856,7 @@
       <c r="F488" s="15"/>
       <c r="G488" s="15"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="15" t="s">
         <v>1452</v>
       </c>
@@ -49870,7 +49873,7 @@
       <c r="F489" s="15"/>
       <c r="G489" s="15"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="15" t="s">
         <v>1453</v>
       </c>
@@ -49889,7 +49892,7 @@
       </c>
       <c r="G490" s="15"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="15" t="s">
         <v>1454</v>
       </c>
@@ -49906,7 +49909,7 @@
       <c r="F491" s="15"/>
       <c r="G491" s="15"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="15" t="s">
         <v>1455</v>
       </c>
@@ -49923,7 +49926,7 @@
       <c r="F492" s="15"/>
       <c r="G492" s="15"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="15" t="s">
         <v>1456</v>
       </c>
@@ -49940,7 +49943,7 @@
       <c r="F493" s="15"/>
       <c r="G493" s="15"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="15" t="s">
         <v>1457</v>
       </c>
@@ -49957,7 +49960,7 @@
       <c r="F494" s="15"/>
       <c r="G494" s="15"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="15" t="s">
         <v>1458</v>
       </c>
@@ -50002,7 +50005,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="15" t="s">
         <v>1460</v>
       </c>
@@ -50019,7 +50022,7 @@
       <c r="F497" s="15"/>
       <c r="G497" s="15"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="15" t="s">
         <v>1461</v>
       </c>
@@ -50036,7 +50039,7 @@
       <c r="F498" s="15"/>
       <c r="G498" s="15"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="15" t="s">
         <v>1462</v>
       </c>
@@ -50053,7 +50056,7 @@
       <c r="F499" s="15"/>
       <c r="G499" s="15"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="15" t="s">
         <v>1463</v>
       </c>
@@ -50070,7 +50073,7 @@
       <c r="F500" s="15"/>
       <c r="G500" s="15"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="15" t="s">
         <v>1464</v>
       </c>
@@ -50087,7 +50090,7 @@
       <c r="F501" s="15"/>
       <c r="G501" s="15"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="15" t="s">
         <v>1465</v>
       </c>
@@ -50104,7 +50107,7 @@
       <c r="F502" s="15"/>
       <c r="G502" s="15"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="15" t="s">
         <v>1466</v>
       </c>
@@ -50121,7 +50124,7 @@
       <c r="F503" s="15"/>
       <c r="G503" s="15"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="15" t="s">
         <v>1467</v>
       </c>
@@ -50138,7 +50141,7 @@
       <c r="F504" s="15"/>
       <c r="G504" s="15"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="15" t="s">
         <v>1468</v>
       </c>
@@ -50155,7 +50158,7 @@
       <c r="F505" s="15"/>
       <c r="G505" s="15"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="15" t="s">
         <v>1469</v>
       </c>
@@ -50174,7 +50177,7 @@
       <c r="F506" s="15"/>
       <c r="G506" s="15"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="15" t="s">
         <v>1470</v>
       </c>
@@ -50191,7 +50194,7 @@
       <c r="F507" s="15"/>
       <c r="G507" s="15"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="15" t="s">
         <v>1471</v>
       </c>
@@ -50210,7 +50213,7 @@
       <c r="F508" s="15"/>
       <c r="G508" s="15"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="15" t="s">
         <v>1472</v>
       </c>
@@ -50227,7 +50230,7 @@
       <c r="F509" s="15"/>
       <c r="G509" s="15"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="15" t="s">
         <v>1473</v>
       </c>
@@ -50244,7 +50247,7 @@
       <c r="F510" s="15"/>
       <c r="G510" s="15"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="15" t="s">
         <v>1474</v>
       </c>
@@ -50261,7 +50264,7 @@
       <c r="F511" s="15"/>
       <c r="G511" s="15"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="15" t="s">
         <v>1475</v>
       </c>
@@ -50278,7 +50281,7 @@
       <c r="F512" s="15"/>
       <c r="G512" s="15"/>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="15" t="s">
         <v>1476</v>
       </c>
@@ -50295,7 +50298,7 @@
       <c r="F513" s="15"/>
       <c r="G513" s="15"/>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="15" t="s">
         <v>1477</v>
       </c>
@@ -50312,7 +50315,7 @@
       <c r="F514" s="15"/>
       <c r="G514" s="15"/>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="15" t="s">
         <v>1478</v>
       </c>
@@ -50354,7 +50357,7 @@
         <v>Snowmane with armour</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="15" t="s">
         <v>1480</v>
       </c>
@@ -50373,7 +50376,7 @@
       </c>
       <c r="G517" s="15"/>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="15" t="s">
         <v>1481</v>
       </c>
@@ -50417,7 +50420,7 @@
         <v>Firefoot with armour</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="15" t="s">
         <v>1483</v>
       </c>
@@ -50436,7 +50439,7 @@
       </c>
       <c r="G520" s="15"/>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="15" t="s">
         <v>1484</v>
       </c>
@@ -50455,7 +50458,7 @@
       <c r="F521" s="15"/>
       <c r="G521" s="15"/>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="15" t="s">
         <v>1485</v>
       </c>
@@ -50504,7 +50507,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="15" t="s">
         <v>1487</v>
       </c>
@@ -50523,7 +50526,7 @@
       </c>
       <c r="G524" s="15"/>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="15" t="s">
         <v>1488</v>
       </c>
@@ -50540,7 +50543,7 @@
       <c r="F525" s="15"/>
       <c r="G525" s="15"/>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="15" t="s">
         <v>1489</v>
       </c>
@@ -50559,7 +50562,7 @@
       <c r="F526" s="15"/>
       <c r="G526" s="15"/>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="15" t="s">
         <v>1490</v>
       </c>
@@ -50626,7 +50629,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="15" t="s">
         <v>1493</v>
       </c>
@@ -50643,7 +50646,7 @@
       <c r="F530" s="15"/>
       <c r="G530" s="15"/>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="15" t="s">
         <v>1494</v>
       </c>
@@ -50660,7 +50663,7 @@
       <c r="F531" s="15"/>
       <c r="G531" s="15"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="15" t="s">
         <v>1495</v>
       </c>
@@ -50677,7 +50680,7 @@
       <c r="F532" s="15"/>
       <c r="G532" s="15"/>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="15" t="s">
         <v>1496</v>
       </c>
@@ -50721,7 +50724,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="15" t="s">
         <v>1498</v>
       </c>
@@ -50763,7 +50766,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="15" t="s">
         <v>1500</v>
       </c>
@@ -50808,7 +50811,7 @@
         <v>Shadowfax</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="15" t="s">
         <v>1502</v>
       </c>
@@ -50825,7 +50828,7 @@
       <c r="F539" s="15"/>
       <c r="G539" s="15"/>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="15" t="s">
         <v>1503</v>
       </c>
@@ -50842,7 +50845,7 @@
       <c r="F540" s="15"/>
       <c r="G540" s="15"/>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="15" t="s">
         <v>1504</v>
       </c>
@@ -50859,7 +50862,7 @@
       <c r="F541" s="15"/>
       <c r="G541" s="15"/>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="15" t="s">
         <v>1505</v>
       </c>
@@ -50876,7 +50879,7 @@
       <c r="F542" s="15"/>
       <c r="G542" s="15"/>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="15" t="s">
         <v>1506</v>
       </c>
@@ -50893,7 +50896,7 @@
       <c r="F543" s="15"/>
       <c r="G543" s="15"/>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="15" t="s">
         <v>1507</v>
       </c>
@@ -50958,7 +50961,7 @@
         <v>Firefoot</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="15" t="s">
         <v>1510</v>
       </c>
@@ -50975,7 +50978,7 @@
       <c r="F547" s="15"/>
       <c r="G547" s="15"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="15" t="s">
         <v>1511</v>
       </c>
@@ -50994,7 +50997,7 @@
       <c r="F548" s="15"/>
       <c r="G548" s="15"/>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="15" t="s">
         <v>1512</v>
       </c>
@@ -51011,7 +51014,7 @@
       <c r="F549" s="15"/>
       <c r="G549" s="15"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="15" t="s">
         <v>1513</v>
       </c>
@@ -51028,7 +51031,7 @@
       <c r="F550" s="15"/>
       <c r="G550" s="15"/>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="15" t="s">
         <v>1514</v>
       </c>
@@ -51045,7 +51048,7 @@
       <c r="F551" s="15"/>
       <c r="G551" s="15"/>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="15" t="s">
         <v>1515</v>
       </c>
@@ -51062,7 +51065,7 @@
       <c r="F552" s="15"/>
       <c r="G552" s="15"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="15" t="s">
         <v>1516</v>
       </c>
@@ -51081,7 +51084,7 @@
       <c r="F553" s="15"/>
       <c r="G553" s="15"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="15" t="s">
         <v>1517</v>
       </c>
@@ -51098,7 +51101,7 @@
       <c r="F554" s="15"/>
       <c r="G554" s="15"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="15" t="s">
         <v>1518</v>
       </c>
@@ -51117,7 +51120,7 @@
       <c r="F555" s="15"/>
       <c r="G555" s="15"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="15" t="s">
         <v>1519</v>
       </c>
@@ -51134,7 +51137,7 @@
       <c r="F556" s="15"/>
       <c r="G556" s="15"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="15" t="s">
         <v>1520</v>
       </c>
@@ -51176,7 +51179,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="15" t="s">
         <v>1522</v>
       </c>
@@ -51193,7 +51196,7 @@
       <c r="F559" s="15"/>
       <c r="G559" s="15"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="15" t="s">
         <v>1523</v>
       </c>
@@ -51210,7 +51213,7 @@
       <c r="F560" s="15"/>
       <c r="G560" s="15"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="15" t="s">
         <v>1524</v>
       </c>
@@ -51227,7 +51230,7 @@
       <c r="F561" s="15"/>
       <c r="G561" s="15"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="15" t="s">
         <v>1525</v>
       </c>
@@ -51244,7 +51247,7 @@
       <c r="F562" s="15"/>
       <c r="G562" s="15"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="15" t="s">
         <v>1526</v>
       </c>
@@ -51261,7 +51264,7 @@
       <c r="F563" s="15"/>
       <c r="G563" s="15"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="15" t="s">
         <v>1527</v>
       </c>
@@ -51280,7 +51283,7 @@
       <c r="F564" s="15"/>
       <c r="G564" s="15"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="15" t="s">
         <v>1528</v>
       </c>
@@ -51297,7 +51300,7 @@
       <c r="F565" s="15"/>
       <c r="G565" s="15"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="15" t="s">
         <v>1529</v>
       </c>
@@ -51316,7 +51319,7 @@
       <c r="F566" s="15"/>
       <c r="G566" s="15"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="15" t="s">
         <v>1530</v>
       </c>
@@ -51335,7 +51338,7 @@
       <c r="F567" s="15"/>
       <c r="G567" s="15"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="15" t="s">
         <v>1531</v>
       </c>
@@ -51352,7 +51355,7 @@
       <c r="F568" s="15"/>
       <c r="G568" s="15"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="15" t="s">
         <v>1532</v>
       </c>
@@ -51371,7 +51374,7 @@
       <c r="F569" s="15"/>
       <c r="G569" s="15"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="15" t="s">
         <v>1533</v>
       </c>
@@ -51388,7 +51391,7 @@
       <c r="F570" s="15"/>
       <c r="G570" s="15"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="15" t="s">
         <v>1534</v>
       </c>
@@ -51405,7 +51408,7 @@
       <c r="F571" s="15"/>
       <c r="G571" s="15"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="15" t="s">
         <v>1535</v>
       </c>
@@ -51422,7 +51425,7 @@
       <c r="F572" s="15"/>
       <c r="G572" s="15"/>
     </row>
-    <row r="573" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="15" t="s">
         <v>1536</v>
       </c>
@@ -51443,7 +51446,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="15" t="s">
         <v>1537</v>
       </c>
@@ -51460,7 +51463,7 @@
       <c r="F574" s="15"/>
       <c r="G574" s="15"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="15" t="s">
         <v>1538</v>
       </c>
@@ -51479,7 +51482,7 @@
       <c r="F575" s="15"/>
       <c r="G575" s="15"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="15" t="s">
         <v>1539</v>
       </c>
@@ -51498,7 +51501,7 @@
       <c r="F576" s="15"/>
       <c r="G576" s="15"/>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="15" t="s">
         <v>1540</v>
       </c>
@@ -51515,7 +51518,7 @@
       <c r="F577" s="15"/>
       <c r="G577" s="15"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="15" t="s">
         <v>1541</v>
       </c>
@@ -51537,7 +51540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="15" t="s">
         <v>1542</v>
       </c>
@@ -51554,7 +51557,7 @@
       <c r="F579" s="15"/>
       <c r="G579" s="15"/>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="15" t="s">
         <v>1543</v>
       </c>
@@ -51571,7 +51574,7 @@
       <c r="F580" s="15"/>
       <c r="G580" s="15"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="15" t="s">
         <v>1544</v>
       </c>
@@ -51588,7 +51591,7 @@
       <c r="F581" s="15"/>
       <c r="G581" s="15"/>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="15" t="s">
         <v>1545</v>
       </c>
@@ -51605,7 +51608,7 @@
       <c r="F582" s="15"/>
       <c r="G582" s="15"/>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="15" t="s">
         <v>1714</v>
       </c>
@@ -51622,7 +51625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="15" t="s">
         <v>1774</v>
       </c>
@@ -51660,7 +51663,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="15" t="s">
         <v>1776</v>
       </c>
@@ -51675,7 +51678,7 @@
       </c>
       <c r="E586" s="31"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="15" t="s">
         <v>1777</v>
       </c>
@@ -51690,7 +51693,7 @@
       </c>
       <c r="E587" s="31"/>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="15" t="s">
         <v>1778</v>
       </c>
@@ -51726,7 +51729,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="15" t="s">
         <v>1780</v>
       </c>
@@ -51741,7 +51744,7 @@
       </c>
       <c r="E590" s="31"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="15" t="s">
         <v>1781</v>
       </c>
@@ -51756,7 +51759,7 @@
       </c>
       <c r="E591" s="31"/>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="15" t="s">
         <v>1782</v>
       </c>
@@ -51792,7 +51795,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="15" t="s">
         <v>1784</v>
       </c>
@@ -51807,7 +51810,7 @@
       </c>
       <c r="E594" s="31"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="15" t="s">
         <v>1785</v>
       </c>
@@ -51822,7 +51825,7 @@
       </c>
       <c r="E595" s="31"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="15" t="s">
         <v>1786</v>
       </c>
@@ -51858,7 +51861,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="15" t="s">
         <v>1788</v>
       </c>
@@ -51873,7 +51876,7 @@
       </c>
       <c r="E598" s="31"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="15" t="s">
         <v>1789</v>
       </c>
@@ -51888,7 +51891,7 @@
       </c>
       <c r="E599" s="31"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="15" t="s">
         <v>1790</v>
       </c>
@@ -51924,7 +51927,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="15" t="s">
         <v>1792</v>
       </c>
@@ -51939,7 +51942,7 @@
       </c>
       <c r="E602" s="31"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
         <v>1793</v>
       </c>
@@ -51954,7 +51957,7 @@
       </c>
       <c r="E603" s="31"/>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="15" t="s">
         <v>1794</v>
       </c>
@@ -51969,7 +51972,7 @@
       </c>
       <c r="E604" s="31"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="15" t="s">
         <v>1795</v>
       </c>
@@ -51983,7 +51986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="15" t="s">
         <v>1796</v>
       </c>
@@ -51997,7 +52000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="15" t="s">
         <v>1797</v>
       </c>
@@ -52011,7 +52014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="15" t="s">
         <v>1798</v>
       </c>
@@ -52025,7 +52028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="15" t="s">
         <v>1799</v>
       </c>
@@ -52042,7 +52045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="15" t="s">
         <v>1800</v>
       </c>
@@ -52056,7 +52059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="15" t="s">
         <v>1801</v>
       </c>
@@ -52073,7 +52076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="15" t="s">
         <v>1802</v>
       </c>
@@ -52087,7 +52090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="15" t="s">
         <v>1803</v>
       </c>
@@ -52122,7 +52125,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="15" t="s">
         <v>1805</v>
       </c>
@@ -52137,7 +52140,7 @@
       </c>
       <c r="E615" s="15"/>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="15" t="s">
         <v>1806</v>
       </c>
@@ -52152,7 +52155,7 @@
       </c>
       <c r="E616" s="15"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="15" t="s">
         <v>1807</v>
       </c>
@@ -52169,7 +52172,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="15" t="s">
         <v>1808</v>
       </c>
@@ -52184,7 +52187,7 @@
       </c>
       <c r="E618" s="15"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="15" t="s">
         <v>1809</v>
       </c>
@@ -52201,7 +52204,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="15" t="s">
         <v>1810</v>
       </c>
@@ -52216,7 +52219,7 @@
       </c>
       <c r="E620" s="15"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="15" t="s">
         <v>1811</v>
       </c>
@@ -52233,7 +52236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="15" t="s">
         <v>1812</v>
       </c>
@@ -52248,7 +52251,7 @@
       </c>
       <c r="E622" s="15"/>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="15" t="s">
         <v>1813</v>
       </c>
@@ -52306,7 +52309,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="15" t="s">
         <v>1816</v>
       </c>
@@ -52323,7 +52326,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="15" t="s">
         <v>1817</v>
       </c>
@@ -52338,7 +52341,7 @@
       </c>
       <c r="E627" s="15"/>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="15" t="s">
         <v>1818</v>
       </c>
@@ -52353,7 +52356,7 @@
       </c>
       <c r="E628" s="15"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="15" t="s">
         <v>1819</v>
       </c>
@@ -52370,7 +52373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="15" t="s">
         <v>1820</v>
       </c>
@@ -52384,7 +52387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="15" t="s">
         <v>1821</v>
       </c>
@@ -52398,7 +52401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="15" t="s">
         <v>1822</v>
       </c>
@@ -52415,7 +52418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="15" t="s">
         <v>1823</v>
       </c>
@@ -52429,7 +52432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="15" t="s">
         <v>1824</v>
       </c>
@@ -52443,7 +52446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="15" t="s">
         <v>1825</v>
       </c>
@@ -52457,7 +52460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="15" t="s">
         <v>1826</v>
       </c>
@@ -52471,7 +52474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="15" t="s">
         <v>1827</v>
       </c>
@@ -52485,7 +52488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="15" t="s">
         <v>1828</v>
       </c>
@@ -52520,7 +52523,7 @@
         <v>Armoured horse</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="15" t="s">
         <v>2298</v>
       </c>
@@ -52534,7 +52537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="15" t="s">
         <v>2299</v>
       </c>
@@ -52572,7 +52575,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="15" t="s">
         <v>2301</v>
       </c>
@@ -52589,7 +52592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="15" t="s">
         <v>2302</v>
       </c>
@@ -52603,7 +52606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="15" t="s">
         <v>2303</v>
       </c>
@@ -52617,7 +52620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="15" t="s">
         <v>2304</v>
       </c>
@@ -52631,7 +52634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="15" t="s">
         <v>2305</v>
       </c>
@@ -52645,7 +52648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="15" t="s">
         <v>2306</v>
       </c>
@@ -52659,7 +52662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="15" t="s">
         <v>2307</v>
       </c>
@@ -52715,7 +52718,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="15" t="s">
         <v>2310</v>
       </c>
@@ -52732,7 +52735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="15" t="s">
         <v>2311</v>
       </c>
@@ -52746,7 +52749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="15" t="s">
         <v>2312</v>
       </c>
@@ -52760,7 +52763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="15" t="s">
         <v>2313</v>
       </c>
@@ -52774,7 +52777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="15" t="s">
         <v>2314</v>
       </c>
@@ -52788,7 +52791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="15" t="s">
         <v>2315</v>
       </c>
@@ -52802,7 +52805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="15" t="s">
         <v>2316</v>
       </c>
@@ -52819,7 +52822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="15" t="s">
         <v>2317</v>
       </c>
@@ -52833,7 +52836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="15" t="s">
         <v>2318</v>
       </c>
@@ -52850,7 +52853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="15" t="s">
         <v>2319</v>
       </c>
@@ -52906,7 +52909,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="15" t="s">
         <v>2322</v>
       </c>
@@ -52985,7 +52988,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="15" t="s">
         <v>2326</v>
       </c>
@@ -53002,7 +53005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="15" t="s">
         <v>2327</v>
       </c>
@@ -53016,7 +53019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="15" t="s">
         <v>2328</v>
       </c>
@@ -53033,7 +53036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="15" t="s">
         <v>2329</v>
       </c>
@@ -53047,7 +53050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="15" t="s">
         <v>2330</v>
       </c>
@@ -53064,7 +53067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="15" t="s">
         <v>2331</v>
       </c>
@@ -53099,7 +53102,7 @@
         <v>Fell Warg</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="15" t="s">
         <v>2333</v>
       </c>
@@ -53116,7 +53119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="15" t="s">
         <v>2334</v>
       </c>
@@ -53130,7 +53133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="15" t="s">
         <v>2335</v>
       </c>
@@ -53147,7 +53150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="15" t="s">
         <v>2336</v>
       </c>
@@ -53161,7 +53164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="15" t="s">
         <v>2337</v>
       </c>
@@ -53178,7 +53181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="15" t="s">
         <v>2338</v>
       </c>
@@ -53192,7 +53195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="15" t="s">
         <v>2339</v>
       </c>
@@ -53206,7 +53209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="15" t="s">
         <v>2340</v>
       </c>
@@ -53220,7 +53223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="15" t="s">
         <v>2341</v>
       </c>
@@ -53234,7 +53237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="15" t="s">
         <v>2342</v>
       </c>
@@ -53248,7 +53251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="15" t="s">
         <v>2343</v>
       </c>
@@ -53283,7 +53286,7 @@
         <v>Radagast's Sleigh</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="15" t="s">
         <v>2345</v>
       </c>
@@ -53297,7 +53300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="15" t="s">
         <v>2346</v>
       </c>
@@ -53311,7 +53314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="15" t="s">
         <v>2347</v>
       </c>
@@ -53345,7 +53348,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="15" t="s">
         <v>2349</v>
       </c>
@@ -53366,7 +53369,7 @@
         <v>Iron Hills Chariot</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="15" t="s">
         <v>2350</v>
       </c>
@@ -53380,7 +53383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="15" t="s">
         <v>2351</v>
       </c>
@@ -53394,7 +53397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="15" t="s">
         <v>2352</v>
       </c>
@@ -53408,7 +53411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="15" t="s">
         <v>2353</v>
       </c>
@@ -53422,7 +53425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="15" t="s">
         <v>2354</v>
       </c>
@@ -53439,7 +53442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="15" t="s">
         <v>2355</v>
       </c>
@@ -53453,7 +53456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="15" t="s">
         <v>2356</v>
       </c>
@@ -53467,7 +53470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="15" t="s">
         <v>2357</v>
       </c>
@@ -53481,7 +53484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="15" t="s">
         <v>2358</v>
       </c>
@@ -53495,7 +53498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="15" t="s">
         <v>2359</v>
       </c>
@@ -53509,7 +53512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="15" t="s">
         <v>2360</v>
       </c>
@@ -53523,7 +53526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="15" t="s">
         <v>2361</v>
       </c>
@@ -53537,7 +53540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="15" t="s">
         <v>2362</v>
       </c>
@@ -53554,7 +53557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="15" t="s">
         <v>2363</v>
       </c>
@@ -53606,7 +53609,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="15" t="s">
         <v>2366</v>
       </c>
@@ -53623,7 +53626,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="15" t="s">
         <v>2367</v>
       </c>
@@ -53637,7 +53640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="15" t="s">
         <v>2368</v>
       </c>
@@ -53677,7 +53680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="15" t="s">
         <v>2370</v>
       </c>
@@ -53694,7 +53697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="15" t="s">
         <v>2371</v>
       </c>
@@ -53708,7 +53711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="15" t="s">
         <v>2372</v>
       </c>
@@ -53735,6 +53738,9 @@
       <c r="D715" s="18">
         <v>20</v>
       </c>
+      <c r="E715" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A716" s="15" t="s">
@@ -53753,7 +53759,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="15" t="s">
         <v>2375</v>
       </c>
@@ -53767,7 +53773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="15" t="s">
         <v>2376</v>
       </c>
@@ -53781,7 +53787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="15" t="s">
         <v>2377</v>
       </c>
@@ -53798,7 +53804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="15" t="s">
         <v>2378</v>
       </c>
@@ -53812,7 +53818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="15" t="s">
         <v>2379</v>
       </c>
@@ -53826,7 +53832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="15" t="s">
         <v>2380</v>
       </c>
@@ -53840,7 +53846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="15" t="s">
         <v>2381</v>
       </c>
@@ -53854,7 +53860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="15" t="s">
         <v>2382</v>
       </c>
@@ -53868,7 +53874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="15" t="s">
         <v>2383</v>
       </c>
@@ -53882,7 +53888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="15" t="s">
         <v>2384</v>
       </c>
@@ -53896,7 +53902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="15" t="s">
         <v>2385</v>
       </c>
@@ -53913,7 +53919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="15" t="s">
         <v>2386</v>
       </c>
@@ -53927,7 +53933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="15" t="s">
         <v>2387</v>
       </c>
@@ -53962,7 +53968,7 @@
         <v>Great Elk</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="15" t="s">
         <v>2389</v>
       </c>
@@ -53997,7 +54003,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="15" t="s">
         <v>2391</v>
       </c>
@@ -54011,7 +54017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="15" t="s">
         <v>2392</v>
       </c>
@@ -54025,7 +54031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="15" t="s">
         <v>2393</v>
       </c>
@@ -54042,7 +54048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="15" t="s">
         <v>2394</v>
       </c>
@@ -54056,7 +54062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="15" t="s">
         <v>2395</v>
       </c>
@@ -54073,7 +54079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="15" t="s">
         <v>2396</v>
       </c>
@@ -54087,7 +54093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="15" t="s">
         <v>2397</v>
       </c>
@@ -54101,7 +54107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="15" t="s">
         <v>2398</v>
       </c>
@@ -54115,7 +54121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="15" t="s">
         <v>2399</v>
       </c>
@@ -54129,7 +54135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="15" t="s">
         <v>2400</v>
       </c>
@@ -54143,7 +54149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="15" t="s">
         <v>2401</v>
       </c>
@@ -54157,7 +54163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="15" t="s">
         <v>2402</v>
       </c>
@@ -54174,7 +54180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="15" t="s">
         <v>2403</v>
       </c>
@@ -54191,7 +54197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="15" t="s">
         <v>2404</v>
       </c>
@@ -54208,7 +54214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="15" t="s">
         <v>2405</v>
       </c>
@@ -54225,7 +54231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="15" t="s">
         <v>2406</v>
       </c>
@@ -54281,7 +54287,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="15" t="s">
         <v>2409</v>
       </c>
@@ -54295,7 +54301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="15" t="s">
         <v>2410</v>
       </c>
@@ -54309,7 +54315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="15" t="s">
         <v>2411</v>
       </c>
@@ -54323,7 +54329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="15" t="s">
         <v>2412</v>
       </c>
@@ -54337,7 +54343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="15" t="s">
         <v>2413</v>
       </c>
@@ -54354,7 +54360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="15" t="s">
         <v>2414</v>
       </c>
@@ -54368,7 +54374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="15" t="s">
         <v>2415</v>
       </c>
@@ -54403,7 +54409,7 @@
         <v>Great Elk</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="15" t="s">
         <v>2417</v>
       </c>
@@ -54438,7 +54444,7 @@
         <v>Horse</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="15" t="s">
         <v>2419</v>
       </c>
@@ -54452,7 +54458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="15" t="s">
         <v>2420</v>
       </c>
@@ -54466,7 +54472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="15" t="s">
         <v>2421</v>
       </c>
@@ -54483,7 +54489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="15" t="s">
         <v>2422</v>
       </c>
@@ -54500,7 +54506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="15" t="s">
         <v>2423</v>
       </c>
@@ -54514,7 +54520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="15" t="s">
         <v>2424</v>
       </c>
@@ -54551,7 +54557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="15" t="s">
         <v>2426</v>
       </c>
@@ -54568,7 +54574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="15" t="s">
         <v>2427</v>
       </c>
@@ -54582,7 +54588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="15" t="s">
         <v>2428</v>
       </c>
@@ -54619,7 +54625,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="15" t="s">
         <v>2430</v>
       </c>
@@ -54680,7 +54686,7 @@
         <v>Radagast's Sleigh</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="15" t="s">
         <v>2535</v>
       </c>
@@ -54756,7 +54762,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="15" t="s">
         <v>2667</v>
       </c>
@@ -54770,7 +54776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="15" t="s">
         <v>2668</v>
       </c>
@@ -54784,7 +54790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="15" t="s">
         <v>2669</v>
       </c>
@@ -54798,7 +54804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="15" t="s">
         <v>2670</v>
       </c>
@@ -54812,7 +54818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="15" t="s">
         <v>2671</v>
       </c>
@@ -54826,7 +54832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="15" t="s">
         <v>2672</v>
       </c>
@@ -54840,7 +54846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="15" t="s">
         <v>2673</v>
       </c>
@@ -54854,7 +54860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="15" t="s">
         <v>2674</v>
       </c>
@@ -54871,7 +54877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="15" t="s">
         <v>2675</v>
       </c>
@@ -54885,7 +54891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="15" t="s">
         <v>2676</v>
       </c>
@@ -54899,7 +54905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="15" t="s">
         <v>2677</v>
       </c>
@@ -54913,7 +54919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="15" t="s">
         <v>2678</v>
       </c>
@@ -54930,7 +54936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="15" t="s">
         <v>2679</v>
       </c>
@@ -54944,7 +54950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="15" t="s">
         <v>2680</v>
       </c>
@@ -54958,7 +54964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="15" t="s">
         <v>2681</v>
       </c>
@@ -54972,7 +54978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="15" t="s">
         <v>2682</v>
       </c>
@@ -54986,7 +54992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="15" t="s">
         <v>2683</v>
       </c>
@@ -55000,7 +55006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="15" t="s">
         <v>2684</v>
       </c>
@@ -55014,7 +55020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="15" t="s">
         <v>2685</v>
       </c>
@@ -55028,7 +55034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="15" t="s">
         <v>2686</v>
       </c>
@@ -55042,7 +55048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="15" t="s">
         <v>2687</v>
       </c>
@@ -55056,7 +55062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="15" t="s">
         <v>2688</v>
       </c>
@@ -55070,7 +55076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="15" t="s">
         <v>2689</v>
       </c>
@@ -55084,7 +55090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="15" t="s">
         <v>2690</v>
       </c>
@@ -55101,7 +55107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="15" t="s">
         <v>2691</v>
       </c>
@@ -55115,7 +55121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="15" t="s">
         <v>2692</v>
       </c>
@@ -55129,7 +55135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="15" t="s">
         <v>2693</v>
       </c>
@@ -55143,7 +55149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="15" t="s">
         <v>2694</v>
       </c>
@@ -55160,7 +55166,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="15" t="s">
         <v>2695</v>
       </c>
@@ -55177,7 +55183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" s="15" t="s">
         <v>2696</v>
       </c>
@@ -55191,7 +55197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" s="15" t="s">
         <v>2697</v>
       </c>
@@ -55208,7 +55214,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" s="15" t="s">
         <v>2698</v>
       </c>
@@ -55222,7 +55228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" s="15" t="s">
         <v>2699</v>
       </c>
@@ -55236,7 +55242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" s="15" t="s">
         <v>2700</v>
       </c>
@@ -55273,7 +55279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" s="15" t="s">
         <v>2702</v>
       </c>
@@ -55287,7 +55293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" s="15" t="s">
         <v>2703</v>
       </c>
@@ -55301,7 +55307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" s="15" t="s">
         <v>2704</v>
       </c>
@@ -55318,7 +55324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" s="15" t="s">
         <v>2705</v>
       </c>
@@ -55332,7 +55338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" s="15" t="s">
         <v>2706</v>
       </c>
@@ -55346,7 +55352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" s="15" t="s">
         <v>2707</v>
       </c>
@@ -55360,7 +55366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" s="15" t="s">
         <v>2708</v>
       </c>
@@ -55377,7 +55383,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" s="15" t="s">
         <v>2709</v>
       </c>
@@ -55394,7 +55400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" s="15" t="s">
         <v>2710</v>
       </c>
@@ -55408,7 +55414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" s="15" t="s">
         <v>2711</v>
       </c>
@@ -55425,7 +55431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" s="15" t="s">
         <v>2712</v>
       </c>
@@ -55439,7 +55445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" s="15" t="s">
         <v>2713</v>
       </c>
@@ -55456,7 +55462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" s="15" t="s">
         <v>2714</v>
       </c>
@@ -55470,7 +55476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" s="15" t="s">
         <v>2715</v>
       </c>
@@ -55484,7 +55490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" s="15" t="s">
         <v>2716</v>
       </c>
@@ -55498,7 +55504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" s="15" t="s">
         <v>2717</v>
       </c>
@@ -55515,7 +55521,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" s="15" t="s">
         <v>2718</v>
       </c>
@@ -55532,7 +55538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" s="15" t="s">
         <v>2719</v>
       </c>
@@ -55546,7 +55552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" s="15" t="s">
         <v>2720</v>
       </c>
@@ -55563,7 +55569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" s="15" t="s">
         <v>2721</v>
       </c>
@@ -55577,7 +55583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" s="15" t="s">
         <v>2722</v>
       </c>
@@ -55591,7 +55597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" s="15" t="s">
         <v>2723</v>
       </c>
@@ -55605,7 +55611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" s="15" t="s">
         <v>2724</v>
       </c>
@@ -55622,7 +55628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" s="15" t="s">
         <v>2725</v>
       </c>
@@ -55636,7 +55642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" s="15" t="s">
         <v>2726</v>
       </c>
@@ -55650,7 +55656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" s="15" t="s">
         <v>2727</v>
       </c>
@@ -55664,7 +55670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" s="15" t="s">
         <v>2728</v>
       </c>
@@ -55681,7 +55687,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" s="15" t="s">
         <v>2729</v>
       </c>
@@ -55698,7 +55704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" s="15" t="s">
         <v>2730</v>
       </c>
@@ -55712,7 +55718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" s="15" t="s">
         <v>2731</v>
       </c>
@@ -55729,7 +55735,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:7" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" s="15" t="s">
         <v>2801</v>
       </c>
@@ -55749,7 +55755,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:7" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" s="15" t="s">
         <v>2802</v>
       </c>
@@ -60362,7 +60368,41 @@
       <c r="E1581" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I845" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}"/>
+  <autoFilter ref="A1:I845" xr:uid="{6BD621D9-338F-4B24-B8C0-543A62D24772}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Armour and horse"/>
+        <filter val="Armoured Fell Beast"/>
+        <filter val="Armoured horse"/>
+        <filter val="Armoured horse and lance"/>
+        <filter val="Asfaloth"/>
+        <filter val="Ashere"/>
+        <filter val="Brego"/>
+        <filter val="Exchange great bow for armour and horse"/>
+        <filter val="Exchange Staff for Great Eagle"/>
+        <filter val="Fell Beast"/>
+        <filter val="Fell Warg"/>
+        <filter val="Fell Warg and lance"/>
+        <filter val="Firefoot"/>
+        <filter val="Firefoot with armour"/>
+        <filter val="Gandalf's Cart"/>
+        <filter val="Great Elk"/>
+        <filter val="Horse"/>
+        <filter val="Horse and throwing spears"/>
+        <filter val="Horse, Elf bow and Elven lance"/>
+        <filter val="Radagast's Sleigh"/>
+        <filter val="Shadowfax"/>
+        <filter val="Snowmane"/>
+        <filter val="Snowmane with armour"/>
+        <filter val="The White Warg"/>
+        <filter val="Troll Brute"/>
+        <filter val="Upgrade to Armoured Fell Beast"/>
+        <filter val="War Boar"/>
+        <filter val="Warg"/>
+        <filter val="Windlance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1435">
     <sortCondition ref="A1:A1435"/>
   </sortState>
@@ -63730,7 +63770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CB009E-54DD-49E7-AF48-1368091BE4E1}">
   <dimension ref="A1:C547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
     </sheetView>

--- a/src/assets/data/mesbg_data.xlsx
+++ b/src/assets/data/mesbg_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg-list-builder-v2024\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A20A276-966D-427E-9287-87CEF042CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F594D2-326D-40A7-9666-5DC8E7F03A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{41642CF3-1564-4507-B9B3-31F38315AF34}"/>
   </bookViews>
@@ -8586,9 +8586,6 @@
     <t>['[pits-of-dol-guldur] gundabad-orc-warrior', '[pits-of-dol-guldur] hunter-orc-warrior', '[pits-of-dol-guldur] hunter-orc-warg-rider', '[pits-of-dol-guldur] mirkwood-giant-spider', '[pits-of-dol-guldur] mirkwood-hunting-spider', '[pits-of-dol-guldur] thrain-the-broken', '[pits-of-dol-guldur] fell-warg']</t>
   </si>
   <si>
-    <t>[['Bain, Son of Bard', '0:1:2:1'], ['Sigrid', '0:1:2:1'], ['Tilda', '0:1:2:1']]</t>
-  </si>
-  <si>
     <t>['Windlance']</t>
   </si>
   <si>
@@ -9504,6 +9501,9 @@
   </si>
   <si>
     <t>["[realms-of-men] warrior-of-minas-tirith", "[realms-of-men] knight-of-minas-tirith", "[realms-of-men] ranger-of-gondor"]</t>
+  </si>
+  <si>
+    <t>[['Bain, Son of Bard', '1:3:2:2'], ['Sigrid', '0:1:2:1'], ['Tilda', '0:1:2:1']]</t>
   </si>
 </sst>
 </file>
@@ -10249,11 +10249,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O738"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q586" sqref="Q586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10322,7 +10323,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>138</v>
       </c>
@@ -10365,7 +10366,7 @@
       </c>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>141</v>
       </c>
@@ -10408,7 +10409,7 @@
       </c>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>142</v>
       </c>
@@ -10451,7 +10452,7 @@
       </c>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>143</v>
       </c>
@@ -10494,7 +10495,7 @@
       </c>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>145</v>
       </c>
@@ -10537,7 +10538,7 @@
       </c>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>146</v>
       </c>
@@ -10580,7 +10581,7 @@
       </c>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>147</v>
       </c>
@@ -10623,7 +10624,7 @@
       </c>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>148</v>
       </c>
@@ -10668,7 +10669,7 @@
       </c>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>149</v>
       </c>
@@ -10713,7 +10714,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>150</v>
       </c>
@@ -10758,7 +10759,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>244</v>
       </c>
@@ -10801,7 +10802,7 @@
       </c>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>250</v>
       </c>
@@ -10844,7 +10845,7 @@
       </c>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>252</v>
       </c>
@@ -10887,7 +10888,7 @@
       </c>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>254</v>
       </c>
@@ -10930,7 +10931,7 @@
       </c>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>257</v>
       </c>
@@ -10975,7 +10976,7 @@
       </c>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>259</v>
       </c>
@@ -11020,7 +11021,7 @@
       </c>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>261</v>
       </c>
@@ -11065,7 +11066,7 @@
       </c>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>303</v>
       </c>
@@ -11110,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>308</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>315</v>
       </c>
@@ -11198,7 +11199,7 @@
       </c>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>319</v>
       </c>
@@ -11241,7 +11242,7 @@
       </c>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>322</v>
       </c>
@@ -11284,7 +11285,7 @@
       </c>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>325</v>
       </c>
@@ -11327,7 +11328,7 @@
       </c>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>327</v>
       </c>
@@ -11372,7 +11373,7 @@
       </c>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>329</v>
       </c>
@@ -11417,7 +11418,7 @@
       </c>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>331</v>
       </c>
@@ -11460,7 +11461,7 @@
       </c>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>351</v>
       </c>
@@ -11503,7 +11504,7 @@
       </c>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>352</v>
       </c>
@@ -11546,7 +11547,7 @@
       </c>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>353</v>
       </c>
@@ -11589,7 +11590,7 @@
       </c>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>354</v>
       </c>
@@ -11632,7 +11633,7 @@
       </c>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>357</v>
       </c>
@@ -11675,7 +11676,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>360</v>
       </c>
@@ -11720,7 +11721,7 @@
       </c>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>361</v>
       </c>
@@ -11765,7 +11766,7 @@
       </c>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>362</v>
       </c>
@@ -11808,7 +11809,7 @@
       </c>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>364</v>
       </c>
@@ -11851,7 +11852,7 @@
       </c>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>367</v>
       </c>
@@ -11894,7 +11895,7 @@
       </c>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>1712</v>
       </c>
@@ -11937,7 +11938,7 @@
       </c>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>369</v>
       </c>
@@ -11980,7 +11981,7 @@
       </c>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>372</v>
       </c>
@@ -12025,7 +12026,7 @@
       </c>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>382</v>
       </c>
@@ -12068,7 +12069,7 @@
       </c>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>387</v>
       </c>
@@ -12111,7 +12112,7 @@
       </c>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>389</v>
       </c>
@@ -12154,7 +12155,7 @@
       </c>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>392</v>
       </c>
@@ -12199,7 +12200,7 @@
       </c>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>402</v>
       </c>
@@ -12242,7 +12243,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>406</v>
       </c>
@@ -12285,7 +12286,7 @@
       </c>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>409</v>
       </c>
@@ -12328,7 +12329,7 @@
       </c>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>411</v>
       </c>
@@ -12371,7 +12372,7 @@
       </c>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>413</v>
       </c>
@@ -12416,7 +12417,7 @@
       </c>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>414</v>
       </c>
@@ -12459,7 +12460,7 @@
       </c>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>416</v>
       </c>
@@ -12502,7 +12503,7 @@
       </c>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>499</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>245</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>501</v>
@@ -12545,7 +12546,7 @@
       </c>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>504</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>245</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>501</v>
@@ -12588,7 +12589,7 @@
       </c>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>507</v>
       </c>
@@ -12596,7 +12597,7 @@
         <v>245</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>501</v>
@@ -12631,7 +12632,7 @@
       </c>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>509</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>245</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>501</v>
@@ -12674,7 +12675,7 @@
       </c>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>512</v>
       </c>
@@ -12682,7 +12683,7 @@
         <v>245</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>501</v>
@@ -12719,7 +12720,7 @@
       </c>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>514</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>245</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>247</v>
@@ -12764,7 +12765,7 @@
       </c>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>535</v>
       </c>
@@ -12807,7 +12808,7 @@
       </c>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>539</v>
       </c>
@@ -12850,7 +12851,7 @@
       </c>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>542</v>
       </c>
@@ -12893,7 +12894,7 @@
       </c>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>544</v>
       </c>
@@ -12938,7 +12939,7 @@
       </c>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>553</v>
       </c>
@@ -12981,7 +12982,7 @@
       </c>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>556</v>
       </c>
@@ -13024,7 +13025,7 @@
       </c>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>558</v>
       </c>
@@ -13067,7 +13068,7 @@
       </c>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>559</v>
       </c>
@@ -13110,7 +13111,7 @@
       </c>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>562</v>
       </c>
@@ -13155,7 +13156,7 @@
       </c>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>571</v>
       </c>
@@ -13198,7 +13199,7 @@
       </c>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>573</v>
       </c>
@@ -13241,7 +13242,7 @@
       </c>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>574</v>
       </c>
@@ -13284,7 +13285,7 @@
       </c>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>575</v>
       </c>
@@ -13327,7 +13328,7 @@
       </c>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>578</v>
       </c>
@@ -13370,7 +13371,7 @@
       </c>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>581</v>
       </c>
@@ -13413,7 +13414,7 @@
       </c>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>583</v>
       </c>
@@ -13456,7 +13457,7 @@
       </c>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>586</v>
       </c>
@@ -13499,7 +13500,7 @@
       </c>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>588</v>
       </c>
@@ -13542,7 +13543,7 @@
       </c>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>589</v>
       </c>
@@ -13587,7 +13588,7 @@
       </c>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>606</v>
       </c>
@@ -13630,7 +13631,7 @@
       </c>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>608</v>
       </c>
@@ -13673,7 +13674,7 @@
       </c>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>609</v>
       </c>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>610</v>
       </c>
@@ -13759,7 +13760,7 @@
       </c>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>611</v>
       </c>
@@ -13804,7 +13805,7 @@
       </c>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>612</v>
       </c>
@@ -13849,7 +13850,7 @@
       </c>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>613</v>
       </c>
@@ -13892,7 +13893,7 @@
       </c>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>614</v>
       </c>
@@ -13935,7 +13936,7 @@
       </c>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>615</v>
       </c>
@@ -13978,7 +13979,7 @@
       </c>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>640</v>
       </c>
@@ -14021,7 +14022,7 @@
       </c>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>643</v>
       </c>
@@ -14064,7 +14065,7 @@
       </c>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>644</v>
       </c>
@@ -14107,7 +14108,7 @@
       </c>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>647</v>
       </c>
@@ -14150,7 +14151,7 @@
       </c>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>648</v>
       </c>
@@ -14195,7 +14196,7 @@
       </c>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>649</v>
       </c>
@@ -14240,7 +14241,7 @@
       </c>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>668</v>
       </c>
@@ -14283,7 +14284,7 @@
       </c>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>671</v>
       </c>
@@ -14326,7 +14327,7 @@
       </c>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>674</v>
       </c>
@@ -14369,7 +14370,7 @@
       </c>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>677</v>
       </c>
@@ -14412,7 +14413,7 @@
       </c>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>680</v>
       </c>
@@ -14455,7 +14456,7 @@
       </c>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>682</v>
       </c>
@@ -14498,7 +14499,7 @@
       </c>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>684</v>
       </c>
@@ -14541,7 +14542,7 @@
       </c>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>685</v>
       </c>
@@ -14584,7 +14585,7 @@
       </c>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>688</v>
       </c>
@@ -14629,7 +14630,7 @@
       </c>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>689</v>
       </c>
@@ -14674,7 +14675,7 @@
       </c>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>690</v>
       </c>
@@ -14719,7 +14720,7 @@
       </c>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="18" t="s">
         <v>691</v>
       </c>
@@ -14762,7 +14763,7 @@
       </c>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="18" t="s">
         <v>694</v>
       </c>
@@ -14805,7 +14806,7 @@
       </c>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="18" t="s">
         <v>696</v>
       </c>
@@ -14850,7 +14851,7 @@
       </c>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>698</v>
       </c>
@@ -14895,7 +14896,7 @@
       </c>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
         <v>700</v>
       </c>
@@ -14938,7 +14939,7 @@
       </c>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>703</v>
       </c>
@@ -14981,7 +14982,7 @@
       </c>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>705</v>
       </c>
@@ -15024,7 +15025,7 @@
       </c>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>707</v>
       </c>
@@ -15067,7 +15068,7 @@
       </c>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>708</v>
       </c>
@@ -15110,7 +15111,7 @@
       </c>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>711</v>
       </c>
@@ -15153,7 +15154,7 @@
       </c>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>713</v>
       </c>
@@ -15198,7 +15199,7 @@
       </c>
       <c r="O113" s="18"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>715</v>
       </c>
@@ -15243,7 +15244,7 @@
       </c>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>716</v>
       </c>
@@ -15286,7 +15287,7 @@
       </c>
       <c r="O115" s="18"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>717</v>
       </c>
@@ -15329,7 +15330,7 @@
       </c>
       <c r="O116" s="18"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>719</v>
       </c>
@@ -15372,7 +15373,7 @@
       </c>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>722</v>
       </c>
@@ -15415,7 +15416,7 @@
       </c>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>724</v>
       </c>
@@ -15458,7 +15459,7 @@
       </c>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>726</v>
       </c>
@@ -15503,7 +15504,7 @@
       </c>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>728</v>
       </c>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>731</v>
       </c>
@@ -15589,7 +15590,7 @@
       </c>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>735</v>
       </c>
@@ -15632,7 +15633,7 @@
       </c>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>736</v>
       </c>
@@ -15675,7 +15676,7 @@
       </c>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>737</v>
       </c>
@@ -15718,7 +15719,7 @@
       </c>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>739</v>
       </c>
@@ -15761,7 +15762,7 @@
       </c>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>740</v>
       </c>
@@ -15806,7 +15807,7 @@
       </c>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>741</v>
       </c>
@@ -15851,7 +15852,7 @@
       </c>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>743</v>
       </c>
@@ -15896,7 +15897,7 @@
       </c>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="18" t="s">
         <v>744</v>
       </c>
@@ -15939,7 +15940,7 @@
       </c>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="18" t="s">
         <v>748</v>
       </c>
@@ -15982,7 +15983,7 @@
       </c>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="18" t="s">
         <v>749</v>
       </c>
@@ -16025,7 +16026,7 @@
       </c>
       <c r="O132" s="18"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="18" t="s">
         <v>750</v>
       </c>
@@ -16068,7 +16069,7 @@
       </c>
       <c r="O133" s="18"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>751</v>
       </c>
@@ -16111,7 +16112,7 @@
       </c>
       <c r="O134" s="18"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="18" t="s">
         <v>754</v>
       </c>
@@ -16154,7 +16155,7 @@
       </c>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="18" t="s">
         <v>755</v>
       </c>
@@ -16199,7 +16200,7 @@
       </c>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="18" t="s">
         <v>756</v>
       </c>
@@ -16244,7 +16245,7 @@
       </c>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="18" t="s">
         <v>758</v>
       </c>
@@ -16287,7 +16288,7 @@
       </c>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>759</v>
       </c>
@@ -16330,7 +16331,7 @@
       </c>
       <c r="O139" s="18"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="18" t="s">
         <v>760</v>
       </c>
@@ -16373,7 +16374,7 @@
       </c>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="18" t="s">
         <v>765</v>
       </c>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="18" t="s">
         <v>767</v>
       </c>
@@ -16459,7 +16460,7 @@
       </c>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="18" t="s">
         <v>770</v>
       </c>
@@ -16504,7 +16505,7 @@
       </c>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="18" t="s">
         <v>772</v>
       </c>
@@ -16549,7 +16550,7 @@
       </c>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="18" t="s">
         <v>774</v>
       </c>
@@ -16592,7 +16593,7 @@
       </c>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="18" t="s">
         <v>778</v>
       </c>
@@ -16635,7 +16636,7 @@
       </c>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="18" t="s">
         <v>781</v>
       </c>
@@ -16678,7 +16679,7 @@
       </c>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="18" t="s">
         <v>782</v>
       </c>
@@ -16721,7 +16722,7 @@
       </c>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="18" t="s">
         <v>783</v>
       </c>
@@ -16764,7 +16765,7 @@
       </c>
       <c r="O149" s="18"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="18" t="s">
         <v>784</v>
       </c>
@@ -16807,7 +16808,7 @@
       </c>
       <c r="O150" s="18"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>785</v>
       </c>
@@ -16852,7 +16853,7 @@
       </c>
       <c r="O151" s="18"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="18" t="s">
         <v>786</v>
       </c>
@@ -16895,7 +16896,7 @@
       </c>
       <c r="O152" s="18"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="18" t="s">
         <v>787</v>
       </c>
@@ -16938,7 +16939,7 @@
       </c>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="18" t="s">
         <v>789</v>
       </c>
@@ -16981,7 +16982,7 @@
       </c>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="18" t="s">
         <v>790</v>
       </c>
@@ -17024,7 +17025,7 @@
       </c>
       <c r="O155" s="18"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="18" t="s">
         <v>791</v>
       </c>
@@ -17067,7 +17068,7 @@
       </c>
       <c r="O156" s="18"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="18" t="s">
         <v>792</v>
       </c>
@@ -17110,7 +17111,7 @@
       </c>
       <c r="O157" s="18"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="18" t="s">
         <v>793</v>
       </c>
@@ -17153,7 +17154,7 @@
       </c>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="18" t="s">
         <v>794</v>
       </c>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="O159" s="18"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="18" t="s">
         <v>796</v>
       </c>
@@ -17241,7 +17242,7 @@
       </c>
       <c r="O160" s="18"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="18" t="s">
         <v>797</v>
       </c>
@@ -17284,7 +17285,7 @@
       </c>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="18" t="s">
         <v>798</v>
       </c>
@@ -17327,7 +17328,7 @@
       </c>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="18" t="s">
         <v>800</v>
       </c>
@@ -17370,7 +17371,7 @@
       </c>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="18" t="s">
         <v>801</v>
       </c>
@@ -17413,7 +17414,7 @@
       </c>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="18" t="s">
         <v>802</v>
       </c>
@@ -17456,7 +17457,7 @@
       </c>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="18" t="s">
         <v>803</v>
       </c>
@@ -17499,7 +17500,7 @@
       </c>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="18" t="s">
         <v>804</v>
       </c>
@@ -17544,7 +17545,7 @@
       </c>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="18" t="s">
         <v>805</v>
       </c>
@@ -17587,7 +17588,7 @@
       </c>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="18" t="s">
         <v>808</v>
       </c>
@@ -17630,7 +17631,7 @@
       </c>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="18" t="s">
         <v>809</v>
       </c>
@@ -17673,7 +17674,7 @@
       </c>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="18" t="s">
         <v>810</v>
       </c>
@@ -17716,7 +17717,7 @@
       </c>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="18" t="s">
         <v>811</v>
       </c>
@@ -17759,7 +17760,7 @@
       </c>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="18" t="s">
         <v>812</v>
       </c>
@@ -17802,7 +17803,7 @@
       </c>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="18" t="s">
         <v>813</v>
       </c>
@@ -17845,7 +17846,7 @@
       </c>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="18" t="s">
         <v>814</v>
       </c>
@@ -17888,7 +17889,7 @@
       </c>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="18" t="s">
         <v>815</v>
       </c>
@@ -17931,7 +17932,7 @@
       </c>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>816</v>
       </c>
@@ -17974,7 +17975,7 @@
       </c>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="18" t="s">
         <v>819</v>
       </c>
@@ -18017,7 +18018,7 @@
       </c>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="18" t="s">
         <v>821</v>
       </c>
@@ -18060,7 +18061,7 @@
       </c>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="18" t="s">
         <v>822</v>
       </c>
@@ -18103,7 +18104,7 @@
       </c>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>823</v>
       </c>
@@ -18146,7 +18147,7 @@
       </c>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
         <v>825</v>
       </c>
@@ -18189,7 +18190,7 @@
       </c>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="18" t="s">
         <v>826</v>
       </c>
@@ -18232,7 +18233,7 @@
       </c>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="18" t="s">
         <v>827</v>
       </c>
@@ -18275,7 +18276,7 @@
       </c>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="18" t="s">
         <v>828</v>
       </c>
@@ -18318,7 +18319,7 @@
       </c>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="18" t="s">
         <v>830</v>
       </c>
@@ -18361,7 +18362,7 @@
       </c>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="18" t="s">
         <v>831</v>
       </c>
@@ -18404,7 +18405,7 @@
       </c>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="18" t="s">
         <v>833</v>
       </c>
@@ -18447,7 +18448,7 @@
       </c>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="18" t="s">
         <v>834</v>
       </c>
@@ -18490,7 +18491,7 @@
       </c>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="18" t="s">
         <v>835</v>
       </c>
@@ -18535,7 +18536,7 @@
       </c>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="18" t="s">
         <v>836</v>
       </c>
@@ -18580,7 +18581,7 @@
       </c>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>837</v>
       </c>
@@ -18623,7 +18624,7 @@
       </c>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="18" t="s">
         <v>838</v>
       </c>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="18" t="s">
         <v>839</v>
       </c>
@@ -18709,7 +18710,7 @@
       </c>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="18" t="s">
         <v>841</v>
       </c>
@@ -18752,7 +18753,7 @@
       </c>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>843</v>
       </c>
@@ -18795,7 +18796,7 @@
       </c>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="18" t="s">
         <v>845</v>
       </c>
@@ -18838,7 +18839,7 @@
       </c>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="18" t="s">
         <v>846</v>
       </c>
@@ -18881,7 +18882,7 @@
       </c>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="18" t="s">
         <v>847</v>
       </c>
@@ -18924,7 +18925,7 @@
       </c>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="18" t="s">
         <v>848</v>
       </c>
@@ -18969,7 +18970,7 @@
       </c>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="18" t="s">
         <v>849</v>
       </c>
@@ -19014,7 +19015,7 @@
       </c>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="18" t="s">
         <v>851</v>
       </c>
@@ -19059,7 +19060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>853</v>
       </c>
@@ -19104,7 +19105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="18" t="s">
         <v>854</v>
       </c>
@@ -19147,7 +19148,7 @@
       </c>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="18" t="s">
         <v>858</v>
       </c>
@@ -19190,7 +19191,7 @@
       </c>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>859</v>
       </c>
@@ -19235,7 +19236,7 @@
       </c>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="18" t="s">
         <v>860</v>
       </c>
@@ -19280,7 +19281,7 @@
       </c>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="18" t="s">
         <v>861</v>
       </c>
@@ -19325,7 +19326,7 @@
       </c>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="18" t="s">
         <v>863</v>
       </c>
@@ -19368,7 +19369,7 @@
       </c>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="18" t="s">
         <v>865</v>
       </c>
@@ -19411,7 +19412,7 @@
       </c>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="18" t="s">
         <v>867</v>
       </c>
@@ -19454,7 +19455,7 @@
       </c>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="18" t="s">
         <v>869</v>
       </c>
@@ -19497,7 +19498,7 @@
       </c>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="18" t="s">
         <v>870</v>
       </c>
@@ -19540,7 +19541,7 @@
       </c>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="18" t="s">
         <v>872</v>
       </c>
@@ -19583,7 +19584,7 @@
       </c>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="18" t="s">
         <v>873</v>
       </c>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="18" t="s">
         <v>874</v>
       </c>
@@ -19671,7 +19672,7 @@
       </c>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>875</v>
       </c>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="18" t="s">
         <v>877</v>
       </c>
@@ -19761,7 +19762,7 @@
       </c>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="18" t="s">
         <v>878</v>
       </c>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="18" t="s">
         <v>879</v>
       </c>
@@ -19851,7 +19852,7 @@
       </c>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>880</v>
       </c>
@@ -19894,7 +19895,7 @@
       </c>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="18" t="s">
         <v>883</v>
       </c>
@@ -19937,7 +19938,7 @@
       </c>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="18" t="s">
         <v>885</v>
       </c>
@@ -19980,7 +19981,7 @@
       </c>
       <c r="O223" s="18"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="18" t="s">
         <v>886</v>
       </c>
@@ -20023,7 +20024,7 @@
       </c>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="18" t="s">
         <v>888</v>
       </c>
@@ -20066,7 +20067,7 @@
       </c>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="18" t="s">
         <v>889</v>
       </c>
@@ -20111,7 +20112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="18" t="s">
         <v>892</v>
       </c>
@@ -20154,7 +20155,7 @@
       </c>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="18" t="s">
         <v>893</v>
       </c>
@@ -20199,7 +20200,7 @@
       </c>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>894</v>
       </c>
@@ -20244,7 +20245,7 @@
       </c>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="18" t="s">
         <v>896</v>
       </c>
@@ -20287,7 +20288,7 @@
       </c>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>898</v>
       </c>
@@ -20330,7 +20331,7 @@
       </c>
       <c r="O231" s="18"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="18" t="s">
         <v>899</v>
       </c>
@@ -20373,7 +20374,7 @@
       </c>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="18" t="s">
         <v>900</v>
       </c>
@@ -20416,7 +20417,7 @@
       </c>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="18" t="s">
         <v>901</v>
       </c>
@@ -20459,7 +20460,7 @@
       </c>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="18" t="s">
         <v>903</v>
       </c>
@@ -20502,7 +20503,7 @@
       </c>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>906</v>
       </c>
@@ -20545,7 +20546,7 @@
       </c>
       <c r="O236" s="18"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>907</v>
       </c>
@@ -20588,7 +20589,7 @@
       </c>
       <c r="O237" s="18"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>908</v>
       </c>
@@ -20631,7 +20632,7 @@
       </c>
       <c r="O238" s="18"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="18" t="s">
         <v>911</v>
       </c>
@@ -20674,7 +20675,7 @@
       </c>
       <c r="O239" s="18"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="18" t="s">
         <v>914</v>
       </c>
@@ -20717,7 +20718,7 @@
       </c>
       <c r="O240" s="18"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="18" t="s">
         <v>916</v>
       </c>
@@ -20760,7 +20761,7 @@
       </c>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
         <v>917</v>
       </c>
@@ -20803,7 +20804,7 @@
       </c>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="18" t="s">
         <v>918</v>
       </c>
@@ -20848,7 +20849,7 @@
       </c>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="18" t="s">
         <v>919</v>
       </c>
@@ -20891,7 +20892,7 @@
       </c>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="18" t="s">
         <v>920</v>
       </c>
@@ -20934,7 +20935,7 @@
       </c>
       <c r="O245" s="18"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="18" t="s">
         <v>921</v>
       </c>
@@ -20977,7 +20978,7 @@
       </c>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="18" t="s">
         <v>922</v>
       </c>
@@ -21022,7 +21023,7 @@
       </c>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="18" t="s">
         <v>924</v>
       </c>
@@ -21065,7 +21066,7 @@
       </c>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="18" t="s">
         <v>926</v>
       </c>
@@ -21108,7 +21109,7 @@
       </c>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>927</v>
       </c>
@@ -21153,7 +21154,7 @@
       </c>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="18" t="s">
         <v>928</v>
       </c>
@@ -21192,11 +21193,11 @@
       </c>
       <c r="M251" s="18"/>
       <c r="N251" s="18" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="18" t="s">
         <v>930</v>
       </c>
@@ -21239,7 +21240,7 @@
       </c>
       <c r="O252" s="18"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="18" t="s">
         <v>932</v>
       </c>
@@ -21282,7 +21283,7 @@
       </c>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="18" t="s">
         <v>933</v>
       </c>
@@ -21325,7 +21326,7 @@
       </c>
       <c r="O254" s="18"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>935</v>
       </c>
@@ -21368,7 +21369,7 @@
       </c>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="18" t="s">
         <v>936</v>
       </c>
@@ -21411,7 +21412,7 @@
       </c>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="18" t="s">
         <v>937</v>
       </c>
@@ -21456,7 +21457,7 @@
       </c>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="18" t="s">
         <v>938</v>
       </c>
@@ -21501,7 +21502,7 @@
       </c>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="18" t="s">
         <v>939</v>
       </c>
@@ -21544,7 +21545,7 @@
       </c>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="18" t="s">
         <v>942</v>
       </c>
@@ -21589,7 +21590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="18" t="s">
         <v>944</v>
       </c>
@@ -21632,7 +21633,7 @@
       </c>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="18" t="s">
         <v>945</v>
       </c>
@@ -21675,7 +21676,7 @@
       </c>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="18" t="s">
         <v>946</v>
       </c>
@@ -21718,7 +21719,7 @@
       </c>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="18" t="s">
         <v>947</v>
       </c>
@@ -21763,7 +21764,7 @@
       </c>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="18" t="s">
         <v>948</v>
       </c>
@@ -21808,7 +21809,7 @@
       </c>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="18" t="s">
         <v>949</v>
       </c>
@@ -21851,7 +21852,7 @@
       </c>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="18" t="s">
         <v>953</v>
       </c>
@@ -21894,7 +21895,7 @@
       </c>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="18" t="s">
         <v>956</v>
       </c>
@@ -21937,7 +21938,7 @@
       </c>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="18" t="s">
         <v>959</v>
       </c>
@@ -21980,7 +21981,7 @@
       </c>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="18" t="s">
         <v>962</v>
       </c>
@@ -22023,7 +22024,7 @@
       </c>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="18" t="s">
         <v>964</v>
       </c>
@@ -22068,7 +22069,7 @@
       </c>
       <c r="O271" s="18"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="18" t="s">
         <v>966</v>
       </c>
@@ -22113,7 +22114,7 @@
       </c>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="18" t="s">
         <v>968</v>
       </c>
@@ -22158,7 +22159,7 @@
       </c>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="18" t="s">
         <v>970</v>
       </c>
@@ -22203,7 +22204,7 @@
       </c>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="18" t="s">
         <v>972</v>
       </c>
@@ -22246,7 +22247,7 @@
       </c>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="18" t="s">
         <v>974</v>
       </c>
@@ -22289,7 +22290,7 @@
       </c>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="18" t="s">
         <v>976</v>
       </c>
@@ -22332,7 +22333,7 @@
       </c>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="18" t="s">
         <v>978</v>
       </c>
@@ -22375,7 +22376,7 @@
       </c>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="18" t="s">
         <v>979</v>
       </c>
@@ -22420,7 +22421,7 @@
       </c>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="18" t="s">
         <v>980</v>
       </c>
@@ -22465,7 +22466,7 @@
       </c>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>981</v>
       </c>
@@ -22510,7 +22511,7 @@
       </c>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="18" t="s">
         <v>983</v>
       </c>
@@ -22555,7 +22556,7 @@
       </c>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="18" t="s">
         <v>985</v>
       </c>
@@ -22598,7 +22599,7 @@
       </c>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="18" t="s">
         <v>986</v>
       </c>
@@ -22641,7 +22642,7 @@
       </c>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="18" t="s">
         <v>987</v>
       </c>
@@ -22684,7 +22685,7 @@
       </c>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="18" t="s">
         <v>990</v>
       </c>
@@ -22727,7 +22728,7 @@
       </c>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="18" t="s">
         <v>992</v>
       </c>
@@ -22770,7 +22771,7 @@
       </c>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="18" t="s">
         <v>993</v>
       </c>
@@ -22813,7 +22814,7 @@
       </c>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="18" t="s">
         <v>994</v>
       </c>
@@ -22856,7 +22857,7 @@
       </c>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="18" t="s">
         <v>995</v>
       </c>
@@ -22901,7 +22902,7 @@
       </c>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="18" t="s">
         <v>996</v>
       </c>
@@ -22946,7 +22947,7 @@
       </c>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="18" t="s">
         <v>997</v>
       </c>
@@ -22991,7 +22992,7 @@
       </c>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="18" t="s">
         <v>998</v>
       </c>
@@ -23036,7 +23037,7 @@
       </c>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="18" t="s">
         <v>999</v>
       </c>
@@ -23079,7 +23080,7 @@
       </c>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="18" t="s">
         <v>1002</v>
       </c>
@@ -23122,7 +23123,7 @@
       </c>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="18" t="s">
         <v>1003</v>
       </c>
@@ -23165,7 +23166,7 @@
       </c>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="18" t="s">
         <v>1004</v>
       </c>
@@ -23208,7 +23209,7 @@
       </c>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="18" t="s">
         <v>1005</v>
       </c>
@@ -23253,7 +23254,7 @@
       </c>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="18" t="s">
         <v>1006</v>
       </c>
@@ -23298,7 +23299,7 @@
       </c>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>1007</v>
       </c>
@@ -23343,7 +23344,7 @@
       </c>
       <c r="O300" s="18"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>1008</v>
       </c>
@@ -23386,7 +23387,7 @@
       </c>
       <c r="O301" s="18"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="18" t="s">
         <v>1011</v>
       </c>
@@ -23429,7 +23430,7 @@
       </c>
       <c r="O302" s="18"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="18" t="s">
         <v>1015</v>
       </c>
@@ -23472,7 +23473,7 @@
       </c>
       <c r="O303" s="18"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="18" t="s">
         <v>1018</v>
       </c>
@@ -23517,7 +23518,7 @@
       </c>
       <c r="O304" s="18"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="18" t="s">
         <v>1020</v>
       </c>
@@ -23562,7 +23563,7 @@
       </c>
       <c r="O305" s="18"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="18" t="s">
         <v>1022</v>
       </c>
@@ -23605,7 +23606,7 @@
       </c>
       <c r="O306" s="18"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>1023</v>
       </c>
@@ -23648,7 +23649,7 @@
       </c>
       <c r="O307" s="18"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="18" t="s">
         <v>1024</v>
       </c>
@@ -23691,7 +23692,7 @@
       </c>
       <c r="O308" s="18"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="18" t="s">
         <v>1025</v>
       </c>
@@ -23734,7 +23735,7 @@
       </c>
       <c r="O309" s="18"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="18" t="s">
         <v>1027</v>
       </c>
@@ -23777,7 +23778,7 @@
       </c>
       <c r="O310" s="18"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="18" t="s">
         <v>1028</v>
       </c>
@@ -23820,7 +23821,7 @@
       </c>
       <c r="O311" s="18"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="18" t="s">
         <v>1029</v>
       </c>
@@ -23863,7 +23864,7 @@
       </c>
       <c r="O312" s="18"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="18" t="s">
         <v>1030</v>
       </c>
@@ -23906,7 +23907,7 @@
       </c>
       <c r="O313" s="18"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="18" t="s">
         <v>1031</v>
       </c>
@@ -23949,7 +23950,7 @@
       </c>
       <c r="O314" s="18"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="18" t="s">
         <v>1032</v>
       </c>
@@ -23994,7 +23995,7 @@
       </c>
       <c r="O315" s="18"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="18" t="s">
         <v>1033</v>
       </c>
@@ -24039,7 +24040,7 @@
       </c>
       <c r="O316" s="18"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="18" t="s">
         <v>1034</v>
       </c>
@@ -24084,7 +24085,7 @@
       </c>
       <c r="O317" s="18"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="18" t="s">
         <v>1035</v>
       </c>
@@ -24129,7 +24130,7 @@
       </c>
       <c r="O318" s="18"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="18" t="s">
         <v>1036</v>
       </c>
@@ -24174,7 +24175,7 @@
       </c>
       <c r="O319" s="18"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="18" t="s">
         <v>1037</v>
       </c>
@@ -24217,7 +24218,7 @@
       </c>
       <c r="O320" s="18"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>1038</v>
       </c>
@@ -24260,7 +24261,7 @@
       </c>
       <c r="O321" s="18"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="18" t="s">
         <v>1039</v>
       </c>
@@ -24303,7 +24304,7 @@
       </c>
       <c r="O322" s="18"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="18" t="s">
         <v>1040</v>
       </c>
@@ -24346,7 +24347,7 @@
       </c>
       <c r="O323" s="18"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>1041</v>
       </c>
@@ -24389,7 +24390,7 @@
       </c>
       <c r="O324" s="18"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="18" t="s">
         <v>1042</v>
       </c>
@@ -24432,7 +24433,7 @@
       </c>
       <c r="O325" s="18"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="18" t="s">
         <v>1043</v>
       </c>
@@ -24475,7 +24476,7 @@
       </c>
       <c r="O326" s="18"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="18" t="s">
         <v>1044</v>
       </c>
@@ -24518,7 +24519,7 @@
       </c>
       <c r="O327" s="18"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="18" t="s">
         <v>1045</v>
       </c>
@@ -24561,7 +24562,7 @@
       </c>
       <c r="O328" s="18"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="18" t="s">
         <v>1046</v>
       </c>
@@ -24606,7 +24607,7 @@
       </c>
       <c r="O329" s="18"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="18" t="s">
         <v>1047</v>
       </c>
@@ -24651,7 +24652,7 @@
       </c>
       <c r="O330" s="18"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="18" t="s">
         <v>1048</v>
       </c>
@@ -24694,7 +24695,7 @@
       </c>
       <c r="O331" s="18"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="18" t="s">
         <v>1051</v>
       </c>
@@ -24737,7 +24738,7 @@
       </c>
       <c r="O332" s="18"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>1052</v>
       </c>
@@ -24780,7 +24781,7 @@
       </c>
       <c r="O333" s="18"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="18" t="s">
         <v>1053</v>
       </c>
@@ -24823,7 +24824,7 @@
       </c>
       <c r="O334" s="18"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="18" t="s">
         <v>1054</v>
       </c>
@@ -24868,7 +24869,7 @@
       </c>
       <c r="O335" s="18"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="18" t="s">
         <v>1055</v>
       </c>
@@ -24911,7 +24912,7 @@
       </c>
       <c r="O336" s="18"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="18" t="s">
         <v>1056</v>
       </c>
@@ -24954,7 +24955,7 @@
       </c>
       <c r="O337" s="18"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="18" t="s">
         <v>1057</v>
       </c>
@@ -24997,7 +24998,7 @@
       </c>
       <c r="O338" s="18"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="18" t="s">
         <v>1058</v>
       </c>
@@ -25042,7 +25043,7 @@
       </c>
       <c r="O339" s="18"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="18" t="s">
         <v>1059</v>
       </c>
@@ -25085,7 +25086,7 @@
       </c>
       <c r="O340" s="18"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="18" t="s">
         <v>1061</v>
       </c>
@@ -25128,7 +25129,7 @@
       </c>
       <c r="O341" s="18"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="18" t="s">
         <v>1062</v>
       </c>
@@ -25171,7 +25172,7 @@
       </c>
       <c r="O342" s="18"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="18" t="s">
         <v>1063</v>
       </c>
@@ -25216,7 +25217,7 @@
       </c>
       <c r="O343" s="18"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="18" t="s">
         <v>1065</v>
       </c>
@@ -25259,7 +25260,7 @@
       </c>
       <c r="O344" s="18"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="18" t="s">
         <v>1068</v>
       </c>
@@ -25302,7 +25303,7 @@
       </c>
       <c r="O345" s="18"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="18" t="s">
         <v>1070</v>
       </c>
@@ -25345,7 +25346,7 @@
       </c>
       <c r="O346" s="18"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="18" t="s">
         <v>1071</v>
       </c>
@@ -25388,7 +25389,7 @@
       </c>
       <c r="O347" s="18"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="18" t="s">
         <v>1072</v>
       </c>
@@ -25431,7 +25432,7 @@
       </c>
       <c r="O348" s="18"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="18" t="s">
         <v>1074</v>
       </c>
@@ -25476,7 +25477,7 @@
       </c>
       <c r="O349" s="18"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="18" t="s">
         <v>1075</v>
       </c>
@@ -25521,7 +25522,7 @@
       </c>
       <c r="O350" s="18"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="18" t="s">
         <v>1076</v>
       </c>
@@ -25564,7 +25565,7 @@
       </c>
       <c r="O351" s="18"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="18" t="s">
         <v>1080</v>
       </c>
@@ -25607,7 +25608,7 @@
       </c>
       <c r="O352" s="18"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="18" t="s">
         <v>1083</v>
       </c>
@@ -25650,7 +25651,7 @@
       </c>
       <c r="O353" s="18"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="18" t="s">
         <v>1086</v>
       </c>
@@ -25695,7 +25696,7 @@
       </c>
       <c r="O354" s="18"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="18" t="s">
         <v>1088</v>
       </c>
@@ -25738,7 +25739,7 @@
       </c>
       <c r="O355" s="18"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="18" t="s">
         <v>1090</v>
       </c>
@@ -25783,7 +25784,7 @@
       </c>
       <c r="O356" s="18"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="18" t="s">
         <v>1091</v>
       </c>
@@ -25828,7 +25829,7 @@
       </c>
       <c r="O357" s="18"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="18" t="s">
         <v>1727</v>
       </c>
@@ -25871,7 +25872,7 @@
       </c>
       <c r="O358" s="18"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>1730</v>
       </c>
@@ -25914,7 +25915,7 @@
       </c>
       <c r="O359" s="18"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="18" t="s">
         <v>1733</v>
       </c>
@@ -25957,7 +25958,7 @@
       </c>
       <c r="O360" s="18"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="18" t="s">
         <v>1736</v>
       </c>
@@ -26000,7 +26001,7 @@
       </c>
       <c r="O361" s="18"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="18" t="s">
         <v>1738</v>
       </c>
@@ -26043,7 +26044,7 @@
       </c>
       <c r="O362" s="18"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="18" t="s">
         <v>1740</v>
       </c>
@@ -26086,7 +26087,7 @@
       </c>
       <c r="O363" s="18"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="18" t="s">
         <v>1741</v>
       </c>
@@ -26131,7 +26132,7 @@
       </c>
       <c r="O364" s="18"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="18" t="s">
         <v>1742</v>
       </c>
@@ -26176,7 +26177,7 @@
       </c>
       <c r="O365" s="18"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="18" t="s">
         <v>1743</v>
       </c>
@@ -26221,7 +26222,7 @@
       </c>
       <c r="O366" s="18"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="18" t="s">
         <v>1744</v>
       </c>
@@ -26266,7 +26267,7 @@
       </c>
       <c r="O367" s="18"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="18" t="s">
         <v>1745</v>
       </c>
@@ -26309,7 +26310,7 @@
       </c>
       <c r="O368" s="18"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="18" t="s">
         <v>1746</v>
       </c>
@@ -26352,7 +26353,7 @@
       </c>
       <c r="O369" s="18"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="18" t="s">
         <v>1747</v>
       </c>
@@ -26397,7 +26398,7 @@
       </c>
       <c r="O370" s="18"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="18" t="s">
         <v>1748</v>
       </c>
@@ -26442,7 +26443,7 @@
       </c>
       <c r="O371" s="18"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="18" t="s">
         <v>1749</v>
       </c>
@@ -26487,7 +26488,7 @@
       </c>
       <c r="O372" s="18"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="18" t="s">
         <v>1750</v>
       </c>
@@ -26530,7 +26531,7 @@
       </c>
       <c r="O373" s="18"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="18" t="s">
         <v>1751</v>
       </c>
@@ -26575,7 +26576,7 @@
       </c>
       <c r="O374" s="18"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="18" t="s">
         <v>1752</v>
       </c>
@@ -26618,7 +26619,7 @@
       </c>
       <c r="O375" s="18"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="18" t="s">
         <v>1755</v>
       </c>
@@ -26663,7 +26664,7 @@
       </c>
       <c r="O376" s="18"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="18" t="s">
         <v>1757</v>
       </c>
@@ -26706,7 +26707,7 @@
       </c>
       <c r="O377" s="18"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="18" t="s">
         <v>1760</v>
       </c>
@@ -26749,7 +26750,7 @@
       </c>
       <c r="O378" s="18"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="18" t="s">
         <v>1763</v>
       </c>
@@ -26794,7 +26795,7 @@
       </c>
       <c r="O379" s="18"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="18" t="s">
         <v>1765</v>
       </c>
@@ -26839,7 +26840,7 @@
       </c>
       <c r="O380" s="18"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="18" t="s">
         <v>1767</v>
       </c>
@@ -26884,7 +26885,7 @@
       </c>
       <c r="O381" s="18"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="18" t="s">
         <v>1901</v>
       </c>
@@ -26927,7 +26928,7 @@
       </c>
       <c r="O382" s="18"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="18" t="s">
         <v>1905</v>
       </c>
@@ -26970,7 +26971,7 @@
       </c>
       <c r="O383" s="18"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="18" t="s">
         <v>1907</v>
       </c>
@@ -27013,7 +27014,7 @@
       </c>
       <c r="O384" s="18"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="18" t="s">
         <v>1909</v>
       </c>
@@ -27056,7 +27057,7 @@
       </c>
       <c r="O385" s="18"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="18" t="s">
         <v>1911</v>
       </c>
@@ -27099,7 +27100,7 @@
       </c>
       <c r="O386" s="18"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="18" t="s">
         <v>1913</v>
       </c>
@@ -27142,7 +27143,7 @@
       </c>
       <c r="O387" s="18"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="18" t="s">
         <v>1916</v>
       </c>
@@ -27187,7 +27188,7 @@
       </c>
       <c r="O388" s="18"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="18" t="s">
         <v>1918</v>
       </c>
@@ -27232,7 +27233,7 @@
       </c>
       <c r="O389" s="18"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="18" t="s">
         <v>1920</v>
       </c>
@@ -27277,7 +27278,7 @@
       </c>
       <c r="O390" s="18"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="18" t="s">
         <v>1922</v>
       </c>
@@ -27322,7 +27323,7 @@
       </c>
       <c r="O391" s="18"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="18" t="s">
         <v>1924</v>
       </c>
@@ -27367,7 +27368,7 @@
       </c>
       <c r="O392" s="18"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="18" t="s">
         <v>1926</v>
       </c>
@@ -27412,7 +27413,7 @@
       </c>
       <c r="O393" s="18"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="18" t="s">
         <v>1928</v>
       </c>
@@ -27455,7 +27456,7 @@
       </c>
       <c r="O394" s="18"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="18" t="s">
         <v>1930</v>
       </c>
@@ -27498,7 +27499,7 @@
       </c>
       <c r="O395" s="18"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="18" t="s">
         <v>1933</v>
       </c>
@@ -27541,7 +27542,7 @@
       </c>
       <c r="O396" s="18"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="18" t="s">
         <v>1934</v>
       </c>
@@ -27584,7 +27585,7 @@
       </c>
       <c r="O397" s="18"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="18" t="s">
         <v>1936</v>
       </c>
@@ -27629,7 +27630,7 @@
       </c>
       <c r="O398" s="18"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>1937</v>
       </c>
@@ -27674,7 +27675,7 @@
       </c>
       <c r="O399" s="18"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="18" t="s">
         <v>1939</v>
       </c>
@@ -27719,7 +27720,7 @@
       </c>
       <c r="O400" s="18"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="18" t="s">
         <v>2539</v>
       </c>
@@ -27764,7 +27765,7 @@
       </c>
       <c r="O401" s="18"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="18" t="s">
         <v>1941</v>
       </c>
@@ -27809,7 +27810,7 @@
       </c>
       <c r="O402" s="18"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="18" t="s">
         <v>1943</v>
       </c>
@@ -27854,7 +27855,7 @@
       </c>
       <c r="O403" s="18"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="18" t="s">
         <v>1945</v>
       </c>
@@ -27897,7 +27898,7 @@
       </c>
       <c r="O404" s="18"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="18" t="s">
         <v>1948</v>
       </c>
@@ -27940,7 +27941,7 @@
       </c>
       <c r="O405" s="18"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="18" t="s">
         <v>1950</v>
       </c>
@@ -27983,7 +27984,7 @@
       </c>
       <c r="O406" s="18"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="18" t="s">
         <v>1951</v>
       </c>
@@ -28026,7 +28027,7 @@
       </c>
       <c r="O407" s="18"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="18" t="s">
         <v>1953</v>
       </c>
@@ -28069,7 +28070,7 @@
       </c>
       <c r="O408" s="18"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="18" t="s">
         <v>1955</v>
       </c>
@@ -28112,7 +28113,7 @@
       </c>
       <c r="O409" s="18"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="18" t="s">
         <v>1957</v>
       </c>
@@ -28155,7 +28156,7 @@
       </c>
       <c r="O410" s="18"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="18" t="s">
         <v>1958</v>
       </c>
@@ -28200,7 +28201,7 @@
       </c>
       <c r="O411" s="18"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="18" t="s">
         <v>1959</v>
       </c>
@@ -28245,7 +28246,7 @@
       </c>
       <c r="O412" s="18"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="18" t="s">
         <v>1960</v>
       </c>
@@ -28290,7 +28291,7 @@
       </c>
       <c r="O413" s="18"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="18" t="s">
         <v>1962</v>
       </c>
@@ -28333,7 +28334,7 @@
       </c>
       <c r="O414" s="18"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="18" t="s">
         <v>1966</v>
       </c>
@@ -28376,7 +28377,7 @@
       </c>
       <c r="O415" s="18"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="18" t="s">
         <v>1968</v>
       </c>
@@ -28419,7 +28420,7 @@
       </c>
       <c r="O416" s="18"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="18" t="s">
         <v>1971</v>
       </c>
@@ -28462,7 +28463,7 @@
       </c>
       <c r="O417" s="18"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="18" t="s">
         <v>1973</v>
       </c>
@@ -28505,7 +28506,7 @@
       </c>
       <c r="O418" s="18"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="18" t="s">
         <v>1974</v>
       </c>
@@ -28548,7 +28549,7 @@
       </c>
       <c r="O419" s="18"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="18" t="s">
         <v>1976</v>
       </c>
@@ -28591,7 +28592,7 @@
       </c>
       <c r="O420" s="18"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="18" t="s">
         <v>1978</v>
       </c>
@@ -28634,7 +28635,7 @@
       </c>
       <c r="O421" s="18"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="18" t="s">
         <v>1980</v>
       </c>
@@ -28677,7 +28678,7 @@
       </c>
       <c r="O422" s="18"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="18" t="s">
         <v>1982</v>
       </c>
@@ -28720,7 +28721,7 @@
       </c>
       <c r="O423" s="18"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="18" t="s">
         <v>1983</v>
       </c>
@@ -28763,7 +28764,7 @@
       </c>
       <c r="O424" s="18"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="18" t="s">
         <v>1984</v>
       </c>
@@ -28806,7 +28807,7 @@
       </c>
       <c r="O425" s="18"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="18" t="s">
         <v>1985</v>
       </c>
@@ -28851,7 +28852,7 @@
       </c>
       <c r="O426" s="18"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="18" t="s">
         <v>1986</v>
       </c>
@@ -28896,7 +28897,7 @@
       </c>
       <c r="O427" s="18"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="18" t="s">
         <v>1987</v>
       </c>
@@ -28941,7 +28942,7 @@
       </c>
       <c r="O428" s="18"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="18" t="s">
         <v>1988</v>
       </c>
@@ -28986,7 +28987,7 @@
       </c>
       <c r="O429" s="18"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="18" t="s">
         <v>1989</v>
       </c>
@@ -29031,7 +29032,7 @@
       </c>
       <c r="O430" s="18"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="18" t="s">
         <v>1990</v>
       </c>
@@ -29074,7 +29075,7 @@
       </c>
       <c r="O431" s="18"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="18" t="s">
         <v>1993</v>
       </c>
@@ -29117,7 +29118,7 @@
       </c>
       <c r="O432" s="18"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="18" t="s">
         <v>1995</v>
       </c>
@@ -29160,7 +29161,7 @@
       </c>
       <c r="O433" s="18"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="18" t="s">
         <v>1998</v>
       </c>
@@ -29203,7 +29204,7 @@
       </c>
       <c r="O434" s="18"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="18" t="s">
         <v>2000</v>
       </c>
@@ -29246,7 +29247,7 @@
       </c>
       <c r="O435" s="18"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="18" t="s">
         <v>2002</v>
       </c>
@@ -29289,7 +29290,7 @@
       </c>
       <c r="O436" s="18"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="18" t="s">
         <v>2004</v>
       </c>
@@ -29332,7 +29333,7 @@
       </c>
       <c r="O437" s="18"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="18" t="s">
         <v>2008</v>
       </c>
@@ -29375,7 +29376,7 @@
       </c>
       <c r="O438" s="18"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="18" t="s">
         <v>2010</v>
       </c>
@@ -29418,7 +29419,7 @@
       </c>
       <c r="O439" s="18"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="18" t="s">
         <v>2013</v>
       </c>
@@ -29461,7 +29462,7 @@
       </c>
       <c r="O440" s="18"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>2017</v>
       </c>
@@ -29504,7 +29505,7 @@
       </c>
       <c r="O441" s="18"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="18" t="s">
         <v>2021</v>
       </c>
@@ -29547,7 +29548,7 @@
       </c>
       <c r="O442" s="18"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="18" t="s">
         <v>2023</v>
       </c>
@@ -29590,7 +29591,7 @@
       </c>
       <c r="O443" s="18"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="18" t="s">
         <v>2025</v>
       </c>
@@ -29633,7 +29634,7 @@
       </c>
       <c r="O444" s="18"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="18" t="s">
         <v>2028</v>
       </c>
@@ -29676,7 +29677,7 @@
       </c>
       <c r="O445" s="18"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="18" t="s">
         <v>2030</v>
       </c>
@@ -29719,7 +29720,7 @@
       </c>
       <c r="O446" s="18"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="18" t="s">
         <v>2032</v>
       </c>
@@ -29762,7 +29763,7 @@
       </c>
       <c r="O447" s="18"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="18" t="s">
         <v>2034</v>
       </c>
@@ -29805,7 +29806,7 @@
       </c>
       <c r="O448" s="18"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="18" t="s">
         <v>2037</v>
       </c>
@@ -29848,7 +29849,7 @@
       </c>
       <c r="O449" s="18"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="18" t="s">
         <v>2039</v>
       </c>
@@ -29891,7 +29892,7 @@
       </c>
       <c r="O450" s="18"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="18" t="s">
         <v>2041</v>
       </c>
@@ -29934,7 +29935,7 @@
       </c>
       <c r="O451" s="18"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="18" t="s">
         <v>2043</v>
       </c>
@@ -29977,7 +29978,7 @@
       </c>
       <c r="O452" s="18"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="18" t="s">
         <v>2045</v>
       </c>
@@ -30020,7 +30021,7 @@
       </c>
       <c r="O453" s="18"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="18" t="s">
         <v>2047</v>
       </c>
@@ -30063,7 +30064,7 @@
       </c>
       <c r="O454" s="18"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="18" t="s">
         <v>2049</v>
       </c>
@@ -30106,7 +30107,7 @@
       </c>
       <c r="O455" s="18"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="18" t="s">
         <v>2050</v>
       </c>
@@ -30149,7 +30150,7 @@
       </c>
       <c r="O456" s="18"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="18" t="s">
         <v>2051</v>
       </c>
@@ -30192,7 +30193,7 @@
       </c>
       <c r="O457" s="18"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="18" t="s">
         <v>2053</v>
       </c>
@@ -30237,7 +30238,7 @@
       </c>
       <c r="O458" s="18"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>2054</v>
       </c>
@@ -30280,7 +30281,7 @@
       </c>
       <c r="O459" s="18"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="18" t="s">
         <v>2057</v>
       </c>
@@ -30323,7 +30324,7 @@
       </c>
       <c r="O460" s="18"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="18" t="s">
         <v>2059</v>
       </c>
@@ -30366,7 +30367,7 @@
       </c>
       <c r="O461" s="18"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="18" t="s">
         <v>2061</v>
       </c>
@@ -30409,7 +30410,7 @@
       </c>
       <c r="O462" s="18"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="18" t="s">
         <v>2063</v>
       </c>
@@ -30452,7 +30453,7 @@
       </c>
       <c r="O463" s="18"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="18" t="s">
         <v>2065</v>
       </c>
@@ -30495,7 +30496,7 @@
       </c>
       <c r="O464" s="18"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>2067</v>
       </c>
@@ -30538,7 +30539,7 @@
       </c>
       <c r="O465" s="18"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="18" t="s">
         <v>2069</v>
       </c>
@@ -30581,7 +30582,7 @@
       </c>
       <c r="O466" s="18"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="18" t="s">
         <v>2071</v>
       </c>
@@ -30626,7 +30627,7 @@
       </c>
       <c r="O467" s="18"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="18" t="s">
         <v>2073</v>
       </c>
@@ -30671,7 +30672,7 @@
       </c>
       <c r="O468" s="18"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="18" t="s">
         <v>2075</v>
       </c>
@@ -30714,7 +30715,7 @@
       </c>
       <c r="O469" s="18"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="18" t="s">
         <v>2078</v>
       </c>
@@ -30757,7 +30758,7 @@
       </c>
       <c r="O470" s="18"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="18" t="s">
         <v>2079</v>
       </c>
@@ -30800,7 +30801,7 @@
       </c>
       <c r="O471" s="18"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="18" t="s">
         <v>2081</v>
       </c>
@@ -30845,7 +30846,7 @@
       </c>
       <c r="O472" s="18"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="18" t="s">
         <v>2083</v>
       </c>
@@ -30890,7 +30891,7 @@
       </c>
       <c r="O473" s="18"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="18" t="s">
         <v>2085</v>
       </c>
@@ -30935,7 +30936,7 @@
       </c>
       <c r="O474" s="18"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="18" t="s">
         <v>2087</v>
       </c>
@@ -30978,7 +30979,7 @@
       </c>
       <c r="O475" s="18"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="18" t="s">
         <v>2089</v>
       </c>
@@ -31021,7 +31022,7 @@
       </c>
       <c r="O476" s="18"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="18" t="s">
         <v>2092</v>
       </c>
@@ -31064,7 +31065,7 @@
       </c>
       <c r="O477" s="18"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="18" t="s">
         <v>2093</v>
       </c>
@@ -31107,7 +31108,7 @@
       </c>
       <c r="O478" s="18"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="18" t="s">
         <v>2094</v>
       </c>
@@ -31150,7 +31151,7 @@
       </c>
       <c r="O479" s="18"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="18" t="s">
         <v>2095</v>
       </c>
@@ -31193,7 +31194,7 @@
       </c>
       <c r="O480" s="18"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="18" t="s">
         <v>2096</v>
       </c>
@@ -31236,7 +31237,7 @@
       </c>
       <c r="O481" s="18"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="18" t="s">
         <v>2097</v>
       </c>
@@ -31279,7 +31280,7 @@
       </c>
       <c r="O482" s="18"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="18" t="s">
         <v>2098</v>
       </c>
@@ -31322,7 +31323,7 @@
       </c>
       <c r="O483" s="18"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="18" t="s">
         <v>2099</v>
       </c>
@@ -31365,7 +31366,7 @@
       </c>
       <c r="O484" s="18"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="18" t="s">
         <v>2100</v>
       </c>
@@ -31408,7 +31409,7 @@
       </c>
       <c r="O485" s="18"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="18" t="s">
         <v>2101</v>
       </c>
@@ -31451,7 +31452,7 @@
       </c>
       <c r="O486" s="18"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="18" t="s">
         <v>2102</v>
       </c>
@@ -31494,7 +31495,7 @@
       </c>
       <c r="O487" s="18"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="18" t="s">
         <v>2103</v>
       </c>
@@ -31537,7 +31538,7 @@
       </c>
       <c r="O488" s="18"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="18" t="s">
         <v>2104</v>
       </c>
@@ -31580,7 +31581,7 @@
       </c>
       <c r="O489" s="18"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="18" t="s">
         <v>2105</v>
       </c>
@@ -31623,7 +31624,7 @@
       </c>
       <c r="O490" s="18"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="18" t="s">
         <v>2106</v>
       </c>
@@ -31668,7 +31669,7 @@
       </c>
       <c r="O491" s="18"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="18" t="s">
         <v>2107</v>
       </c>
@@ -31711,7 +31712,7 @@
       </c>
       <c r="O492" s="18"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="18" t="s">
         <v>2110</v>
       </c>
@@ -31754,7 +31755,7 @@
       </c>
       <c r="O493" s="18"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="18" t="s">
         <v>2113</v>
       </c>
@@ -31797,7 +31798,7 @@
       </c>
       <c r="O494" s="18"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="18" t="s">
         <v>2115</v>
       </c>
@@ -31840,7 +31841,7 @@
       </c>
       <c r="O495" s="18"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="18" t="s">
         <v>2117</v>
       </c>
@@ -31922,11 +31923,11 @@
       </c>
       <c r="M497" s="18"/>
       <c r="N497" s="18" t="s">
-        <v>2541</v>
+        <v>2810</v>
       </c>
       <c r="O497" s="18"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="18" t="s">
         <v>2121</v>
       </c>
@@ -31971,7 +31972,7 @@
       </c>
       <c r="O498" s="18"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="18" t="s">
         <v>2123</v>
       </c>
@@ -32014,7 +32015,7 @@
       </c>
       <c r="O499" s="18"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="18" t="s">
         <v>2124</v>
       </c>
@@ -32057,7 +32058,7 @@
       </c>
       <c r="O500" s="18"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="18" t="s">
         <v>2125</v>
       </c>
@@ -32100,7 +32101,7 @@
       </c>
       <c r="O501" s="18"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="18" t="s">
         <v>2126</v>
       </c>
@@ -32143,7 +32144,7 @@
       </c>
       <c r="O502" s="18"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="18" t="s">
         <v>2127</v>
       </c>
@@ -32186,7 +32187,7 @@
       </c>
       <c r="O503" s="18"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="18" t="s">
         <v>2129</v>
       </c>
@@ -32229,7 +32230,7 @@
       </c>
       <c r="O504" s="18"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="18" t="s">
         <v>2131</v>
       </c>
@@ -32272,7 +32273,7 @@
       </c>
       <c r="O505" s="18"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="18" t="s">
         <v>2133</v>
       </c>
@@ -32315,7 +32316,7 @@
       </c>
       <c r="O506" s="18"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="18" t="s">
         <v>2135</v>
       </c>
@@ -32397,11 +32398,11 @@
       </c>
       <c r="M508" s="18"/>
       <c r="N508" s="18" t="s">
-        <v>2541</v>
+        <v>2810</v>
       </c>
       <c r="O508" s="18"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="18" t="s">
         <v>2138</v>
       </c>
@@ -32444,7 +32445,7 @@
       </c>
       <c r="O509" s="18"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="18" t="s">
         <v>2139</v>
       </c>
@@ -32487,7 +32488,7 @@
       </c>
       <c r="O510" s="18"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="18" t="s">
         <v>2142</v>
       </c>
@@ -32532,7 +32533,7 @@
       </c>
       <c r="O511" s="18"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="18" t="s">
         <v>2144</v>
       </c>
@@ -32575,7 +32576,7 @@
       </c>
       <c r="O512" s="18"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="18" t="s">
         <v>2145</v>
       </c>
@@ -32618,7 +32619,7 @@
       </c>
       <c r="O513" s="18"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="18" t="s">
         <v>2148</v>
       </c>
@@ -32661,7 +32662,7 @@
       </c>
       <c r="O514" s="18"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="18" t="s">
         <v>2149</v>
       </c>
@@ -32706,7 +32707,7 @@
       </c>
       <c r="O515" s="18"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="18" t="s">
         <v>2150</v>
       </c>
@@ -32749,7 +32750,7 @@
       </c>
       <c r="O516" s="18"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="18" t="s">
         <v>2151</v>
       </c>
@@ -32792,7 +32793,7 @@
       </c>
       <c r="O517" s="18"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="18" t="s">
         <v>2153</v>
       </c>
@@ -32835,7 +32836,7 @@
       </c>
       <c r="O518" s="18"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="18" t="s">
         <v>2154</v>
       </c>
@@ -32878,7 +32879,7 @@
       </c>
       <c r="O519" s="18"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="18" t="s">
         <v>2155</v>
       </c>
@@ -32921,7 +32922,7 @@
       </c>
       <c r="O520" s="18"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="18" t="s">
         <v>2156</v>
       </c>
@@ -32964,7 +32965,7 @@
       </c>
       <c r="O521" s="18"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="18" t="s">
         <v>2157</v>
       </c>
@@ -33007,7 +33008,7 @@
       </c>
       <c r="O522" s="18"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="18" t="s">
         <v>2158</v>
       </c>
@@ -33050,7 +33051,7 @@
       </c>
       <c r="O523" s="18"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="18" t="s">
         <v>2159</v>
       </c>
@@ -33095,7 +33096,7 @@
       </c>
       <c r="O524" s="18"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="18" t="s">
         <v>2160</v>
       </c>
@@ -33140,7 +33141,7 @@
       </c>
       <c r="O525" s="18"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="18" t="s">
         <v>2161</v>
       </c>
@@ -33183,7 +33184,7 @@
       </c>
       <c r="O526" s="18"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="18" t="s">
         <v>2162</v>
       </c>
@@ -33226,7 +33227,7 @@
       </c>
       <c r="O527" s="18"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="18" t="s">
         <v>2163</v>
       </c>
@@ -33271,7 +33272,7 @@
       </c>
       <c r="O528" s="18"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="18" t="s">
         <v>2164</v>
       </c>
@@ -33314,7 +33315,7 @@
       </c>
       <c r="O529" s="18"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="18" t="s">
         <v>2167</v>
       </c>
@@ -33357,7 +33358,7 @@
       </c>
       <c r="O530" s="18"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="18" t="s">
         <v>2169</v>
       </c>
@@ -33400,7 +33401,7 @@
       </c>
       <c r="O531" s="18"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="18" t="s">
         <v>2170</v>
       </c>
@@ -33443,7 +33444,7 @@
       </c>
       <c r="O532" s="18"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="18" t="s">
         <v>2172</v>
       </c>
@@ -33486,7 +33487,7 @@
       </c>
       <c r="O533" s="18"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="18" t="s">
         <v>2174</v>
       </c>
@@ -33529,7 +33530,7 @@
       </c>
       <c r="O534" s="18"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="18" t="s">
         <v>2176</v>
       </c>
@@ -33574,7 +33575,7 @@
       </c>
       <c r="O535" s="18"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="18" t="s">
         <v>2178</v>
       </c>
@@ -33619,7 +33620,7 @@
       </c>
       <c r="O536" s="18"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="18" t="s">
         <v>2180</v>
       </c>
@@ -33664,7 +33665,7 @@
       </c>
       <c r="O537" s="18"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="18" t="s">
         <v>2182</v>
       </c>
@@ -33709,7 +33710,7 @@
       </c>
       <c r="O538" s="18"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="18" t="s">
         <v>2184</v>
       </c>
@@ -33752,7 +33753,7 @@
       </c>
       <c r="O539" s="18"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="18" t="s">
         <v>2186</v>
       </c>
@@ -33795,7 +33796,7 @@
       </c>
       <c r="O540" s="18"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="18" t="s">
         <v>2187</v>
       </c>
@@ -33838,7 +33839,7 @@
       </c>
       <c r="O541" s="18"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="18" t="s">
         <v>2188</v>
       </c>
@@ -33883,7 +33884,7 @@
       </c>
       <c r="O542" s="18"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="18" t="s">
         <v>2189</v>
       </c>
@@ -33926,7 +33927,7 @@
       </c>
       <c r="O543" s="18"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="18" t="s">
         <v>2190</v>
       </c>
@@ -33969,7 +33970,7 @@
       </c>
       <c r="O544" s="18"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="18" t="s">
         <v>2191</v>
       </c>
@@ -34012,7 +34013,7 @@
       </c>
       <c r="O545" s="18"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="18" t="s">
         <v>2192</v>
       </c>
@@ -34055,7 +34056,7 @@
       </c>
       <c r="O546" s="18"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="18" t="s">
         <v>2193</v>
       </c>
@@ -34098,7 +34099,7 @@
       </c>
       <c r="O547" s="18"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="18" t="s">
         <v>2194</v>
       </c>
@@ -34141,7 +34142,7 @@
       </c>
       <c r="O548" s="18"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="18" t="s">
         <v>2195</v>
       </c>
@@ -34184,7 +34185,7 @@
       </c>
       <c r="O549" s="18"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="18" t="s">
         <v>2196</v>
       </c>
@@ -34227,7 +34228,7 @@
       </c>
       <c r="O550" s="18"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="18" t="s">
         <v>2197</v>
       </c>
@@ -34270,7 +34271,7 @@
       </c>
       <c r="O551" s="18"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="18" t="s">
         <v>2198</v>
       </c>
@@ -34313,7 +34314,7 @@
       </c>
       <c r="O552" s="18"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="18" t="s">
         <v>2199</v>
       </c>
@@ -34356,7 +34357,7 @@
       </c>
       <c r="O553" s="18"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="18" t="s">
         <v>2200</v>
       </c>
@@ -34399,7 +34400,7 @@
       </c>
       <c r="O554" s="18"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="18" t="s">
         <v>2201</v>
       </c>
@@ -34442,7 +34443,7 @@
       </c>
       <c r="O555" s="18"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="18" t="s">
         <v>2202</v>
       </c>
@@ -34485,7 +34486,7 @@
       </c>
       <c r="O556" s="18"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="18" t="s">
         <v>2203</v>
       </c>
@@ -34528,7 +34529,7 @@
       </c>
       <c r="O557" s="18"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="18" t="s">
         <v>2205</v>
       </c>
@@ -34571,7 +34572,7 @@
       </c>
       <c r="O558" s="18"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="18" t="s">
         <v>2206</v>
       </c>
@@ -34614,7 +34615,7 @@
       </c>
       <c r="O559" s="18"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="18" t="s">
         <v>2207</v>
       </c>
@@ -34657,7 +34658,7 @@
       </c>
       <c r="O560" s="18"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="18" t="s">
         <v>2209</v>
       </c>
@@ -34700,7 +34701,7 @@
       </c>
       <c r="O561" s="18"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="18" t="s">
         <v>2211</v>
       </c>
@@ -34743,7 +34744,7 @@
       </c>
       <c r="O562" s="18"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="18" t="s">
         <v>2213</v>
       </c>
@@ -34786,7 +34787,7 @@
       </c>
       <c r="O563" s="18"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="18" t="s">
         <v>2215</v>
       </c>
@@ -34829,7 +34830,7 @@
       </c>
       <c r="O564" s="18"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="18" t="s">
         <v>2217</v>
       </c>
@@ -34872,7 +34873,7 @@
       </c>
       <c r="O565" s="18"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="18" t="s">
         <v>2219</v>
       </c>
@@ -34915,7 +34916,7 @@
       </c>
       <c r="O566" s="18"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="18" t="s">
         <v>2221</v>
       </c>
@@ -34958,7 +34959,7 @@
       </c>
       <c r="O567" s="18"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="18" t="s">
         <v>2223</v>
       </c>
@@ -35001,7 +35002,7 @@
       </c>
       <c r="O568" s="18"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="18" t="s">
         <v>2225</v>
       </c>
@@ -35044,7 +35045,7 @@
       </c>
       <c r="O569" s="18"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="18" t="s">
         <v>2227</v>
       </c>
@@ -35087,7 +35088,7 @@
       </c>
       <c r="O570" s="18"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="18" t="s">
         <v>2229</v>
       </c>
@@ -35130,7 +35131,7 @@
       </c>
       <c r="O571" s="18"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="18" t="s">
         <v>2231</v>
       </c>
@@ -35173,7 +35174,7 @@
       </c>
       <c r="O572" s="18"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="18" t="s">
         <v>2232</v>
       </c>
@@ -35218,7 +35219,7 @@
       </c>
       <c r="O573" s="18"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="18" t="s">
         <v>2233</v>
       </c>
@@ -35263,7 +35264,7 @@
       </c>
       <c r="O574" s="18"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="18" t="s">
         <v>2234</v>
       </c>
@@ -35306,7 +35307,7 @@
       </c>
       <c r="O575" s="18"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="18" t="s">
         <v>2235</v>
       </c>
@@ -35349,7 +35350,7 @@
       </c>
       <c r="O576" s="18"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="18" t="s">
         <v>2236</v>
       </c>
@@ -35392,7 +35393,7 @@
       </c>
       <c r="O577" s="18"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="18" t="s">
         <v>2237</v>
       </c>
@@ -35435,7 +35436,7 @@
       </c>
       <c r="O578" s="18"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="18" t="s">
         <v>2238</v>
       </c>
@@ -35480,7 +35481,7 @@
       </c>
       <c r="O579" s="18"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="18" t="s">
         <v>2239</v>
       </c>
@@ -35525,7 +35526,7 @@
       </c>
       <c r="O580" s="18"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="18" t="s">
         <v>2240</v>
       </c>
@@ -35568,7 +35569,7 @@
       </c>
       <c r="O581" s="18"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="18" t="s">
         <v>2241</v>
       </c>
@@ -35611,7 +35612,7 @@
       </c>
       <c r="O582" s="18"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="18" t="s">
         <v>2242</v>
       </c>
@@ -35654,7 +35655,7 @@
       </c>
       <c r="O583" s="18"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="18" t="s">
         <v>2243</v>
       </c>
@@ -35697,7 +35698,7 @@
       </c>
       <c r="O584" s="18"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="18" t="s">
         <v>2244</v>
       </c>
@@ -35779,11 +35780,11 @@
       </c>
       <c r="M586" s="18"/>
       <c r="N586" s="18" t="s">
-        <v>2541</v>
+        <v>2810</v>
       </c>
       <c r="O586" s="18"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="18" t="s">
         <v>2246</v>
       </c>
@@ -35826,7 +35827,7 @@
       </c>
       <c r="O587" s="18"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="18" t="s">
         <v>2247</v>
       </c>
@@ -35871,7 +35872,7 @@
       </c>
       <c r="O588" s="18"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="18" t="s">
         <v>2248</v>
       </c>
@@ -35914,7 +35915,7 @@
       </c>
       <c r="O589" s="18"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="18" t="s">
         <v>2249</v>
       </c>
@@ -35957,7 +35958,7 @@
       </c>
       <c r="O590" s="18"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="18" t="s">
         <v>2250</v>
       </c>
@@ -36000,7 +36001,7 @@
       </c>
       <c r="O591" s="18"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="18" t="s">
         <v>2252</v>
       </c>
@@ -36045,7 +36046,7 @@
       </c>
       <c r="O592" s="18"/>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="18" t="s">
         <v>2253</v>
       </c>
@@ -36090,7 +36091,7 @@
       </c>
       <c r="O593" s="18"/>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="18" t="s">
         <v>2254</v>
       </c>
@@ -36133,7 +36134,7 @@
       </c>
       <c r="O594" s="18"/>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="18" t="s">
         <v>2256</v>
       </c>
@@ -36176,7 +36177,7 @@
       </c>
       <c r="O595" s="18"/>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="18" t="s">
         <v>2257</v>
       </c>
@@ -36219,7 +36220,7 @@
       </c>
       <c r="O596" s="18"/>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="18" t="s">
         <v>2258</v>
       </c>
@@ -36262,7 +36263,7 @@
       </c>
       <c r="O597" s="18"/>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="18" t="s">
         <v>2259</v>
       </c>
@@ -36305,7 +36306,7 @@
       </c>
       <c r="O598" s="18"/>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="18" t="s">
         <v>2260</v>
       </c>
@@ -36348,7 +36349,7 @@
       </c>
       <c r="O599" s="18"/>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="18" t="s">
         <v>2261</v>
       </c>
@@ -36391,7 +36392,7 @@
       </c>
       <c r="O600" s="18"/>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="18" t="s">
         <v>2262</v>
       </c>
@@ -36434,7 +36435,7 @@
       </c>
       <c r="O601" s="18"/>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="18" t="s">
         <v>2264</v>
       </c>
@@ -36477,7 +36478,7 @@
       </c>
       <c r="O602" s="18"/>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="18" t="s">
         <v>2265</v>
       </c>
@@ -36520,7 +36521,7 @@
       </c>
       <c r="O603" s="18"/>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="18" t="s">
         <v>2266</v>
       </c>
@@ -36565,7 +36566,7 @@
       </c>
       <c r="O604" s="18"/>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="18" t="s">
         <v>2267</v>
       </c>
@@ -36610,7 +36611,7 @@
       </c>
       <c r="O605" s="18"/>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="18" t="s">
         <v>2268</v>
       </c>
@@ -36653,7 +36654,7 @@
       </c>
       <c r="O606" s="18"/>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="18" t="s">
         <v>2270</v>
       </c>
@@ -36696,7 +36697,7 @@
       </c>
       <c r="O607" s="18"/>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="18" t="s">
         <v>2271</v>
       </c>
@@ -36739,7 +36740,7 @@
       </c>
       <c r="O608" s="18"/>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="18" t="s">
         <v>2273</v>
       </c>
@@ -36782,7 +36783,7 @@
       </c>
       <c r="O609" s="18"/>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="18" t="s">
         <v>2274</v>
       </c>
@@ -36825,7 +36826,7 @@
       </c>
       <c r="O610" s="18"/>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="18" t="s">
         <v>2275</v>
       </c>
@@ -36868,21 +36869,21 @@
       </c>
       <c r="O611" s="18"/>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B612" t="s">
         <v>139</v>
       </c>
       <c r="C612" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D612" t="s">
         <v>1761</v>
       </c>
       <c r="E612" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="F612" t="s">
         <v>5</v>
@@ -36909,21 +36910,21 @@
         <v>405</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B613" t="s">
         <v>139</v>
       </c>
       <c r="C613" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D613" t="s">
         <v>1761</v>
       </c>
       <c r="E613" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="F613" t="s">
         <v>5</v>
@@ -36950,21 +36951,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B614" t="s">
         <v>139</v>
       </c>
       <c r="C614" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D614" t="s">
         <v>1761</v>
       </c>
       <c r="E614" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="F614" t="s">
         <v>2</v>
@@ -36991,21 +36992,21 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B615" t="s">
         <v>139</v>
       </c>
       <c r="C615" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D615" t="s">
         <v>1761</v>
       </c>
       <c r="E615" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F615" t="s">
         <v>334</v>
@@ -37032,21 +37033,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B616" t="s">
         <v>139</v>
       </c>
       <c r="C616" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D616" t="s">
         <v>1761</v>
       </c>
       <c r="E616" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F616" t="s">
         <v>6</v>
@@ -37073,21 +37074,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B617" t="s">
         <v>139</v>
       </c>
       <c r="C617" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D617" t="s">
         <v>1761</v>
       </c>
       <c r="E617" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="F617" t="s">
         <v>4</v>
@@ -37117,15 +37118,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B618" t="s">
         <v>139</v>
       </c>
       <c r="C618" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D618" t="s">
         <v>537</v>
@@ -37158,15 +37159,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B619" t="s">
         <v>139</v>
       </c>
       <c r="C619" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D619" t="s">
         <v>537</v>
@@ -37202,15 +37203,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B620" t="s">
         <v>139</v>
       </c>
       <c r="C620" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D620" t="s">
         <v>537</v>
@@ -37246,15 +37247,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B621" t="s">
         <v>139</v>
       </c>
       <c r="C621" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D621" t="s">
         <v>317</v>
@@ -37287,15 +37288,15 @@
         <v>646</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B622" t="s">
         <v>139</v>
       </c>
       <c r="C622" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D622" t="s">
         <v>317</v>
@@ -37328,15 +37329,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B623" t="s">
         <v>139</v>
       </c>
       <c r="C623" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D623" t="s">
         <v>317</v>
@@ -37369,21 +37370,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B624" t="s">
         <v>139</v>
       </c>
       <c r="C624" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D624" t="s">
         <v>1761</v>
       </c>
       <c r="E624" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="F624" t="s">
         <v>2</v>
@@ -37410,21 +37411,21 @@
         <v>734</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B625" t="s">
         <v>139</v>
       </c>
       <c r="C625" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D625" t="s">
         <v>1761</v>
       </c>
       <c r="E625" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="F625" t="s">
         <v>3</v>
@@ -37451,21 +37452,21 @@
         <v>734</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B626" t="s">
         <v>139</v>
       </c>
       <c r="C626" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D626" t="s">
         <v>1761</v>
       </c>
       <c r="E626" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F626" t="s">
         <v>334</v>
@@ -37492,21 +37493,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B627" t="s">
         <v>139</v>
       </c>
       <c r="C627" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D627" t="s">
         <v>1761</v>
       </c>
       <c r="E627" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="F627" t="s">
         <v>5</v>
@@ -37533,21 +37534,21 @@
         <v>734</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B628" t="s">
         <v>139</v>
       </c>
       <c r="C628" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D628" t="s">
         <v>1761</v>
       </c>
       <c r="E628" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="F628" t="s">
         <v>2</v>
@@ -37574,21 +37575,21 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B629" t="s">
         <v>139</v>
       </c>
       <c r="C629" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D629" t="s">
         <v>1761</v>
       </c>
       <c r="E629" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="F629" t="s">
         <v>3</v>
@@ -37612,24 +37613,24 @@
         <v>0</v>
       </c>
       <c r="N629" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
         <v>2575</v>
-      </c>
-    </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A630" t="s">
-        <v>2576</v>
       </c>
       <c r="B630" t="s">
         <v>139</v>
       </c>
       <c r="C630" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D630" t="s">
         <v>1761</v>
       </c>
       <c r="E630" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="F630" t="s">
         <v>3</v>
@@ -37656,15 +37657,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B631" t="s">
         <v>139</v>
       </c>
       <c r="C631" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D631" t="s">
         <v>1761</v>
@@ -37697,21 +37698,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B632" t="s">
         <v>139</v>
       </c>
       <c r="C632" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D632" t="s">
         <v>1761</v>
       </c>
       <c r="E632" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F632" t="s">
         <v>334</v>
@@ -37738,15 +37739,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B633" t="s">
         <v>139</v>
       </c>
       <c r="C633" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D633" t="s">
         <v>1761</v>
@@ -37782,15 +37783,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B634" t="s">
         <v>139</v>
       </c>
       <c r="C634" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D634" t="s">
         <v>1761</v>
@@ -37826,15 +37827,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B635" t="s">
         <v>139</v>
       </c>
       <c r="C635" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D635" t="s">
         <v>1761</v>
@@ -37870,21 +37871,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B636" t="s">
         <v>245</v>
       </c>
       <c r="C636" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D636" t="s">
         <v>1761</v>
       </c>
       <c r="E636" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="F636" t="s">
         <v>2</v>
@@ -37908,24 +37909,24 @@
         <v>0</v>
       </c>
       <c r="N636" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
         <v>2586</v>
-      </c>
-    </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A637" t="s">
-        <v>2587</v>
       </c>
       <c r="B637" t="s">
         <v>245</v>
       </c>
       <c r="C637" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D637" t="s">
         <v>1761</v>
       </c>
       <c r="E637" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F637" t="s">
         <v>2</v>
@@ -37952,21 +37953,21 @@
         <v>405</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B638" t="s">
         <v>245</v>
       </c>
       <c r="C638" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D638" t="s">
         <v>1761</v>
       </c>
       <c r="E638" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F638" t="s">
         <v>3</v>
@@ -37993,21 +37994,21 @@
         <v>961</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B639" t="s">
         <v>245</v>
       </c>
       <c r="C639" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D639" t="s">
         <v>1761</v>
       </c>
       <c r="E639" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F639" t="s">
         <v>3</v>
@@ -38034,21 +38035,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B640" t="s">
         <v>245</v>
       </c>
       <c r="C640" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D640" t="s">
         <v>1761</v>
       </c>
       <c r="E640" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F640" t="s">
         <v>3</v>
@@ -38075,21 +38076,21 @@
         <v>646</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B641" t="s">
         <v>245</v>
       </c>
       <c r="C641" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D641" t="s">
         <v>1761</v>
       </c>
       <c r="E641" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F641" t="s">
         <v>3</v>
@@ -38116,21 +38117,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B642" t="s">
         <v>245</v>
       </c>
       <c r="C642" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D642" t="s">
         <v>1761</v>
       </c>
       <c r="E642" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="F642" t="s">
         <v>3</v>
@@ -38154,24 +38155,24 @@
         <v>0</v>
       </c>
       <c r="N642" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A643" t="s">
-        <v>2600</v>
       </c>
       <c r="B643" t="s">
         <v>245</v>
       </c>
       <c r="C643" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D643" t="s">
         <v>1761</v>
       </c>
       <c r="E643" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="F643" t="s">
         <v>6</v>
@@ -38198,21 +38199,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B644" t="s">
         <v>245</v>
       </c>
       <c r="C644" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D644" t="s">
         <v>1761</v>
       </c>
       <c r="E644" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="F644" t="s">
         <v>6</v>
@@ -38236,24 +38237,24 @@
         <v>0</v>
       </c>
       <c r="N644" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
         <v>2604</v>
-      </c>
-    </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A645" t="s">
-        <v>2605</v>
       </c>
       <c r="B645" t="s">
         <v>245</v>
       </c>
       <c r="C645" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D645" t="s">
         <v>1761</v>
       </c>
       <c r="E645" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="F645" t="s">
         <v>4</v>
@@ -38283,21 +38284,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B646" t="s">
         <v>245</v>
       </c>
       <c r="C646" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D646" t="s">
         <v>1761</v>
       </c>
       <c r="E646" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="F646" t="s">
         <v>4</v>
@@ -38327,21 +38328,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B647" t="s">
         <v>245</v>
       </c>
       <c r="C647" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D647" t="s">
         <v>1761</v>
       </c>
       <c r="E647" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F647" t="s">
         <v>4</v>
@@ -38371,21 +38372,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B648" t="s">
         <v>245</v>
       </c>
       <c r="C648" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D648" t="s">
         <v>1761</v>
       </c>
       <c r="E648" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F648" t="s">
         <v>4</v>
@@ -38415,15 +38416,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B649" t="s">
         <v>245</v>
       </c>
       <c r="C649" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D649" t="s">
         <v>305</v>
@@ -38456,15 +38457,15 @@
         <v>702</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B650" t="s">
         <v>245</v>
       </c>
       <c r="C650" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D650" t="s">
         <v>305</v>
@@ -38500,21 +38501,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B651" t="s">
         <v>245</v>
       </c>
       <c r="C651" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D651" t="s">
         <v>1761</v>
       </c>
       <c r="E651" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="F651" t="s">
         <v>5</v>
@@ -38538,24 +38539,24 @@
         <v>0</v>
       </c>
       <c r="N651" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
         <v>2618</v>
-      </c>
-    </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A652" t="s">
-        <v>2619</v>
       </c>
       <c r="B652" t="s">
         <v>245</v>
       </c>
       <c r="C652" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D652" t="s">
         <v>1761</v>
       </c>
       <c r="E652" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="F652" t="s">
         <v>2</v>
@@ -38579,24 +38580,24 @@
         <v>0</v>
       </c>
       <c r="N652" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B653" t="s">
         <v>245</v>
       </c>
       <c r="C653" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D653" t="s">
         <v>1761</v>
       </c>
       <c r="E653" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F653" t="s">
         <v>3</v>
@@ -38623,21 +38624,21 @@
         <v>961</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B654" t="s">
         <v>245</v>
       </c>
       <c r="C654" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D654" t="s">
         <v>1761</v>
       </c>
       <c r="E654" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F654" t="s">
         <v>3</v>
@@ -38664,21 +38665,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B655" t="s">
         <v>245</v>
       </c>
       <c r="C655" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D655" t="s">
         <v>1761</v>
       </c>
       <c r="E655" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="F655" t="s">
         <v>3</v>
@@ -38702,24 +38703,24 @@
         <v>0</v>
       </c>
       <c r="N655" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B656" t="s">
         <v>245</v>
       </c>
       <c r="C656" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D656" t="s">
         <v>1761</v>
       </c>
       <c r="E656" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="F656" t="s">
         <v>3</v>
@@ -38743,24 +38744,24 @@
         <v>0</v>
       </c>
       <c r="N656" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
         <v>2625</v>
-      </c>
-    </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A657" t="s">
-        <v>2626</v>
       </c>
       <c r="B657" t="s">
         <v>245</v>
       </c>
       <c r="C657" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D657" t="s">
         <v>1761</v>
       </c>
       <c r="E657" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="F657" t="s">
         <v>6</v>
@@ -38787,21 +38788,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B658" t="s">
         <v>245</v>
       </c>
       <c r="C658" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D658" t="s">
         <v>1761</v>
       </c>
       <c r="E658" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="F658" t="s">
         <v>6</v>
@@ -38825,24 +38826,24 @@
         <v>0</v>
       </c>
       <c r="N658" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B659" t="s">
         <v>245</v>
       </c>
       <c r="C659" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D659" t="s">
         <v>1761</v>
       </c>
       <c r="E659" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="F659" t="s">
         <v>4</v>
@@ -38872,21 +38873,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B660" t="s">
         <v>245</v>
       </c>
       <c r="C660" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D660" t="s">
         <v>1761</v>
       </c>
       <c r="E660" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="F660" t="s">
         <v>4</v>
@@ -38916,21 +38917,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B661" t="s">
         <v>245</v>
       </c>
       <c r="C661" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D661" t="s">
         <v>1761</v>
       </c>
       <c r="E661" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="F661" t="s">
         <v>4</v>
@@ -38960,21 +38961,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B662" t="s">
         <v>245</v>
       </c>
       <c r="C662" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D662" t="s">
         <v>1761</v>
       </c>
       <c r="E662" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F662" t="s">
         <v>4</v>
@@ -39004,15 +39005,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B663" t="s">
         <v>245</v>
       </c>
       <c r="C663" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D663" t="s">
         <v>305</v>
@@ -39048,21 +39049,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B664" t="s">
         <v>245</v>
       </c>
       <c r="C664" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D664" t="s">
         <v>1761</v>
       </c>
       <c r="E664" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="F664" t="s">
         <v>2</v>
@@ -39089,21 +39090,21 @@
         <v>405</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B665" t="s">
         <v>245</v>
       </c>
       <c r="C665" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D665" t="s">
         <v>1761</v>
       </c>
       <c r="E665" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F665" t="s">
         <v>3</v>
@@ -39130,21 +39131,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B666" t="s">
         <v>245</v>
       </c>
       <c r="C666" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D666" t="s">
         <v>1761</v>
       </c>
       <c r="E666" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="F666" t="s">
         <v>3</v>
@@ -39168,24 +39169,24 @@
         <v>0</v>
       </c>
       <c r="N666" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B667" t="s">
         <v>245</v>
       </c>
       <c r="C667" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D667" t="s">
         <v>1761</v>
       </c>
       <c r="E667" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="F667" t="s">
         <v>6</v>
@@ -39212,21 +39213,21 @@
         <v>324</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B668" t="s">
         <v>245</v>
       </c>
       <c r="C668" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D668" t="s">
         <v>1761</v>
       </c>
       <c r="E668" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="F668" t="s">
         <v>4</v>
@@ -39256,21 +39257,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B669" t="s">
         <v>245</v>
       </c>
       <c r="C669" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D669" t="s">
         <v>1761</v>
       </c>
       <c r="E669" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="F669" t="s">
         <v>4</v>
@@ -39300,21 +39301,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B670" t="s">
         <v>245</v>
       </c>
       <c r="C670" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D670" t="s">
         <v>1761</v>
       </c>
       <c r="E670" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="F670" t="s">
         <v>4</v>
@@ -39344,21 +39345,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B671" t="s">
         <v>245</v>
       </c>
       <c r="C671" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D671" t="s">
         <v>1761</v>
       </c>
       <c r="E671" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="F671" t="s">
         <v>4</v>
@@ -39388,21 +39389,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B672" t="s">
         <v>245</v>
       </c>
       <c r="C672" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D672" t="s">
         <v>1761</v>
       </c>
       <c r="E672" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="F672" t="s">
         <v>2</v>
@@ -39426,24 +39427,24 @@
         <v>0</v>
       </c>
       <c r="N672" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B673" t="s">
         <v>245</v>
       </c>
       <c r="C673" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D673" t="s">
         <v>1761</v>
       </c>
       <c r="E673" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="F673" t="s">
         <v>2</v>
@@ -39470,21 +39471,21 @@
         <v>503</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B674" t="s">
         <v>245</v>
       </c>
       <c r="C674" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D674" t="s">
         <v>1761</v>
       </c>
       <c r="E674" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="F674" t="s">
         <v>4</v>
@@ -39514,21 +39515,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B675" t="s">
         <v>245</v>
       </c>
       <c r="C675" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D675" t="s">
         <v>1761</v>
       </c>
       <c r="E675" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="F675" t="s">
         <v>4</v>
@@ -39558,15 +39559,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B676" t="s">
         <v>245</v>
       </c>
       <c r="C676" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D676" t="s">
         <v>1903</v>
@@ -39602,21 +39603,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B677" t="s">
         <v>245</v>
       </c>
       <c r="C677" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D677" t="s">
         <v>1761</v>
       </c>
       <c r="E677" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F677" t="s">
         <v>2</v>
@@ -39643,21 +39644,21 @@
         <v>405</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B678" t="s">
         <v>245</v>
       </c>
       <c r="C678" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D678" t="s">
         <v>1761</v>
       </c>
       <c r="E678" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F678" t="s">
         <v>3</v>
@@ -39684,21 +39685,21 @@
         <v>646</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B679" t="s">
         <v>245</v>
       </c>
       <c r="C679" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D679" t="s">
         <v>1761</v>
       </c>
       <c r="E679" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F679" t="s">
         <v>3</v>
@@ -39725,21 +39726,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B680" t="s">
         <v>245</v>
       </c>
       <c r="C680" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D680" t="s">
         <v>1761</v>
       </c>
       <c r="E680" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F680" t="s">
         <v>3</v>
@@ -39766,21 +39767,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B681" t="s">
         <v>245</v>
       </c>
       <c r="C681" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D681" t="s">
         <v>1761</v>
       </c>
       <c r="E681" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="F681" t="s">
         <v>4</v>
@@ -39810,21 +39811,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B682" t="s">
         <v>245</v>
       </c>
       <c r="C682" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D682" t="s">
         <v>1761</v>
       </c>
       <c r="E682" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="F682" t="s">
         <v>4</v>
@@ -39854,21 +39855,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B683" t="s">
         <v>245</v>
       </c>
       <c r="C683" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D683" t="s">
         <v>1761</v>
       </c>
       <c r="E683" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="F683" t="s">
         <v>4</v>
@@ -39898,21 +39899,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B684" t="s">
         <v>245</v>
       </c>
       <c r="C684" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D684" t="s">
         <v>1761</v>
       </c>
       <c r="E684" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="F684" t="s">
         <v>4</v>
@@ -39942,9 +39943,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="18" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B685" s="18" t="s">
         <v>139</v>
@@ -40729,7 +40730,13 @@
       <c r="M738" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O685" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}"/>
+  <autoFilter ref="A1:O685" xr:uid="{7E32720F-3682-46D9-B418-543447137BE7}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Bard's Family"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K606">
     <sortCondition ref="C2:C606"/>
     <sortCondition ref="F2:F606"/>
@@ -41465,7 +41472,7 @@
         <v>120</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F39" s="15" t="b">
         <v>1</v>
@@ -41562,7 +41569,7 @@
         <v>120</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F44" s="15" t="b">
         <v>1</v>
@@ -43997,7 +44004,7 @@
         <v>150</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F185" s="15" t="b">
         <v>1</v>
@@ -44129,7 +44136,7 @@
         <v>90</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F192" s="15" t="b">
         <v>1</v>
@@ -44748,7 +44755,7 @@
         <v>120</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F229" s="15" t="b">
         <v>1</v>
@@ -44806,7 +44813,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F232" s="15" t="b">
         <v>1</v>
@@ -45174,7 +45181,7 @@
         <v>120</v>
       </c>
       <c r="E254" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F254" s="15" t="b">
         <v>1</v>
@@ -45340,7 +45347,7 @@
         <v>150</v>
       </c>
       <c r="E264" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F264" s="15" t="b">
         <v>1</v>
@@ -45434,7 +45441,7 @@
         <v>120</v>
       </c>
       <c r="E269" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F269" s="15" t="b">
         <v>1</v>
@@ -46536,7 +46543,7 @@
         <v>120</v>
       </c>
       <c r="E333" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F333" s="15" t="b">
         <v>1</v>
@@ -46597,7 +46604,7 @@
         <v>90</v>
       </c>
       <c r="E336" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F336" s="15" t="b">
         <v>1</v>
@@ -47450,7 +47457,7 @@
         <v>651</v>
       </c>
       <c r="G387" s="17" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
@@ -48326,7 +48333,7 @@
         <v>956</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D434" s="15">
         <v>0</v>
@@ -53921,13 +53928,13 @@
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A777" s="15" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B777" s="18" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C777" s="15" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="D777" s="15">
         <v>30</v>
@@ -53941,10 +53948,10 @@
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A778" s="15" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B778" s="18" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C778" s="15" t="s">
         <v>336</v>
@@ -53961,10 +53968,10 @@
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A779" s="15" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B779" s="18" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C779" s="15" t="s">
         <v>59</v>
@@ -53975,10 +53982,10 @@
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A780" s="15" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B780" s="18" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C780" s="15" t="s">
         <v>396</v>
@@ -53989,10 +53996,10 @@
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A781" s="15" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B781" s="18" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C781" s="15" t="s">
         <v>395</v>
@@ -54003,10 +54010,10 @@
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A782" s="15" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B782" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C782" s="15" t="s">
         <v>1111</v>
@@ -54017,10 +54024,10 @@
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A783" s="15" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B783" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C783" s="15" t="s">
         <v>45</v>
@@ -54031,10 +54038,10 @@
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A784" s="15" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B784" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C784" s="15" t="s">
         <v>422</v>
@@ -54045,10 +54052,10 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" s="15" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B785" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C785" s="15" t="s">
         <v>56</v>
@@ -54059,10 +54066,10 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" s="15" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B786" s="18" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C786" s="15" t="s">
         <v>58</v>
@@ -54076,10 +54083,10 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" s="15" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B787" s="18" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C787" s="15" t="s">
         <v>1112</v>
@@ -54090,10 +54097,10 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" s="15" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B788" s="18" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C788" s="15" t="s">
         <v>56</v>
@@ -54104,10 +54111,10 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" s="15" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B789" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C789" s="15" t="s">
         <v>45</v>
@@ -54118,10 +54125,10 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" s="15" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B790" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C790" s="15" t="s">
         <v>339</v>
@@ -54135,10 +54142,10 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" s="15" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B791" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C791" s="15" t="s">
         <v>340</v>
@@ -54149,10 +54156,10 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" s="15" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B792" s="18" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C792" s="15" t="s">
         <v>56</v>
@@ -54163,10 +54170,10 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" s="15" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B793" s="18" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C793" s="15" t="s">
         <v>59</v>
@@ -54177,10 +54184,10 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" s="15" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B794" s="18" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C794" s="15" t="s">
         <v>396</v>
@@ -54191,10 +54198,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" s="15" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B795" s="18" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C795" s="15" t="s">
         <v>59</v>
@@ -54205,10 +54212,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" s="15" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B796" s="18" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C796" s="15" t="s">
         <v>396</v>
@@ -54219,10 +54226,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" s="15" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B797" s="18" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C797" s="15" t="s">
         <v>1772</v>
@@ -54233,10 +54240,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" s="15" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B798" s="18" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C798" s="15" t="s">
         <v>45</v>
@@ -54247,10 +54254,10 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" s="15" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B799" s="18" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C799" s="15" t="s">
         <v>395</v>
@@ -54261,10 +54268,10 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" s="15" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B800" s="18" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C800" s="15" t="s">
         <v>396</v>
@@ -54275,10 +54282,10 @@
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A801" s="15" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B801" s="18" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C801" s="15" t="s">
         <v>45</v>
@@ -54289,10 +54296,10 @@
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A802" s="15" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B802" s="18" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C802" s="15" t="s">
         <v>1095</v>
@@ -54306,10 +54313,10 @@
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A803" s="15" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B803" s="18" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C803" s="15" t="s">
         <v>56</v>
@@ -54320,10 +54327,10 @@
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A804" s="15" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B804" s="18" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C804" s="15" t="s">
         <v>396</v>
@@ -54334,10 +54341,10 @@
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A805" s="15" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B805" s="18" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C805" s="15" t="s">
         <v>421</v>
@@ -54348,10 +54355,10 @@
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A806" s="15" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B806" s="18" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C806" s="15" t="s">
         <v>205</v>
@@ -54365,10 +54372,10 @@
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A807" s="15" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B807" s="18" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C807" s="15" t="s">
         <v>1095</v>
@@ -54382,10 +54389,10 @@
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A808" s="15" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B808" s="18" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C808" s="15" t="s">
         <v>56</v>
@@ -54396,10 +54403,10 @@
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A809" s="15" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B809" s="18" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C809" s="15" t="s">
         <v>202</v>
@@ -54413,10 +54420,10 @@
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A810" s="15" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B810" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C810" s="15" t="s">
         <v>45</v>
@@ -54427,10 +54434,10 @@
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A811" s="15" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B811" s="18" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C811" s="15" t="s">
         <v>396</v>
@@ -54441,10 +54448,10 @@
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A812" s="15" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B812" s="18" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C812" s="15" t="s">
         <v>1096</v>
@@ -54453,7 +54460,7 @@
         <v>150</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F812" s="15" t="b">
         <v>1</v>
@@ -54461,10 +54468,10 @@
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A813" s="15" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B813" s="18" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C813" s="15" t="s">
         <v>29</v>
@@ -54481,10 +54488,10 @@
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A814" s="15" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B814" s="18" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C814" s="15" t="s">
         <v>314</v>
@@ -54495,10 +54502,10 @@
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A815" s="15" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B815" s="18" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C815" s="15" t="s">
         <v>45</v>
@@ -54509,10 +54516,10 @@
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A816" s="15" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B816" s="18" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C816" s="15" t="s">
         <v>1095</v>
@@ -54526,10 +54533,10 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817" s="15" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B817" s="18" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C817" s="15" t="s">
         <v>56</v>
@@ -54540,10 +54547,10 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="15" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B818" s="18" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C818" s="15" t="s">
         <v>396</v>
@@ -54554,10 +54561,10 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="15" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B819" s="18" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C819" s="15" t="s">
         <v>421</v>
@@ -54568,10 +54575,10 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="15" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B820" s="18" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C820" s="15" t="s">
         <v>205</v>
@@ -54585,10 +54592,10 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" s="15" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B821" s="18" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C821" s="15" t="s">
         <v>1095</v>
@@ -54602,10 +54609,10 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A822" s="15" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B822" s="18" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C822" s="15" t="s">
         <v>56</v>
@@ -54616,10 +54623,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A823" s="15" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B823" s="18" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C823" s="15" t="s">
         <v>202</v>
@@ -54633,10 +54640,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A824" s="15" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B824" s="18" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C824" s="15" t="s">
         <v>45</v>
@@ -54647,10 +54654,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825" s="15" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B825" s="18" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C825" s="15" t="s">
         <v>1095</v>
@@ -54664,10 +54671,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A826" s="15" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B826" s="18" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C826" s="15" t="s">
         <v>56</v>
@@ -54678,10 +54685,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A827" s="15" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B827" s="18" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C827" s="15" t="s">
         <v>396</v>
@@ -54692,10 +54699,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="15" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B828" s="18" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C828" s="15" t="s">
         <v>421</v>
@@ -54706,10 +54713,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829" s="15" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B829" s="18" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C829" s="15" t="s">
         <v>205</v>
@@ -54723,10 +54730,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A830" s="15" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B830" s="18" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C830" s="15" t="s">
         <v>1095</v>
@@ -54740,10 +54747,10 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A831" s="15" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B831" s="18" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C831" s="15" t="s">
         <v>56</v>
@@ -54754,10 +54761,10 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A832" s="15" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B832" s="18" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C832" s="15" t="s">
         <v>202</v>
@@ -54771,10 +54778,10 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A833" s="15" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B833" s="18" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="C833" s="15" t="s">
         <v>45</v>
@@ -54785,10 +54792,10 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A834" s="15" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B834" s="18" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="C834" s="15" t="s">
         <v>396</v>
@@ -54799,10 +54806,10 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A835" s="15" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B835" s="18" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C835" s="15" t="s">
         <v>45</v>
@@ -54813,10 +54820,10 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A836" s="15" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B836" s="18" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C836" s="15" t="s">
         <v>1095</v>
@@ -54830,10 +54837,10 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A837" s="15" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B837" s="18" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C837" s="15" t="s">
         <v>56</v>
@@ -54844,10 +54851,10 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A838" s="15" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B838" s="18" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C838" s="15" t="s">
         <v>396</v>
@@ -54858,10 +54865,10 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A839" s="15" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B839" s="18" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C839" s="15" t="s">
         <v>421</v>
@@ -54872,10 +54879,10 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A840" s="15" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B840" s="18" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C840" s="15" t="s">
         <v>205</v>
@@ -54889,10 +54896,10 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A841" s="15" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B841" s="18" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C841" s="15" t="s">
         <v>1095</v>
@@ -54906,10 +54913,10 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A842" s="15" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B842" s="18" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C842" s="15" t="s">
         <v>56</v>
@@ -54920,10 +54927,10 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A843" s="15" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B843" s="18" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C843" s="15" t="s">
         <v>202</v>
@@ -54937,13 +54944,13 @@
     </row>
     <row r="844" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A844" s="15" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B844" s="18" t="s">
         <v>2073</v>
       </c>
       <c r="C844" s="6" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D844" s="6">
         <v>1</v>
@@ -54952,18 +54959,18 @@
         <v>651</v>
       </c>
       <c r="G844" s="16" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="845" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A845" s="15" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B845" s="18" t="s">
         <v>2160</v>
       </c>
       <c r="C845" s="6" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="D845" s="6">
         <v>1</v>
@@ -54972,15 +54979,15 @@
         <v>651</v>
       </c>
       <c r="G845" s="16" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A846" s="15" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B846" s="18" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C846" s="15" t="s">
         <v>45</v>
@@ -54992,10 +54999,10 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A847" s="15" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B847" s="18" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C847" s="15" t="s">
         <v>395</v>
@@ -55007,10 +55014,10 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A848" s="15" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B848" s="18" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="C848" s="15" t="s">
         <v>396</v>
@@ -59938,7 +59945,7 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -60937,7 +60944,7 @@
     </row>
     <row r="102" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>76</v>
@@ -61341,7 +61348,7 @@
         <v>1597</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -61495,7 +61502,7 @@
     </row>
     <row r="9" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>532</v>
@@ -61553,7 +61560,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -61576,7 +61583,7 @@
         <v>0.66</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -61597,7 +61604,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="290" x14ac:dyDescent="0.35">
@@ -61639,7 +61646,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="145" x14ac:dyDescent="0.35">
@@ -61702,7 +61709,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
@@ -61723,7 +61730,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -61786,7 +61793,7 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
@@ -61807,7 +61814,7 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -61849,7 +61856,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
@@ -61870,7 +61877,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -61891,7 +61898,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -61912,7 +61919,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="348" x14ac:dyDescent="0.35">
@@ -61977,7 +61984,7 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="319" x14ac:dyDescent="0.35">
@@ -62124,7 +62131,7 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -62145,7 +62152,7 @@
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
@@ -62166,7 +62173,7 @@
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
@@ -62271,7 +62278,7 @@
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="261" x14ac:dyDescent="0.35">
@@ -62292,7 +62299,7 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="116" x14ac:dyDescent="0.35">
@@ -62376,7 +62383,7 @@
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -62397,7 +62404,7 @@
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -62418,7 +62425,7 @@
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -62439,7 +62446,7 @@
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -62460,7 +62467,7 @@
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -62544,7 +62551,7 @@
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="319" x14ac:dyDescent="0.35">
@@ -62607,7 +62614,7 @@
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -62628,7 +62635,7 @@
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -62775,18 +62782,18 @@
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C70" s="16" t="s">
         <v>2729</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>2730</v>
       </c>
       <c r="D70" s="18">
         <v>0.33</v>
@@ -62796,18 +62803,18 @@
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>2731</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>2732</v>
       </c>
       <c r="D71" s="18">
         <v>0.33</v>
@@ -62822,13 +62829,13 @@
     </row>
     <row r="72" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>2733</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>2734</v>
       </c>
       <c r="D72" s="18">
         <v>0.33</v>
@@ -62843,13 +62850,13 @@
     </row>
     <row r="73" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>2735</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>2736</v>
       </c>
       <c r="D73" s="18">
         <v>0.33</v>
@@ -62859,18 +62866,18 @@
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D74" s="18">
         <v>0.33</v>
@@ -62880,18 +62887,18 @@
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>2738</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>2739</v>
       </c>
       <c r="D75" s="18">
         <v>0.33</v>
@@ -62901,18 +62908,18 @@
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>2740</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>2741</v>
       </c>
       <c r="D76" s="18">
         <v>0.33</v>
@@ -62927,13 +62934,13 @@
     </row>
     <row r="77" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>2742</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>2743</v>
       </c>
       <c r="D77" s="18">
         <v>0.33</v>
@@ -63186,7 +63193,7 @@
         <v>351</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>61</v>
@@ -63197,7 +63204,7 @@
         <v>352</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>61</v>
@@ -63208,7 +63215,7 @@
         <v>353</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>61</v>
@@ -63241,7 +63248,7 @@
         <v>362</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>61</v>
@@ -63252,7 +63259,7 @@
         <v>364</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>61</v>
@@ -63263,7 +63270,7 @@
         <v>367</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>61</v>
@@ -63274,7 +63281,7 @@
         <v>1712</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>61</v>
@@ -63285,7 +63292,7 @@
         <v>369</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>61</v>
@@ -63978,7 +63985,7 @@
         <v>737</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>61</v>
@@ -65826,7 +65833,7 @@
         <v>1733</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C260" s="15" t="s">
         <v>61</v>
@@ -65859,7 +65866,7 @@
         <v>1740</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>61</v>
@@ -65936,7 +65943,7 @@
         <v>1901</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>61</v>
@@ -65947,7 +65954,7 @@
         <v>1905</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>61</v>
@@ -65958,7 +65965,7 @@
         <v>1907</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>61</v>
@@ -65969,7 +65976,7 @@
         <v>1909</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>61</v>
@@ -66874,7 +66881,7 @@
         <v>2443</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -67050,7 +67057,7 @@
         <v>2447</v>
       </c>
       <c r="C371" s="15" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -67935,10 +67942,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B452" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="C452" t="s">
         <v>61</v>
@@ -67946,10 +67953,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B453" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="C453" t="s">
         <v>61</v>
@@ -67957,10 +67964,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B454" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="C454" t="s">
         <v>61</v>
@@ -67968,10 +67975,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B455" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="C455" t="s">
         <v>61</v>
@@ -67979,10 +67986,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B456" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="C456" t="s">
         <v>61</v>
@@ -67990,10 +67997,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B457" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="C457" t="s">
         <v>61</v>
@@ -68001,10 +68008,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B458" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="C458" t="s">
         <v>61</v>
@@ -68012,10 +68019,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B459" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C459" t="s">
         <v>61</v>
@@ -68023,10 +68030,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B460" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C460" t="s">
         <v>61</v>
@@ -68034,7 +68041,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B461" t="s">
         <v>61</v>
@@ -68045,10 +68052,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B462" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C462" t="s">
         <v>61</v>
@@ -68056,10 +68063,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B463" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C463" t="s">
         <v>61</v>
@@ -68067,10 +68074,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B464" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C464" t="s">
         <v>61</v>
@@ -68078,10 +68085,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B465" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C465" t="s">
         <v>61</v>
@@ -68089,10 +68096,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B466" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C466" t="s">
         <v>61</v>
@@ -68100,7 +68107,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B467" t="s">
         <v>61</v>
@@ -68111,10 +68118,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B468" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C468" t="s">
         <v>61</v>
@@ -68122,10 +68129,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B469" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C469" t="s">
         <v>61</v>
@@ -68133,10 +68140,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B470" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C470" t="s">
         <v>61</v>
@@ -68144,10 +68151,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B471" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C471" t="s">
         <v>61</v>
@@ -68155,10 +68162,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B472" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C472" t="s">
         <v>61</v>
@@ -68166,10 +68173,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B473" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C473" t="s">
         <v>61</v>
@@ -68177,10 +68184,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B474" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C474" t="s">
         <v>61</v>
@@ -68188,10 +68195,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B475" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C475" t="s">
         <v>61</v>
@@ -68199,10 +68206,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B476" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C476" t="s">
         <v>61</v>
@@ -68210,10 +68217,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B477" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C477" t="s">
         <v>61</v>
@@ -68221,10 +68228,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B478" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C478" t="s">
         <v>61</v>
@@ -68232,10 +68239,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B479" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C479" t="s">
         <v>61</v>
@@ -68243,10 +68250,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B480" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C480" t="s">
         <v>61</v>
@@ -68254,10 +68261,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B481" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C481" t="s">
         <v>61</v>
@@ -68265,10 +68272,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B482" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C482" t="s">
         <v>61</v>
@@ -68276,10 +68283,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B483" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C483" t="s">
         <v>61</v>
@@ -68287,10 +68294,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B484" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C484" t="s">
         <v>61</v>
@@ -68298,10 +68305,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B485" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C485" t="s">
         <v>61</v>
@@ -68309,10 +68316,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B486" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C486" t="s">
         <v>61</v>
@@ -68320,10 +68327,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B487" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C487" t="s">
         <v>61</v>
@@ -68331,10 +68338,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B488" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C488" t="s">
         <v>61</v>
@@ -68342,10 +68349,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B489" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C489" t="s">
         <v>61</v>
@@ -68353,10 +68360,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B490" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C490" t="s">
         <v>61</v>
@@ -68364,10 +68371,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B491" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C491" t="s">
         <v>61</v>
@@ -68375,10 +68382,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B492" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C492" t="s">
         <v>61</v>
@@ -68386,10 +68393,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B493" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C493" t="s">
         <v>61</v>
@@ -68397,10 +68404,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B494" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C494" t="s">
         <v>61</v>
@@ -68408,10 +68415,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B495" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C495" t="s">
         <v>61</v>
@@ -68537,7 +68544,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>275</v>
@@ -69307,114 +69314,114 @@
     </row>
     <row r="61" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B61" t="s">
         <v>275</v>
       </c>
       <c r="C61" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D61" t="s">
         <v>2755</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2756</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B62" t="s">
         <v>275</v>
       </c>
       <c r="C62" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D62" t="s">
         <v>2757</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B63" t="s">
         <v>275</v>
       </c>
       <c r="C63" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D63" t="s">
         <v>2759</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B64" t="s">
         <v>275</v>
       </c>
       <c r="C64" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D64" t="s">
         <v>2761</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B65" t="s">
         <v>275</v>
       </c>
       <c r="C65" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D65" t="s">
         <v>2763</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B66" t="s">
         <v>275</v>
       </c>
       <c r="C66" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D66" t="s">
         <v>2765</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B67" t="s">
         <v>275</v>
       </c>
       <c r="C67" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D67" t="s">
         <v>2767</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2768</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B68" t="s">
         <v>275</v>
       </c>
       <c r="C68" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D68" t="s">
         <v>2769</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
